--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research related\dev\LRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC34B65-C63F-4570-82AB-E8E7CD66683C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B42094-E88A-4525-B8EA-EEF52B0486BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5010" yWindow="3405" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TSP Benchmarking" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="89">
   <si>
     <t>a280</t>
   </si>
@@ -137,18 +137,6 @@
     <t>Size</t>
   </si>
   <si>
-    <t xml:space="preserve">                    :random_remove! , </t>
-  </si>
-  <si>
-    <t>                    :best_insert!   ,</t>
-  </si>
-  <si>
-    <t>                    :greedy_insert! ,</t>
-  </si>
-  <si>
-    <t>                    :opt!           ,</t>
-  </si>
-  <si>
     <t>        ρ   =   0.1                     ,</t>
   </si>
   <si>
@@ -161,12 +149,6 @@
     <t>    n = ceil(x, digits=-(length(digits(x))-1))</t>
   </si>
   <si>
-    <t>                    :shaw_remove!   ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    :worst_remove!   </t>
-  </si>
-  <si>
     <t>ALNS parameters</t>
   </si>
   <si>
@@ -245,9 +227,6 @@
     <t xml:space="preserve">                    :randomnode!    , </t>
   </si>
   <si>
-    <t>                    :relatedpair!   ,</t>
-  </si>
-  <si>
     <t xml:space="preserve">                    :relatednode!   , </t>
   </si>
   <si>
@@ -309,6 +288,21 @@
   </si>
   <si>
     <t>Initializtion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    :worstnode!   </t>
+  </si>
+  <si>
+    <t>                    :best!          ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    :randomnode!    , </t>
+  </si>
+  <si>
+    <t>                    :relatednode!   ,</t>
+  </si>
+  <si>
+    <t>                    :greedy!        ,</t>
   </si>
 </sst>
 </file>
@@ -830,8 +824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H280"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -849,7 +843,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="18"/>
@@ -867,16 +861,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -884,11 +878,11 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -896,35 +890,35 @@
     </row>
     <row r="6" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D10" s="1"/>
     </row>
@@ -936,7 +930,7 @@
     </row>
     <row r="12" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -944,39 +938,39 @@
     </row>
     <row r="13" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="14" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -986,19 +980,19 @@
     </row>
     <row r="18" spans="1:5" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B18" s="10"/>
     </row>
     <row r="19" spans="1:5" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B19" s="13"/>
     </row>
     <row r="20" spans="1:5" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B20" s="13"/>
     </row>
@@ -1010,13 +1004,13 @@
     </row>
     <row r="22" spans="1:5" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="28" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B22" s="13"/>
     </row>
     <row r="23" spans="1:5" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="28" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -1025,7 +1019,7 @@
     </row>
     <row r="24" spans="1:5" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="28" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -1034,7 +1028,7 @@
     </row>
     <row r="25" spans="1:5" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="28" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -1049,19 +1043,19 @@
     </row>
     <row r="27" spans="1:5" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="B27" s="13"/>
     </row>
     <row r="28" spans="1:5" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="B28" s="13"/>
     </row>
     <row r="29" spans="1:5" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="B29" s="13"/>
     </row>
@@ -1079,13 +1073,13 @@
     </row>
     <row r="32" spans="1:5" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="B32" s="13"/>
     </row>
     <row r="33" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="B33" s="13"/>
     </row>
@@ -1121,7 +1115,7 @@
     </row>
     <row r="39" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="B39" s="13"/>
     </row>
@@ -1259,7 +1253,7 @@
     </row>
     <row r="52" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B52" s="13"/>
       <c r="C52" s="11"/>
@@ -1293,7 +1287,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="20" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B55" s="9"/>
     </row>
@@ -1317,7 +1311,7 @@
         <v>6</v>
       </c>
       <c r="G56" s="21" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H56" s="21" t="s">
         <v>8</v>
@@ -1335,22 +1329,22 @@
         <v>33608.686972269541</v>
       </c>
       <c r="D57" s="4">
-        <v>33523.708507396703</v>
+        <v>33784.027009870399</v>
       </c>
       <c r="E57" s="3">
         <f>D57/C57-1</f>
-        <v>-2.5284672663039576E-3</v>
+        <v>5.217104665395933E-3</v>
       </c>
       <c r="F57" s="7">
-        <f>0.86/1000</f>
-        <v>8.5999999999999998E-4</v>
+        <f>0.8/1000</f>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="G57" s="1">
         <v>500</v>
       </c>
       <c r="H57" s="8">
         <f>F57 * G57</f>
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
@@ -1364,22 +1358,22 @@
         <v>629</v>
       </c>
       <c r="D58" s="6">
-        <v>652.72404948213</v>
+        <v>646.40529486032904</v>
       </c>
       <c r="E58" s="3">
         <f>D58/C58-1</f>
-        <v>3.7717089796708958E-2</v>
+        <v>2.7671374976675711E-2</v>
       </c>
       <c r="F58" s="5">
-        <f>6.94/1000</f>
-        <v>6.94E-3</v>
+        <f>6.6/1000</f>
+        <v>6.6E-3</v>
       </c>
       <c r="G58" s="1">
         <v>2000</v>
       </c>
       <c r="H58" s="8">
         <f t="shared" ref="H58:H61" si="0">F58 * G58</f>
-        <v>13.88</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
@@ -1393,22 +1387,22 @@
         <v>6528</v>
       </c>
       <c r="D59" s="4">
-        <v>6653.6477657224996</v>
+        <v>6600.64870573393</v>
       </c>
       <c r="E59" s="3">
         <f>D59/C59-1</f>
-        <v>1.9247513131510408E-2</v>
+        <v>1.1128784579339746E-2</v>
       </c>
       <c r="F59" s="5">
-        <f>21.61/1000</f>
-        <v>2.1610000000000001E-2</v>
+        <f>20.95/1000</f>
+        <v>2.095E-2</v>
       </c>
       <c r="G59" s="1">
         <v>2000</v>
       </c>
       <c r="H59" s="8">
         <f t="shared" si="0"/>
-        <v>43.22</v>
+        <v>41.9</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
@@ -1422,22 +1416,22 @@
         <v>15780</v>
       </c>
       <c r="D60" s="4">
-        <v>15869.118941082201</v>
+        <v>15832.880132533401</v>
       </c>
       <c r="E60" s="3">
         <f t="shared" ref="E60:E61" si="1">D60/C60-1</f>
-        <v>5.6475881547655149E-3</v>
+        <v>3.351085711875923E-3</v>
       </c>
       <c r="F60" s="5">
-        <f>35.38/1000</f>
-        <v>3.5380000000000002E-2</v>
+        <f>33.63/1000</f>
+        <v>3.363E-2</v>
       </c>
       <c r="G60" s="1">
         <v>2000</v>
       </c>
       <c r="H60" s="8">
         <f t="shared" si="0"/>
-        <v>70.760000000000005</v>
+        <v>67.260000000000005</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
@@ -1451,22 +1445,22 @@
         <v>2579</v>
       </c>
       <c r="D61" s="4">
-        <v>2648.5324440504901</v>
+        <v>2652.3536313617001</v>
       </c>
       <c r="E61" s="3">
         <f t="shared" si="1"/>
-        <v>2.69610097132571E-2</v>
+        <v>2.8442664351182589E-2</v>
       </c>
       <c r="F61" s="5">
-        <f>64.23/1000</f>
-        <v>6.4230000000000009E-2</v>
+        <f>60.29/1000</f>
+        <v>6.0289999999999996E-2</v>
       </c>
       <c r="G61" s="1">
         <v>3000</v>
       </c>
       <c r="H61" s="8">
         <f t="shared" si="0"/>
-        <v>192.69000000000003</v>
+        <v>180.86999999999998</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
@@ -2134,10 +2128,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24DC412A-E77F-4CFD-9D5D-B1480BEBE47D}">
-  <dimension ref="A1:U277"/>
+  <dimension ref="A1:U276"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="T38" sqref="T38"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2155,7 +2149,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="18"/>
@@ -2173,16 +2167,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -2190,11 +2184,11 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -2202,35 +2196,35 @@
     </row>
     <row r="6" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D10" s="1"/>
     </row>
@@ -2242,7 +2236,7 @@
     </row>
     <row r="12" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -2250,40 +2244,40 @@
     </row>
     <row r="13" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="14" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
@@ -2300,19 +2294,19 @@
     </row>
     <row r="18" spans="1:21" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B18" s="10"/>
     </row>
     <row r="19" spans="1:21" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B19" s="13"/>
     </row>
     <row r="20" spans="1:21" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B20" s="13"/>
     </row>
@@ -2324,13 +2318,13 @@
     </row>
     <row r="22" spans="1:21" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="28" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B22" s="13"/>
     </row>
     <row r="23" spans="1:21" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="28" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -2342,7 +2336,7 @@
     </row>
     <row r="24" spans="1:21" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="28" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -2354,7 +2348,7 @@
     </row>
     <row r="25" spans="1:21" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="28" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -2378,31 +2372,31 @@
     </row>
     <row r="27" spans="1:21" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B27" s="13"/>
     </row>
     <row r="28" spans="1:21" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B28" s="13"/>
     </row>
     <row r="29" spans="1:21" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B29" s="13"/>
     </row>
     <row r="30" spans="1:21" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B30" s="13"/>
     </row>
     <row r="31" spans="1:21" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B31" s="13"/>
     </row>
@@ -2414,55 +2408,63 @@
     </row>
     <row r="33" spans="1:21" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="B33" s="13"/>
     </row>
     <row r="34" spans="1:21" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B34" s="13"/>
     </row>
     <row r="35" spans="1:21" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="B35" s="13"/>
     </row>
     <row r="36" spans="1:21" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B36" s="13"/>
     </row>
     <row r="37" spans="1:21" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="B37" s="13"/>
     </row>
     <row r="38" spans="1:21" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B38" s="13"/>
     </row>
     <row r="39" spans="1:21" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B39" s="13"/>
     </row>
-    <row r="40" spans="1:21" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B40" s="13"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="T40" s="11"/>
+      <c r="U40" s="11"/>
     </row>
     <row r="41" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B41" s="13"/>
       <c r="C41" s="11"/>
@@ -2476,7 +2478,7 @@
     </row>
     <row r="42" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="14" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="B42" s="13"/>
       <c r="C42" s="11"/>
@@ -2490,7 +2492,7 @@
     </row>
     <row r="43" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B43" s="13"/>
       <c r="C43" s="11"/>
@@ -2504,7 +2506,7 @@
     </row>
     <row r="44" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B44" s="13"/>
       <c r="C44" s="11"/>
@@ -2518,7 +2520,7 @@
     </row>
     <row r="45" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="B45" s="13"/>
       <c r="C45" s="11"/>
@@ -2532,7 +2534,7 @@
     </row>
     <row r="46" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="14" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B46" s="13"/>
       <c r="C46" s="11"/>
@@ -2546,7 +2548,7 @@
     </row>
     <row r="47" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B47" s="13"/>
       <c r="C47" s="11"/>
@@ -2560,7 +2562,7 @@
     </row>
     <row r="48" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B48" s="13"/>
       <c r="C48" s="11"/>
@@ -2574,7 +2576,7 @@
     </row>
     <row r="49" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B49" s="13"/>
       <c r="C49" s="11"/>
@@ -2588,7 +2590,7 @@
     </row>
     <row r="50" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B50" s="13"/>
       <c r="C50" s="11"/>
@@ -2602,7 +2604,7 @@
     </row>
     <row r="51" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B51" s="13"/>
       <c r="C51" s="11"/>
@@ -2616,7 +2618,7 @@
     </row>
     <row r="52" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B52" s="13"/>
       <c r="C52" s="11"/>
@@ -2630,21 +2632,18 @@
     </row>
     <row r="53" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B53" s="13"/>
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
       <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
       <c r="T53" s="11"/>
       <c r="U53" s="11"/>
     </row>
     <row r="54" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B54" s="13"/>
       <c r="C54" s="11"/>
@@ -2655,7 +2654,7 @@
     </row>
     <row r="55" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B55" s="13"/>
       <c r="C55" s="11"/>
@@ -2666,7 +2665,7 @@
     </row>
     <row r="56" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B56" s="13"/>
       <c r="C56" s="11"/>
@@ -2677,18 +2676,23 @@
     </row>
     <row r="57" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="14" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="B57" s="13"/>
       <c r="C57" s="11"/>
       <c r="D57" s="11"/>
       <c r="E57" s="11"/>
+      <c r="O57" s="14"/>
+      <c r="P57" s="13"/>
+      <c r="Q57" s="11"/>
+      <c r="R57" s="11"/>
+      <c r="S57" s="11"/>
       <c r="T57" s="11"/>
       <c r="U57" s="11"/>
     </row>
     <row r="58" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="14" t="s">
-        <v>79</v>
+        <v>3</v>
       </c>
       <c r="B58" s="13"/>
       <c r="C58" s="11"/>
@@ -2703,13 +2707,10 @@
       <c r="U58" s="11"/>
     </row>
     <row r="59" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A59" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B59" s="13"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
+      <c r="A59" s="19"/>
+      <c r="B59" s="29"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
       <c r="O59" s="14"/>
       <c r="P59" s="13"/>
       <c r="Q59" s="11"/>
@@ -2719,10 +2720,10 @@
       <c r="U59" s="11"/>
     </row>
     <row r="60" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A60" s="19"/>
-      <c r="B60" s="29"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
+      <c r="A60" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B60" s="9"/>
       <c r="O60" s="14"/>
       <c r="P60" s="13"/>
       <c r="Q60" s="11"/>
@@ -2732,10 +2733,30 @@
       <c r="U60" s="11"/>
     </row>
     <row r="61" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A61" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B61" s="9"/>
+      <c r="A61" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C61" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D61" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E61" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F61" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G61" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="H61" s="21" t="s">
+        <v>8</v>
+      </c>
       <c r="O61" s="14"/>
       <c r="P61" s="13"/>
       <c r="Q61" s="11"/>
@@ -2745,29 +2766,32 @@
       <c r="U61" s="11"/>
     </row>
     <row r="62" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A62" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B62" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C62" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D62" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="E62" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="F62" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="G62" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H62" s="21" t="s">
-        <v>8</v>
+      <c r="A62" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62" s="2">
+        <v>100</v>
+      </c>
+      <c r="C62" s="4">
+        <v>820</v>
+      </c>
+      <c r="D62" s="4">
+        <v>820.92130148223998</v>
+      </c>
+      <c r="E62" s="3">
+        <f>D62/C62-1</f>
+        <v>1.1235383929755205E-3</v>
+      </c>
+      <c r="F62" s="7">
+        <f>2.23/1000</f>
+        <v>2.2299999999999998E-3</v>
+      </c>
+      <c r="G62" s="1">
+        <v>2000</v>
+      </c>
+      <c r="H62" s="8">
+        <f>F62 * G62</f>
+        <v>4.46</v>
       </c>
       <c r="O62" s="14"/>
       <c r="P62" s="13"/>
@@ -2778,32 +2802,32 @@
       <c r="U62" s="11"/>
     </row>
     <row r="63" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B63" s="2">
-        <v>100</v>
+      <c r="A63" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B63" s="1">
+        <v>150</v>
       </c>
       <c r="C63" s="4">
-        <v>820</v>
-      </c>
-      <c r="D63" s="4">
-        <v>821.10991318145</v>
+        <v>3055.23</v>
+      </c>
+      <c r="D63" s="6">
+        <v>3285.48003843775</v>
       </c>
       <c r="E63" s="3">
         <f>D63/C63-1</f>
-        <v>1.3535526603047909E-3</v>
-      </c>
-      <c r="F63" s="7">
-        <f>2.64/1000</f>
-        <v>2.64E-3</v>
+        <v>7.536258757532166E-2</v>
+      </c>
+      <c r="F63" s="5">
+        <f>6.36/1000</f>
+        <v>6.3600000000000002E-3</v>
       </c>
       <c r="G63" s="1">
         <v>2000</v>
       </c>
       <c r="H63" s="8">
-        <f>F63 * G63</f>
-        <v>5.28</v>
+        <f t="shared" ref="H63:H66" si="0">F63 * G63</f>
+        <v>12.72</v>
       </c>
       <c r="O63" s="14"/>
       <c r="P63" s="13"/>
@@ -2814,32 +2838,32 @@
       <c r="U63" s="11"/>
     </row>
     <row r="64" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B64" s="1">
-        <v>150</v>
+      <c r="A64" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B64" s="2">
+        <v>200</v>
       </c>
       <c r="C64" s="4">
-        <v>3055.23</v>
-      </c>
-      <c r="D64" s="6">
-        <v>3315.2400658343199</v>
+        <v>1395.85</v>
+      </c>
+      <c r="D64" s="4">
+        <v>1343.5938080419601</v>
       </c>
       <c r="E64" s="3">
         <f>D64/C64-1</f>
-        <v>8.5103270730622516E-2</v>
+        <v>-3.7436824843672167E-2</v>
       </c>
       <c r="F64" s="5">
-        <f>6.84/1000</f>
-        <v>6.8399999999999997E-3</v>
+        <f>8.26/1000</f>
+        <v>8.26E-3</v>
       </c>
       <c r="G64" s="1">
         <v>2000</v>
       </c>
       <c r="H64" s="8">
-        <f t="shared" ref="H64:H67" si="0">F64 * G64</f>
-        <v>13.68</v>
+        <f t="shared" si="0"/>
+        <v>16.52</v>
       </c>
       <c r="O64" s="14"/>
       <c r="P64" s="13"/>
@@ -2850,32 +2874,32 @@
       <c r="U64" s="11"/>
     </row>
     <row r="65" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B65" s="2">
-        <v>200</v>
+      <c r="A65" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B65" s="1">
+        <v>250</v>
       </c>
       <c r="C65" s="4">
-        <v>1395.85</v>
+        <v>38684</v>
       </c>
       <c r="D65" s="4">
-        <v>1374.79681092953</v>
+        <v>42585.939425655699</v>
       </c>
       <c r="E65" s="3">
         <f>D65/C65-1</f>
-        <v>-1.5082701630167894E-2</v>
+        <v>0.100867010279591</v>
       </c>
       <c r="F65" s="5">
-        <f>9.64/1000</f>
-        <v>9.640000000000001E-3</v>
+        <f>11.4/1000</f>
+        <v>1.14E-2</v>
       </c>
       <c r="G65" s="1">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="H65" s="8">
         <f t="shared" si="0"/>
-        <v>19.28</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="O65" s="14"/>
       <c r="P65" s="13"/>
@@ -2887,31 +2911,31 @@
     </row>
     <row r="66" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B66" s="1">
-        <v>250</v>
-      </c>
-      <c r="C66" s="4">
-        <v>38684</v>
-      </c>
-      <c r="D66" s="4">
-        <v>42656.123296429803</v>
+        <v>78</v>
+      </c>
+      <c r="B66" s="9">
+        <v>302</v>
+      </c>
+      <c r="C66" s="27">
+        <v>21736</v>
+      </c>
+      <c r="D66" s="6">
+        <v>22687.552934527299</v>
       </c>
       <c r="E66" s="3">
         <f>D66/C66-1</f>
-        <v>0.10268129708483609</v>
+        <v>4.3777738982669234E-2</v>
       </c>
       <c r="F66" s="5">
-        <f>14.56/1000</f>
-        <v>1.456E-2</v>
+        <f>14.52/1000</f>
+        <v>1.452E-2</v>
       </c>
       <c r="G66" s="1">
-        <v>3000</v>
-      </c>
-      <c r="H66" s="8">
+        <v>4000</v>
+      </c>
+      <c r="H66" s="1">
         <f t="shared" si="0"/>
-        <v>43.68</v>
+        <v>58.08</v>
       </c>
       <c r="O66" s="14"/>
       <c r="P66" s="13"/>
@@ -2922,33 +2946,7 @@
       <c r="U66" s="11"/>
     </row>
     <row r="67" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B67" s="9">
-        <v>302</v>
-      </c>
-      <c r="C67" s="27">
-        <v>21736</v>
-      </c>
-      <c r="D67" s="6">
-        <v>22899.129167032301</v>
-      </c>
-      <c r="E67" s="3">
-        <f>D67/C67-1</f>
-        <v>5.3511647360705794E-2</v>
-      </c>
-      <c r="F67" s="5">
-        <f>18.09/1000</f>
-        <v>1.8089999999999998E-2</v>
-      </c>
-      <c r="G67" s="1">
-        <v>4000</v>
-      </c>
-      <c r="H67" s="1">
-        <f t="shared" si="0"/>
-        <v>72.36</v>
-      </c>
+      <c r="B67" s="9"/>
       <c r="O67" s="14"/>
       <c r="P67" s="13"/>
       <c r="Q67" s="11"/>
@@ -3037,15 +3035,8 @@
       <c r="T75" s="11"/>
       <c r="U75" s="11"/>
     </row>
-    <row r="76" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B76" s="9"/>
-      <c r="O76" s="14"/>
-      <c r="P76" s="13"/>
-      <c r="Q76" s="11"/>
-      <c r="R76" s="11"/>
-      <c r="S76" s="11"/>
-      <c r="T76" s="11"/>
-      <c r="U76" s="11"/>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B77" s="9"/>
@@ -3646,9 +3637,6 @@
     </row>
     <row r="276" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B276" s="9"/>
-    </row>
-    <row r="277" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B277" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research related\dev\LRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B42094-E88A-4525-B8EA-EEF52B0486BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322F8A86-A514-439F-AE74-3299B096FE37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5010" yWindow="3405" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TSP Benchmarking" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="88">
   <si>
     <t>a280</t>
   </si>
@@ -279,9 +279,6 @@
   </si>
   <si>
     <t>MersenneTwister(1234)</t>
-  </si>
-  <si>
-    <t>:cw</t>
   </si>
   <si>
     <t>:random</t>
@@ -824,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H280"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -967,7 +964,7 @@
     </row>
     <row r="16" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>81</v>
@@ -1043,19 +1040,19 @@
     </row>
     <row r="27" spans="1:5" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B27" s="13"/>
     </row>
     <row r="28" spans="1:5" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B28" s="13"/>
     </row>
     <row r="29" spans="1:5" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B29" s="13"/>
     </row>
@@ -1073,13 +1070,13 @@
     </row>
     <row r="32" spans="1:5" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B32" s="13"/>
     </row>
     <row r="33" spans="1:8" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B33" s="13"/>
     </row>
@@ -1329,11 +1326,11 @@
         <v>33608.686972269541</v>
       </c>
       <c r="D57" s="4">
-        <v>33784.027009870399</v>
+        <v>33784.027009905403</v>
       </c>
       <c r="E57" s="3">
         <f>D57/C57-1</f>
-        <v>5.217104665395933E-3</v>
+        <v>5.2171046664373222E-3</v>
       </c>
       <c r="F57" s="7">
         <f>0.8/1000</f>
@@ -1358,22 +1355,22 @@
         <v>629</v>
       </c>
       <c r="D58" s="6">
-        <v>646.40529486032904</v>
+        <v>654.20031218321299</v>
       </c>
       <c r="E58" s="3">
         <f>D58/C58-1</f>
-        <v>2.7671374976675711E-2</v>
+        <v>4.0064089321483198E-2</v>
       </c>
       <c r="F58" s="5">
-        <f>6.6/1000</f>
-        <v>6.6E-3</v>
+        <f>6.51/1000</f>
+        <v>6.5100000000000002E-3</v>
       </c>
       <c r="G58" s="1">
         <v>2000</v>
       </c>
       <c r="H58" s="8">
         <f t="shared" ref="H58:H61" si="0">F58 * G58</f>
-        <v>13.2</v>
+        <v>13.02</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
@@ -1387,22 +1384,22 @@
         <v>6528</v>
       </c>
       <c r="D59" s="4">
-        <v>6600.64870573393</v>
+        <v>6616.8659909981498</v>
       </c>
       <c r="E59" s="3">
         <f>D59/C59-1</f>
-        <v>1.1128784579339746E-2</v>
+        <v>1.3613050091628276E-2</v>
       </c>
       <c r="F59" s="5">
-        <f>20.95/1000</f>
-        <v>2.095E-2</v>
+        <f>20/1000</f>
+        <v>0.02</v>
       </c>
       <c r="G59" s="1">
         <v>2000</v>
       </c>
       <c r="H59" s="8">
         <f t="shared" si="0"/>
-        <v>41.9</v>
+        <v>40</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
@@ -1416,22 +1413,22 @@
         <v>15780</v>
       </c>
       <c r="D60" s="4">
-        <v>15832.880132533401</v>
+        <v>16039.411023807301</v>
       </c>
       <c r="E60" s="3">
         <f t="shared" ref="E60:E61" si="1">D60/C60-1</f>
-        <v>3.351085711875923E-3</v>
+        <v>1.6439228378156034E-2</v>
       </c>
       <c r="F60" s="5">
-        <f>33.63/1000</f>
-        <v>3.363E-2</v>
+        <f>33.52/1000</f>
+        <v>3.3520000000000001E-2</v>
       </c>
       <c r="G60" s="1">
         <v>2000</v>
       </c>
       <c r="H60" s="8">
         <f t="shared" si="0"/>
-        <v>67.260000000000005</v>
+        <v>67.040000000000006</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
@@ -1445,22 +1442,22 @@
         <v>2579</v>
       </c>
       <c r="D61" s="4">
-        <v>2652.3536313617001</v>
+        <v>2715.6944612110101</v>
       </c>
       <c r="E61" s="3">
         <f t="shared" si="1"/>
-        <v>2.8442664351182589E-2</v>
+        <v>5.3002893063594403E-2</v>
       </c>
       <c r="F61" s="5">
-        <f>60.29/1000</f>
-        <v>6.0289999999999996E-2</v>
+        <f>60.14/1000</f>
+        <v>6.0139999999999999E-2</v>
       </c>
       <c r="G61" s="1">
         <v>3000</v>
       </c>
       <c r="H61" s="8">
         <f t="shared" si="0"/>
-        <v>180.86999999999998</v>
+        <v>180.42</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
@@ -2130,8 +2127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24DC412A-E77F-4CFD-9D5D-B1480BEBE47D}">
   <dimension ref="A1:U276"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2274,10 +2271,10 @@
     </row>
     <row r="16" spans="1:6" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research related\dev\LRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322F8A86-A514-439F-AE74-3299B096FE37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C9CE78-4FC0-455E-BEF0-7F7E35FA4D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TSP Benchmarking" sheetId="1" r:id="rId1"/>
@@ -821,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H280"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1333,15 +1333,15 @@
         <v>5.2171046664373222E-3</v>
       </c>
       <c r="F57" s="7">
-        <f>0.8/1000</f>
-        <v>8.0000000000000004E-4</v>
+        <f>0.83/1000</f>
+        <v>8.3000000000000001E-4</v>
       </c>
       <c r="G57" s="1">
         <v>500</v>
       </c>
       <c r="H57" s="8">
         <f>F57 * G57</f>
-        <v>0.4</v>
+        <v>0.41499999999999998</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
@@ -1355,22 +1355,22 @@
         <v>629</v>
       </c>
       <c r="D58" s="6">
-        <v>654.20031218321299</v>
+        <v>648.54545600044503</v>
       </c>
       <c r="E58" s="3">
         <f>D58/C58-1</f>
-        <v>4.0064089321483198E-2</v>
+        <v>3.1073856916446818E-2</v>
       </c>
       <c r="F58" s="5">
-        <f>6.51/1000</f>
-        <v>6.5100000000000002E-3</v>
+        <f>6.88/1000</f>
+        <v>6.8799999999999998E-3</v>
       </c>
       <c r="G58" s="1">
         <v>2000</v>
       </c>
       <c r="H58" s="8">
         <f t="shared" ref="H58:H61" si="0">F58 * G58</f>
-        <v>13.02</v>
+        <v>13.76</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
@@ -1384,22 +1384,22 @@
         <v>6528</v>
       </c>
       <c r="D59" s="4">
-        <v>6616.8659909981498</v>
+        <v>6578.94493945042</v>
       </c>
       <c r="E59" s="3">
         <f>D59/C59-1</f>
-        <v>1.3613050091628276E-2</v>
+        <v>7.8040654795372699E-3</v>
       </c>
       <c r="F59" s="5">
-        <f>20/1000</f>
-        <v>0.02</v>
+        <f>20.92/1000</f>
+        <v>2.0920000000000001E-2</v>
       </c>
       <c r="G59" s="1">
         <v>2000</v>
       </c>
       <c r="H59" s="8">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>41.84</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
@@ -1413,22 +1413,22 @@
         <v>15780</v>
       </c>
       <c r="D60" s="4">
-        <v>16039.411023807301</v>
+        <v>15950.424531286</v>
       </c>
       <c r="E60" s="3">
         <f t="shared" ref="E60:E61" si="1">D60/C60-1</f>
-        <v>1.6439228378156034E-2</v>
+        <v>1.0800033668314279E-2</v>
       </c>
       <c r="F60" s="5">
-        <f>33.52/1000</f>
-        <v>3.3520000000000001E-2</v>
+        <f>34.57/1000</f>
+        <v>3.4570000000000004E-2</v>
       </c>
       <c r="G60" s="1">
         <v>2000</v>
       </c>
       <c r="H60" s="8">
         <f t="shared" si="0"/>
-        <v>67.040000000000006</v>
+        <v>69.14</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
@@ -1449,15 +1449,15 @@
         <v>5.3002893063594403E-2</v>
       </c>
       <c r="F61" s="5">
-        <f>60.14/1000</f>
-        <v>6.0139999999999999E-2</v>
+        <f>60.78/1000</f>
+        <v>6.0780000000000001E-2</v>
       </c>
       <c r="G61" s="1">
         <v>3000</v>
       </c>
       <c r="H61" s="8">
         <f t="shared" si="0"/>
-        <v>180.42</v>
+        <v>182.34</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
@@ -2127,8 +2127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24DC412A-E77F-4CFD-9D5D-B1480BEBE47D}">
   <dimension ref="A1:U276"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2780,15 +2780,15 @@
         <v>1.1235383929755205E-3</v>
       </c>
       <c r="F62" s="7">
-        <f>2.23/1000</f>
-        <v>2.2299999999999998E-3</v>
+        <f>2.34/1000</f>
+        <v>2.3400000000000001E-3</v>
       </c>
       <c r="G62" s="1">
         <v>2000</v>
       </c>
       <c r="H62" s="8">
         <f>F62 * G62</f>
-        <v>4.46</v>
+        <v>4.68</v>
       </c>
       <c r="O62" s="14"/>
       <c r="P62" s="13"/>
@@ -2816,15 +2816,15 @@
         <v>7.536258757532166E-2</v>
       </c>
       <c r="F63" s="5">
-        <f>6.36/1000</f>
-        <v>6.3600000000000002E-3</v>
+        <f>6.64/1000</f>
+        <v>6.6400000000000001E-3</v>
       </c>
       <c r="G63" s="1">
         <v>2000</v>
       </c>
       <c r="H63" s="8">
         <f t="shared" ref="H63:H66" si="0">F63 * G63</f>
-        <v>12.72</v>
+        <v>13.28</v>
       </c>
       <c r="O63" s="14"/>
       <c r="P63" s="13"/>
@@ -2852,15 +2852,15 @@
         <v>-3.7436824843672167E-2</v>
       </c>
       <c r="F64" s="5">
-        <f>8.26/1000</f>
-        <v>8.26E-3</v>
+        <f>8.3/1000</f>
+        <v>8.3000000000000001E-3</v>
       </c>
       <c r="G64" s="1">
         <v>2000</v>
       </c>
       <c r="H64" s="8">
         <f t="shared" si="0"/>
-        <v>16.52</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="O64" s="14"/>
       <c r="P64" s="13"/>
@@ -2888,15 +2888,15 @@
         <v>0.100867010279591</v>
       </c>
       <c r="F65" s="5">
-        <f>11.4/1000</f>
-        <v>1.14E-2</v>
+        <f>11.86/1000</f>
+        <v>1.1859999999999999E-2</v>
       </c>
       <c r="G65" s="1">
         <v>3000</v>
       </c>
       <c r="H65" s="8">
         <f t="shared" si="0"/>
-        <v>34.200000000000003</v>
+        <v>35.58</v>
       </c>
       <c r="O65" s="14"/>
       <c r="P65" s="13"/>
@@ -2924,15 +2924,15 @@
         <v>4.3777738982669234E-2</v>
       </c>
       <c r="F66" s="5">
-        <f>14.52/1000</f>
-        <v>1.452E-2</v>
+        <f>14.87/1000</f>
+        <v>1.487E-2</v>
       </c>
       <c r="G66" s="1">
         <v>4000</v>
       </c>
       <c r="H66" s="1">
         <f t="shared" si="0"/>
-        <v>58.08</v>
+        <v>59.48</v>
       </c>
       <c r="O66" s="14"/>
       <c r="P66" s="13"/>

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research related\dev\LRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C9CE78-4FC0-455E-BEF0-7F7E35FA4D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF855D01-A162-4FDB-9578-C78AE19C6752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TSP Benchmarking" sheetId="1" r:id="rId1"/>
@@ -821,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1333,15 +1333,15 @@
         <v>5.2171046664373222E-3</v>
       </c>
       <c r="F57" s="7">
-        <f>0.83/1000</f>
-        <v>8.3000000000000001E-4</v>
+        <f>0.8/1000</f>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="G57" s="1">
         <v>500</v>
       </c>
       <c r="H57" s="8">
         <f>F57 * G57</f>
-        <v>0.41499999999999998</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
@@ -1355,22 +1355,22 @@
         <v>629</v>
       </c>
       <c r="D58" s="6">
-        <v>648.54545600044503</v>
+        <v>646.49116064890904</v>
       </c>
       <c r="E58" s="3">
         <f>D58/C58-1</f>
-        <v>3.1073856916446818E-2</v>
+        <v>2.7807886564243267E-2</v>
       </c>
       <c r="F58" s="5">
-        <f>6.88/1000</f>
-        <v>6.8799999999999998E-3</v>
+        <f>6.61/1000</f>
+        <v>6.6100000000000004E-3</v>
       </c>
       <c r="G58" s="1">
         <v>2000</v>
       </c>
       <c r="H58" s="8">
         <f t="shared" ref="H58:H61" si="0">F58 * G58</f>
-        <v>13.76</v>
+        <v>13.22</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
@@ -1384,22 +1384,22 @@
         <v>6528</v>
       </c>
       <c r="D59" s="4">
-        <v>6578.94493945042</v>
+        <v>6620.7322578128596</v>
       </c>
       <c r="E59" s="3">
         <f>D59/C59-1</f>
-        <v>7.8040654795372699E-3</v>
+        <v>1.4205309101234631E-2</v>
       </c>
       <c r="F59" s="5">
-        <f>20.92/1000</f>
-        <v>2.0920000000000001E-2</v>
+        <f>19.92/1000</f>
+        <v>1.992E-2</v>
       </c>
       <c r="G59" s="1">
         <v>2000</v>
       </c>
       <c r="H59" s="8">
         <f t="shared" si="0"/>
-        <v>41.84</v>
+        <v>39.840000000000003</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
@@ -1413,22 +1413,22 @@
         <v>15780</v>
       </c>
       <c r="D60" s="4">
-        <v>15950.424531286</v>
+        <v>15854.0921222711</v>
       </c>
       <c r="E60" s="3">
         <f t="shared" ref="E60:E61" si="1">D60/C60-1</f>
-        <v>1.0800033668314279E-2</v>
+        <v>4.6953182681306327E-3</v>
       </c>
       <c r="F60" s="5">
-        <f>34.57/1000</f>
-        <v>3.4570000000000004E-2</v>
+        <f>32.58/1000</f>
+        <v>3.2579999999999998E-2</v>
       </c>
       <c r="G60" s="1">
         <v>2000</v>
       </c>
       <c r="H60" s="8">
         <f t="shared" si="0"/>
-        <v>69.14</v>
+        <v>65.16</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
@@ -1442,22 +1442,22 @@
         <v>2579</v>
       </c>
       <c r="D61" s="4">
-        <v>2715.6944612110101</v>
+        <v>2632.02609627523</v>
       </c>
       <c r="E61" s="3">
         <f t="shared" si="1"/>
-        <v>5.3002893063594403E-2</v>
+        <v>2.0560719765502222E-2</v>
       </c>
       <c r="F61" s="5">
-        <f>60.78/1000</f>
-        <v>6.0780000000000001E-2</v>
+        <f>58.04/1000</f>
+        <v>5.8040000000000001E-2</v>
       </c>
       <c r="G61" s="1">
         <v>3000</v>
       </c>
       <c r="H61" s="8">
         <f t="shared" si="0"/>
-        <v>182.34</v>
+        <v>174.12</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
@@ -2127,8 +2127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24DC412A-E77F-4CFD-9D5D-B1480BEBE47D}">
   <dimension ref="A1:U276"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F66" sqref="F66"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2780,15 +2780,15 @@
         <v>1.1235383929755205E-3</v>
       </c>
       <c r="F62" s="7">
-        <f>2.34/1000</f>
-        <v>2.3400000000000001E-3</v>
+        <f>2.13/1000</f>
+        <v>2.1299999999999999E-3</v>
       </c>
       <c r="G62" s="1">
         <v>2000</v>
       </c>
       <c r="H62" s="8">
         <f>F62 * G62</f>
-        <v>4.68</v>
+        <v>4.26</v>
       </c>
       <c r="O62" s="14"/>
       <c r="P62" s="13"/>
@@ -2816,15 +2816,15 @@
         <v>7.536258757532166E-2</v>
       </c>
       <c r="F63" s="5">
-        <f>6.64/1000</f>
-        <v>6.6400000000000001E-3</v>
+        <f>6.39/1000</f>
+        <v>6.3899999999999998E-3</v>
       </c>
       <c r="G63" s="1">
         <v>2000</v>
       </c>
       <c r="H63" s="8">
         <f t="shared" ref="H63:H66" si="0">F63 * G63</f>
-        <v>13.28</v>
+        <v>12.78</v>
       </c>
       <c r="O63" s="14"/>
       <c r="P63" s="13"/>
@@ -2852,15 +2852,15 @@
         <v>-3.7436824843672167E-2</v>
       </c>
       <c r="F64" s="5">
-        <f>8.3/1000</f>
-        <v>8.3000000000000001E-3</v>
+        <f>8.06/1000</f>
+        <v>8.0600000000000012E-3</v>
       </c>
       <c r="G64" s="1">
         <v>2000</v>
       </c>
       <c r="H64" s="8">
         <f t="shared" si="0"/>
-        <v>16.600000000000001</v>
+        <v>16.12</v>
       </c>
       <c r="O64" s="14"/>
       <c r="P64" s="13"/>
@@ -2888,15 +2888,15 @@
         <v>0.100867010279591</v>
       </c>
       <c r="F65" s="5">
-        <f>11.86/1000</f>
-        <v>1.1859999999999999E-2</v>
+        <f>10.96/1000</f>
+        <v>1.0960000000000001E-2</v>
       </c>
       <c r="G65" s="1">
         <v>3000</v>
       </c>
       <c r="H65" s="8">
         <f t="shared" si="0"/>
-        <v>35.58</v>
+        <v>32.880000000000003</v>
       </c>
       <c r="O65" s="14"/>
       <c r="P65" s="13"/>
@@ -2924,15 +2924,15 @@
         <v>4.3777738982669234E-2</v>
       </c>
       <c r="F66" s="5">
-        <f>14.87/1000</f>
-        <v>1.487E-2</v>
+        <f>13.98/1000</f>
+        <v>1.3980000000000001E-2</v>
       </c>
       <c r="G66" s="1">
         <v>4000</v>
       </c>
       <c r="H66" s="1">
         <f t="shared" si="0"/>
-        <v>59.48</v>
+        <v>55.92</v>
       </c>
       <c r="O66" s="14"/>
       <c r="P66" s="13"/>

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research related\dev\LRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF855D01-A162-4FDB-9578-C78AE19C6752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0731FE-A914-4690-ACAF-89761F1C03F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -822,7 +822,7 @@
   <dimension ref="A1:H280"/>
   <sheetViews>
     <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1333,15 +1333,15 @@
         <v>5.2171046664373222E-3</v>
       </c>
       <c r="F57" s="7">
-        <f>0.8/1000</f>
-        <v>8.0000000000000004E-4</v>
+        <f>0.78/1000</f>
+        <v>7.7999999999999999E-4</v>
       </c>
       <c r="G57" s="1">
         <v>500</v>
       </c>
       <c r="H57" s="8">
         <f>F57 * G57</f>
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
@@ -1362,15 +1362,15 @@
         <v>2.7807886564243267E-2</v>
       </c>
       <c r="F58" s="5">
-        <f>6.61/1000</f>
-        <v>6.6100000000000004E-3</v>
+        <f>6.81/1000</f>
+        <v>6.8099999999999992E-3</v>
       </c>
       <c r="G58" s="1">
         <v>2000</v>
       </c>
       <c r="H58" s="8">
         <f t="shared" ref="H58:H61" si="0">F58 * G58</f>
-        <v>13.22</v>
+        <v>13.62</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
@@ -1391,15 +1391,15 @@
         <v>1.4205309101234631E-2</v>
       </c>
       <c r="F59" s="5">
-        <f>19.92/1000</f>
-        <v>1.992E-2</v>
+        <f>20.8/1000</f>
+        <v>2.0799999999999999E-2</v>
       </c>
       <c r="G59" s="1">
         <v>2000</v>
       </c>
       <c r="H59" s="8">
         <f t="shared" si="0"/>
-        <v>39.840000000000003</v>
+        <v>41.6</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
@@ -1420,15 +1420,15 @@
         <v>4.6953182681306327E-3</v>
       </c>
       <c r="F60" s="5">
-        <f>32.58/1000</f>
-        <v>3.2579999999999998E-2</v>
+        <f>33.74/1000</f>
+        <v>3.3739999999999999E-2</v>
       </c>
       <c r="G60" s="1">
         <v>2000</v>
       </c>
       <c r="H60" s="8">
         <f t="shared" si="0"/>
-        <v>65.16</v>
+        <v>67.48</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
@@ -1449,15 +1449,15 @@
         <v>2.0560719765502222E-2</v>
       </c>
       <c r="F61" s="5">
-        <f>58.04/1000</f>
-        <v>5.8040000000000001E-2</v>
+        <f>60.06/1000</f>
+        <v>6.0060000000000002E-2</v>
       </c>
       <c r="G61" s="1">
         <v>3000</v>
       </c>
       <c r="H61" s="8">
         <f t="shared" si="0"/>
-        <v>174.12</v>
+        <v>180.18</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
@@ -2128,7 +2128,7 @@
   <dimension ref="A1:U276"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="K50" sqref="K50"/>
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2773,22 +2773,22 @@
         <v>820</v>
       </c>
       <c r="D62" s="4">
-        <v>820.92130148223998</v>
+        <v>820.92130148221202</v>
       </c>
       <c r="E62" s="3">
         <f>D62/C62-1</f>
-        <v>1.1235383929755205E-3</v>
+        <v>1.1235383929415477E-3</v>
       </c>
       <c r="F62" s="7">
-        <f>2.13/1000</f>
-        <v>2.1299999999999999E-3</v>
+        <f>2.46/1000</f>
+        <v>2.4599999999999999E-3</v>
       </c>
       <c r="G62" s="1">
         <v>2000</v>
       </c>
       <c r="H62" s="8">
         <f>F62 * G62</f>
-        <v>4.26</v>
+        <v>4.92</v>
       </c>
       <c r="O62" s="14"/>
       <c r="P62" s="13"/>
@@ -2809,22 +2809,22 @@
         <v>3055.23</v>
       </c>
       <c r="D63" s="6">
-        <v>3285.48003843775</v>
+        <v>3272.5263592587498</v>
       </c>
       <c r="E63" s="3">
         <f>D63/C63-1</f>
-        <v>7.536258757532166E-2</v>
+        <v>7.1122749926764817E-2</v>
       </c>
       <c r="F63" s="5">
-        <f>6.39/1000</f>
-        <v>6.3899999999999998E-3</v>
+        <f>6.36/1000</f>
+        <v>6.3600000000000002E-3</v>
       </c>
       <c r="G63" s="1">
         <v>2000</v>
       </c>
       <c r="H63" s="8">
         <f t="shared" ref="H63:H66" si="0">F63 * G63</f>
-        <v>12.78</v>
+        <v>12.72</v>
       </c>
       <c r="O63" s="14"/>
       <c r="P63" s="13"/>
@@ -2845,22 +2845,22 @@
         <v>1395.85</v>
       </c>
       <c r="D64" s="4">
-        <v>1343.5938080419601</v>
+        <v>1355.0913447805201</v>
       </c>
       <c r="E64" s="3">
         <f>D64/C64-1</f>
-        <v>-3.7436824843672167E-2</v>
+        <v>-2.9199881949693585E-2</v>
       </c>
       <c r="F64" s="5">
-        <f>8.06/1000</f>
-        <v>8.0600000000000012E-3</v>
+        <f>8.38/1000</f>
+        <v>8.3800000000000003E-3</v>
       </c>
       <c r="G64" s="1">
         <v>2000</v>
       </c>
       <c r="H64" s="8">
         <f t="shared" si="0"/>
-        <v>16.12</v>
+        <v>16.760000000000002</v>
       </c>
       <c r="O64" s="14"/>
       <c r="P64" s="13"/>
@@ -2881,22 +2881,22 @@
         <v>38684</v>
       </c>
       <c r="D65" s="4">
-        <v>42585.939425655699</v>
+        <v>42456.203201111501</v>
       </c>
       <c r="E65" s="3">
         <f>D65/C65-1</f>
-        <v>0.100867010279591</v>
+        <v>9.7513266495489193E-2</v>
       </c>
       <c r="F65" s="5">
-        <f>10.96/1000</f>
-        <v>1.0960000000000001E-2</v>
+        <f>11.52/1000</f>
+        <v>1.1519999999999999E-2</v>
       </c>
       <c r="G65" s="1">
         <v>3000</v>
       </c>
       <c r="H65" s="8">
         <f t="shared" si="0"/>
-        <v>32.880000000000003</v>
+        <v>34.559999999999995</v>
       </c>
       <c r="O65" s="14"/>
       <c r="P65" s="13"/>
@@ -2917,11 +2917,11 @@
         <v>21736</v>
       </c>
       <c r="D66" s="6">
-        <v>22687.552934527299</v>
+        <v>22991.7161969519</v>
       </c>
       <c r="E66" s="3">
         <f>D66/C66-1</f>
-        <v>4.3777738982669234E-2</v>
+        <v>5.7771264121820876E-2</v>
       </c>
       <c r="F66" s="5">
         <f>13.98/1000</f>

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research related\dev\LRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0731FE-A914-4690-ACAF-89761F1C03F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88B69EA-51F1-4480-ABF3-610208E5F089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TSP Benchmarking" sheetId="1" r:id="rId1"/>
@@ -821,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H280"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1326,11 +1326,11 @@
         <v>33608.686972269541</v>
       </c>
       <c r="D57" s="4">
-        <v>33784.027009905403</v>
+        <v>33523.708507429401</v>
       </c>
       <c r="E57" s="3">
         <f>D57/C57-1</f>
-        <v>5.2171046664373222E-3</v>
+        <v>-2.5284672653309581E-3</v>
       </c>
       <c r="F57" s="7">
         <f>0.78/1000</f>
@@ -1355,22 +1355,22 @@
         <v>629</v>
       </c>
       <c r="D58" s="6">
-        <v>646.49116064890904</v>
+        <v>646.70501712745499</v>
       </c>
       <c r="E58" s="3">
         <f>D58/C58-1</f>
-        <v>2.7807886564243267E-2</v>
+        <v>2.8147880965747163E-2</v>
       </c>
       <c r="F58" s="5">
-        <f>6.81/1000</f>
-        <v>6.8099999999999992E-3</v>
+        <f>6.41/1000</f>
+        <v>6.4099999999999999E-3</v>
       </c>
       <c r="G58" s="1">
         <v>2000</v>
       </c>
       <c r="H58" s="8">
         <f t="shared" ref="H58:H61" si="0">F58 * G58</f>
-        <v>13.62</v>
+        <v>12.82</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
@@ -1384,22 +1384,22 @@
         <v>6528</v>
       </c>
       <c r="D59" s="4">
-        <v>6620.7322578128596</v>
+        <v>6748.7114026058198</v>
       </c>
       <c r="E59" s="3">
         <f>D59/C59-1</f>
-        <v>1.4205309101234631E-2</v>
+        <v>3.3809957507018984E-2</v>
       </c>
       <c r="F59" s="5">
-        <f>20.8/1000</f>
-        <v>2.0799999999999999E-2</v>
+        <f>19.91/1000</f>
+        <v>1.9910000000000001E-2</v>
       </c>
       <c r="G59" s="1">
         <v>2000</v>
       </c>
       <c r="H59" s="8">
         <f t="shared" si="0"/>
-        <v>41.6</v>
+        <v>39.82</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
@@ -1413,22 +1413,22 @@
         <v>15780</v>
       </c>
       <c r="D60" s="4">
-        <v>15854.0921222711</v>
+        <v>15823.038891853699</v>
       </c>
       <c r="E60" s="3">
         <f t="shared" ref="E60:E61" si="1">D60/C60-1</f>
-        <v>4.6953182681306327E-3</v>
+        <v>2.7274329438338185E-3</v>
       </c>
       <c r="F60" s="5">
-        <f>33.74/1000</f>
-        <v>3.3739999999999999E-2</v>
+        <f>32.74/1000</f>
+        <v>3.2740000000000005E-2</v>
       </c>
       <c r="G60" s="1">
         <v>2000</v>
       </c>
       <c r="H60" s="8">
         <f t="shared" si="0"/>
-        <v>67.48</v>
+        <v>65.48</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
@@ -1442,22 +1442,22 @@
         <v>2579</v>
       </c>
       <c r="D61" s="4">
-        <v>2632.02609627523</v>
+        <v>2672.4292987215399</v>
       </c>
       <c r="E61" s="3">
         <f t="shared" si="1"/>
-        <v>2.0560719765502222E-2</v>
+        <v>3.6226947933904574E-2</v>
       </c>
       <c r="F61" s="5">
-        <f>60.06/1000</f>
-        <v>6.0060000000000002E-2</v>
+        <f>62.78/1000</f>
+        <v>6.2780000000000002E-2</v>
       </c>
       <c r="G61" s="1">
         <v>3000</v>
       </c>
       <c r="H61" s="8">
         <f t="shared" si="0"/>
-        <v>180.18</v>
+        <v>188.34</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
@@ -2127,8 +2127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24DC412A-E77F-4CFD-9D5D-B1480BEBE47D}">
   <dimension ref="A1:U276"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2773,22 +2773,22 @@
         <v>820</v>
       </c>
       <c r="D62" s="4">
-        <v>820.92130148221202</v>
+        <v>820.92130148220895</v>
       </c>
       <c r="E62" s="3">
         <f>D62/C62-1</f>
-        <v>1.1235383929415477E-3</v>
+        <v>1.1235383929377729E-3</v>
       </c>
       <c r="F62" s="7">
-        <f>2.46/1000</f>
-        <v>2.4599999999999999E-3</v>
+        <f>2.62/1000</f>
+        <v>2.6199999999999999E-3</v>
       </c>
       <c r="G62" s="1">
         <v>2000</v>
       </c>
       <c r="H62" s="8">
         <f>F62 * G62</f>
-        <v>4.92</v>
+        <v>5.24</v>
       </c>
       <c r="O62" s="14"/>
       <c r="P62" s="13"/>
@@ -2809,22 +2809,22 @@
         <v>3055.23</v>
       </c>
       <c r="D63" s="6">
-        <v>3272.5263592587498</v>
+        <v>3224.80669121847</v>
       </c>
       <c r="E63" s="3">
         <f>D63/C63-1</f>
-        <v>7.1122749926764817E-2</v>
+        <v>5.5503739888149051E-2</v>
       </c>
       <c r="F63" s="5">
-        <f>6.36/1000</f>
-        <v>6.3600000000000002E-3</v>
+        <f>5.73/1000</f>
+        <v>5.7300000000000007E-3</v>
       </c>
       <c r="G63" s="1">
         <v>2000</v>
       </c>
       <c r="H63" s="8">
         <f t="shared" ref="H63:H66" si="0">F63 * G63</f>
-        <v>12.72</v>
+        <v>11.46</v>
       </c>
       <c r="O63" s="14"/>
       <c r="P63" s="13"/>
@@ -2845,22 +2845,22 @@
         <v>1395.85</v>
       </c>
       <c r="D64" s="4">
-        <v>1355.0913447805201</v>
+        <v>1346.5211833608801</v>
       </c>
       <c r="E64" s="3">
         <f>D64/C64-1</f>
-        <v>-2.9199881949693585E-2</v>
+        <v>-3.5339625775778094E-2</v>
       </c>
       <c r="F64" s="5">
-        <f>8.38/1000</f>
-        <v>8.3800000000000003E-3</v>
+        <f>7.7/1000</f>
+        <v>7.7000000000000002E-3</v>
       </c>
       <c r="G64" s="1">
         <v>2000</v>
       </c>
       <c r="H64" s="8">
         <f t="shared" si="0"/>
-        <v>16.760000000000002</v>
+        <v>15.4</v>
       </c>
       <c r="O64" s="14"/>
       <c r="P64" s="13"/>
@@ -2881,22 +2881,22 @@
         <v>38684</v>
       </c>
       <c r="D65" s="4">
-        <v>42456.203201111501</v>
+        <v>41692.827474804297</v>
       </c>
       <c r="E65" s="3">
         <f>D65/C65-1</f>
-        <v>9.7513266495489193E-2</v>
+        <v>7.7779636924937945E-2</v>
       </c>
       <c r="F65" s="5">
-        <f>11.52/1000</f>
-        <v>1.1519999999999999E-2</v>
+        <f>11.36/1000</f>
+        <v>1.1359999999999999E-2</v>
       </c>
       <c r="G65" s="1">
         <v>3000</v>
       </c>
       <c r="H65" s="8">
         <f t="shared" si="0"/>
-        <v>34.559999999999995</v>
+        <v>34.08</v>
       </c>
       <c r="O65" s="14"/>
       <c r="P65" s="13"/>
@@ -2917,22 +2917,22 @@
         <v>21736</v>
       </c>
       <c r="D66" s="6">
-        <v>22991.7161969519</v>
+        <v>23232.621355660402</v>
       </c>
       <c r="E66" s="3">
         <f>D66/C66-1</f>
-        <v>5.7771264121820876E-2</v>
+        <v>6.88544974080052E-2</v>
       </c>
       <c r="F66" s="5">
-        <f>13.98/1000</f>
-        <v>1.3980000000000001E-2</v>
+        <f>18.89/1000</f>
+        <v>1.8890000000000001E-2</v>
       </c>
       <c r="G66" s="1">
         <v>4000</v>
       </c>
       <c r="H66" s="1">
         <f t="shared" si="0"/>
-        <v>55.92</v>
+        <v>75.56</v>
       </c>
       <c r="O66" s="14"/>
       <c r="P66" s="13"/>

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research related\dev\LRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A6DAF4-1102-4BC5-9489-A57E89817F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D70687-2DEF-49AA-A485-06189671825D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6360" yWindow="5085" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VRPTW Benchmarking" sheetId="1" r:id="rId1"/>
@@ -787,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1711,22 +1711,22 @@
         <v>1645.79</v>
       </c>
       <c r="D65" s="6">
-        <v>1655.7765041892201</v>
+        <v>1671.24036467372</v>
       </c>
       <c r="E65" s="3">
         <f>D65/C65-1</f>
-        <v>6.0679091434630017E-3</v>
+        <v>1.5463919864454168E-2</v>
       </c>
       <c r="F65" s="5">
-        <f>4.59/1000</f>
-        <v>4.5899999999999995E-3</v>
+        <f>4.89/1000</f>
+        <v>4.8899999999999994E-3</v>
       </c>
       <c r="G65" s="1">
         <v>2000</v>
       </c>
       <c r="H65" s="6">
         <f>F65 * G65</f>
-        <v>9.18</v>
+        <v>9.7799999999999994</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
@@ -1740,22 +1740,22 @@
         <v>1252.3699999999999</v>
       </c>
       <c r="D66" s="24">
-        <v>1221.46113480145</v>
+        <v>1224.5023993416801</v>
       </c>
       <c r="E66" s="3">
         <f t="shared" ref="E66:E70" si="0">D66/C66-1</f>
-        <v>-2.4680298313238036E-2</v>
+        <v>-2.2251890941430874E-2</v>
       </c>
       <c r="F66" s="4">
-        <f>14.99/1000</f>
-        <v>1.499E-2</v>
+        <f>14.59/1000</f>
+        <v>1.4590000000000001E-2</v>
       </c>
       <c r="G66" s="1">
         <v>2000</v>
       </c>
       <c r="H66" s="6">
         <f t="shared" ref="H66:H70" si="1">F66 * G66</f>
-        <v>29.98</v>
+        <v>29.18</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
@@ -1769,22 +1769,22 @@
         <v>828.94</v>
       </c>
       <c r="D67" s="6">
-        <v>828.93686694276096</v>
+        <v>828.93686694277699</v>
       </c>
       <c r="E67" s="3">
         <f t="shared" si="0"/>
-        <v>-3.7795947102070571E-6</v>
+        <v>-3.7795946908891764E-6</v>
       </c>
       <c r="F67" s="4">
-        <f>6.13/1000</f>
-        <v>6.13E-3</v>
+        <f>6.21/1000</f>
+        <v>6.2100000000000002E-3</v>
       </c>
       <c r="G67" s="1">
         <v>2000</v>
       </c>
       <c r="H67" s="6">
         <f t="shared" si="1"/>
-        <v>12.26</v>
+        <v>12.42</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
@@ -1798,22 +1798,22 @@
         <v>591.55999999999995</v>
       </c>
       <c r="D68" s="6">
-        <v>591.55655666974599</v>
+        <v>591.55655666806399</v>
       </c>
       <c r="E68" s="3">
         <f t="shared" si="0"/>
-        <v>-5.8207624822337323E-6</v>
+        <v>-5.8207653255148983E-6</v>
       </c>
       <c r="F68" s="4">
-        <f>24.74/1000</f>
-        <v>2.4739999999999998E-2</v>
+        <f>24.9/1000</f>
+        <v>2.4899999999999999E-2</v>
       </c>
       <c r="G68" s="1">
         <v>2000</v>
       </c>
       <c r="H68" s="6">
         <f t="shared" si="1"/>
-        <v>49.48</v>
+        <v>49.8</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
@@ -1827,22 +1827,22 @@
         <v>1696.94</v>
       </c>
       <c r="D69" s="6">
-        <v>1709.10304069069</v>
+        <v>1668.3899931731401</v>
       </c>
       <c r="E69" s="3">
         <f t="shared" si="0"/>
-        <v>7.1676315548516722E-3</v>
+        <v>-1.6824405592926084E-2</v>
       </c>
       <c r="F69" s="4">
-        <f>5.07/1000</f>
-        <v>5.0699999999999999E-3</v>
+        <f>5.11/1000</f>
+        <v>5.11E-3</v>
       </c>
       <c r="G69" s="1">
         <v>2000</v>
       </c>
       <c r="H69" s="6">
         <f t="shared" si="1"/>
-        <v>10.14</v>
+        <v>10.220000000000001</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
@@ -1856,22 +1856,22 @@
         <v>1406.91</v>
       </c>
       <c r="D70" s="24">
-        <v>1382.9211541499899</v>
+        <v>1354.4467482727</v>
       </c>
       <c r="E70" s="3">
         <f t="shared" si="0"/>
-        <v>-1.7050732349624509E-2</v>
+        <v>-3.7289699929135556E-2</v>
       </c>
       <c r="F70" s="4">
-        <f>15.4/1000</f>
-        <v>1.54E-2</v>
+        <f>15.56/1000</f>
+        <v>1.5560000000000001E-2</v>
       </c>
       <c r="G70" s="1">
         <v>2000</v>
       </c>
       <c r="H70" s="6">
         <f t="shared" si="1"/>
-        <v>30.8</v>
+        <v>31.12</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research related\dev\LRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D70687-2DEF-49AA-A485-06189671825D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD116287-063D-4AA5-9503-C9BAB3093935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -788,7 +788,7 @@
   <dimension ref="A1:X280"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K49" sqref="K49"/>
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1718,15 +1718,15 @@
         <v>1.5463919864454168E-2</v>
       </c>
       <c r="F65" s="5">
-        <f>4.89/1000</f>
-        <v>4.8899999999999994E-3</v>
+        <f>4.75/1000</f>
+        <v>4.7499999999999999E-3</v>
       </c>
       <c r="G65" s="1">
         <v>2000</v>
       </c>
       <c r="H65" s="6">
         <f>F65 * G65</f>
-        <v>9.7799999999999994</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
@@ -1747,15 +1747,15 @@
         <v>-2.2251890941430874E-2</v>
       </c>
       <c r="F66" s="4">
-        <f>14.59/1000</f>
-        <v>1.4590000000000001E-2</v>
+        <f>14.52/1000</f>
+        <v>1.452E-2</v>
       </c>
       <c r="G66" s="1">
         <v>2000</v>
       </c>
       <c r="H66" s="6">
         <f t="shared" ref="H66:H70" si="1">F66 * G66</f>
-        <v>29.18</v>
+        <v>29.04</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
@@ -1776,15 +1776,15 @@
         <v>-3.7795946908891764E-6</v>
       </c>
       <c r="F67" s="4">
-        <f>6.21/1000</f>
-        <v>6.2100000000000002E-3</v>
+        <f>6.25/1000</f>
+        <v>6.2500000000000003E-3</v>
       </c>
       <c r="G67" s="1">
         <v>2000</v>
       </c>
       <c r="H67" s="6">
         <f t="shared" si="1"/>
-        <v>12.42</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
@@ -1805,15 +1805,15 @@
         <v>-5.8207653255148983E-6</v>
       </c>
       <c r="F68" s="4">
-        <f>24.9/1000</f>
-        <v>2.4899999999999999E-2</v>
+        <f>25.3/1000</f>
+        <v>2.53E-2</v>
       </c>
       <c r="G68" s="1">
         <v>2000</v>
       </c>
       <c r="H68" s="6">
         <f t="shared" si="1"/>
-        <v>49.8</v>
+        <v>50.6</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
@@ -1834,15 +1834,15 @@
         <v>-1.6824405592926084E-2</v>
       </c>
       <c r="F69" s="4">
-        <f>5.11/1000</f>
-        <v>5.11E-3</v>
+        <f>4.99/1000</f>
+        <v>4.9900000000000005E-3</v>
       </c>
       <c r="G69" s="1">
         <v>2000</v>
       </c>
       <c r="H69" s="6">
         <f t="shared" si="1"/>
-        <v>10.220000000000001</v>
+        <v>9.98</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
@@ -1863,15 +1863,15 @@
         <v>-3.7289699929135556E-2</v>
       </c>
       <c r="F70" s="4">
-        <f>15.56/1000</f>
-        <v>1.5560000000000001E-2</v>
+        <f>15.4/1000</f>
+        <v>1.54E-2</v>
       </c>
       <c r="G70" s="1">
         <v>2000</v>
       </c>
       <c r="H70" s="6">
         <f t="shared" si="1"/>
-        <v>31.12</v>
+        <v>30.8</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research related\dev\LRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD116287-063D-4AA5-9503-C9BAB3093935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1305B1CF-99D5-4F7B-B0E9-2EC3565A59E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -788,7 +788,7 @@
   <dimension ref="A1:X280"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F66" sqref="F66"/>
+      <selection activeCell="P43" sqref="P43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1718,15 +1718,15 @@
         <v>1.5463919864454168E-2</v>
       </c>
       <c r="F65" s="5">
-        <f>4.75/1000</f>
-        <v>4.7499999999999999E-3</v>
+        <f>4.86/1000</f>
+        <v>4.8600000000000006E-3</v>
       </c>
       <c r="G65" s="1">
         <v>2000</v>
       </c>
       <c r="H65" s="6">
         <f>F65 * G65</f>
-        <v>9.5</v>
+        <v>9.7200000000000006</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
@@ -1747,15 +1747,15 @@
         <v>-2.2251890941430874E-2</v>
       </c>
       <c r="F66" s="4">
-        <f>14.52/1000</f>
-        <v>1.452E-2</v>
+        <f>14.34/1000</f>
+        <v>1.434E-2</v>
       </c>
       <c r="G66" s="1">
         <v>2000</v>
       </c>
       <c r="H66" s="6">
         <f t="shared" ref="H66:H70" si="1">F66 * G66</f>
-        <v>29.04</v>
+        <v>28.68</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
@@ -1776,15 +1776,15 @@
         <v>-3.7795946908891764E-6</v>
       </c>
       <c r="F67" s="4">
-        <f>6.25/1000</f>
-        <v>6.2500000000000003E-3</v>
+        <f>6.19/1000</f>
+        <v>6.1900000000000002E-3</v>
       </c>
       <c r="G67" s="1">
         <v>2000</v>
       </c>
       <c r="H67" s="6">
         <f t="shared" si="1"/>
-        <v>12.5</v>
+        <v>12.38</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
@@ -1805,15 +1805,15 @@
         <v>-5.8207653255148983E-6</v>
       </c>
       <c r="F68" s="4">
-        <f>25.3/1000</f>
-        <v>2.53E-2</v>
+        <f>24.99/1000</f>
+        <v>2.4989999999999998E-2</v>
       </c>
       <c r="G68" s="1">
         <v>2000</v>
       </c>
       <c r="H68" s="6">
         <f t="shared" si="1"/>
-        <v>50.6</v>
+        <v>49.98</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
@@ -1834,15 +1834,15 @@
         <v>-1.6824405592926084E-2</v>
       </c>
       <c r="F69" s="4">
-        <f>4.99/1000</f>
-        <v>4.9900000000000005E-3</v>
+        <f>5.04/1000</f>
+        <v>5.0400000000000002E-3</v>
       </c>
       <c r="G69" s="1">
         <v>2000</v>
       </c>
       <c r="H69" s="6">
         <f t="shared" si="1"/>
-        <v>9.98</v>
+        <v>10.08</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
@@ -1863,15 +1863,15 @@
         <v>-3.7289699929135556E-2</v>
       </c>
       <c r="F70" s="4">
-        <f>15.4/1000</f>
-        <v>1.54E-2</v>
+        <f>15.43/1000</f>
+        <v>1.5429999999999999E-2</v>
       </c>
       <c r="G70" s="1">
         <v>2000</v>
       </c>
       <c r="H70" s="6">
         <f t="shared" si="1"/>
-        <v>30.8</v>
+        <v>30.86</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research related\dev\LRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1305B1CF-99D5-4F7B-B0E9-2EC3565A59E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A936F0E7-64A4-411F-B093-982E35CC1B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -788,7 +788,7 @@
   <dimension ref="A1:X280"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P43" sqref="P43"/>
+      <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1718,15 +1718,15 @@
         <v>1.5463919864454168E-2</v>
       </c>
       <c r="F65" s="5">
-        <f>4.86/1000</f>
-        <v>4.8600000000000006E-3</v>
+        <f>4.7/1000</f>
+        <v>4.7000000000000002E-3</v>
       </c>
       <c r="G65" s="1">
         <v>2000</v>
       </c>
       <c r="H65" s="6">
         <f>F65 * G65</f>
-        <v>9.7200000000000006</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
@@ -1747,15 +1747,15 @@
         <v>-2.2251890941430874E-2</v>
       </c>
       <c r="F66" s="4">
-        <f>14.34/1000</f>
-        <v>1.434E-2</v>
+        <f>14.26/1000</f>
+        <v>1.426E-2</v>
       </c>
       <c r="G66" s="1">
         <v>2000</v>
       </c>
       <c r="H66" s="6">
         <f t="shared" ref="H66:H70" si="1">F66 * G66</f>
-        <v>28.68</v>
+        <v>28.52</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
@@ -1776,15 +1776,15 @@
         <v>-3.7795946908891764E-6</v>
       </c>
       <c r="F67" s="4">
-        <f>6.19/1000</f>
-        <v>6.1900000000000002E-3</v>
+        <f>6.02/1000</f>
+        <v>6.0199999999999993E-3</v>
       </c>
       <c r="G67" s="1">
         <v>2000</v>
       </c>
       <c r="H67" s="6">
         <f t="shared" si="1"/>
-        <v>12.38</v>
+        <v>12.04</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
@@ -1805,15 +1805,15 @@
         <v>-5.8207653255148983E-6</v>
       </c>
       <c r="F68" s="4">
-        <f>24.99/1000</f>
-        <v>2.4989999999999998E-2</v>
+        <f>24.64/1000</f>
+        <v>2.4640000000000002E-2</v>
       </c>
       <c r="G68" s="1">
         <v>2000</v>
       </c>
       <c r="H68" s="6">
         <f t="shared" si="1"/>
-        <v>49.98</v>
+        <v>49.28</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
@@ -1834,15 +1834,15 @@
         <v>-1.6824405592926084E-2</v>
       </c>
       <c r="F69" s="4">
-        <f>5.04/1000</f>
-        <v>5.0400000000000002E-3</v>
+        <f>4.97/1000</f>
+        <v>4.9699999999999996E-3</v>
       </c>
       <c r="G69" s="1">
         <v>2000</v>
       </c>
       <c r="H69" s="6">
         <f t="shared" si="1"/>
-        <v>10.08</v>
+        <v>9.94</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
@@ -1863,15 +1863,15 @@
         <v>-3.7289699929135556E-2</v>
       </c>
       <c r="F70" s="4">
-        <f>15.43/1000</f>
-        <v>1.5429999999999999E-2</v>
+        <f>15.29/1000</f>
+        <v>1.529E-2</v>
       </c>
       <c r="G70" s="1">
         <v>2000</v>
       </c>
       <c r="H70" s="6">
         <f t="shared" si="1"/>
-        <v>30.86</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research related\dev\LRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A936F0E7-64A4-411F-B093-982E35CC1B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F0C5FF-BD47-4994-87C6-36F1CF0E3E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1711,22 +1711,22 @@
         <v>1645.79</v>
       </c>
       <c r="D65" s="6">
-        <v>1671.24036467372</v>
+        <v>1660.7914269042301</v>
       </c>
       <c r="E65" s="3">
         <f>D65/C65-1</f>
-        <v>1.5463919864454168E-2</v>
+        <v>9.115031021108555E-3</v>
       </c>
       <c r="F65" s="5">
-        <f>4.7/1000</f>
-        <v>4.7000000000000002E-3</v>
+        <f>4.6/1000</f>
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="G65" s="1">
         <v>2000</v>
       </c>
       <c r="H65" s="6">
         <f>F65 * G65</f>
-        <v>9.4</v>
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
@@ -1747,15 +1747,15 @@
         <v>-2.2251890941430874E-2</v>
       </c>
       <c r="F66" s="4">
-        <f>14.26/1000</f>
-        <v>1.426E-2</v>
+        <f>14.13/1000</f>
+        <v>1.413E-2</v>
       </c>
       <c r="G66" s="1">
         <v>2000</v>
       </c>
       <c r="H66" s="6">
         <f t="shared" ref="H66:H70" si="1">F66 * G66</f>
-        <v>28.52</v>
+        <v>28.26</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
@@ -1769,22 +1769,22 @@
         <v>828.94</v>
       </c>
       <c r="D67" s="6">
-        <v>828.93686694277699</v>
+        <v>828.93686694239898</v>
       </c>
       <c r="E67" s="3">
         <f t="shared" si="0"/>
-        <v>-3.7795946908891764E-6</v>
+        <v>-3.7795951468577726E-6</v>
       </c>
       <c r="F67" s="4">
-        <f>6.02/1000</f>
-        <v>6.0199999999999993E-3</v>
+        <f>6.2/1000</f>
+        <v>6.1999999999999998E-3</v>
       </c>
       <c r="G67" s="1">
         <v>2000</v>
       </c>
       <c r="H67" s="6">
         <f t="shared" si="1"/>
-        <v>12.04</v>
+        <v>12.4</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
@@ -1798,22 +1798,22 @@
         <v>591.55999999999995</v>
       </c>
       <c r="D68" s="6">
-        <v>591.55655666806399</v>
+        <v>591.55655667036103</v>
       </c>
       <c r="E68" s="3">
         <f t="shared" si="0"/>
-        <v>-5.8207653255148983E-6</v>
+        <v>-5.8207614425098697E-6</v>
       </c>
       <c r="F68" s="4">
-        <f>24.64/1000</f>
-        <v>2.4640000000000002E-2</v>
+        <f>24.77/1000</f>
+        <v>2.477E-2</v>
       </c>
       <c r="G68" s="1">
         <v>2000</v>
       </c>
       <c r="H68" s="6">
         <f t="shared" si="1"/>
-        <v>49.28</v>
+        <v>49.54</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
@@ -1827,22 +1827,22 @@
         <v>1696.94</v>
       </c>
       <c r="D69" s="6">
-        <v>1668.3899931731401</v>
+        <v>1672.0440954870601</v>
       </c>
       <c r="E69" s="3">
         <f t="shared" si="0"/>
-        <v>-1.6824405592926084E-2</v>
+        <v>-1.4671057617205108E-2</v>
       </c>
       <c r="F69" s="4">
-        <f>4.97/1000</f>
-        <v>4.9699999999999996E-3</v>
+        <f>4.85/1000</f>
+        <v>4.8499999999999993E-3</v>
       </c>
       <c r="G69" s="1">
         <v>2000</v>
       </c>
       <c r="H69" s="6">
         <f t="shared" si="1"/>
-        <v>9.94</v>
+        <v>9.6999999999999993</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
@@ -1856,22 +1856,22 @@
         <v>1406.91</v>
       </c>
       <c r="D70" s="24">
-        <v>1354.4467482727</v>
+        <v>1358.17333404533</v>
       </c>
       <c r="E70" s="3">
         <f t="shared" si="0"/>
-        <v>-3.7289699929135556E-2</v>
+        <v>-3.4640926537354955E-2</v>
       </c>
       <c r="F70" s="4">
-        <f>15.29/1000</f>
-        <v>1.529E-2</v>
+        <f>15.15/1000</f>
+        <v>1.515E-2</v>
       </c>
       <c r="G70" s="1">
         <v>2000</v>
       </c>
       <c r="H70" s="6">
         <f t="shared" si="1"/>
-        <v>30.58</v>
+        <v>30.3</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research related\dev\LRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F0C5FF-BD47-4994-87C6-36F1CF0E3E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FE0123-E9B5-4481-BB29-FEFA08F003F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -788,7 +788,7 @@
   <dimension ref="A1:X280"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F71" sqref="F71"/>
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1711,22 +1711,22 @@
         <v>1645.79</v>
       </c>
       <c r="D65" s="6">
-        <v>1660.7914269042301</v>
+        <v>1647.99912450019</v>
       </c>
       <c r="E65" s="3">
         <f>D65/C65-1</f>
-        <v>9.115031021108555E-3</v>
+        <v>1.34228820213389E-3</v>
       </c>
       <c r="F65" s="5">
-        <f>4.6/1000</f>
-        <v>4.5999999999999999E-3</v>
+        <f>4.5/1000</f>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="G65" s="1">
         <v>2000</v>
       </c>
       <c r="H65" s="6">
         <f>F65 * G65</f>
-        <v>9.1999999999999993</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
@@ -1740,22 +1740,22 @@
         <v>1252.3699999999999</v>
       </c>
       <c r="D66" s="24">
-        <v>1224.5023993416801</v>
+        <v>1201.06719688372</v>
       </c>
       <c r="E66" s="3">
         <f t="shared" ref="E66:E70" si="0">D66/C66-1</f>
-        <v>-2.2251890941430874E-2</v>
+        <v>-4.0964573661361969E-2</v>
       </c>
       <c r="F66" s="4">
-        <f>14.13/1000</f>
-        <v>1.413E-2</v>
+        <f>13.15/1000</f>
+        <v>1.315E-2</v>
       </c>
       <c r="G66" s="1">
         <v>2000</v>
       </c>
       <c r="H66" s="6">
         <f t="shared" ref="H66:H70" si="1">F66 * G66</f>
-        <v>28.26</v>
+        <v>26.3</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
@@ -1776,15 +1776,15 @@
         <v>-3.7795951468577726E-6</v>
       </c>
       <c r="F67" s="4">
-        <f>6.2/1000</f>
-        <v>6.1999999999999998E-3</v>
+        <f>6.39/1000</f>
+        <v>6.3899999999999998E-3</v>
       </c>
       <c r="G67" s="1">
         <v>2000</v>
       </c>
       <c r="H67" s="6">
         <f t="shared" si="1"/>
-        <v>12.4</v>
+        <v>12.78</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
@@ -1805,15 +1805,15 @@
         <v>-5.8207614425098697E-6</v>
       </c>
       <c r="F68" s="4">
-        <f>24.77/1000</f>
-        <v>2.477E-2</v>
+        <f>24.3/1000</f>
+        <v>2.4300000000000002E-2</v>
       </c>
       <c r="G68" s="1">
         <v>2000</v>
       </c>
       <c r="H68" s="6">
         <f t="shared" si="1"/>
-        <v>49.54</v>
+        <v>48.6</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
@@ -1827,22 +1827,22 @@
         <v>1696.94</v>
       </c>
       <c r="D69" s="6">
-        <v>1672.0440954870601</v>
+        <v>1678.1751810066401</v>
       </c>
       <c r="E69" s="3">
         <f t="shared" si="0"/>
-        <v>-1.4671057617205108E-2</v>
+        <v>-1.1058033279526702E-2</v>
       </c>
       <c r="F69" s="4">
-        <f>4.85/1000</f>
-        <v>4.8499999999999993E-3</v>
+        <f>4.83/1000</f>
+        <v>4.8300000000000001E-3</v>
       </c>
       <c r="G69" s="1">
         <v>2000</v>
       </c>
       <c r="H69" s="6">
         <f t="shared" si="1"/>
-        <v>9.6999999999999993</v>
+        <v>9.66</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
@@ -1856,11 +1856,11 @@
         <v>1406.91</v>
       </c>
       <c r="D70" s="24">
-        <v>1358.17333404533</v>
+        <v>1409.21629394568</v>
       </c>
       <c r="E70" s="3">
         <f t="shared" si="0"/>
-        <v>-3.4640926537354955E-2</v>
+        <v>1.6392618900142875E-3</v>
       </c>
       <c r="F70" s="4">
         <f>15.15/1000</f>

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research related\dev\LRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FE0123-E9B5-4481-BB29-FEFA08F003F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6DCA2C2-5813-46E0-A9B7-A7D686B293D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-113" yWindow="-113" windowWidth="48309" windowHeight="26546" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VRPTW Benchmarking" sheetId="1" r:id="rId1"/>
@@ -115,9 +115,6 @@
     <t>ALNS parameters</t>
   </si>
   <si>
-    <t>Traveling Salesman Problem (TSP) Benchmarking</t>
-  </si>
-  <si>
     <t>Benchmarking</t>
   </si>
   <si>
@@ -275,6 +272,9 @@
   </si>
   <si>
     <t>n = ceil(x, digits=-(length(digits(x))-1))</t>
+  </si>
+  <si>
+    <t>Vehicle Routing Problem with Time-Windows (VRPTW) Benchmarking</t>
   </si>
 </sst>
 </file>
@@ -787,26 +787,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="16"/>
@@ -814,7 +814,7 @@
       <c r="E1" s="16"/>
       <c r="F1" s="16"/>
     </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A2" s="19"/>
       <c r="B2" s="20"/>
       <c r="C2" s="21"/>
@@ -822,125 +822,125 @@
       <c r="E2" s="21"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:6" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:6" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:6" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:6" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:6" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:6" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:6" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:6" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="8"/>
     </row>
-    <row r="18" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>25</v>
       </c>
@@ -959,27 +959,27 @@
       <c r="W18" s="12"/>
       <c r="X18" s="12"/>
     </row>
-    <row r="19" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B19" s="11"/>
       <c r="L19" s="12"/>
       <c r="W19" s="12"/>
       <c r="X19" s="12"/>
     </row>
-    <row r="20" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B20" s="11"/>
       <c r="L20" s="12"/>
       <c r="W20" s="12"/>
       <c r="X20" s="12"/>
     </row>
-    <row r="21" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -994,9 +994,9 @@
       <c r="W21" s="12"/>
       <c r="X21" s="12"/>
     </row>
-    <row r="22" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -1011,9 +1011,9 @@
       <c r="W22" s="12"/>
       <c r="X22" s="12"/>
     </row>
-    <row r="23" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -1028,9 +1028,9 @@
       <c r="W23" s="12"/>
       <c r="X23" s="12"/>
     </row>
-    <row r="24" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -1045,9 +1045,9 @@
       <c r="W24" s="12"/>
       <c r="X24" s="12"/>
     </row>
-    <row r="25" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -1062,7 +1062,7 @@
       <c r="W25" s="12"/>
       <c r="X25" s="12"/>
     </row>
-    <row r="26" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
         <v>8</v>
       </c>
@@ -1079,9 +1079,9 @@
       <c r="W26" s="12"/>
       <c r="X26" s="12"/>
     </row>
-    <row r="27" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
@@ -1096,9 +1096,9 @@
       <c r="W27" s="12"/>
       <c r="X27" s="12"/>
     </row>
-    <row r="28" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -1113,9 +1113,9 @@
       <c r="W28" s="12"/>
       <c r="X28" s="12"/>
     </row>
-    <row r="29" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -1130,9 +1130,9 @@
       <c r="W29" s="12"/>
       <c r="X29" s="12"/>
     </row>
-    <row r="30" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -1147,9 +1147,9 @@
       <c r="W30" s="12"/>
       <c r="X30" s="12"/>
     </row>
-    <row r="31" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -1164,9 +1164,9 @@
       <c r="W31" s="12"/>
       <c r="X31" s="12"/>
     </row>
-    <row r="32" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
@@ -1181,9 +1181,9 @@
       <c r="W32" s="12"/>
       <c r="X32" s="12"/>
     </row>
-    <row r="33" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -1198,9 +1198,9 @@
       <c r="W33" s="12"/>
       <c r="X33" s="12"/>
     </row>
-    <row r="34" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
@@ -1215,9 +1215,9 @@
       <c r="W34" s="12"/>
       <c r="X34" s="12"/>
     </row>
-    <row r="35" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
@@ -1232,7 +1232,7 @@
       <c r="W35" s="12"/>
       <c r="X35" s="12"/>
     </row>
-    <row r="36" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
         <v>6</v>
       </c>
@@ -1249,7 +1249,7 @@
       <c r="W36" s="12"/>
       <c r="X36" s="12"/>
     </row>
-    <row r="37" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
         <v>9</v>
       </c>
@@ -1266,9 +1266,9 @@
       <c r="W37" s="12"/>
       <c r="X37" s="12"/>
     </row>
-    <row r="38" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -1283,9 +1283,9 @@
       <c r="W38" s="12"/>
       <c r="X38" s="12"/>
     </row>
-    <row r="39" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
@@ -1300,9 +1300,9 @@
       <c r="W39" s="12"/>
       <c r="X39" s="12"/>
     </row>
-    <row r="40" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
@@ -1317,9 +1317,9 @@
       <c r="W40" s="12"/>
       <c r="X40" s="12"/>
     </row>
-    <row r="41" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
@@ -1334,7 +1334,7 @@
       <c r="W41" s="12"/>
       <c r="X41" s="12"/>
     </row>
-    <row r="42" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>7</v>
       </c>
@@ -1351,7 +1351,7 @@
       <c r="W42" s="12"/>
       <c r="X42" s="12"/>
     </row>
-    <row r="43" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
         <v>21</v>
       </c>
@@ -1368,7 +1368,7 @@
       <c r="W43" s="12"/>
       <c r="X43" s="12"/>
     </row>
-    <row r="44" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
         <v>22</v>
       </c>
@@ -1385,9 +1385,9 @@
       <c r="W44" s="12"/>
       <c r="X44" s="12"/>
     </row>
-    <row r="45" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
@@ -1402,9 +1402,9 @@
       <c r="W45" s="12"/>
       <c r="X45" s="12"/>
     </row>
-    <row r="46" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
@@ -1419,9 +1419,9 @@
       <c r="W46" s="12"/>
       <c r="X46" s="12"/>
     </row>
-    <row r="47" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
@@ -1436,7 +1436,7 @@
       <c r="W47" s="12"/>
       <c r="X47" s="12"/>
     </row>
-    <row r="48" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
         <v>10</v>
       </c>
@@ -1453,7 +1453,7 @@
       <c r="W48" s="12"/>
       <c r="X48" s="12"/>
     </row>
-    <row r="49" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
         <v>7</v>
       </c>
@@ -1470,7 +1470,7 @@
       <c r="W49" s="12"/>
       <c r="X49" s="12"/>
     </row>
-    <row r="50" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
         <v>11</v>
       </c>
@@ -1487,7 +1487,7 @@
       <c r="W50" s="12"/>
       <c r="X50" s="12"/>
     </row>
-    <row r="51" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
         <v>12</v>
       </c>
@@ -1504,7 +1504,7 @@
       <c r="W51" s="12"/>
       <c r="X51" s="12"/>
     </row>
-    <row r="52" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
         <v>13</v>
       </c>
@@ -1521,7 +1521,7 @@
       <c r="W52" s="12"/>
       <c r="X52" s="12"/>
     </row>
-    <row r="53" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
         <v>14</v>
       </c>
@@ -1538,7 +1538,7 @@
       <c r="W53" s="12"/>
       <c r="X53" s="12"/>
     </row>
-    <row r="54" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
         <v>15</v>
       </c>
@@ -1555,7 +1555,7 @@
       <c r="W54" s="12"/>
       <c r="X54" s="12"/>
     </row>
-    <row r="55" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
         <v>16</v>
       </c>
@@ -1572,7 +1572,7 @@
       <c r="W55" s="12"/>
       <c r="X55" s="12"/>
     </row>
-    <row r="56" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
         <v>17</v>
       </c>
@@ -1589,7 +1589,7 @@
       <c r="W56" s="12"/>
       <c r="X56" s="12"/>
     </row>
-    <row r="57" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>18</v>
       </c>
@@ -1606,7 +1606,7 @@
       <c r="W57" s="12"/>
       <c r="X57" s="12"/>
     </row>
-    <row r="58" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
         <v>19</v>
       </c>
@@ -1623,7 +1623,7 @@
       <c r="W58" s="12"/>
       <c r="X58" s="12"/>
     </row>
-    <row r="59" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
         <v>20</v>
       </c>
@@ -1640,9 +1640,9 @@
       <c r="W59" s="12"/>
       <c r="X59" s="12"/>
     </row>
-    <row r="60" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
@@ -1654,9 +1654,9 @@
       <c r="U60" s="12"/>
       <c r="V60" s="12"/>
     </row>
-    <row r="61" spans="1:24" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B61" s="12"/>
       <c r="C61" s="12"/>
@@ -1668,13 +1668,13 @@
       <c r="U61" s="12"/>
       <c r="V61" s="12"/>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B63" s="7"/>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" s="18" t="s">
         <v>2</v>
       </c>
@@ -1700,9 +1700,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B65" s="2">
         <v>100</v>
@@ -1729,9 +1729,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B66" s="2">
         <v>100</v>
@@ -1758,9 +1758,9 @@
         <v>26.3</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B67" s="2">
         <v>100</v>
@@ -1787,9 +1787,9 @@
         <v>12.78</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B68" s="2">
         <v>100</v>
@@ -1816,9 +1816,9 @@
         <v>48.6</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B69" s="2">
         <v>100</v>
@@ -1845,9 +1845,9 @@
         <v>9.66</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B70" s="2">
         <v>100</v>
@@ -1874,634 +1874,634 @@
         <v>30.3</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B71" s="7"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B72" s="7"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B73" s="7"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B74" s="7"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B75" s="7"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B76" s="7"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B77" s="7"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B78" s="7"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B79" s="7"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B80" s="7"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="7"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" s="7"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" s="7"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" s="7"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" s="7"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="7"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="7"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="7"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89" s="7"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90" s="7"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91" s="7"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92" s="7"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93" s="7"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B94" s="7"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B95" s="7"/>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B96" s="7"/>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B97" s="7"/>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B98" s="7"/>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B99" s="7"/>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B100" s="7"/>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B101" s="7"/>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B102" s="7"/>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B103" s="7"/>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B104" s="7"/>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B105" s="7"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B106" s="7"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B107" s="7"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B108" s="7"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B109" s="7"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B110" s="7"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B111" s="7"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B112" s="7"/>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B113" s="7"/>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B114" s="7"/>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B115" s="7"/>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B116" s="7"/>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B117" s="7"/>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B118" s="7"/>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B119" s="7"/>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B120" s="7"/>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B121" s="7"/>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B122" s="7"/>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B123" s="7"/>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B124" s="7"/>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B125" s="7"/>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B126" s="7"/>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B127" s="7"/>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B128" s="7"/>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B129" s="7"/>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B130" s="7"/>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B131" s="7"/>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B132" s="7"/>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B133" s="7"/>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B134" s="7"/>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B135" s="7"/>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B136" s="7"/>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B137" s="7"/>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B138" s="7"/>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B139" s="7"/>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B140" s="7"/>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B141" s="7"/>
     </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B142" s="7"/>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B143" s="7"/>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B144" s="7"/>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B145" s="7"/>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B146" s="7"/>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147" s="7"/>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B148" s="7"/>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B149" s="7"/>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B150" s="7"/>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B151" s="7"/>
     </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B152" s="7"/>
     </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B153" s="7"/>
     </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B154" s="7"/>
     </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B155" s="7"/>
     </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B156" s="7"/>
     </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B157" s="7"/>
     </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B158" s="7"/>
     </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B159" s="7"/>
     </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B160" s="7"/>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B161" s="7"/>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B162" s="7"/>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B163" s="7"/>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B164" s="7"/>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B165" s="7"/>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B166" s="7"/>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B167" s="7"/>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B168" s="7"/>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B169" s="7"/>
     </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B170" s="7"/>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B171" s="7"/>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B172" s="7"/>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B173" s="7"/>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B174" s="7"/>
     </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B175" s="7"/>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B176" s="7"/>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B177" s="7"/>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B178" s="7"/>
     </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B179" s="7"/>
     </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B180" s="7"/>
     </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B181" s="7"/>
     </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B182" s="7"/>
     </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B183" s="7"/>
     </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B184" s="7"/>
     </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B185" s="7"/>
     </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B186" s="7"/>
     </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B187" s="7"/>
     </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B188" s="7"/>
     </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B189" s="7"/>
     </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B190" s="7"/>
     </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B191" s="7"/>
     </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B192" s="7"/>
     </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B193" s="7"/>
     </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B194" s="7"/>
     </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B195" s="7"/>
     </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B196" s="7"/>
     </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B197" s="7"/>
     </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B198" s="7"/>
     </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B199" s="7"/>
     </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B200" s="7"/>
     </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B201" s="7"/>
     </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B202" s="7"/>
     </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B203" s="7"/>
     </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B204" s="7"/>
     </row>
-    <row r="205" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B205" s="7"/>
     </row>
-    <row r="206" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B206" s="7"/>
     </row>
-    <row r="207" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B207" s="7"/>
     </row>
-    <row r="208" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B208" s="7"/>
     </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B209" s="7"/>
     </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B210" s="7"/>
     </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B211" s="7"/>
     </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B212" s="7"/>
     </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B213" s="7"/>
     </row>
-    <row r="214" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B214" s="7"/>
     </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B215" s="7"/>
     </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B216" s="7"/>
     </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B217" s="7"/>
     </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B218" s="7"/>
     </row>
-    <row r="219" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B219" s="7"/>
     </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B220" s="7"/>
     </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B221" s="7"/>
     </row>
-    <row r="222" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B222" s="7"/>
     </row>
-    <row r="223" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B223" s="7"/>
     </row>
-    <row r="224" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B224" s="7"/>
     </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B225" s="7"/>
     </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B226" s="7"/>
     </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B227" s="7"/>
     </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B228" s="7"/>
     </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B229" s="7"/>
     </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B230" s="7"/>
     </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B231" s="7"/>
     </row>
-    <row r="232" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B232" s="7"/>
     </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B233" s="7"/>
     </row>
-    <row r="234" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B234" s="7"/>
     </row>
-    <row r="235" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B235" s="7"/>
     </row>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B236" s="7"/>
     </row>
-    <row r="237" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B237" s="7"/>
     </row>
-    <row r="238" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B238" s="7"/>
     </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B239" s="7"/>
     </row>
-    <row r="240" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B240" s="7"/>
     </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B241" s="7"/>
     </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B242" s="7"/>
     </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B243" s="7"/>
     </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B244" s="7"/>
     </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B245" s="7"/>
     </row>
-    <row r="246" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B246" s="7"/>
     </row>
-    <row r="247" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B247" s="7"/>
     </row>
-    <row r="248" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B248" s="7"/>
     </row>
-    <row r="249" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B249" s="7"/>
     </row>
-    <row r="250" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B250" s="7"/>
     </row>
-    <row r="251" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B251" s="7"/>
     </row>
-    <row r="252" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B252" s="7"/>
     </row>
-    <row r="253" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B253" s="7"/>
     </row>
-    <row r="254" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B254" s="7"/>
     </row>
-    <row r="255" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B255" s="7"/>
     </row>
-    <row r="256" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B256" s="7"/>
     </row>
-    <row r="257" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="257" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B257" s="7"/>
     </row>
-    <row r="258" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="258" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B258" s="7"/>
     </row>
-    <row r="259" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="259" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B259" s="7"/>
     </row>
-    <row r="260" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="260" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B260" s="7"/>
     </row>
-    <row r="261" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="261" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B261" s="7"/>
     </row>
-    <row r="262" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="262" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B262" s="7"/>
     </row>
-    <row r="263" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="263" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B263" s="7"/>
     </row>
-    <row r="264" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="264" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B264" s="7"/>
     </row>
-    <row r="265" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="265" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B265" s="7"/>
     </row>
-    <row r="266" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="266" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B266" s="7"/>
     </row>
-    <row r="267" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="267" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B267" s="7"/>
     </row>
-    <row r="268" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="268" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B268" s="7"/>
     </row>
-    <row r="269" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="269" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B269" s="7"/>
     </row>
-    <row r="270" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="270" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B270" s="7"/>
     </row>
-    <row r="271" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="271" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B271" s="7"/>
     </row>
-    <row r="272" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="272" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B272" s="7"/>
     </row>
-    <row r="273" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="273" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B273" s="7"/>
     </row>
-    <row r="274" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="274" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B274" s="7"/>
     </row>
-    <row r="275" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="275" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B275" s="7"/>
     </row>
-    <row r="276" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="276" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B276" s="7"/>
     </row>
-    <row r="277" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="277" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B277" s="7"/>
     </row>
-    <row r="278" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="278" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B278" s="7"/>
     </row>
-    <row r="279" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="279" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B279" s="7"/>
     </row>
-    <row r="280" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="280" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B280" s="7"/>
     </row>
   </sheetData>

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research related\dev\LRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6DCA2C2-5813-46E0-A9B7-A7D686B293D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F5C4BF-2355-4A8A-BE4A-47071AC79345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-113" yWindow="-113" windowWidth="48309" windowHeight="26546" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-113" yWindow="-113" windowWidth="48309" windowHeight="26546" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VRPTW Benchmarking" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="93">
   <si>
     <t>Best known</t>
   </si>
@@ -275,15 +276,56 @@
   </si>
   <si>
     <t>Vehicle Routing Problem with Time-Windows (VRPTW) Benchmarking</t>
+  </si>
+  <si>
+    <t>Location Routing Problem (LRP) Benchmarking</t>
+  </si>
+  <si>
+    <t>                    :randomdepot!   ,</t>
+  </si>
+  <si>
+    <t>                    :relateddepot!  ,</t>
+  </si>
+  <si>
+    <t>                    :worstvehicle!  ,</t>
+  </si>
+  <si>
+    <t>                    :worstdepot!</t>
+  </si>
+  <si>
+    <t>Num vehicles</t>
+  </si>
+  <si>
+    <t>Num depots</t>
+  </si>
+  <si>
+    <t>Total cost</t>
+  </si>
+  <si>
+    <t>coord20-5-1</t>
+  </si>
+  <si>
+    <t>coord50-5-1b</t>
+  </si>
+  <si>
+    <t>coord100-5-2</t>
+  </si>
+  <si>
+    <t>coord200-10-3</t>
+  </si>
+  <si>
+    <t>coord100-10-2b</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="171" formatCode="0.000%"/>
+    <numFmt numFmtId="180" formatCode="0.00000"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -351,7 +393,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -459,12 +501,101 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -504,6 +635,30 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -787,8 +942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X280"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H40" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.15" x14ac:dyDescent="0.25"/>
@@ -2508,4 +2663,2085 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5551421D-4FE7-47B7-A546-15E7A05240A9}">
+  <dimension ref="A1:X280"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J70" sqref="J70"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.05" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.05" x14ac:dyDescent="0.3">
+      <c r="A2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:8" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="8"/>
+    </row>
+    <row r="18" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
+    </row>
+    <row r="19" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="L19" s="12"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
+    </row>
+    <row r="20" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="L20" s="12"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="12"/>
+    </row>
+    <row r="21" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="12"/>
+    </row>
+    <row r="22" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
+    </row>
+    <row r="23" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="12"/>
+    </row>
+    <row r="24" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="12"/>
+      <c r="X24" s="12"/>
+    </row>
+    <row r="25" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="12"/>
+      <c r="X25" s="12"/>
+    </row>
+    <row r="26" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="12"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="12"/>
+    </row>
+    <row r="27" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="12"/>
+      <c r="V27" s="12"/>
+      <c r="W27" s="12"/>
+      <c r="X27" s="12"/>
+    </row>
+    <row r="28" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="12"/>
+      <c r="V28" s="12"/>
+      <c r="W28" s="12"/>
+      <c r="X28" s="12"/>
+    </row>
+    <row r="29" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="12"/>
+      <c r="V29" s="12"/>
+      <c r="W29" s="12"/>
+      <c r="X29" s="12"/>
+    </row>
+    <row r="30" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="12"/>
+      <c r="W30" s="12"/>
+      <c r="X30" s="12"/>
+    </row>
+    <row r="31" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="12"/>
+      <c r="T31" s="12"/>
+      <c r="U31" s="12"/>
+      <c r="V31" s="12"/>
+      <c r="W31" s="12"/>
+      <c r="X31" s="12"/>
+    </row>
+    <row r="32" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="12"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="12"/>
+      <c r="V32" s="12"/>
+      <c r="W32" s="12"/>
+      <c r="X32" s="12"/>
+    </row>
+    <row r="33" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12"/>
+      <c r="S33" s="12"/>
+      <c r="T33" s="12"/>
+      <c r="U33" s="12"/>
+      <c r="V33" s="12"/>
+      <c r="W33" s="12"/>
+      <c r="X33" s="12"/>
+    </row>
+    <row r="34" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="12"/>
+      <c r="T34" s="12"/>
+      <c r="U34" s="12"/>
+      <c r="V34" s="12"/>
+      <c r="W34" s="12"/>
+      <c r="X34" s="12"/>
+    </row>
+    <row r="35" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="12"/>
+      <c r="T35" s="12"/>
+      <c r="U35" s="12"/>
+      <c r="V35" s="12"/>
+      <c r="W35" s="12"/>
+      <c r="X35" s="12"/>
+    </row>
+    <row r="36" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="12"/>
+      <c r="S36" s="12"/>
+      <c r="T36" s="12"/>
+      <c r="U36" s="12"/>
+      <c r="V36" s="12"/>
+      <c r="W36" s="12"/>
+      <c r="X36" s="12"/>
+    </row>
+    <row r="37" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="12"/>
+      <c r="U37" s="12"/>
+      <c r="V37" s="12"/>
+      <c r="W37" s="12"/>
+      <c r="X37" s="12"/>
+    </row>
+    <row r="38" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="12"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="12"/>
+      <c r="U38" s="12"/>
+      <c r="V38" s="12"/>
+      <c r="W38" s="12"/>
+      <c r="X38" s="12"/>
+    </row>
+    <row r="39" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="12"/>
+      <c r="S39" s="12"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="12"/>
+      <c r="V39" s="12"/>
+      <c r="W39" s="12"/>
+      <c r="X39" s="12"/>
+    </row>
+    <row r="40" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="12"/>
+      <c r="S40" s="12"/>
+      <c r="T40" s="12"/>
+      <c r="U40" s="12"/>
+      <c r="V40" s="12"/>
+      <c r="W40" s="12"/>
+      <c r="X40" s="12"/>
+    </row>
+    <row r="41" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="12"/>
+      <c r="S41" s="12"/>
+      <c r="T41" s="12"/>
+      <c r="U41" s="12"/>
+      <c r="V41" s="12"/>
+      <c r="W41" s="12"/>
+      <c r="X41" s="12"/>
+    </row>
+    <row r="42" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
+      <c r="A42" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="12"/>
+      <c r="S42" s="12"/>
+      <c r="T42" s="12"/>
+      <c r="U42" s="12"/>
+      <c r="V42" s="12"/>
+      <c r="W42" s="12"/>
+      <c r="X42" s="12"/>
+    </row>
+    <row r="43" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
+      <c r="A43" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="12"/>
+      <c r="S43" s="12"/>
+      <c r="T43" s="12"/>
+      <c r="U43" s="12"/>
+      <c r="V43" s="12"/>
+      <c r="W43" s="12"/>
+      <c r="X43" s="12"/>
+    </row>
+    <row r="44" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
+      <c r="A44" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="P44" s="12"/>
+      <c r="Q44" s="12"/>
+      <c r="R44" s="12"/>
+      <c r="S44" s="12"/>
+      <c r="T44" s="12"/>
+      <c r="U44" s="12"/>
+      <c r="V44" s="12"/>
+      <c r="W44" s="12"/>
+      <c r="X44" s="12"/>
+    </row>
+    <row r="45" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
+      <c r="A45" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="P45" s="12"/>
+      <c r="Q45" s="12"/>
+      <c r="R45" s="12"/>
+      <c r="S45" s="12"/>
+      <c r="T45" s="12"/>
+      <c r="U45" s="12"/>
+      <c r="V45" s="12"/>
+      <c r="W45" s="12"/>
+      <c r="X45" s="12"/>
+    </row>
+    <row r="46" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
+      <c r="A46" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="P46" s="12"/>
+      <c r="Q46" s="12"/>
+      <c r="R46" s="12"/>
+      <c r="S46" s="12"/>
+      <c r="T46" s="12"/>
+      <c r="U46" s="12"/>
+      <c r="V46" s="12"/>
+      <c r="W46" s="12"/>
+      <c r="X46" s="12"/>
+    </row>
+    <row r="47" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
+      <c r="A47" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="P47" s="12"/>
+      <c r="Q47" s="12"/>
+      <c r="R47" s="12"/>
+      <c r="S47" s="12"/>
+      <c r="T47" s="12"/>
+      <c r="U47" s="12"/>
+      <c r="V47" s="12"/>
+      <c r="W47" s="12"/>
+      <c r="X47" s="12"/>
+    </row>
+    <row r="48" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
+      <c r="A48" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="P48" s="12"/>
+      <c r="Q48" s="12"/>
+      <c r="R48" s="12"/>
+      <c r="S48" s="12"/>
+      <c r="T48" s="12"/>
+      <c r="U48" s="12"/>
+      <c r="V48" s="12"/>
+      <c r="W48" s="12"/>
+      <c r="X48" s="12"/>
+    </row>
+    <row r="49" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
+      <c r="A49" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="P49" s="12"/>
+      <c r="Q49" s="12"/>
+      <c r="R49" s="12"/>
+      <c r="S49" s="12"/>
+      <c r="T49" s="12"/>
+      <c r="U49" s="12"/>
+      <c r="V49" s="12"/>
+      <c r="W49" s="12"/>
+      <c r="X49" s="12"/>
+    </row>
+    <row r="50" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
+      <c r="A50" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="P50" s="12"/>
+      <c r="Q50" s="12"/>
+      <c r="R50" s="12"/>
+      <c r="S50" s="12"/>
+      <c r="T50" s="12"/>
+      <c r="U50" s="12"/>
+      <c r="V50" s="12"/>
+      <c r="W50" s="12"/>
+      <c r="X50" s="12"/>
+    </row>
+    <row r="51" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
+      <c r="A51" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="P51" s="12"/>
+      <c r="Q51" s="12"/>
+      <c r="R51" s="12"/>
+      <c r="S51" s="12"/>
+      <c r="T51" s="12"/>
+      <c r="U51" s="12"/>
+      <c r="V51" s="12"/>
+      <c r="W51" s="12"/>
+      <c r="X51" s="12"/>
+    </row>
+    <row r="52" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
+      <c r="A52" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="P52" s="12"/>
+      <c r="Q52" s="12"/>
+      <c r="R52" s="12"/>
+      <c r="S52" s="12"/>
+      <c r="T52" s="12"/>
+      <c r="U52" s="12"/>
+      <c r="V52" s="12"/>
+      <c r="W52" s="12"/>
+      <c r="X52" s="12"/>
+    </row>
+    <row r="53" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
+      <c r="A53" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="P53" s="12"/>
+      <c r="Q53" s="12"/>
+      <c r="R53" s="12"/>
+      <c r="S53" s="12"/>
+      <c r="T53" s="12"/>
+      <c r="U53" s="12"/>
+      <c r="V53" s="12"/>
+      <c r="W53" s="12"/>
+      <c r="X53" s="12"/>
+    </row>
+    <row r="54" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
+      <c r="A54" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="S54" s="12"/>
+      <c r="T54" s="12"/>
+      <c r="U54" s="12"/>
+      <c r="V54" s="12"/>
+      <c r="W54" s="12"/>
+      <c r="X54" s="12"/>
+    </row>
+    <row r="55" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
+      <c r="A55" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="5"/>
+      <c r="Q55" s="6"/>
+      <c r="S55" s="12"/>
+      <c r="T55" s="12"/>
+      <c r="U55" s="12"/>
+      <c r="V55" s="12"/>
+      <c r="W55" s="12"/>
+      <c r="X55" s="12"/>
+    </row>
+    <row r="56" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
+      <c r="A56" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="P56" s="12"/>
+      <c r="Q56" s="12"/>
+      <c r="R56" s="12"/>
+      <c r="S56" s="12"/>
+      <c r="T56" s="12"/>
+      <c r="U56" s="12"/>
+      <c r="V56" s="12"/>
+      <c r="W56" s="12"/>
+      <c r="X56" s="12"/>
+    </row>
+    <row r="57" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
+      <c r="A57" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+      <c r="P57" s="12"/>
+      <c r="Q57" s="12"/>
+      <c r="R57" s="12"/>
+      <c r="S57" s="12"/>
+      <c r="T57" s="12"/>
+      <c r="U57" s="12"/>
+      <c r="V57" s="12"/>
+      <c r="W57" s="12"/>
+      <c r="X57" s="12"/>
+    </row>
+    <row r="58" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
+      <c r="A58" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+      <c r="P58" s="12"/>
+      <c r="Q58" s="12"/>
+      <c r="R58" s="12"/>
+      <c r="S58" s="12"/>
+      <c r="T58" s="12"/>
+      <c r="U58" s="12"/>
+      <c r="V58" s="12"/>
+      <c r="W58" s="12"/>
+      <c r="X58" s="12"/>
+    </row>
+    <row r="59" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
+      <c r="A59" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+      <c r="P59" s="12"/>
+      <c r="Q59" s="12"/>
+      <c r="R59" s="12"/>
+      <c r="S59" s="12"/>
+      <c r="T59" s="12"/>
+      <c r="U59" s="12"/>
+      <c r="V59" s="12"/>
+      <c r="W59" s="12"/>
+      <c r="X59" s="12"/>
+    </row>
+    <row r="60" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
+      <c r="A60" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="P60" s="12"/>
+      <c r="Q60" s="12"/>
+      <c r="R60" s="12"/>
+      <c r="S60" s="12"/>
+      <c r="T60" s="12"/>
+      <c r="U60" s="12"/>
+      <c r="V60" s="12"/>
+    </row>
+    <row r="61" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
+      <c r="A61" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+      <c r="P61" s="12"/>
+      <c r="Q61" s="12"/>
+      <c r="R61" s="12"/>
+      <c r="S61" s="12"/>
+      <c r="T61" s="12"/>
+      <c r="U61" s="12"/>
+      <c r="V61" s="12"/>
+    </row>
+    <row r="62" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
+      <c r="A62" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B62" s="12"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+      <c r="P62" s="12"/>
+      <c r="Q62" s="12"/>
+      <c r="R62" s="12"/>
+      <c r="S62" s="12"/>
+      <c r="T62" s="12"/>
+    </row>
+    <row r="63" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
+      <c r="A63" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B63" s="12"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="P63" s="12"/>
+      <c r="Q63" s="12"/>
+      <c r="R63" s="12"/>
+      <c r="S63" s="12"/>
+      <c r="T63" s="12"/>
+    </row>
+    <row r="64" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
+      <c r="A64" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B64" s="12"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+      <c r="P64" s="12"/>
+      <c r="Q64" s="12"/>
+      <c r="R64" s="12"/>
+      <c r="S64" s="12"/>
+      <c r="T64" s="12"/>
+    </row>
+    <row r="65" spans="1:20" ht="15.05" x14ac:dyDescent="0.25">
+      <c r="L65" s="12"/>
+      <c r="M65" s="12"/>
+      <c r="N65" s="12"/>
+      <c r="O65" s="12"/>
+      <c r="P65" s="12"/>
+      <c r="Q65" s="12"/>
+      <c r="R65" s="12"/>
+      <c r="S65" s="12"/>
+      <c r="T65" s="12"/>
+    </row>
+    <row r="66" spans="1:20" ht="15.05" x14ac:dyDescent="0.25">
+      <c r="A66" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c r="L66" s="12"/>
+      <c r="M66" s="12"/>
+      <c r="N66" s="12"/>
+      <c r="O66" s="12"/>
+      <c r="P66" s="12"/>
+      <c r="Q66" s="12"/>
+      <c r="R66" s="12"/>
+      <c r="S66" s="12"/>
+      <c r="T66" s="12"/>
+    </row>
+    <row r="67" spans="1:20" ht="15.05" x14ac:dyDescent="0.25">
+      <c r="A67" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B67" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C67" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="D67" s="27"/>
+      <c r="E67" s="27"/>
+      <c r="F67" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="G67" s="27"/>
+      <c r="H67" s="27"/>
+      <c r="I67" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="J67" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K67" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="L67" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="N67" s="12"/>
+      <c r="O67" s="12"/>
+      <c r="P67" s="12"/>
+      <c r="Q67" s="12"/>
+      <c r="R67" s="12"/>
+      <c r="S67" s="12"/>
+      <c r="T67" s="12"/>
+    </row>
+    <row r="68" spans="1:20" ht="15.05" x14ac:dyDescent="0.25">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="D68" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="E68" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="F68" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="G68" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="H68" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="L68" s="12"/>
+      <c r="M68" s="12"/>
+      <c r="N68" s="12"/>
+      <c r="O68" s="12"/>
+      <c r="P68" s="12"/>
+      <c r="Q68" s="12"/>
+      <c r="R68" s="12"/>
+      <c r="S68" s="12"/>
+      <c r="T68" s="12"/>
+    </row>
+    <row r="69" spans="1:20" ht="15.05" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" s="34">
+        <v>3</v>
+      </c>
+      <c r="D69" s="34">
+        <v>5</v>
+      </c>
+      <c r="E69" s="32">
+        <v>54793</v>
+      </c>
+      <c r="F69" s="34">
+        <v>3</v>
+      </c>
+      <c r="G69" s="34">
+        <v>5</v>
+      </c>
+      <c r="H69" s="29">
+        <v>55447.240290744303</v>
+      </c>
+      <c r="I69" s="37">
+        <f>H69/E69-1</f>
+        <v>1.1940216647095436E-2</v>
+      </c>
+      <c r="J69" s="1">
+        <f>0.54/1000</f>
+        <v>5.4000000000000001E-4</v>
+      </c>
+      <c r="K69" s="1">
+        <v>200</v>
+      </c>
+      <c r="L69" s="1">
+        <f>K69*J69</f>
+        <v>0.108</v>
+      </c>
+      <c r="M69" s="12"/>
+      <c r="N69" s="12"/>
+      <c r="O69" s="12"/>
+      <c r="P69" s="12"/>
+      <c r="Q69" s="12"/>
+      <c r="R69" s="12"/>
+      <c r="S69" s="12"/>
+      <c r="T69" s="12"/>
+    </row>
+    <row r="70" spans="1:20" ht="15.05" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" s="35">
+        <v>2</v>
+      </c>
+      <c r="D70" s="35">
+        <v>6</v>
+      </c>
+      <c r="E70" s="32">
+        <v>63242</v>
+      </c>
+      <c r="F70" s="35">
+        <v>3</v>
+      </c>
+      <c r="G70" s="35">
+        <v>6</v>
+      </c>
+      <c r="H70" s="30">
+        <v>70435.571795120006</v>
+      </c>
+      <c r="I70" s="36">
+        <f>H70/E70-1</f>
+        <v>0.11374674733752888</v>
+      </c>
+      <c r="J70" s="1">
+        <f>3.72/1000</f>
+        <v>3.7200000000000002E-3</v>
+      </c>
+      <c r="K70" s="1">
+        <v>200</v>
+      </c>
+      <c r="L70" s="1">
+        <f>K70*J70</f>
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="M70" s="12"/>
+      <c r="N70" s="12"/>
+      <c r="O70" s="12"/>
+      <c r="P70" s="12"/>
+      <c r="Q70" s="12"/>
+      <c r="R70" s="12"/>
+      <c r="S70" s="12"/>
+      <c r="T70" s="12"/>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" s="35">
+        <v>2</v>
+      </c>
+      <c r="D71" s="35">
+        <v>24</v>
+      </c>
+      <c r="E71" s="32">
+        <v>199520</v>
+      </c>
+      <c r="F71" s="35">
+        <v>3</v>
+      </c>
+      <c r="G71" s="35">
+        <v>24</v>
+      </c>
+      <c r="H71" s="30">
+        <v>249859.509590136</v>
+      </c>
+      <c r="I71" s="36">
+        <f>H71/E71-1</f>
+        <v>0.25230307533147567</v>
+      </c>
+      <c r="J71" s="1">
+        <f>7.96/1000</f>
+        <v>7.9600000000000001E-3</v>
+      </c>
+      <c r="K71" s="1">
+        <f>200 * 10</f>
+        <v>2000</v>
+      </c>
+      <c r="L71" s="1">
+        <f>K71*J71</f>
+        <v>15.92</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" s="35">
+        <v>3</v>
+      </c>
+      <c r="D72" s="35">
+        <v>11</v>
+      </c>
+      <c r="E72" s="32">
+        <v>204335</v>
+      </c>
+      <c r="F72" s="35">
+        <v>4</v>
+      </c>
+      <c r="G72" s="35">
+        <v>8</v>
+      </c>
+      <c r="H72" s="30">
+        <v>270362.06230151601</v>
+      </c>
+      <c r="I72" s="36">
+        <f t="shared" ref="I72:I73" si="0">H72/E72-1</f>
+        <v>0.32313143759765106</v>
+      </c>
+      <c r="J72" s="1">
+        <f>21.96/1000</f>
+        <v>2.196E-2</v>
+      </c>
+      <c r="K72" s="1">
+        <f>200 * 10</f>
+        <v>2000</v>
+      </c>
+      <c r="L72" s="1">
+        <f t="shared" ref="L72:L73" si="1">K72*J72</f>
+        <v>43.92</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" s="34">
+        <v>3</v>
+      </c>
+      <c r="D73" s="34">
+        <v>47</v>
+      </c>
+      <c r="E73" s="33">
+        <v>476684</v>
+      </c>
+      <c r="F73" s="34">
+        <v>4</v>
+      </c>
+      <c r="G73" s="34">
+        <v>32</v>
+      </c>
+      <c r="H73" s="29">
+        <v>636757.505290751</v>
+      </c>
+      <c r="I73" s="36">
+        <f t="shared" si="0"/>
+        <v>0.33580633142868432</v>
+      </c>
+      <c r="J73" s="38">
+        <f>50.9/1000</f>
+        <v>5.0900000000000001E-2</v>
+      </c>
+      <c r="K73" s="1">
+        <v>3000</v>
+      </c>
+      <c r="L73" s="1">
+        <f t="shared" si="1"/>
+        <v>152.69999999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B74" s="7"/>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B75" s="7"/>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B76" s="7"/>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B77" s="7"/>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B78" s="7"/>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B79" s="7"/>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B80" s="7"/>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81" s="7"/>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82" s="7"/>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83" s="7"/>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B84" s="7"/>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B85" s="7"/>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B86" s="7"/>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B87" s="7"/>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B88" s="7"/>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B89" s="7"/>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B90" s="7"/>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B91" s="7"/>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B92" s="7"/>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B93" s="7"/>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B94" s="7"/>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B95" s="7"/>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B96" s="7"/>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B97" s="7"/>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B98" s="7"/>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B99" s="7"/>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B100" s="7"/>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B101" s="7"/>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B102" s="7"/>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B103" s="7"/>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B104" s="7"/>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B105" s="7"/>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B106" s="7"/>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B107" s="7"/>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B108" s="7"/>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B109" s="7"/>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B110" s="7"/>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B111" s="7"/>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B112" s="7"/>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B113" s="7"/>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B114" s="7"/>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B115" s="7"/>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B116" s="7"/>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B117" s="7"/>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B118" s="7"/>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B119" s="7"/>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B120" s="7"/>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B121" s="7"/>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B122" s="7"/>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B123" s="7"/>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B124" s="7"/>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B125" s="7"/>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B126" s="7"/>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B127" s="7"/>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B128" s="7"/>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B129" s="7"/>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B130" s="7"/>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B131" s="7"/>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B132" s="7"/>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B133" s="7"/>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B134" s="7"/>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B135" s="7"/>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B136" s="7"/>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B137" s="7"/>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B138" s="7"/>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B139" s="7"/>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B140" s="7"/>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B141" s="7"/>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B142" s="7"/>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B143" s="7"/>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B144" s="7"/>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B145" s="7"/>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B146" s="7"/>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B147" s="7"/>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B148" s="7"/>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B149" s="7"/>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B150" s="7"/>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B151" s="7"/>
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B152" s="7"/>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B153" s="7"/>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B154" s="7"/>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B155" s="7"/>
+    </row>
+    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B156" s="7"/>
+    </row>
+    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B157" s="7"/>
+    </row>
+    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B158" s="7"/>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B159" s="7"/>
+    </row>
+    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B160" s="7"/>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B161" s="7"/>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B162" s="7"/>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B163" s="7"/>
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B164" s="7"/>
+    </row>
+    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B165" s="7"/>
+    </row>
+    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B166" s="7"/>
+    </row>
+    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B167" s="7"/>
+    </row>
+    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B168" s="7"/>
+    </row>
+    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B169" s="7"/>
+    </row>
+    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B170" s="7"/>
+    </row>
+    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B171" s="7"/>
+    </row>
+    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B172" s="7"/>
+    </row>
+    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B173" s="7"/>
+    </row>
+    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B174" s="7"/>
+    </row>
+    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B175" s="7"/>
+    </row>
+    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B176" s="7"/>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B177" s="7"/>
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B178" s="7"/>
+    </row>
+    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B179" s="7"/>
+    </row>
+    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B180" s="7"/>
+    </row>
+    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B181" s="7"/>
+    </row>
+    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B182" s="7"/>
+    </row>
+    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B183" s="7"/>
+    </row>
+    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B184" s="7"/>
+    </row>
+    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B185" s="7"/>
+    </row>
+    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B186" s="7"/>
+    </row>
+    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B187" s="7"/>
+    </row>
+    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B188" s="7"/>
+    </row>
+    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B189" s="7"/>
+    </row>
+    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B190" s="7"/>
+    </row>
+    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B191" s="7"/>
+    </row>
+    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B192" s="7"/>
+    </row>
+    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B193" s="7"/>
+    </row>
+    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B194" s="7"/>
+    </row>
+    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B195" s="7"/>
+    </row>
+    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B196" s="7"/>
+    </row>
+    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B197" s="7"/>
+    </row>
+    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B198" s="7"/>
+    </row>
+    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B199" s="7"/>
+    </row>
+    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B200" s="7"/>
+    </row>
+    <row r="201" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B201" s="7"/>
+    </row>
+    <row r="202" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B202" s="7"/>
+    </row>
+    <row r="203" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B203" s="7"/>
+    </row>
+    <row r="204" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B204" s="7"/>
+    </row>
+    <row r="205" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B205" s="7"/>
+    </row>
+    <row r="206" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B206" s="7"/>
+    </row>
+    <row r="207" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B207" s="7"/>
+    </row>
+    <row r="208" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B208" s="7"/>
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B209" s="7"/>
+    </row>
+    <row r="210" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B210" s="7"/>
+    </row>
+    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B211" s="7"/>
+    </row>
+    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B212" s="7"/>
+    </row>
+    <row r="213" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B213" s="7"/>
+    </row>
+    <row r="214" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B214" s="7"/>
+    </row>
+    <row r="215" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B215" s="7"/>
+    </row>
+    <row r="216" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B216" s="7"/>
+    </row>
+    <row r="217" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B217" s="7"/>
+    </row>
+    <row r="218" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B218" s="7"/>
+    </row>
+    <row r="219" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B219" s="7"/>
+    </row>
+    <row r="220" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B220" s="7"/>
+    </row>
+    <row r="221" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B221" s="7"/>
+    </row>
+    <row r="222" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B222" s="7"/>
+    </row>
+    <row r="223" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B223" s="7"/>
+    </row>
+    <row r="224" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B224" s="7"/>
+    </row>
+    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B225" s="7"/>
+    </row>
+    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B226" s="7"/>
+    </row>
+    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B227" s="7"/>
+    </row>
+    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B228" s="7"/>
+    </row>
+    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B229" s="7"/>
+    </row>
+    <row r="230" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B230" s="7"/>
+    </row>
+    <row r="231" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B231" s="7"/>
+    </row>
+    <row r="232" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B232" s="7"/>
+    </row>
+    <row r="233" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B233" s="7"/>
+    </row>
+    <row r="234" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B234" s="7"/>
+    </row>
+    <row r="235" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B235" s="7"/>
+    </row>
+    <row r="236" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B236" s="7"/>
+    </row>
+    <row r="237" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B237" s="7"/>
+    </row>
+    <row r="238" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B238" s="7"/>
+    </row>
+    <row r="239" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B239" s="7"/>
+    </row>
+    <row r="240" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B240" s="7"/>
+    </row>
+    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B241" s="7"/>
+    </row>
+    <row r="242" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B242" s="7"/>
+    </row>
+    <row r="243" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B243" s="7"/>
+    </row>
+    <row r="244" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B244" s="7"/>
+    </row>
+    <row r="245" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B245" s="7"/>
+    </row>
+    <row r="246" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B246" s="7"/>
+    </row>
+    <row r="247" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B247" s="7"/>
+    </row>
+    <row r="248" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B248" s="7"/>
+    </row>
+    <row r="249" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B249" s="7"/>
+    </row>
+    <row r="250" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B250" s="7"/>
+    </row>
+    <row r="251" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B251" s="7"/>
+    </row>
+    <row r="252" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B252" s="7"/>
+    </row>
+    <row r="253" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B253" s="7"/>
+    </row>
+    <row r="254" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B254" s="7"/>
+    </row>
+    <row r="255" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B255" s="7"/>
+    </row>
+    <row r="256" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B256" s="7"/>
+    </row>
+    <row r="257" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B257" s="7"/>
+    </row>
+    <row r="258" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B258" s="7"/>
+    </row>
+    <row r="259" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B259" s="7"/>
+    </row>
+    <row r="260" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B260" s="7"/>
+    </row>
+    <row r="261" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B261" s="7"/>
+    </row>
+    <row r="262" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B262" s="7"/>
+    </row>
+    <row r="263" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B263" s="7"/>
+    </row>
+    <row r="264" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B264" s="7"/>
+    </row>
+    <row r="265" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B265" s="7"/>
+    </row>
+    <row r="266" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B266" s="7"/>
+    </row>
+    <row r="267" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B267" s="7"/>
+    </row>
+    <row r="268" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B268" s="7"/>
+    </row>
+    <row r="269" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B269" s="7"/>
+    </row>
+    <row r="270" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B270" s="7"/>
+    </row>
+    <row r="271" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B271" s="7"/>
+    </row>
+    <row r="272" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B272" s="7"/>
+    </row>
+    <row r="273" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B273" s="7"/>
+    </row>
+    <row r="274" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B274" s="7"/>
+    </row>
+    <row r="275" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B275" s="7"/>
+    </row>
+    <row r="276" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B276" s="7"/>
+    </row>
+    <row r="277" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B277" s="7"/>
+    </row>
+    <row r="278" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B278" s="7"/>
+    </row>
+    <row r="279" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B279" s="7"/>
+    </row>
+    <row r="280" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B280" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="F67:H67"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research related\dev\LRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F5C4BF-2355-4A8A-BE4A-47071AC79345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459A97F0-C598-492A-998B-EC1CC48AC8B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-113" yWindow="-113" windowWidth="48309" windowHeight="26546" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VRPTW Benchmarking" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="LRP Benchmarking" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -321,11 +321,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="171" formatCode="0.000%"/>
-    <numFmt numFmtId="180" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -595,7 +594,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -638,12 +637,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -657,8 +650,13 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -943,7 +941,7 @@
   <dimension ref="A1:X280"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H40" sqref="A1:XFD1048576"/>
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.15" x14ac:dyDescent="0.25"/>
@@ -1866,22 +1864,22 @@
         <v>1645.79</v>
       </c>
       <c r="D65" s="6">
-        <v>1647.99912450019</v>
+        <v>1660.6602148245399</v>
       </c>
       <c r="E65" s="3">
         <f>D65/C65-1</f>
-        <v>1.34228820213389E-3</v>
+        <v>9.0353051267415552E-3</v>
       </c>
       <c r="F65" s="5">
-        <f>4.5/1000</f>
-        <v>4.4999999999999997E-3</v>
+        <f>4.43/1000</f>
+        <v>4.4299999999999999E-3</v>
       </c>
       <c r="G65" s="1">
         <v>2000</v>
       </c>
       <c r="H65" s="6">
         <f>F65 * G65</f>
-        <v>9</v>
+        <v>8.86</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -1895,22 +1893,22 @@
         <v>1252.3699999999999</v>
       </c>
       <c r="D66" s="24">
-        <v>1201.06719688372</v>
+        <v>1198.8469022290501</v>
       </c>
       <c r="E66" s="3">
         <f t="shared" ref="E66:E70" si="0">D66/C66-1</f>
-        <v>-4.0964573661361969E-2</v>
+        <v>-4.2737448015322754E-2</v>
       </c>
       <c r="F66" s="4">
-        <f>13.15/1000</f>
-        <v>1.315E-2</v>
+        <f>10.95/1000</f>
+        <v>1.095E-2</v>
       </c>
       <c r="G66" s="1">
         <v>2000</v>
       </c>
       <c r="H66" s="6">
         <f t="shared" ref="H66:H70" si="1">F66 * G66</f>
-        <v>26.3</v>
+        <v>21.9</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -1924,22 +1922,22 @@
         <v>828.94</v>
       </c>
       <c r="D67" s="6">
-        <v>828.93686694239898</v>
+        <v>828.93686694217695</v>
       </c>
       <c r="E67" s="3">
         <f t="shared" si="0"/>
-        <v>-3.7795951468577726E-6</v>
+        <v>-3.7795954147545885E-6</v>
       </c>
       <c r="F67" s="4">
-        <f>6.39/1000</f>
-        <v>6.3899999999999998E-3</v>
+        <f>6.13/1000</f>
+        <v>6.13E-3</v>
       </c>
       <c r="G67" s="1">
         <v>2000</v>
       </c>
       <c r="H67" s="6">
         <f t="shared" si="1"/>
-        <v>12.78</v>
+        <v>12.26</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -1953,22 +1951,22 @@
         <v>591.55999999999995</v>
       </c>
       <c r="D68" s="6">
-        <v>591.55655667036103</v>
+        <v>591.55655666910604</v>
       </c>
       <c r="E68" s="3">
         <f t="shared" si="0"/>
-        <v>-5.8207614425098697E-6</v>
+        <v>-5.8207635639240252E-6</v>
       </c>
       <c r="F68" s="4">
-        <f>24.3/1000</f>
-        <v>2.4300000000000002E-2</v>
+        <f>19.07/1000</f>
+        <v>1.907E-2</v>
       </c>
       <c r="G68" s="1">
         <v>2000</v>
       </c>
       <c r="H68" s="6">
         <f t="shared" si="1"/>
-        <v>48.6</v>
+        <v>38.14</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -1982,22 +1980,22 @@
         <v>1696.94</v>
       </c>
       <c r="D69" s="6">
-        <v>1678.1751810066401</v>
+        <v>1664.75372917754</v>
       </c>
       <c r="E69" s="3">
         <f t="shared" si="0"/>
-        <v>-1.1058033279526702E-2</v>
+        <v>-1.8967241518533351E-2</v>
       </c>
       <c r="F69" s="4">
-        <f>4.83/1000</f>
-        <v>4.8300000000000001E-3</v>
+        <f>4.77/1000</f>
+        <v>4.7699999999999999E-3</v>
       </c>
       <c r="G69" s="1">
         <v>2000</v>
       </c>
       <c r="H69" s="6">
         <f t="shared" si="1"/>
-        <v>9.66</v>
+        <v>9.5399999999999991</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -2011,22 +2009,22 @@
         <v>1406.91</v>
       </c>
       <c r="D70" s="24">
-        <v>1409.21629394568</v>
+        <v>1284.32614778683</v>
       </c>
       <c r="E70" s="3">
         <f t="shared" si="0"/>
-        <v>1.6392618900142875E-3</v>
+        <v>-8.7129846410339051E-2</v>
       </c>
       <c r="F70" s="4">
-        <f>15.15/1000</f>
-        <v>1.515E-2</v>
+        <f>9.17/1000</f>
+        <v>9.1699999999999993E-3</v>
       </c>
       <c r="G70" s="1">
         <v>2000</v>
       </c>
       <c r="H70" s="6">
         <f t="shared" si="1"/>
-        <v>30.3</v>
+        <v>18.34</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -2669,8 +2667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5551421D-4FE7-47B7-A546-15E7A05240A9}">
   <dimension ref="A1:X280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J70" sqref="J70"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J73" sqref="J73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.15" x14ac:dyDescent="0.25"/>
@@ -3841,16 +3839,16 @@
       <c r="B67" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C67" s="26" t="s">
+      <c r="C67" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D67" s="27"/>
-      <c r="E67" s="27"/>
-      <c r="F67" s="27" t="s">
+      <c r="D67" s="37"/>
+      <c r="E67" s="37"/>
+      <c r="F67" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="G67" s="27"/>
-      <c r="H67" s="27"/>
+      <c r="G67" s="37"/>
+      <c r="H67" s="37"/>
       <c r="I67" s="18" t="s">
         <v>3</v>
       </c>
@@ -3880,10 +3878,10 @@
       <c r="D68" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="E68" s="31" t="s">
+      <c r="E68" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="F68" s="28" t="s">
+      <c r="F68" s="26" t="s">
         <v>86</v>
       </c>
       <c r="G68" s="25" t="s">
@@ -3907,38 +3905,38 @@
         <v>88</v>
       </c>
       <c r="B69" s="2"/>
-      <c r="C69" s="34">
+      <c r="C69" s="32">
         <v>3</v>
       </c>
-      <c r="D69" s="34">
+      <c r="D69" s="32">
         <v>5</v>
       </c>
-      <c r="E69" s="32">
+      <c r="E69" s="30">
         <v>54793</v>
       </c>
-      <c r="F69" s="34">
+      <c r="F69" s="32">
         <v>3</v>
       </c>
-      <c r="G69" s="34">
+      <c r="G69" s="32">
         <v>5</v>
       </c>
-      <c r="H69" s="29">
-        <v>55447.240290744303</v>
-      </c>
-      <c r="I69" s="37">
+      <c r="H69" s="27">
+        <v>55007.766132012403</v>
+      </c>
+      <c r="I69" s="34">
         <f>H69/E69-1</f>
-        <v>1.1940216647095436E-2</v>
+        <v>3.9195906778677347E-3</v>
       </c>
       <c r="J69" s="1">
-        <f>0.54/1000</f>
-        <v>5.4000000000000001E-4</v>
+        <f>0.38/1000</f>
+        <v>3.8000000000000002E-4</v>
       </c>
       <c r="K69" s="1">
-        <v>200</v>
-      </c>
-      <c r="L69" s="1">
+        <v>2000</v>
+      </c>
+      <c r="L69" s="24">
         <f>K69*J69</f>
-        <v>0.108</v>
+        <v>0.76</v>
       </c>
       <c r="M69" s="12"/>
       <c r="N69" s="12"/>
@@ -3954,38 +3952,38 @@
         <v>89</v>
       </c>
       <c r="B70" s="2"/>
-      <c r="C70" s="35">
+      <c r="C70" s="33">
         <v>2</v>
       </c>
-      <c r="D70" s="35">
+      <c r="D70" s="33">
         <v>6</v>
       </c>
-      <c r="E70" s="32">
+      <c r="E70" s="30">
         <v>63242</v>
       </c>
-      <c r="F70" s="35">
-        <v>3</v>
-      </c>
-      <c r="G70" s="35">
+      <c r="F70" s="33">
+        <v>2</v>
+      </c>
+      <c r="G70" s="33">
         <v>6</v>
       </c>
-      <c r="H70" s="30">
-        <v>70435.571795120006</v>
-      </c>
-      <c r="I70" s="36">
+      <c r="H70" s="28">
+        <v>68476.530907053006</v>
+      </c>
+      <c r="I70" s="34">
         <f>H70/E70-1</f>
-        <v>0.11374674733752888</v>
+        <v>8.2769850843632531E-2</v>
       </c>
       <c r="J70" s="1">
-        <f>3.72/1000</f>
-        <v>3.7200000000000002E-3</v>
+        <f>2.34/1000</f>
+        <v>2.3400000000000001E-3</v>
       </c>
       <c r="K70" s="1">
-        <v>200</v>
-      </c>
-      <c r="L70" s="1">
+        <v>2000</v>
+      </c>
+      <c r="L70" s="24">
         <f>K70*J70</f>
-        <v>0.74399999999999999</v>
+        <v>4.68</v>
       </c>
       <c r="M70" s="12"/>
       <c r="N70" s="12"/>
@@ -4001,39 +3999,39 @@
         <v>90</v>
       </c>
       <c r="B71" s="2"/>
-      <c r="C71" s="35">
+      <c r="C71" s="33">
         <v>2</v>
       </c>
-      <c r="D71" s="35">
+      <c r="D71" s="33">
         <v>24</v>
       </c>
-      <c r="E71" s="32">
-        <v>199520</v>
-      </c>
-      <c r="F71" s="35">
-        <v>3</v>
-      </c>
-      <c r="G71" s="35">
+      <c r="E71" s="30">
+        <v>195568</v>
+      </c>
+      <c r="F71" s="33">
+        <v>2</v>
+      </c>
+      <c r="G71" s="33">
         <v>24</v>
       </c>
-      <c r="H71" s="30">
-        <v>249859.509590136</v>
-      </c>
-      <c r="I71" s="36">
+      <c r="H71" s="28">
+        <v>213864.368335242</v>
+      </c>
+      <c r="I71" s="34">
         <f>H71/E71-1</f>
-        <v>0.25230307533147567</v>
+        <v>9.3555020940245814E-2</v>
       </c>
       <c r="J71" s="1">
-        <f>7.96/1000</f>
-        <v>7.9600000000000001E-3</v>
+        <f>7.67/1000</f>
+        <v>7.6699999999999997E-3</v>
       </c>
       <c r="K71" s="1">
         <f>200 * 10</f>
         <v>2000</v>
       </c>
-      <c r="L71" s="1">
+      <c r="L71" s="24">
         <f>K71*J71</f>
-        <v>15.92</v>
+        <v>15.34</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
@@ -4041,39 +4039,39 @@
         <v>92</v>
       </c>
       <c r="B72" s="2"/>
-      <c r="C72" s="35">
+      <c r="C72" s="33">
         <v>3</v>
       </c>
-      <c r="D72" s="35">
+      <c r="D72" s="33">
         <v>11</v>
       </c>
-      <c r="E72" s="32">
+      <c r="E72" s="30">
         <v>204335</v>
       </c>
-      <c r="F72" s="35">
-        <v>4</v>
-      </c>
-      <c r="G72" s="35">
-        <v>8</v>
-      </c>
-      <c r="H72" s="30">
-        <v>270362.06230151601</v>
-      </c>
-      <c r="I72" s="36">
+      <c r="F72" s="33">
+        <v>3</v>
+      </c>
+      <c r="G72" s="33">
+        <v>11</v>
+      </c>
+      <c r="H72" s="28">
+        <v>216910.48921065999</v>
+      </c>
+      <c r="I72" s="34">
         <f t="shared" ref="I72:I73" si="0">H72/E72-1</f>
-        <v>0.32313143759765106</v>
-      </c>
-      <c r="J72" s="1">
-        <f>21.96/1000</f>
-        <v>2.196E-2</v>
+        <v>6.1543490888296137E-2</v>
+      </c>
+      <c r="J72" s="35">
+        <f>12.86/1000</f>
+        <v>1.286E-2</v>
       </c>
       <c r="K72" s="1">
         <f>200 * 10</f>
         <v>2000</v>
       </c>
-      <c r="L72" s="1">
+      <c r="L72" s="24">
         <f t="shared" ref="L72:L73" si="1">K72*J72</f>
-        <v>43.92</v>
+        <v>25.72</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
@@ -4081,38 +4079,38 @@
         <v>91</v>
       </c>
       <c r="B73" s="2"/>
-      <c r="C73" s="34">
+      <c r="C73" s="32">
         <v>3</v>
       </c>
-      <c r="D73" s="34">
+      <c r="D73" s="32">
         <v>47</v>
       </c>
-      <c r="E73" s="33">
+      <c r="E73" s="31">
         <v>476684</v>
       </c>
-      <c r="F73" s="34">
+      <c r="F73" s="32">
         <v>4</v>
       </c>
-      <c r="G73" s="34">
-        <v>32</v>
-      </c>
-      <c r="H73" s="29">
-        <v>636757.505290751</v>
-      </c>
-      <c r="I73" s="36">
+      <c r="G73" s="32">
+        <v>47</v>
+      </c>
+      <c r="H73" s="27">
+        <v>614386.43483290798</v>
+      </c>
+      <c r="I73" s="34">
         <f t="shared" si="0"/>
-        <v>0.33580633142868432</v>
-      </c>
-      <c r="J73" s="38">
-        <f>50.9/1000</f>
-        <v>5.0900000000000001E-2</v>
+        <v>0.28887572235046277</v>
+      </c>
+      <c r="J73" s="35">
+        <f>42.97/1000</f>
+        <v>4.2970000000000001E-2</v>
       </c>
       <c r="K73" s="1">
         <v>3000</v>
       </c>
-      <c r="L73" s="1">
+      <c r="L73" s="24">
         <f t="shared" si="1"/>
-        <v>152.69999999999999</v>
+        <v>128.91</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research related\dev\LRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459A97F0-C598-492A-998B-EC1CC48AC8B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F254A9C-0E25-4B11-91DB-136020F20317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-113" yWindow="-113" windowWidth="48309" windowHeight="26546" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -941,7 +941,7 @@
   <dimension ref="A1:X280"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F70" sqref="F70"/>
+      <selection activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.15" x14ac:dyDescent="0.25"/>
@@ -1864,22 +1864,22 @@
         <v>1645.79</v>
       </c>
       <c r="D65" s="6">
-        <v>1660.6602148245399</v>
+        <v>1643.0888648786899</v>
       </c>
       <c r="E65" s="3">
         <f>D65/C65-1</f>
-        <v>9.0353051267415552E-3</v>
+        <v>-1.6412392354492322E-3</v>
       </c>
       <c r="F65" s="5">
-        <f>4.43/1000</f>
-        <v>4.4299999999999999E-3</v>
+        <f>4.81/1000</f>
+        <v>4.81E-3</v>
       </c>
       <c r="G65" s="1">
         <v>2000</v>
       </c>
       <c r="H65" s="6">
         <f>F65 * G65</f>
-        <v>8.86</v>
+        <v>9.6199999999999992</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -1893,22 +1893,22 @@
         <v>1252.3699999999999</v>
       </c>
       <c r="D66" s="24">
-        <v>1198.8469022290501</v>
+        <v>1196.2386137594799</v>
       </c>
       <c r="E66" s="3">
         <f t="shared" ref="E66:E70" si="0">D66/C66-1</f>
-        <v>-4.2737448015322754E-2</v>
+        <v>-4.4820130025886917E-2</v>
       </c>
       <c r="F66" s="4">
-        <f>10.95/1000</f>
-        <v>1.095E-2</v>
+        <f>12.51/1000</f>
+        <v>1.251E-2</v>
       </c>
       <c r="G66" s="1">
         <v>2000</v>
       </c>
       <c r="H66" s="6">
         <f t="shared" ref="H66:H70" si="1">F66 * G66</f>
-        <v>21.9</v>
+        <v>25.02</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -1922,22 +1922,22 @@
         <v>828.94</v>
       </c>
       <c r="D67" s="6">
-        <v>828.93686694217695</v>
+        <v>828.93686694221003</v>
       </c>
       <c r="E67" s="3">
         <f t="shared" si="0"/>
-        <v>-3.7795954147545885E-6</v>
+        <v>-3.7795953748975819E-6</v>
       </c>
       <c r="F67" s="4">
-        <f>6.13/1000</f>
-        <v>6.13E-3</v>
+        <f>6.65/1000</f>
+        <v>6.6500000000000005E-3</v>
       </c>
       <c r="G67" s="1">
         <v>2000</v>
       </c>
       <c r="H67" s="6">
         <f t="shared" si="1"/>
-        <v>12.26</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -1951,22 +1951,22 @@
         <v>591.55999999999995</v>
       </c>
       <c r="D68" s="6">
-        <v>591.55655666910604</v>
+        <v>591.55655666887901</v>
       </c>
       <c r="E68" s="3">
         <f t="shared" si="0"/>
-        <v>-5.8207635639240252E-6</v>
+        <v>-5.8207639477281248E-6</v>
       </c>
       <c r="F68" s="4">
-        <f>19.07/1000</f>
-        <v>1.907E-2</v>
+        <f>22.71/1000</f>
+        <v>2.2710000000000001E-2</v>
       </c>
       <c r="G68" s="1">
         <v>2000</v>
       </c>
       <c r="H68" s="6">
         <f t="shared" si="1"/>
-        <v>38.14</v>
+        <v>45.42</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -1980,22 +1980,22 @@
         <v>1696.94</v>
       </c>
       <c r="D69" s="6">
-        <v>1664.75372917754</v>
+        <v>1670.2230616634599</v>
       </c>
       <c r="E69" s="3">
         <f t="shared" si="0"/>
-        <v>-1.8967241518533351E-2</v>
+        <v>-1.57441856144237E-2</v>
       </c>
       <c r="F69" s="4">
-        <f>4.77/1000</f>
-        <v>4.7699999999999999E-3</v>
+        <f>5.32/1000</f>
+        <v>5.3200000000000001E-3</v>
       </c>
       <c r="G69" s="1">
         <v>2000</v>
       </c>
       <c r="H69" s="6">
         <f t="shared" si="1"/>
-        <v>9.5399999999999991</v>
+        <v>10.64</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -2009,22 +2009,22 @@
         <v>1406.91</v>
       </c>
       <c r="D70" s="24">
-        <v>1284.32614778683</v>
+        <v>1297.91070367663</v>
       </c>
       <c r="E70" s="3">
         <f t="shared" si="0"/>
-        <v>-8.7129846410339051E-2</v>
+        <v>-7.7474249471089163E-2</v>
       </c>
       <c r="F70" s="4">
-        <f>9.17/1000</f>
-        <v>9.1699999999999993E-3</v>
+        <f>12.28/1000</f>
+        <v>1.2279999999999999E-2</v>
       </c>
       <c r="G70" s="1">
         <v>2000</v>
       </c>
       <c r="H70" s="6">
         <f t="shared" si="1"/>
-        <v>18.34</v>
+        <v>24.56</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -2668,7 +2668,7 @@
   <dimension ref="A1:X280"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J73" sqref="J73"/>
+      <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.15" x14ac:dyDescent="0.25"/>
@@ -3921,22 +3921,22 @@
         <v>5</v>
       </c>
       <c r="H69" s="27">
-        <v>55007.766132012403</v>
+        <v>55034.228168332702</v>
       </c>
       <c r="I69" s="34">
         <f>H69/E69-1</f>
-        <v>3.9195906778677347E-3</v>
+        <v>4.4025362424524594E-3</v>
       </c>
       <c r="J69" s="1">
-        <f>0.38/1000</f>
-        <v>3.8000000000000002E-4</v>
+        <f>0.48/1000</f>
+        <v>4.7999999999999996E-4</v>
       </c>
       <c r="K69" s="1">
         <v>2000</v>
       </c>
       <c r="L69" s="24">
         <f>K69*J69</f>
-        <v>0.76</v>
+        <v>0.96</v>
       </c>
       <c r="M69" s="12"/>
       <c r="N69" s="12"/>
@@ -3968,22 +3968,22 @@
         <v>6</v>
       </c>
       <c r="H70" s="28">
-        <v>68476.530907053006</v>
+        <v>68356.876067230405</v>
       </c>
       <c r="I70" s="34">
         <f>H70/E70-1</f>
-        <v>8.2769850843632531E-2</v>
-      </c>
-      <c r="J70" s="1">
-        <f>2.34/1000</f>
-        <v>2.3400000000000001E-3</v>
+        <v>8.0877835413655674E-2</v>
+      </c>
+      <c r="J70" s="35">
+        <f>2.32/1000</f>
+        <v>2.32E-3</v>
       </c>
       <c r="K70" s="1">
         <v>2000</v>
       </c>
       <c r="L70" s="24">
         <f>K70*J70</f>
-        <v>4.68</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="M70" s="12"/>
       <c r="N70" s="12"/>
@@ -4015,15 +4015,15 @@
         <v>24</v>
       </c>
       <c r="H71" s="28">
-        <v>213864.368335242</v>
+        <v>215943.19011411999</v>
       </c>
       <c r="I71" s="34">
         <f>H71/E71-1</f>
-        <v>9.3555020940245814E-2</v>
+        <v>0.10418468314918594</v>
       </c>
       <c r="J71" s="1">
-        <f>7.67/1000</f>
-        <v>7.6699999999999997E-3</v>
+        <f>7.76/1000</f>
+        <v>7.7599999999999995E-3</v>
       </c>
       <c r="K71" s="1">
         <f>200 * 10</f>
@@ -4031,7 +4031,7 @@
       </c>
       <c r="L71" s="24">
         <f>K71*J71</f>
-        <v>15.34</v>
+        <v>15.52</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
@@ -4052,18 +4052,18 @@
         <v>3</v>
       </c>
       <c r="G72" s="33">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H72" s="28">
-        <v>216910.48921065999</v>
+        <v>227564.86246366901</v>
       </c>
       <c r="I72" s="34">
         <f t="shared" ref="I72:I73" si="0">H72/E72-1</f>
-        <v>6.1543490888296137E-2</v>
+        <v>0.11368518591366628</v>
       </c>
       <c r="J72" s="35">
-        <f>12.86/1000</f>
-        <v>1.286E-2</v>
+        <f>14.59/1000</f>
+        <v>1.4590000000000001E-2</v>
       </c>
       <c r="K72" s="1">
         <f>200 * 10</f>
@@ -4071,7 +4071,7 @@
       </c>
       <c r="L72" s="24">
         <f t="shared" ref="L72:L73" si="1">K72*J72</f>
-        <v>25.72</v>
+        <v>29.18</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
@@ -4095,22 +4095,22 @@
         <v>47</v>
       </c>
       <c r="H73" s="27">
-        <v>614386.43483290798</v>
+        <v>616389.63487272302</v>
       </c>
       <c r="I73" s="34">
         <f t="shared" si="0"/>
-        <v>0.28887572235046277</v>
+        <v>0.29307808710324457</v>
       </c>
       <c r="J73" s="35">
-        <f>42.97/1000</f>
-        <v>4.2970000000000001E-2</v>
+        <f>44.21/1000</f>
+        <v>4.4209999999999999E-2</v>
       </c>
       <c r="K73" s="1">
         <v>3000</v>
       </c>
       <c r="L73" s="24">
         <f t="shared" si="1"/>
-        <v>128.91</v>
+        <v>132.63</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research related\dev\LRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F254A9C-0E25-4B11-91DB-136020F20317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3438B00C-2328-4674-8E0E-F82579E04997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-113" yWindow="-113" windowWidth="48309" windowHeight="26546" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -941,7 +941,7 @@
   <dimension ref="A1:X280"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F68" sqref="F68"/>
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.15" x14ac:dyDescent="0.25"/>
@@ -1871,15 +1871,15 @@
         <v>-1.6412392354492322E-3</v>
       </c>
       <c r="F65" s="5">
-        <f>4.81/1000</f>
-        <v>4.81E-3</v>
+        <f>4.84/1000</f>
+        <v>4.8399999999999997E-3</v>
       </c>
       <c r="G65" s="1">
         <v>2000</v>
       </c>
       <c r="H65" s="6">
         <f>F65 * G65</f>
-        <v>9.6199999999999992</v>
+        <v>9.68</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -1900,15 +1900,15 @@
         <v>-4.4820130025886917E-2</v>
       </c>
       <c r="F66" s="4">
-        <f>12.51/1000</f>
-        <v>1.251E-2</v>
+        <f>12.52/1000</f>
+        <v>1.252E-2</v>
       </c>
       <c r="G66" s="1">
         <v>2000</v>
       </c>
       <c r="H66" s="6">
         <f t="shared" ref="H66:H70" si="1">F66 * G66</f>
-        <v>25.02</v>
+        <v>25.04</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -1922,22 +1922,22 @@
         <v>828.94</v>
       </c>
       <c r="D67" s="6">
-        <v>828.93686694221003</v>
+        <v>828.93686694224698</v>
       </c>
       <c r="E67" s="3">
         <f t="shared" si="0"/>
-        <v>-3.7795953748975819E-6</v>
+        <v>-3.7795953302666163E-6</v>
       </c>
       <c r="F67" s="4">
-        <f>6.65/1000</f>
-        <v>6.6500000000000005E-3</v>
+        <f>6.69/1000</f>
+        <v>6.6900000000000006E-3</v>
       </c>
       <c r="G67" s="1">
         <v>2000</v>
       </c>
       <c r="H67" s="6">
         <f t="shared" si="1"/>
-        <v>13.3</v>
+        <v>13.38</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -1951,22 +1951,22 @@
         <v>591.55999999999995</v>
       </c>
       <c r="D68" s="6">
-        <v>591.55655666887901</v>
+        <v>591.55655666872997</v>
       </c>
       <c r="E68" s="3">
         <f t="shared" si="0"/>
-        <v>-5.8207639477281248E-6</v>
+        <v>-5.8207641997487514E-6</v>
       </c>
       <c r="F68" s="4">
-        <f>22.71/1000</f>
-        <v>2.2710000000000001E-2</v>
+        <f>22.87/1000</f>
+        <v>2.2870000000000001E-2</v>
       </c>
       <c r="G68" s="1">
         <v>2000</v>
       </c>
       <c r="H68" s="6">
         <f t="shared" si="1"/>
-        <v>45.42</v>
+        <v>45.74</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -1987,15 +1987,15 @@
         <v>-1.57441856144237E-2</v>
       </c>
       <c r="F69" s="4">
-        <f>5.32/1000</f>
-        <v>5.3200000000000001E-3</v>
+        <f>5.33/1000</f>
+        <v>5.3299999999999997E-3</v>
       </c>
       <c r="G69" s="1">
         <v>2000</v>
       </c>
       <c r="H69" s="6">
         <f t="shared" si="1"/>
-        <v>10.64</v>
+        <v>10.66</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -2016,15 +2016,15 @@
         <v>-7.7474249471089163E-2</v>
       </c>
       <c r="F70" s="4">
-        <f>12.28/1000</f>
-        <v>1.2279999999999999E-2</v>
+        <f>12.36/1000</f>
+        <v>1.2359999999999999E-2</v>
       </c>
       <c r="G70" s="1">
         <v>2000</v>
       </c>
       <c r="H70" s="6">
         <f t="shared" si="1"/>
-        <v>24.56</v>
+        <v>24.72</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -2668,7 +2668,7 @@
   <dimension ref="A1:X280"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I50" sqref="I50"/>
+      <selection activeCell="J71" sqref="J71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.15" x14ac:dyDescent="0.25"/>
@@ -3921,22 +3921,22 @@
         <v>5</v>
       </c>
       <c r="H69" s="27">
-        <v>55034.228168332702</v>
+        <v>55873.872100158202</v>
       </c>
       <c r="I69" s="34">
         <f>H69/E69-1</f>
-        <v>4.4025362424524594E-3</v>
+        <v>1.9726463237242031E-2</v>
       </c>
       <c r="J69" s="1">
-        <f>0.48/1000</f>
-        <v>4.7999999999999996E-4</v>
+        <f>0.41/1000</f>
+        <v>4.0999999999999999E-4</v>
       </c>
       <c r="K69" s="1">
         <v>2000</v>
       </c>
       <c r="L69" s="24">
         <f>K69*J69</f>
-        <v>0.96</v>
+        <v>0.82</v>
       </c>
       <c r="M69" s="12"/>
       <c r="N69" s="12"/>
@@ -3968,22 +3968,22 @@
         <v>6</v>
       </c>
       <c r="H70" s="28">
-        <v>68356.876067230405</v>
+        <v>69830.631383596206</v>
       </c>
       <c r="I70" s="34">
         <f>H70/E70-1</f>
-        <v>8.0877835413655674E-2</v>
+        <v>0.10418126219278645</v>
       </c>
       <c r="J70" s="35">
-        <f>2.32/1000</f>
-        <v>2.32E-3</v>
+        <f>2.5/1000</f>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="K70" s="1">
         <v>2000</v>
       </c>
       <c r="L70" s="24">
         <f>K70*J70</f>
-        <v>4.6399999999999997</v>
+        <v>5</v>
       </c>
       <c r="M70" s="12"/>
       <c r="N70" s="12"/>
@@ -4012,18 +4012,18 @@
         <v>2</v>
       </c>
       <c r="G71" s="33">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H71" s="28">
-        <v>215943.19011411999</v>
+        <v>220723.237851224</v>
       </c>
       <c r="I71" s="34">
         <f>H71/E71-1</f>
-        <v>0.10418468314918594</v>
+        <v>0.12862655368579734</v>
       </c>
       <c r="J71" s="1">
-        <f>7.76/1000</f>
-        <v>7.7599999999999995E-3</v>
+        <f>8/1000</f>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="K71" s="1">
         <f>200 * 10</f>
@@ -4031,7 +4031,7 @@
       </c>
       <c r="L71" s="24">
         <f>K71*J71</f>
-        <v>15.52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
@@ -4055,15 +4055,15 @@
         <v>12</v>
       </c>
       <c r="H72" s="28">
-        <v>227564.86246366901</v>
+        <v>233794.908861206</v>
       </c>
       <c r="I72" s="34">
         <f t="shared" ref="I72:I73" si="0">H72/E72-1</f>
-        <v>0.11368518591366628</v>
+        <v>0.14417456070279688</v>
       </c>
       <c r="J72" s="35">
-        <f>14.59/1000</f>
-        <v>1.4590000000000001E-2</v>
+        <f>14.58/1000</f>
+        <v>1.4579999999999999E-2</v>
       </c>
       <c r="K72" s="1">
         <f>200 * 10</f>
@@ -4071,7 +4071,7 @@
       </c>
       <c r="L72" s="24">
         <f t="shared" ref="L72:L73" si="1">K72*J72</f>
-        <v>29.18</v>
+        <v>29.16</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
@@ -4089,17 +4089,17 @@
         <v>476684</v>
       </c>
       <c r="F73" s="32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G73" s="32">
         <v>47</v>
       </c>
       <c r="H73" s="27">
-        <v>616389.63487272302</v>
+        <v>544705.99201381905</v>
       </c>
       <c r="I73" s="34">
         <f t="shared" si="0"/>
-        <v>0.29307808710324457</v>
+        <v>0.14269829072051721</v>
       </c>
       <c r="J73" s="35">
         <f>44.21/1000</f>

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research related\dev\LRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3438B00C-2328-4674-8E0E-F82579E04997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{299F229D-E882-4A5F-B86B-BF7E07CC7F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-113" yWindow="-113" windowWidth="48309" windowHeight="26546" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="94">
   <si>
     <t>Best known</t>
   </si>
@@ -272,9 +272,6 @@
     <t>x = length(N)</t>
   </si>
   <si>
-    <t>n = ceil(x, digits=-(length(digits(x))-1))</t>
-  </si>
-  <si>
     <t>Vehicle Routing Problem with Time-Windows (VRPTW) Benchmarking</t>
   </si>
   <si>
@@ -315,6 +312,12 @@
   </si>
   <si>
     <t>coord100-10-2b</t>
+  </si>
+  <si>
+    <t>n = max(200, ceil(x, digits=-(length(digits(x))-1)))</t>
+  </si>
+  <si>
+    <t>n = max(500, ceil(x, digits=-(length(digits(x))-1)))</t>
   </si>
 </sst>
 </file>
@@ -941,7 +944,7 @@
   <dimension ref="A1:X280"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F70" sqref="F70"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.15" x14ac:dyDescent="0.25"/>
@@ -959,7 +962,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="16"/>
@@ -1123,7 +1126,7 @@
     </row>
     <row r="20" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="B20" s="11"/>
       <c r="L20" s="12"/>
@@ -2668,7 +2671,7 @@
   <dimension ref="A1:X280"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J71" sqref="J71"/>
+      <selection activeCell="H73" sqref="H73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.15" x14ac:dyDescent="0.25"/>
@@ -2690,7 +2693,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="16"/>
@@ -2894,7 +2897,7 @@
     </row>
     <row r="20" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="B20" s="11"/>
       <c r="L20" s="12"/>
@@ -3092,7 +3095,7 @@
     </row>
     <row r="30" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -3176,7 +3179,7 @@
     </row>
     <row r="34" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
@@ -3239,7 +3242,7 @@
     </row>
     <row r="37" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -3260,7 +3263,7 @@
     </row>
     <row r="38" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -3873,22 +3876,22 @@
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="D68" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="E68" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="D68" s="25" t="s">
+      <c r="F68" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="E68" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="F68" s="26" t="s">
+      <c r="G68" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="H68" s="25" t="s">
         <v>86</v>
-      </c>
-      <c r="G68" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="H68" s="25" t="s">
-        <v>87</v>
       </c>
       <c r="L68" s="12"/>
       <c r="M68" s="12"/>
@@ -3902,7 +3905,7 @@
     </row>
     <row r="69" spans="1:20" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="32">
@@ -3921,22 +3924,22 @@
         <v>5</v>
       </c>
       <c r="H69" s="27">
-        <v>55873.872100158202</v>
+        <v>55449.609618147799</v>
       </c>
       <c r="I69" s="34">
         <f>H69/E69-1</f>
-        <v>1.9726463237242031E-2</v>
+        <v>1.1983458072158726E-2</v>
       </c>
       <c r="J69" s="1">
-        <f>0.41/1000</f>
-        <v>4.0999999999999999E-4</v>
+        <f>0.36/1000</f>
+        <v>3.5999999999999997E-4</v>
       </c>
       <c r="K69" s="1">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="L69" s="24">
         <f>K69*J69</f>
-        <v>0.82</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="M69" s="12"/>
       <c r="N69" s="12"/>
@@ -3949,7 +3952,7 @@
     </row>
     <row r="70" spans="1:20" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="33">
@@ -3968,22 +3971,22 @@
         <v>6</v>
       </c>
       <c r="H70" s="28">
-        <v>69830.631383596206</v>
+        <v>64516.734565587001</v>
       </c>
       <c r="I70" s="34">
         <f>H70/E70-1</f>
-        <v>0.10418126219278645</v>
+        <v>2.0156455608409063E-2</v>
       </c>
       <c r="J70" s="35">
-        <f>2.5/1000</f>
-        <v>2.5000000000000001E-3</v>
+        <f>1.5/1000</f>
+        <v>1.5E-3</v>
       </c>
       <c r="K70" s="1">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="L70" s="24">
         <f>K70*J70</f>
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="M70" s="12"/>
       <c r="N70" s="12"/>
@@ -3996,7 +3999,7 @@
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="33">
@@ -4012,18 +4015,18 @@
         <v>2</v>
       </c>
       <c r="G71" s="33">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H71" s="28">
-        <v>220723.237851224</v>
+        <v>207301.86896955999</v>
       </c>
       <c r="I71" s="34">
         <f>H71/E71-1</f>
-        <v>0.12862655368579734</v>
+        <v>5.9998920935735889E-2</v>
       </c>
       <c r="J71" s="1">
-        <f>8/1000</f>
-        <v>8.0000000000000002E-3</v>
+        <f>5.86/1000</f>
+        <v>5.8600000000000006E-3</v>
       </c>
       <c r="K71" s="1">
         <f>200 * 10</f>
@@ -4031,12 +4034,12 @@
       </c>
       <c r="L71" s="24">
         <f>K71*J71</f>
-        <v>16</v>
+        <v>11.72</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="33">
@@ -4055,28 +4058,27 @@
         <v>12</v>
       </c>
       <c r="H72" s="28">
-        <v>233794.908861206</v>
+        <v>236120.835873248</v>
       </c>
       <c r="I72" s="34">
         <f t="shared" ref="I72:I73" si="0">H72/E72-1</f>
-        <v>0.14417456070279688</v>
+        <v>0.15555747117844709</v>
       </c>
       <c r="J72" s="35">
-        <f>14.58/1000</f>
-        <v>1.4579999999999999E-2</v>
+        <f>8.25/1000</f>
+        <v>8.2500000000000004E-3</v>
       </c>
       <c r="K72" s="1">
-        <f>200 * 10</f>
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="L72" s="24">
         <f t="shared" ref="L72:L73" si="1">K72*J72</f>
-        <v>29.16</v>
+        <v>41.25</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="32">
@@ -4095,11 +4097,11 @@
         <v>47</v>
       </c>
       <c r="H73" s="27">
-        <v>544705.99201381905</v>
+        <v>541477.71245182003</v>
       </c>
       <c r="I73" s="34">
         <f t="shared" si="0"/>
-        <v>0.14269829072051721</v>
+        <v>0.13592592252271962</v>
       </c>
       <c r="J73" s="35">
         <f>44.21/1000</f>

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research related\dev\LRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{299F229D-E882-4A5F-B86B-BF7E07CC7F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5322A317-BEC3-4BF3-B92D-CBE8270542E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-113" yWindow="-113" windowWidth="48309" windowHeight="26546" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2671,7 +2671,7 @@
   <dimension ref="A1:X280"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H73" sqref="H73"/>
+      <selection activeCell="P45" sqref="P45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.15" x14ac:dyDescent="0.25"/>

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research related\dev\LRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5322A317-BEC3-4BF3-B92D-CBE8270542E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F06298-7D8A-42B6-A191-5811FAFB037D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-113" yWindow="-113" windowWidth="48309" windowHeight="26546" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,15 +71,6 @@
     <t>                    :swap!</t>
   </si>
   <si>
-    <t>        σ₁  =   33                      ,</t>
-  </si>
-  <si>
-    <t>        σ₂  =   9                       ,</t>
-  </si>
-  <si>
-    <t>        σ₃  =   13                      ,</t>
-  </si>
-  <si>
     <t>        ω   =   0.05                    ,</t>
   </si>
   <si>
@@ -89,9 +80,6 @@
     <t>        𝜃   =   0.99975                 ,</t>
   </si>
   <si>
-    <t>        C̲   =   30                      ,</t>
-  </si>
-  <si>
     <t>        C̅   =   60                      ,</t>
   </si>
   <si>
@@ -318,6 +306,18 @@
   </si>
   <si>
     <t>n = max(500, ceil(x, digits=-(length(digits(x))-1)))</t>
+  </si>
+  <si>
+    <t>        σ₁  =   15                      ,</t>
+  </si>
+  <si>
+    <t>        σ₂  =   10                      ,</t>
+  </si>
+  <si>
+    <t>        σ₃  =   3                       ,</t>
+  </si>
+  <si>
+    <t>        C̲   =   4                       ,</t>
   </si>
 </sst>
 </file>
@@ -944,7 +944,7 @@
   <dimension ref="A1:X280"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A50" sqref="A50:A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.15" x14ac:dyDescent="0.25"/>
@@ -962,7 +962,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="16"/>
@@ -980,16 +980,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -997,11 +997,11 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -1009,35 +1009,35 @@
     </row>
     <row r="6" spans="1:6" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:6" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:6" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D10" s="1"/>
     </row>
@@ -1049,7 +1049,7 @@
     </row>
     <row r="12" spans="1:6" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1057,40 +1057,40 @@
     </row>
     <row r="13" spans="1:6" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:6" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:6" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:6" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
@@ -1098,7 +1098,7 @@
     </row>
     <row r="18" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B18" s="8"/>
       <c r="L18" s="12"/>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="19" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B19" s="11"/>
       <c r="L19" s="12"/>
@@ -1126,7 +1126,7 @@
     </row>
     <row r="20" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B20" s="11"/>
       <c r="L20" s="12"/>
@@ -1135,7 +1135,7 @@
     </row>
     <row r="21" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -1152,7 +1152,7 @@
     </row>
     <row r="22" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -1169,7 +1169,7 @@
     </row>
     <row r="23" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -1186,7 +1186,7 @@
     </row>
     <row r="24" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -1203,7 +1203,7 @@
     </row>
     <row r="25" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -1237,7 +1237,7 @@
     </row>
     <row r="27" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
@@ -1254,7 +1254,7 @@
     </row>
     <row r="28" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="29" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -1288,7 +1288,7 @@
     </row>
     <row r="30" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -1305,7 +1305,7 @@
     </row>
     <row r="31" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -1322,7 +1322,7 @@
     </row>
     <row r="32" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
@@ -1339,7 +1339,7 @@
     </row>
     <row r="33" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -1356,7 +1356,7 @@
     </row>
     <row r="34" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
@@ -1373,7 +1373,7 @@
     </row>
     <row r="35" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
@@ -1424,7 +1424,7 @@
     </row>
     <row r="38" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -1441,7 +1441,7 @@
     </row>
     <row r="39" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
@@ -1458,7 +1458,7 @@
     </row>
     <row r="40" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
@@ -1475,7 +1475,7 @@
     </row>
     <row r="41" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
@@ -1509,7 +1509,7 @@
     </row>
     <row r="43" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -1526,7 +1526,7 @@
     </row>
     <row r="44" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
@@ -1543,7 +1543,7 @@
     </row>
     <row r="45" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
@@ -1560,7 +1560,7 @@
     </row>
     <row r="46" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
@@ -1577,7 +1577,7 @@
     </row>
     <row r="47" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
@@ -1628,7 +1628,7 @@
     </row>
     <row r="50" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
@@ -1645,7 +1645,7 @@
     </row>
     <row r="51" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
@@ -1662,7 +1662,7 @@
     </row>
     <row r="52" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
@@ -1679,7 +1679,7 @@
     </row>
     <row r="53" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B53" s="12"/>
       <c r="C53" s="12"/>
@@ -1696,7 +1696,7 @@
     </row>
     <row r="54" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
@@ -1713,7 +1713,7 @@
     </row>
     <row r="55" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
@@ -1730,7 +1730,7 @@
     </row>
     <row r="56" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
@@ -1747,7 +1747,7 @@
     </row>
     <row r="57" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
@@ -1764,7 +1764,7 @@
     </row>
     <row r="58" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
@@ -1781,7 +1781,7 @@
     </row>
     <row r="59" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
@@ -1798,7 +1798,7 @@
     </row>
     <row r="60" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
@@ -1812,7 +1812,7 @@
     </row>
     <row r="61" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B61" s="12"/>
       <c r="C61" s="12"/>
@@ -1826,7 +1826,7 @@
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" s="17" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B63" s="7"/>
     </row>
@@ -1835,7 +1835,7 @@
         <v>2</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C64" s="18" t="s">
         <v>0</v>
@@ -1850,7 +1850,7 @@
         <v>4</v>
       </c>
       <c r="G64" s="18" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H64" s="18" t="s">
         <v>5</v>
@@ -1858,7 +1858,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B65" s="2">
         <v>100</v>
@@ -1867,27 +1867,27 @@
         <v>1645.79</v>
       </c>
       <c r="D65" s="6">
-        <v>1643.0888648786899</v>
+        <v>1648.98876590539</v>
       </c>
       <c r="E65" s="3">
         <f>D65/C65-1</f>
-        <v>-1.6412392354492322E-3</v>
+        <v>1.9436051412331512E-3</v>
       </c>
       <c r="F65" s="5">
-        <f>4.84/1000</f>
-        <v>4.8399999999999997E-3</v>
+        <f>4.27/1000</f>
+        <v>4.2699999999999995E-3</v>
       </c>
       <c r="G65" s="1">
         <v>2000</v>
       </c>
       <c r="H65" s="6">
         <f>F65 * G65</f>
-        <v>9.68</v>
+        <v>8.5399999999999991</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B66" s="2">
         <v>100</v>
@@ -1896,27 +1896,27 @@
         <v>1252.3699999999999</v>
       </c>
       <c r="D66" s="24">
-        <v>1196.2386137594799</v>
+        <v>1191.9670339746301</v>
       </c>
       <c r="E66" s="3">
         <f t="shared" ref="E66:E70" si="0">D66/C66-1</f>
-        <v>-4.4820130025886917E-2</v>
+        <v>-4.8230926982736566E-2</v>
       </c>
       <c r="F66" s="4">
-        <f>12.52/1000</f>
-        <v>1.252E-2</v>
+        <f>11.13/1000</f>
+        <v>1.1130000000000001E-2</v>
       </c>
       <c r="G66" s="1">
         <v>2000</v>
       </c>
       <c r="H66" s="6">
         <f t="shared" ref="H66:H70" si="1">F66 * G66</f>
-        <v>25.04</v>
+        <v>22.26</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B67" s="2">
         <v>100</v>
@@ -1925,27 +1925,27 @@
         <v>828.94</v>
       </c>
       <c r="D67" s="6">
-        <v>828.93686694224698</v>
+        <v>828.93686694236601</v>
       </c>
       <c r="E67" s="3">
         <f t="shared" si="0"/>
-        <v>-3.7795953302666163E-6</v>
+        <v>-3.7795951867147792E-6</v>
       </c>
       <c r="F67" s="4">
-        <f>6.69/1000</f>
-        <v>6.6900000000000006E-3</v>
+        <f>5.61/1000</f>
+        <v>5.6100000000000004E-3</v>
       </c>
       <c r="G67" s="1">
         <v>2000</v>
       </c>
       <c r="H67" s="6">
         <f t="shared" si="1"/>
-        <v>13.38</v>
+        <v>11.22</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B68" s="2">
         <v>100</v>
@@ -1974,7 +1974,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B69" s="2">
         <v>100</v>
@@ -1983,27 +1983,27 @@
         <v>1696.94</v>
       </c>
       <c r="D69" s="6">
-        <v>1670.2230616634599</v>
+        <v>1669.34791567869</v>
       </c>
       <c r="E69" s="3">
         <f t="shared" si="0"/>
-        <v>-1.57441856144237E-2</v>
+        <v>-1.6259905666264007E-2</v>
       </c>
       <c r="F69" s="4">
-        <f>5.33/1000</f>
-        <v>5.3299999999999997E-3</v>
+        <f>4.58/1000</f>
+        <v>4.5799999999999999E-3</v>
       </c>
       <c r="G69" s="1">
         <v>2000</v>
       </c>
       <c r="H69" s="6">
         <f t="shared" si="1"/>
-        <v>10.66</v>
+        <v>9.16</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B70" s="2">
         <v>100</v>
@@ -2012,22 +2012,22 @@
         <v>1406.91</v>
       </c>
       <c r="D70" s="24">
-        <v>1297.91070367663</v>
+        <v>1295.0013013222199</v>
       </c>
       <c r="E70" s="3">
         <f t="shared" si="0"/>
-        <v>-7.7474249471089163E-2</v>
+        <v>-7.9542187259867503E-2</v>
       </c>
       <c r="F70" s="4">
-        <f>12.36/1000</f>
-        <v>1.2359999999999999E-2</v>
+        <f>8.29/1000</f>
+        <v>8.2899999999999988E-3</v>
       </c>
       <c r="G70" s="1">
         <v>2000</v>
       </c>
       <c r="H70" s="6">
         <f t="shared" si="1"/>
-        <v>24.72</v>
+        <v>16.579999999999998</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -2671,7 +2671,7 @@
   <dimension ref="A1:X280"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P45" sqref="P45"/>
+      <selection activeCell="A53" sqref="A53:A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.15" x14ac:dyDescent="0.25"/>
@@ -2693,7 +2693,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.05" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="16"/>
@@ -2715,16 +2715,16 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -2734,11 +2734,11 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -2748,25 +2748,25 @@
     </row>
     <row r="6" spans="1:8" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:8" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -2776,11 +2776,11 @@
     </row>
     <row r="10" spans="1:8" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -2800,7 +2800,7 @@
     </row>
     <row r="12" spans="1:8" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -2812,11 +2812,11 @@
     </row>
     <row r="13" spans="1:8" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -2826,11 +2826,11 @@
     </row>
     <row r="14" spans="1:8" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -2840,11 +2840,11 @@
     </row>
     <row r="15" spans="1:8" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
@@ -2854,10 +2854,10 @@
     </row>
     <row r="16" spans="1:8" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
@@ -2869,7 +2869,7 @@
     </row>
     <row r="18" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B18" s="8"/>
       <c r="L18" s="12"/>
@@ -2888,7 +2888,7 @@
     </row>
     <row r="19" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B19" s="11"/>
       <c r="L19" s="12"/>
@@ -2897,7 +2897,7 @@
     </row>
     <row r="20" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B20" s="11"/>
       <c r="L20" s="12"/>
@@ -2906,7 +2906,7 @@
     </row>
     <row r="21" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -2927,7 +2927,7 @@
     </row>
     <row r="22" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -2948,7 +2948,7 @@
     </row>
     <row r="23" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -2969,7 +2969,7 @@
     </row>
     <row r="24" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -2990,7 +2990,7 @@
     </row>
     <row r="25" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -3032,7 +3032,7 @@
     </row>
     <row r="27" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
@@ -3053,7 +3053,7 @@
     </row>
     <row r="28" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -3074,7 +3074,7 @@
     </row>
     <row r="29" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -3095,7 +3095,7 @@
     </row>
     <row r="30" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -3116,7 +3116,7 @@
     </row>
     <row r="31" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -3137,7 +3137,7 @@
     </row>
     <row r="32" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
@@ -3158,7 +3158,7 @@
     </row>
     <row r="33" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -3179,7 +3179,7 @@
     </row>
     <row r="34" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
@@ -3200,7 +3200,7 @@
     </row>
     <row r="35" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
@@ -3221,7 +3221,7 @@
     </row>
     <row r="36" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
@@ -3242,7 +3242,7 @@
     </row>
     <row r="37" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -3263,7 +3263,7 @@
     </row>
     <row r="38" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -3326,7 +3326,7 @@
     </row>
     <row r="41" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
@@ -3347,7 +3347,7 @@
     </row>
     <row r="42" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
@@ -3368,7 +3368,7 @@
     </row>
     <row r="43" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -3389,7 +3389,7 @@
     </row>
     <row r="44" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
@@ -3431,7 +3431,7 @@
     </row>
     <row r="46" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
@@ -3452,7 +3452,7 @@
     </row>
     <row r="47" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
@@ -3473,7 +3473,7 @@
     </row>
     <row r="48" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
@@ -3494,7 +3494,7 @@
     </row>
     <row r="49" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
@@ -3515,7 +3515,7 @@
     </row>
     <row r="50" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
@@ -3578,7 +3578,7 @@
     </row>
     <row r="53" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="B53" s="12"/>
       <c r="C53" s="12"/>
@@ -3599,7 +3599,7 @@
     </row>
     <row r="54" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
@@ -3617,7 +3617,7 @@
     </row>
     <row r="55" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
@@ -3638,7 +3638,7 @@
     </row>
     <row r="56" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
@@ -3659,7 +3659,7 @@
     </row>
     <row r="57" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
@@ -3680,7 +3680,7 @@
     </row>
     <row r="58" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
@@ -3701,7 +3701,7 @@
     </row>
     <row r="59" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
@@ -3722,7 +3722,7 @@
     </row>
     <row r="60" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
@@ -3741,7 +3741,7 @@
     </row>
     <row r="61" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B61" s="12"/>
       <c r="C61" s="12"/>
@@ -3760,7 +3760,7 @@
     </row>
     <row r="62" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B62" s="12"/>
       <c r="C62" s="12"/>
@@ -3777,7 +3777,7 @@
     </row>
     <row r="63" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B63" s="12"/>
       <c r="C63" s="12"/>
@@ -3794,7 +3794,7 @@
     </row>
     <row r="64" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B64" s="12"/>
       <c r="C64" s="12"/>
@@ -3822,7 +3822,7 @@
     </row>
     <row r="66" spans="1:20" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A66" s="17" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B66" s="7"/>
       <c r="L66" s="12"/>
@@ -3840,7 +3840,7 @@
         <v>2</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C67" s="36" t="s">
         <v>0</v>
@@ -3859,7 +3859,7 @@
         <v>4</v>
       </c>
       <c r="K67" s="18" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="L67" s="18" t="s">
         <v>5</v>
@@ -3876,22 +3876,22 @@
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="25" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D68" s="25" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E68" s="29" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F68" s="26" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G68" s="25" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H68" s="25" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="L68" s="12"/>
       <c r="M68" s="12"/>
@@ -3905,7 +3905,7 @@
     </row>
     <row r="69" spans="1:20" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="32">
@@ -3924,22 +3924,22 @@
         <v>5</v>
       </c>
       <c r="H69" s="27">
-        <v>55449.609618147799</v>
+        <v>55034.228168332796</v>
       </c>
       <c r="I69" s="34">
         <f>H69/E69-1</f>
-        <v>1.1983458072158726E-2</v>
+        <v>4.4025362424542358E-3</v>
       </c>
       <c r="J69" s="1">
-        <f>0.36/1000</f>
-        <v>3.5999999999999997E-4</v>
+        <f>0.35/1000</f>
+        <v>3.5E-4</v>
       </c>
       <c r="K69" s="1">
         <v>5000</v>
       </c>
       <c r="L69" s="24">
         <f>K69*J69</f>
-        <v>1.7999999999999998</v>
+        <v>1.75</v>
       </c>
       <c r="M69" s="12"/>
       <c r="N69" s="12"/>
@@ -3952,7 +3952,7 @@
     </row>
     <row r="70" spans="1:20" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="33">
@@ -3971,22 +3971,22 @@
         <v>6</v>
       </c>
       <c r="H70" s="28">
-        <v>64516.734565587001</v>
+        <v>66423.384898165401</v>
       </c>
       <c r="I70" s="34">
         <f>H70/E70-1</f>
-        <v>2.0156455608409063E-2</v>
+        <v>5.0304938144989153E-2</v>
       </c>
       <c r="J70" s="35">
-        <f>1.5/1000</f>
-        <v>1.5E-3</v>
+        <f>1.37/1000</f>
+        <v>1.3700000000000001E-3</v>
       </c>
       <c r="K70" s="1">
         <v>5000</v>
       </c>
       <c r="L70" s="24">
         <f>K70*J70</f>
-        <v>7.5</v>
+        <v>6.8500000000000005</v>
       </c>
       <c r="M70" s="12"/>
       <c r="N70" s="12"/>
@@ -3999,7 +3999,7 @@
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="33">
@@ -4018,15 +4018,15 @@
         <v>24</v>
       </c>
       <c r="H71" s="28">
-        <v>207301.86896955999</v>
+        <v>204630.99665072499</v>
       </c>
       <c r="I71" s="34">
         <f>H71/E71-1</f>
-        <v>5.9998920935735889E-2</v>
+        <v>4.6341920205376086E-2</v>
       </c>
       <c r="J71" s="1">
-        <f>5.86/1000</f>
-        <v>5.8600000000000006E-3</v>
+        <f>5.32/1000</f>
+        <v>5.3200000000000001E-3</v>
       </c>
       <c r="K71" s="1">
         <f>200 * 10</f>
@@ -4034,12 +4034,12 @@
       </c>
       <c r="L71" s="24">
         <f>K71*J71</f>
-        <v>11.72</v>
+        <v>10.64</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="33">
@@ -4058,27 +4058,27 @@
         <v>12</v>
       </c>
       <c r="H72" s="28">
-        <v>236120.835873248</v>
+        <v>227835.96029704899</v>
       </c>
       <c r="I72" s="34">
         <f t="shared" ref="I72:I73" si="0">H72/E72-1</f>
-        <v>0.15555747117844709</v>
+        <v>0.11501191815914558</v>
       </c>
       <c r="J72" s="35">
-        <f>8.25/1000</f>
-        <v>8.2500000000000004E-3</v>
+        <f>7.22/1000</f>
+        <v>7.2199999999999999E-3</v>
       </c>
       <c r="K72" s="1">
         <v>5000</v>
       </c>
       <c r="L72" s="24">
         <f t="shared" ref="L72:L73" si="1">K72*J72</f>
-        <v>41.25</v>
+        <v>36.1</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="32">
@@ -4097,22 +4097,22 @@
         <v>47</v>
       </c>
       <c r="H73" s="27">
-        <v>541477.71245182003</v>
+        <v>537694.95265082305</v>
       </c>
       <c r="I73" s="34">
         <f t="shared" si="0"/>
-        <v>0.13592592252271962</v>
+        <v>0.12799035136657211</v>
       </c>
       <c r="J73" s="35">
-        <f>44.21/1000</f>
-        <v>4.4209999999999999E-2</v>
+        <f>28.65/1000</f>
+        <v>2.8649999999999998E-2</v>
       </c>
       <c r="K73" s="1">
         <v>3000</v>
       </c>
       <c r="L73" s="24">
         <f t="shared" si="1"/>
-        <v>132.63</v>
+        <v>85.949999999999989</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research related\dev\LRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F06298-7D8A-42B6-A191-5811FAFB037D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A81E7B1-81AD-4B4C-AC63-91B7FBA72F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-113" yWindow="-113" windowWidth="48309" windowHeight="26546" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VRPTW Benchmarking" sheetId="1" r:id="rId1"/>
@@ -943,24 +943,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X280"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:A60"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="1"/>
+    <col min="3" max="3" width="9.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.08984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.05" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>74</v>
       </c>
@@ -970,7 +970,7 @@
       <c r="E1" s="16"/>
       <c r="F1" s="16"/>
     </row>
-    <row r="2" spans="1:6" ht="15.05" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="19"/>
       <c r="B2" s="20"/>
       <c r="C2" s="21"/>
@@ -978,12 +978,12 @@
       <c r="E2" s="21"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -995,7 +995,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
@@ -1007,7 +1007,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>27</v>
       </c>
@@ -1015,13 +1015,13 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:6" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:6" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="23" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:6" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
@@ -1041,13 +1041,13 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:6" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
         <v>39</v>
       </c>
@@ -1055,7 +1055,7 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:6" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>37</v>
       </c>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:6" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>36</v>
       </c>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:6" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>42</v>
       </c>
@@ -1085,7 +1085,7 @@
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:6" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
         <v>40</v>
       </c>
@@ -1093,10 +1093,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="8"/>
     </row>
-    <row r="18" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
         <v>21</v>
       </c>
@@ -1115,7 +1115,7 @@
       <c r="W18" s="12"/>
       <c r="X18" s="12"/>
     </row>
-    <row r="19" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
         <v>73</v>
       </c>
@@ -1124,7 +1124,7 @@
       <c r="W19" s="12"/>
       <c r="X19" s="12"/>
     </row>
-    <row r="20" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
         <v>88</v>
       </c>
@@ -1133,7 +1133,7 @@
       <c r="W20" s="12"/>
       <c r="X20" s="12"/>
     </row>
-    <row r="21" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
         <v>51</v>
       </c>
@@ -1150,7 +1150,7 @@
       <c r="W21" s="12"/>
       <c r="X21" s="12"/>
     </row>
-    <row r="22" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
         <v>52</v>
       </c>
@@ -1167,7 +1167,7 @@
       <c r="W22" s="12"/>
       <c r="X22" s="12"/>
     </row>
-    <row r="23" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="12" t="s">
         <v>53</v>
       </c>
@@ -1184,7 +1184,7 @@
       <c r="W23" s="12"/>
       <c r="X23" s="12"/>
     </row>
-    <row r="24" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="12" t="s">
         <v>54</v>
       </c>
@@ -1201,7 +1201,7 @@
       <c r="W24" s="12"/>
       <c r="X24" s="12"/>
     </row>
-    <row r="25" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="12" t="s">
         <v>55</v>
       </c>
@@ -1218,7 +1218,7 @@
       <c r="W25" s="12"/>
       <c r="X25" s="12"/>
     </row>
-    <row r="26" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="12" t="s">
         <v>8</v>
       </c>
@@ -1235,7 +1235,7 @@
       <c r="W26" s="12"/>
       <c r="X26" s="12"/>
     </row>
-    <row r="27" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="12" t="s">
         <v>56</v>
       </c>
@@ -1252,7 +1252,7 @@
       <c r="W27" s="12"/>
       <c r="X27" s="12"/>
     </row>
-    <row r="28" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="12" t="s">
         <v>57</v>
       </c>
@@ -1269,7 +1269,7 @@
       <c r="W28" s="12"/>
       <c r="X28" s="12"/>
     </row>
-    <row r="29" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="s">
         <v>58</v>
       </c>
@@ -1286,7 +1286,7 @@
       <c r="W29" s="12"/>
       <c r="X29" s="12"/>
     </row>
-    <row r="30" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="12" t="s">
         <v>59</v>
       </c>
@@ -1303,7 +1303,7 @@
       <c r="W30" s="12"/>
       <c r="X30" s="12"/>
     </row>
-    <row r="31" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="12" t="s">
         <v>60</v>
       </c>
@@ -1320,7 +1320,7 @@
       <c r="W31" s="12"/>
       <c r="X31" s="12"/>
     </row>
-    <row r="32" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="12" t="s">
         <v>61</v>
       </c>
@@ -1337,7 +1337,7 @@
       <c r="W32" s="12"/>
       <c r="X32" s="12"/>
     </row>
-    <row r="33" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="s">
         <v>62</v>
       </c>
@@ -1354,7 +1354,7 @@
       <c r="W33" s="12"/>
       <c r="X33" s="12"/>
     </row>
-    <row r="34" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="12" t="s">
         <v>63</v>
       </c>
@@ -1371,7 +1371,7 @@
       <c r="W34" s="12"/>
       <c r="X34" s="12"/>
     </row>
-    <row r="35" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="12" t="s">
         <v>64</v>
       </c>
@@ -1388,7 +1388,7 @@
       <c r="W35" s="12"/>
       <c r="X35" s="12"/>
     </row>
-    <row r="36" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
         <v>6</v>
       </c>
@@ -1405,7 +1405,7 @@
       <c r="W36" s="12"/>
       <c r="X36" s="12"/>
     </row>
-    <row r="37" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="12" t="s">
         <v>9</v>
       </c>
@@ -1422,7 +1422,7 @@
       <c r="W37" s="12"/>
       <c r="X37" s="12"/>
     </row>
-    <row r="38" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="12" t="s">
         <v>65</v>
       </c>
@@ -1439,7 +1439,7 @@
       <c r="W38" s="12"/>
       <c r="X38" s="12"/>
     </row>
-    <row r="39" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="12" t="s">
         <v>66</v>
       </c>
@@ -1456,7 +1456,7 @@
       <c r="W39" s="12"/>
       <c r="X39" s="12"/>
     </row>
-    <row r="40" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="12" t="s">
         <v>67</v>
       </c>
@@ -1473,7 +1473,7 @@
       <c r="W40" s="12"/>
       <c r="X40" s="12"/>
     </row>
-    <row r="41" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="12" t="s">
         <v>68</v>
       </c>
@@ -1490,7 +1490,7 @@
       <c r="W41" s="12"/>
       <c r="X41" s="12"/>
     </row>
-    <row r="42" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
         <v>7</v>
       </c>
@@ -1507,7 +1507,7 @@
       <c r="W42" s="12"/>
       <c r="X42" s="12"/>
     </row>
-    <row r="43" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A43" s="12" t="s">
         <v>17</v>
       </c>
@@ -1524,7 +1524,7 @@
       <c r="W43" s="12"/>
       <c r="X43" s="12"/>
     </row>
-    <row r="44" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
         <v>18</v>
       </c>
@@ -1541,7 +1541,7 @@
       <c r="W44" s="12"/>
       <c r="X44" s="12"/>
     </row>
-    <row r="45" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A45" s="12" t="s">
         <v>69</v>
       </c>
@@ -1558,7 +1558,7 @@
       <c r="W45" s="12"/>
       <c r="X45" s="12"/>
     </row>
-    <row r="46" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A46" s="12" t="s">
         <v>70</v>
       </c>
@@ -1575,7 +1575,7 @@
       <c r="W46" s="12"/>
       <c r="X46" s="12"/>
     </row>
-    <row r="47" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A47" s="12" t="s">
         <v>71</v>
       </c>
@@ -1592,7 +1592,7 @@
       <c r="W47" s="12"/>
       <c r="X47" s="12"/>
     </row>
-    <row r="48" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A48" s="12" t="s">
         <v>10</v>
       </c>
@@ -1609,7 +1609,7 @@
       <c r="W48" s="12"/>
       <c r="X48" s="12"/>
     </row>
-    <row r="49" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A49" s="12" t="s">
         <v>7</v>
       </c>
@@ -1626,7 +1626,7 @@
       <c r="W49" s="12"/>
       <c r="X49" s="12"/>
     </row>
-    <row r="50" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A50" s="12" t="s">
         <v>90</v>
       </c>
@@ -1643,7 +1643,7 @@
       <c r="W50" s="12"/>
       <c r="X50" s="12"/>
     </row>
-    <row r="51" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A51" s="12" t="s">
         <v>91</v>
       </c>
@@ -1660,7 +1660,7 @@
       <c r="W51" s="12"/>
       <c r="X51" s="12"/>
     </row>
-    <row r="52" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A52" s="12" t="s">
         <v>92</v>
       </c>
@@ -1677,7 +1677,7 @@
       <c r="W52" s="12"/>
       <c r="X52" s="12"/>
     </row>
-    <row r="53" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A53" s="12" t="s">
         <v>11</v>
       </c>
@@ -1694,7 +1694,7 @@
       <c r="W53" s="12"/>
       <c r="X53" s="12"/>
     </row>
-    <row r="54" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A54" s="12" t="s">
         <v>12</v>
       </c>
@@ -1711,7 +1711,7 @@
       <c r="W54" s="12"/>
       <c r="X54" s="12"/>
     </row>
-    <row r="55" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A55" s="12" t="s">
         <v>13</v>
       </c>
@@ -1728,7 +1728,7 @@
       <c r="W55" s="12"/>
       <c r="X55" s="12"/>
     </row>
-    <row r="56" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A56" s="12" t="s">
         <v>93</v>
       </c>
@@ -1745,7 +1745,7 @@
       <c r="W56" s="12"/>
       <c r="X56" s="12"/>
     </row>
-    <row r="57" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A57" s="12" t="s">
         <v>14</v>
       </c>
@@ -1762,7 +1762,7 @@
       <c r="W57" s="12"/>
       <c r="X57" s="12"/>
     </row>
-    <row r="58" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A58" s="12" t="s">
         <v>15</v>
       </c>
@@ -1779,7 +1779,7 @@
       <c r="W58" s="12"/>
       <c r="X58" s="12"/>
     </row>
-    <row r="59" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A59" s="12" t="s">
         <v>16</v>
       </c>
@@ -1796,7 +1796,7 @@
       <c r="W59" s="12"/>
       <c r="X59" s="12"/>
     </row>
-    <row r="60" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A60" s="12" t="s">
         <v>72</v>
       </c>
@@ -1810,7 +1810,7 @@
       <c r="U60" s="12"/>
       <c r="V60" s="12"/>
     </row>
-    <row r="61" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A61" s="12" t="s">
         <v>50</v>
       </c>
@@ -1824,13 +1824,13 @@
       <c r="U61" s="12"/>
       <c r="V61" s="12"/>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A63" s="17" t="s">
         <v>22</v>
       </c>
       <c r="B63" s="7"/>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A64" s="18" t="s">
         <v>2</v>
       </c>
@@ -1856,7 +1856,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>44</v>
       </c>
@@ -1867,25 +1867,25 @@
         <v>1645.79</v>
       </c>
       <c r="D65" s="6">
-        <v>1648.98876590539</v>
+        <v>1648.5486688763999</v>
       </c>
       <c r="E65" s="3">
         <f>D65/C65-1</f>
-        <v>1.9436051412331512E-3</v>
+        <v>1.6761973741485914E-3</v>
       </c>
       <c r="F65" s="5">
-        <f>4.27/1000</f>
-        <v>4.2699999999999995E-3</v>
+        <f>4.05/1000</f>
+        <v>4.0499999999999998E-3</v>
       </c>
       <c r="G65" s="1">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="H65" s="6">
         <f>F65 * G65</f>
-        <v>8.5399999999999991</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+        <v>20.25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>45</v>
       </c>
@@ -1896,25 +1896,25 @@
         <v>1252.3699999999999</v>
       </c>
       <c r="D66" s="24">
-        <v>1191.9670339746301</v>
+        <v>1200.2202193455701</v>
       </c>
       <c r="E66" s="3">
         <f t="shared" ref="E66:E70" si="0">D66/C66-1</f>
-        <v>-4.8230926982736566E-2</v>
+        <v>-4.1640873427525316E-2</v>
       </c>
       <c r="F66" s="4">
-        <f>11.13/1000</f>
-        <v>1.1130000000000001E-2</v>
+        <f>10.75/1000</f>
+        <v>1.0749999999999999E-2</v>
       </c>
       <c r="G66" s="1">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="H66" s="6">
         <f t="shared" ref="H66:H70" si="1">F66 * G66</f>
-        <v>22.26</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+        <v>53.749999999999993</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>46</v>
       </c>
@@ -1932,18 +1932,18 @@
         <v>-3.7795951867147792E-6</v>
       </c>
       <c r="F67" s="4">
-        <f>5.61/1000</f>
-        <v>5.6100000000000004E-3</v>
+        <f>5.3/1000</f>
+        <v>5.3E-3</v>
       </c>
       <c r="G67" s="1">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="H67" s="6">
         <f t="shared" si="1"/>
-        <v>11.22</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>47</v>
       </c>
@@ -1961,18 +1961,18 @@
         <v>-5.8207641997487514E-6</v>
       </c>
       <c r="F68" s="4">
-        <f>22.87/1000</f>
-        <v>2.2870000000000001E-2</v>
+        <f>17.59/1000</f>
+        <v>1.7590000000000001E-2</v>
       </c>
       <c r="G68" s="1">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="H68" s="6">
         <f t="shared" si="1"/>
-        <v>45.74</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+        <v>87.95</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>48</v>
       </c>
@@ -1983,25 +1983,25 @@
         <v>1696.94</v>
       </c>
       <c r="D69" s="6">
-        <v>1669.34791567869</v>
+        <v>1663.9923050791599</v>
       </c>
       <c r="E69" s="3">
         <f t="shared" si="0"/>
-        <v>-1.6259905666264007E-2</v>
+        <v>-1.941594571454508E-2</v>
       </c>
       <c r="F69" s="4">
-        <f>4.58/1000</f>
-        <v>4.5799999999999999E-3</v>
+        <f>4.42/1000</f>
+        <v>4.4200000000000003E-3</v>
       </c>
       <c r="G69" s="1">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="H69" s="6">
         <f t="shared" si="1"/>
-        <v>9.16</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>49</v>
       </c>
@@ -2012,652 +2012,652 @@
         <v>1406.91</v>
       </c>
       <c r="D70" s="24">
-        <v>1295.0013013222199</v>
+        <v>1305.8353114469801</v>
       </c>
       <c r="E70" s="3">
         <f t="shared" si="0"/>
-        <v>-7.9542187259867503E-2</v>
+        <v>-7.1841616416842613E-2</v>
       </c>
       <c r="F70" s="4">
-        <f>8.29/1000</f>
-        <v>8.2899999999999988E-3</v>
+        <f>8.81/1000</f>
+        <v>8.8100000000000001E-3</v>
       </c>
       <c r="G70" s="1">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="H70" s="6">
         <f t="shared" si="1"/>
-        <v>16.579999999999998</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+        <v>44.05</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B71" s="7"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B72" s="7"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B73" s="7"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B74" s="7"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B75" s="7"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B76" s="7"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B77" s="7"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B78" s="7"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B79" s="7"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B80" s="7"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B81" s="7"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B82" s="7"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B83" s="7"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B84" s="7"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B85" s="7"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B86" s="7"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B87" s="7"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B88" s="7"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B89" s="7"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B90" s="7"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B91" s="7"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B92" s="7"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B93" s="7"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B94" s="7"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B95" s="7"/>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B96" s="7"/>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B97" s="7"/>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B98" s="7"/>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B99" s="7"/>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B100" s="7"/>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B101" s="7"/>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B102" s="7"/>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B103" s="7"/>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B104" s="7"/>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B105" s="7"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B106" s="7"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B107" s="7"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B108" s="7"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B109" s="7"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B110" s="7"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B111" s="7"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B112" s="7"/>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B113" s="7"/>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B114" s="7"/>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B115" s="7"/>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B116" s="7"/>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B117" s="7"/>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B118" s="7"/>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B119" s="7"/>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B120" s="7"/>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B121" s="7"/>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B122" s="7"/>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B123" s="7"/>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B124" s="7"/>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B125" s="7"/>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B126" s="7"/>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B127" s="7"/>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B128" s="7"/>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B129" s="7"/>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B130" s="7"/>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B131" s="7"/>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B132" s="7"/>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B133" s="7"/>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B134" s="7"/>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B135" s="7"/>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B136" s="7"/>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B137" s="7"/>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B138" s="7"/>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B139" s="7"/>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B140" s="7"/>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B141" s="7"/>
     </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B142" s="7"/>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B143" s="7"/>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B144" s="7"/>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B145" s="7"/>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B146" s="7"/>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B147" s="7"/>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B148" s="7"/>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B149" s="7"/>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B150" s="7"/>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B151" s="7"/>
     </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B152" s="7"/>
     </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B153" s="7"/>
     </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B154" s="7"/>
     </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B155" s="7"/>
     </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B156" s="7"/>
     </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B157" s="7"/>
     </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B158" s="7"/>
     </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B159" s="7"/>
     </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B160" s="7"/>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B161" s="7"/>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B162" s="7"/>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B163" s="7"/>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B164" s="7"/>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B165" s="7"/>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B166" s="7"/>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B167" s="7"/>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B168" s="7"/>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B169" s="7"/>
     </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B170" s="7"/>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B171" s="7"/>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B172" s="7"/>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B173" s="7"/>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B174" s="7"/>
     </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B175" s="7"/>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B176" s="7"/>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B177" s="7"/>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B178" s="7"/>
     </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B179" s="7"/>
     </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B180" s="7"/>
     </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B181" s="7"/>
     </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B182" s="7"/>
     </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B183" s="7"/>
     </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B184" s="7"/>
     </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B185" s="7"/>
     </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B186" s="7"/>
     </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B187" s="7"/>
     </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B188" s="7"/>
     </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B189" s="7"/>
     </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B190" s="7"/>
     </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B191" s="7"/>
     </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B192" s="7"/>
     </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B193" s="7"/>
     </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B194" s="7"/>
     </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B195" s="7"/>
     </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B196" s="7"/>
     </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B197" s="7"/>
     </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B198" s="7"/>
     </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B199" s="7"/>
     </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B200" s="7"/>
     </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B201" s="7"/>
     </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B202" s="7"/>
     </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B203" s="7"/>
     </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B204" s="7"/>
     </row>
-    <row r="205" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B205" s="7"/>
     </row>
-    <row r="206" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B206" s="7"/>
     </row>
-    <row r="207" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B207" s="7"/>
     </row>
-    <row r="208" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B208" s="7"/>
     </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B209" s="7"/>
     </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B210" s="7"/>
     </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B211" s="7"/>
     </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B212" s="7"/>
     </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B213" s="7"/>
     </row>
-    <row r="214" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B214" s="7"/>
     </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B215" s="7"/>
     </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B216" s="7"/>
     </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B217" s="7"/>
     </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B218" s="7"/>
     </row>
-    <row r="219" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B219" s="7"/>
     </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B220" s="7"/>
     </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B221" s="7"/>
     </row>
-    <row r="222" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B222" s="7"/>
     </row>
-    <row r="223" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B223" s="7"/>
     </row>
-    <row r="224" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B224" s="7"/>
     </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B225" s="7"/>
     </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B226" s="7"/>
     </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B227" s="7"/>
     </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B228" s="7"/>
     </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B229" s="7"/>
     </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B230" s="7"/>
     </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B231" s="7"/>
     </row>
-    <row r="232" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B232" s="7"/>
     </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B233" s="7"/>
     </row>
-    <row r="234" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B234" s="7"/>
     </row>
-    <row r="235" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B235" s="7"/>
     </row>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B236" s="7"/>
     </row>
-    <row r="237" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B237" s="7"/>
     </row>
-    <row r="238" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B238" s="7"/>
     </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B239" s="7"/>
     </row>
-    <row r="240" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B240" s="7"/>
     </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B241" s="7"/>
     </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B242" s="7"/>
     </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B243" s="7"/>
     </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B244" s="7"/>
     </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B245" s="7"/>
     </row>
-    <row r="246" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B246" s="7"/>
     </row>
-    <row r="247" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B247" s="7"/>
     </row>
-    <row r="248" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B248" s="7"/>
     </row>
-    <row r="249" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B249" s="7"/>
     </row>
-    <row r="250" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B250" s="7"/>
     </row>
-    <row r="251" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B251" s="7"/>
     </row>
-    <row r="252" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B252" s="7"/>
     </row>
-    <row r="253" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B253" s="7"/>
     </row>
-    <row r="254" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B254" s="7"/>
     </row>
-    <row r="255" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B255" s="7"/>
     </row>
-    <row r="256" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B256" s="7"/>
     </row>
-    <row r="257" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B257" s="7"/>
     </row>
-    <row r="258" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B258" s="7"/>
     </row>
-    <row r="259" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B259" s="7"/>
     </row>
-    <row r="260" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B260" s="7"/>
     </row>
-    <row r="261" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B261" s="7"/>
     </row>
-    <row r="262" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B262" s="7"/>
     </row>
-    <row r="263" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B263" s="7"/>
     </row>
-    <row r="264" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B264" s="7"/>
     </row>
-    <row r="265" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B265" s="7"/>
     </row>
-    <row r="266" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B266" s="7"/>
     </row>
-    <row r="267" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B267" s="7"/>
     </row>
-    <row r="268" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B268" s="7"/>
     </row>
-    <row r="269" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B269" s="7"/>
     </row>
-    <row r="270" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B270" s="7"/>
     </row>
-    <row r="271" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B271" s="7"/>
     </row>
-    <row r="272" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B272" s="7"/>
     </row>
-    <row r="273" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B273" s="7"/>
     </row>
-    <row r="274" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B274" s="7"/>
     </row>
-    <row r="275" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B275" s="7"/>
     </row>
-    <row r="276" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B276" s="7"/>
     </row>
-    <row r="277" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B277" s="7"/>
     </row>
-    <row r="278" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B278" s="7"/>
     </row>
-    <row r="279" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B279" s="7"/>
     </row>
-    <row r="280" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B280" s="7"/>
     </row>
   </sheetData>
@@ -2670,28 +2670,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5551421D-4FE7-47B7-A546-15E7A05240A9}">
   <dimension ref="A1:X280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53:A63"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J71" sqref="J71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.5546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.109375" style="1"/>
+    <col min="3" max="3" width="9.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.54296875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.08984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.05" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>75</v>
       </c>
@@ -2703,7 +2703,7 @@
       <c r="G1" s="16"/>
       <c r="H1" s="16"/>
     </row>
-    <row r="2" spans="1:8" ht="15.05" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="19"/>
       <c r="B2" s="20"/>
       <c r="C2" s="21"/>
@@ -2713,12 +2713,12 @@
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -2732,7 +2732,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
@@ -2746,7 +2746,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>27</v>
       </c>
@@ -2754,13 +2754,13 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:8" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:8" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="23" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
@@ -2774,7 +2774,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
@@ -2788,7 +2788,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -2798,7 +2798,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
         <v>39</v>
       </c>
@@ -2810,7 +2810,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>37</v>
       </c>
@@ -2824,7 +2824,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>36</v>
       </c>
@@ -2838,7 +2838,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>42</v>
       </c>
@@ -2852,7 +2852,7 @@
       <c r="G15" s="12"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
         <v>40</v>
       </c>
@@ -2864,10 +2864,10 @@
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
     </row>
-    <row r="17" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="8"/>
     </row>
-    <row r="18" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
         <v>21</v>
       </c>
@@ -2886,7 +2886,7 @@
       <c r="W18" s="12"/>
       <c r="X18" s="12"/>
     </row>
-    <row r="19" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
         <v>73</v>
       </c>
@@ -2895,7 +2895,7 @@
       <c r="W19" s="12"/>
       <c r="X19" s="12"/>
     </row>
-    <row r="20" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
         <v>89</v>
       </c>
@@ -2904,7 +2904,7 @@
       <c r="W20" s="12"/>
       <c r="X20" s="12"/>
     </row>
-    <row r="21" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
         <v>51</v>
       </c>
@@ -2925,7 +2925,7 @@
       <c r="W21" s="12"/>
       <c r="X21" s="12"/>
     </row>
-    <row r="22" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
         <v>52</v>
       </c>
@@ -2946,7 +2946,7 @@
       <c r="W22" s="12"/>
       <c r="X22" s="12"/>
     </row>
-    <row r="23" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="12" t="s">
         <v>53</v>
       </c>
@@ -2967,7 +2967,7 @@
       <c r="W23" s="12"/>
       <c r="X23" s="12"/>
     </row>
-    <row r="24" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="12" t="s">
         <v>54</v>
       </c>
@@ -2988,7 +2988,7 @@
       <c r="W24" s="12"/>
       <c r="X24" s="12"/>
     </row>
-    <row r="25" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="12" t="s">
         <v>55</v>
       </c>
@@ -3009,7 +3009,7 @@
       <c r="W25" s="12"/>
       <c r="X25" s="12"/>
     </row>
-    <row r="26" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="12" t="s">
         <v>8</v>
       </c>
@@ -3030,7 +3030,7 @@
       <c r="W26" s="12"/>
       <c r="X26" s="12"/>
     </row>
-    <row r="27" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="12" t="s">
         <v>56</v>
       </c>
@@ -3051,7 +3051,7 @@
       <c r="W27" s="12"/>
       <c r="X27" s="12"/>
     </row>
-    <row r="28" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="12" t="s">
         <v>57</v>
       </c>
@@ -3072,7 +3072,7 @@
       <c r="W28" s="12"/>
       <c r="X28" s="12"/>
     </row>
-    <row r="29" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="s">
         <v>58</v>
       </c>
@@ -3093,7 +3093,7 @@
       <c r="W29" s="12"/>
       <c r="X29" s="12"/>
     </row>
-    <row r="30" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="12" t="s">
         <v>76</v>
       </c>
@@ -3114,7 +3114,7 @@
       <c r="W30" s="12"/>
       <c r="X30" s="12"/>
     </row>
-    <row r="31" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="12" t="s">
         <v>59</v>
       </c>
@@ -3135,7 +3135,7 @@
       <c r="W31" s="12"/>
       <c r="X31" s="12"/>
     </row>
-    <row r="32" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="12" t="s">
         <v>60</v>
       </c>
@@ -3156,7 +3156,7 @@
       <c r="W32" s="12"/>
       <c r="X32" s="12"/>
     </row>
-    <row r="33" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="s">
         <v>61</v>
       </c>
@@ -3177,7 +3177,7 @@
       <c r="W33" s="12"/>
       <c r="X33" s="12"/>
     </row>
-    <row r="34" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="12" t="s">
         <v>77</v>
       </c>
@@ -3198,7 +3198,7 @@
       <c r="W34" s="12"/>
       <c r="X34" s="12"/>
     </row>
-    <row r="35" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="12" t="s">
         <v>62</v>
       </c>
@@ -3219,7 +3219,7 @@
       <c r="W35" s="12"/>
       <c r="X35" s="12"/>
     </row>
-    <row r="36" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
         <v>63</v>
       </c>
@@ -3240,7 +3240,7 @@
       <c r="W36" s="12"/>
       <c r="X36" s="12"/>
     </row>
-    <row r="37" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="12" t="s">
         <v>78</v>
       </c>
@@ -3261,7 +3261,7 @@
       <c r="W37" s="12"/>
       <c r="X37" s="12"/>
     </row>
-    <row r="38" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="12" t="s">
         <v>79</v>
       </c>
@@ -3282,7 +3282,7 @@
       <c r="W38" s="12"/>
       <c r="X38" s="12"/>
     </row>
-    <row r="39" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="12" t="s">
         <v>6</v>
       </c>
@@ -3303,7 +3303,7 @@
       <c r="W39" s="12"/>
       <c r="X39" s="12"/>
     </row>
-    <row r="40" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="12" t="s">
         <v>9</v>
       </c>
@@ -3324,7 +3324,7 @@
       <c r="W40" s="12"/>
       <c r="X40" s="12"/>
     </row>
-    <row r="41" spans="1:24" s="9" customFormat="1" ht="12.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="12" t="s">
         <v>65</v>
       </c>
@@ -3345,7 +3345,7 @@
       <c r="W41" s="12"/>
       <c r="X41" s="12"/>
     </row>
-    <row r="42" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
         <v>66</v>
       </c>
@@ -3366,7 +3366,7 @@
       <c r="W42" s="12"/>
       <c r="X42" s="12"/>
     </row>
-    <row r="43" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A43" s="12" t="s">
         <v>67</v>
       </c>
@@ -3387,7 +3387,7 @@
       <c r="W43" s="12"/>
       <c r="X43" s="12"/>
     </row>
-    <row r="44" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
         <v>68</v>
       </c>
@@ -3408,7 +3408,7 @@
       <c r="W44" s="12"/>
       <c r="X44" s="12"/>
     </row>
-    <row r="45" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A45" s="12" t="s">
         <v>7</v>
       </c>
@@ -3429,7 +3429,7 @@
       <c r="W45" s="12"/>
       <c r="X45" s="12"/>
     </row>
-    <row r="46" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A46" s="12" t="s">
         <v>17</v>
       </c>
@@ -3450,7 +3450,7 @@
       <c r="W46" s="12"/>
       <c r="X46" s="12"/>
     </row>
-    <row r="47" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A47" s="12" t="s">
         <v>18</v>
       </c>
@@ -3471,7 +3471,7 @@
       <c r="W47" s="12"/>
       <c r="X47" s="12"/>
     </row>
-    <row r="48" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A48" s="12" t="s">
         <v>69</v>
       </c>
@@ -3492,7 +3492,7 @@
       <c r="W48" s="12"/>
       <c r="X48" s="12"/>
     </row>
-    <row r="49" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A49" s="12" t="s">
         <v>70</v>
       </c>
@@ -3513,7 +3513,7 @@
       <c r="W49" s="12"/>
       <c r="X49" s="12"/>
     </row>
-    <row r="50" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A50" s="12" t="s">
         <v>71</v>
       </c>
@@ -3534,7 +3534,7 @@
       <c r="W50" s="12"/>
       <c r="X50" s="12"/>
     </row>
-    <row r="51" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A51" s="12" t="s">
         <v>10</v>
       </c>
@@ -3555,7 +3555,7 @@
       <c r="W51" s="12"/>
       <c r="X51" s="12"/>
     </row>
-    <row r="52" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A52" s="12" t="s">
         <v>7</v>
       </c>
@@ -3576,7 +3576,7 @@
       <c r="W52" s="12"/>
       <c r="X52" s="12"/>
     </row>
-    <row r="53" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A53" s="12" t="s">
         <v>90</v>
       </c>
@@ -3597,7 +3597,7 @@
       <c r="W53" s="12"/>
       <c r="X53" s="12"/>
     </row>
-    <row r="54" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A54" s="12" t="s">
         <v>91</v>
       </c>
@@ -3615,7 +3615,7 @@
       <c r="W54" s="12"/>
       <c r="X54" s="12"/>
     </row>
-    <row r="55" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A55" s="12" t="s">
         <v>92</v>
       </c>
@@ -3636,7 +3636,7 @@
       <c r="W55" s="12"/>
       <c r="X55" s="12"/>
     </row>
-    <row r="56" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A56" s="12" t="s">
         <v>11</v>
       </c>
@@ -3657,7 +3657,7 @@
       <c r="W56" s="12"/>
       <c r="X56" s="12"/>
     </row>
-    <row r="57" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A57" s="12" t="s">
         <v>12</v>
       </c>
@@ -3678,7 +3678,7 @@
       <c r="W57" s="12"/>
       <c r="X57" s="12"/>
     </row>
-    <row r="58" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A58" s="12" t="s">
         <v>13</v>
       </c>
@@ -3699,7 +3699,7 @@
       <c r="W58" s="12"/>
       <c r="X58" s="12"/>
     </row>
-    <row r="59" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A59" s="12" t="s">
         <v>93</v>
       </c>
@@ -3720,7 +3720,7 @@
       <c r="W59" s="12"/>
       <c r="X59" s="12"/>
     </row>
-    <row r="60" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A60" s="12" t="s">
         <v>14</v>
       </c>
@@ -3739,7 +3739,7 @@
       <c r="U60" s="12"/>
       <c r="V60" s="12"/>
     </row>
-    <row r="61" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A61" s="12" t="s">
         <v>15</v>
       </c>
@@ -3758,7 +3758,7 @@
       <c r="U61" s="12"/>
       <c r="V61" s="12"/>
     </row>
-    <row r="62" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A62" s="12" t="s">
         <v>16</v>
       </c>
@@ -3775,7 +3775,7 @@
       <c r="S62" s="12"/>
       <c r="T62" s="12"/>
     </row>
-    <row r="63" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A63" s="12" t="s">
         <v>72</v>
       </c>
@@ -3792,7 +3792,7 @@
       <c r="S63" s="12"/>
       <c r="T63" s="12"/>
     </row>
-    <row r="64" spans="1:24" ht="15.05" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A64" s="12" t="s">
         <v>50</v>
       </c>
@@ -3809,7 +3809,7 @@
       <c r="S64" s="12"/>
       <c r="T64" s="12"/>
     </row>
-    <row r="65" spans="1:20" ht="15.05" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" ht="14" x14ac:dyDescent="0.3">
       <c r="L65" s="12"/>
       <c r="M65" s="12"/>
       <c r="N65" s="12"/>
@@ -3820,7 +3820,7 @@
       <c r="S65" s="12"/>
       <c r="T65" s="12"/>
     </row>
-    <row r="66" spans="1:20" ht="15.05" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" ht="14" x14ac:dyDescent="0.3">
       <c r="A66" s="17" t="s">
         <v>22</v>
       </c>
@@ -3835,7 +3835,7 @@
       <c r="S66" s="12"/>
       <c r="T66" s="12"/>
     </row>
-    <row r="67" spans="1:20" ht="15.05" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" ht="14" x14ac:dyDescent="0.3">
       <c r="A67" s="18" t="s">
         <v>2</v>
       </c>
@@ -3872,7 +3872,7 @@
       <c r="S67" s="12"/>
       <c r="T67" s="12"/>
     </row>
-    <row r="68" spans="1:20" ht="15.05" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" ht="14" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="25" t="s">
@@ -3903,7 +3903,7 @@
       <c r="S68" s="12"/>
       <c r="T68" s="12"/>
     </row>
-    <row r="69" spans="1:20" ht="15.05" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" ht="14" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>83</v>
       </c>
@@ -3924,22 +3924,22 @@
         <v>5</v>
       </c>
       <c r="H69" s="27">
-        <v>55034.228168332796</v>
+        <v>55089.753137909604</v>
       </c>
       <c r="I69" s="34">
         <f>H69/E69-1</f>
-        <v>4.4025362424542358E-3</v>
+        <v>5.4158950579381582E-3</v>
       </c>
       <c r="J69" s="1">
-        <f>0.35/1000</f>
-        <v>3.5E-4</v>
+        <f>0.32/1000</f>
+        <v>3.2000000000000003E-4</v>
       </c>
       <c r="K69" s="1">
         <v>5000</v>
       </c>
       <c r="L69" s="24">
         <f>K69*J69</f>
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="M69" s="12"/>
       <c r="N69" s="12"/>
@@ -3950,7 +3950,7 @@
       <c r="S69" s="12"/>
       <c r="T69" s="12"/>
     </row>
-    <row r="70" spans="1:20" ht="15.05" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" ht="14" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>84</v>
       </c>
@@ -3971,22 +3971,22 @@
         <v>6</v>
       </c>
       <c r="H70" s="28">
-        <v>66423.384898165401</v>
+        <v>63215.202234419397</v>
       </c>
       <c r="I70" s="34">
         <f>H70/E70-1</f>
-        <v>5.0304938144989153E-2</v>
+        <v>-4.2373368300496761E-4</v>
       </c>
       <c r="J70" s="35">
-        <f>1.37/1000</f>
-        <v>1.3700000000000001E-3</v>
+        <f>1.32/1000</f>
+        <v>1.32E-3</v>
       </c>
       <c r="K70" s="1">
         <v>5000</v>
       </c>
       <c r="L70" s="24">
         <f>K70*J70</f>
-        <v>6.8500000000000005</v>
+        <v>6.6</v>
       </c>
       <c r="M70" s="12"/>
       <c r="N70" s="12"/>
@@ -3997,7 +3997,7 @@
       <c r="S70" s="12"/>
       <c r="T70" s="12"/>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>85</v>
       </c>
@@ -4018,15 +4018,15 @@
         <v>24</v>
       </c>
       <c r="H71" s="28">
-        <v>204630.99665072499</v>
+        <v>215209.433732365</v>
       </c>
       <c r="I71" s="34">
         <f>H71/E71-1</f>
-        <v>4.6341920205376086E-2</v>
+        <v>0.10043275859222867</v>
       </c>
       <c r="J71" s="1">
-        <f>5.32/1000</f>
-        <v>5.3200000000000001E-3</v>
+        <f>3.82/1000</f>
+        <v>3.82E-3</v>
       </c>
       <c r="K71" s="1">
         <f>200 * 10</f>
@@ -4034,10 +4034,10 @@
       </c>
       <c r="L71" s="24">
         <f>K71*J71</f>
-        <v>10.64</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+        <v>7.64</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>87</v>
       </c>
@@ -4058,25 +4058,25 @@
         <v>12</v>
       </c>
       <c r="H72" s="28">
-        <v>227835.96029704899</v>
+        <v>224500.96823680701</v>
       </c>
       <c r="I72" s="34">
         <f t="shared" ref="I72:I73" si="0">H72/E72-1</f>
-        <v>0.11501191815914558</v>
+        <v>9.8690719831683316E-2</v>
       </c>
       <c r="J72" s="35">
-        <f>7.22/1000</f>
-        <v>7.2199999999999999E-3</v>
+        <f>5.79/1000</f>
+        <v>5.79E-3</v>
       </c>
       <c r="K72" s="1">
         <v>5000</v>
       </c>
       <c r="L72" s="24">
         <f t="shared" ref="L72:L73" si="1">K72*J72</f>
-        <v>36.1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+        <v>28.95</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>86</v>
       </c>
@@ -4097,643 +4097,643 @@
         <v>47</v>
       </c>
       <c r="H73" s="27">
-        <v>537694.95265082305</v>
+        <v>513966.62484081602</v>
       </c>
       <c r="I73" s="34">
         <f t="shared" si="0"/>
-        <v>0.12799035136657211</v>
+        <v>7.821245277965283E-2</v>
       </c>
       <c r="J73" s="35">
-        <f>28.65/1000</f>
-        <v>2.8649999999999998E-2</v>
+        <f>16.59/1000</f>
+        <v>1.6590000000000001E-2</v>
       </c>
       <c r="K73" s="1">
         <v>3000</v>
       </c>
       <c r="L73" s="24">
         <f t="shared" si="1"/>
-        <v>85.949999999999989</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+        <v>49.77</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B74" s="7"/>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B75" s="7"/>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B76" s="7"/>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B77" s="7"/>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B78" s="7"/>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B79" s="7"/>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B80" s="7"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B81" s="7"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B82" s="7"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B83" s="7"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B84" s="7"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B85" s="7"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B86" s="7"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B87" s="7"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B88" s="7"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B89" s="7"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B90" s="7"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B91" s="7"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B92" s="7"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B93" s="7"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B94" s="7"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B95" s="7"/>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B96" s="7"/>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B97" s="7"/>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B98" s="7"/>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B99" s="7"/>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B100" s="7"/>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B101" s="7"/>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B102" s="7"/>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B103" s="7"/>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B104" s="7"/>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B105" s="7"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B106" s="7"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B107" s="7"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B108" s="7"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B109" s="7"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B110" s="7"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B111" s="7"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B112" s="7"/>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B113" s="7"/>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B114" s="7"/>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B115" s="7"/>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B116" s="7"/>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B117" s="7"/>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B118" s="7"/>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B119" s="7"/>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B120" s="7"/>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B121" s="7"/>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B122" s="7"/>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B123" s="7"/>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B124" s="7"/>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B125" s="7"/>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B126" s="7"/>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B127" s="7"/>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B128" s="7"/>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B129" s="7"/>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B130" s="7"/>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B131" s="7"/>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B132" s="7"/>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B133" s="7"/>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B134" s="7"/>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B135" s="7"/>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B136" s="7"/>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B137" s="7"/>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B138" s="7"/>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B139" s="7"/>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B140" s="7"/>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B141" s="7"/>
     </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B142" s="7"/>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B143" s="7"/>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B144" s="7"/>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B145" s="7"/>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B146" s="7"/>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B147" s="7"/>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B148" s="7"/>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B149" s="7"/>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B150" s="7"/>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B151" s="7"/>
     </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B152" s="7"/>
     </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B153" s="7"/>
     </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B154" s="7"/>
     </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B155" s="7"/>
     </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B156" s="7"/>
     </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B157" s="7"/>
     </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B158" s="7"/>
     </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B159" s="7"/>
     </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B160" s="7"/>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B161" s="7"/>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B162" s="7"/>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B163" s="7"/>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B164" s="7"/>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B165" s="7"/>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B166" s="7"/>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B167" s="7"/>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B168" s="7"/>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B169" s="7"/>
     </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B170" s="7"/>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B171" s="7"/>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B172" s="7"/>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B173" s="7"/>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B174" s="7"/>
     </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B175" s="7"/>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B176" s="7"/>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B177" s="7"/>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B178" s="7"/>
     </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B179" s="7"/>
     </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B180" s="7"/>
     </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B181" s="7"/>
     </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B182" s="7"/>
     </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B183" s="7"/>
     </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B184" s="7"/>
     </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B185" s="7"/>
     </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B186" s="7"/>
     </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B187" s="7"/>
     </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B188" s="7"/>
     </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B189" s="7"/>
     </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B190" s="7"/>
     </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B191" s="7"/>
     </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B192" s="7"/>
     </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B193" s="7"/>
     </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B194" s="7"/>
     </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B195" s="7"/>
     </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B196" s="7"/>
     </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B197" s="7"/>
     </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B198" s="7"/>
     </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B199" s="7"/>
     </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B200" s="7"/>
     </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B201" s="7"/>
     </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B202" s="7"/>
     </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B203" s="7"/>
     </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B204" s="7"/>
     </row>
-    <row r="205" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B205" s="7"/>
     </row>
-    <row r="206" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B206" s="7"/>
     </row>
-    <row r="207" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B207" s="7"/>
     </row>
-    <row r="208" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B208" s="7"/>
     </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B209" s="7"/>
     </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B210" s="7"/>
     </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B211" s="7"/>
     </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B212" s="7"/>
     </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B213" s="7"/>
     </row>
-    <row r="214" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B214" s="7"/>
     </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B215" s="7"/>
     </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B216" s="7"/>
     </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B217" s="7"/>
     </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B218" s="7"/>
     </row>
-    <row r="219" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B219" s="7"/>
     </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B220" s="7"/>
     </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B221" s="7"/>
     </row>
-    <row r="222" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B222" s="7"/>
     </row>
-    <row r="223" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B223" s="7"/>
     </row>
-    <row r="224" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B224" s="7"/>
     </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B225" s="7"/>
     </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B226" s="7"/>
     </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B227" s="7"/>
     </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B228" s="7"/>
     </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B229" s="7"/>
     </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B230" s="7"/>
     </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B231" s="7"/>
     </row>
-    <row r="232" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B232" s="7"/>
     </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B233" s="7"/>
     </row>
-    <row r="234" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B234" s="7"/>
     </row>
-    <row r="235" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B235" s="7"/>
     </row>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B236" s="7"/>
     </row>
-    <row r="237" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B237" s="7"/>
     </row>
-    <row r="238" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B238" s="7"/>
     </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B239" s="7"/>
     </row>
-    <row r="240" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B240" s="7"/>
     </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B241" s="7"/>
     </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B242" s="7"/>
     </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B243" s="7"/>
     </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B244" s="7"/>
     </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B245" s="7"/>
     </row>
-    <row r="246" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B246" s="7"/>
     </row>
-    <row r="247" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B247" s="7"/>
     </row>
-    <row r="248" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B248" s="7"/>
     </row>
-    <row r="249" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B249" s="7"/>
     </row>
-    <row r="250" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B250" s="7"/>
     </row>
-    <row r="251" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B251" s="7"/>
     </row>
-    <row r="252" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B252" s="7"/>
     </row>
-    <row r="253" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B253" s="7"/>
     </row>
-    <row r="254" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B254" s="7"/>
     </row>
-    <row r="255" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B255" s="7"/>
     </row>
-    <row r="256" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B256" s="7"/>
     </row>
-    <row r="257" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B257" s="7"/>
     </row>
-    <row r="258" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B258" s="7"/>
     </row>
-    <row r="259" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B259" s="7"/>
     </row>
-    <row r="260" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B260" s="7"/>
     </row>
-    <row r="261" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B261" s="7"/>
     </row>
-    <row r="262" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B262" s="7"/>
     </row>
-    <row r="263" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B263" s="7"/>
     </row>
-    <row r="264" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B264" s="7"/>
     </row>
-    <row r="265" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B265" s="7"/>
     </row>
-    <row r="266" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B266" s="7"/>
     </row>
-    <row r="267" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B267" s="7"/>
     </row>
-    <row r="268" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B268" s="7"/>
     </row>
-    <row r="269" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B269" s="7"/>
     </row>
-    <row r="270" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B270" s="7"/>
     </row>
-    <row r="271" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B271" s="7"/>
     </row>
-    <row r="272" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B272" s="7"/>
     </row>
-    <row r="273" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B273" s="7"/>
     </row>
-    <row r="274" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B274" s="7"/>
     </row>
-    <row r="275" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B275" s="7"/>
     </row>
-    <row r="276" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B276" s="7"/>
     </row>
-    <row r="277" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B277" s="7"/>
     </row>
-    <row r="278" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B278" s="7"/>
     </row>
-    <row r="279" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B279" s="7"/>
     </row>
-    <row r="280" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B280" s="7"/>
     </row>
   </sheetData>

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research related\dev\LRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A81E7B1-81AD-4B4C-AC63-91B7FBA72F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F23746-A83D-4DE3-A52E-D58E5C349C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VRPTW Benchmarking" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="99">
   <si>
     <t>Best known</t>
   </si>
@@ -287,21 +287,6 @@
     <t>Total cost</t>
   </si>
   <si>
-    <t>coord20-5-1</t>
-  </si>
-  <si>
-    <t>coord50-5-1b</t>
-  </si>
-  <si>
-    <t>coord100-5-2</t>
-  </si>
-  <si>
-    <t>coord200-10-3</t>
-  </si>
-  <si>
-    <t>coord100-10-2b</t>
-  </si>
-  <si>
     <t>n = max(200, ceil(x, digits=-(length(digits(x))-1)))</t>
   </si>
   <si>
@@ -318,6 +303,36 @@
   </si>
   <si>
     <t>        C̲   =   4                       ,</t>
+  </si>
+  <si>
+    <t>prins20-5-1</t>
+  </si>
+  <si>
+    <t>prins50-5-1b</t>
+  </si>
+  <si>
+    <t>prins100-5-2</t>
+  </si>
+  <si>
+    <t>prins100-10-2b</t>
+  </si>
+  <si>
+    <t>gaskell36-5</t>
+  </si>
+  <si>
+    <t>daskin88-8</t>
+  </si>
+  <si>
+    <t>christofides100-10</t>
+  </si>
+  <si>
+    <t>min134-8</t>
+  </si>
+  <si>
+    <t>prins200-10-3</t>
+  </si>
+  <si>
+    <t>daskin150-10</t>
   </si>
 </sst>
 </file>
@@ -943,7 +958,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
@@ -1126,7 +1141,7 @@
     </row>
     <row r="20" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B20" s="11"/>
       <c r="L20" s="12"/>
@@ -1628,7 +1643,7 @@
     </row>
     <row r="50" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A50" s="12" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
@@ -1645,7 +1660,7 @@
     </row>
     <row r="51" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A51" s="12" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
@@ -1662,7 +1677,7 @@
     </row>
     <row r="52" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A52" s="12" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
@@ -1730,7 +1745,7 @@
     </row>
     <row r="56" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A56" s="12" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
@@ -2668,10 +2683,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5551421D-4FE7-47B7-A546-15E7A05240A9}">
-  <dimension ref="A1:X280"/>
+  <dimension ref="A1:X285"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J71" sqref="J71"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U43" sqref="U43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -2897,7 +2912,7 @@
     </row>
     <row r="20" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B20" s="11"/>
       <c r="L20" s="12"/>
@@ -3578,7 +3593,7 @@
     </row>
     <row r="53" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A53" s="12" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B53" s="12"/>
       <c r="C53" s="12"/>
@@ -3599,7 +3614,7 @@
     </row>
     <row r="54" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A54" s="12" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
@@ -3617,7 +3632,7 @@
     </row>
     <row r="55" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A55" s="12" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
@@ -3701,7 +3716,7 @@
     </row>
     <row r="59" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A59" s="12" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
@@ -3905,7 +3920,7 @@
     </row>
     <row r="69" spans="1:20" ht="14" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="32">
@@ -3952,41 +3967,41 @@
     </row>
     <row r="70" spans="1:20" ht="14" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D70" s="33">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E70" s="30">
-        <v>63242</v>
+        <v>460.4</v>
       </c>
       <c r="F70" s="33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G70" s="33">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H70" s="28">
-        <v>63215.202234419397</v>
+        <v>470.215268434927</v>
       </c>
       <c r="I70" s="34">
         <f>H70/E70-1</f>
-        <v>-4.2373368300496761E-4</v>
+        <v>2.1319001813481897E-2</v>
       </c>
       <c r="J70" s="35">
-        <f>1.32/1000</f>
-        <v>1.32E-3</v>
+        <f>0.6/1000</f>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="K70" s="1">
         <v>5000</v>
       </c>
       <c r="L70" s="24">
         <f>K70*J70</f>
-        <v>6.6</v>
+        <v>2.9999999999999996</v>
       </c>
       <c r="M70" s="12"/>
       <c r="N70" s="12"/>
@@ -3997,138 +4012,333 @@
       <c r="S70" s="12"/>
       <c r="T70" s="12"/>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:20" ht="14" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="33">
         <v>2</v>
       </c>
       <c r="D71" s="33">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="E71" s="30">
-        <v>195568</v>
+        <v>63242</v>
       </c>
       <c r="F71" s="33">
         <v>2</v>
       </c>
       <c r="G71" s="33">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="H71" s="28">
-        <v>215209.433732365</v>
+        <v>63215.202234419397</v>
       </c>
       <c r="I71" s="34">
         <f>H71/E71-1</f>
+        <v>-4.2373368300496761E-4</v>
+      </c>
+      <c r="J71" s="35">
+        <f>1.32/1000</f>
+        <v>1.32E-3</v>
+      </c>
+      <c r="K71" s="1">
+        <v>5000</v>
+      </c>
+      <c r="L71" s="24">
+        <f>K71*J71</f>
+        <v>6.6</v>
+      </c>
+      <c r="M71" s="12"/>
+      <c r="N71" s="12"/>
+      <c r="O71" s="12"/>
+      <c r="P71" s="12"/>
+      <c r="Q71" s="12"/>
+      <c r="R71" s="12"/>
+      <c r="S71" s="12"/>
+      <c r="T71" s="12"/>
+    </row>
+    <row r="72" spans="1:20" ht="14" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" s="33">
+        <v>2</v>
+      </c>
+      <c r="D72" s="33">
+        <v>7</v>
+      </c>
+      <c r="E72" s="30">
+        <v>355.8</v>
+      </c>
+      <c r="F72" s="33">
+        <v>2</v>
+      </c>
+      <c r="G72" s="33">
+        <v>7</v>
+      </c>
+      <c r="H72" s="28">
+        <v>356.02826243842702</v>
+      </c>
+      <c r="I72" s="34">
+        <f>H72/E72-1</f>
+        <v>6.4154704448293742E-4</v>
+      </c>
+      <c r="J72" s="35">
+        <f>4.36/1000</f>
+        <v>4.3600000000000002E-3</v>
+      </c>
+      <c r="K72" s="1">
+        <v>5000</v>
+      </c>
+      <c r="L72" s="24">
+        <f t="shared" ref="L72:L78" si="0">K72*J72</f>
+        <v>21.8</v>
+      </c>
+      <c r="M72" s="12"/>
+      <c r="N72" s="12"/>
+      <c r="O72" s="12"/>
+      <c r="P72" s="12"/>
+      <c r="Q72" s="12"/>
+      <c r="R72" s="12"/>
+      <c r="S72" s="12"/>
+      <c r="T72" s="12"/>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" s="33">
+        <v>2</v>
+      </c>
+      <c r="D73" s="33">
+        <v>24</v>
+      </c>
+      <c r="E73" s="30">
+        <v>195568</v>
+      </c>
+      <c r="F73" s="33">
+        <v>2</v>
+      </c>
+      <c r="G73" s="33">
+        <v>24</v>
+      </c>
+      <c r="H73" s="28">
+        <v>215209.433732365</v>
+      </c>
+      <c r="I73" s="34">
+        <f>H73/E73-1</f>
         <v>0.10043275859222867</v>
       </c>
-      <c r="J71" s="1">
+      <c r="J73" s="1">
         <f>3.82/1000</f>
         <v>3.82E-3</v>
       </c>
-      <c r="K71" s="1">
-        <f>200 * 10</f>
-        <v>2000</v>
-      </c>
-      <c r="L71" s="24">
-        <f>K71*J71</f>
-        <v>7.64</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A72" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B72" s="2"/>
-      <c r="C72" s="33">
+      <c r="K73" s="1">
+        <v>5000</v>
+      </c>
+      <c r="L73" s="24">
+        <f t="shared" si="0"/>
+        <v>19.100000000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" s="33">
         <v>3</v>
       </c>
-      <c r="D72" s="33">
+      <c r="D74" s="33">
         <v>11</v>
       </c>
-      <c r="E72" s="30">
+      <c r="E74" s="30">
         <v>204335</v>
       </c>
-      <c r="F72" s="33">
+      <c r="F74" s="33">
         <v>3</v>
       </c>
-      <c r="G72" s="33">
+      <c r="G74" s="33">
         <v>12</v>
       </c>
-      <c r="H72" s="28">
+      <c r="H74" s="28">
         <v>224500.96823680701</v>
       </c>
-      <c r="I72" s="34">
-        <f t="shared" ref="I72:I73" si="0">H72/E72-1</f>
+      <c r="I74" s="34">
+        <f t="shared" ref="I74:I78" si="1">H74/E74-1</f>
         <v>9.8690719831683316E-2</v>
       </c>
-      <c r="J72" s="35">
+      <c r="J74" s="35">
         <f>5.79/1000</f>
         <v>5.79E-3</v>
       </c>
-      <c r="K72" s="1">
+      <c r="K74" s="1">
         <v>5000</v>
       </c>
-      <c r="L72" s="24">
-        <f t="shared" ref="L72:L73" si="1">K72*J72</f>
+      <c r="L74" s="24">
+        <f t="shared" si="0"/>
         <v>28.95</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B73" s="2"/>
-      <c r="C73" s="32">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" s="33">
+        <v>2</v>
+      </c>
+      <c r="D75" s="33">
+        <v>8</v>
+      </c>
+      <c r="E75" s="30">
+        <v>842.9</v>
+      </c>
+      <c r="F75" s="33">
+        <v>2</v>
+      </c>
+      <c r="G75" s="33">
+        <v>8</v>
+      </c>
+      <c r="H75" s="28">
+        <v>849.62218670261404</v>
+      </c>
+      <c r="I75" s="34">
+        <f t="shared" si="1"/>
+        <v>7.9750702368182047E-3</v>
+      </c>
+      <c r="J75" s="35">
+        <f>5.65/1000</f>
+        <v>5.6500000000000005E-3</v>
+      </c>
+      <c r="K75" s="1">
+        <v>5000</v>
+      </c>
+      <c r="L75" s="24">
+        <f t="shared" si="0"/>
+        <v>28.250000000000004</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" s="33">
         <v>3</v>
       </c>
-      <c r="D73" s="32">
+      <c r="D76" s="33">
+        <v>11</v>
+      </c>
+      <c r="E76" s="30">
+        <v>5809</v>
+      </c>
+      <c r="F76" s="33">
+        <v>4</v>
+      </c>
+      <c r="G76" s="33">
+        <v>10</v>
+      </c>
+      <c r="H76" s="28">
+        <v>6111.3704662733498</v>
+      </c>
+      <c r="I76" s="34">
+        <f t="shared" si="1"/>
+        <v>5.205206856143052E-2</v>
+      </c>
+      <c r="J76" s="35">
+        <f>12.93/1000</f>
+        <v>1.2930000000000001E-2</v>
+      </c>
+      <c r="K76" s="1">
+        <v>5000</v>
+      </c>
+      <c r="L76" s="24">
+        <f t="shared" si="0"/>
+        <v>64.650000000000006</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" s="33">
+        <v>3</v>
+      </c>
+      <c r="D77" s="33">
+        <v>11</v>
+      </c>
+      <c r="E77" s="30">
+        <v>44011.7</v>
+      </c>
+      <c r="F77" s="33">
+        <v>3</v>
+      </c>
+      <c r="G77" s="33">
+        <v>11</v>
+      </c>
+      <c r="H77" s="28">
+        <v>46066.884016841599</v>
+      </c>
+      <c r="I77" s="34">
+        <f t="shared" si="1"/>
+        <v>4.6696310681968667E-2</v>
+      </c>
+      <c r="J77" s="35">
+        <f>17.12/1000</f>
+        <v>1.712E-2</v>
+      </c>
+      <c r="K77" s="1">
+        <v>5000</v>
+      </c>
+      <c r="L77" s="24">
+        <f t="shared" si="0"/>
+        <v>85.6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" s="32">
+        <v>3</v>
+      </c>
+      <c r="D78" s="32">
         <v>47</v>
       </c>
-      <c r="E73" s="31">
+      <c r="E78" s="31">
         <v>476684</v>
       </c>
-      <c r="F73" s="32">
+      <c r="F78" s="32">
         <v>3</v>
       </c>
-      <c r="G73" s="32">
+      <c r="G78" s="32">
         <v>47</v>
       </c>
-      <c r="H73" s="27">
+      <c r="H78" s="27">
         <v>513966.62484081602</v>
       </c>
-      <c r="I73" s="34">
-        <f t="shared" si="0"/>
+      <c r="I78" s="34">
+        <f t="shared" si="1"/>
         <v>7.821245277965283E-2</v>
       </c>
-      <c r="J73" s="35">
+      <c r="J78" s="35">
         <f>16.59/1000</f>
         <v>1.6590000000000001E-2</v>
       </c>
-      <c r="K73" s="1">
-        <v>3000</v>
-      </c>
-      <c r="L73" s="24">
-        <f t="shared" si="1"/>
-        <v>49.77</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B74" s="7"/>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B75" s="7"/>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B76" s="7"/>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B77" s="7"/>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B78" s="7"/>
+      <c r="K78" s="1">
+        <v>5000</v>
+      </c>
+      <c r="L78" s="24">
+        <f t="shared" si="0"/>
+        <v>82.95</v>
+      </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B79" s="7"/>
@@ -4735,6 +4945,21 @@
     </row>
     <row r="280" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B280" s="7"/>
+    </row>
+    <row r="281" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B281" s="7"/>
+    </row>
+    <row r="282" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B282" s="7"/>
+    </row>
+    <row r="283" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B283" s="7"/>
+    </row>
+    <row r="284" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B284" s="7"/>
+    </row>
+    <row r="285" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B285" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research related\dev\LRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F23746-A83D-4DE3-A52E-D58E5C349C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD95D148-F5E5-4519-96C9-A1922DC39B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2685,8 +2685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5551421D-4FE7-47B7-A546-15E7A05240A9}">
   <dimension ref="A1:X285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U43" sqref="U43"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I69" sqref="I69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -3939,22 +3939,22 @@
         <v>5</v>
       </c>
       <c r="H69" s="27">
-        <v>55089.753137909604</v>
+        <v>55007.766132012497</v>
       </c>
       <c r="I69" s="34">
         <f>H69/E69-1</f>
-        <v>5.4158950579381582E-3</v>
+        <v>3.9195906778692891E-3</v>
       </c>
       <c r="J69" s="1">
-        <f>0.32/1000</f>
-        <v>3.2000000000000003E-4</v>
+        <f>0.31/1000</f>
+        <v>3.1E-4</v>
       </c>
       <c r="K69" s="1">
         <v>5000</v>
       </c>
       <c r="L69" s="24">
         <f>K69*J69</f>
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="M69" s="12"/>
       <c r="N69" s="12"/>
@@ -3980,28 +3980,28 @@
         <v>460.4</v>
       </c>
       <c r="F70" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G70" s="33">
         <v>4</v>
       </c>
       <c r="H70" s="28">
-        <v>470.215268434927</v>
+        <v>485.90589128488801</v>
       </c>
       <c r="I70" s="34">
         <f>H70/E70-1</f>
-        <v>2.1319001813481897E-2</v>
+        <v>5.5399416344239949E-2</v>
       </c>
       <c r="J70" s="35">
-        <f>0.6/1000</f>
-        <v>5.9999999999999995E-4</v>
+        <f>0.64/1000</f>
+        <v>6.4000000000000005E-4</v>
       </c>
       <c r="K70" s="1">
         <v>5000</v>
       </c>
       <c r="L70" s="24">
         <f>K70*J70</f>
-        <v>2.9999999999999996</v>
+        <v>3.2</v>
       </c>
       <c r="M70" s="12"/>
       <c r="N70" s="12"/>
@@ -4033,22 +4033,22 @@
         <v>6</v>
       </c>
       <c r="H71" s="28">
-        <v>63215.202234419397</v>
+        <v>63606.987886679999</v>
       </c>
       <c r="I71" s="34">
         <f>H71/E71-1</f>
-        <v>-4.2373368300496761E-4</v>
+        <v>5.7712894386641178E-3</v>
       </c>
       <c r="J71" s="35">
-        <f>1.32/1000</f>
-        <v>1.32E-3</v>
+        <f>1.28/1000</f>
+        <v>1.2800000000000001E-3</v>
       </c>
       <c r="K71" s="1">
         <v>5000</v>
       </c>
       <c r="L71" s="24">
         <f>K71*J71</f>
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="M71" s="12"/>
       <c r="N71" s="12"/>
@@ -4077,25 +4077,25 @@
         <v>2</v>
       </c>
       <c r="G72" s="33">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H72" s="28">
-        <v>356.02826243842702</v>
+        <v>358.70408766371099</v>
       </c>
       <c r="I72" s="34">
         <f>H72/E72-1</f>
-        <v>6.4154704448293742E-4</v>
+        <v>8.1621350863152475E-3</v>
       </c>
       <c r="J72" s="35">
-        <f>4.36/1000</f>
-        <v>4.3600000000000002E-3</v>
+        <f>4.16/1000</f>
+        <v>4.1600000000000005E-3</v>
       </c>
       <c r="K72" s="1">
         <v>5000</v>
       </c>
       <c r="L72" s="24">
         <f t="shared" ref="L72:L78" si="0">K72*J72</f>
-        <v>21.8</v>
+        <v>20.800000000000004</v>
       </c>
       <c r="M72" s="12"/>
       <c r="N72" s="12"/>
@@ -4127,22 +4127,22 @@
         <v>24</v>
       </c>
       <c r="H73" s="28">
-        <v>215209.433732365</v>
+        <v>202035.12170642801</v>
       </c>
       <c r="I73" s="34">
         <f>H73/E73-1</f>
-        <v>0.10043275859222867</v>
+        <v>3.30684043730467E-2</v>
       </c>
       <c r="J73" s="1">
-        <f>3.82/1000</f>
-        <v>3.82E-3</v>
+        <f>4.02/1000</f>
+        <v>4.0199999999999993E-3</v>
       </c>
       <c r="K73" s="1">
         <v>5000</v>
       </c>
       <c r="L73" s="24">
         <f t="shared" si="0"/>
-        <v>19.100000000000001</v>
+        <v>20.099999999999998</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.3">
@@ -4173,15 +4173,15 @@
         <v>9.8690719831683316E-2</v>
       </c>
       <c r="J74" s="35">
-        <f>5.79/1000</f>
-        <v>5.79E-3</v>
+        <f>5.87/1000</f>
+        <v>5.8700000000000002E-3</v>
       </c>
       <c r="K74" s="1">
         <v>5000</v>
       </c>
       <c r="L74" s="24">
         <f t="shared" si="0"/>
-        <v>28.95</v>
+        <v>29.35</v>
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.3">
@@ -4205,22 +4205,22 @@
         <v>8</v>
       </c>
       <c r="H75" s="28">
-        <v>849.62218670261404</v>
+        <v>850.35803267888002</v>
       </c>
       <c r="I75" s="34">
         <f t="shared" si="1"/>
-        <v>7.9750702368182047E-3</v>
+        <v>8.8480634462926311E-3</v>
       </c>
       <c r="J75" s="35">
-        <f>5.65/1000</f>
-        <v>5.6500000000000005E-3</v>
+        <f>5.79/1000</f>
+        <v>5.79E-3</v>
       </c>
       <c r="K75" s="1">
         <v>5000</v>
       </c>
       <c r="L75" s="24">
         <f t="shared" si="0"/>
-        <v>28.250000000000004</v>
+        <v>28.95</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.3">
@@ -4244,22 +4244,22 @@
         <v>10</v>
       </c>
       <c r="H76" s="28">
-        <v>6111.3704662733498</v>
+        <v>5972.2595954935696</v>
       </c>
       <c r="I76" s="34">
         <f t="shared" si="1"/>
-        <v>5.205206856143052E-2</v>
+        <v>2.8104595540294319E-2</v>
       </c>
       <c r="J76" s="35">
-        <f>12.93/1000</f>
-        <v>1.2930000000000001E-2</v>
+        <f>13.19/1000</f>
+        <v>1.319E-2</v>
       </c>
       <c r="K76" s="1">
         <v>5000</v>
       </c>
       <c r="L76" s="24">
         <f t="shared" si="0"/>
-        <v>64.650000000000006</v>
+        <v>65.95</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.3">
@@ -4283,22 +4283,22 @@
         <v>11</v>
       </c>
       <c r="H77" s="28">
-        <v>46066.884016841599</v>
+        <v>45286.813972350697</v>
       </c>
       <c r="I77" s="34">
         <f t="shared" si="1"/>
-        <v>4.6696310681968667E-2</v>
+        <v>2.8972159047496504E-2</v>
       </c>
       <c r="J77" s="35">
-        <f>17.12/1000</f>
-        <v>1.712E-2</v>
+        <f>16.35/1000</f>
+        <v>1.635E-2</v>
       </c>
       <c r="K77" s="1">
         <v>5000</v>
       </c>
       <c r="L77" s="24">
         <f t="shared" si="0"/>
-        <v>85.6</v>
+        <v>81.75</v>
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.3">
@@ -4322,22 +4322,22 @@
         <v>47</v>
       </c>
       <c r="H78" s="27">
-        <v>513966.62484081602</v>
+        <v>524605.52387429203</v>
       </c>
       <c r="I78" s="34">
         <f t="shared" si="1"/>
-        <v>7.821245277965283E-2</v>
+        <v>0.10053100979745921</v>
       </c>
       <c r="J78" s="35">
-        <f>16.59/1000</f>
-        <v>1.6590000000000001E-2</v>
+        <f>16.74/1000</f>
+        <v>1.6739999999999998E-2</v>
       </c>
       <c r="K78" s="1">
         <v>5000</v>
       </c>
       <c r="L78" s="24">
         <f t="shared" si="0"/>
-        <v>82.95</v>
+        <v>83.699999999999989</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.3">

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research related\dev\LRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD95D148-F5E5-4519-96C9-A1922DC39B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDBE43F-5D57-4BAD-BA72-DAB4D8F855CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="101">
   <si>
     <t>Best known</t>
   </si>
@@ -68,9 +68,6 @@
     <t>        Ψᵢ  =   [</t>
   </si>
   <si>
-    <t>                    :swap!</t>
-  </si>
-  <si>
     <t>        ω   =   0.05                    ,</t>
   </si>
   <si>
@@ -333,6 +330,15 @@
   </si>
   <si>
     <t>daskin150-10</t>
+  </si>
+  <si>
+    <t>                    :swapcustomers! ,</t>
+  </si>
+  <si>
+    <t>                    :swapdepots!</t>
+  </si>
+  <si>
+    <t>                    :swapcustomers!</t>
   </si>
 </sst>
 </file>
@@ -959,7 +965,7 @@
   <dimension ref="A1:X280"/>
   <sheetViews>
     <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -977,7 +983,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="16"/>
@@ -995,16 +1001,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -1012,11 +1018,11 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -1024,35 +1030,35 @@
     </row>
     <row r="6" spans="1:6" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>27</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="1:6" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:6" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="1"/>
     </row>
@@ -1064,7 +1070,7 @@
     </row>
     <row r="12" spans="1:6" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1072,40 +1078,40 @@
     </row>
     <row r="13" spans="1:6" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:6" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:6" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:6" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>40</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1113,7 +1119,7 @@
     </row>
     <row r="18" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="8"/>
       <c r="L18" s="12"/>
@@ -1132,7 +1138,7 @@
     </row>
     <row r="19" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B19" s="11"/>
       <c r="L19" s="12"/>
@@ -1141,7 +1147,7 @@
     </row>
     <row r="20" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B20" s="11"/>
       <c r="L20" s="12"/>
@@ -1150,7 +1156,7 @@
     </row>
     <row r="21" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -1167,7 +1173,7 @@
     </row>
     <row r="22" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -1184,7 +1190,7 @@
     </row>
     <row r="23" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -1201,7 +1207,7 @@
     </row>
     <row r="24" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -1218,7 +1224,7 @@
     </row>
     <row r="25" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -1252,7 +1258,7 @@
     </row>
     <row r="27" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
@@ -1269,7 +1275,7 @@
     </row>
     <row r="28" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -1286,7 +1292,7 @@
     </row>
     <row r="29" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -1303,7 +1309,7 @@
     </row>
     <row r="30" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -1320,7 +1326,7 @@
     </row>
     <row r="31" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -1337,7 +1343,7 @@
     </row>
     <row r="32" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
@@ -1354,7 +1360,7 @@
     </row>
     <row r="33" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -1371,7 +1377,7 @@
     </row>
     <row r="34" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
@@ -1388,7 +1394,7 @@
     </row>
     <row r="35" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
@@ -1439,7 +1445,7 @@
     </row>
     <row r="38" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -1456,7 +1462,7 @@
     </row>
     <row r="39" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
@@ -1473,7 +1479,7 @@
     </row>
     <row r="40" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
@@ -1490,7 +1496,7 @@
     </row>
     <row r="41" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
@@ -1524,7 +1530,7 @@
     </row>
     <row r="43" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A43" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -1541,7 +1547,7 @@
     </row>
     <row r="44" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
@@ -1558,7 +1564,7 @@
     </row>
     <row r="45" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A45" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
@@ -1575,7 +1581,7 @@
     </row>
     <row r="46" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A46" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
@@ -1592,7 +1598,7 @@
     </row>
     <row r="47" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A47" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
@@ -1609,7 +1615,7 @@
     </row>
     <row r="48" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A48" s="12" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
@@ -1643,7 +1649,7 @@
     </row>
     <row r="50" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A50" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
@@ -1660,7 +1666,7 @@
     </row>
     <row r="51" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A51" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
@@ -1677,7 +1683,7 @@
     </row>
     <row r="52" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A52" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
@@ -1694,7 +1700,7 @@
     </row>
     <row r="53" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A53" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B53" s="12"/>
       <c r="C53" s="12"/>
@@ -1711,7 +1717,7 @@
     </row>
     <row r="54" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A54" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
@@ -1728,7 +1734,7 @@
     </row>
     <row r="55" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A55" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
@@ -1745,7 +1751,7 @@
     </row>
     <row r="56" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A56" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
@@ -1762,7 +1768,7 @@
     </row>
     <row r="57" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A57" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
@@ -1779,7 +1785,7 @@
     </row>
     <row r="58" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A58" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
@@ -1796,7 +1802,7 @@
     </row>
     <row r="59" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A59" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
@@ -1813,7 +1819,7 @@
     </row>
     <row r="60" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A60" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
@@ -1827,7 +1833,7 @@
     </row>
     <row r="61" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A61" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B61" s="12"/>
       <c r="C61" s="12"/>
@@ -1841,7 +1847,7 @@
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A63" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B63" s="7"/>
     </row>
@@ -1850,7 +1856,7 @@
         <v>2</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C64" s="18" t="s">
         <v>0</v>
@@ -1865,7 +1871,7 @@
         <v>4</v>
       </c>
       <c r="G64" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H64" s="18" t="s">
         <v>5</v>
@@ -1873,7 +1879,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B65" s="2">
         <v>100</v>
@@ -1902,7 +1908,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B66" s="2">
         <v>100</v>
@@ -1931,7 +1937,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B67" s="2">
         <v>100</v>
@@ -1960,7 +1966,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B68" s="2">
         <v>100</v>
@@ -1989,7 +1995,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B69" s="2">
         <v>100</v>
@@ -2018,7 +2024,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B70" s="2">
         <v>100</v>
@@ -2683,10 +2689,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5551421D-4FE7-47B7-A546-15E7A05240A9}">
-  <dimension ref="A1:X285"/>
+  <dimension ref="A1:X286"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I69" sqref="I69"/>
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -2708,7 +2714,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="16"/>
@@ -2730,16 +2736,16 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -2749,11 +2755,11 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -2763,25 +2769,25 @@
     </row>
     <row r="6" spans="1:8" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>27</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="1:8" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -2791,11 +2797,11 @@
     </row>
     <row r="10" spans="1:8" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -2815,7 +2821,7 @@
     </row>
     <row r="12" spans="1:8" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -2827,11 +2833,11 @@
     </row>
     <row r="13" spans="1:8" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -2841,11 +2847,11 @@
     </row>
     <row r="14" spans="1:8" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -2855,11 +2861,11 @@
     </row>
     <row r="15" spans="1:8" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
@@ -2869,10 +2875,10 @@
     </row>
     <row r="16" spans="1:8" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>40</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>41</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
@@ -2884,7 +2890,7 @@
     </row>
     <row r="18" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="8"/>
       <c r="L18" s="12"/>
@@ -2903,7 +2909,7 @@
     </row>
     <row r="19" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B19" s="11"/>
       <c r="L19" s="12"/>
@@ -2912,7 +2918,7 @@
     </row>
     <row r="20" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B20" s="11"/>
       <c r="L20" s="12"/>
@@ -2921,7 +2927,7 @@
     </row>
     <row r="21" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -2942,7 +2948,7 @@
     </row>
     <row r="22" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -2963,7 +2969,7 @@
     </row>
     <row r="23" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -2984,7 +2990,7 @@
     </row>
     <row r="24" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -3005,7 +3011,7 @@
     </row>
     <row r="25" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -3047,7 +3053,7 @@
     </row>
     <row r="27" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
@@ -3068,7 +3074,7 @@
     </row>
     <row r="28" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -3089,7 +3095,7 @@
     </row>
     <row r="29" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -3110,7 +3116,7 @@
     </row>
     <row r="30" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -3131,7 +3137,7 @@
     </row>
     <row r="31" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -3152,7 +3158,7 @@
     </row>
     <row r="32" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
@@ -3173,7 +3179,7 @@
     </row>
     <row r="33" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -3194,7 +3200,7 @@
     </row>
     <row r="34" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
@@ -3215,7 +3221,7 @@
     </row>
     <row r="35" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
@@ -3236,7 +3242,7 @@
     </row>
     <row r="36" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
@@ -3257,7 +3263,7 @@
     </row>
     <row r="37" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -3278,7 +3284,7 @@
     </row>
     <row r="38" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -3341,7 +3347,7 @@
     </row>
     <row r="41" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
@@ -3362,7 +3368,7 @@
     </row>
     <row r="42" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
@@ -3383,7 +3389,7 @@
     </row>
     <row r="43" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A43" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -3404,7 +3410,7 @@
     </row>
     <row r="44" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
@@ -3446,7 +3452,7 @@
     </row>
     <row r="46" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A46" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
@@ -3467,7 +3473,7 @@
     </row>
     <row r="47" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A47" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
@@ -3488,7 +3494,7 @@
     </row>
     <row r="48" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A48" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
@@ -3509,7 +3515,7 @@
     </row>
     <row r="49" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A49" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
@@ -3530,7 +3536,7 @@
     </row>
     <row r="50" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A50" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
@@ -3551,7 +3557,7 @@
     </row>
     <row r="51" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A51" s="12" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
@@ -3572,7 +3578,7 @@
     </row>
     <row r="52" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A52" s="12" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
@@ -3593,7 +3599,7 @@
     </row>
     <row r="53" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A53" s="12" t="s">
-        <v>85</v>
+        <v>7</v>
       </c>
       <c r="B53" s="12"/>
       <c r="C53" s="12"/>
@@ -3614,7 +3620,7 @@
     </row>
     <row r="54" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A54" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
@@ -3623,6 +3629,9 @@
       <c r="F54" s="12"/>
       <c r="G54" s="12"/>
       <c r="H54" s="12"/>
+      <c r="P54" s="12"/>
+      <c r="Q54" s="12"/>
+      <c r="R54" s="12"/>
       <c r="S54" s="12"/>
       <c r="T54" s="12"/>
       <c r="U54" s="12"/>
@@ -3632,7 +3641,7 @@
     </row>
     <row r="55" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A55" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
@@ -3641,9 +3650,6 @@
       <c r="F55" s="12"/>
       <c r="G55" s="12"/>
       <c r="H55" s="12"/>
-      <c r="N55" s="3"/>
-      <c r="O55" s="5"/>
-      <c r="Q55" s="6"/>
       <c r="S55" s="12"/>
       <c r="T55" s="12"/>
       <c r="U55" s="12"/>
@@ -3653,7 +3659,7 @@
     </row>
     <row r="56" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A56" s="12" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
@@ -3662,9 +3668,9 @@
       <c r="F56" s="12"/>
       <c r="G56" s="12"/>
       <c r="H56" s="12"/>
-      <c r="P56" s="12"/>
-      <c r="Q56" s="12"/>
-      <c r="R56" s="12"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="5"/>
+      <c r="Q56" s="6"/>
       <c r="S56" s="12"/>
       <c r="T56" s="12"/>
       <c r="U56" s="12"/>
@@ -3674,7 +3680,7 @@
     </row>
     <row r="57" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A57" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
@@ -3695,7 +3701,7 @@
     </row>
     <row r="58" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A58" s="12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
@@ -3716,7 +3722,7 @@
     </row>
     <row r="59" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A59" s="12" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
@@ -3737,7 +3743,7 @@
     </row>
     <row r="60" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A60" s="12" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
@@ -3753,10 +3759,12 @@
       <c r="T60" s="12"/>
       <c r="U60" s="12"/>
       <c r="V60" s="12"/>
+      <c r="W60" s="12"/>
+      <c r="X60" s="12"/>
     </row>
     <row r="61" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A61" s="12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B61" s="12"/>
       <c r="C61" s="12"/>
@@ -3775,7 +3783,7 @@
     </row>
     <row r="62" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A62" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B62" s="12"/>
       <c r="C62" s="12"/>
@@ -3789,10 +3797,12 @@
       <c r="R62" s="12"/>
       <c r="S62" s="12"/>
       <c r="T62" s="12"/>
+      <c r="U62" s="12"/>
+      <c r="V62" s="12"/>
     </row>
     <row r="63" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A63" s="12" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="B63" s="12"/>
       <c r="C63" s="12"/>
@@ -3809,7 +3819,7 @@
     </row>
     <row r="64" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A64" s="12" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="B64" s="12"/>
       <c r="C64" s="12"/>
@@ -3825,10 +3835,16 @@
       <c r="T64" s="12"/>
     </row>
     <row r="65" spans="1:20" ht="14" x14ac:dyDescent="0.3">
-      <c r="L65" s="12"/>
-      <c r="M65" s="12"/>
-      <c r="N65" s="12"/>
-      <c r="O65" s="12"/>
+      <c r="A65" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B65" s="12"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
       <c r="P65" s="12"/>
       <c r="Q65" s="12"/>
       <c r="R65" s="12"/>
@@ -3836,10 +3852,6 @@
       <c r="T65" s="12"/>
     </row>
     <row r="66" spans="1:20" ht="14" x14ac:dyDescent="0.3">
-      <c r="A66" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B66" s="7"/>
       <c r="L66" s="12"/>
       <c r="M66" s="12"/>
       <c r="N66" s="12"/>
@@ -3851,34 +3863,12 @@
       <c r="T66" s="12"/>
     </row>
     <row r="67" spans="1:20" ht="14" x14ac:dyDescent="0.3">
-      <c r="A67" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B67" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C67" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="D67" s="37"/>
-      <c r="E67" s="37"/>
-      <c r="F67" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="G67" s="37"/>
-      <c r="H67" s="37"/>
-      <c r="I67" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="J67" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="K67" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="L67" s="18" t="s">
-        <v>5</v>
-      </c>
+      <c r="A67" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c r="L67" s="12"/>
+      <c r="M67" s="12"/>
       <c r="N67" s="12"/>
       <c r="O67" s="12"/>
       <c r="P67" s="12"/>
@@ -3888,28 +3878,34 @@
       <c r="T67" s="12"/>
     </row>
     <row r="68" spans="1:20" ht="14" x14ac:dyDescent="0.3">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="D68" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="E68" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="F68" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="G68" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="H68" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="L68" s="12"/>
-      <c r="M68" s="12"/>
+      <c r="A68" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B68" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C68" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="D68" s="37"/>
+      <c r="E68" s="37"/>
+      <c r="F68" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="G68" s="37"/>
+      <c r="H68" s="37"/>
+      <c r="I68" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="J68" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K68" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="L68" s="18" t="s">
+        <v>5</v>
+      </c>
       <c r="N68" s="12"/>
       <c r="O68" s="12"/>
       <c r="P68" s="12"/>
@@ -3919,43 +3915,27 @@
       <c r="T68" s="12"/>
     </row>
     <row r="69" spans="1:20" ht="14" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
-        <v>89</v>
-      </c>
+      <c r="A69" s="2"/>
       <c r="B69" s="2"/>
-      <c r="C69" s="32">
-        <v>3</v>
-      </c>
-      <c r="D69" s="32">
-        <v>5</v>
-      </c>
-      <c r="E69" s="30">
-        <v>54793</v>
-      </c>
-      <c r="F69" s="32">
-        <v>3</v>
-      </c>
-      <c r="G69" s="32">
-        <v>5</v>
-      </c>
-      <c r="H69" s="27">
-        <v>55007.766132012497</v>
-      </c>
-      <c r="I69" s="34">
-        <f>H69/E69-1</f>
-        <v>3.9195906778692891E-3</v>
-      </c>
-      <c r="J69" s="1">
-        <f>0.31/1000</f>
-        <v>3.1E-4</v>
-      </c>
-      <c r="K69" s="1">
-        <v>5000</v>
-      </c>
-      <c r="L69" s="24">
-        <f>K69*J69</f>
-        <v>1.55</v>
-      </c>
+      <c r="C69" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D69" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="E69" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="F69" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="G69" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="H69" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="L69" s="12"/>
       <c r="M69" s="12"/>
       <c r="N69" s="12"/>
       <c r="O69" s="12"/>
@@ -3966,42 +3946,42 @@
       <c r="T69" s="12"/>
     </row>
     <row r="70" spans="1:20" ht="14" x14ac:dyDescent="0.3">
-      <c r="A70" s="2" t="s">
-        <v>93</v>
+      <c r="A70" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="B70" s="2"/>
-      <c r="C70" s="33">
-        <v>1</v>
-      </c>
-      <c r="D70" s="33">
-        <v>4</v>
+      <c r="C70" s="32">
+        <v>3</v>
+      </c>
+      <c r="D70" s="32">
+        <v>5</v>
       </c>
       <c r="E70" s="30">
-        <v>460.4</v>
-      </c>
-      <c r="F70" s="33">
-        <v>2</v>
-      </c>
-      <c r="G70" s="33">
-        <v>4</v>
-      </c>
-      <c r="H70" s="28">
-        <v>485.90589128488801</v>
+        <v>54793</v>
+      </c>
+      <c r="F70" s="32">
+        <v>3</v>
+      </c>
+      <c r="G70" s="32">
+        <v>5</v>
+      </c>
+      <c r="H70" s="27">
+        <v>55007.766132012497</v>
       </c>
       <c r="I70" s="34">
         <f>H70/E70-1</f>
-        <v>5.5399416344239949E-2</v>
-      </c>
-      <c r="J70" s="35">
-        <f>0.64/1000</f>
-        <v>6.4000000000000005E-4</v>
+        <v>3.9195906778692891E-3</v>
+      </c>
+      <c r="J70" s="1">
+        <f>0.31/1000</f>
+        <v>3.1E-4</v>
       </c>
       <c r="K70" s="1">
         <v>5000</v>
       </c>
       <c r="L70" s="24">
         <f>K70*J70</f>
-        <v>3.2</v>
+        <v>1.55</v>
       </c>
       <c r="M70" s="12"/>
       <c r="N70" s="12"/>
@@ -4014,41 +3994,41 @@
     </row>
     <row r="71" spans="1:20" ht="14" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D71" s="33">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E71" s="30">
-        <v>63242</v>
+        <v>460.4</v>
       </c>
       <c r="F71" s="33">
         <v>2</v>
       </c>
       <c r="G71" s="33">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H71" s="28">
-        <v>63606.987886679999</v>
+        <v>485.90589128488801</v>
       </c>
       <c r="I71" s="34">
         <f>H71/E71-1</f>
-        <v>5.7712894386641178E-3</v>
+        <v>5.5399416344239949E-2</v>
       </c>
       <c r="J71" s="35">
-        <f>1.28/1000</f>
-        <v>1.2800000000000001E-3</v>
+        <f>0.64/1000</f>
+        <v>6.4000000000000005E-4</v>
       </c>
       <c r="K71" s="1">
         <v>5000</v>
       </c>
       <c r="L71" s="24">
         <f>K71*J71</f>
-        <v>6.4</v>
+        <v>3.2</v>
       </c>
       <c r="M71" s="12"/>
       <c r="N71" s="12"/>
@@ -4061,17 +4041,17 @@
     </row>
     <row r="72" spans="1:20" ht="14" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="33">
         <v>2</v>
       </c>
       <c r="D72" s="33">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E72" s="30">
-        <v>355.8</v>
+        <v>63242</v>
       </c>
       <c r="F72" s="33">
         <v>2</v>
@@ -4080,22 +4060,22 @@
         <v>6</v>
       </c>
       <c r="H72" s="28">
-        <v>358.70408766371099</v>
+        <v>63606.987886679999</v>
       </c>
       <c r="I72" s="34">
         <f>H72/E72-1</f>
-        <v>8.1621350863152475E-3</v>
+        <v>5.7712894386641178E-3</v>
       </c>
       <c r="J72" s="35">
-        <f>4.16/1000</f>
-        <v>4.1600000000000005E-3</v>
+        <f>1.28/1000</f>
+        <v>1.2800000000000001E-3</v>
       </c>
       <c r="K72" s="1">
         <v>5000</v>
       </c>
       <c r="L72" s="24">
-        <f t="shared" ref="L72:L78" si="0">K72*J72</f>
-        <v>20.800000000000004</v>
+        <f>K72*J72</f>
+        <v>6.4</v>
       </c>
       <c r="M72" s="12"/>
       <c r="N72" s="12"/>
@@ -4106,165 +4086,173 @@
       <c r="S72" s="12"/>
       <c r="T72" s="12"/>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:20" ht="14" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="33">
         <v>2</v>
       </c>
       <c r="D73" s="33">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E73" s="30">
-        <v>195568</v>
+        <v>355.8</v>
       </c>
       <c r="F73" s="33">
         <v>2</v>
       </c>
       <c r="G73" s="33">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="H73" s="28">
-        <v>202035.12170642801</v>
+        <v>358.70408766371099</v>
       </c>
       <c r="I73" s="34">
         <f>H73/E73-1</f>
+        <v>8.1621350863152475E-3</v>
+      </c>
+      <c r="J73" s="35">
+        <f>4.16/1000</f>
+        <v>4.1600000000000005E-3</v>
+      </c>
+      <c r="K73" s="1">
+        <v>5000</v>
+      </c>
+      <c r="L73" s="24">
+        <f t="shared" ref="L73:L79" si="0">K73*J73</f>
+        <v>20.800000000000004</v>
+      </c>
+      <c r="M73" s="12"/>
+      <c r="N73" s="12"/>
+      <c r="O73" s="12"/>
+      <c r="P73" s="12"/>
+      <c r="Q73" s="12"/>
+      <c r="R73" s="12"/>
+      <c r="S73" s="12"/>
+      <c r="T73" s="12"/>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" s="33">
+        <v>2</v>
+      </c>
+      <c r="D74" s="33">
+        <v>24</v>
+      </c>
+      <c r="E74" s="30">
+        <v>195568</v>
+      </c>
+      <c r="F74" s="33">
+        <v>2</v>
+      </c>
+      <c r="G74" s="33">
+        <v>24</v>
+      </c>
+      <c r="H74" s="28">
+        <v>202035.12170642801</v>
+      </c>
+      <c r="I74" s="34">
+        <f>H74/E74-1</f>
         <v>3.30684043730467E-2</v>
       </c>
-      <c r="J73" s="1">
+      <c r="J74" s="1">
         <f>4.02/1000</f>
         <v>4.0199999999999993E-3</v>
       </c>
-      <c r="K73" s="1">
+      <c r="K74" s="1">
         <v>5000</v>
       </c>
-      <c r="L73" s="24">
+      <c r="L74" s="24">
         <f t="shared" si="0"/>
         <v>20.099999999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A74" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B74" s="2"/>
-      <c r="C74" s="33">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" s="33">
         <v>3</v>
       </c>
-      <c r="D74" s="33">
+      <c r="D75" s="33">
         <v>11</v>
       </c>
-      <c r="E74" s="30">
+      <c r="E75" s="30">
         <v>204335</v>
       </c>
-      <c r="F74" s="33">
+      <c r="F75" s="33">
         <v>3</v>
       </c>
-      <c r="G74" s="33">
+      <c r="G75" s="33">
         <v>12</v>
       </c>
-      <c r="H74" s="28">
+      <c r="H75" s="28">
         <v>224500.96823680701</v>
       </c>
-      <c r="I74" s="34">
-        <f t="shared" ref="I74:I78" si="1">H74/E74-1</f>
+      <c r="I75" s="34">
+        <f t="shared" ref="I75:I79" si="1">H75/E75-1</f>
         <v>9.8690719831683316E-2</v>
       </c>
-      <c r="J74" s="35">
+      <c r="J75" s="35">
         <f>5.87/1000</f>
         <v>5.8700000000000002E-3</v>
       </c>
-      <c r="K74" s="1">
+      <c r="K75" s="1">
         <v>5000</v>
       </c>
-      <c r="L74" s="24">
+      <c r="L75" s="24">
         <f t="shared" si="0"/>
         <v>29.35</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A75" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" s="33">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" s="33">
         <v>2</v>
       </c>
-      <c r="D75" s="33">
+      <c r="D76" s="33">
         <v>8</v>
       </c>
-      <c r="E75" s="30">
+      <c r="E76" s="30">
         <v>842.9</v>
       </c>
-      <c r="F75" s="33">
+      <c r="F76" s="33">
         <v>2</v>
       </c>
-      <c r="G75" s="33">
+      <c r="G76" s="33">
         <v>8</v>
       </c>
-      <c r="H75" s="28">
+      <c r="H76" s="28">
         <v>850.35803267888002</v>
       </c>
-      <c r="I75" s="34">
+      <c r="I76" s="34">
         <f t="shared" si="1"/>
         <v>8.8480634462926311E-3</v>
       </c>
-      <c r="J75" s="35">
+      <c r="J76" s="35">
         <f>5.79/1000</f>
         <v>5.79E-3</v>
       </c>
-      <c r="K75" s="1">
+      <c r="K76" s="1">
         <v>5000</v>
       </c>
-      <c r="L75" s="24">
+      <c r="L76" s="24">
         <f t="shared" si="0"/>
         <v>28.95</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A76" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B76" s="2"/>
-      <c r="C76" s="33">
-        <v>3</v>
-      </c>
-      <c r="D76" s="33">
-        <v>11</v>
-      </c>
-      <c r="E76" s="30">
-        <v>5809</v>
-      </c>
-      <c r="F76" s="33">
-        <v>4</v>
-      </c>
-      <c r="G76" s="33">
-        <v>10</v>
-      </c>
-      <c r="H76" s="28">
-        <v>5972.2595954935696</v>
-      </c>
-      <c r="I76" s="34">
-        <f t="shared" si="1"/>
-        <v>2.8104595540294319E-2</v>
-      </c>
-      <c r="J76" s="35">
-        <f>13.19/1000</f>
-        <v>1.319E-2</v>
-      </c>
-      <c r="K76" s="1">
-        <v>5000</v>
-      </c>
-      <c r="L76" s="24">
-        <f t="shared" si="0"/>
-        <v>65.95</v>
-      </c>
-    </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="33">
@@ -4274,75 +4262,111 @@
         <v>11</v>
       </c>
       <c r="E77" s="30">
-        <v>44011.7</v>
+        <v>5809</v>
       </c>
       <c r="F77" s="33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G77" s="33">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H77" s="28">
-        <v>45286.813972350697</v>
+        <v>5972.2595954935696</v>
       </c>
       <c r="I77" s="34">
         <f t="shared" si="1"/>
+        <v>2.8104595540294319E-2</v>
+      </c>
+      <c r="J77" s="35">
+        <f>13.19/1000</f>
+        <v>1.319E-2</v>
+      </c>
+      <c r="K77" s="1">
+        <v>5000</v>
+      </c>
+      <c r="L77" s="24">
+        <f t="shared" si="0"/>
+        <v>65.95</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" s="33">
+        <v>3</v>
+      </c>
+      <c r="D78" s="33">
+        <v>11</v>
+      </c>
+      <c r="E78" s="30">
+        <v>44011.7</v>
+      </c>
+      <c r="F78" s="33">
+        <v>3</v>
+      </c>
+      <c r="G78" s="33">
+        <v>11</v>
+      </c>
+      <c r="H78" s="28">
+        <v>45286.813972350697</v>
+      </c>
+      <c r="I78" s="34">
+        <f t="shared" si="1"/>
         <v>2.8972159047496504E-2</v>
       </c>
-      <c r="J77" s="35">
+      <c r="J78" s="35">
         <f>16.35/1000</f>
         <v>1.635E-2</v>
       </c>
-      <c r="K77" s="1">
+      <c r="K78" s="1">
         <v>5000</v>
       </c>
-      <c r="L77" s="24">
+      <c r="L78" s="24">
         <f t="shared" si="0"/>
         <v>81.75</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B78" s="2"/>
-      <c r="C78" s="32">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" s="32">
         <v>3</v>
       </c>
-      <c r="D78" s="32">
+      <c r="D79" s="32">
         <v>47</v>
       </c>
-      <c r="E78" s="31">
+      <c r="E79" s="31">
         <v>476684</v>
       </c>
-      <c r="F78" s="32">
+      <c r="F79" s="32">
         <v>3</v>
       </c>
-      <c r="G78" s="32">
+      <c r="G79" s="32">
         <v>47</v>
       </c>
-      <c r="H78" s="27">
+      <c r="H79" s="27">
         <v>524605.52387429203</v>
       </c>
-      <c r="I78" s="34">
+      <c r="I79" s="34">
         <f t="shared" si="1"/>
         <v>0.10053100979745921</v>
       </c>
-      <c r="J78" s="35">
+      <c r="J79" s="35">
         <f>16.74/1000</f>
         <v>1.6739999999999998E-2</v>
       </c>
-      <c r="K78" s="1">
+      <c r="K79" s="1">
         <v>5000</v>
       </c>
-      <c r="L78" s="24">
+      <c r="L79" s="24">
         <f t="shared" si="0"/>
         <v>83.699999999999989</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B79" s="7"/>
-    </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B80" s="7"/>
     </row>
@@ -4961,10 +4985,13 @@
     <row r="285" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B285" s="7"/>
     </row>
+    <row r="286" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B286" s="7"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="F67:H67"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="F68:H68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research related\dev\LRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDBE43F-5D57-4BAD-BA72-DAB4D8F855CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74712809-8602-4C3E-8FA3-287E0AA9426E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2692,7 +2692,7 @@
   <dimension ref="A1:X286"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G63" sqref="G63"/>
+      <selection activeCell="L79" sqref="L79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="13" x14ac:dyDescent="0.3"/>

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research related\dev\LRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74712809-8602-4C3E-8FA3-287E0AA9426E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EAB5298-3DD8-4D9E-91A8-D80B5137AAFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="100">
   <si>
     <t>Best known</t>
   </si>
@@ -282,9 +282,6 @@
   </si>
   <si>
     <t>Total cost</t>
-  </si>
-  <si>
-    <t>n = max(200, ceil(x, digits=-(length(digits(x))-1)))</t>
   </si>
   <si>
     <t>n = max(500, ceil(x, digits=-(length(digits(x))-1)))</t>
@@ -964,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X280"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -1615,7 +1612,7 @@
     </row>
     <row r="48" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A48" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
@@ -1649,7 +1646,7 @@
     </row>
     <row r="50" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A50" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
@@ -1666,7 +1663,7 @@
     </row>
     <row r="51" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A51" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
@@ -1683,7 +1680,7 @@
     </row>
     <row r="52" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A52" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
@@ -1751,7 +1748,7 @@
     </row>
     <row r="56" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A56" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
@@ -1888,22 +1885,22 @@
         <v>1645.79</v>
       </c>
       <c r="D65" s="6">
-        <v>1648.5486688763999</v>
+        <v>1645.83732633817</v>
       </c>
       <c r="E65" s="3">
         <f>D65/C65-1</f>
-        <v>1.6761973741485914E-3</v>
+        <v>2.8756000565177686E-5</v>
       </c>
       <c r="F65" s="5">
-        <f>4.05/1000</f>
-        <v>4.0499999999999998E-3</v>
+        <f>4.59/1000</f>
+        <v>4.5899999999999995E-3</v>
       </c>
       <c r="G65" s="1">
         <v>5000</v>
       </c>
       <c r="H65" s="6">
         <f>F65 * G65</f>
-        <v>20.25</v>
+        <v>22.949999999999996</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
@@ -1917,22 +1914,22 @@
         <v>1252.3699999999999</v>
       </c>
       <c r="D66" s="24">
-        <v>1200.2202193455701</v>
+        <v>1184.5618570060401</v>
       </c>
       <c r="E66" s="3">
         <f t="shared" ref="E66:E70" si="0">D66/C66-1</f>
-        <v>-4.1640873427525316E-2</v>
+        <v>-5.4143857641080317E-2</v>
       </c>
       <c r="F66" s="4">
-        <f>10.75/1000</f>
-        <v>1.0749999999999999E-2</v>
+        <f>11.55/1000</f>
+        <v>1.1550000000000001E-2</v>
       </c>
       <c r="G66" s="1">
         <v>5000</v>
       </c>
       <c r="H66" s="6">
         <f t="shared" ref="H66:H70" si="1">F66 * G66</f>
-        <v>53.749999999999993</v>
+        <v>57.750000000000007</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
@@ -1946,22 +1943,22 @@
         <v>828.94</v>
       </c>
       <c r="D67" s="6">
-        <v>828.93686694236601</v>
+        <v>828.93686694150995</v>
       </c>
       <c r="E67" s="3">
         <f t="shared" si="0"/>
-        <v>-3.7795951867147792E-6</v>
+        <v>-3.7795962194442367E-6</v>
       </c>
       <c r="F67" s="4">
-        <f>5.3/1000</f>
-        <v>5.3E-3</v>
+        <f>5.98/1000</f>
+        <v>5.9800000000000001E-3</v>
       </c>
       <c r="G67" s="1">
         <v>5000</v>
       </c>
       <c r="H67" s="6">
         <f t="shared" si="1"/>
-        <v>26.5</v>
+        <v>29.900000000000002</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
@@ -1975,22 +1972,22 @@
         <v>591.55999999999995</v>
       </c>
       <c r="D68" s="6">
-        <v>591.55655666872997</v>
+        <v>591.55655666593805</v>
       </c>
       <c r="E68" s="3">
         <f t="shared" si="0"/>
-        <v>-5.8207641997487514E-6</v>
+        <v>-5.820768919306829E-6</v>
       </c>
       <c r="F68" s="4">
-        <f>17.59/1000</f>
-        <v>1.7590000000000001E-2</v>
+        <f>20.98/1000</f>
+        <v>2.0980000000000002E-2</v>
       </c>
       <c r="G68" s="1">
         <v>5000</v>
       </c>
       <c r="H68" s="6">
         <f t="shared" si="1"/>
-        <v>87.95</v>
+        <v>104.9</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
@@ -2004,22 +2001,22 @@
         <v>1696.94</v>
       </c>
       <c r="D69" s="6">
-        <v>1663.9923050791599</v>
+        <v>1675.1266262731599</v>
       </c>
       <c r="E69" s="3">
         <f t="shared" si="0"/>
-        <v>-1.941594571454508E-2</v>
+        <v>-1.2854534471955503E-2</v>
       </c>
       <c r="F69" s="4">
-        <f>4.42/1000</f>
-        <v>4.4200000000000003E-3</v>
+        <f>4.91/1000</f>
+        <v>4.9100000000000003E-3</v>
       </c>
       <c r="G69" s="1">
         <v>5000</v>
       </c>
       <c r="H69" s="6">
         <f t="shared" si="1"/>
-        <v>22.1</v>
+        <v>24.55</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
@@ -2033,22 +2030,22 @@
         <v>1406.91</v>
       </c>
       <c r="D70" s="24">
-        <v>1305.8353114469801</v>
+        <v>1310.3079013464001</v>
       </c>
       <c r="E70" s="3">
         <f t="shared" si="0"/>
-        <v>-7.1841616416842613E-2</v>
+        <v>-6.8662600062264101E-2</v>
       </c>
       <c r="F70" s="4">
-        <f>8.81/1000</f>
-        <v>8.8100000000000001E-3</v>
+        <f>9.48/1000</f>
+        <v>9.4800000000000006E-3</v>
       </c>
       <c r="G70" s="1">
         <v>5000</v>
       </c>
       <c r="H70" s="6">
         <f t="shared" si="1"/>
-        <v>44.05</v>
+        <v>47.400000000000006</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
@@ -2691,8 +2688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5551421D-4FE7-47B7-A546-15E7A05240A9}">
   <dimension ref="A1:X286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L79" sqref="L79"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S51" sqref="S51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -2918,7 +2915,7 @@
     </row>
     <row r="20" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B20" s="11"/>
       <c r="L20" s="12"/>
@@ -3557,7 +3554,7 @@
     </row>
     <row r="51" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A51" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
@@ -3578,7 +3575,7 @@
     </row>
     <row r="52" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A52" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
@@ -3620,7 +3617,7 @@
     </row>
     <row r="54" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A54" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
@@ -3641,7 +3638,7 @@
     </row>
     <row r="55" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A55" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
@@ -3659,7 +3656,7 @@
     </row>
     <row r="56" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A56" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
@@ -3743,7 +3740,7 @@
     </row>
     <row r="60" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A60" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
@@ -3947,7 +3944,7 @@
     </row>
     <row r="70" spans="1:20" ht="14" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="32">
@@ -3966,11 +3963,11 @@
         <v>5</v>
       </c>
       <c r="H70" s="27">
-        <v>55007.766132012497</v>
+        <v>55034.228168332702</v>
       </c>
       <c r="I70" s="34">
         <f>H70/E70-1</f>
-        <v>3.9195906778692891E-3</v>
+        <v>4.4025362424524594E-3</v>
       </c>
       <c r="J70" s="1">
         <f>0.31/1000</f>
@@ -3994,7 +3991,7 @@
     </row>
     <row r="71" spans="1:20" ht="14" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="33">
@@ -4013,22 +4010,22 @@
         <v>4</v>
       </c>
       <c r="H71" s="28">
-        <v>485.90589128488801</v>
+        <v>491.47532479544202</v>
       </c>
       <c r="I71" s="34">
         <f>H71/E71-1</f>
-        <v>5.5399416344239949E-2</v>
+        <v>6.749636141494797E-2</v>
       </c>
       <c r="J71" s="35">
-        <f>0.64/1000</f>
-        <v>6.4000000000000005E-4</v>
+        <f>0.73/1000</f>
+        <v>7.2999999999999996E-4</v>
       </c>
       <c r="K71" s="1">
         <v>5000</v>
       </c>
       <c r="L71" s="24">
         <f>K71*J71</f>
-        <v>3.2</v>
+        <v>3.65</v>
       </c>
       <c r="M71" s="12"/>
       <c r="N71" s="12"/>
@@ -4041,7 +4038,7 @@
     </row>
     <row r="72" spans="1:20" ht="14" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="33">
@@ -4060,22 +4057,22 @@
         <v>6</v>
       </c>
       <c r="H72" s="28">
-        <v>63606.987886679999</v>
+        <v>63215.202234415403</v>
       </c>
       <c r="I72" s="34">
         <f>H72/E72-1</f>
-        <v>5.7712894386641178E-3</v>
+        <v>-4.237336830681393E-4</v>
       </c>
       <c r="J72" s="35">
-        <f>1.28/1000</f>
-        <v>1.2800000000000001E-3</v>
+        <f>1.41/1000</f>
+        <v>1.41E-3</v>
       </c>
       <c r="K72" s="1">
         <v>5000</v>
       </c>
       <c r="L72" s="24">
         <f>K72*J72</f>
-        <v>6.4</v>
+        <v>7.05</v>
       </c>
       <c r="M72" s="12"/>
       <c r="N72" s="12"/>
@@ -4088,7 +4085,7 @@
     </row>
     <row r="73" spans="1:20" ht="14" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="33">
@@ -4104,25 +4101,25 @@
         <v>2</v>
       </c>
       <c r="G73" s="33">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H73" s="28">
-        <v>358.70408766371099</v>
+        <v>356.187026149872</v>
       </c>
       <c r="I73" s="34">
         <f>H73/E73-1</f>
-        <v>8.1621350863152475E-3</v>
+        <v>1.0877632093084788E-3</v>
       </c>
       <c r="J73" s="35">
-        <f>4.16/1000</f>
-        <v>4.1600000000000005E-3</v>
+        <f>4.87/1000</f>
+        <v>4.8700000000000002E-3</v>
       </c>
       <c r="K73" s="1">
         <v>5000</v>
       </c>
       <c r="L73" s="24">
         <f t="shared" ref="L73:L79" si="0">K73*J73</f>
-        <v>20.800000000000004</v>
+        <v>24.35</v>
       </c>
       <c r="M73" s="12"/>
       <c r="N73" s="12"/>
@@ -4135,7 +4132,7 @@
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="33">
@@ -4151,30 +4148,30 @@
         <v>2</v>
       </c>
       <c r="G74" s="33">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H74" s="28">
-        <v>202035.12170642801</v>
+        <v>200606.207701443</v>
       </c>
       <c r="I74" s="34">
         <f>H74/E74-1</f>
-        <v>3.30684043730467E-2</v>
+        <v>2.5761922714569785E-2</v>
       </c>
       <c r="J74" s="1">
-        <f>4.02/1000</f>
-        <v>4.0199999999999993E-3</v>
+        <f>4.68/1000</f>
+        <v>4.6800000000000001E-3</v>
       </c>
       <c r="K74" s="1">
         <v>5000</v>
       </c>
       <c r="L74" s="24">
         <f t="shared" si="0"/>
-        <v>20.099999999999998</v>
+        <v>23.400000000000002</v>
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="33">
@@ -4190,30 +4187,30 @@
         <v>3</v>
       </c>
       <c r="G75" s="33">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H75" s="28">
-        <v>224500.96823680701</v>
+        <v>215175.31904255701</v>
       </c>
       <c r="I75" s="34">
         <f t="shared" ref="I75:I79" si="1">H75/E75-1</f>
-        <v>9.8690719831683316E-2</v>
+        <v>5.3051699623446913E-2</v>
       </c>
       <c r="J75" s="35">
-        <f>5.87/1000</f>
-        <v>5.8700000000000002E-3</v>
+        <f>7.05/1000</f>
+        <v>7.0499999999999998E-3</v>
       </c>
       <c r="K75" s="1">
         <v>5000</v>
       </c>
       <c r="L75" s="24">
         <f t="shared" si="0"/>
-        <v>29.35</v>
+        <v>35.25</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="33">
@@ -4232,27 +4229,27 @@
         <v>8</v>
       </c>
       <c r="H76" s="28">
-        <v>850.35803267888002</v>
+        <v>876.69090721357998</v>
       </c>
       <c r="I76" s="34">
         <f t="shared" si="1"/>
-        <v>8.8480634462926311E-3</v>
+        <v>4.0088868446529924E-2</v>
       </c>
       <c r="J76" s="35">
-        <f>5.79/1000</f>
-        <v>5.79E-3</v>
+        <f>6.51/1000</f>
+        <v>6.5100000000000002E-3</v>
       </c>
       <c r="K76" s="1">
         <v>5000</v>
       </c>
       <c r="L76" s="24">
         <f t="shared" si="0"/>
-        <v>28.95</v>
+        <v>32.550000000000004</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="33">
@@ -4271,27 +4268,27 @@
         <v>10</v>
       </c>
       <c r="H77" s="28">
-        <v>5972.2595954935696</v>
+        <v>6089.4245360190198</v>
       </c>
       <c r="I77" s="34">
         <f t="shared" si="1"/>
-        <v>2.8104595540294319E-2</v>
+        <v>4.8274149770876296E-2</v>
       </c>
       <c r="J77" s="35">
-        <f>13.19/1000</f>
-        <v>1.319E-2</v>
+        <f>15.93/1000</f>
+        <v>1.593E-2</v>
       </c>
       <c r="K77" s="1">
         <v>5000</v>
       </c>
       <c r="L77" s="24">
         <f t="shared" si="0"/>
-        <v>65.95</v>
+        <v>79.650000000000006</v>
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="33">
@@ -4310,27 +4307,27 @@
         <v>11</v>
       </c>
       <c r="H78" s="28">
-        <v>45286.813972350697</v>
+        <v>48189.950395750602</v>
       </c>
       <c r="I78" s="34">
         <f t="shared" si="1"/>
-        <v>2.8972159047496504E-2</v>
+        <v>9.4934992189590561E-2</v>
       </c>
       <c r="J78" s="35">
-        <f>16.35/1000</f>
-        <v>1.635E-2</v>
+        <f>19.1/1000</f>
+        <v>1.9100000000000002E-2</v>
       </c>
       <c r="K78" s="1">
         <v>5000</v>
       </c>
       <c r="L78" s="24">
         <f t="shared" si="0"/>
-        <v>81.75</v>
+        <v>95.500000000000014</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="32">
@@ -4349,22 +4346,22 @@
         <v>47</v>
       </c>
       <c r="H79" s="27">
-        <v>524605.52387429203</v>
+        <v>521498.13451101002</v>
       </c>
       <c r="I79" s="34">
         <f t="shared" si="1"/>
-        <v>0.10053100979745921</v>
+        <v>9.4012248179108138E-2</v>
       </c>
       <c r="J79" s="35">
-        <f>16.74/1000</f>
-        <v>1.6739999999999998E-2</v>
+        <f>18.95/1000</f>
+        <v>1.8949999999999998E-2</v>
       </c>
       <c r="K79" s="1">
         <v>5000</v>
       </c>
       <c r="L79" s="24">
         <f t="shared" si="0"/>
-        <v>83.699999999999989</v>
+        <v>94.749999999999986</v>
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.3">

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research related\dev\LRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EAB5298-3DD8-4D9E-91A8-D80B5137AAFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B53D51B-550F-43B9-9F6B-31BF38510180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -961,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X280"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F71" sqref="F71"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -1892,15 +1892,15 @@
         <v>2.8756000565177686E-5</v>
       </c>
       <c r="F65" s="5">
-        <f>4.59/1000</f>
-        <v>4.5899999999999995E-3</v>
+        <f>4.69/1000</f>
+        <v>4.6900000000000006E-3</v>
       </c>
       <c r="G65" s="1">
         <v>5000</v>
       </c>
       <c r="H65" s="6">
         <f>F65 * G65</f>
-        <v>22.949999999999996</v>
+        <v>23.450000000000003</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
@@ -1921,15 +1921,15 @@
         <v>-5.4143857641080317E-2</v>
       </c>
       <c r="F66" s="4">
-        <f>11.55/1000</f>
-        <v>1.1550000000000001E-2</v>
+        <f>11.6/1000</f>
+        <v>1.1599999999999999E-2</v>
       </c>
       <c r="G66" s="1">
         <v>5000</v>
       </c>
       <c r="H66" s="6">
         <f t="shared" ref="H66:H70" si="1">F66 * G66</f>
-        <v>57.750000000000007</v>
+        <v>57.999999999999993</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
@@ -1950,15 +1950,15 @@
         <v>-3.7795962194442367E-6</v>
       </c>
       <c r="F67" s="4">
-        <f>5.98/1000</f>
-        <v>5.9800000000000001E-3</v>
+        <f>5.87/1000</f>
+        <v>5.8700000000000002E-3</v>
       </c>
       <c r="G67" s="1">
         <v>5000</v>
       </c>
       <c r="H67" s="6">
         <f t="shared" si="1"/>
-        <v>29.900000000000002</v>
+        <v>29.35</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
@@ -1979,15 +1979,15 @@
         <v>-5.820768919306829E-6</v>
       </c>
       <c r="F68" s="4">
-        <f>20.98/1000</f>
-        <v>2.0980000000000002E-2</v>
+        <f>21.16/1000</f>
+        <v>2.1160000000000002E-2</v>
       </c>
       <c r="G68" s="1">
         <v>5000</v>
       </c>
       <c r="H68" s="6">
         <f t="shared" si="1"/>
-        <v>104.9</v>
+        <v>105.80000000000001</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
@@ -2008,15 +2008,15 @@
         <v>-1.2854534471955503E-2</v>
       </c>
       <c r="F69" s="4">
-        <f>4.91/1000</f>
-        <v>4.9100000000000003E-3</v>
+        <f>5.03/1000</f>
+        <v>5.0300000000000006E-3</v>
       </c>
       <c r="G69" s="1">
         <v>5000</v>
       </c>
       <c r="H69" s="6">
         <f t="shared" si="1"/>
-        <v>24.55</v>
+        <v>25.150000000000002</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
@@ -2037,15 +2037,15 @@
         <v>-6.8662600062264101E-2</v>
       </c>
       <c r="F70" s="4">
-        <f>9.48/1000</f>
-        <v>9.4800000000000006E-3</v>
+        <f>9.74/1000</f>
+        <v>9.7400000000000004E-3</v>
       </c>
       <c r="G70" s="1">
         <v>5000</v>
       </c>
       <c r="H70" s="6">
         <f t="shared" si="1"/>
-        <v>47.400000000000006</v>
+        <v>48.7</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
@@ -2688,8 +2688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5551421D-4FE7-47B7-A546-15E7A05240A9}">
   <dimension ref="A1:X286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S51" sqref="S51"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -3970,15 +3970,15 @@
         <v>4.4025362424524594E-3</v>
       </c>
       <c r="J70" s="1">
-        <f>0.31/1000</f>
-        <v>3.1E-4</v>
+        <f>0.32/1000</f>
+        <v>3.2000000000000003E-4</v>
       </c>
       <c r="K70" s="1">
         <v>5000</v>
       </c>
       <c r="L70" s="24">
         <f>K70*J70</f>
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="M70" s="12"/>
       <c r="N70" s="12"/>
@@ -4017,15 +4017,15 @@
         <v>6.749636141494797E-2</v>
       </c>
       <c r="J71" s="35">
-        <f>0.73/1000</f>
-        <v>7.2999999999999996E-4</v>
+        <f>0.71/1000</f>
+        <v>7.0999999999999991E-4</v>
       </c>
       <c r="K71" s="1">
         <v>5000</v>
       </c>
       <c r="L71" s="24">
         <f>K71*J71</f>
-        <v>3.65</v>
+        <v>3.5499999999999994</v>
       </c>
       <c r="M71" s="12"/>
       <c r="N71" s="12"/>
@@ -4064,15 +4064,15 @@
         <v>-4.237336830681393E-4</v>
       </c>
       <c r="J72" s="35">
-        <f>1.41/1000</f>
-        <v>1.41E-3</v>
+        <f>1.54/1000</f>
+        <v>1.5400000000000001E-3</v>
       </c>
       <c r="K72" s="1">
         <v>5000</v>
       </c>
       <c r="L72" s="24">
         <f>K72*J72</f>
-        <v>7.05</v>
+        <v>7.7000000000000011</v>
       </c>
       <c r="M72" s="12"/>
       <c r="N72" s="12"/>
@@ -4111,15 +4111,15 @@
         <v>1.0877632093084788E-3</v>
       </c>
       <c r="J73" s="35">
-        <f>4.87/1000</f>
-        <v>4.8700000000000002E-3</v>
+        <f>5.19/1000</f>
+        <v>5.1900000000000002E-3</v>
       </c>
       <c r="K73" s="1">
         <v>5000</v>
       </c>
       <c r="L73" s="24">
         <f t="shared" ref="L73:L79" si="0">K73*J73</f>
-        <v>24.35</v>
+        <v>25.95</v>
       </c>
       <c r="M73" s="12"/>
       <c r="N73" s="12"/>
@@ -4158,15 +4158,15 @@
         <v>2.5761922714569785E-2</v>
       </c>
       <c r="J74" s="1">
-        <f>4.68/1000</f>
-        <v>4.6800000000000001E-3</v>
+        <f>4.81/1000</f>
+        <v>4.81E-3</v>
       </c>
       <c r="K74" s="1">
         <v>5000</v>
       </c>
       <c r="L74" s="24">
         <f t="shared" si="0"/>
-        <v>23.400000000000002</v>
+        <v>24.05</v>
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.3">
@@ -4197,15 +4197,15 @@
         <v>5.3051699623446913E-2</v>
       </c>
       <c r="J75" s="35">
-        <f>7.05/1000</f>
-        <v>7.0499999999999998E-3</v>
+        <f>7.29/1000</f>
+        <v>7.2899999999999996E-3</v>
       </c>
       <c r="K75" s="1">
         <v>5000</v>
       </c>
       <c r="L75" s="24">
         <f t="shared" si="0"/>
-        <v>35.25</v>
+        <v>36.449999999999996</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.3">
@@ -4236,15 +4236,15 @@
         <v>4.0088868446529924E-2</v>
       </c>
       <c r="J76" s="35">
-        <f>6.51/1000</f>
-        <v>6.5100000000000002E-3</v>
+        <f>6.82/1000</f>
+        <v>6.8200000000000005E-3</v>
       </c>
       <c r="K76" s="1">
         <v>5000</v>
       </c>
       <c r="L76" s="24">
         <f t="shared" si="0"/>
-        <v>32.550000000000004</v>
+        <v>34.1</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.3">
@@ -4275,15 +4275,15 @@
         <v>4.8274149770876296E-2</v>
       </c>
       <c r="J77" s="35">
-        <f>15.93/1000</f>
-        <v>1.593E-2</v>
+        <f>17.01/1000</f>
+        <v>1.7010000000000001E-2</v>
       </c>
       <c r="K77" s="1">
         <v>5000</v>
       </c>
       <c r="L77" s="24">
         <f t="shared" si="0"/>
-        <v>79.650000000000006</v>
+        <v>85.05</v>
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.3">
@@ -4304,7 +4304,7 @@
         <v>3</v>
       </c>
       <c r="G78" s="33">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H78" s="28">
         <v>48189.950395750602</v>
@@ -4314,15 +4314,15 @@
         <v>9.4934992189590561E-2</v>
       </c>
       <c r="J78" s="35">
-        <f>19.1/1000</f>
-        <v>1.9100000000000002E-2</v>
+        <f>20.46/1000</f>
+        <v>2.0460000000000002E-2</v>
       </c>
       <c r="K78" s="1">
         <v>5000</v>
       </c>
       <c r="L78" s="24">
         <f t="shared" si="0"/>
-        <v>95.500000000000014</v>
+        <v>102.30000000000001</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.3">
@@ -4353,15 +4353,15 @@
         <v>9.4012248179108138E-2</v>
       </c>
       <c r="J79" s="35">
-        <f>18.95/1000</f>
-        <v>1.8949999999999998E-2</v>
+        <f>19.72/1000</f>
+        <v>1.9719999999999998E-2</v>
       </c>
       <c r="K79" s="1">
         <v>5000</v>
       </c>
       <c r="L79" s="24">
         <f t="shared" si="0"/>
-        <v>94.749999999999986</v>
+        <v>98.6</v>
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.3">

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research related\dev\LRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97915849-467C-4B2D-871E-4D5C9FA72C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED65DBBC-AA85-410A-94EA-CB8E8DC95CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,9 +73,6 @@
     <t>        τ   =   0.5                     ,</t>
   </si>
   <si>
-    <t>        𝜃   =   0.99975                 ,</t>
-  </si>
-  <si>
     <t>        C̅   =   60                      ,</t>
   </si>
   <si>
@@ -160,9 +157,6 @@
     <t>rng</t>
   </si>
   <si>
-    <t>MersenneTwister(1234)</t>
-  </si>
-  <si>
     <t>    );</t>
   </si>
   <si>
@@ -314,6 +308,12 @@
   </si>
   <si>
     <t>:random</t>
+  </si>
+  <si>
+    <t>MersenneTwister(1104); MersenneTwister(1234); MersenneTwister(1403)</t>
+  </si>
+  <si>
+    <t>        𝜃   =   0.9975                 ,</t>
   </si>
 </sst>
 </file>
@@ -938,8 +938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5551421D-4FE7-47B7-A546-15E7A05240A9}">
   <dimension ref="A1:X288"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N55" sqref="N55"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -961,7 +961,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -983,16 +983,16 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -1002,11 +1002,11 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -1016,25 +1016,25 @@
     </row>
     <row r="6" spans="1:8" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="1:8" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1044,11 +1044,11 @@
     </row>
     <row r="10" spans="1:8" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1068,7 +1068,7 @@
     </row>
     <row r="12" spans="1:8" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1080,11 +1080,11 @@
     </row>
     <row r="13" spans="1:8" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1094,11 +1094,11 @@
     </row>
     <row r="14" spans="1:8" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1108,11 +1108,11 @@
     </row>
     <row r="15" spans="1:8" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="11" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
@@ -1122,10 +1122,10 @@
     </row>
     <row r="16" spans="1:8" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
@@ -1137,7 +1137,7 @@
     </row>
     <row r="18" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="7"/>
       <c r="L18" s="11"/>
@@ -1156,7 +1156,7 @@
     </row>
     <row r="19" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B19" s="10"/>
       <c r="L19" s="11"/>
@@ -1165,7 +1165,7 @@
     </row>
     <row r="20" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B20" s="10"/>
       <c r="L20" s="11"/>
@@ -1174,7 +1174,7 @@
     </row>
     <row r="21" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -1195,7 +1195,7 @@
     </row>
     <row r="22" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -1216,7 +1216,7 @@
     </row>
     <row r="23" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -1237,7 +1237,7 @@
     </row>
     <row r="24" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -1258,7 +1258,7 @@
     </row>
     <row r="25" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -1300,7 +1300,7 @@
     </row>
     <row r="27" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -1321,7 +1321,7 @@
     </row>
     <row r="28" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -1342,7 +1342,7 @@
     </row>
     <row r="29" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="30" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="31" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -1405,7 +1405,7 @@
     </row>
     <row r="32" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -1426,7 +1426,7 @@
     </row>
     <row r="33" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -1447,7 +1447,7 @@
     </row>
     <row r="34" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -1468,7 +1468,7 @@
     </row>
     <row r="35" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -1489,7 +1489,7 @@
     </row>
     <row r="36" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -1510,7 +1510,7 @@
     </row>
     <row r="37" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -1531,7 +1531,7 @@
     </row>
     <row r="38" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -1594,7 +1594,7 @@
     </row>
     <row r="41" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -1615,7 +1615,7 @@
     </row>
     <row r="42" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -1636,7 +1636,7 @@
     </row>
     <row r="43" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -1657,7 +1657,7 @@
     </row>
     <row r="44" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -1678,7 +1678,7 @@
     </row>
     <row r="45" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A45" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -1699,7 +1699,7 @@
     </row>
     <row r="46" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A46" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="48" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A48" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -1762,7 +1762,7 @@
     </row>
     <row r="49" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A49" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -1783,7 +1783,7 @@
     </row>
     <row r="50" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A50" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="51" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A51" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -1825,7 +1825,7 @@
     </row>
     <row r="52" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A52" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -1846,7 +1846,7 @@
     </row>
     <row r="53" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A53" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -1867,7 +1867,7 @@
     </row>
     <row r="54" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A54" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -1909,7 +1909,7 @@
     </row>
     <row r="56" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A56" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
@@ -1930,7 +1930,7 @@
     </row>
     <row r="57" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A57" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
@@ -1948,7 +1948,7 @@
     </row>
     <row r="58" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A58" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
@@ -2011,7 +2011,7 @@
     </row>
     <row r="61" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A61" s="11" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
@@ -2032,7 +2032,7 @@
     </row>
     <row r="62" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A62" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
@@ -2053,7 +2053,7 @@
     </row>
     <row r="63" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A63" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
@@ -2072,7 +2072,7 @@
     </row>
     <row r="64" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A64" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
@@ -2091,7 +2091,7 @@
     </row>
     <row r="65" spans="1:20" ht="14" x14ac:dyDescent="0.3">
       <c r="A65" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
@@ -2108,7 +2108,7 @@
     </row>
     <row r="66" spans="1:20" ht="14" x14ac:dyDescent="0.3">
       <c r="A66" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
@@ -2125,7 +2125,7 @@
     </row>
     <row r="67" spans="1:20" ht="14" x14ac:dyDescent="0.3">
       <c r="A67" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
@@ -2153,7 +2153,7 @@
     </row>
     <row r="69" spans="1:20" ht="14" x14ac:dyDescent="0.3">
       <c r="A69" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B69" s="6"/>
       <c r="L69" s="11"/>
@@ -2171,7 +2171,7 @@
         <v>2</v>
       </c>
       <c r="B70" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C70" s="35" t="s">
         <v>0</v>
@@ -2190,7 +2190,7 @@
         <v>4</v>
       </c>
       <c r="K70" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L70" s="17" t="s">
         <v>5</v>
@@ -2207,22 +2207,22 @@
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D71" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E71" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="E71" s="28" t="s">
-        <v>68</v>
-      </c>
       <c r="F71" s="25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G71" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="H71" s="24" t="s">
         <v>66</v>
-      </c>
-      <c r="H71" s="24" t="s">
-        <v>68</v>
       </c>
       <c r="L71" s="11"/>
       <c r="M71" s="11"/>
@@ -2236,7 +2236,7 @@
     </row>
     <row r="72" spans="1:20" ht="14" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="31">
@@ -2255,22 +2255,22 @@
         <v>5</v>
       </c>
       <c r="H72" s="26">
-        <v>54778.441645771301</v>
+        <v>55221.7526031745</v>
       </c>
       <c r="I72" s="33">
         <f>H72/E72-1</f>
-        <v>-2.656973377748173E-4</v>
+        <v>7.8249521503568342E-3</v>
       </c>
       <c r="J72" s="1">
-        <f>0.3/1000</f>
-        <v>2.9999999999999997E-4</v>
+        <f>0.34/1000</f>
+        <v>3.4000000000000002E-4</v>
       </c>
       <c r="K72" s="1">
         <v>5000</v>
       </c>
       <c r="L72" s="23">
         <f>K72*J72</f>
-        <v>1.4999999999999998</v>
+        <v>1.7000000000000002</v>
       </c>
       <c r="M72" s="11"/>
       <c r="N72" s="11"/>
@@ -2283,7 +2283,7 @@
     </row>
     <row r="73" spans="1:20" ht="14" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="32">
@@ -2296,28 +2296,28 @@
         <v>460.4</v>
       </c>
       <c r="F73" s="32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G73" s="32">
         <v>4</v>
       </c>
       <c r="H73" s="27">
-        <v>491.47532479517201</v>
+        <v>460.37420333964099</v>
       </c>
       <c r="I73" s="33">
         <f>H73/E73-1</f>
-        <v>6.749636141436155E-2</v>
+        <v>-5.6030973846654675E-5</v>
       </c>
       <c r="J73" s="34">
-        <f>0.75/1000</f>
-        <v>7.5000000000000002E-4</v>
+        <f>0.6/1000</f>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="K73" s="1">
         <v>5000</v>
       </c>
       <c r="L73" s="23">
         <f>K73*J73</f>
-        <v>3.75</v>
+        <v>2.9999999999999996</v>
       </c>
       <c r="M73" s="11"/>
       <c r="N73" s="11"/>
@@ -2330,7 +2330,7 @@
     </row>
     <row r="74" spans="1:20" ht="14" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="32">
@@ -2356,15 +2356,15 @@
         <v>-4.237336830681393E-4</v>
       </c>
       <c r="J74" s="34">
-        <f>1.34/1000</f>
-        <v>1.34E-3</v>
+        <f>1.43/1000</f>
+        <v>1.4299999999999998E-3</v>
       </c>
       <c r="K74" s="1">
         <v>5000</v>
       </c>
       <c r="L74" s="23">
         <f>K74*J74</f>
-        <v>6.7</v>
+        <v>7.1499999999999995</v>
       </c>
       <c r="M74" s="11"/>
       <c r="N74" s="11"/>
@@ -2377,7 +2377,7 @@
     </row>
     <row r="75" spans="1:20" ht="14" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="32">
@@ -2393,25 +2393,25 @@
         <v>2</v>
       </c>
       <c r="G75" s="32">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H75" s="27">
-        <v>362.33641549977301</v>
+        <v>356.37442900304598</v>
       </c>
       <c r="I75" s="33">
         <f>H75/E75-1</f>
-        <v>1.8371038504140014E-2</v>
+        <v>1.6144716218267074E-3</v>
       </c>
       <c r="J75" s="34">
-        <f>5.51/1000</f>
-        <v>5.5100000000000001E-3</v>
+        <f>5.49/1000</f>
+        <v>5.4900000000000001E-3</v>
       </c>
       <c r="K75" s="1">
         <v>5000</v>
       </c>
       <c r="L75" s="23">
         <f t="shared" ref="L75:L81" si="0">K75*J75</f>
-        <v>27.55</v>
+        <v>27.45</v>
       </c>
       <c r="M75" s="11"/>
       <c r="N75" s="11"/>
@@ -2424,7 +2424,7 @@
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="32">
@@ -2443,27 +2443,27 @@
         <v>23</v>
       </c>
       <c r="H76" s="27">
-        <v>202500.084329359</v>
+        <v>196699.85732389899</v>
       </c>
       <c r="I76" s="33">
         <f>H76/E76-1</f>
-        <v>3.544590285404059E-2</v>
+        <v>5.7875384720351697E-3</v>
       </c>
       <c r="J76" s="1">
-        <f>4.51/1000</f>
-        <v>4.5100000000000001E-3</v>
+        <f>4.58/1000</f>
+        <v>4.5799999999999999E-3</v>
       </c>
       <c r="K76" s="1">
         <v>5000</v>
       </c>
       <c r="L76" s="23">
         <f t="shared" si="0"/>
-        <v>22.55</v>
+        <v>22.9</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="32">
@@ -2482,27 +2482,27 @@
         <v>11</v>
       </c>
       <c r="H77" s="27">
-        <v>221035.051221445</v>
+        <v>204348.75456003399</v>
       </c>
       <c r="I77" s="33">
         <f t="shared" ref="I77:I81" si="1">H77/E77-1</f>
-        <v>8.1728784698876789E-2</v>
+        <v>6.7313774116062319E-5</v>
       </c>
       <c r="J77" s="34">
-        <f>7.04/1000</f>
-        <v>7.0400000000000003E-3</v>
+        <f>6.96/1000</f>
+        <v>6.96E-3</v>
       </c>
       <c r="K77" s="1">
         <v>5000</v>
       </c>
       <c r="L77" s="23">
         <f t="shared" si="0"/>
-        <v>35.200000000000003</v>
+        <v>34.799999999999997</v>
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="32">
@@ -2521,27 +2521,27 @@
         <v>8</v>
       </c>
       <c r="H78" s="27">
-        <v>878.46235056416003</v>
+        <v>858.18527479990996</v>
       </c>
       <c r="I78" s="33">
         <f t="shared" si="1"/>
-        <v>4.219047403506937E-2</v>
+        <v>1.813414972109384E-2</v>
       </c>
       <c r="J78" s="34">
-        <f>6.16/1000</f>
-        <v>6.1600000000000005E-3</v>
+        <f>6.58/1000</f>
+        <v>6.5799999999999999E-3</v>
       </c>
       <c r="K78" s="1">
         <v>5000</v>
       </c>
       <c r="L78" s="23">
         <f t="shared" si="0"/>
-        <v>30.800000000000004</v>
+        <v>32.9</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="32">
@@ -2560,27 +2560,27 @@
         <v>10</v>
       </c>
       <c r="H79" s="27">
-        <v>5972.5907789880903</v>
+        <v>5918.1414685948203</v>
       </c>
       <c r="I79" s="33">
         <f t="shared" si="1"/>
-        <v>2.8161607675691203E-2</v>
+        <v>1.8788340264214165E-2</v>
       </c>
       <c r="J79" s="34">
-        <f>16.66/1000</f>
-        <v>1.6660000000000001E-2</v>
+        <f>16.34/1000</f>
+        <v>1.634E-2</v>
       </c>
       <c r="K79" s="1">
         <v>5000</v>
       </c>
       <c r="L79" s="23">
         <f t="shared" si="0"/>
-        <v>83.300000000000011</v>
+        <v>81.7</v>
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="32">
@@ -2596,30 +2596,30 @@
         <v>3</v>
       </c>
       <c r="G80" s="32">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H80" s="27">
-        <v>47362.025278270798</v>
+        <v>45667.032815195897</v>
       </c>
       <c r="I80" s="33">
         <f t="shared" si="1"/>
-        <v>7.6123514389828228E-2</v>
+        <v>3.761119918557787E-2</v>
       </c>
       <c r="J80" s="34">
-        <f>20.55/1000</f>
-        <v>2.0550000000000002E-2</v>
+        <f>19.86/1000</f>
+        <v>1.9859999999999999E-2</v>
       </c>
       <c r="K80" s="1">
         <v>5000</v>
       </c>
       <c r="L80" s="23">
         <f t="shared" si="0"/>
-        <v>102.75000000000001</v>
+        <v>99.3</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="31">
@@ -2635,25 +2635,25 @@
         <v>3</v>
       </c>
       <c r="G81" s="31">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H81" s="26">
-        <v>513404.316973079</v>
+        <v>485947.19014120603</v>
       </c>
       <c r="I81" s="33">
         <f t="shared" si="1"/>
-        <v>7.7032828819677102E-2</v>
+        <v>1.9432559391978854E-2</v>
       </c>
       <c r="J81" s="34">
-        <f>18.8/1000</f>
-        <v>1.8800000000000001E-2</v>
+        <f>19.65/1000</f>
+        <v>1.9649999999999997E-2</v>
       </c>
       <c r="K81" s="1">
         <v>5000</v>
       </c>
       <c r="L81" s="23">
         <f t="shared" si="0"/>
-        <v>94</v>
+        <v>98.249999999999986</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research related\dev\LRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED65DBBC-AA85-410A-94EA-CB8E8DC95CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78C8778-E3E1-42C7-BA36-C3D5D4507B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="94">
   <si>
     <t>Best known</t>
   </si>
@@ -85,9 +85,6 @@
     <t>        Ψₗ  =   [</t>
   </si>
   <si>
-    <t>                    :move!          ,</t>
-  </si>
-  <si>
     <t>Size</t>
   </si>
   <si>
@@ -313,7 +310,13 @@
     <t>MersenneTwister(1104); MersenneTwister(1234); MersenneTwister(1403)</t>
   </si>
   <si>
-    <t>        𝜃   =   0.9975                 ,</t>
+    <t>                    :intramove!     ,</t>
+  </si>
+  <si>
+    <t>                    :intermove!     ,</t>
+  </si>
+  <si>
+    <t>        𝜃   =   0.9975                  ,</t>
   </si>
 </sst>
 </file>
@@ -936,10 +939,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5551421D-4FE7-47B7-A546-15E7A05240A9}">
-  <dimension ref="A1:X288"/>
+  <dimension ref="A1:X289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J82" sqref="J82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -961,7 +964,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -983,16 +986,16 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -1002,11 +1005,11 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -1016,25 +1019,25 @@
     </row>
     <row r="6" spans="1:8" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="1:8" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1044,11 +1047,11 @@
     </row>
     <row r="10" spans="1:8" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1068,7 +1071,7 @@
     </row>
     <row r="12" spans="1:8" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1080,11 +1083,11 @@
     </row>
     <row r="13" spans="1:8" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1094,11 +1097,11 @@
     </row>
     <row r="14" spans="1:8" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1108,11 +1111,11 @@
     </row>
     <row r="15" spans="1:8" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
@@ -1122,10 +1125,10 @@
     </row>
     <row r="16" spans="1:8" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
@@ -1137,7 +1140,7 @@
     </row>
     <row r="18" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="7"/>
       <c r="L18" s="11"/>
@@ -1156,7 +1159,7 @@
     </row>
     <row r="19" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B19" s="10"/>
       <c r="L19" s="11"/>
@@ -1165,7 +1168,7 @@
     </row>
     <row r="20" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B20" s="10"/>
       <c r="L20" s="11"/>
@@ -1174,7 +1177,7 @@
     </row>
     <row r="21" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -1195,7 +1198,7 @@
     </row>
     <row r="22" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -1216,7 +1219,7 @@
     </row>
     <row r="23" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -1237,7 +1240,7 @@
     </row>
     <row r="24" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -1258,7 +1261,7 @@
     </row>
     <row r="25" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -1300,7 +1303,7 @@
     </row>
     <row r="27" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -1321,7 +1324,7 @@
     </row>
     <row r="28" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -1342,7 +1345,7 @@
     </row>
     <row r="29" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -1363,7 +1366,7 @@
     </row>
     <row r="30" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -1384,7 +1387,7 @@
     </row>
     <row r="31" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -1405,7 +1408,7 @@
     </row>
     <row r="32" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -1426,7 +1429,7 @@
     </row>
     <row r="33" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -1447,7 +1450,7 @@
     </row>
     <row r="34" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -1468,7 +1471,7 @@
     </row>
     <row r="35" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -1489,7 +1492,7 @@
     </row>
     <row r="36" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -1510,7 +1513,7 @@
     </row>
     <row r="37" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -1531,7 +1534,7 @@
     </row>
     <row r="38" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -1594,7 +1597,7 @@
     </row>
     <row r="41" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -1615,7 +1618,7 @@
     </row>
     <row r="42" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -1636,7 +1639,7 @@
     </row>
     <row r="43" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -1657,7 +1660,7 @@
     </row>
     <row r="44" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -1678,7 +1681,7 @@
     </row>
     <row r="45" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A45" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -1699,7 +1702,7 @@
     </row>
     <row r="46" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A46" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -1762,7 +1765,7 @@
     </row>
     <row r="49" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A49" s="11" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -1783,7 +1786,7 @@
     </row>
     <row r="50" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A50" s="11" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -1804,7 +1807,7 @@
     </row>
     <row r="51" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A51" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -1825,7 +1828,7 @@
     </row>
     <row r="52" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A52" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -1846,7 +1849,7 @@
     </row>
     <row r="53" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A53" s="11" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -1867,7 +1870,7 @@
     </row>
     <row r="54" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A54" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -1888,7 +1891,7 @@
     </row>
     <row r="55" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A55" s="11" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -1909,7 +1912,7 @@
     </row>
     <row r="56" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A56" s="11" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
@@ -1930,7 +1933,7 @@
     </row>
     <row r="57" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A57" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
@@ -1939,6 +1942,9 @@
       <c r="F57" s="11"/>
       <c r="G57" s="11"/>
       <c r="H57" s="11"/>
+      <c r="P57" s="11"/>
+      <c r="Q57" s="11"/>
+      <c r="R57" s="11"/>
       <c r="S57" s="11"/>
       <c r="T57" s="11"/>
       <c r="U57" s="11"/>
@@ -1948,7 +1954,7 @@
     </row>
     <row r="58" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A58" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
@@ -1957,9 +1963,6 @@
       <c r="F58" s="11"/>
       <c r="G58" s="11"/>
       <c r="H58" s="11"/>
-      <c r="N58" s="3"/>
-      <c r="O58" s="4"/>
-      <c r="Q58" s="5"/>
       <c r="S58" s="11"/>
       <c r="T58" s="11"/>
       <c r="U58" s="11"/>
@@ -1969,7 +1972,7 @@
     </row>
     <row r="59" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A59" s="11" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
@@ -1978,9 +1981,9 @@
       <c r="F59" s="11"/>
       <c r="G59" s="11"/>
       <c r="H59" s="11"/>
-      <c r="P59" s="11"/>
-      <c r="Q59" s="11"/>
-      <c r="R59" s="11"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="4"/>
+      <c r="Q59" s="5"/>
       <c r="S59" s="11"/>
       <c r="T59" s="11"/>
       <c r="U59" s="11"/>
@@ -1990,7 +1993,7 @@
     </row>
     <row r="60" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A60" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
@@ -2011,7 +2014,7 @@
     </row>
     <row r="61" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A61" s="11" t="s">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
@@ -2032,7 +2035,7 @@
     </row>
     <row r="62" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A62" s="11" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
@@ -2053,7 +2056,7 @@
     </row>
     <row r="63" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A63" s="11" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
@@ -2069,10 +2072,12 @@
       <c r="T63" s="11"/>
       <c r="U63" s="11"/>
       <c r="V63" s="11"/>
+      <c r="W63" s="11"/>
+      <c r="X63" s="11"/>
     </row>
     <row r="64" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A64" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
@@ -2089,9 +2094,9 @@
       <c r="U64" s="11"/>
       <c r="V64" s="11"/>
     </row>
-    <row r="65" spans="1:20" ht="14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:22" ht="14" x14ac:dyDescent="0.3">
       <c r="A65" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
@@ -2105,10 +2110,12 @@
       <c r="R65" s="11"/>
       <c r="S65" s="11"/>
       <c r="T65" s="11"/>
-    </row>
-    <row r="66" spans="1:20" ht="14" x14ac:dyDescent="0.3">
+      <c r="U65" s="11"/>
+      <c r="V65" s="11"/>
+    </row>
+    <row r="66" spans="1:22" ht="14" x14ac:dyDescent="0.3">
       <c r="A66" s="11" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
@@ -2123,9 +2130,9 @@
       <c r="S66" s="11"/>
       <c r="T66" s="11"/>
     </row>
-    <row r="67" spans="1:20" ht="14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:22" ht="14" x14ac:dyDescent="0.3">
       <c r="A67" s="11" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
@@ -2140,22 +2147,24 @@
       <c r="S67" s="11"/>
       <c r="T67" s="11"/>
     </row>
-    <row r="68" spans="1:20" ht="14" x14ac:dyDescent="0.3">
-      <c r="L68" s="11"/>
-      <c r="M68" s="11"/>
-      <c r="N68" s="11"/>
-      <c r="O68" s="11"/>
+    <row r="68" spans="1:22" ht="14" x14ac:dyDescent="0.3">
+      <c r="A68" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11"/>
       <c r="P68" s="11"/>
       <c r="Q68" s="11"/>
       <c r="R68" s="11"/>
       <c r="S68" s="11"/>
       <c r="T68" s="11"/>
     </row>
-    <row r="69" spans="1:20" ht="14" x14ac:dyDescent="0.3">
-      <c r="A69" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B69" s="6"/>
+    <row r="69" spans="1:22" ht="14" x14ac:dyDescent="0.3">
       <c r="L69" s="11"/>
       <c r="M69" s="11"/>
       <c r="N69" s="11"/>
@@ -2166,35 +2175,13 @@
       <c r="S69" s="11"/>
       <c r="T69" s="11"/>
     </row>
-    <row r="70" spans="1:20" ht="14" x14ac:dyDescent="0.3">
-      <c r="A70" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B70" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C70" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="D70" s="36"/>
-      <c r="E70" s="36"/>
-      <c r="F70" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="G70" s="36"/>
-      <c r="H70" s="36"/>
-      <c r="I70" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="J70" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="K70" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="L70" s="17" t="s">
-        <v>5</v>
-      </c>
+    <row r="70" spans="1:22" ht="14" x14ac:dyDescent="0.3">
+      <c r="A70" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B70" s="6"/>
+      <c r="L70" s="11"/>
+      <c r="M70" s="11"/>
       <c r="N70" s="11"/>
       <c r="O70" s="11"/>
       <c r="P70" s="11"/>
@@ -2203,29 +2190,35 @@
       <c r="S70" s="11"/>
       <c r="T70" s="11"/>
     </row>
-    <row r="71" spans="1:20" ht="14" x14ac:dyDescent="0.3">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="D71" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="E71" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="F71" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="G71" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="H71" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="L71" s="11"/>
-      <c r="M71" s="11"/>
+    <row r="71" spans="1:22" ht="14" x14ac:dyDescent="0.3">
+      <c r="A71" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B71" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C71" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="D71" s="36"/>
+      <c r="E71" s="36"/>
+      <c r="F71" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="G71" s="36"/>
+      <c r="H71" s="36"/>
+      <c r="I71" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="J71" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="K71" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="L71" s="17" t="s">
+        <v>5</v>
+      </c>
       <c r="N71" s="11"/>
       <c r="O71" s="11"/>
       <c r="P71" s="11"/>
@@ -2234,44 +2227,28 @@
       <c r="S71" s="11"/>
       <c r="T71" s="11"/>
     </row>
-    <row r="72" spans="1:20" ht="14" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
-        <v>71</v>
-      </c>
+    <row r="72" spans="1:22" ht="14" x14ac:dyDescent="0.3">
+      <c r="A72" s="2"/>
       <c r="B72" s="2"/>
-      <c r="C72" s="31">
-        <v>3</v>
-      </c>
-      <c r="D72" s="31">
-        <v>5</v>
-      </c>
-      <c r="E72" s="29">
-        <v>54793</v>
-      </c>
-      <c r="F72" s="31">
-        <v>3</v>
-      </c>
-      <c r="G72" s="31">
-        <v>5</v>
-      </c>
-      <c r="H72" s="26">
-        <v>55221.7526031745</v>
-      </c>
-      <c r="I72" s="33">
-        <f>H72/E72-1</f>
-        <v>7.8249521503568342E-3</v>
-      </c>
-      <c r="J72" s="1">
-        <f>0.34/1000</f>
-        <v>3.4000000000000002E-4</v>
-      </c>
-      <c r="K72" s="1">
-        <v>5000</v>
-      </c>
-      <c r="L72" s="23">
-        <f>K72*J72</f>
-        <v>1.7000000000000002</v>
-      </c>
+      <c r="C72" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D72" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="E72" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="F72" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="G72" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="H72" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="L72" s="11"/>
       <c r="M72" s="11"/>
       <c r="N72" s="11"/>
       <c r="O72" s="11"/>
@@ -2281,43 +2258,43 @@
       <c r="S72" s="11"/>
       <c r="T72" s="11"/>
     </row>
-    <row r="73" spans="1:20" ht="14" x14ac:dyDescent="0.3">
-      <c r="A73" s="2" t="s">
-        <v>75</v>
+    <row r="73" spans="1:22" ht="14" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B73" s="2"/>
-      <c r="C73" s="32">
-        <v>1</v>
-      </c>
-      <c r="D73" s="32">
-        <v>4</v>
+      <c r="C73" s="31">
+        <v>3</v>
+      </c>
+      <c r="D73" s="31">
+        <v>5</v>
       </c>
       <c r="E73" s="29">
-        <v>460.4</v>
-      </c>
-      <c r="F73" s="32">
-        <v>1</v>
-      </c>
-      <c r="G73" s="32">
-        <v>4</v>
-      </c>
-      <c r="H73" s="27">
-        <v>460.37420333964099</v>
+        <v>54793</v>
+      </c>
+      <c r="F73" s="31">
+        <v>3</v>
+      </c>
+      <c r="G73" s="31">
+        <v>5</v>
+      </c>
+      <c r="H73" s="26">
+        <v>54778.441645771403</v>
       </c>
       <c r="I73" s="33">
         <f>H73/E73-1</f>
-        <v>-5.6030973846654675E-5</v>
-      </c>
-      <c r="J73" s="34">
-        <f>0.6/1000</f>
-        <v>5.9999999999999995E-4</v>
+        <v>-2.6569733777304094E-4</v>
+      </c>
+      <c r="J73" s="1">
+        <f>0.33/1000</f>
+        <v>3.3E-4</v>
       </c>
       <c r="K73" s="1">
         <v>5000</v>
       </c>
       <c r="L73" s="23">
         <f>K73*J73</f>
-        <v>2.9999999999999996</v>
+        <v>1.65</v>
       </c>
       <c r="M73" s="11"/>
       <c r="N73" s="11"/>
@@ -2328,43 +2305,43 @@
       <c r="S73" s="11"/>
       <c r="T73" s="11"/>
     </row>
-    <row r="74" spans="1:20" ht="14" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:22" ht="14" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D74" s="32">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E74" s="29">
-        <v>63242</v>
+        <v>460.4</v>
       </c>
       <c r="F74" s="32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G74" s="32">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H74" s="27">
-        <v>63215.202234415403</v>
+        <v>460.37420333966799</v>
       </c>
       <c r="I74" s="33">
         <f>H74/E74-1</f>
-        <v>-4.237336830681393E-4</v>
+        <v>-5.6030973788034899E-5</v>
       </c>
       <c r="J74" s="34">
-        <f>1.43/1000</f>
-        <v>1.4299999999999998E-3</v>
+        <f>0.6/1000</f>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="K74" s="1">
         <v>5000</v>
       </c>
       <c r="L74" s="23">
         <f>K74*J74</f>
-        <v>7.1499999999999995</v>
+        <v>2.9999999999999996</v>
       </c>
       <c r="M74" s="11"/>
       <c r="N74" s="11"/>
@@ -2375,43 +2352,43 @@
       <c r="S74" s="11"/>
       <c r="T74" s="11"/>
     </row>
-    <row r="75" spans="1:20" ht="14" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:22" ht="14" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="32">
         <v>2</v>
       </c>
       <c r="D75" s="32">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E75" s="29">
-        <v>355.8</v>
+        <v>63242</v>
       </c>
       <c r="F75" s="32">
         <v>2</v>
       </c>
       <c r="G75" s="32">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H75" s="27">
-        <v>356.37442900304598</v>
+        <v>64119.148474558802</v>
       </c>
       <c r="I75" s="33">
         <f>H75/E75-1</f>
-        <v>1.6144716218267074E-3</v>
+        <v>1.3869714344245887E-2</v>
       </c>
       <c r="J75" s="34">
-        <f>5.49/1000</f>
-        <v>5.4900000000000001E-3</v>
+        <f>1.43/1000</f>
+        <v>1.4299999999999998E-3</v>
       </c>
       <c r="K75" s="1">
         <v>5000</v>
       </c>
       <c r="L75" s="23">
-        <f t="shared" ref="L75:L81" si="0">K75*J75</f>
-        <v>27.45</v>
+        <f>K75*J75</f>
+        <v>7.1499999999999995</v>
       </c>
       <c r="M75" s="11"/>
       <c r="N75" s="11"/>
@@ -2422,165 +2399,173 @@
       <c r="S75" s="11"/>
       <c r="T75" s="11"/>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:22" ht="14" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="32">
         <v>2</v>
       </c>
       <c r="D76" s="32">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E76" s="29">
-        <v>195568</v>
+        <v>355.8</v>
       </c>
       <c r="F76" s="32">
         <v>2</v>
       </c>
       <c r="G76" s="32">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="H76" s="27">
-        <v>196699.85732389899</v>
+        <v>359.73514668988503</v>
       </c>
       <c r="I76" s="33">
         <f>H76/E76-1</f>
-        <v>5.7875384720351697E-3</v>
-      </c>
-      <c r="J76" s="1">
-        <f>4.58/1000</f>
-        <v>4.5799999999999999E-3</v>
+        <v>1.1059996317833054E-2</v>
+      </c>
+      <c r="J76" s="34">
+        <f>5.53/1000</f>
+        <v>5.5300000000000002E-3</v>
       </c>
       <c r="K76" s="1">
         <v>5000</v>
       </c>
       <c r="L76" s="23">
-        <f t="shared" si="0"/>
-        <v>22.9</v>
-      </c>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
+        <f t="shared" ref="L76:L82" si="0">K76*J76</f>
+        <v>27.650000000000002</v>
+      </c>
+      <c r="M76" s="11"/>
+      <c r="N76" s="11"/>
+      <c r="O76" s="11"/>
+      <c r="P76" s="11"/>
+      <c r="Q76" s="11"/>
+      <c r="R76" s="11"/>
+      <c r="S76" s="11"/>
+      <c r="T76" s="11"/>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" s="32">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E77" s="29">
-        <v>204335</v>
+        <v>195568</v>
       </c>
       <c r="F77" s="32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G77" s="32">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H77" s="27">
-        <v>204348.75456003399</v>
+        <v>197540.93064721001</v>
       </c>
       <c r="I77" s="33">
-        <f t="shared" ref="I77:I81" si="1">H77/E77-1</f>
-        <v>6.7313774116062319E-5</v>
-      </c>
-      <c r="J77" s="34">
-        <f>6.96/1000</f>
-        <v>6.96E-3</v>
+        <f>H77/E77-1</f>
+        <v>1.008820792363796E-2</v>
+      </c>
+      <c r="J77" s="1">
+        <f>4.54/1000</f>
+        <v>4.5399999999999998E-3</v>
       </c>
       <c r="K77" s="1">
         <v>5000</v>
       </c>
       <c r="L77" s="23">
         <f t="shared" si="0"/>
-        <v>34.799999999999997</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" s="32">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E78" s="29">
-        <v>842.9</v>
+        <v>204335</v>
       </c>
       <c r="F78" s="32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G78" s="32">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H78" s="27">
-        <v>858.18527479990996</v>
+        <v>205625.63564311399</v>
       </c>
       <c r="I78" s="33">
-        <f t="shared" si="1"/>
-        <v>1.813414972109384E-2</v>
+        <f t="shared" ref="I78:I82" si="1">H78/E78-1</f>
+        <v>6.3162729983310406E-3</v>
       </c>
       <c r="J78" s="34">
-        <f>6.58/1000</f>
-        <v>6.5799999999999999E-3</v>
+        <f>7.08/1000</f>
+        <v>7.0800000000000004E-3</v>
       </c>
       <c r="K78" s="1">
         <v>5000</v>
       </c>
       <c r="L78" s="23">
         <f t="shared" si="0"/>
-        <v>32.9</v>
-      </c>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
+        <v>35.4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" s="32">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E79" s="29">
-        <v>5809</v>
+        <v>842.9</v>
       </c>
       <c r="F79" s="32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G79" s="32">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H79" s="27">
-        <v>5918.1414685948203</v>
+        <v>853.10140733691105</v>
       </c>
       <c r="I79" s="33">
         <f t="shared" si="1"/>
-        <v>1.8788340264214165E-2</v>
+        <v>1.2102749242983935E-2</v>
       </c>
       <c r="J79" s="34">
-        <f>16.34/1000</f>
-        <v>1.634E-2</v>
+        <f>7.02/1000</f>
+        <v>7.0199999999999993E-3</v>
       </c>
       <c r="K79" s="1">
         <v>5000</v>
       </c>
       <c r="L79" s="23">
         <f t="shared" si="0"/>
-        <v>81.7</v>
-      </c>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
+        <v>35.099999999999994</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="32">
@@ -2590,74 +2575,110 @@
         <v>11</v>
       </c>
       <c r="E80" s="29">
-        <v>44011.7</v>
+        <v>5809</v>
       </c>
       <c r="F80" s="32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G80" s="32">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H80" s="27">
-        <v>45667.032815195897</v>
+        <v>5876.5517250727298</v>
       </c>
       <c r="I80" s="33">
         <f t="shared" si="1"/>
-        <v>3.761119918557787E-2</v>
+        <v>1.1628804453904351E-2</v>
       </c>
       <c r="J80" s="34">
-        <f>19.86/1000</f>
-        <v>1.9859999999999999E-2</v>
+        <f>14.96/1000</f>
+        <v>1.4960000000000001E-2</v>
       </c>
       <c r="K80" s="1">
         <v>5000</v>
       </c>
       <c r="L80" s="23">
         <f t="shared" si="0"/>
-        <v>99.3</v>
+        <v>74.800000000000011</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B81" s="2"/>
-      <c r="C81" s="31">
+      <c r="C81" s="32">
         <v>3</v>
       </c>
-      <c r="D81" s="31">
-        <v>47</v>
-      </c>
-      <c r="E81" s="30">
-        <v>476684</v>
-      </c>
-      <c r="F81" s="31">
+      <c r="D81" s="32">
+        <v>11</v>
+      </c>
+      <c r="E81" s="29">
+        <v>44011.7</v>
+      </c>
+      <c r="F81" s="32">
         <v>3</v>
       </c>
-      <c r="G81" s="31">
-        <v>46</v>
-      </c>
-      <c r="H81" s="26">
-        <v>485947.19014120603</v>
+      <c r="G81" s="32">
+        <v>11</v>
+      </c>
+      <c r="H81" s="27">
+        <v>45368.320839145003</v>
       </c>
       <c r="I81" s="33">
         <f t="shared" si="1"/>
-        <v>1.9432559391978854E-2</v>
+        <v>3.0824095391566386E-2</v>
       </c>
       <c r="J81" s="34">
-        <f>19.65/1000</f>
-        <v>1.9649999999999997E-2</v>
+        <f>21.46/1000</f>
+        <v>2.146E-2</v>
       </c>
       <c r="K81" s="1">
         <v>5000</v>
       </c>
       <c r="L81" s="23">
         <f t="shared" si="0"/>
-        <v>98.249999999999986</v>
+        <v>107.3</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B82" s="6"/>
+      <c r="A82" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" s="31">
+        <v>3</v>
+      </c>
+      <c r="D82" s="31">
+        <v>47</v>
+      </c>
+      <c r="E82" s="30">
+        <v>476684</v>
+      </c>
+      <c r="F82" s="31">
+        <v>3</v>
+      </c>
+      <c r="G82" s="31">
+        <v>46</v>
+      </c>
+      <c r="H82" s="26">
+        <v>489416.42888425803</v>
+      </c>
+      <c r="I82" s="33">
+        <f t="shared" si="1"/>
+        <v>2.6710417979747714E-2</v>
+      </c>
+      <c r="J82" s="34">
+        <f>19.83/1000</f>
+        <v>1.9829999999999997E-2</v>
+      </c>
+      <c r="K82" s="1">
+        <v>5000</v>
+      </c>
+      <c r="L82" s="23">
+        <f t="shared" si="0"/>
+        <v>99.149999999999991</v>
+      </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B83" s="6"/>
@@ -3277,10 +3298,13 @@
     <row r="288" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B288" s="6"/>
     </row>
+    <row r="289" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B289" s="6"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C70:E70"/>
-    <mergeCell ref="F70:H70"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="F71:H71"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research related\dev\LRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78C8778-E3E1-42C7-BA36-C3D5D4507B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{842FED09-A8F6-47F1-9C2F-A8B052EDA56C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="93">
   <si>
     <t>Best known</t>
   </si>
@@ -310,13 +310,10 @@
     <t>MersenneTwister(1104); MersenneTwister(1234); MersenneTwister(1403)</t>
   </si>
   <si>
-    <t>                    :intramove!     ,</t>
-  </si>
-  <si>
-    <t>                    :intermove!     ,</t>
-  </si>
-  <si>
     <t>        𝜃   =   0.9975                  ,</t>
+  </si>
+  <si>
+    <t>                    :move!          ,</t>
   </si>
 </sst>
 </file>
@@ -939,10 +936,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5551421D-4FE7-47B7-A546-15E7A05240A9}">
-  <dimension ref="A1:X289"/>
+  <dimension ref="A1:X288"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J82" sqref="J82"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J81" sqref="J81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -1763,9 +1760,9 @@
       <c r="W48" s="11"/>
       <c r="X48" s="11"/>
     </row>
-    <row r="49" spans="1:24" ht="14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -1786,7 +1783,7 @@
     </row>
     <row r="50" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A50" s="11" t="s">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -1807,7 +1804,7 @@
     </row>
     <row r="51" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A51" s="11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -1828,7 +1825,7 @@
     </row>
     <row r="52" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A52" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -1849,7 +1846,7 @@
     </row>
     <row r="53" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A53" s="11" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -1870,7 +1867,7 @@
     </row>
     <row r="54" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A54" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -1891,7 +1888,7 @@
     </row>
     <row r="55" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A55" s="11" t="s">
-        <v>81</v>
+        <v>7</v>
       </c>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -1912,7 +1909,7 @@
     </row>
     <row r="56" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A56" s="11" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
@@ -1933,7 +1930,7 @@
     </row>
     <row r="57" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A57" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
@@ -1942,9 +1939,6 @@
       <c r="F57" s="11"/>
       <c r="G57" s="11"/>
       <c r="H57" s="11"/>
-      <c r="P57" s="11"/>
-      <c r="Q57" s="11"/>
-      <c r="R57" s="11"/>
       <c r="S57" s="11"/>
       <c r="T57" s="11"/>
       <c r="U57" s="11"/>
@@ -1954,7 +1948,7 @@
     </row>
     <row r="58" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A58" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
@@ -1963,6 +1957,9 @@
       <c r="F58" s="11"/>
       <c r="G58" s="11"/>
       <c r="H58" s="11"/>
+      <c r="N58" s="3"/>
+      <c r="O58" s="4"/>
+      <c r="Q58" s="5"/>
       <c r="S58" s="11"/>
       <c r="T58" s="11"/>
       <c r="U58" s="11"/>
@@ -1972,7 +1969,7 @@
     </row>
     <row r="59" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A59" s="11" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
@@ -1981,9 +1978,9 @@
       <c r="F59" s="11"/>
       <c r="G59" s="11"/>
       <c r="H59" s="11"/>
-      <c r="N59" s="3"/>
-      <c r="O59" s="4"/>
-      <c r="Q59" s="5"/>
+      <c r="P59" s="11"/>
+      <c r="Q59" s="11"/>
+      <c r="R59" s="11"/>
       <c r="S59" s="11"/>
       <c r="T59" s="11"/>
       <c r="U59" s="11"/>
@@ -1993,7 +1990,7 @@
     </row>
     <row r="60" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A60" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
@@ -2014,7 +2011,7 @@
     </row>
     <row r="61" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A61" s="11" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
@@ -2035,7 +2032,7 @@
     </row>
     <row r="62" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A62" s="11" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
@@ -2056,7 +2053,7 @@
     </row>
     <row r="63" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A63" s="11" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
@@ -2072,12 +2069,10 @@
       <c r="T63" s="11"/>
       <c r="U63" s="11"/>
       <c r="V63" s="11"/>
-      <c r="W63" s="11"/>
-      <c r="X63" s="11"/>
     </row>
     <row r="64" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A64" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
@@ -2094,9 +2089,9 @@
       <c r="U64" s="11"/>
       <c r="V64" s="11"/>
     </row>
-    <row r="65" spans="1:22" ht="14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:20" ht="14" x14ac:dyDescent="0.3">
       <c r="A65" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
@@ -2110,12 +2105,10 @@
       <c r="R65" s="11"/>
       <c r="S65" s="11"/>
       <c r="T65" s="11"/>
-      <c r="U65" s="11"/>
-      <c r="V65" s="11"/>
-    </row>
-    <row r="66" spans="1:22" ht="14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:20" ht="14" x14ac:dyDescent="0.3">
       <c r="A66" s="11" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
@@ -2130,9 +2123,9 @@
       <c r="S66" s="11"/>
       <c r="T66" s="11"/>
     </row>
-    <row r="67" spans="1:22" ht="14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:20" ht="14" x14ac:dyDescent="0.3">
       <c r="A67" s="11" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
@@ -2147,24 +2140,22 @@
       <c r="S67" s="11"/>
       <c r="T67" s="11"/>
     </row>
-    <row r="68" spans="1:22" ht="14" x14ac:dyDescent="0.3">
-      <c r="A68" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B68" s="11"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="11"/>
-      <c r="G68" s="11"/>
-      <c r="H68" s="11"/>
+    <row r="68" spans="1:20" ht="14" x14ac:dyDescent="0.3">
+      <c r="L68" s="11"/>
+      <c r="M68" s="11"/>
+      <c r="N68" s="11"/>
+      <c r="O68" s="11"/>
       <c r="P68" s="11"/>
       <c r="Q68" s="11"/>
       <c r="R68" s="11"/>
       <c r="S68" s="11"/>
       <c r="T68" s="11"/>
     </row>
-    <row r="69" spans="1:22" ht="14" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:20" ht="14" x14ac:dyDescent="0.3">
+      <c r="A69" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B69" s="6"/>
       <c r="L69" s="11"/>
       <c r="M69" s="11"/>
       <c r="N69" s="11"/>
@@ -2175,13 +2166,35 @@
       <c r="S69" s="11"/>
       <c r="T69" s="11"/>
     </row>
-    <row r="70" spans="1:22" ht="14" x14ac:dyDescent="0.3">
-      <c r="A70" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B70" s="6"/>
-      <c r="L70" s="11"/>
-      <c r="M70" s="11"/>
+    <row r="70" spans="1:20" ht="14" x14ac:dyDescent="0.3">
+      <c r="A70" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B70" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="D70" s="36"/>
+      <c r="E70" s="36"/>
+      <c r="F70" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="G70" s="36"/>
+      <c r="H70" s="36"/>
+      <c r="I70" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="J70" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="K70" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="L70" s="17" t="s">
+        <v>5</v>
+      </c>
       <c r="N70" s="11"/>
       <c r="O70" s="11"/>
       <c r="P70" s="11"/>
@@ -2190,35 +2203,29 @@
       <c r="S70" s="11"/>
       <c r="T70" s="11"/>
     </row>
-    <row r="71" spans="1:22" ht="14" x14ac:dyDescent="0.3">
-      <c r="A71" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B71" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C71" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="D71" s="36"/>
-      <c r="E71" s="36"/>
-      <c r="F71" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="G71" s="36"/>
-      <c r="H71" s="36"/>
-      <c r="I71" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="J71" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="K71" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="L71" s="17" t="s">
-        <v>5</v>
-      </c>
+    <row r="71" spans="1:20" ht="14" x14ac:dyDescent="0.3">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D71" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="E71" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="F71" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="G71" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="H71" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="L71" s="11"/>
+      <c r="M71" s="11"/>
       <c r="N71" s="11"/>
       <c r="O71" s="11"/>
       <c r="P71" s="11"/>
@@ -2227,28 +2234,44 @@
       <c r="S71" s="11"/>
       <c r="T71" s="11"/>
     </row>
-    <row r="72" spans="1:22" ht="14" x14ac:dyDescent="0.3">
-      <c r="A72" s="2"/>
+    <row r="72" spans="1:20" ht="14" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="B72" s="2"/>
-      <c r="C72" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="D72" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="E72" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="F72" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="G72" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="H72" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="L72" s="11"/>
+      <c r="C72" s="31">
+        <v>3</v>
+      </c>
+      <c r="D72" s="31">
+        <v>5</v>
+      </c>
+      <c r="E72" s="29">
+        <v>54793</v>
+      </c>
+      <c r="F72" s="31">
+        <v>3</v>
+      </c>
+      <c r="G72" s="31">
+        <v>5</v>
+      </c>
+      <c r="H72" s="26">
+        <v>54778.441645771403</v>
+      </c>
+      <c r="I72" s="33">
+        <f>H72/E72-1</f>
+        <v>-2.6569733777304094E-4</v>
+      </c>
+      <c r="J72" s="1">
+        <f>0.33/1000</f>
+        <v>3.3E-4</v>
+      </c>
+      <c r="K72" s="1">
+        <v>5000</v>
+      </c>
+      <c r="L72" s="23">
+        <f>K72*J72</f>
+        <v>1.65</v>
+      </c>
       <c r="M72" s="11"/>
       <c r="N72" s="11"/>
       <c r="O72" s="11"/>
@@ -2258,43 +2281,43 @@
       <c r="S72" s="11"/>
       <c r="T72" s="11"/>
     </row>
-    <row r="73" spans="1:22" ht="14" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
-        <v>70</v>
+    <row r="73" spans="1:20" ht="14" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="B73" s="2"/>
-      <c r="C73" s="31">
-        <v>3</v>
-      </c>
-      <c r="D73" s="31">
-        <v>5</v>
+      <c r="C73" s="32">
+        <v>1</v>
+      </c>
+      <c r="D73" s="32">
+        <v>4</v>
       </c>
       <c r="E73" s="29">
-        <v>54793</v>
-      </c>
-      <c r="F73" s="31">
-        <v>3</v>
-      </c>
-      <c r="G73" s="31">
-        <v>5</v>
-      </c>
-      <c r="H73" s="26">
-        <v>54778.441645771403</v>
+        <v>460.4</v>
+      </c>
+      <c r="F73" s="32">
+        <v>1</v>
+      </c>
+      <c r="G73" s="32">
+        <v>4</v>
+      </c>
+      <c r="H73" s="27">
+        <v>460.37420333966799</v>
       </c>
       <c r="I73" s="33">
         <f>H73/E73-1</f>
-        <v>-2.6569733777304094E-4</v>
-      </c>
-      <c r="J73" s="1">
-        <f>0.33/1000</f>
-        <v>3.3E-4</v>
+        <v>-5.6030973788034899E-5</v>
+      </c>
+      <c r="J73" s="34">
+        <f>0.67/1000</f>
+        <v>6.7000000000000002E-4</v>
       </c>
       <c r="K73" s="1">
         <v>5000</v>
       </c>
       <c r="L73" s="23">
         <f>K73*J73</f>
-        <v>1.65</v>
+        <v>3.35</v>
       </c>
       <c r="M73" s="11"/>
       <c r="N73" s="11"/>
@@ -2305,43 +2328,43 @@
       <c r="S73" s="11"/>
       <c r="T73" s="11"/>
     </row>
-    <row r="74" spans="1:22" ht="14" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:20" ht="14" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D74" s="32">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E74" s="29">
-        <v>460.4</v>
+        <v>63242</v>
       </c>
       <c r="F74" s="32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G74" s="32">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H74" s="27">
-        <v>460.37420333966799</v>
+        <v>63274.563449802801</v>
       </c>
       <c r="I74" s="33">
         <f>H74/E74-1</f>
-        <v>-5.6030973788034899E-5</v>
+        <v>5.1490227701211921E-4</v>
       </c>
       <c r="J74" s="34">
-        <f>0.6/1000</f>
-        <v>5.9999999999999995E-4</v>
+        <f>1.53/1000</f>
+        <v>1.5300000000000001E-3</v>
       </c>
       <c r="K74" s="1">
         <v>5000</v>
       </c>
       <c r="L74" s="23">
         <f>K74*J74</f>
-        <v>2.9999999999999996</v>
+        <v>7.65</v>
       </c>
       <c r="M74" s="11"/>
       <c r="N74" s="11"/>
@@ -2352,43 +2375,43 @@
       <c r="S74" s="11"/>
       <c r="T74" s="11"/>
     </row>
-    <row r="75" spans="1:22" ht="14" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:20" ht="14" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="32">
         <v>2</v>
       </c>
       <c r="D75" s="32">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E75" s="29">
-        <v>63242</v>
+        <v>355.8</v>
       </c>
       <c r="F75" s="32">
         <v>2</v>
       </c>
       <c r="G75" s="32">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H75" s="27">
-        <v>64119.148474558802</v>
+        <v>360.943822920061</v>
       </c>
       <c r="I75" s="33">
         <f>H75/E75-1</f>
-        <v>1.3869714344245887E-2</v>
+        <v>1.445706273204328E-2</v>
       </c>
       <c r="J75" s="34">
-        <f>1.43/1000</f>
-        <v>1.4299999999999998E-3</v>
+        <f>6/1000</f>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="K75" s="1">
         <v>5000</v>
       </c>
       <c r="L75" s="23">
-        <f>K75*J75</f>
-        <v>7.1499999999999995</v>
+        <f t="shared" ref="L75:L81" si="0">K75*J75</f>
+        <v>30</v>
       </c>
       <c r="M75" s="11"/>
       <c r="N75" s="11"/>
@@ -2399,173 +2422,165 @@
       <c r="S75" s="11"/>
       <c r="T75" s="11"/>
     </row>
-    <row r="76" spans="1:22" ht="14" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="32">
         <v>2</v>
       </c>
       <c r="D76" s="32">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E76" s="29">
-        <v>355.8</v>
+        <v>195568</v>
       </c>
       <c r="F76" s="32">
         <v>2</v>
       </c>
       <c r="G76" s="32">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="H76" s="27">
-        <v>359.73514668988503</v>
+        <v>198076.10176990301</v>
       </c>
       <c r="I76" s="33">
         <f>H76/E76-1</f>
-        <v>1.1059996317833054E-2</v>
-      </c>
-      <c r="J76" s="34">
-        <f>5.53/1000</f>
-        <v>5.5300000000000002E-3</v>
+        <v>1.282470429673066E-2</v>
+      </c>
+      <c r="J76" s="1">
+        <f>4.95/1000</f>
+        <v>4.9500000000000004E-3</v>
       </c>
       <c r="K76" s="1">
         <v>5000</v>
       </c>
       <c r="L76" s="23">
-        <f t="shared" ref="L76:L82" si="0">K76*J76</f>
-        <v>27.650000000000002</v>
-      </c>
-      <c r="M76" s="11"/>
-      <c r="N76" s="11"/>
-      <c r="O76" s="11"/>
-      <c r="P76" s="11"/>
-      <c r="Q76" s="11"/>
-      <c r="R76" s="11"/>
-      <c r="S76" s="11"/>
-      <c r="T76" s="11"/>
-    </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>24.750000000000004</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77" s="32">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E77" s="29">
-        <v>195568</v>
+        <v>204335</v>
       </c>
       <c r="F77" s="32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G77" s="32">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H77" s="27">
-        <v>197540.93064721001</v>
+        <v>204311.38517527201</v>
       </c>
       <c r="I77" s="33">
-        <f>H77/E77-1</f>
-        <v>1.008820792363796E-2</v>
-      </c>
-      <c r="J77" s="1">
-        <f>4.54/1000</f>
-        <v>4.5399999999999998E-3</v>
+        <f t="shared" ref="I77:I81" si="1">H77/E77-1</f>
+        <v>-1.1556916205246459E-4</v>
+      </c>
+      <c r="J77" s="34">
+        <f>7.78/1000</f>
+        <v>7.7800000000000005E-3</v>
       </c>
       <c r="K77" s="1">
         <v>5000</v>
       </c>
       <c r="L77" s="23">
         <f t="shared" si="0"/>
-        <v>22.7</v>
-      </c>
-    </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
+        <v>38.900000000000006</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" s="32">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E78" s="29">
-        <v>204335</v>
+        <v>842.9</v>
       </c>
       <c r="F78" s="32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G78" s="32">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H78" s="27">
-        <v>205625.63564311399</v>
+        <v>863.845014543415</v>
       </c>
       <c r="I78" s="33">
-        <f t="shared" ref="I78:I82" si="1">H78/E78-1</f>
-        <v>6.3162729983310406E-3</v>
+        <f t="shared" si="1"/>
+        <v>2.4848753758945241E-2</v>
       </c>
       <c r="J78" s="34">
-        <f>7.08/1000</f>
-        <v>7.0800000000000004E-3</v>
+        <f>8.47/1000</f>
+        <v>8.4700000000000001E-3</v>
       </c>
       <c r="K78" s="1">
         <v>5000</v>
       </c>
       <c r="L78" s="23">
         <f t="shared" si="0"/>
-        <v>35.4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.3">
+        <v>42.35</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" s="32">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E79" s="29">
-        <v>842.9</v>
+        <v>5809</v>
       </c>
       <c r="F79" s="32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G79" s="32">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H79" s="27">
-        <v>853.10140733691105</v>
+        <v>5712.9930253951197</v>
       </c>
       <c r="I79" s="33">
         <f t="shared" si="1"/>
-        <v>1.2102749242983935E-2</v>
+        <v>-1.6527280875345163E-2</v>
       </c>
       <c r="J79" s="34">
-        <f>7.02/1000</f>
-        <v>7.0199999999999993E-3</v>
+        <f>16.91/1000</f>
+        <v>1.6910000000000001E-2</v>
       </c>
       <c r="K79" s="1">
         <v>5000</v>
       </c>
       <c r="L79" s="23">
         <f t="shared" si="0"/>
-        <v>35.099999999999994</v>
-      </c>
-    </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
+        <v>84.550000000000011</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="32">
@@ -2575,110 +2590,74 @@
         <v>11</v>
       </c>
       <c r="E80" s="29">
-        <v>5809</v>
+        <v>44011.7</v>
       </c>
       <c r="F80" s="32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G80" s="32">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H80" s="27">
-        <v>5876.5517250727298</v>
+        <v>45193.437758275497</v>
       </c>
       <c r="I80" s="33">
         <f t="shared" si="1"/>
-        <v>1.1628804453904351E-2</v>
+        <v>2.6850536522686097E-2</v>
       </c>
       <c r="J80" s="34">
-        <f>14.96/1000</f>
-        <v>1.4960000000000001E-2</v>
+        <f>24.5/1000</f>
+        <v>2.4500000000000001E-2</v>
       </c>
       <c r="K80" s="1">
         <v>5000</v>
       </c>
       <c r="L80" s="23">
         <f t="shared" si="0"/>
-        <v>74.800000000000011</v>
+        <v>122.5</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A81" s="2" t="s">
-        <v>79</v>
+      <c r="A81" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="B81" s="2"/>
-      <c r="C81" s="32">
+      <c r="C81" s="31">
         <v>3</v>
       </c>
-      <c r="D81" s="32">
-        <v>11</v>
-      </c>
-      <c r="E81" s="29">
-        <v>44011.7</v>
-      </c>
-      <c r="F81" s="32">
+      <c r="D81" s="31">
+        <v>47</v>
+      </c>
+      <c r="E81" s="30">
+        <v>476684</v>
+      </c>
+      <c r="F81" s="31">
         <v>3</v>
       </c>
-      <c r="G81" s="32">
-        <v>11</v>
-      </c>
-      <c r="H81" s="27">
-        <v>45368.320839145003</v>
+      <c r="G81" s="31">
+        <v>47</v>
+      </c>
+      <c r="H81" s="26">
+        <v>488842.09624820697</v>
       </c>
       <c r="I81" s="33">
         <f t="shared" si="1"/>
-        <v>3.0824095391566386E-2</v>
+        <v>2.5505568150403501E-2</v>
       </c>
       <c r="J81" s="34">
-        <f>21.46/1000</f>
-        <v>2.146E-2</v>
+        <f>22.65/1000</f>
+        <v>2.265E-2</v>
       </c>
       <c r="K81" s="1">
         <v>5000</v>
       </c>
       <c r="L81" s="23">
         <f t="shared" si="0"/>
-        <v>107.3</v>
+        <v>113.25</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A82" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B82" s="2"/>
-      <c r="C82" s="31">
-        <v>3</v>
-      </c>
-      <c r="D82" s="31">
-        <v>47</v>
-      </c>
-      <c r="E82" s="30">
-        <v>476684</v>
-      </c>
-      <c r="F82" s="31">
-        <v>3</v>
-      </c>
-      <c r="G82" s="31">
-        <v>46</v>
-      </c>
-      <c r="H82" s="26">
-        <v>489416.42888425803</v>
-      </c>
-      <c r="I82" s="33">
-        <f t="shared" si="1"/>
-        <v>2.6710417979747714E-2</v>
-      </c>
-      <c r="J82" s="34">
-        <f>19.83/1000</f>
-        <v>1.9829999999999997E-2</v>
-      </c>
-      <c r="K82" s="1">
-        <v>5000</v>
-      </c>
-      <c r="L82" s="23">
-        <f t="shared" si="0"/>
-        <v>99.149999999999991</v>
-      </c>
+      <c r="B82" s="6"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B83" s="6"/>
@@ -3298,13 +3277,10 @@
     <row r="288" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B288" s="6"/>
     </row>
-    <row r="289" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B289" s="6"/>
-    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="F71:H71"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="F70:H70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research related\dev\LRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{842FED09-A8F6-47F1-9C2F-A8B052EDA56C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39F0438-BC01-4BDB-AEC6-5C55F9699B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="92">
   <si>
     <t>Best known</t>
   </si>
@@ -199,12 +199,6 @@
     <t>                    :regret3!</t>
   </si>
   <si>
-    <t>                    :intraopt!      ,</t>
-  </si>
-  <si>
-    <t>                    :interopt!      ,</t>
-  </si>
-  <si>
     <t>                    :split!         ,</t>
   </si>
   <si>
@@ -314,6 +308,9 @@
   </si>
   <si>
     <t>                    :move!          ,</t>
+  </si>
+  <si>
+    <t>                    :opt!           ,</t>
   </si>
 </sst>
 </file>
@@ -936,10 +933,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5551421D-4FE7-47B7-A546-15E7A05240A9}">
-  <dimension ref="A1:X288"/>
+  <dimension ref="A1:X287"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J81" sqref="J81"/>
+      <selection activeCell="J72" sqref="J72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -961,7 +958,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -1112,7 +1109,7 @@
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
@@ -1125,7 +1122,7 @@
         <v>37</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
@@ -1156,7 +1153,7 @@
     </row>
     <row r="19" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B19" s="10"/>
       <c r="L19" s="11"/>
@@ -1165,7 +1162,7 @@
     </row>
     <row r="20" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B20" s="10"/>
       <c r="L20" s="11"/>
@@ -1174,7 +1171,7 @@
     </row>
     <row r="21" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -1363,7 +1360,7 @@
     </row>
     <row r="30" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -1447,7 +1444,7 @@
     </row>
     <row r="34" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -1510,7 +1507,7 @@
     </row>
     <row r="37" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -1531,7 +1528,7 @@
     </row>
     <row r="38" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -1594,7 +1591,7 @@
     </row>
     <row r="41" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -1615,7 +1612,7 @@
     </row>
     <row r="42" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -1636,7 +1633,7 @@
     </row>
     <row r="43" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -1657,7 +1654,7 @@
     </row>
     <row r="44" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -1762,7 +1759,7 @@
     </row>
     <row r="49" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -1783,7 +1780,7 @@
     </row>
     <row r="50" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A50" s="11" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -1804,7 +1801,7 @@
     </row>
     <row r="51" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A51" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -1825,7 +1822,7 @@
     </row>
     <row r="52" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A52" s="11" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -1846,7 +1843,7 @@
     </row>
     <row r="53" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A53" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -1867,7 +1864,7 @@
     </row>
     <row r="54" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A54" s="11" t="s">
-        <v>81</v>
+        <v>7</v>
       </c>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -1888,7 +1885,7 @@
     </row>
     <row r="55" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A55" s="11" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -1909,7 +1906,7 @@
     </row>
     <row r="56" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A56" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
@@ -1918,9 +1915,6 @@
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
       <c r="H56" s="11"/>
-      <c r="P56" s="11"/>
-      <c r="Q56" s="11"/>
-      <c r="R56" s="11"/>
       <c r="S56" s="11"/>
       <c r="T56" s="11"/>
       <c r="U56" s="11"/>
@@ -1930,7 +1924,7 @@
     </row>
     <row r="57" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A57" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
@@ -1939,6 +1933,9 @@
       <c r="F57" s="11"/>
       <c r="G57" s="11"/>
       <c r="H57" s="11"/>
+      <c r="N57" s="3"/>
+      <c r="O57" s="4"/>
+      <c r="Q57" s="5"/>
       <c r="S57" s="11"/>
       <c r="T57" s="11"/>
       <c r="U57" s="11"/>
@@ -1948,7 +1945,7 @@
     </row>
     <row r="58" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A58" s="11" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
@@ -1957,9 +1954,9 @@
       <c r="F58" s="11"/>
       <c r="G58" s="11"/>
       <c r="H58" s="11"/>
-      <c r="N58" s="3"/>
-      <c r="O58" s="4"/>
-      <c r="Q58" s="5"/>
+      <c r="P58" s="11"/>
+      <c r="Q58" s="11"/>
+      <c r="R58" s="11"/>
       <c r="S58" s="11"/>
       <c r="T58" s="11"/>
       <c r="U58" s="11"/>
@@ -1969,7 +1966,7 @@
     </row>
     <row r="59" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A59" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
@@ -1990,7 +1987,7 @@
     </row>
     <row r="60" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A60" s="11" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
@@ -2011,7 +2008,7 @@
     </row>
     <row r="61" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A61" s="11" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
@@ -2032,7 +2029,7 @@
     </row>
     <row r="62" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A62" s="11" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
@@ -2048,12 +2045,10 @@
       <c r="T62" s="11"/>
       <c r="U62" s="11"/>
       <c r="V62" s="11"/>
-      <c r="W62" s="11"/>
-      <c r="X62" s="11"/>
     </row>
     <row r="63" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A63" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
@@ -2072,7 +2067,7 @@
     </row>
     <row r="64" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A64" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
@@ -2086,12 +2081,10 @@
       <c r="R64" s="11"/>
       <c r="S64" s="11"/>
       <c r="T64" s="11"/>
-      <c r="U64" s="11"/>
-      <c r="V64" s="11"/>
     </row>
     <row r="65" spans="1:20" ht="14" x14ac:dyDescent="0.3">
       <c r="A65" s="11" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
@@ -2108,7 +2101,7 @@
     </row>
     <row r="66" spans="1:20" ht="14" x14ac:dyDescent="0.3">
       <c r="A66" s="11" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
@@ -2124,16 +2117,10 @@
       <c r="T66" s="11"/>
     </row>
     <row r="67" spans="1:20" ht="14" x14ac:dyDescent="0.3">
-      <c r="A67" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B67" s="11"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="11"/>
-      <c r="H67" s="11"/>
+      <c r="L67" s="11"/>
+      <c r="M67" s="11"/>
+      <c r="N67" s="11"/>
+      <c r="O67" s="11"/>
       <c r="P67" s="11"/>
       <c r="Q67" s="11"/>
       <c r="R67" s="11"/>
@@ -2141,6 +2128,10 @@
       <c r="T67" s="11"/>
     </row>
     <row r="68" spans="1:20" ht="14" x14ac:dyDescent="0.3">
+      <c r="A68" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B68" s="6"/>
       <c r="L68" s="11"/>
       <c r="M68" s="11"/>
       <c r="N68" s="11"/>
@@ -2152,12 +2143,34 @@
       <c r="T68" s="11"/>
     </row>
     <row r="69" spans="1:20" ht="14" x14ac:dyDescent="0.3">
-      <c r="A69" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B69" s="6"/>
-      <c r="L69" s="11"/>
-      <c r="M69" s="11"/>
+      <c r="A69" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B69" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="D69" s="36"/>
+      <c r="E69" s="36"/>
+      <c r="F69" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="G69" s="36"/>
+      <c r="H69" s="36"/>
+      <c r="I69" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="J69" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="K69" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="L69" s="17" t="s">
+        <v>5</v>
+      </c>
       <c r="N69" s="11"/>
       <c r="O69" s="11"/>
       <c r="P69" s="11"/>
@@ -2167,34 +2180,28 @@
       <c r="T69" s="11"/>
     </row>
     <row r="70" spans="1:20" ht="14" x14ac:dyDescent="0.3">
-      <c r="A70" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B70" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C70" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="D70" s="36"/>
-      <c r="E70" s="36"/>
-      <c r="F70" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="G70" s="36"/>
-      <c r="H70" s="36"/>
-      <c r="I70" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="J70" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="K70" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="L70" s="17" t="s">
-        <v>5</v>
-      </c>
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D70" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="E70" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="F70" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="G70" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="H70" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="L70" s="11"/>
+      <c r="M70" s="11"/>
       <c r="N70" s="11"/>
       <c r="O70" s="11"/>
       <c r="P70" s="11"/>
@@ -2204,27 +2211,43 @@
       <c r="T70" s="11"/>
     </row>
     <row r="71" spans="1:20" ht="14" x14ac:dyDescent="0.3">
-      <c r="A71" s="2"/>
+      <c r="A71" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="B71" s="2"/>
-      <c r="C71" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="D71" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="E71" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="F71" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="G71" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="H71" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="L71" s="11"/>
+      <c r="C71" s="31">
+        <v>3</v>
+      </c>
+      <c r="D71" s="31">
+        <v>5</v>
+      </c>
+      <c r="E71" s="29">
+        <v>54793</v>
+      </c>
+      <c r="F71" s="31">
+        <v>3</v>
+      </c>
+      <c r="G71" s="31">
+        <v>5</v>
+      </c>
+      <c r="H71" s="26">
+        <v>54778.441645771403</v>
+      </c>
+      <c r="I71" s="33">
+        <f>H71/E71-1</f>
+        <v>-2.6569733777304094E-4</v>
+      </c>
+      <c r="J71" s="1">
+        <f>0.34/1000</f>
+        <v>3.4000000000000002E-4</v>
+      </c>
+      <c r="K71" s="1">
+        <v>5000</v>
+      </c>
+      <c r="L71" s="23">
+        <f>K71*J71</f>
+        <v>1.7000000000000002</v>
+      </c>
       <c r="M71" s="11"/>
       <c r="N71" s="11"/>
       <c r="O71" s="11"/>
@@ -2235,42 +2258,42 @@
       <c r="T71" s="11"/>
     </row>
     <row r="72" spans="1:20" ht="14" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
-        <v>70</v>
+      <c r="A72" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="B72" s="2"/>
-      <c r="C72" s="31">
-        <v>3</v>
-      </c>
-      <c r="D72" s="31">
-        <v>5</v>
+      <c r="C72" s="32">
+        <v>1</v>
+      </c>
+      <c r="D72" s="32">
+        <v>4</v>
       </c>
       <c r="E72" s="29">
-        <v>54793</v>
-      </c>
-      <c r="F72" s="31">
-        <v>3</v>
-      </c>
-      <c r="G72" s="31">
-        <v>5</v>
-      </c>
-      <c r="H72" s="26">
-        <v>54778.441645771403</v>
+        <v>460.4</v>
+      </c>
+      <c r="F72" s="32">
+        <v>1</v>
+      </c>
+      <c r="G72" s="32">
+        <v>4</v>
+      </c>
+      <c r="H72" s="27">
+        <v>460.37420333966799</v>
       </c>
       <c r="I72" s="33">
         <f>H72/E72-1</f>
-        <v>-2.6569733777304094E-4</v>
-      </c>
-      <c r="J72" s="1">
-        <f>0.33/1000</f>
-        <v>3.3E-4</v>
+        <v>-5.6030973788034899E-5</v>
+      </c>
+      <c r="J72" s="34">
+        <f>0.6/1000</f>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="K72" s="1">
         <v>5000</v>
       </c>
       <c r="L72" s="23">
         <f>K72*J72</f>
-        <v>1.65</v>
+        <v>2.9999999999999996</v>
       </c>
       <c r="M72" s="11"/>
       <c r="N72" s="11"/>
@@ -2283,41 +2306,41 @@
     </row>
     <row r="73" spans="1:20" ht="14" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D73" s="32">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E73" s="29">
-        <v>460.4</v>
+        <v>63242</v>
       </c>
       <c r="F73" s="32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G73" s="32">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H73" s="27">
-        <v>460.37420333966799</v>
+        <v>63274.563449802801</v>
       </c>
       <c r="I73" s="33">
         <f>H73/E73-1</f>
-        <v>-5.6030973788034899E-5</v>
+        <v>5.1490227701211921E-4</v>
       </c>
       <c r="J73" s="34">
-        <f>0.67/1000</f>
-        <v>6.7000000000000002E-4</v>
+        <f>1.47/1000</f>
+        <v>1.47E-3</v>
       </c>
       <c r="K73" s="1">
         <v>5000</v>
       </c>
       <c r="L73" s="23">
         <f>K73*J73</f>
-        <v>3.35</v>
+        <v>7.35</v>
       </c>
       <c r="M73" s="11"/>
       <c r="N73" s="11"/>
@@ -2330,41 +2353,41 @@
     </row>
     <row r="74" spans="1:20" ht="14" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="32">
         <v>2</v>
       </c>
       <c r="D74" s="32">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E74" s="29">
-        <v>63242</v>
+        <v>355.8</v>
       </c>
       <c r="F74" s="32">
         <v>2</v>
       </c>
       <c r="G74" s="32">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H74" s="27">
-        <v>63274.563449802801</v>
+        <v>356.77719975659801</v>
       </c>
       <c r="I74" s="33">
         <f>H74/E74-1</f>
-        <v>5.1490227701211921E-4</v>
+        <v>2.7464861062338475E-3</v>
       </c>
       <c r="J74" s="34">
-        <f>1.53/1000</f>
-        <v>1.5300000000000001E-3</v>
+        <f>6/1000</f>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="K74" s="1">
         <v>5000</v>
       </c>
       <c r="L74" s="23">
-        <f>K74*J74</f>
-        <v>7.65</v>
+        <f t="shared" ref="L74:L80" si="0">K74*J74</f>
+        <v>30</v>
       </c>
       <c r="M74" s="11"/>
       <c r="N74" s="11"/>
@@ -2375,168 +2398,160 @@
       <c r="S74" s="11"/>
       <c r="T74" s="11"/>
     </row>
-    <row r="75" spans="1:20" ht="14" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="32">
         <v>2</v>
       </c>
       <c r="D75" s="32">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E75" s="29">
-        <v>355.8</v>
+        <v>195568</v>
       </c>
       <c r="F75" s="32">
         <v>2</v>
       </c>
       <c r="G75" s="32">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="H75" s="27">
-        <v>360.943822920061</v>
+        <v>196478.25017821</v>
       </c>
       <c r="I75" s="33">
         <f>H75/E75-1</f>
-        <v>1.445706273204328E-2</v>
-      </c>
-      <c r="J75" s="34">
-        <f>6/1000</f>
-        <v>6.0000000000000001E-3</v>
+        <v>4.6543922227051393E-3</v>
+      </c>
+      <c r="J75" s="1">
+        <f>4.57/1000</f>
+        <v>4.5700000000000003E-3</v>
       </c>
       <c r="K75" s="1">
         <v>5000</v>
       </c>
       <c r="L75" s="23">
-        <f t="shared" ref="L75:L81" si="0">K75*J75</f>
-        <v>30</v>
-      </c>
-      <c r="M75" s="11"/>
-      <c r="N75" s="11"/>
-      <c r="O75" s="11"/>
-      <c r="P75" s="11"/>
-      <c r="Q75" s="11"/>
-      <c r="R75" s="11"/>
-      <c r="S75" s="11"/>
-      <c r="T75" s="11"/>
+        <f t="shared" si="0"/>
+        <v>22.85</v>
+      </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" s="32">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E76" s="29">
-        <v>195568</v>
+        <v>204335</v>
       </c>
       <c r="F76" s="32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G76" s="32">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H76" s="27">
-        <v>198076.10176990301</v>
+        <v>205456.00059630099</v>
       </c>
       <c r="I76" s="33">
-        <f>H76/E76-1</f>
-        <v>1.282470429673066E-2</v>
-      </c>
-      <c r="J76" s="1">
-        <f>4.95/1000</f>
-        <v>4.9500000000000004E-3</v>
+        <f t="shared" ref="I76:I80" si="1">H76/E76-1</f>
+        <v>5.486091938732951E-3</v>
+      </c>
+      <c r="J76" s="34">
+        <f>7.49/1000</f>
+        <v>7.4900000000000001E-3</v>
       </c>
       <c r="K76" s="1">
         <v>5000</v>
       </c>
       <c r="L76" s="23">
         <f t="shared" si="0"/>
-        <v>24.750000000000004</v>
+        <v>37.450000000000003</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" s="32">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E77" s="29">
-        <v>204335</v>
+        <v>842.9</v>
       </c>
       <c r="F77" s="32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G77" s="32">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H77" s="27">
-        <v>204311.38517527201</v>
+        <v>851.32497842789701</v>
       </c>
       <c r="I77" s="33">
-        <f t="shared" ref="I77:I81" si="1">H77/E77-1</f>
-        <v>-1.1556916205246459E-4</v>
+        <f t="shared" si="1"/>
+        <v>9.9952288858666805E-3</v>
       </c>
       <c r="J77" s="34">
-        <f>7.78/1000</f>
-        <v>7.7800000000000005E-3</v>
+        <f>7.34/1000</f>
+        <v>7.3400000000000002E-3</v>
       </c>
       <c r="K77" s="1">
         <v>5000</v>
       </c>
       <c r="L77" s="23">
         <f t="shared" si="0"/>
-        <v>38.900000000000006</v>
+        <v>36.700000000000003</v>
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" s="32">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E78" s="29">
-        <v>842.9</v>
+        <v>5809</v>
       </c>
       <c r="F78" s="32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G78" s="32">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H78" s="27">
-        <v>863.845014543415</v>
+        <v>5801.1377820530697</v>
       </c>
       <c r="I78" s="33">
         <f t="shared" si="1"/>
-        <v>2.4848753758945241E-2</v>
+        <v>-1.3534546302169659E-3</v>
       </c>
       <c r="J78" s="34">
-        <f>8.47/1000</f>
-        <v>8.4700000000000001E-3</v>
+        <f>16.2/1000</f>
+        <v>1.6199999999999999E-2</v>
       </c>
       <c r="K78" s="1">
         <v>5000</v>
       </c>
       <c r="L78" s="23">
         <f t="shared" si="0"/>
-        <v>42.35</v>
+        <v>81</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.3">
@@ -2551,7 +2566,7 @@
         <v>11</v>
       </c>
       <c r="E79" s="29">
-        <v>5809</v>
+        <v>44011.7</v>
       </c>
       <c r="F79" s="32">
         <v>3</v>
@@ -2560,145 +2575,109 @@
         <v>11</v>
       </c>
       <c r="H79" s="27">
-        <v>5712.9930253951197</v>
+        <v>45483.850889982699</v>
       </c>
       <c r="I79" s="33">
         <f t="shared" si="1"/>
-        <v>-1.6527280875345163E-2</v>
+        <v>3.3449080357784489E-2</v>
       </c>
       <c r="J79" s="34">
-        <f>16.91/1000</f>
-        <v>1.6910000000000001E-2</v>
+        <f>24.5/1000</f>
+        <v>2.4500000000000001E-2</v>
       </c>
       <c r="K79" s="1">
         <v>5000</v>
       </c>
       <c r="L79" s="23">
         <f t="shared" si="0"/>
-        <v>84.550000000000011</v>
+        <v>122.5</v>
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A80" s="2" t="s">
-        <v>79</v>
+      <c r="A80" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B80" s="2"/>
-      <c r="C80" s="32">
+      <c r="C80" s="31">
         <v>3</v>
       </c>
-      <c r="D80" s="32">
-        <v>11</v>
-      </c>
-      <c r="E80" s="29">
-        <v>44011.7</v>
-      </c>
-      <c r="F80" s="32">
+      <c r="D80" s="31">
+        <v>47</v>
+      </c>
+      <c r="E80" s="30">
+        <v>476684</v>
+      </c>
+      <c r="F80" s="31">
         <v>3</v>
       </c>
-      <c r="G80" s="32">
-        <v>11</v>
-      </c>
-      <c r="H80" s="27">
-        <v>45193.437758275497</v>
+      <c r="G80" s="31">
+        <v>47</v>
+      </c>
+      <c r="H80" s="26">
+        <v>489155.82084476098</v>
       </c>
       <c r="I80" s="33">
         <f t="shared" si="1"/>
-        <v>2.6850536522686097E-2</v>
+        <v>2.616370770733023E-2</v>
       </c>
       <c r="J80" s="34">
-        <f>24.5/1000</f>
-        <v>2.4500000000000001E-2</v>
+        <f>24.78/1000</f>
+        <v>2.478E-2</v>
       </c>
       <c r="K80" s="1">
         <v>5000</v>
       </c>
       <c r="L80" s="23">
         <f t="shared" si="0"/>
-        <v>122.5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A81" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B81" s="2"/>
-      <c r="C81" s="31">
-        <v>3</v>
-      </c>
-      <c r="D81" s="31">
-        <v>47</v>
-      </c>
-      <c r="E81" s="30">
-        <v>476684</v>
-      </c>
-      <c r="F81" s="31">
-        <v>3</v>
-      </c>
-      <c r="G81" s="31">
-        <v>47</v>
-      </c>
-      <c r="H81" s="26">
-        <v>488842.09624820697</v>
-      </c>
-      <c r="I81" s="33">
-        <f t="shared" si="1"/>
-        <v>2.5505568150403501E-2</v>
-      </c>
-      <c r="J81" s="34">
-        <f>22.65/1000</f>
-        <v>2.265E-2</v>
-      </c>
-      <c r="K81" s="1">
-        <v>5000</v>
-      </c>
-      <c r="L81" s="23">
-        <f t="shared" si="0"/>
-        <v>113.25</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+        <v>123.9</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B81" s="6"/>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B82" s="6"/>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B83" s="6"/>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B84" s="6"/>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B85" s="6"/>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B86" s="6"/>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B87" s="6"/>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B88" s="6"/>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B89" s="6"/>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B90" s="6"/>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B91" s="6"/>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B92" s="6"/>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B93" s="6"/>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B94" s="6"/>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B95" s="6"/>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B96" s="6"/>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.3">
@@ -3274,13 +3253,10 @@
     <row r="287" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B287" s="6"/>
     </row>
-    <row r="288" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B288" s="6"/>
-    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C70:E70"/>
-    <mergeCell ref="F70:H70"/>
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="F69:H69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research related\dev\LRP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research\dev\LRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39F0438-BC01-4BDB-AEC6-5C55F9699B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901E8356-FE0D-49A4-864A-784A40263112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -936,7 +936,7 @@
   <dimension ref="A1:X287"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J72" sqref="J72"/>
+      <selection activeCell="J76" sqref="J76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -2238,15 +2238,15 @@
         <v>-2.6569733777304094E-4</v>
       </c>
       <c r="J71" s="1">
-        <f>0.34/1000</f>
-        <v>3.4000000000000002E-4</v>
+        <f>0.43/1000</f>
+        <v>4.2999999999999999E-4</v>
       </c>
       <c r="K71" s="1">
         <v>5000</v>
       </c>
       <c r="L71" s="23">
         <f>K71*J71</f>
-        <v>1.7000000000000002</v>
+        <v>2.15</v>
       </c>
       <c r="M71" s="11"/>
       <c r="N71" s="11"/>
@@ -2285,15 +2285,15 @@
         <v>-5.6030973788034899E-5</v>
       </c>
       <c r="J72" s="34">
-        <f>0.6/1000</f>
-        <v>5.9999999999999995E-4</v>
+        <f>0.74/1000</f>
+        <v>7.3999999999999999E-4</v>
       </c>
       <c r="K72" s="1">
         <v>5000</v>
       </c>
       <c r="L72" s="23">
         <f>K72*J72</f>
-        <v>2.9999999999999996</v>
+        <v>3.6999999999999997</v>
       </c>
       <c r="M72" s="11"/>
       <c r="N72" s="11"/>
@@ -2325,22 +2325,22 @@
         <v>6</v>
       </c>
       <c r="H73" s="27">
-        <v>63274.563449802801</v>
+        <v>63215.202234418699</v>
       </c>
       <c r="I73" s="33">
         <f>H73/E73-1</f>
-        <v>5.1490227701211921E-4</v>
+        <v>-4.2373368301606984E-4</v>
       </c>
       <c r="J73" s="34">
-        <f>1.47/1000</f>
-        <v>1.47E-3</v>
+        <f>1.63/1000</f>
+        <v>1.6299999999999999E-3</v>
       </c>
       <c r="K73" s="1">
         <v>5000</v>
       </c>
       <c r="L73" s="23">
         <f>K73*J73</f>
-        <v>7.35</v>
+        <v>8.15</v>
       </c>
       <c r="M73" s="11"/>
       <c r="N73" s="11"/>
@@ -2369,25 +2369,25 @@
         <v>2</v>
       </c>
       <c r="G74" s="32">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H74" s="27">
-        <v>356.77719975659801</v>
+        <v>361.529233537312</v>
       </c>
       <c r="I74" s="33">
         <f>H74/E74-1</f>
-        <v>2.7464861062338475E-3</v>
+        <v>1.6102398924429329E-2</v>
       </c>
       <c r="J74" s="34">
-        <f>6/1000</f>
-        <v>6.0000000000000001E-3</v>
+        <f>6.38/1000</f>
+        <v>6.3800000000000003E-3</v>
       </c>
       <c r="K74" s="1">
         <v>5000</v>
       </c>
       <c r="L74" s="23">
         <f t="shared" ref="L74:L80" si="0">K74*J74</f>
-        <v>30</v>
+        <v>31.900000000000002</v>
       </c>
       <c r="M74" s="11"/>
       <c r="N74" s="11"/>
@@ -2419,22 +2419,22 @@
         <v>23</v>
       </c>
       <c r="H75" s="27">
-        <v>196478.25017821</v>
+        <v>196006.41259063801</v>
       </c>
       <c r="I75" s="33">
         <f>H75/E75-1</f>
-        <v>4.6543922227051393E-3</v>
+        <v>2.2417399095864265E-3</v>
       </c>
       <c r="J75" s="1">
-        <f>4.57/1000</f>
-        <v>4.5700000000000003E-3</v>
+        <f>5.11/1000</f>
+        <v>5.11E-3</v>
       </c>
       <c r="K75" s="1">
         <v>5000</v>
       </c>
       <c r="L75" s="23">
         <f t="shared" si="0"/>
-        <v>22.85</v>
+        <v>25.55</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.3">
@@ -2458,22 +2458,22 @@
         <v>11</v>
       </c>
       <c r="H76" s="27">
-        <v>205456.00059630099</v>
+        <v>210614.93499088599</v>
       </c>
       <c r="I76" s="33">
         <f t="shared" ref="I76:I80" si="1">H76/E76-1</f>
-        <v>5.486091938732951E-3</v>
+        <v>3.0733525783081639E-2</v>
       </c>
       <c r="J76" s="34">
-        <f>7.49/1000</f>
-        <v>7.4900000000000001E-3</v>
+        <f>7.99/1000</f>
+        <v>7.9900000000000006E-3</v>
       </c>
       <c r="K76" s="1">
         <v>5000</v>
       </c>
       <c r="L76" s="23">
         <f t="shared" si="0"/>
-        <v>37.450000000000003</v>
+        <v>39.950000000000003</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.3">
@@ -2491,28 +2491,28 @@
         <v>842.9</v>
       </c>
       <c r="F77" s="32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G77" s="32">
         <v>8</v>
       </c>
       <c r="H77" s="27">
-        <v>851.32497842789701</v>
+        <v>865.39147293858503</v>
       </c>
       <c r="I77" s="33">
         <f t="shared" si="1"/>
-        <v>9.9952288858666805E-3</v>
+        <v>2.6683441616544235E-2</v>
       </c>
       <c r="J77" s="34">
-        <f>7.34/1000</f>
-        <v>7.3400000000000002E-3</v>
+        <f>8.63/1000</f>
+        <v>8.6300000000000005E-3</v>
       </c>
       <c r="K77" s="1">
         <v>5000</v>
       </c>
       <c r="L77" s="23">
         <f t="shared" si="0"/>
-        <v>36.700000000000003</v>
+        <v>43.150000000000006</v>
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.3">
@@ -2536,22 +2536,22 @@
         <v>10</v>
       </c>
       <c r="H78" s="27">
-        <v>5801.1377820530697</v>
+        <v>5750.2373791919199</v>
       </c>
       <c r="I78" s="33">
         <f t="shared" si="1"/>
-        <v>-1.3534546302169659E-3</v>
+        <v>-1.0115789431585531E-2</v>
       </c>
       <c r="J78" s="34">
-        <f>16.2/1000</f>
-        <v>1.6199999999999999E-2</v>
+        <f>17.14/1000</f>
+        <v>1.7139999999999999E-2</v>
       </c>
       <c r="K78" s="1">
         <v>5000</v>
       </c>
       <c r="L78" s="23">
         <f t="shared" si="0"/>
-        <v>81</v>
+        <v>85.699999999999989</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.3">
@@ -2575,22 +2575,22 @@
         <v>11</v>
       </c>
       <c r="H79" s="27">
-        <v>45483.850889982699</v>
+        <v>45546.731561878703</v>
       </c>
       <c r="I79" s="33">
         <f t="shared" si="1"/>
-        <v>3.3449080357784489E-2</v>
+        <v>3.487780662593587E-2</v>
       </c>
       <c r="J79" s="34">
-        <f>24.5/1000</f>
-        <v>2.4500000000000001E-2</v>
+        <f>22.22/1000</f>
+        <v>2.222E-2</v>
       </c>
       <c r="K79" s="1">
         <v>5000</v>
       </c>
       <c r="L79" s="23">
         <f t="shared" si="0"/>
-        <v>122.5</v>
+        <v>111.1</v>
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.3">
@@ -2614,22 +2614,22 @@
         <v>47</v>
       </c>
       <c r="H80" s="26">
-        <v>489155.82084476098</v>
+        <v>484381.72031604598</v>
       </c>
       <c r="I80" s="33">
         <f t="shared" si="1"/>
-        <v>2.616370770733023E-2</v>
+        <v>1.6148476382773502E-2</v>
       </c>
       <c r="J80" s="34">
-        <f>24.78/1000</f>
-        <v>2.478E-2</v>
+        <f>22.55/1000</f>
+        <v>2.2550000000000001E-2</v>
       </c>
       <c r="K80" s="1">
         <v>5000</v>
       </c>
       <c r="L80" s="23">
         <f t="shared" si="0"/>
-        <v>123.9</v>
+        <v>112.75</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.3">

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research\dev\LRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901E8356-FE0D-49A4-864A-784A40263112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F4FD42-69DD-4378-8439-116CF2AC41CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="93">
   <si>
     <t>Best known</t>
   </si>
@@ -199,9 +199,6 @@
     <t>                    :regret3!</t>
   </si>
   <si>
-    <t>                    :split!         ,</t>
-  </si>
-  <si>
     <t>        ρ   =   0.1</t>
   </si>
   <si>
@@ -271,9 +268,6 @@
     <t>daskin150-10</t>
   </si>
   <si>
-    <t>                    :swapcustomers! ,</t>
-  </si>
-  <si>
     <t>                    :swapdepots!</t>
   </si>
   <si>
@@ -307,10 +301,19 @@
     <t>        𝜃   =   0.9975                  ,</t>
   </si>
   <si>
-    <t>                    :move!          ,</t>
-  </si>
-  <si>
-    <t>                    :opt!           ,</t>
+    <t>                    :intraopt!          ,</t>
+  </si>
+  <si>
+    <t>                    :interopt!          ,</t>
+  </si>
+  <si>
+    <t>                    :movecustomer!      ,</t>
+  </si>
+  <si>
+    <t>                    :movedepot!         ,</t>
+  </si>
+  <si>
+    <t>                    :swapcustomers!     ,</t>
   </si>
 </sst>
 </file>
@@ -935,8 +938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5551421D-4FE7-47B7-A546-15E7A05240A9}">
   <dimension ref="A1:X287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J76" sqref="J76"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T31" sqref="T31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -958,7 +961,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -1109,7 +1112,7 @@
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
@@ -1122,7 +1125,7 @@
         <v>37</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
@@ -1153,7 +1156,7 @@
     </row>
     <row r="19" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B19" s="10"/>
       <c r="L19" s="11"/>
@@ -1162,7 +1165,7 @@
     </row>
     <row r="20" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B20" s="10"/>
       <c r="L20" s="11"/>
@@ -1171,7 +1174,7 @@
     </row>
     <row r="21" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -1360,7 +1363,7 @@
     </row>
     <row r="30" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -1444,7 +1447,7 @@
     </row>
     <row r="34" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -1507,7 +1510,7 @@
     </row>
     <row r="37" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -1528,7 +1531,7 @@
     </row>
     <row r="38" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -1591,7 +1594,7 @@
     </row>
     <row r="41" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -1612,7 +1615,7 @@
     </row>
     <row r="42" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -1633,7 +1636,7 @@
     </row>
     <row r="43" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -1654,7 +1657,7 @@
     </row>
     <row r="44" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -1759,15 +1762,9 @@
     </row>
     <row r="49" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
       <c r="P49" s="11"/>
       <c r="Q49" s="11"/>
       <c r="R49" s="11"/>
@@ -1780,15 +1777,9 @@
     </row>
     <row r="50" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A50" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
       <c r="P50" s="11"/>
       <c r="Q50" s="11"/>
       <c r="R50" s="11"/>
@@ -1801,15 +1792,9 @@
     </row>
     <row r="51" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A51" s="11" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
       <c r="P51" s="11"/>
       <c r="Q51" s="11"/>
       <c r="R51" s="11"/>
@@ -1822,15 +1807,9 @@
     </row>
     <row r="52" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A52" s="11" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="11"/>
       <c r="P52" s="11"/>
       <c r="Q52" s="11"/>
       <c r="R52" s="11"/>
@@ -1843,15 +1822,9 @@
     </row>
     <row r="53" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A53" s="11" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
       <c r="P53" s="11"/>
       <c r="Q53" s="11"/>
       <c r="R53" s="11"/>
@@ -1864,15 +1837,9 @@
     </row>
     <row r="54" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A54" s="11" t="s">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
-      <c r="H54" s="11"/>
       <c r="P54" s="11"/>
       <c r="Q54" s="11"/>
       <c r="R54" s="11"/>
@@ -1885,7 +1852,7 @@
     </row>
     <row r="55" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A55" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -1906,7 +1873,7 @@
     </row>
     <row r="56" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A56" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
@@ -1924,7 +1891,7 @@
     </row>
     <row r="57" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A57" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
@@ -1987,7 +1954,7 @@
     </row>
     <row r="60" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A60" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
@@ -2008,7 +1975,7 @@
     </row>
     <row r="61" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A61" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
@@ -2084,7 +2051,7 @@
     </row>
     <row r="65" spans="1:20" ht="14" x14ac:dyDescent="0.3">
       <c r="A65" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
@@ -2183,22 +2150,22 @@
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D70" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="E70" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="D70" s="24" t="s">
+      <c r="F70" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="E70" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="F70" s="25" t="s">
+      <c r="G70" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="H70" s="24" t="s">
         <v>62</v>
-      </c>
-      <c r="G70" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="H70" s="24" t="s">
-        <v>63</v>
       </c>
       <c r="L70" s="11"/>
       <c r="M70" s="11"/>
@@ -2212,7 +2179,7 @@
     </row>
     <row r="71" spans="1:20" ht="14" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="31">
@@ -2259,7 +2226,7 @@
     </row>
     <row r="72" spans="1:20" ht="14" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="32">
@@ -2306,7 +2273,7 @@
     </row>
     <row r="73" spans="1:20" ht="14" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="32">
@@ -2353,7 +2320,7 @@
     </row>
     <row r="74" spans="1:20" ht="14" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="32">
@@ -2369,14 +2336,14 @@
         <v>2</v>
       </c>
       <c r="G74" s="32">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H74" s="27">
-        <v>361.529233537312</v>
+        <v>356.37442900277398</v>
       </c>
       <c r="I74" s="33">
         <f>H74/E74-1</f>
-        <v>1.6102398924429329E-2</v>
+        <v>1.6144716210622079E-3</v>
       </c>
       <c r="J74" s="34">
         <f>6.38/1000</f>
@@ -2400,7 +2367,7 @@
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="32">
@@ -2419,11 +2386,11 @@
         <v>23</v>
       </c>
       <c r="H75" s="27">
-        <v>196006.41259063801</v>
+        <v>195967.16880484601</v>
       </c>
       <c r="I75" s="33">
         <f>H75/E75-1</f>
-        <v>2.2417399095864265E-3</v>
+        <v>2.0410742291478989E-3</v>
       </c>
       <c r="J75" s="1">
         <f>5.11/1000</f>
@@ -2439,7 +2406,7 @@
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="32">
@@ -2458,27 +2425,27 @@
         <v>11</v>
       </c>
       <c r="H76" s="27">
-        <v>210614.93499088599</v>
+        <v>204218.90406682499</v>
       </c>
       <c r="I76" s="33">
         <f t="shared" ref="I76:I80" si="1">H76/E76-1</f>
-        <v>3.0733525783081639E-2</v>
+        <v>-5.6816469608733655E-4</v>
       </c>
       <c r="J76" s="34">
-        <f>7.99/1000</f>
-        <v>7.9900000000000006E-3</v>
+        <f>8.22/1000</f>
+        <v>8.2199999999999999E-3</v>
       </c>
       <c r="K76" s="1">
         <v>5000</v>
       </c>
       <c r="L76" s="23">
         <f t="shared" si="0"/>
-        <v>39.950000000000003</v>
+        <v>41.1</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="32">
@@ -2497,27 +2464,27 @@
         <v>8</v>
       </c>
       <c r="H77" s="27">
-        <v>865.39147293858503</v>
+        <v>841.97010023289295</v>
       </c>
       <c r="I77" s="33">
         <f t="shared" si="1"/>
-        <v>2.6683441616544235E-2</v>
+        <v>-1.1032148144584086E-3</v>
       </c>
       <c r="J77" s="34">
-        <f>8.63/1000</f>
-        <v>8.6300000000000005E-3</v>
+        <f>8.64/1000</f>
+        <v>8.6400000000000001E-3</v>
       </c>
       <c r="K77" s="1">
         <v>5000</v>
       </c>
       <c r="L77" s="23">
         <f t="shared" si="0"/>
-        <v>43.150000000000006</v>
+        <v>43.2</v>
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="32">
@@ -2530,33 +2497,33 @@
         <v>5809</v>
       </c>
       <c r="F78" s="32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G78" s="32">
         <v>10</v>
       </c>
       <c r="H78" s="27">
-        <v>5750.2373791919199</v>
+        <v>5963.0204359632298</v>
       </c>
       <c r="I78" s="33">
         <f t="shared" si="1"/>
-        <v>-1.0115789431585531E-2</v>
+        <v>2.6514105003138111E-2</v>
       </c>
       <c r="J78" s="34">
-        <f>17.14/1000</f>
-        <v>1.7139999999999999E-2</v>
+        <f>19.78/1000</f>
+        <v>1.9780000000000002E-2</v>
       </c>
       <c r="K78" s="1">
         <v>5000</v>
       </c>
       <c r="L78" s="23">
         <f t="shared" si="0"/>
-        <v>85.699999999999989</v>
+        <v>98.9</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="32">
@@ -2572,30 +2539,30 @@
         <v>3</v>
       </c>
       <c r="G79" s="32">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H79" s="27">
-        <v>45546.731561878703</v>
+        <v>45576.433149327298</v>
       </c>
       <c r="I79" s="33">
         <f t="shared" si="1"/>
-        <v>3.487780662593587E-2</v>
+        <v>3.5552663253800798E-2</v>
       </c>
       <c r="J79" s="34">
-        <f>22.22/1000</f>
-        <v>2.222E-2</v>
+        <f>24.37/1000</f>
+        <v>2.4369999999999999E-2</v>
       </c>
       <c r="K79" s="1">
         <v>5000</v>
       </c>
       <c r="L79" s="23">
         <f t="shared" si="0"/>
-        <v>111.1</v>
+        <v>121.85</v>
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="31">
@@ -2614,22 +2581,22 @@
         <v>47</v>
       </c>
       <c r="H80" s="26">
-        <v>484381.72031604598</v>
+        <v>489286.05512558698</v>
       </c>
       <c r="I80" s="33">
         <f t="shared" si="1"/>
-        <v>1.6148476382773502E-2</v>
+        <v>2.6436916543427058E-2</v>
       </c>
       <c r="J80" s="34">
-        <f>22.55/1000</f>
-        <v>2.2550000000000001E-2</v>
+        <f>23.54/1000</f>
+        <v>2.3539999999999998E-2</v>
       </c>
       <c r="K80" s="1">
         <v>5000</v>
       </c>
       <c r="L80" s="23">
         <f t="shared" si="0"/>
-        <v>112.75</v>
+        <v>117.69999999999999</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.3">

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research\dev\LRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F4FD42-69DD-4378-8439-116CF2AC41CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB7F552-8A3E-4D86-A868-74AE03B258CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -938,8 +938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5551421D-4FE7-47B7-A546-15E7A05240A9}">
   <dimension ref="A1:X287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T31" sqref="T31"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M61" sqref="M61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -2198,22 +2198,22 @@
         <v>5</v>
       </c>
       <c r="H71" s="26">
-        <v>54778.441645771403</v>
+        <v>55007.766132008997</v>
       </c>
       <c r="I71" s="33">
         <f>H71/E71-1</f>
-        <v>-2.6569733777304094E-4</v>
-      </c>
-      <c r="J71" s="1">
-        <f>0.43/1000</f>
-        <v>4.2999999999999999E-4</v>
+        <v>3.9195906778055623E-3</v>
+      </c>
+      <c r="J71" s="34">
+        <f>0.38/1000</f>
+        <v>3.8000000000000002E-4</v>
       </c>
       <c r="K71" s="1">
         <v>5000</v>
       </c>
       <c r="L71" s="23">
         <f>K71*J71</f>
-        <v>2.15</v>
+        <v>1.9000000000000001</v>
       </c>
       <c r="M71" s="11"/>
       <c r="N71" s="11"/>
@@ -2252,15 +2252,15 @@
         <v>-5.6030973788034899E-5</v>
       </c>
       <c r="J72" s="34">
-        <f>0.74/1000</f>
-        <v>7.3999999999999999E-4</v>
+        <f>0.66/1000</f>
+        <v>6.6E-4</v>
       </c>
       <c r="K72" s="1">
         <v>5000</v>
       </c>
       <c r="L72" s="23">
         <f>K72*J72</f>
-        <v>3.6999999999999997</v>
+        <v>3.3</v>
       </c>
       <c r="M72" s="11"/>
       <c r="N72" s="11"/>
@@ -2292,22 +2292,22 @@
         <v>6</v>
       </c>
       <c r="H73" s="27">
-        <v>63215.202234418699</v>
+        <v>63215.202234400604</v>
       </c>
       <c r="I73" s="33">
         <f>H73/E73-1</f>
-        <v>-4.2373368301606984E-4</v>
+        <v>-4.2373368330217431E-4</v>
       </c>
       <c r="J73" s="34">
-        <f>1.63/1000</f>
-        <v>1.6299999999999999E-3</v>
+        <f>1.71/1000</f>
+        <v>1.7099999999999999E-3</v>
       </c>
       <c r="K73" s="1">
         <v>5000</v>
       </c>
       <c r="L73" s="23">
         <f>K73*J73</f>
-        <v>8.15</v>
+        <v>8.5499999999999989</v>
       </c>
       <c r="M73" s="11"/>
       <c r="N73" s="11"/>
@@ -2336,14 +2336,14 @@
         <v>2</v>
       </c>
       <c r="G74" s="32">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H74" s="27">
-        <v>356.37442900277398</v>
+        <v>355.78425539596202</v>
       </c>
       <c r="I74" s="33">
         <f>H74/E74-1</f>
-        <v>1.6144716210622079E-3</v>
+        <v>-4.4251276104523285E-5</v>
       </c>
       <c r="J74" s="34">
         <f>6.38/1000</f>
@@ -2386,11 +2386,11 @@
         <v>23</v>
       </c>
       <c r="H75" s="27">
-        <v>195967.16880484601</v>
+        <v>197394.61477619599</v>
       </c>
       <c r="I75" s="33">
         <f>H75/E75-1</f>
-        <v>2.0410742291478989E-3</v>
+        <v>9.3400493751327751E-3</v>
       </c>
       <c r="J75" s="1">
         <f>5.11/1000</f>
@@ -2425,11 +2425,11 @@
         <v>11</v>
       </c>
       <c r="H76" s="27">
-        <v>204218.90406682499</v>
+        <v>210990.61381802199</v>
       </c>
       <c r="I76" s="33">
         <f t="shared" ref="I76:I80" si="1">H76/E76-1</f>
-        <v>-5.6816469608733655E-4</v>
+        <v>3.2572069484043231E-2</v>
       </c>
       <c r="J76" s="34">
         <f>8.22/1000</f>
@@ -2464,22 +2464,22 @@
         <v>8</v>
       </c>
       <c r="H77" s="27">
-        <v>841.97010023289295</v>
+        <v>840.39130861516105</v>
       </c>
       <c r="I77" s="33">
         <f t="shared" si="1"/>
-        <v>-1.1032148144584086E-3</v>
+        <v>-2.9762621720713645E-3</v>
       </c>
       <c r="J77" s="34">
-        <f>8.64/1000</f>
-        <v>8.6400000000000001E-3</v>
+        <f>7.98/1000</f>
+        <v>7.980000000000001E-3</v>
       </c>
       <c r="K77" s="1">
         <v>5000</v>
       </c>
       <c r="L77" s="23">
         <f t="shared" si="0"/>
-        <v>43.2</v>
+        <v>39.900000000000006</v>
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.3">
@@ -2503,11 +2503,11 @@
         <v>10</v>
       </c>
       <c r="H78" s="27">
-        <v>5963.0204359632298</v>
+        <v>5881.8408468915904</v>
       </c>
       <c r="I78" s="33">
         <f t="shared" si="1"/>
-        <v>2.6514105003138111E-2</v>
+        <v>1.2539309156755163E-2</v>
       </c>
       <c r="J78" s="34">
         <f>19.78/1000</f>
@@ -2542,11 +2542,11 @@
         <v>12</v>
       </c>
       <c r="H79" s="27">
-        <v>45576.433149327298</v>
+        <v>47582.583461153998</v>
       </c>
       <c r="I79" s="33">
         <f t="shared" si="1"/>
-        <v>3.5552663253800798E-2</v>
+        <v>8.1134867800016774E-2</v>
       </c>
       <c r="J79" s="34">
         <f>24.37/1000</f>
@@ -2581,11 +2581,11 @@
         <v>47</v>
       </c>
       <c r="H80" s="26">
-        <v>489286.05512558698</v>
+        <v>482660.05992661999</v>
       </c>
       <c r="I80" s="33">
         <f t="shared" si="1"/>
-        <v>2.6436916543427058E-2</v>
+        <v>1.2536732776052828E-2</v>
       </c>
       <c r="J80" s="34">
         <f>23.54/1000</f>

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research\dev\LRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB7F552-8A3E-4D86-A868-74AE03B258CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977840F8-B733-4D6E-AA8F-FB2B05DBA033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -939,7 +939,7 @@
   <dimension ref="A1:X287"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M61" sqref="M61"/>
+      <selection activeCell="J81" sqref="J81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -2205,15 +2205,15 @@
         <v>3.9195906778055623E-3</v>
       </c>
       <c r="J71" s="34">
-        <f>0.38/1000</f>
-        <v>3.8000000000000002E-4</v>
+        <f>0.36/1000</f>
+        <v>3.5999999999999997E-4</v>
       </c>
       <c r="K71" s="1">
         <v>5000</v>
       </c>
       <c r="L71" s="23">
         <f>K71*J71</f>
-        <v>1.9000000000000001</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="M71" s="11"/>
       <c r="N71" s="11"/>
@@ -2252,15 +2252,15 @@
         <v>-5.6030973788034899E-5</v>
       </c>
       <c r="J72" s="34">
-        <f>0.66/1000</f>
-        <v>6.6E-4</v>
+        <f>0.65/1000</f>
+        <v>6.4999999999999997E-4</v>
       </c>
       <c r="K72" s="1">
         <v>5000</v>
       </c>
       <c r="L72" s="23">
         <f>K72*J72</f>
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M72" s="11"/>
       <c r="N72" s="11"/>
@@ -2299,15 +2299,15 @@
         <v>-4.2373368330217431E-4</v>
       </c>
       <c r="J73" s="34">
-        <f>1.71/1000</f>
-        <v>1.7099999999999999E-3</v>
+        <f>1.58/1000</f>
+        <v>1.58E-3</v>
       </c>
       <c r="K73" s="1">
         <v>5000</v>
       </c>
       <c r="L73" s="23">
         <f>K73*J73</f>
-        <v>8.5499999999999989</v>
+        <v>7.9</v>
       </c>
       <c r="M73" s="11"/>
       <c r="N73" s="11"/>
@@ -2346,15 +2346,15 @@
         <v>-4.4251276104523285E-5</v>
       </c>
       <c r="J74" s="34">
-        <f>6.38/1000</f>
-        <v>6.3800000000000003E-3</v>
+        <f>6.26/1000</f>
+        <v>6.2599999999999999E-3</v>
       </c>
       <c r="K74" s="1">
         <v>5000</v>
       </c>
       <c r="L74" s="23">
         <f t="shared" ref="L74:L80" si="0">K74*J74</f>
-        <v>31.900000000000002</v>
+        <v>31.3</v>
       </c>
       <c r="M74" s="11"/>
       <c r="N74" s="11"/>
@@ -2393,15 +2393,15 @@
         <v>9.3400493751327751E-3</v>
       </c>
       <c r="J75" s="1">
-        <f>5.11/1000</f>
-        <v>5.11E-3</v>
+        <f>5.22/1000</f>
+        <v>5.2199999999999998E-3</v>
       </c>
       <c r="K75" s="1">
         <v>5000</v>
       </c>
       <c r="L75" s="23">
         <f t="shared" si="0"/>
-        <v>25.55</v>
+        <v>26.099999999999998</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.3">
@@ -2425,22 +2425,22 @@
         <v>11</v>
       </c>
       <c r="H76" s="27">
-        <v>210990.61381802199</v>
+        <v>205027.55591459799</v>
       </c>
       <c r="I76" s="33">
         <f t="shared" ref="I76:I80" si="1">H76/E76-1</f>
-        <v>3.2572069484043231E-2</v>
+        <v>3.3893161455353926E-3</v>
       </c>
       <c r="J76" s="34">
-        <f>8.22/1000</f>
-        <v>8.2199999999999999E-3</v>
+        <f>8.3/1000</f>
+        <v>8.3000000000000001E-3</v>
       </c>
       <c r="K76" s="1">
         <v>5000</v>
       </c>
       <c r="L76" s="23">
         <f t="shared" si="0"/>
-        <v>41.1</v>
+        <v>41.5</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.3">
@@ -2471,15 +2471,15 @@
         <v>-2.9762621720713645E-3</v>
       </c>
       <c r="J77" s="34">
-        <f>7.98/1000</f>
-        <v>7.980000000000001E-3</v>
+        <f>8.11/1000</f>
+        <v>8.1099999999999992E-3</v>
       </c>
       <c r="K77" s="1">
         <v>5000</v>
       </c>
       <c r="L77" s="23">
         <f t="shared" si="0"/>
-        <v>39.900000000000006</v>
+        <v>40.549999999999997</v>
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.3">
@@ -2503,22 +2503,22 @@
         <v>10</v>
       </c>
       <c r="H78" s="27">
-        <v>5881.8408468915904</v>
+        <v>5837.1537901215197</v>
       </c>
       <c r="I78" s="33">
         <f t="shared" si="1"/>
-        <v>1.2539309156755163E-2</v>
+        <v>4.8465811880735732E-3</v>
       </c>
       <c r="J78" s="34">
-        <f>19.78/1000</f>
-        <v>1.9780000000000002E-2</v>
+        <f>17.19/1000</f>
+        <v>1.719E-2</v>
       </c>
       <c r="K78" s="1">
         <v>5000</v>
       </c>
       <c r="L78" s="23">
         <f t="shared" si="0"/>
-        <v>98.9</v>
+        <v>85.95</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.3">
@@ -2542,11 +2542,11 @@
         <v>12</v>
       </c>
       <c r="H79" s="27">
-        <v>47582.583461153998</v>
+        <v>46590.005955841203</v>
       </c>
       <c r="I79" s="33">
         <f t="shared" si="1"/>
-        <v>8.1134867800016774E-2</v>
+        <v>5.8582285070588158E-2</v>
       </c>
       <c r="J79" s="34">
         <f>24.37/1000</f>
@@ -2588,15 +2588,15 @@
         <v>1.2536732776052828E-2</v>
       </c>
       <c r="J80" s="34">
-        <f>23.54/1000</f>
-        <v>2.3539999999999998E-2</v>
+        <f>22.95/1000</f>
+        <v>2.2949999999999998E-2</v>
       </c>
       <c r="K80" s="1">
         <v>5000</v>
       </c>
       <c r="L80" s="23">
         <f t="shared" si="0"/>
-        <v>117.69999999999999</v>
+        <v>114.74999999999999</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.3">

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research\dev\LRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977840F8-B733-4D6E-AA8F-FB2B05DBA033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743D55C0-BC50-478A-82D5-DFB99106849C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -939,7 +939,7 @@
   <dimension ref="A1:X287"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J81" sqref="J81"/>
+      <selection activeCell="Q48" sqref="Q48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="13" x14ac:dyDescent="0.3"/>

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research\dev\LRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743D55C0-BC50-478A-82D5-DFB99106849C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56362C56-882B-4A50-84E3-514782788996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -295,9 +295,6 @@
     <t>:random</t>
   </si>
   <si>
-    <t>MersenneTwister(1104); MersenneTwister(1234); MersenneTwister(1403)</t>
-  </si>
-  <si>
     <t>        𝜃   =   0.9975                  ,</t>
   </si>
   <si>
@@ -314,6 +311,9 @@
   </si>
   <si>
     <t>                    :swapcustomers!     ,</t>
+  </si>
+  <si>
+    <t>MersenneTwister(1104); MersenneTwister(2104); MersenneTwister(2806); MersenneTwister(1010); MersenneTwister(2111)</t>
   </si>
 </sst>
 </file>
@@ -939,7 +939,7 @@
   <dimension ref="A1:X287"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q48" sqref="Q48"/>
+      <selection activeCell="J81" sqref="J81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -1112,7 +1112,7 @@
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="11" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
@@ -1762,7 +1762,7 @@
     </row>
     <row r="49" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B49" s="11"/>
       <c r="P49" s="11"/>
@@ -1777,7 +1777,7 @@
     </row>
     <row r="50" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A50" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B50" s="11"/>
       <c r="P50" s="11"/>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="51" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A51" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B51" s="11"/>
       <c r="P51" s="11"/>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="52" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A52" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B52" s="11"/>
       <c r="P52" s="11"/>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="53" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A53" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B53" s="11"/>
       <c r="P53" s="11"/>
@@ -1954,7 +1954,7 @@
     </row>
     <row r="60" spans="1:24" ht="14" x14ac:dyDescent="0.3">
       <c r="A60" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
@@ -2198,22 +2198,22 @@
         <v>5</v>
       </c>
       <c r="H71" s="26">
-        <v>55007.766132008997</v>
+        <v>55007.7661320107</v>
       </c>
       <c r="I71" s="33">
         <f>H71/E71-1</f>
-        <v>3.9195906778055623E-3</v>
+        <v>3.9195906778366485E-3</v>
       </c>
       <c r="J71" s="34">
-        <f>0.36/1000</f>
-        <v>3.5999999999999997E-4</v>
+        <f>0.35/1000</f>
+        <v>3.5E-4</v>
       </c>
       <c r="K71" s="1">
         <v>5000</v>
       </c>
       <c r="L71" s="23">
         <f>K71*J71</f>
-        <v>1.7999999999999998</v>
+        <v>1.75</v>
       </c>
       <c r="M71" s="11"/>
       <c r="N71" s="11"/>
@@ -2245,22 +2245,22 @@
         <v>4</v>
       </c>
       <c r="H72" s="27">
-        <v>460.37420333966799</v>
+        <v>460.37420333963701</v>
       </c>
       <c r="I72" s="33">
         <f>H72/E72-1</f>
-        <v>-5.6030973788034899E-5</v>
+        <v>-5.6030973855314414E-5</v>
       </c>
       <c r="J72" s="34">
-        <f>0.65/1000</f>
-        <v>6.4999999999999997E-4</v>
+        <f>0.68/1000</f>
+        <v>6.8000000000000005E-4</v>
       </c>
       <c r="K72" s="1">
         <v>5000</v>
       </c>
       <c r="L72" s="23">
         <f>K72*J72</f>
-        <v>3.25</v>
+        <v>3.4000000000000004</v>
       </c>
       <c r="M72" s="11"/>
       <c r="N72" s="11"/>
@@ -2292,22 +2292,22 @@
         <v>6</v>
       </c>
       <c r="H73" s="27">
-        <v>63215.202234400604</v>
+        <v>63215.202234408498</v>
       </c>
       <c r="I73" s="33">
         <f>H73/E73-1</f>
-        <v>-4.2373368330217431E-4</v>
+        <v>-4.2373368317738525E-4</v>
       </c>
       <c r="J73" s="34">
-        <f>1.58/1000</f>
-        <v>1.58E-3</v>
+        <f>1.53/1000</f>
+        <v>1.5300000000000001E-3</v>
       </c>
       <c r="K73" s="1">
         <v>5000</v>
       </c>
       <c r="L73" s="23">
         <f>K73*J73</f>
-        <v>7.9</v>
+        <v>7.65</v>
       </c>
       <c r="M73" s="11"/>
       <c r="N73" s="11"/>
@@ -2339,22 +2339,22 @@
         <v>6</v>
       </c>
       <c r="H74" s="27">
-        <v>355.78425539596202</v>
+        <v>359.827167378193</v>
       </c>
       <c r="I74" s="33">
         <f>H74/E74-1</f>
-        <v>-4.4251276104523285E-5</v>
+        <v>1.1318626695314693E-2</v>
       </c>
       <c r="J74" s="34">
-        <f>6.26/1000</f>
-        <v>6.2599999999999999E-3</v>
+        <f>6.03/1000</f>
+        <v>6.0300000000000006E-3</v>
       </c>
       <c r="K74" s="1">
         <v>5000</v>
       </c>
       <c r="L74" s="23">
         <f t="shared" ref="L74:L80" si="0">K74*J74</f>
-        <v>31.3</v>
+        <v>30.150000000000002</v>
       </c>
       <c r="M74" s="11"/>
       <c r="N74" s="11"/>
@@ -2386,22 +2386,22 @@
         <v>23</v>
       </c>
       <c r="H75" s="27">
-        <v>197394.61477619599</v>
+        <v>196623.16260029201</v>
       </c>
       <c r="I75" s="33">
         <f>H75/E75-1</f>
-        <v>9.3400493751327751E-3</v>
+        <v>5.3953745003887388E-3</v>
       </c>
       <c r="J75" s="1">
-        <f>5.22/1000</f>
-        <v>5.2199999999999998E-3</v>
+        <f>5.35/1000</f>
+        <v>5.3499999999999997E-3</v>
       </c>
       <c r="K75" s="1">
         <v>5000</v>
       </c>
       <c r="L75" s="23">
         <f t="shared" si="0"/>
-        <v>26.099999999999998</v>
+        <v>26.75</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.3">
@@ -2425,22 +2425,22 @@
         <v>11</v>
       </c>
       <c r="H76" s="27">
-        <v>205027.55591459799</v>
+        <v>205507.60130177901</v>
       </c>
       <c r="I76" s="33">
         <f t="shared" ref="I76:I80" si="1">H76/E76-1</f>
-        <v>3.3893161455353926E-3</v>
+        <v>5.7386218796535715E-3</v>
       </c>
       <c r="J76" s="34">
-        <f>8.3/1000</f>
-        <v>8.3000000000000001E-3</v>
+        <f>8.03/1000</f>
+        <v>8.0299999999999989E-3</v>
       </c>
       <c r="K76" s="1">
         <v>5000</v>
       </c>
       <c r="L76" s="23">
         <f t="shared" si="0"/>
-        <v>41.5</v>
+        <v>40.149999999999991</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.3">
@@ -2464,22 +2464,22 @@
         <v>8</v>
       </c>
       <c r="H77" s="27">
-        <v>840.39130861516105</v>
+        <v>845.97278227737399</v>
       </c>
       <c r="I77" s="33">
         <f t="shared" si="1"/>
-        <v>-2.9762621720713645E-3</v>
+        <v>3.6454885245864599E-3</v>
       </c>
       <c r="J77" s="34">
-        <f>8.11/1000</f>
-        <v>8.1099999999999992E-3</v>
+        <f>7.36/1000</f>
+        <v>7.3600000000000002E-3</v>
       </c>
       <c r="K77" s="1">
         <v>5000</v>
       </c>
       <c r="L77" s="23">
         <f t="shared" si="0"/>
-        <v>40.549999999999997</v>
+        <v>36.800000000000004</v>
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.3">
@@ -2497,28 +2497,28 @@
         <v>5809</v>
       </c>
       <c r="F78" s="32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G78" s="32">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H78" s="27">
-        <v>5837.1537901215197</v>
+        <v>5709.7677341874596</v>
       </c>
       <c r="I78" s="33">
         <f t="shared" si="1"/>
-        <v>4.8465811880735732E-3</v>
+        <v>-1.7082504013176125E-2</v>
       </c>
       <c r="J78" s="34">
-        <f>17.19/1000</f>
-        <v>1.719E-2</v>
+        <f>17.85/1000</f>
+        <v>1.7850000000000001E-2</v>
       </c>
       <c r="K78" s="1">
         <v>5000</v>
       </c>
       <c r="L78" s="23">
         <f t="shared" si="0"/>
-        <v>85.95</v>
+        <v>89.25</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.3">
@@ -2542,22 +2542,22 @@
         <v>12</v>
       </c>
       <c r="H79" s="27">
-        <v>46590.005955841203</v>
+        <v>44261.669801649201</v>
       </c>
       <c r="I79" s="33">
         <f t="shared" si="1"/>
-        <v>5.8582285070588158E-2</v>
+        <v>5.6796215926493421E-3</v>
       </c>
       <c r="J79" s="34">
-        <f>24.37/1000</f>
-        <v>2.4369999999999999E-2</v>
+        <f>25.65/1000</f>
+        <v>2.5649999999999999E-2</v>
       </c>
       <c r="K79" s="1">
         <v>5000</v>
       </c>
       <c r="L79" s="23">
         <f t="shared" si="0"/>
-        <v>121.85</v>
+        <v>128.25</v>
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.3">
@@ -2578,25 +2578,25 @@
         <v>3</v>
       </c>
       <c r="G80" s="31">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H80" s="26">
-        <v>482660.05992661999</v>
+        <v>493397.84201340098</v>
       </c>
       <c r="I80" s="33">
         <f t="shared" si="1"/>
-        <v>1.2536732776052828E-2</v>
+        <v>3.5062729215582955E-2</v>
       </c>
       <c r="J80" s="34">
-        <f>22.95/1000</f>
-        <v>2.2949999999999998E-2</v>
+        <f>23.84/1000</f>
+        <v>2.384E-2</v>
       </c>
       <c r="K80" s="1">
         <v>5000</v>
       </c>
       <c r="L80" s="23">
         <f t="shared" si="0"/>
-        <v>114.74999999999999</v>
+        <v>119.2</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.3">

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research\dev\LRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56362C56-882B-4A50-84E3-514782788996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1AA020-258C-4766-A3C5-BD922DDA8C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="93">
   <si>
     <t>Best known</t>
   </si>
@@ -292,9 +292,6 @@
     <t>                    :greedyperturb! ,</t>
   </si>
   <si>
-    <t>:random</t>
-  </si>
-  <si>
     <t>        𝜃   =   0.9975                  ,</t>
   </si>
   <si>
@@ -314,15 +311,17 @@
   </si>
   <si>
     <t>MersenneTwister(1104); MersenneTwister(2104); MersenneTwister(2806); MersenneTwister(1010); MersenneTwister(2111)</t>
+  </si>
+  <si>
+    <t>:random, cluster</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
@@ -391,7 +390,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -588,6 +587,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -598,7 +610,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -655,6 +666,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -936,10 +948,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5551421D-4FE7-47B7-A546-15E7A05240A9}">
-  <dimension ref="A1:X287"/>
+  <dimension ref="A1:X289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J81" sqref="J81"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I59" sqref="I59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -947,7 +959,7 @@
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7265625" style="1" customWidth="1"/>
     <col min="5" max="5" width="7.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.453125" style="1" bestFit="1" customWidth="1"/>
@@ -956,41 +968,54 @@
     <col min="10" max="10" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.08984375" style="1"/>
+    <col min="13" max="14" width="9.08984375" style="1"/>
+    <col min="15" max="15" width="14.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.08984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-    </row>
-    <row r="2" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="18"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+    </row>
+    <row r="2" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="12"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="1" t="s">
         <v>22</v>
       </c>
@@ -1000,11 +1025,11 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="12"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="1" t="s">
         <v>26</v>
       </c>
@@ -1014,21 +1039,21 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:16" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="1:8" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="22" t="s">
+    <row r="7" spans="1:16" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:16" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="21" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
@@ -1042,7 +1067,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
@@ -1055,8 +1080,9 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O10" s="20"/>
+    </row>
+    <row r="11" spans="1:16" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1065,9 +1091,11 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="21" t="s">
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="20" t="s">
         <v>36</v>
       </c>
       <c r="B12" s="1"/>
@@ -1077,8 +1105,10 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>34</v>
       </c>
@@ -1091,8 +1121,10 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O13" s="1"/>
+      <c r="P13" s="10"/>
+    </row>
+    <row r="14" spans="1:16" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
@@ -1105,1303 +1137,1315 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P14" s="10"/>
+    </row>
+    <row r="15" spans="1:16" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="11" t="s">
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="O16" s="8"/>
+    </row>
+    <row r="17" spans="1:24" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="6"/>
+      <c r="O17" s="10"/>
+    </row>
+    <row r="18" spans="1:24" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+    </row>
+    <row r="19" spans="1:24" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="L19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+    </row>
+    <row r="20" spans="1:24" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="L20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+    </row>
+    <row r="21" spans="1:24" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+    </row>
+    <row r="22" spans="1:24" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+    </row>
+    <row r="23" spans="1:24" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+    </row>
+    <row r="24" spans="1:24" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+    </row>
+    <row r="25" spans="1:24" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
+    </row>
+    <row r="26" spans="1:24" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="10"/>
+      <c r="W26" s="10"/>
+      <c r="X26" s="10"/>
+    </row>
+    <row r="27" spans="1:24" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="10"/>
+      <c r="W27" s="10"/>
+      <c r="X27" s="10"/>
+    </row>
+    <row r="28" spans="1:24" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="10"/>
+      <c r="W28" s="10"/>
+      <c r="X28" s="10"/>
+    </row>
+    <row r="29" spans="1:24" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="10"/>
+      <c r="W29" s="10"/>
+      <c r="X29" s="10"/>
+    </row>
+    <row r="30" spans="1:24" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="10"/>
+      <c r="V30" s="10"/>
+      <c r="W30" s="10"/>
+      <c r="X30" s="10"/>
+    </row>
+    <row r="31" spans="1:24" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="10"/>
+      <c r="W31" s="10"/>
+      <c r="X31" s="10"/>
+    </row>
+    <row r="32" spans="1:24" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10"/>
+      <c r="T32" s="10"/>
+      <c r="U32" s="10"/>
+      <c r="V32" s="10"/>
+      <c r="W32" s="10"/>
+      <c r="X32" s="10"/>
+    </row>
+    <row r="33" spans="1:24" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="10"/>
+      <c r="U33" s="10"/>
+      <c r="V33" s="10"/>
+      <c r="W33" s="10"/>
+      <c r="X33" s="10"/>
+    </row>
+    <row r="34" spans="1:24" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="10"/>
+      <c r="V34" s="10"/>
+      <c r="W34" s="10"/>
+      <c r="X34" s="10"/>
+    </row>
+    <row r="35" spans="1:24" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
+      <c r="T35" s="10"/>
+      <c r="U35" s="10"/>
+      <c r="V35" s="10"/>
+      <c r="W35" s="10"/>
+      <c r="X35" s="10"/>
+    </row>
+    <row r="36" spans="1:24" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="10"/>
+      <c r="T36" s="10"/>
+      <c r="U36" s="10"/>
+      <c r="V36" s="10"/>
+      <c r="W36" s="10"/>
+      <c r="X36" s="10"/>
+    </row>
+    <row r="37" spans="1:24" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="10"/>
+      <c r="T37" s="10"/>
+      <c r="U37" s="10"/>
+      <c r="V37" s="10"/>
+      <c r="W37" s="10"/>
+      <c r="X37" s="10"/>
+    </row>
+    <row r="38" spans="1:24" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="10"/>
+      <c r="T38" s="10"/>
+      <c r="U38" s="10"/>
+      <c r="V38" s="10"/>
+      <c r="W38" s="10"/>
+      <c r="X38" s="10"/>
+    </row>
+    <row r="39" spans="1:24" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="10"/>
+      <c r="T39" s="10"/>
+      <c r="U39" s="10"/>
+      <c r="V39" s="10"/>
+      <c r="W39" s="10"/>
+      <c r="X39" s="10"/>
+    </row>
+    <row r="40" spans="1:24" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="10"/>
+      <c r="T40" s="10"/>
+      <c r="U40" s="10"/>
+      <c r="V40" s="10"/>
+      <c r="W40" s="10"/>
+      <c r="X40" s="10"/>
+    </row>
+    <row r="41" spans="1:24" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="10"/>
+      <c r="T41" s="10"/>
+      <c r="U41" s="10"/>
+      <c r="V41" s="10"/>
+      <c r="W41" s="10"/>
+      <c r="X41" s="10"/>
+    </row>
+    <row r="42" spans="1:24" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="10"/>
+      <c r="T42" s="10"/>
+      <c r="U42" s="10"/>
+      <c r="V42" s="10"/>
+      <c r="W42" s="10"/>
+      <c r="X42" s="10"/>
+    </row>
+    <row r="43" spans="1:24" ht="14" x14ac:dyDescent="0.3">
+      <c r="A43" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="10"/>
+      <c r="T43" s="10"/>
+      <c r="U43" s="10"/>
+      <c r="V43" s="10"/>
+      <c r="W43" s="10"/>
+      <c r="X43" s="10"/>
+    </row>
+    <row r="44" spans="1:24" ht="14" x14ac:dyDescent="0.3">
+      <c r="A44" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="10"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="10"/>
+      <c r="T44" s="10"/>
+      <c r="U44" s="10"/>
+      <c r="V44" s="10"/>
+      <c r="W44" s="10"/>
+      <c r="X44" s="10"/>
+    </row>
+    <row r="45" spans="1:24" ht="14" x14ac:dyDescent="0.3">
+      <c r="A45" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="10"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="10"/>
+      <c r="T45" s="10"/>
+      <c r="U45" s="10"/>
+      <c r="V45" s="10"/>
+      <c r="W45" s="10"/>
+      <c r="X45" s="10"/>
+    </row>
+    <row r="46" spans="1:24" ht="14" x14ac:dyDescent="0.3">
+      <c r="A46" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="10"/>
+      <c r="Q46" s="10"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="10"/>
+      <c r="T46" s="10"/>
+      <c r="U46" s="10"/>
+      <c r="V46" s="10"/>
+      <c r="W46" s="10"/>
+      <c r="X46" s="10"/>
+    </row>
+    <row r="47" spans="1:24" ht="14" x14ac:dyDescent="0.3">
+      <c r="A47" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="10"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="10"/>
+      <c r="T47" s="10"/>
+      <c r="U47" s="10"/>
+      <c r="V47" s="10"/>
+      <c r="W47" s="10"/>
+      <c r="X47" s="10"/>
+    </row>
+    <row r="48" spans="1:24" ht="14" x14ac:dyDescent="0.3">
+      <c r="A48" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="10"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="10"/>
+      <c r="T48" s="10"/>
+      <c r="U48" s="10"/>
+      <c r="V48" s="10"/>
+      <c r="W48" s="10"/>
+      <c r="X48" s="10"/>
+    </row>
+    <row r="49" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B49" s="10"/>
+      <c r="O49" s="10"/>
+      <c r="P49" s="10"/>
+      <c r="Q49" s="10"/>
+      <c r="R49" s="10"/>
+      <c r="S49" s="10"/>
+      <c r="T49" s="10"/>
+      <c r="U49" s="10"/>
+      <c r="V49" s="10"/>
+      <c r="W49" s="10"/>
+      <c r="X49" s="10"/>
+    </row>
+    <row r="50" spans="1:24" ht="14" x14ac:dyDescent="0.3">
+      <c r="A50" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B50" s="10"/>
+      <c r="O50" s="10"/>
+      <c r="P50" s="10"/>
+      <c r="Q50" s="10"/>
+      <c r="R50" s="10"/>
+      <c r="S50" s="10"/>
+      <c r="T50" s="10"/>
+      <c r="U50" s="10"/>
+      <c r="V50" s="10"/>
+      <c r="W50" s="10"/>
+      <c r="X50" s="10"/>
+    </row>
+    <row r="51" spans="1:24" ht="14" x14ac:dyDescent="0.3">
+      <c r="A51" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B51" s="10"/>
+      <c r="O51" s="10"/>
+      <c r="P51" s="10"/>
+      <c r="Q51" s="10"/>
+      <c r="R51" s="10"/>
+      <c r="S51" s="10"/>
+      <c r="T51" s="10"/>
+      <c r="U51" s="10"/>
+      <c r="V51" s="10"/>
+      <c r="W51" s="10"/>
+      <c r="X51" s="10"/>
+    </row>
+    <row r="52" spans="1:24" ht="14" x14ac:dyDescent="0.3">
+      <c r="A52" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B52" s="10"/>
+      <c r="O52" s="10"/>
+      <c r="P52" s="10"/>
+      <c r="Q52" s="10"/>
+      <c r="R52" s="10"/>
+      <c r="S52" s="10"/>
+      <c r="T52" s="10"/>
+      <c r="U52" s="10"/>
+      <c r="V52" s="10"/>
+      <c r="W52" s="10"/>
+      <c r="X52" s="10"/>
+    </row>
+    <row r="53" spans="1:24" ht="14" x14ac:dyDescent="0.3">
+      <c r="A53" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B53" s="10"/>
+      <c r="O53" s="10"/>
+      <c r="P53" s="10"/>
+      <c r="Q53" s="10"/>
+      <c r="R53" s="10"/>
+      <c r="S53" s="10"/>
+      <c r="T53" s="10"/>
+      <c r="U53" s="10"/>
+      <c r="V53" s="10"/>
+      <c r="W53" s="10"/>
+      <c r="X53" s="10"/>
+    </row>
+    <row r="54" spans="1:24" ht="14" x14ac:dyDescent="0.3">
+      <c r="A54" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B54" s="10"/>
+      <c r="O54" s="10"/>
+      <c r="P54" s="10"/>
+      <c r="Q54" s="10"/>
+      <c r="R54" s="10"/>
+      <c r="S54" s="10"/>
+      <c r="T54" s="10"/>
+      <c r="U54" s="10"/>
+      <c r="V54" s="10"/>
+      <c r="W54" s="10"/>
+      <c r="X54" s="10"/>
+    </row>
+    <row r="55" spans="1:24" ht="14" x14ac:dyDescent="0.3">
+      <c r="A55" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="O55" s="10"/>
+      <c r="P55" s="10"/>
+      <c r="Q55" s="10"/>
+      <c r="R55" s="10"/>
+      <c r="S55" s="10"/>
+      <c r="T55" s="10"/>
+      <c r="U55" s="10"/>
+      <c r="V55" s="10"/>
+      <c r="W55" s="10"/>
+      <c r="X55" s="10"/>
+    </row>
+    <row r="56" spans="1:24" ht="14" x14ac:dyDescent="0.3">
+      <c r="A56" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="O56" s="10"/>
+      <c r="S56" s="10"/>
+      <c r="T56" s="10"/>
+      <c r="U56" s="10"/>
+      <c r="V56" s="10"/>
+      <c r="W56" s="10"/>
+      <c r="X56" s="10"/>
+    </row>
+    <row r="57" spans="1:24" ht="14" x14ac:dyDescent="0.3">
+      <c r="A57" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="N57" s="3"/>
+      <c r="O57" s="10"/>
+      <c r="Q57" s="4"/>
+      <c r="S57" s="10"/>
+      <c r="T57" s="10"/>
+      <c r="U57" s="10"/>
+      <c r="V57" s="10"/>
+      <c r="W57" s="10"/>
+      <c r="X57" s="10"/>
+    </row>
+    <row r="58" spans="1:24" ht="14" x14ac:dyDescent="0.3">
+      <c r="A58" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="O58" s="10"/>
+      <c r="P58" s="10"/>
+      <c r="Q58" s="10"/>
+      <c r="R58" s="10"/>
+      <c r="S58" s="10"/>
+      <c r="T58" s="10"/>
+      <c r="U58" s="10"/>
+      <c r="V58" s="10"/>
+      <c r="W58" s="10"/>
+      <c r="X58" s="10"/>
+    </row>
+    <row r="59" spans="1:24" ht="14" x14ac:dyDescent="0.3">
+      <c r="A59" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="O59" s="10"/>
+      <c r="P59" s="10"/>
+      <c r="Q59" s="10"/>
+      <c r="R59" s="10"/>
+      <c r="S59" s="10"/>
+      <c r="T59" s="10"/>
+      <c r="U59" s="10"/>
+      <c r="V59" s="10"/>
+      <c r="W59" s="10"/>
+      <c r="X59" s="10"/>
+    </row>
+    <row r="60" spans="1:24" ht="14" x14ac:dyDescent="0.3">
+      <c r="A60" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-    </row>
-    <row r="17" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="7"/>
-    </row>
-    <row r="18" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="7"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
-      <c r="X18" s="11"/>
-    </row>
-    <row r="19" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="B19" s="10"/>
-      <c r="L19" s="11"/>
-      <c r="W19" s="11"/>
-      <c r="X19" s="11"/>
-    </row>
-    <row r="20" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="B20" s="10"/>
-      <c r="L20" s="11"/>
-      <c r="W20" s="11"/>
-      <c r="X20" s="11"/>
-    </row>
-    <row r="21" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="11"/>
-      <c r="V21" s="11"/>
-      <c r="W21" s="11"/>
-      <c r="X21" s="11"/>
-    </row>
-    <row r="22" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="11"/>
-      <c r="X22" s="11"/>
-    </row>
-    <row r="23" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="11"/>
-      <c r="V23" s="11"/>
-      <c r="W23" s="11"/>
-      <c r="X23" s="11"/>
-    </row>
-    <row r="24" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="11"/>
-      <c r="U24" s="11"/>
-      <c r="V24" s="11"/>
-      <c r="W24" s="11"/>
-      <c r="X24" s="11"/>
-    </row>
-    <row r="25" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="11"/>
-      <c r="S25" s="11"/>
-      <c r="T25" s="11"/>
-      <c r="U25" s="11"/>
-      <c r="V25" s="11"/>
-      <c r="W25" s="11"/>
-      <c r="X25" s="11"/>
-    </row>
-    <row r="26" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="11"/>
-      <c r="T26" s="11"/>
-      <c r="U26" s="11"/>
-      <c r="V26" s="11"/>
-      <c r="W26" s="11"/>
-      <c r="X26" s="11"/>
-    </row>
-    <row r="27" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="11"/>
-      <c r="S27" s="11"/>
-      <c r="T27" s="11"/>
-      <c r="U27" s="11"/>
-      <c r="V27" s="11"/>
-      <c r="W27" s="11"/>
-      <c r="X27" s="11"/>
-    </row>
-    <row r="28" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="11"/>
-      <c r="S28" s="11"/>
-      <c r="T28" s="11"/>
-      <c r="U28" s="11"/>
-      <c r="V28" s="11"/>
-      <c r="W28" s="11"/>
-      <c r="X28" s="11"/>
-    </row>
-    <row r="29" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="11"/>
-      <c r="S29" s="11"/>
-      <c r="T29" s="11"/>
-      <c r="U29" s="11"/>
-      <c r="V29" s="11"/>
-      <c r="W29" s="11"/>
-      <c r="X29" s="11"/>
-    </row>
-    <row r="30" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="11"/>
-      <c r="R30" s="11"/>
-      <c r="S30" s="11"/>
-      <c r="T30" s="11"/>
-      <c r="U30" s="11"/>
-      <c r="V30" s="11"/>
-      <c r="W30" s="11"/>
-      <c r="X30" s="11"/>
-    </row>
-    <row r="31" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="11"/>
-      <c r="R31" s="11"/>
-      <c r="S31" s="11"/>
-      <c r="T31" s="11"/>
-      <c r="U31" s="11"/>
-      <c r="V31" s="11"/>
-      <c r="W31" s="11"/>
-      <c r="X31" s="11"/>
-    </row>
-    <row r="32" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="11"/>
-      <c r="R32" s="11"/>
-      <c r="S32" s="11"/>
-      <c r="T32" s="11"/>
-      <c r="U32" s="11"/>
-      <c r="V32" s="11"/>
-      <c r="W32" s="11"/>
-      <c r="X32" s="11"/>
-    </row>
-    <row r="33" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="11"/>
-      <c r="R33" s="11"/>
-      <c r="S33" s="11"/>
-      <c r="T33" s="11"/>
-      <c r="U33" s="11"/>
-      <c r="V33" s="11"/>
-      <c r="W33" s="11"/>
-      <c r="X33" s="11"/>
-    </row>
-    <row r="34" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="11"/>
-      <c r="R34" s="11"/>
-      <c r="S34" s="11"/>
-      <c r="T34" s="11"/>
-      <c r="U34" s="11"/>
-      <c r="V34" s="11"/>
-      <c r="W34" s="11"/>
-      <c r="X34" s="11"/>
-    </row>
-    <row r="35" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="P35" s="11"/>
-      <c r="Q35" s="11"/>
-      <c r="R35" s="11"/>
-      <c r="S35" s="11"/>
-      <c r="T35" s="11"/>
-      <c r="U35" s="11"/>
-      <c r="V35" s="11"/>
-      <c r="W35" s="11"/>
-      <c r="X35" s="11"/>
-    </row>
-    <row r="36" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="P36" s="11"/>
-      <c r="Q36" s="11"/>
-      <c r="R36" s="11"/>
-      <c r="S36" s="11"/>
-      <c r="T36" s="11"/>
-      <c r="U36" s="11"/>
-      <c r="V36" s="11"/>
-      <c r="W36" s="11"/>
-      <c r="X36" s="11"/>
-    </row>
-    <row r="37" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="P37" s="11"/>
-      <c r="Q37" s="11"/>
-      <c r="R37" s="11"/>
-      <c r="S37" s="11"/>
-      <c r="T37" s="11"/>
-      <c r="U37" s="11"/>
-      <c r="V37" s="11"/>
-      <c r="W37" s="11"/>
-      <c r="X37" s="11"/>
-    </row>
-    <row r="38" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="P38" s="11"/>
-      <c r="Q38" s="11"/>
-      <c r="R38" s="11"/>
-      <c r="S38" s="11"/>
-      <c r="T38" s="11"/>
-      <c r="U38" s="11"/>
-      <c r="V38" s="11"/>
-      <c r="W38" s="11"/>
-      <c r="X38" s="11"/>
-    </row>
-    <row r="39" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="P39" s="11"/>
-      <c r="Q39" s="11"/>
-      <c r="R39" s="11"/>
-      <c r="S39" s="11"/>
-      <c r="T39" s="11"/>
-      <c r="U39" s="11"/>
-      <c r="V39" s="11"/>
-      <c r="W39" s="11"/>
-      <c r="X39" s="11"/>
-    </row>
-    <row r="40" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="P40" s="11"/>
-      <c r="Q40" s="11"/>
-      <c r="R40" s="11"/>
-      <c r="S40" s="11"/>
-      <c r="T40" s="11"/>
-      <c r="U40" s="11"/>
-      <c r="V40" s="11"/>
-      <c r="W40" s="11"/>
-      <c r="X40" s="11"/>
-    </row>
-    <row r="41" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="P41" s="11"/>
-      <c r="Q41" s="11"/>
-      <c r="R41" s="11"/>
-      <c r="S41" s="11"/>
-      <c r="T41" s="11"/>
-      <c r="U41" s="11"/>
-      <c r="V41" s="11"/>
-      <c r="W41" s="11"/>
-      <c r="X41" s="11"/>
-    </row>
-    <row r="42" spans="1:24" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="P42" s="11"/>
-      <c r="Q42" s="11"/>
-      <c r="R42" s="11"/>
-      <c r="S42" s="11"/>
-      <c r="T42" s="11"/>
-      <c r="U42" s="11"/>
-      <c r="V42" s="11"/>
-      <c r="W42" s="11"/>
-      <c r="X42" s="11"/>
-    </row>
-    <row r="43" spans="1:24" ht="14" x14ac:dyDescent="0.3">
-      <c r="A43" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="P43" s="11"/>
-      <c r="Q43" s="11"/>
-      <c r="R43" s="11"/>
-      <c r="S43" s="11"/>
-      <c r="T43" s="11"/>
-      <c r="U43" s="11"/>
-      <c r="V43" s="11"/>
-      <c r="W43" s="11"/>
-      <c r="X43" s="11"/>
-    </row>
-    <row r="44" spans="1:24" ht="14" x14ac:dyDescent="0.3">
-      <c r="A44" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="P44" s="11"/>
-      <c r="Q44" s="11"/>
-      <c r="R44" s="11"/>
-      <c r="S44" s="11"/>
-      <c r="T44" s="11"/>
-      <c r="U44" s="11"/>
-      <c r="V44" s="11"/>
-      <c r="W44" s="11"/>
-      <c r="X44" s="11"/>
-    </row>
-    <row r="45" spans="1:24" ht="14" x14ac:dyDescent="0.3">
-      <c r="A45" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="P45" s="11"/>
-      <c r="Q45" s="11"/>
-      <c r="R45" s="11"/>
-      <c r="S45" s="11"/>
-      <c r="T45" s="11"/>
-      <c r="U45" s="11"/>
-      <c r="V45" s="11"/>
-      <c r="W45" s="11"/>
-      <c r="X45" s="11"/>
-    </row>
-    <row r="46" spans="1:24" ht="14" x14ac:dyDescent="0.3">
-      <c r="A46" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="P46" s="11"/>
-      <c r="Q46" s="11"/>
-      <c r="R46" s="11"/>
-      <c r="S46" s="11"/>
-      <c r="T46" s="11"/>
-      <c r="U46" s="11"/>
-      <c r="V46" s="11"/>
-      <c r="W46" s="11"/>
-      <c r="X46" s="11"/>
-    </row>
-    <row r="47" spans="1:24" ht="14" x14ac:dyDescent="0.3">
-      <c r="A47" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="P47" s="11"/>
-      <c r="Q47" s="11"/>
-      <c r="R47" s="11"/>
-      <c r="S47" s="11"/>
-      <c r="T47" s="11"/>
-      <c r="U47" s="11"/>
-      <c r="V47" s="11"/>
-      <c r="W47" s="11"/>
-      <c r="X47" s="11"/>
-    </row>
-    <row r="48" spans="1:24" ht="14" x14ac:dyDescent="0.3">
-      <c r="A48" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-      <c r="P48" s="11"/>
-      <c r="Q48" s="11"/>
-      <c r="R48" s="11"/>
-      <c r="S48" s="11"/>
-      <c r="T48" s="11"/>
-      <c r="U48" s="11"/>
-      <c r="V48" s="11"/>
-      <c r="W48" s="11"/>
-      <c r="X48" s="11"/>
-    </row>
-    <row r="49" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="B49" s="11"/>
-      <c r="P49" s="11"/>
-      <c r="Q49" s="11"/>
-      <c r="R49" s="11"/>
-      <c r="S49" s="11"/>
-      <c r="T49" s="11"/>
-      <c r="U49" s="11"/>
-      <c r="V49" s="11"/>
-      <c r="W49" s="11"/>
-      <c r="X49" s="11"/>
-    </row>
-    <row r="50" spans="1:24" ht="14" x14ac:dyDescent="0.3">
-      <c r="A50" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="B50" s="11"/>
-      <c r="P50" s="11"/>
-      <c r="Q50" s="11"/>
-      <c r="R50" s="11"/>
-      <c r="S50" s="11"/>
-      <c r="T50" s="11"/>
-      <c r="U50" s="11"/>
-      <c r="V50" s="11"/>
-      <c r="W50" s="11"/>
-      <c r="X50" s="11"/>
-    </row>
-    <row r="51" spans="1:24" ht="14" x14ac:dyDescent="0.3">
-      <c r="A51" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="B51" s="11"/>
-      <c r="P51" s="11"/>
-      <c r="Q51" s="11"/>
-      <c r="R51" s="11"/>
-      <c r="S51" s="11"/>
-      <c r="T51" s="11"/>
-      <c r="U51" s="11"/>
-      <c r="V51" s="11"/>
-      <c r="W51" s="11"/>
-      <c r="X51" s="11"/>
-    </row>
-    <row r="52" spans="1:24" ht="14" x14ac:dyDescent="0.3">
-      <c r="A52" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="B52" s="11"/>
-      <c r="P52" s="11"/>
-      <c r="Q52" s="11"/>
-      <c r="R52" s="11"/>
-      <c r="S52" s="11"/>
-      <c r="T52" s="11"/>
-      <c r="U52" s="11"/>
-      <c r="V52" s="11"/>
-      <c r="W52" s="11"/>
-      <c r="X52" s="11"/>
-    </row>
-    <row r="53" spans="1:24" ht="14" x14ac:dyDescent="0.3">
-      <c r="A53" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="B53" s="11"/>
-      <c r="P53" s="11"/>
-      <c r="Q53" s="11"/>
-      <c r="R53" s="11"/>
-      <c r="S53" s="11"/>
-      <c r="T53" s="11"/>
-      <c r="U53" s="11"/>
-      <c r="V53" s="11"/>
-      <c r="W53" s="11"/>
-      <c r="X53" s="11"/>
-    </row>
-    <row r="54" spans="1:24" ht="14" x14ac:dyDescent="0.3">
-      <c r="A54" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B54" s="11"/>
-      <c r="P54" s="11"/>
-      <c r="Q54" s="11"/>
-      <c r="R54" s="11"/>
-      <c r="S54" s="11"/>
-      <c r="T54" s="11"/>
-      <c r="U54" s="11"/>
-      <c r="V54" s="11"/>
-      <c r="W54" s="11"/>
-      <c r="X54" s="11"/>
-    </row>
-    <row r="55" spans="1:24" ht="14" x14ac:dyDescent="0.3">
-      <c r="A55" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
-      <c r="P55" s="11"/>
-      <c r="Q55" s="11"/>
-      <c r="R55" s="11"/>
-      <c r="S55" s="11"/>
-      <c r="T55" s="11"/>
-      <c r="U55" s="11"/>
-      <c r="V55" s="11"/>
-      <c r="W55" s="11"/>
-      <c r="X55" s="11"/>
-    </row>
-    <row r="56" spans="1:24" ht="14" x14ac:dyDescent="0.3">
-      <c r="A56" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
-      <c r="H56" s="11"/>
-      <c r="S56" s="11"/>
-      <c r="T56" s="11"/>
-      <c r="U56" s="11"/>
-      <c r="V56" s="11"/>
-      <c r="W56" s="11"/>
-      <c r="X56" s="11"/>
-    </row>
-    <row r="57" spans="1:24" ht="14" x14ac:dyDescent="0.3">
-      <c r="A57" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B57" s="11"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="11"/>
-      <c r="N57" s="3"/>
-      <c r="O57" s="4"/>
-      <c r="Q57" s="5"/>
-      <c r="S57" s="11"/>
-      <c r="T57" s="11"/>
-      <c r="U57" s="11"/>
-      <c r="V57" s="11"/>
-      <c r="W57" s="11"/>
-      <c r="X57" s="11"/>
-    </row>
-    <row r="58" spans="1:24" ht="14" x14ac:dyDescent="0.3">
-      <c r="A58" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B58" s="11"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
-      <c r="P58" s="11"/>
-      <c r="Q58" s="11"/>
-      <c r="R58" s="11"/>
-      <c r="S58" s="11"/>
-      <c r="T58" s="11"/>
-      <c r="U58" s="11"/>
-      <c r="V58" s="11"/>
-      <c r="W58" s="11"/>
-      <c r="X58" s="11"/>
-    </row>
-    <row r="59" spans="1:24" ht="14" x14ac:dyDescent="0.3">
-      <c r="A59" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B59" s="11"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="11"/>
-      <c r="P59" s="11"/>
-      <c r="Q59" s="11"/>
-      <c r="R59" s="11"/>
-      <c r="S59" s="11"/>
-      <c r="T59" s="11"/>
-      <c r="U59" s="11"/>
-      <c r="V59" s="11"/>
-      <c r="W59" s="11"/>
-      <c r="X59" s="11"/>
-    </row>
-    <row r="60" spans="1:24" ht="14" x14ac:dyDescent="0.3">
-      <c r="A60" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="B60" s="11"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="11"/>
-      <c r="P60" s="11"/>
-      <c r="Q60" s="11"/>
-      <c r="R60" s="11"/>
-      <c r="S60" s="11"/>
-      <c r="T60" s="11"/>
-      <c r="U60" s="11"/>
-      <c r="V60" s="11"/>
-      <c r="W60" s="11"/>
-      <c r="X60" s="11"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="O60" s="10"/>
+      <c r="P60" s="10"/>
+      <c r="Q60" s="10"/>
+      <c r="R60" s="10"/>
+      <c r="S60" s="10"/>
+      <c r="T60" s="10"/>
+      <c r="U60" s="10"/>
+      <c r="V60" s="10"/>
+      <c r="W60" s="10"/>
+      <c r="X60" s="10"/>
     </row>
     <row r="61" spans="1:24" ht="14" x14ac:dyDescent="0.3">
-      <c r="A61" s="11" t="s">
+      <c r="A61" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B61" s="11"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="11"/>
-      <c r="P61" s="11"/>
-      <c r="Q61" s="11"/>
-      <c r="R61" s="11"/>
-      <c r="S61" s="11"/>
-      <c r="T61" s="11"/>
-      <c r="U61" s="11"/>
-      <c r="V61" s="11"/>
-      <c r="W61" s="11"/>
-      <c r="X61" s="11"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="O61" s="10"/>
+      <c r="P61" s="10"/>
+      <c r="Q61" s="10"/>
+      <c r="R61" s="10"/>
+      <c r="S61" s="10"/>
+      <c r="T61" s="10"/>
+      <c r="U61" s="10"/>
+      <c r="V61" s="10"/>
+      <c r="W61" s="10"/>
+      <c r="X61" s="10"/>
     </row>
     <row r="62" spans="1:24" ht="14" x14ac:dyDescent="0.3">
-      <c r="A62" s="11" t="s">
+      <c r="A62" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B62" s="11"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="11"/>
-      <c r="P62" s="11"/>
-      <c r="Q62" s="11"/>
-      <c r="R62" s="11"/>
-      <c r="S62" s="11"/>
-      <c r="T62" s="11"/>
-      <c r="U62" s="11"/>
-      <c r="V62" s="11"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+      <c r="O62" s="10"/>
+      <c r="P62" s="10"/>
+      <c r="Q62" s="10"/>
+      <c r="R62" s="10"/>
+      <c r="S62" s="10"/>
+      <c r="T62" s="10"/>
+      <c r="U62" s="10"/>
+      <c r="V62" s="10"/>
     </row>
     <row r="63" spans="1:24" ht="14" x14ac:dyDescent="0.3">
-      <c r="A63" s="11" t="s">
+      <c r="A63" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
-      <c r="P63" s="11"/>
-      <c r="Q63" s="11"/>
-      <c r="R63" s="11"/>
-      <c r="S63" s="11"/>
-      <c r="T63" s="11"/>
-      <c r="U63" s="11"/>
-      <c r="V63" s="11"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="O63" s="10"/>
+      <c r="P63" s="10"/>
+      <c r="Q63" s="10"/>
+      <c r="R63" s="10"/>
+      <c r="S63" s="10"/>
+      <c r="T63" s="10"/>
+      <c r="U63" s="10"/>
+      <c r="V63" s="10"/>
     </row>
     <row r="64" spans="1:24" ht="14" x14ac:dyDescent="0.3">
-      <c r="A64" s="11" t="s">
+      <c r="A64" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B64" s="11"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="11"/>
-      <c r="P64" s="11"/>
-      <c r="Q64" s="11"/>
-      <c r="R64" s="11"/>
-      <c r="S64" s="11"/>
-      <c r="T64" s="11"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="O64" s="10"/>
+      <c r="P64" s="10"/>
+      <c r="Q64" s="10"/>
+      <c r="R64" s="10"/>
+      <c r="S64" s="10"/>
+      <c r="T64" s="10"/>
     </row>
     <row r="65" spans="1:20" ht="14" x14ac:dyDescent="0.3">
-      <c r="A65" s="11" t="s">
+      <c r="A65" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B65" s="11"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="11"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11"/>
-      <c r="H65" s="11"/>
-      <c r="P65" s="11"/>
-      <c r="Q65" s="11"/>
-      <c r="R65" s="11"/>
-      <c r="S65" s="11"/>
-      <c r="T65" s="11"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+      <c r="P65" s="10"/>
+      <c r="Q65" s="10"/>
+      <c r="R65" s="10"/>
+      <c r="S65" s="10"/>
+      <c r="T65" s="10"/>
     </row>
     <row r="66" spans="1:20" ht="14" x14ac:dyDescent="0.3">
-      <c r="A66" s="11" t="s">
+      <c r="A66" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B66" s="11"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="11"/>
-      <c r="G66" s="11"/>
-      <c r="H66" s="11"/>
-      <c r="P66" s="11"/>
-      <c r="Q66" s="11"/>
-      <c r="R66" s="11"/>
-      <c r="S66" s="11"/>
-      <c r="T66" s="11"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
+      <c r="P66" s="10"/>
+      <c r="Q66" s="10"/>
+      <c r="R66" s="10"/>
+      <c r="S66" s="10"/>
+      <c r="T66" s="10"/>
     </row>
     <row r="67" spans="1:20" ht="14" x14ac:dyDescent="0.3">
-      <c r="L67" s="11"/>
-      <c r="M67" s="11"/>
-      <c r="N67" s="11"/>
-      <c r="O67" s="11"/>
-      <c r="P67" s="11"/>
-      <c r="Q67" s="11"/>
-      <c r="R67" s="11"/>
-      <c r="S67" s="11"/>
-      <c r="T67" s="11"/>
+      <c r="L67" s="10"/>
+      <c r="M67" s="10"/>
+      <c r="N67" s="10"/>
+      <c r="O67" s="10"/>
+      <c r="P67" s="10"/>
+      <c r="Q67" s="10"/>
+      <c r="R67" s="10"/>
+      <c r="S67" s="10"/>
+      <c r="T67" s="10"/>
     </row>
     <row r="68" spans="1:20" ht="14" x14ac:dyDescent="0.3">
-      <c r="A68" s="16" t="s">
+      <c r="A68" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B68" s="6"/>
-      <c r="L68" s="11"/>
-      <c r="M68" s="11"/>
-      <c r="N68" s="11"/>
-      <c r="O68" s="11"/>
-      <c r="P68" s="11"/>
-      <c r="Q68" s="11"/>
-      <c r="R68" s="11"/>
-      <c r="S68" s="11"/>
-      <c r="T68" s="11"/>
+      <c r="B68" s="5"/>
+      <c r="L68" s="10"/>
+      <c r="M68" s="10"/>
+      <c r="N68" s="10"/>
+      <c r="O68" s="10"/>
+      <c r="P68" s="10"/>
+      <c r="Q68" s="10"/>
+      <c r="R68" s="10"/>
+      <c r="S68" s="10"/>
+      <c r="T68" s="10"/>
     </row>
     <row r="69" spans="1:20" ht="14" x14ac:dyDescent="0.3">
-      <c r="A69" s="17" t="s">
+      <c r="A69" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B69" s="17" t="s">
+      <c r="B69" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C69" s="35" t="s">
+      <c r="C69" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="D69" s="36"/>
-      <c r="E69" s="36"/>
-      <c r="F69" s="36" t="s">
+      <c r="D69" s="35"/>
+      <c r="E69" s="35"/>
+      <c r="F69" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="G69" s="36"/>
-      <c r="H69" s="36"/>
-      <c r="I69" s="17" t="s">
+      <c r="G69" s="35"/>
+      <c r="H69" s="35"/>
+      <c r="I69" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="J69" s="17" t="s">
+      <c r="J69" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="K69" s="17" t="s">
+      <c r="K69" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="L69" s="17" t="s">
+      <c r="L69" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="N69" s="11"/>
-      <c r="O69" s="11"/>
-      <c r="P69" s="11"/>
-      <c r="Q69" s="11"/>
-      <c r="R69" s="11"/>
-      <c r="S69" s="11"/>
-      <c r="T69" s="11"/>
+      <c r="N69" s="10"/>
     </row>
     <row r="70" spans="1:20" ht="14" x14ac:dyDescent="0.3">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
-      <c r="C70" s="24" t="s">
+      <c r="C70" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="D70" s="24" t="s">
+      <c r="D70" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="E70" s="28" t="s">
+      <c r="E70" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="F70" s="25" t="s">
+      <c r="F70" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="G70" s="24" t="s">
+      <c r="G70" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="H70" s="24" t="s">
+      <c r="H70" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="L70" s="11"/>
-      <c r="M70" s="11"/>
-      <c r="N70" s="11"/>
-      <c r="O70" s="11"/>
-      <c r="P70" s="11"/>
-      <c r="Q70" s="11"/>
-      <c r="R70" s="11"/>
-      <c r="S70" s="11"/>
-      <c r="T70" s="11"/>
+      <c r="L70" s="10"/>
+      <c r="M70" s="10"/>
+      <c r="N70" s="10"/>
     </row>
     <row r="71" spans="1:20" ht="14" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B71" s="2"/>
-      <c r="C71" s="31">
+      <c r="C71" s="30">
         <v>3</v>
       </c>
-      <c r="D71" s="31">
+      <c r="D71" s="30">
         <v>5</v>
       </c>
-      <c r="E71" s="29">
+      <c r="E71" s="28">
         <v>54793</v>
       </c>
-      <c r="F71" s="31">
+      <c r="F71" s="30">
         <v>3</v>
       </c>
-      <c r="G71" s="31">
+      <c r="G71" s="30">
         <v>5</v>
       </c>
-      <c r="H71" s="26">
-        <v>55007.7661320107</v>
-      </c>
-      <c r="I71" s="33">
+      <c r="H71" s="25">
+        <v>55007.766132010198</v>
+      </c>
+      <c r="I71" s="32">
         <f>H71/E71-1</f>
-        <v>3.9195906778366485E-3</v>
-      </c>
-      <c r="J71" s="34">
-        <f>0.35/1000</f>
-        <v>3.5E-4</v>
+        <v>3.9195906778273226E-3</v>
+      </c>
+      <c r="J71" s="33">
+        <f>0.34/1000</f>
+        <v>3.4000000000000002E-4</v>
       </c>
       <c r="K71" s="1">
         <v>5000</v>
       </c>
-      <c r="L71" s="23">
+      <c r="L71" s="22">
         <f>K71*J71</f>
-        <v>1.75</v>
-      </c>
-      <c r="M71" s="11"/>
-      <c r="N71" s="11"/>
-      <c r="O71" s="11"/>
-      <c r="P71" s="11"/>
-      <c r="Q71" s="11"/>
-      <c r="R71" s="11"/>
-      <c r="S71" s="11"/>
-      <c r="T71" s="11"/>
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c r="N71" s="10"/>
     </row>
     <row r="72" spans="1:20" ht="14" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B72" s="2"/>
-      <c r="C72" s="32">
+      <c r="C72" s="31">
         <v>1</v>
       </c>
-      <c r="D72" s="32">
+      <c r="D72" s="31">
         <v>4</v>
       </c>
-      <c r="E72" s="29">
+      <c r="E72" s="28">
         <v>460.4</v>
       </c>
-      <c r="F72" s="32">
+      <c r="F72" s="31">
         <v>1</v>
       </c>
-      <c r="G72" s="32">
+      <c r="G72" s="31">
         <v>4</v>
       </c>
-      <c r="H72" s="27">
-        <v>460.37420333963701</v>
-      </c>
-      <c r="I72" s="33">
+      <c r="H72" s="26">
+        <v>460.37420333963502</v>
+      </c>
+      <c r="I72" s="32">
         <f>H72/E72-1</f>
-        <v>-5.6030973855314414E-5</v>
-      </c>
-      <c r="J72" s="34">
-        <f>0.68/1000</f>
-        <v>6.8000000000000005E-4</v>
+        <v>-5.6030973859644284E-5</v>
+      </c>
+      <c r="J72" s="33">
+        <f>0.63/1000</f>
+        <v>6.3000000000000003E-4</v>
       </c>
       <c r="K72" s="1">
         <v>5000</v>
       </c>
-      <c r="L72" s="23">
+      <c r="L72" s="22">
         <f>K72*J72</f>
-        <v>3.4000000000000004</v>
-      </c>
-      <c r="M72" s="11"/>
-      <c r="N72" s="11"/>
-      <c r="O72" s="11"/>
-      <c r="P72" s="11"/>
-      <c r="Q72" s="11"/>
-      <c r="R72" s="11"/>
-      <c r="S72" s="11"/>
-      <c r="T72" s="11"/>
+        <v>3.15</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c r="N72" s="10"/>
     </row>
     <row r="73" spans="1:20" ht="14" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B73" s="2"/>
-      <c r="C73" s="32">
+      <c r="C73" s="31">
         <v>2</v>
       </c>
-      <c r="D73" s="32">
+      <c r="D73" s="31">
         <v>6</v>
       </c>
-      <c r="E73" s="29">
+      <c r="E73" s="28">
         <v>63242</v>
       </c>
-      <c r="F73" s="32">
+      <c r="F73" s="31">
         <v>2</v>
       </c>
-      <c r="G73" s="32">
+      <c r="G73" s="31">
         <v>6</v>
       </c>
-      <c r="H73" s="27">
-        <v>63215.202234408498</v>
-      </c>
-      <c r="I73" s="33">
+      <c r="H73" s="26">
+        <v>63215.202234415097</v>
+      </c>
+      <c r="I73" s="32">
         <f>H73/E73-1</f>
-        <v>-4.2373368317738525E-4</v>
-      </c>
-      <c r="J73" s="34">
-        <f>1.53/1000</f>
-        <v>1.5300000000000001E-3</v>
+        <v>-4.2373368307302428E-4</v>
+      </c>
+      <c r="J73" s="33">
+        <f>1.49/1000</f>
+        <v>1.49E-3</v>
       </c>
       <c r="K73" s="1">
         <v>5000</v>
       </c>
-      <c r="L73" s="23">
+      <c r="L73" s="22">
         <f>K73*J73</f>
-        <v>7.65</v>
-      </c>
-      <c r="M73" s="11"/>
-      <c r="N73" s="11"/>
-      <c r="O73" s="11"/>
-      <c r="P73" s="11"/>
-      <c r="Q73" s="11"/>
-      <c r="R73" s="11"/>
-      <c r="S73" s="11"/>
-      <c r="T73" s="11"/>
+        <v>7.45</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c r="N73" s="10"/>
     </row>
     <row r="74" spans="1:20" ht="14" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B74" s="2"/>
-      <c r="C74" s="32">
+      <c r="C74" s="31">
         <v>2</v>
       </c>
-      <c r="D74" s="32">
+      <c r="D74" s="31">
         <v>7</v>
       </c>
-      <c r="E74" s="29">
+      <c r="E74" s="28">
         <v>355.8</v>
       </c>
-      <c r="F74" s="32">
+      <c r="F74" s="31">
         <v>2</v>
       </c>
-      <c r="G74" s="32">
+      <c r="G74" s="31">
         <v>6</v>
       </c>
-      <c r="H74" s="27">
-        <v>359.827167378193</v>
-      </c>
-      <c r="I74" s="33">
+      <c r="H74" s="26">
+        <v>355.78425539634202</v>
+      </c>
+      <c r="I74" s="32">
         <f>H74/E74-1</f>
-        <v>1.1318626695314693E-2</v>
-      </c>
-      <c r="J74" s="34">
-        <f>6.03/1000</f>
-        <v>6.0300000000000006E-3</v>
+        <v>-4.4251275036488735E-5</v>
+      </c>
+      <c r="J74" s="33">
+        <f>5.99/1000</f>
+        <v>5.9900000000000005E-3</v>
       </c>
       <c r="K74" s="1">
         <v>5000</v>
       </c>
-      <c r="L74" s="23">
+      <c r="L74" s="22">
         <f t="shared" ref="L74:L80" si="0">K74*J74</f>
-        <v>30.150000000000002</v>
-      </c>
-      <c r="M74" s="11"/>
-      <c r="N74" s="11"/>
-      <c r="O74" s="11"/>
-      <c r="P74" s="11"/>
-      <c r="Q74" s="11"/>
-      <c r="R74" s="11"/>
-      <c r="S74" s="11"/>
-      <c r="T74" s="11"/>
+        <v>29.950000000000003</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c r="N74" s="10"/>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B75" s="2"/>
-      <c r="C75" s="32">
+      <c r="C75" s="31">
         <v>2</v>
       </c>
-      <c r="D75" s="32">
+      <c r="D75" s="31">
         <v>24</v>
       </c>
-      <c r="E75" s="29">
+      <c r="E75" s="28">
         <v>195568</v>
       </c>
-      <c r="F75" s="32">
+      <c r="F75" s="31">
         <v>2</v>
       </c>
-      <c r="G75" s="32">
+      <c r="G75" s="31">
         <v>23</v>
       </c>
-      <c r="H75" s="27">
-        <v>196623.16260029201</v>
-      </c>
-      <c r="I75" s="33">
+      <c r="H75" s="26">
+        <v>197047.67434274801</v>
+      </c>
+      <c r="I75" s="32">
         <f>H75/E75-1</f>
-        <v>5.3953745003887388E-3</v>
+        <v>7.5660350504582752E-3</v>
       </c>
       <c r="J75" s="1">
-        <f>5.35/1000</f>
-        <v>5.3499999999999997E-3</v>
+        <f>4.98/1000</f>
+        <v>4.9800000000000001E-3</v>
       </c>
       <c r="K75" s="1">
         <v>5000</v>
       </c>
-      <c r="L75" s="23">
+      <c r="L75" s="22">
         <f t="shared" si="0"/>
-        <v>26.75</v>
+        <v>24.9</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.3">
@@ -2409,38 +2453,38 @@
         <v>70</v>
       </c>
       <c r="B76" s="2"/>
-      <c r="C76" s="32">
+      <c r="C76" s="31">
         <v>3</v>
       </c>
-      <c r="D76" s="32">
+      <c r="D76" s="31">
         <v>11</v>
       </c>
-      <c r="E76" s="29">
+      <c r="E76" s="28">
         <v>204335</v>
       </c>
-      <c r="F76" s="32">
+      <c r="F76" s="31">
         <v>3</v>
       </c>
-      <c r="G76" s="32">
+      <c r="G76" s="31">
         <v>11</v>
       </c>
-      <c r="H76" s="27">
-        <v>205507.60130177901</v>
-      </c>
-      <c r="I76" s="33">
+      <c r="H76" s="26">
+        <v>205011.94354679101</v>
+      </c>
+      <c r="I76" s="32">
         <f t="shared" ref="I76:I80" si="1">H76/E76-1</f>
-        <v>5.7386218796535715E-3</v>
-      </c>
-      <c r="J76" s="34">
-        <f>8.03/1000</f>
-        <v>8.0299999999999989E-3</v>
+        <v>3.3129104010130028E-3</v>
+      </c>
+      <c r="J76" s="33">
+        <f>7.81/1000</f>
+        <v>7.8099999999999992E-3</v>
       </c>
       <c r="K76" s="1">
         <v>5000</v>
       </c>
-      <c r="L76" s="23">
+      <c r="L76" s="22">
         <f t="shared" si="0"/>
-        <v>40.149999999999991</v>
+        <v>39.049999999999997</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.3">
@@ -2448,38 +2492,38 @@
         <v>73</v>
       </c>
       <c r="B77" s="2"/>
-      <c r="C77" s="32">
+      <c r="C77" s="31">
         <v>2</v>
       </c>
-      <c r="D77" s="32">
+      <c r="D77" s="31">
         <v>8</v>
       </c>
-      <c r="E77" s="29">
+      <c r="E77" s="28">
         <v>842.9</v>
       </c>
-      <c r="F77" s="32">
-        <v>3</v>
-      </c>
-      <c r="G77" s="32">
+      <c r="F77" s="31">
+        <v>2</v>
+      </c>
+      <c r="G77" s="31">
         <v>8</v>
       </c>
-      <c r="H77" s="27">
-        <v>845.97278227737399</v>
-      </c>
-      <c r="I77" s="33">
+      <c r="H77" s="26">
+        <v>839.83462799642496</v>
+      </c>
+      <c r="I77" s="32">
         <f t="shared" si="1"/>
-        <v>3.6454885245864599E-3</v>
-      </c>
-      <c r="J77" s="34">
-        <f>7.36/1000</f>
-        <v>7.3600000000000002E-3</v>
+        <v>-3.6366971213370736E-3</v>
+      </c>
+      <c r="J77" s="33">
+        <f>7.3/1000</f>
+        <v>7.3000000000000001E-3</v>
       </c>
       <c r="K77" s="1">
         <v>5000</v>
       </c>
-      <c r="L77" s="23">
+      <c r="L77" s="22">
         <f t="shared" si="0"/>
-        <v>36.800000000000004</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.3">
@@ -2487,38 +2531,38 @@
         <v>74</v>
       </c>
       <c r="B78" s="2"/>
-      <c r="C78" s="32">
+      <c r="C78" s="31">
         <v>3</v>
       </c>
-      <c r="D78" s="32">
+      <c r="D78" s="31">
         <v>11</v>
       </c>
-      <c r="E78" s="29">
+      <c r="E78" s="28">
         <v>5809</v>
       </c>
-      <c r="F78" s="32">
+      <c r="F78" s="31">
         <v>3</v>
       </c>
-      <c r="G78" s="32">
-        <v>11</v>
-      </c>
-      <c r="H78" s="27">
-        <v>5709.7677341874596</v>
-      </c>
-      <c r="I78" s="33">
+      <c r="G78" s="31">
+        <v>10</v>
+      </c>
+      <c r="H78" s="26">
+        <v>5776.0003744909</v>
+      </c>
+      <c r="I78" s="32">
         <f t="shared" si="1"/>
-        <v>-1.7082504013176125E-2</v>
-      </c>
-      <c r="J78" s="34">
-        <f>17.85/1000</f>
-        <v>1.7850000000000001E-2</v>
+        <v>-5.680775608383537E-3</v>
+      </c>
+      <c r="J78" s="33">
+        <f>16.63/1000</f>
+        <v>1.6629999999999999E-2</v>
       </c>
       <c r="K78" s="1">
         <v>5000</v>
       </c>
-      <c r="L78" s="23">
+      <c r="L78" s="22">
         <f t="shared" si="0"/>
-        <v>89.25</v>
+        <v>83.149999999999991</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.3">
@@ -2526,38 +2570,38 @@
         <v>76</v>
       </c>
       <c r="B79" s="2"/>
-      <c r="C79" s="32">
+      <c r="C79" s="31">
         <v>3</v>
       </c>
-      <c r="D79" s="32">
+      <c r="D79" s="31">
         <v>11</v>
       </c>
-      <c r="E79" s="29">
+      <c r="E79" s="28">
         <v>44011.7</v>
       </c>
-      <c r="F79" s="32">
+      <c r="F79" s="31">
         <v>3</v>
       </c>
-      <c r="G79" s="32">
-        <v>12</v>
-      </c>
-      <c r="H79" s="27">
-        <v>44261.669801649201</v>
-      </c>
-      <c r="I79" s="33">
+      <c r="G79" s="31">
+        <v>11</v>
+      </c>
+      <c r="H79" s="26">
+        <v>45899.602830196098</v>
+      </c>
+      <c r="I79" s="32">
         <f t="shared" si="1"/>
-        <v>5.6796215926493421E-3</v>
-      </c>
-      <c r="J79" s="34">
-        <f>25.65/1000</f>
-        <v>2.5649999999999999E-2</v>
+        <v>4.2895476207374328E-2</v>
+      </c>
+      <c r="J79" s="33">
+        <f>22.15/1000</f>
+        <v>2.215E-2</v>
       </c>
       <c r="K79" s="1">
         <v>5000</v>
       </c>
-      <c r="L79" s="23">
+      <c r="L79" s="22">
         <f t="shared" si="0"/>
-        <v>128.25</v>
+        <v>110.75</v>
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.3">
@@ -2565,665 +2609,1087 @@
         <v>75</v>
       </c>
       <c r="B80" s="2"/>
-      <c r="C80" s="31">
+      <c r="C80" s="30">
         <v>3</v>
       </c>
-      <c r="D80" s="31">
+      <c r="D80" s="30">
         <v>47</v>
       </c>
-      <c r="E80" s="30">
+      <c r="E80" s="29">
         <v>476684</v>
       </c>
-      <c r="F80" s="31">
+      <c r="F80" s="30">
         <v>3</v>
       </c>
-      <c r="G80" s="31">
+      <c r="G80" s="30">
         <v>46</v>
       </c>
-      <c r="H80" s="26">
-        <v>493397.84201340098</v>
-      </c>
-      <c r="I80" s="33">
+      <c r="H80" s="25">
+        <v>492876.18104677898</v>
+      </c>
+      <c r="I80" s="32">
         <f t="shared" si="1"/>
-        <v>3.5062729215582955E-2</v>
-      </c>
-      <c r="J80" s="34">
-        <f>23.84/1000</f>
-        <v>2.384E-2</v>
+        <v>3.3968375373998327E-2</v>
+      </c>
+      <c r="J80" s="33">
+        <f>22.29/1000</f>
+        <v>2.2290000000000001E-2</v>
       </c>
       <c r="K80" s="1">
         <v>5000</v>
       </c>
-      <c r="L80" s="23">
+      <c r="L80" s="22">
         <f t="shared" si="0"/>
-        <v>119.2</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B81" s="6"/>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B82" s="6"/>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B83" s="6"/>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B84" s="6"/>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B85" s="6"/>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B86" s="6"/>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B87" s="6"/>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B88" s="6"/>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B89" s="6"/>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B90" s="6"/>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B91" s="6"/>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B92" s="6"/>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B93" s="6"/>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B94" s="6"/>
-    </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B95" s="6"/>
-    </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B96" s="6"/>
+        <v>111.45</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B81" s="11"/>
+      <c r="C81" s="30"/>
+      <c r="D81" s="30"/>
+      <c r="E81" s="36"/>
+      <c r="F81" s="30"/>
+      <c r="G81" s="30"/>
+      <c r="H81" s="25"/>
+      <c r="I81" s="32"/>
+      <c r="J81" s="33"/>
+      <c r="L81" s="22"/>
+    </row>
+    <row r="82" spans="1:12" ht="14" x14ac:dyDescent="0.3">
+      <c r="A82" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B82" s="5"/>
+      <c r="L82" s="10"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A83" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B83" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C83" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="D83" s="35"/>
+      <c r="E83" s="35"/>
+      <c r="F83" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="G83" s="35"/>
+      <c r="H83" s="35"/>
+      <c r="I83" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="K83" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L83" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="14" x14ac:dyDescent="0.3">
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D84" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E84" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="F84" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="G84" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="H84" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="L84" s="10"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" s="30">
+        <v>3</v>
+      </c>
+      <c r="D85" s="30">
+        <v>5</v>
+      </c>
+      <c r="E85" s="28">
+        <v>54793</v>
+      </c>
+      <c r="F85" s="30">
+        <v>3</v>
+      </c>
+      <c r="G85" s="30">
+        <v>5</v>
+      </c>
+      <c r="H85" s="25">
+        <v>55007.766132011697</v>
+      </c>
+      <c r="I85" s="32">
+        <f>H85/E85-1</f>
+        <v>3.9195906778548562E-3</v>
+      </c>
+      <c r="J85" s="33">
+        <f>0.37/1000</f>
+        <v>3.6999999999999999E-4</v>
+      </c>
+      <c r="K85" s="1">
+        <v>5000</v>
+      </c>
+      <c r="L85" s="22">
+        <f>K85*J85</f>
+        <v>1.8499999999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" s="31">
+        <v>1</v>
+      </c>
+      <c r="D86" s="31">
+        <v>4</v>
+      </c>
+      <c r="E86" s="28">
+        <v>460.4</v>
+      </c>
+      <c r="F86" s="31">
+        <v>1</v>
+      </c>
+      <c r="G86" s="31">
+        <v>4</v>
+      </c>
+      <c r="H86" s="26">
+        <v>460.37420333963001</v>
+      </c>
+      <c r="I86" s="32">
+        <f>H86/E86-1</f>
+        <v>-5.6030973870413447E-5</v>
+      </c>
+      <c r="J86" s="33">
+        <f>0.68/1000</f>
+        <v>6.8000000000000005E-4</v>
+      </c>
+      <c r="K86" s="1">
+        <v>5000</v>
+      </c>
+      <c r="L86" s="22">
+        <f>K86*J86</f>
+        <v>3.4000000000000004</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" s="31">
+        <v>2</v>
+      </c>
+      <c r="D87" s="31">
+        <v>6</v>
+      </c>
+      <c r="E87" s="28">
+        <v>63242</v>
+      </c>
+      <c r="F87" s="31">
+        <v>2</v>
+      </c>
+      <c r="G87" s="31">
+        <v>6</v>
+      </c>
+      <c r="H87" s="26">
+        <v>63215.202234417397</v>
+      </c>
+      <c r="I87" s="32">
+        <f>H87/E87-1</f>
+        <v>-4.2373368303660897E-4</v>
+      </c>
+      <c r="J87" s="33">
+        <f>1.44/1000</f>
+        <v>1.4399999999999999E-3</v>
+      </c>
+      <c r="K87" s="1">
+        <v>5000</v>
+      </c>
+      <c r="L87" s="22">
+        <f>K87*J87</f>
+        <v>7.1999999999999993</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" s="31">
+        <v>2</v>
+      </c>
+      <c r="D88" s="31">
+        <v>7</v>
+      </c>
+      <c r="E88" s="28">
+        <v>355.8</v>
+      </c>
+      <c r="F88" s="31">
+        <v>2</v>
+      </c>
+      <c r="G88" s="31">
+        <v>6</v>
+      </c>
+      <c r="H88" s="26">
+        <v>355.78425539597202</v>
+      </c>
+      <c r="I88" s="32">
+        <f>H88/E88-1</f>
+        <v>-4.4251276076434642E-5</v>
+      </c>
+      <c r="J88" s="33">
+        <f>6.3/1000</f>
+        <v>6.3E-3</v>
+      </c>
+      <c r="K88" s="1">
+        <v>5000</v>
+      </c>
+      <c r="L88" s="22">
+        <f t="shared" ref="L88:L94" si="2">K88*J88</f>
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" s="31">
+        <v>2</v>
+      </c>
+      <c r="D89" s="31">
+        <v>24</v>
+      </c>
+      <c r="E89" s="28">
+        <v>195568</v>
+      </c>
+      <c r="F89" s="31">
+        <v>2</v>
+      </c>
+      <c r="G89" s="31">
+        <v>23</v>
+      </c>
+      <c r="H89" s="26">
+        <v>196858.32113137099</v>
+      </c>
+      <c r="I89" s="32">
+        <f>H89/E89-1</f>
+        <v>6.597813197307234E-3</v>
+      </c>
+      <c r="J89" s="1">
+        <f>5.11/1000</f>
+        <v>5.11E-3</v>
+      </c>
+      <c r="K89" s="1">
+        <v>5000</v>
+      </c>
+      <c r="L89" s="22">
+        <f t="shared" si="2"/>
+        <v>25.55</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" s="31">
+        <v>3</v>
+      </c>
+      <c r="D90" s="31">
+        <v>11</v>
+      </c>
+      <c r="E90" s="28">
+        <v>204335</v>
+      </c>
+      <c r="F90" s="31">
+        <v>3</v>
+      </c>
+      <c r="G90" s="31">
+        <v>11</v>
+      </c>
+      <c r="H90" s="26">
+        <v>204662.548526067</v>
+      </c>
+      <c r="I90" s="32">
+        <f t="shared" ref="I90:I94" si="3">H90/E90-1</f>
+        <v>1.6029976561382497E-3</v>
+      </c>
+      <c r="J90" s="33">
+        <f>7.85/1000</f>
+        <v>7.8499999999999993E-3</v>
+      </c>
+      <c r="K90" s="1">
+        <v>5000</v>
+      </c>
+      <c r="L90" s="22">
+        <f t="shared" si="2"/>
+        <v>39.25</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" s="31">
+        <v>2</v>
+      </c>
+      <c r="D91" s="31">
+        <v>8</v>
+      </c>
+      <c r="E91" s="28">
+        <v>842.9</v>
+      </c>
+      <c r="F91" s="31">
+        <v>2</v>
+      </c>
+      <c r="G91" s="31">
+        <v>8</v>
+      </c>
+      <c r="H91" s="26">
+        <v>839.83462799651102</v>
+      </c>
+      <c r="I91" s="32">
+        <f t="shared" si="3"/>
+        <v>-3.6366971212349331E-3</v>
+      </c>
+      <c r="J91" s="33">
+        <f>7.51/1000</f>
+        <v>7.5100000000000002E-3</v>
+      </c>
+      <c r="K91" s="1">
+        <v>5000</v>
+      </c>
+      <c r="L91" s="22">
+        <f t="shared" si="2"/>
+        <v>37.550000000000004</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" s="31">
+        <v>3</v>
+      </c>
+      <c r="D92" s="31">
+        <v>11</v>
+      </c>
+      <c r="E92" s="28">
+        <v>5809</v>
+      </c>
+      <c r="F92" s="31">
+        <v>4</v>
+      </c>
+      <c r="G92" s="31">
+        <v>10</v>
+      </c>
+      <c r="H92" s="26">
+        <v>5855.8642963226803</v>
+      </c>
+      <c r="I92" s="32">
+        <f t="shared" si="3"/>
+        <v>8.0675325051955404E-3</v>
+      </c>
+      <c r="J92" s="33">
+        <f>19.22/1000</f>
+        <v>1.9219999999999998E-2</v>
+      </c>
+      <c r="K92" s="1">
+        <v>5000</v>
+      </c>
+      <c r="L92" s="22">
+        <f t="shared" si="2"/>
+        <v>96.1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" s="31">
+        <v>3</v>
+      </c>
+      <c r="D93" s="31">
+        <v>11</v>
+      </c>
+      <c r="E93" s="28">
+        <v>44011.7</v>
+      </c>
+      <c r="F93" s="31">
+        <v>3</v>
+      </c>
+      <c r="G93" s="31">
+        <v>12</v>
+      </c>
+      <c r="H93" s="26">
+        <v>44737.320753963999</v>
+      </c>
+      <c r="I93" s="32">
+        <f t="shared" si="3"/>
+        <v>1.6486996729596859E-2</v>
+      </c>
+      <c r="J93" s="33">
+        <f>25/1000</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K93" s="1">
+        <v>5000</v>
+      </c>
+      <c r="L93" s="22">
+        <f t="shared" si="2"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" s="30">
+        <v>3</v>
+      </c>
+      <c r="D94" s="30">
+        <v>47</v>
+      </c>
+      <c r="E94" s="29">
+        <v>476684</v>
+      </c>
+      <c r="F94" s="30">
+        <v>3</v>
+      </c>
+      <c r="G94" s="30">
+        <v>46</v>
+      </c>
+      <c r="H94" s="25">
+        <v>485539.10257031699</v>
+      </c>
+      <c r="I94" s="32">
+        <f t="shared" si="3"/>
+        <v>1.8576462751669798E-2</v>
+      </c>
+      <c r="J94" s="33">
+        <f>21.26/1000</f>
+        <v>2.1260000000000001E-2</v>
+      </c>
+      <c r="K94" s="1">
+        <v>5000</v>
+      </c>
+      <c r="L94" s="22">
+        <f t="shared" si="2"/>
+        <v>106.30000000000001</v>
+      </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B97" s="6"/>
+      <c r="B97" s="5"/>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B98" s="6"/>
+      <c r="B98" s="5"/>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B99" s="6"/>
+      <c r="B99" s="5"/>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B100" s="6"/>
+      <c r="B100" s="5"/>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B101" s="6"/>
+      <c r="B101" s="5"/>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B102" s="6"/>
+      <c r="B102" s="5"/>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B103" s="6"/>
+      <c r="B103" s="5"/>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B104" s="6"/>
+      <c r="B104" s="5"/>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B105" s="6"/>
+      <c r="B105" s="5"/>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B106" s="6"/>
+      <c r="B106" s="5"/>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B107" s="6"/>
+      <c r="B107" s="5"/>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B108" s="6"/>
+      <c r="B108" s="5"/>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B109" s="6"/>
+      <c r="B109" s="5"/>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B110" s="6"/>
+      <c r="B110" s="5"/>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B111" s="6"/>
+      <c r="B111" s="5"/>
     </row>
     <row r="112" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B112" s="6"/>
+      <c r="B112" s="5"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B113" s="6"/>
+      <c r="B113" s="5"/>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B114" s="6"/>
+      <c r="B114" s="5"/>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B115" s="6"/>
+      <c r="B115" s="5"/>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B116" s="6"/>
+      <c r="B116" s="5"/>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B117" s="6"/>
+      <c r="B117" s="5"/>
     </row>
     <row r="118" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B118" s="6"/>
+      <c r="B118" s="5"/>
     </row>
     <row r="119" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B119" s="6"/>
+      <c r="B119" s="5"/>
     </row>
     <row r="120" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B120" s="6"/>
+      <c r="B120" s="5"/>
     </row>
     <row r="121" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B121" s="6"/>
+      <c r="B121" s="5"/>
     </row>
     <row r="122" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B122" s="6"/>
+      <c r="B122" s="5"/>
     </row>
     <row r="123" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B123" s="6"/>
+      <c r="B123" s="5"/>
     </row>
     <row r="124" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B124" s="6"/>
+      <c r="B124" s="5"/>
     </row>
     <row r="125" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B125" s="6"/>
+      <c r="B125" s="5"/>
     </row>
     <row r="126" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B126" s="6"/>
+      <c r="B126" s="5"/>
     </row>
     <row r="127" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B127" s="6"/>
+      <c r="B127" s="5"/>
     </row>
     <row r="128" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B128" s="6"/>
+      <c r="B128" s="5"/>
     </row>
     <row r="129" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B129" s="6"/>
+      <c r="B129" s="5"/>
     </row>
     <row r="130" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B130" s="6"/>
+      <c r="B130" s="5"/>
     </row>
     <row r="131" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B131" s="6"/>
+      <c r="B131" s="5"/>
     </row>
     <row r="132" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B132" s="6"/>
+      <c r="B132" s="5"/>
     </row>
     <row r="133" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B133" s="6"/>
+      <c r="B133" s="5"/>
     </row>
     <row r="134" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B134" s="6"/>
+      <c r="B134" s="5"/>
     </row>
     <row r="135" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B135" s="6"/>
+      <c r="B135" s="5"/>
     </row>
     <row r="136" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B136" s="6"/>
+      <c r="B136" s="5"/>
     </row>
     <row r="137" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B137" s="6"/>
+      <c r="B137" s="5"/>
     </row>
     <row r="138" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B138" s="6"/>
+      <c r="B138" s="5"/>
     </row>
     <row r="139" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B139" s="6"/>
+      <c r="B139" s="5"/>
     </row>
     <row r="140" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B140" s="6"/>
+      <c r="B140" s="5"/>
     </row>
     <row r="141" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B141" s="6"/>
+      <c r="B141" s="5"/>
     </row>
     <row r="142" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B142" s="6"/>
+      <c r="B142" s="5"/>
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B143" s="6"/>
+      <c r="B143" s="5"/>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B144" s="6"/>
+      <c r="B144" s="5"/>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B145" s="6"/>
+      <c r="B145" s="5"/>
     </row>
     <row r="146" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B146" s="6"/>
+      <c r="B146" s="5"/>
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B147" s="6"/>
+      <c r="B147" s="5"/>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B148" s="6"/>
+      <c r="B148" s="5"/>
     </row>
     <row r="149" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B149" s="6"/>
+      <c r="B149" s="5"/>
     </row>
     <row r="150" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B150" s="6"/>
+      <c r="B150" s="5"/>
     </row>
     <row r="151" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B151" s="6"/>
+      <c r="B151" s="5"/>
     </row>
     <row r="152" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B152" s="6"/>
+      <c r="B152" s="5"/>
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B153" s="6"/>
+      <c r="B153" s="5"/>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B154" s="6"/>
+      <c r="B154" s="5"/>
     </row>
     <row r="155" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B155" s="6"/>
+      <c r="B155" s="5"/>
     </row>
     <row r="156" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B156" s="6"/>
+      <c r="B156" s="5"/>
     </row>
     <row r="157" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B157" s="6"/>
+      <c r="B157" s="5"/>
     </row>
     <row r="158" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B158" s="6"/>
+      <c r="B158" s="5"/>
     </row>
     <row r="159" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B159" s="6"/>
+      <c r="B159" s="5"/>
     </row>
     <row r="160" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B160" s="6"/>
+      <c r="B160" s="5"/>
     </row>
     <row r="161" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B161" s="6"/>
+      <c r="B161" s="5"/>
     </row>
     <row r="162" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B162" s="6"/>
+      <c r="B162" s="5"/>
     </row>
     <row r="163" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B163" s="6"/>
+      <c r="B163" s="5"/>
     </row>
     <row r="164" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B164" s="6"/>
+      <c r="B164" s="5"/>
     </row>
     <row r="165" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B165" s="6"/>
+      <c r="B165" s="5"/>
     </row>
     <row r="166" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B166" s="6"/>
+      <c r="B166" s="5"/>
     </row>
     <row r="167" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B167" s="6"/>
+      <c r="B167" s="5"/>
     </row>
     <row r="168" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B168" s="6"/>
+      <c r="B168" s="5"/>
     </row>
     <row r="169" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B169" s="6"/>
+      <c r="B169" s="5"/>
     </row>
     <row r="170" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B170" s="6"/>
+      <c r="B170" s="5"/>
     </row>
     <row r="171" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B171" s="6"/>
+      <c r="B171" s="5"/>
     </row>
     <row r="172" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B172" s="6"/>
+      <c r="B172" s="5"/>
     </row>
     <row r="173" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B173" s="6"/>
+      <c r="B173" s="5"/>
     </row>
     <row r="174" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B174" s="6"/>
+      <c r="B174" s="5"/>
     </row>
     <row r="175" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B175" s="6"/>
+      <c r="B175" s="5"/>
     </row>
     <row r="176" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B176" s="6"/>
+      <c r="B176" s="5"/>
     </row>
     <row r="177" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B177" s="6"/>
+      <c r="B177" s="5"/>
     </row>
     <row r="178" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B178" s="6"/>
+      <c r="B178" s="5"/>
     </row>
     <row r="179" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B179" s="6"/>
+      <c r="B179" s="5"/>
     </row>
     <row r="180" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B180" s="6"/>
+      <c r="B180" s="5"/>
     </row>
     <row r="181" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B181" s="6"/>
+      <c r="B181" s="5"/>
     </row>
     <row r="182" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B182" s="6"/>
+      <c r="B182" s="5"/>
     </row>
     <row r="183" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B183" s="6"/>
+      <c r="B183" s="5"/>
     </row>
     <row r="184" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B184" s="6"/>
+      <c r="B184" s="5"/>
     </row>
     <row r="185" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B185" s="6"/>
+      <c r="B185" s="5"/>
     </row>
     <row r="186" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B186" s="6"/>
+      <c r="B186" s="5"/>
     </row>
     <row r="187" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B187" s="6"/>
+      <c r="B187" s="5"/>
     </row>
     <row r="188" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B188" s="6"/>
+      <c r="B188" s="5"/>
     </row>
     <row r="189" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B189" s="6"/>
+      <c r="B189" s="5"/>
     </row>
     <row r="190" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B190" s="6"/>
+      <c r="B190" s="5"/>
     </row>
     <row r="191" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B191" s="6"/>
+      <c r="B191" s="5"/>
     </row>
     <row r="192" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B192" s="6"/>
+      <c r="B192" s="5"/>
     </row>
     <row r="193" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B193" s="6"/>
+      <c r="B193" s="5"/>
     </row>
     <row r="194" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B194" s="6"/>
+      <c r="B194" s="5"/>
     </row>
     <row r="195" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B195" s="6"/>
+      <c r="B195" s="5"/>
     </row>
     <row r="196" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B196" s="6"/>
+      <c r="B196" s="5"/>
     </row>
     <row r="197" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B197" s="6"/>
+      <c r="B197" s="5"/>
     </row>
     <row r="198" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B198" s="6"/>
+      <c r="B198" s="5"/>
     </row>
     <row r="199" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B199" s="6"/>
+      <c r="B199" s="5"/>
     </row>
     <row r="200" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B200" s="6"/>
+      <c r="B200" s="5"/>
     </row>
     <row r="201" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B201" s="6"/>
+      <c r="B201" s="5"/>
     </row>
     <row r="202" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B202" s="6"/>
+      <c r="B202" s="5"/>
     </row>
     <row r="203" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B203" s="6"/>
+      <c r="B203" s="5"/>
     </row>
     <row r="204" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B204" s="6"/>
+      <c r="B204" s="5"/>
     </row>
     <row r="205" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B205" s="6"/>
+      <c r="B205" s="5"/>
     </row>
     <row r="206" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B206" s="6"/>
+      <c r="B206" s="5"/>
     </row>
     <row r="207" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B207" s="6"/>
+      <c r="B207" s="5"/>
     </row>
     <row r="208" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B208" s="6"/>
+      <c r="B208" s="5"/>
     </row>
     <row r="209" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B209" s="6"/>
+      <c r="B209" s="5"/>
     </row>
     <row r="210" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B210" s="6"/>
+      <c r="B210" s="5"/>
     </row>
     <row r="211" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B211" s="6"/>
+      <c r="B211" s="5"/>
     </row>
     <row r="212" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B212" s="6"/>
+      <c r="B212" s="5"/>
     </row>
     <row r="213" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B213" s="6"/>
+      <c r="B213" s="5"/>
     </row>
     <row r="214" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B214" s="6"/>
+      <c r="B214" s="5"/>
     </row>
     <row r="215" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B215" s="6"/>
+      <c r="B215" s="5"/>
     </row>
     <row r="216" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B216" s="6"/>
+      <c r="B216" s="5"/>
     </row>
     <row r="217" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B217" s="6"/>
+      <c r="B217" s="5"/>
     </row>
     <row r="218" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B218" s="6"/>
+      <c r="B218" s="5"/>
     </row>
     <row r="219" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B219" s="6"/>
+      <c r="B219" s="5"/>
     </row>
     <row r="220" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B220" s="6"/>
+      <c r="B220" s="5"/>
     </row>
     <row r="221" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B221" s="6"/>
+      <c r="B221" s="5"/>
     </row>
     <row r="222" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B222" s="6"/>
+      <c r="B222" s="5"/>
     </row>
     <row r="223" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B223" s="6"/>
+      <c r="B223" s="5"/>
     </row>
     <row r="224" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B224" s="6"/>
+      <c r="B224" s="5"/>
     </row>
     <row r="225" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B225" s="6"/>
+      <c r="B225" s="5"/>
     </row>
     <row r="226" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B226" s="6"/>
+      <c r="B226" s="5"/>
     </row>
     <row r="227" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B227" s="6"/>
+      <c r="B227" s="5"/>
     </row>
     <row r="228" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B228" s="6"/>
+      <c r="B228" s="5"/>
     </row>
     <row r="229" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B229" s="6"/>
+      <c r="B229" s="5"/>
     </row>
     <row r="230" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B230" s="6"/>
+      <c r="B230" s="5"/>
     </row>
     <row r="231" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B231" s="6"/>
+      <c r="B231" s="5"/>
     </row>
     <row r="232" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B232" s="6"/>
+      <c r="B232" s="5"/>
     </row>
     <row r="233" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B233" s="6"/>
+      <c r="B233" s="5"/>
     </row>
     <row r="234" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B234" s="6"/>
+      <c r="B234" s="5"/>
     </row>
     <row r="235" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B235" s="6"/>
+      <c r="B235" s="5"/>
     </row>
     <row r="236" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B236" s="6"/>
+      <c r="B236" s="5"/>
     </row>
     <row r="237" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B237" s="6"/>
+      <c r="B237" s="5"/>
     </row>
     <row r="238" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B238" s="6"/>
+      <c r="B238" s="5"/>
     </row>
     <row r="239" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B239" s="6"/>
+      <c r="B239" s="5"/>
     </row>
     <row r="240" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B240" s="6"/>
+      <c r="B240" s="5"/>
     </row>
     <row r="241" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B241" s="6"/>
+      <c r="B241" s="5"/>
     </row>
     <row r="242" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B242" s="6"/>
+      <c r="B242" s="5"/>
     </row>
     <row r="243" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B243" s="6"/>
+      <c r="B243" s="5"/>
     </row>
     <row r="244" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B244" s="6"/>
+      <c r="B244" s="5"/>
     </row>
     <row r="245" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B245" s="6"/>
+      <c r="B245" s="5"/>
     </row>
     <row r="246" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B246" s="6"/>
+      <c r="B246" s="5"/>
     </row>
     <row r="247" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B247" s="6"/>
+      <c r="B247" s="5"/>
     </row>
     <row r="248" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B248" s="6"/>
+      <c r="B248" s="5"/>
     </row>
     <row r="249" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B249" s="6"/>
+      <c r="B249" s="5"/>
     </row>
     <row r="250" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B250" s="6"/>
+      <c r="B250" s="5"/>
     </row>
     <row r="251" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B251" s="6"/>
+      <c r="B251" s="5"/>
     </row>
     <row r="252" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B252" s="6"/>
+      <c r="B252" s="5"/>
     </row>
     <row r="253" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B253" s="6"/>
+      <c r="B253" s="5"/>
     </row>
     <row r="254" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B254" s="6"/>
+      <c r="B254" s="5"/>
     </row>
     <row r="255" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B255" s="6"/>
+      <c r="B255" s="5"/>
     </row>
     <row r="256" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B256" s="6"/>
+      <c r="B256" s="5"/>
     </row>
     <row r="257" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B257" s="6"/>
+      <c r="B257" s="5"/>
     </row>
     <row r="258" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B258" s="6"/>
+      <c r="B258" s="5"/>
     </row>
     <row r="259" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B259" s="6"/>
+      <c r="B259" s="5"/>
     </row>
     <row r="260" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B260" s="6"/>
+      <c r="B260" s="5"/>
     </row>
     <row r="261" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B261" s="6"/>
+      <c r="B261" s="5"/>
     </row>
     <row r="262" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B262" s="6"/>
+      <c r="B262" s="5"/>
     </row>
     <row r="263" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B263" s="6"/>
+      <c r="B263" s="5"/>
     </row>
     <row r="264" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B264" s="6"/>
+      <c r="B264" s="5"/>
     </row>
     <row r="265" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B265" s="6"/>
+      <c r="B265" s="5"/>
     </row>
     <row r="266" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B266" s="6"/>
+      <c r="B266" s="5"/>
     </row>
     <row r="267" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B267" s="6"/>
+      <c r="B267" s="5"/>
     </row>
     <row r="268" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B268" s="6"/>
+      <c r="B268" s="5"/>
     </row>
     <row r="269" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B269" s="6"/>
+      <c r="B269" s="5"/>
     </row>
     <row r="270" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B270" s="6"/>
+      <c r="B270" s="5"/>
     </row>
     <row r="271" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B271" s="6"/>
+      <c r="B271" s="5"/>
     </row>
     <row r="272" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B272" s="6"/>
+      <c r="B272" s="5"/>
     </row>
     <row r="273" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B273" s="6"/>
+      <c r="B273" s="5"/>
     </row>
     <row r="274" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B274" s="6"/>
+      <c r="B274" s="5"/>
     </row>
     <row r="275" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B275" s="6"/>
+      <c r="B275" s="5"/>
     </row>
     <row r="276" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B276" s="6"/>
+      <c r="B276" s="5"/>
     </row>
     <row r="277" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B277" s="6"/>
+      <c r="B277" s="5"/>
     </row>
     <row r="278" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B278" s="6"/>
+      <c r="B278" s="5"/>
     </row>
     <row r="279" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B279" s="6"/>
+      <c r="B279" s="5"/>
     </row>
     <row r="280" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B280" s="6"/>
+      <c r="B280" s="5"/>
     </row>
     <row r="281" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B281" s="6"/>
+      <c r="B281" s="5"/>
     </row>
     <row r="282" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B282" s="6"/>
+      <c r="B282" s="5"/>
     </row>
     <row r="283" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B283" s="6"/>
+      <c r="B283" s="5"/>
     </row>
     <row r="284" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B284" s="6"/>
+      <c r="B284" s="5"/>
     </row>
     <row r="285" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B285" s="6"/>
+      <c r="B285" s="5"/>
     </row>
     <row r="286" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B286" s="6"/>
+      <c r="B286" s="5"/>
     </row>
     <row r="287" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B287" s="6"/>
+      <c r="B287" s="5"/>
+    </row>
+    <row r="288" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B288" s="5"/>
+    </row>
+    <row r="289" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B289" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="C69:E69"/>
     <mergeCell ref="F69:H69"/>
+    <mergeCell ref="C83:E83"/>
+    <mergeCell ref="F83:H83"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research\dev\LRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B85E266-9F99-4EA8-B025-ECB3727CCEB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927505F8-7DC8-47F1-94E6-A87D659AF386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -274,9 +274,6 @@
     <t>Initializtion</t>
   </si>
   <si>
-    <t>:cluster, :random, :savings</t>
-  </si>
-  <si>
     <t>Benchmark</t>
   </si>
   <si>
@@ -316,6 +313,9 @@
   </si>
   <si>
     <t>                    :swapcustomers! ,</t>
+  </si>
+  <si>
+    <t>:cluster, :random</t>
   </si>
 </sst>
 </file>
@@ -596,6 +596,21 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -605,21 +620,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -903,8 +903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5551421D-4FE7-47B7-A546-15E7A05240A9}">
   <dimension ref="A1:N289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S89" sqref="S89"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -1100,7 +1100,7 @@
       </c>
       <c r="B16" s="18"/>
       <c r="C16" s="20" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1471,31 +1471,31 @@
     </row>
     <row r="49" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B49" s="8"/>
     </row>
     <row r="50" spans="1:14" ht="14" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B50" s="8"/>
     </row>
     <row r="51" spans="1:14" ht="14" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B51" s="8"/>
     </row>
     <row r="52" spans="1:14" ht="14" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B52" s="8"/>
     </row>
     <row r="53" spans="1:14" ht="14" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B53" s="8"/>
     </row>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="67" spans="1:14" ht="14" x14ac:dyDescent="0.3">
       <c r="A67" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -1664,123 +1664,123 @@
       <c r="N67" s="8"/>
     </row>
     <row r="68" spans="1:14" ht="14" x14ac:dyDescent="0.3">
-      <c r="A68" s="23" t="s">
+      <c r="A68" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B68" s="23" t="s">
+      <c r="B68" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C68" s="23" t="s">
+      <c r="C68" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="D68" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="E68" s="34"/>
+      <c r="F68" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="G68" s="34"/>
+      <c r="H68" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="D68" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="E68" s="25"/>
-      <c r="F68" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="G68" s="25"/>
-      <c r="H68" s="32" t="s">
+      <c r="I68" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="J68" s="30" t="s">
         <v>81</v>
-      </c>
-      <c r="I68" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="J68" s="32" t="s">
-        <v>82</v>
       </c>
       <c r="M68" s="8"/>
       <c r="N68" s="8"/>
     </row>
     <row r="69" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="26"/>
-      <c r="B69" s="26"/>
-      <c r="C69" s="26"/>
-      <c r="D69" s="27" t="s">
+      <c r="A69" s="31"/>
+      <c r="B69" s="31"/>
+      <c r="C69" s="31"/>
+      <c r="D69" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="E69" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="E69" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="F69" s="27" t="s">
+      <c r="F69" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="G69" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="G69" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="H69" s="26"/>
-      <c r="I69" s="26"/>
-      <c r="J69" s="26"/>
+      <c r="H69" s="31"/>
+      <c r="I69" s="31"/>
+      <c r="J69" s="31"/>
       <c r="N69" s="8"/>
     </row>
     <row r="70" spans="1:14" ht="14" x14ac:dyDescent="0.3">
-      <c r="A70" s="28" t="s">
+      <c r="A70" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="B70" s="28"/>
-      <c r="C70" s="30">
+      <c r="B70" s="24"/>
+      <c r="C70" s="26">
         <v>54793</v>
       </c>
-      <c r="D70" s="30">
+      <c r="D70" s="26">
         <v>55007.766131798599</v>
       </c>
-      <c r="E70" s="30">
+      <c r="E70" s="26">
         <v>55253.297497899897</v>
       </c>
-      <c r="F70" s="29">
+      <c r="F70" s="25">
         <f>D70 / C70 -1</f>
         <v>3.9195906739655229E-3</v>
       </c>
-      <c r="G70" s="29">
+      <c r="G70" s="25">
         <f>E70 / C70 -1</f>
         <v>8.4006624550563291E-3</v>
       </c>
-      <c r="H70" s="33">
+      <c r="H70" s="28">
         <f>0.504/1000</f>
         <v>5.04E-4</v>
       </c>
-      <c r="I70" s="28">
+      <c r="I70" s="24">
         <v>5000</v>
       </c>
-      <c r="J70" s="28">
+      <c r="J70" s="24">
         <f>H70 * I70</f>
         <v>2.52</v>
       </c>
-      <c r="K70" s="34"/>
+      <c r="K70" s="29"/>
       <c r="M70" s="8"/>
       <c r="N70" s="8"/>
     </row>
     <row r="71" spans="1:14" ht="14" x14ac:dyDescent="0.3">
-      <c r="A71" s="28" t="s">
+      <c r="A71" s="24" t="s">
         <v>58</v>
       </c>
       <c r="B71" s="16"/>
-      <c r="C71" s="31">
+      <c r="C71" s="27">
         <v>460.4</v>
       </c>
-      <c r="D71" s="30">
+      <c r="D71" s="26">
         <v>460.37420333846802</v>
       </c>
-      <c r="E71" s="30">
+      <c r="E71" s="26">
         <v>470.21526842463101</v>
       </c>
-      <c r="F71" s="29">
+      <c r="F71" s="25">
         <f t="shared" ref="F71:F79" si="0">D71 / C71 -1</f>
         <v>-5.6030976394394472E-5</v>
       </c>
-      <c r="G71" s="29">
+      <c r="G71" s="25">
         <f t="shared" ref="G71:G79" si="1">E71 / C71 -1</f>
         <v>2.1319001791118675E-2</v>
       </c>
-      <c r="H71" s="33">
+      <c r="H71" s="28">
         <f>0.948/1000</f>
         <v>9.4799999999999995E-4</v>
       </c>
-      <c r="I71" s="28">
+      <c r="I71" s="24">
         <v>5000</v>
       </c>
-      <c r="J71" s="28">
+      <c r="J71" s="24">
         <f t="shared" ref="J71:J79" si="2">H71 * I71</f>
         <v>4.7399999999999993</v>
       </c>
@@ -1788,645 +1788,645 @@
       <c r="N71" s="8"/>
     </row>
     <row r="72" spans="1:14" ht="14" x14ac:dyDescent="0.3">
-      <c r="A72" s="28" t="s">
+      <c r="A72" s="24" t="s">
         <v>55</v>
       </c>
       <c r="B72" s="16"/>
-      <c r="C72" s="31">
+      <c r="C72" s="27">
         <v>63242</v>
       </c>
-      <c r="D72" s="30">
+      <c r="D72" s="26">
         <v>63215.202232399803</v>
       </c>
-      <c r="E72" s="30">
+      <c r="E72" s="26">
         <v>64154.958202597001</v>
       </c>
-      <c r="F72" s="29">
+      <c r="F72" s="25">
         <f t="shared" si="0"/>
         <v>-4.2373371493942269E-4</v>
       </c>
-      <c r="G72" s="29">
+      <c r="G72" s="25">
         <f t="shared" si="1"/>
         <v>1.443594767080425E-2</v>
       </c>
-      <c r="H72" s="33">
+      <c r="H72" s="28">
         <f>1.598/1000</f>
         <v>1.598E-3</v>
       </c>
-      <c r="I72" s="28">
+      <c r="I72" s="24">
         <v>5000</v>
       </c>
-      <c r="J72" s="28">
+      <c r="J72" s="24">
         <f t="shared" si="2"/>
         <v>7.99</v>
       </c>
-      <c r="K72" s="34"/>
+      <c r="K72" s="29"/>
       <c r="M72" s="8"/>
       <c r="N72" s="8"/>
     </row>
     <row r="73" spans="1:14" ht="14" x14ac:dyDescent="0.3">
-      <c r="A73" s="28" t="s">
+      <c r="A73" s="24" t="s">
         <v>59</v>
       </c>
       <c r="B73" s="16"/>
-      <c r="C73" s="31">
+      <c r="C73" s="27">
         <v>355.8</v>
       </c>
-      <c r="D73" s="30">
+      <c r="D73" s="26">
         <v>359.73514667858302</v>
       </c>
-      <c r="E73" s="30">
+      <c r="E73" s="26">
         <v>381.40958256293402</v>
       </c>
-      <c r="F73" s="29">
+      <c r="F73" s="25">
         <f t="shared" si="0"/>
         <v>1.1059996286068019E-2</v>
       </c>
-      <c r="G73" s="29">
+      <c r="G73" s="25">
         <f t="shared" si="1"/>
         <v>7.1977466450067418E-2</v>
       </c>
-      <c r="H73" s="33">
+      <c r="H73" s="28">
         <f>5.816/1000</f>
         <v>5.816E-3</v>
       </c>
-      <c r="I73" s="28">
+      <c r="I73" s="24">
         <v>5000</v>
       </c>
-      <c r="J73" s="28">
+      <c r="J73" s="24">
         <f t="shared" si="2"/>
         <v>29.08</v>
       </c>
-      <c r="K73" s="34"/>
+      <c r="K73" s="29"/>
       <c r="M73" s="8"/>
       <c r="N73" s="8"/>
     </row>
     <row r="74" spans="1:14" ht="14" x14ac:dyDescent="0.3">
-      <c r="A74" s="28" t="s">
+      <c r="A74" s="24" t="s">
         <v>56</v>
       </c>
       <c r="B74" s="16"/>
-      <c r="C74" s="31">
+      <c r="C74" s="27">
         <v>195568</v>
       </c>
-      <c r="D74" s="30">
+      <c r="D74" s="26">
         <v>196785.86524049699</v>
       </c>
-      <c r="E74" s="30">
+      <c r="E74" s="26">
         <v>201311.52312777101</v>
       </c>
-      <c r="F74" s="29">
+      <c r="F74" s="25">
         <f t="shared" si="0"/>
         <v>6.2273236955789901E-3</v>
       </c>
-      <c r="G74" s="29">
+      <c r="G74" s="25">
         <f t="shared" si="1"/>
         <v>2.9368419822113134E-2</v>
       </c>
-      <c r="H74" s="33">
+      <c r="H74" s="28">
         <f>5.468/1000</f>
         <v>5.4679999999999998E-3</v>
       </c>
-      <c r="I74" s="28">
+      <c r="I74" s="24">
         <v>5000</v>
       </c>
-      <c r="J74" s="28">
+      <c r="J74" s="24">
         <f t="shared" si="2"/>
         <v>27.34</v>
       </c>
-      <c r="K74" s="34"/>
+      <c r="K74" s="29"/>
       <c r="M74" s="8"/>
       <c r="N74" s="8"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A75" s="28" t="s">
+      <c r="A75" s="24" t="s">
         <v>57</v>
       </c>
       <c r="B75" s="16"/>
-      <c r="C75" s="31">
+      <c r="C75" s="27">
         <v>204335</v>
       </c>
-      <c r="D75" s="30">
+      <c r="D75" s="26">
         <v>205261.182074101</v>
       </c>
-      <c r="E75" s="30">
+      <c r="E75" s="26">
         <v>249758.10530869701</v>
       </c>
-      <c r="F75" s="29">
+      <c r="F75" s="25">
         <f t="shared" si="0"/>
         <v>4.5326648596715202E-3</v>
       </c>
-      <c r="G75" s="29">
+      <c r="G75" s="25">
         <f t="shared" si="1"/>
         <v>0.2222972339966085</v>
       </c>
-      <c r="H75" s="33">
+      <c r="H75" s="28">
         <f>8.26/1000</f>
         <v>8.26E-3</v>
       </c>
-      <c r="I75" s="28">
+      <c r="I75" s="24">
         <v>5000</v>
       </c>
-      <c r="J75" s="28">
+      <c r="J75" s="24">
         <f t="shared" si="2"/>
         <v>41.3</v>
       </c>
-      <c r="K75" s="34"/>
+      <c r="K75" s="29"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A76" s="28" t="s">
+      <c r="A76" s="24" t="s">
         <v>60</v>
       </c>
       <c r="B76" s="16"/>
-      <c r="C76" s="31">
+      <c r="C76" s="27">
         <v>842.9</v>
       </c>
-      <c r="D76" s="30">
+      <c r="D76" s="26">
         <v>839.834627998987</v>
       </c>
-      <c r="E76" s="30">
+      <c r="E76" s="26">
         <v>891.42651602552598</v>
       </c>
-      <c r="F76" s="29">
+      <c r="F76" s="25">
         <f t="shared" si="0"/>
         <v>-3.636697118297505E-3</v>
       </c>
-      <c r="G76" s="29">
+      <c r="G76" s="25">
         <f t="shared" si="1"/>
         <v>5.7570905238493397E-2</v>
       </c>
-      <c r="H76" s="33">
+      <c r="H76" s="28">
         <f>6.915/1000</f>
         <v>6.9150000000000001E-3</v>
       </c>
-      <c r="I76" s="28">
+      <c r="I76" s="24">
         <v>5000</v>
       </c>
-      <c r="J76" s="28">
+      <c r="J76" s="24">
         <f t="shared" si="2"/>
         <v>34.575000000000003</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A77" s="28" t="s">
+      <c r="A77" s="24" t="s">
         <v>61</v>
       </c>
       <c r="B77" s="16"/>
-      <c r="C77" s="31">
+      <c r="C77" s="27">
         <v>5809</v>
       </c>
-      <c r="D77" s="30">
+      <c r="D77" s="26">
         <v>5854.1468545998796</v>
       </c>
-      <c r="E77" s="30">
+      <c r="E77" s="26">
         <v>6057.1164794064398</v>
       </c>
-      <c r="F77" s="29">
+      <c r="F77" s="25">
         <f t="shared" si="0"/>
         <v>7.7718806334790003E-3</v>
       </c>
-      <c r="G77" s="29">
+      <c r="G77" s="25">
         <f t="shared" si="1"/>
         <v>4.2712425444386248E-2</v>
       </c>
-      <c r="H77" s="33">
+      <c r="H77" s="28">
         <f>17.572/1000</f>
         <v>1.7572000000000001E-2</v>
       </c>
-      <c r="I77" s="28">
+      <c r="I77" s="24">
         <v>5000</v>
       </c>
-      <c r="J77" s="28">
+      <c r="J77" s="24">
         <f t="shared" si="2"/>
         <v>87.86</v>
       </c>
-      <c r="K77" s="34"/>
+      <c r="K77" s="29"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A78" s="28" t="s">
+      <c r="A78" s="24" t="s">
         <v>63</v>
       </c>
       <c r="B78" s="16"/>
-      <c r="C78" s="31">
+      <c r="C78" s="27">
         <v>44011.7</v>
       </c>
-      <c r="D78" s="30">
+      <c r="D78" s="26">
         <v>44658.276402209201</v>
       </c>
-      <c r="E78" s="30">
+      <c r="E78" s="26">
         <v>46924.906747487199</v>
       </c>
-      <c r="F78" s="29">
+      <c r="F78" s="25">
         <f t="shared" si="0"/>
         <v>1.4691011758446226E-2</v>
       </c>
-      <c r="G78" s="29">
+      <c r="G78" s="25">
         <f t="shared" si="1"/>
         <v>6.6191643301376724E-2</v>
       </c>
-      <c r="H78" s="33">
+      <c r="H78" s="28">
         <f>23.046/1000</f>
         <v>2.3046000000000001E-2</v>
       </c>
-      <c r="I78" s="28">
+      <c r="I78" s="24">
         <v>5000</v>
       </c>
-      <c r="J78" s="28">
+      <c r="J78" s="24">
         <f t="shared" si="2"/>
         <v>115.23</v>
       </c>
-      <c r="K78" s="34"/>
+      <c r="K78" s="29"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" s="16" t="s">
         <v>62</v>
       </c>
       <c r="B79" s="16"/>
-      <c r="C79" s="31">
+      <c r="C79" s="27">
         <v>476684</v>
       </c>
-      <c r="D79" s="30">
+      <c r="D79" s="26">
         <v>484113.753320786</v>
       </c>
-      <c r="E79" s="30">
+      <c r="E79" s="26">
         <v>569490.56154479599</v>
       </c>
-      <c r="F79" s="29">
+      <c r="F79" s="25">
         <f t="shared" si="0"/>
         <v>1.5586328302997332E-2</v>
       </c>
-      <c r="G79" s="29">
+      <c r="G79" s="25">
         <f t="shared" si="1"/>
         <v>0.19469200045480028</v>
       </c>
-      <c r="H79" s="33">
+      <c r="H79" s="28">
         <f>24.92/1000</f>
         <v>2.4920000000000001E-2</v>
       </c>
-      <c r="I79" s="28">
+      <c r="I79" s="24">
         <v>5000</v>
       </c>
-      <c r="J79" s="28">
+      <c r="J79" s="24">
         <f t="shared" si="2"/>
         <v>124.60000000000001</v>
       </c>
-      <c r="K79" s="34"/>
+      <c r="K79" s="29"/>
     </row>
     <row r="81" spans="1:10" ht="14" x14ac:dyDescent="0.3">
       <c r="A81" s="22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A82" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="D82" s="33" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A82" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B82" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C82" s="23" t="s">
+      <c r="E82" s="34"/>
+      <c r="F82" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="G82" s="34"/>
+      <c r="H82" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="D82" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="E82" s="25"/>
-      <c r="F82" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="G82" s="25"/>
-      <c r="H82" s="32" t="s">
+      <c r="I82" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="J82" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="I82" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="J82" s="32" t="s">
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A83" s="31"/>
+      <c r="B83" s="31"/>
+      <c r="C83" s="31"/>
+      <c r="D83" s="23" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A83" s="26"/>
-      <c r="B83" s="26"/>
-      <c r="C83" s="26"/>
-      <c r="D83" s="27" t="s">
+      <c r="E83" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="E83" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="F83" s="27" t="s">
+      <c r="F83" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="G83" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="G83" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="H83" s="26"/>
-      <c r="I83" s="26"/>
-      <c r="J83" s="26"/>
+      <c r="H83" s="31"/>
+      <c r="I83" s="31"/>
+      <c r="J83" s="31"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A84" s="28" t="s">
+      <c r="A84" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="B84" s="28"/>
-      <c r="C84" s="30">
+      <c r="B84" s="24"/>
+      <c r="C84" s="26">
         <v>54793</v>
       </c>
-      <c r="D84" s="30">
+      <c r="D84" s="26">
         <v>54778.4416451996</v>
       </c>
-      <c r="E84" s="30">
+      <c r="E84" s="26">
         <v>56652.9158534952</v>
       </c>
-      <c r="F84" s="29">
+      <c r="F84" s="25">
         <f>D84 / C84 -1</f>
         <v>-2.6569734820869328E-4</v>
       </c>
-      <c r="G84" s="29">
+      <c r="G84" s="25">
         <f>E84 / C84 -1</f>
         <v>3.3944406283561879E-2</v>
       </c>
-      <c r="H84" s="33">
+      <c r="H84" s="28">
         <f>0.508/1000</f>
         <v>5.0799999999999999E-4</v>
       </c>
-      <c r="I84" s="28">
+      <c r="I84" s="24">
         <v>5000</v>
       </c>
-      <c r="J84" s="28">
+      <c r="J84" s="24">
         <f>H84 * I84</f>
         <v>2.54</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A85" s="28" t="s">
+      <c r="A85" s="24" t="s">
         <v>58</v>
       </c>
       <c r="B85" s="16"/>
-      <c r="C85" s="31">
+      <c r="C85" s="27">
         <v>460.4</v>
       </c>
-      <c r="D85" s="30">
+      <c r="D85" s="26">
         <v>460.374203338455</v>
       </c>
-      <c r="E85" s="30">
+      <c r="E85" s="26">
         <v>473.00942270463503</v>
       </c>
-      <c r="F85" s="29">
+      <c r="F85" s="25">
         <f t="shared" ref="F85:F93" si="3">D85 / C85 -1</f>
         <v>-5.6030976422594136E-5</v>
       </c>
-      <c r="G85" s="29">
+      <c r="G85" s="25">
         <f t="shared" ref="G85:G93" si="4">E85 / C85 -1</f>
         <v>2.7387972859763465E-2</v>
       </c>
-      <c r="H85" s="33">
+      <c r="H85" s="28">
         <f>0.886/1000</f>
         <v>8.8599999999999996E-4</v>
       </c>
-      <c r="I85" s="28">
+      <c r="I85" s="24">
         <v>5000</v>
       </c>
-      <c r="J85" s="28">
+      <c r="J85" s="24">
         <f t="shared" ref="J85:J93" si="5">H85 * I85</f>
         <v>4.43</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A86" s="28" t="s">
+      <c r="A86" s="24" t="s">
         <v>55</v>
       </c>
       <c r="B86" s="16"/>
-      <c r="C86" s="31">
+      <c r="C86" s="27">
         <v>63242</v>
       </c>
-      <c r="D86" s="30">
+      <c r="D86" s="26">
         <v>63215.202232393</v>
       </c>
-      <c r="E86" s="30">
+      <c r="E86" s="26">
         <v>64318.979376390402</v>
       </c>
-      <c r="F86" s="29">
+      <c r="F86" s="25">
         <f t="shared" si="3"/>
         <v>-4.237337150470033E-4</v>
       </c>
-      <c r="G86" s="29">
+      <c r="G86" s="25">
         <f t="shared" si="4"/>
         <v>1.7029495847544318E-2</v>
       </c>
-      <c r="H86" s="33">
+      <c r="H86" s="28">
         <f>1.73/1000</f>
         <v>1.73E-3</v>
       </c>
-      <c r="I86" s="28">
+      <c r="I86" s="24">
         <v>5000</v>
       </c>
-      <c r="J86" s="28">
+      <c r="J86" s="24">
         <f t="shared" si="5"/>
         <v>8.65</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A87" s="28" t="s">
+      <c r="A87" s="24" t="s">
         <v>59</v>
       </c>
       <c r="B87" s="16"/>
-      <c r="C87" s="31">
+      <c r="C87" s="27">
         <v>355.8</v>
       </c>
-      <c r="D87" s="30">
+      <c r="D87" s="26">
         <v>358.95092021790799</v>
       </c>
-      <c r="E87" s="30">
+      <c r="E87" s="26">
         <v>379.01249162482202</v>
       </c>
-      <c r="F87" s="29">
+      <c r="F87" s="25">
         <f t="shared" si="3"/>
         <v>8.855874699010613E-3</v>
       </c>
-      <c r="G87" s="29">
+      <c r="G87" s="25">
         <f t="shared" si="4"/>
         <v>6.5240280002310413E-2</v>
       </c>
-      <c r="H87" s="33">
+      <c r="H87" s="28">
         <f>5.722/1000</f>
         <v>5.7220000000000005E-3</v>
       </c>
-      <c r="I87" s="28">
+      <c r="I87" s="24">
         <v>5000</v>
       </c>
-      <c r="J87" s="28">
+      <c r="J87" s="24">
         <f t="shared" si="5"/>
         <v>28.610000000000003</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A88" s="28" t="s">
+      <c r="A88" s="24" t="s">
         <v>56</v>
       </c>
       <c r="B88" s="16"/>
-      <c r="C88" s="31">
+      <c r="C88" s="27">
         <v>195568</v>
       </c>
-      <c r="D88" s="30">
+      <c r="D88" s="26">
         <v>197054.978790694</v>
       </c>
-      <c r="E88" s="30">
+      <c r="E88" s="26">
         <v>198334.624342795</v>
       </c>
-      <c r="F88" s="29">
+      <c r="F88" s="25">
         <f t="shared" si="3"/>
         <v>7.6033849642784812E-3</v>
       </c>
-      <c r="G88" s="29">
+      <c r="G88" s="25">
         <f t="shared" si="4"/>
         <v>1.4146610604981458E-2</v>
       </c>
-      <c r="H88" s="33">
+      <c r="H88" s="28">
         <f>5.462/1000</f>
         <v>5.4619999999999998E-3</v>
       </c>
-      <c r="I88" s="28">
+      <c r="I88" s="24">
         <v>5000</v>
       </c>
-      <c r="J88" s="28">
+      <c r="J88" s="24">
         <f t="shared" si="5"/>
         <v>27.31</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A89" s="28" t="s">
+      <c r="A89" s="24" t="s">
         <v>57</v>
       </c>
       <c r="B89" s="16"/>
-      <c r="C89" s="31">
+      <c r="C89" s="27">
         <v>204335</v>
       </c>
-      <c r="D89" s="30">
+      <c r="D89" s="26">
         <v>204334.74226810399</v>
       </c>
-      <c r="E89" s="30">
+      <c r="E89" s="26">
         <v>249640.33456489601</v>
       </c>
-      <c r="F89" s="29">
+      <c r="F89" s="25">
         <f t="shared" si="3"/>
         <v>-1.2613203612676926E-6</v>
       </c>
-      <c r="G89" s="29">
+      <c r="G89" s="25">
         <f t="shared" si="4"/>
         <v>0.22172087290427989</v>
       </c>
-      <c r="H89" s="33">
+      <c r="H89" s="28">
         <f>8.048/1000</f>
         <v>8.0479999999999996E-3</v>
       </c>
-      <c r="I89" s="28">
+      <c r="I89" s="24">
         <v>5000</v>
       </c>
-      <c r="J89" s="28">
+      <c r="J89" s="24">
         <f t="shared" si="5"/>
         <v>40.239999999999995</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A90" s="28" t="s">
+      <c r="A90" s="24" t="s">
         <v>60</v>
       </c>
       <c r="B90" s="16"/>
-      <c r="C90" s="31">
+      <c r="C90" s="27">
         <v>842.9</v>
       </c>
-      <c r="D90" s="30">
+      <c r="D90" s="26">
         <v>875.12801664702499</v>
       </c>
-      <c r="E90" s="30">
+      <c r="E90" s="26">
         <v>885.18651346707202</v>
       </c>
-      <c r="F90" s="29">
+      <c r="F90" s="25">
         <f t="shared" si="3"/>
         <v>3.8234685783633982E-2</v>
       </c>
-      <c r="G90" s="29">
+      <c r="G90" s="25">
         <f t="shared" si="4"/>
         <v>5.0167888797095772E-2</v>
       </c>
-      <c r="H90" s="33">
+      <c r="H90" s="28">
         <f>6.544/1000</f>
         <v>6.5439999999999995E-3</v>
       </c>
-      <c r="I90" s="28">
+      <c r="I90" s="24">
         <v>5000</v>
       </c>
-      <c r="J90" s="28">
+      <c r="J90" s="24">
         <f t="shared" si="5"/>
         <v>32.72</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A91" s="28" t="s">
+      <c r="A91" s="24" t="s">
         <v>61</v>
       </c>
       <c r="B91" s="16"/>
-      <c r="C91" s="31">
+      <c r="C91" s="27">
         <v>5809</v>
       </c>
-      <c r="D91" s="30">
+      <c r="D91" s="26">
         <v>5874.3042016152003</v>
       </c>
-      <c r="E91" s="30">
+      <c r="E91" s="26">
         <v>6166.9819327701998</v>
       </c>
-      <c r="F91" s="29">
+      <c r="F91" s="25">
         <f t="shared" si="3"/>
         <v>1.1241900777276603E-2</v>
       </c>
-      <c r="G91" s="29">
+      <c r="G91" s="25">
         <f t="shared" si="4"/>
         <v>6.1625397274952531E-2</v>
       </c>
-      <c r="H91" s="33">
+      <c r="H91" s="28">
         <f>16.756/1000</f>
         <v>1.6756E-2</v>
       </c>
-      <c r="I91" s="28">
+      <c r="I91" s="24">
         <v>5000</v>
       </c>
-      <c r="J91" s="28">
+      <c r="J91" s="24">
         <f t="shared" si="5"/>
         <v>83.78</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A92" s="28" t="s">
+      <c r="A92" s="24" t="s">
         <v>63</v>
       </c>
       <c r="B92" s="16"/>
-      <c r="C92" s="31">
+      <c r="C92" s="27">
         <v>44011.7</v>
       </c>
-      <c r="D92" s="30">
+      <c r="D92" s="26">
         <v>44202.6210812961</v>
       </c>
-      <c r="E92" s="30">
+      <c r="E92" s="26">
         <v>46273.635593459803</v>
       </c>
-      <c r="F92" s="29">
+      <c r="F92" s="25">
         <f t="shared" si="3"/>
         <v>4.3379619804757574E-3</v>
       </c>
-      <c r="G92" s="29">
+      <c r="G92" s="25">
         <f t="shared" si="4"/>
         <v>5.1393961002638155E-2</v>
       </c>
-      <c r="H92" s="33">
+      <c r="H92" s="28">
         <f>22.898/1000</f>
         <v>2.2897999999999998E-2</v>
       </c>
-      <c r="I92" s="28">
+      <c r="I92" s="24">
         <v>5000</v>
       </c>
-      <c r="J92" s="28">
+      <c r="J92" s="24">
         <f t="shared" si="5"/>
         <v>114.49</v>
       </c>
@@ -2436,31 +2436,31 @@
         <v>62</v>
       </c>
       <c r="B93" s="16"/>
-      <c r="C93" s="31">
+      <c r="C93" s="27">
         <v>476684</v>
       </c>
-      <c r="D93" s="30">
+      <c r="D93" s="26">
         <v>487886.582352689</v>
       </c>
-      <c r="E93" s="30">
+      <c r="E93" s="26">
         <v>507969.54592298798</v>
       </c>
-      <c r="F93" s="29">
+      <c r="F93" s="25">
         <f t="shared" si="3"/>
         <v>2.3501066435393181E-2</v>
       </c>
-      <c r="G93" s="29">
+      <c r="G93" s="25">
         <f t="shared" si="4"/>
         <v>6.5631625821273687E-2</v>
       </c>
-      <c r="H93" s="33">
+      <c r="H93" s="28">
         <f>25.138/1000</f>
         <v>2.5138000000000001E-2</v>
       </c>
-      <c r="I93" s="28">
+      <c r="I93" s="24">
         <v>5000</v>
       </c>
-      <c r="J93" s="28">
+      <c r="J93" s="24">
         <f t="shared" si="5"/>
         <v>125.69</v>
       </c>
@@ -3001,6 +3001,15 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="J68:J69"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="F68:G68"/>
     <mergeCell ref="I82:I83"/>
     <mergeCell ref="J82:J83"/>
     <mergeCell ref="B82:B83"/>
@@ -3008,15 +3017,6 @@
     <mergeCell ref="D82:E82"/>
     <mergeCell ref="F82:G82"/>
     <mergeCell ref="H82:H83"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="I68:I69"/>
-    <mergeCell ref="J68:J69"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A82:A83"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research\dev\LRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927505F8-7DC8-47F1-94E6-A87D659AF386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88B4243-86CC-4150-A7F5-5008190AE2B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="91">
   <si>
     <t>Instance</t>
   </si>
@@ -139,33 +139,6 @@
     <t>        k̅   =   10n                     ,</t>
   </si>
   <si>
-    <t xml:space="preserve">                    :randomnode!    , </t>
-  </si>
-  <si>
-    <t>                    :randomroute!   ,</t>
-  </si>
-  <si>
-    <t>                    :randomvehicle! ,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    :relatednode!   , </t>
-  </si>
-  <si>
-    <t>                    :relatedroute!  ,  </t>
-  </si>
-  <si>
-    <t>                    :relatedvehicle!,</t>
-  </si>
-  <si>
-    <t>                    :worstnode!     ,</t>
-  </si>
-  <si>
-    <t>                    :worstroute!    ,</t>
-  </si>
-  <si>
-    <t>                    :regret2!       ,</t>
-  </si>
-  <si>
     <t>                    :regret3!</t>
   </si>
   <si>
@@ -175,15 +148,6 @@
     <t>Location Routing Problem (LRP) Benchmarking</t>
   </si>
   <si>
-    <t>                    :randomdepot!   ,</t>
-  </si>
-  <si>
-    <t>                    :relateddepot!  ,</t>
-  </si>
-  <si>
-    <t>                    :worstvehicle!  ,</t>
-  </si>
-  <si>
     <t>                    :worstdepot!</t>
   </si>
   <si>
@@ -229,9 +193,6 @@
     <t>daskin150-10</t>
   </si>
   <si>
-    <t>                    :swapdepots!</t>
-  </si>
-  <si>
     <t>    χ = ALNSParameters(</t>
   </si>
   <si>
@@ -239,18 +200,6 @@
   </si>
   <si>
     <t>    x = length(N)</t>
-  </si>
-  <si>
-    <t>                    :bestprecise!   ,</t>
-  </si>
-  <si>
-    <t>                    :bestperturb!   ,</t>
-  </si>
-  <si>
-    <t>                    :greedyprecise! ,</t>
-  </si>
-  <si>
-    <t>                    :greedyperturb! ,</t>
   </si>
   <si>
     <t>        𝜃   =   0.9975                  ,</t>
@@ -300,22 +249,67 @@
     <t>:cluster</t>
   </si>
   <si>
-    <t>                    :intraopt!      ,</t>
-  </si>
-  <si>
-    <t>                    :interopt!      ,</t>
-  </si>
-  <si>
-    <t>                    :movecustomer!  ,</t>
-  </si>
-  <si>
-    <t>                    :movedepot!     ,</t>
-  </si>
-  <si>
-    <t>                    :swapcustomers! ,</t>
-  </si>
-  <si>
     <t>:cluster, :random</t>
+  </si>
+  <si>
+    <t>                    :best!              ,</t>
+  </si>
+  <si>
+    <t>                    :precise!           ,</t>
+  </si>
+  <si>
+    <t>                    :perturb!           ,</t>
+  </si>
+  <si>
+    <t>                    :regret2!           ,</t>
+  </si>
+  <si>
+    <t>                    :swap!</t>
+  </si>
+  <si>
+    <t>                    :move!              ,</t>
+  </si>
+  <si>
+    <t>                    :split!             ,</t>
+  </si>
+  <si>
+    <t>                    :interopt!          ,</t>
+  </si>
+  <si>
+    <t>                    :intraopt!          ,</t>
+  </si>
+  <si>
+    <t>                    :worstvehicle!      ,</t>
+  </si>
+  <si>
+    <t>                    :worstroute!        ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    :randomnode!        , </t>
+  </si>
+  <si>
+    <t>                    :randomroute!       ,</t>
+  </si>
+  <si>
+    <t>                    :randomvehicle!     ,</t>
+  </si>
+  <si>
+    <t>                    :randomdepot!       ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    :relatednode!       , </t>
+  </si>
+  <si>
+    <t>                    :relatedvehicle!    ,</t>
+  </si>
+  <si>
+    <t>                    :relateddepot!      ,</t>
+  </si>
+  <si>
+    <t>                    :relatedroute!      ,  </t>
+  </si>
+  <si>
+    <t>                    :worstnode!         ,</t>
   </si>
 </sst>
 </file>
@@ -611,14 +605,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -901,10 +895,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5551421D-4FE7-47B7-A546-15E7A05240A9}">
-  <dimension ref="A1:N289"/>
+  <dimension ref="A1:N288"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X63" sqref="X63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -926,7 +920,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="10"/>
@@ -959,7 +953,7 @@
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="16" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -973,7 +967,7 @@
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="16" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -1008,7 +1002,7 @@
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="16" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1022,7 +1016,7 @@
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="16" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1086,7 +1080,7 @@
       </c>
       <c r="B15" s="16"/>
       <c r="C15" s="20" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1096,11 +1090,11 @@
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="18" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="B16" s="18"/>
       <c r="C16" s="20" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1121,21 +1115,21 @@
     </row>
     <row r="19" spans="1:14" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="B19" s="7"/>
       <c r="L19" s="8"/>
     </row>
     <row r="20" spans="1:14" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="B20" s="7"/>
       <c r="L20" s="8"/>
     </row>
     <row r="21" spans="1:14" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -1207,7 +1201,7 @@
     </row>
     <row r="27" spans="1:14" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -1219,7 +1213,7 @@
     </row>
     <row r="28" spans="1:14" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -1231,7 +1225,7 @@
     </row>
     <row r="29" spans="1:14" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="8" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -1243,7 +1237,7 @@
     </row>
     <row r="30" spans="1:14" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -1255,7 +1249,7 @@
     </row>
     <row r="31" spans="1:14" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="8" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -1267,7 +1261,7 @@
     </row>
     <row r="32" spans="1:14" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -1279,7 +1273,7 @@
     </row>
     <row r="33" spans="1:8" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="8" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -1291,7 +1285,7 @@
     </row>
     <row r="34" spans="1:8" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="8" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -1303,7 +1297,7 @@
     </row>
     <row r="35" spans="1:8" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="8" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -1315,7 +1309,7 @@
     </row>
     <row r="36" spans="1:8" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="8" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -1327,7 +1321,7 @@
     </row>
     <row r="37" spans="1:8" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="8" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -1339,7 +1333,7 @@
     </row>
     <row r="38" spans="1:8" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="8" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -1375,7 +1369,7 @@
     </row>
     <row r="41" spans="1:8" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="8" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -1385,9 +1379,9 @@
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" ht="14" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -1399,7 +1393,7 @@
     </row>
     <row r="43" spans="1:8" ht="14" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -1411,7 +1405,7 @@
     </row>
     <row r="44" spans="1:8" ht="14" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -1423,7 +1417,7 @@
     </row>
     <row r="45" spans="1:8" ht="14" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -1435,7 +1429,7 @@
     </row>
     <row r="46" spans="1:8" ht="14" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -1447,7 +1441,7 @@
     </row>
     <row r="47" spans="1:8" ht="14" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -1457,57 +1451,63 @@
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
     </row>
-    <row r="48" spans="1:8" ht="14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-    </row>
-    <row r="49" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:14" ht="14" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B49" s="8"/>
     </row>
     <row r="50" spans="1:14" ht="14" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="B50" s="8"/>
     </row>
     <row r="51" spans="1:14" ht="14" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="B51" s="8"/>
     </row>
     <row r="52" spans="1:14" ht="14" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="B52" s="8"/>
     </row>
     <row r="53" spans="1:14" ht="14" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
     </row>
     <row r="54" spans="1:14" ht="14" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
     </row>
     <row r="55" spans="1:14" ht="14" x14ac:dyDescent="0.3">
       <c r="A55" s="8" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -1519,7 +1519,7 @@
     </row>
     <row r="56" spans="1:14" ht="14" x14ac:dyDescent="0.3">
       <c r="A56" s="8" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -1528,10 +1528,11 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c r="H56" s="8"/>
+      <c r="N56" s="3"/>
     </row>
     <row r="57" spans="1:14" ht="14" x14ac:dyDescent="0.3">
       <c r="A57" s="8" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -1540,11 +1541,10 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c r="H57" s="8"/>
-      <c r="N57" s="3"/>
     </row>
     <row r="58" spans="1:14" ht="14" x14ac:dyDescent="0.3">
       <c r="A58" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -1556,7 +1556,7 @@
     </row>
     <row r="59" spans="1:14" ht="14" x14ac:dyDescent="0.3">
       <c r="A59" s="8" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -1568,7 +1568,7 @@
     </row>
     <row r="60" spans="1:14" ht="14" x14ac:dyDescent="0.3">
       <c r="A60" s="8" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -1580,7 +1580,7 @@
     </row>
     <row r="61" spans="1:14" ht="14" x14ac:dyDescent="0.3">
       <c r="A61" s="8" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -1592,7 +1592,7 @@
     </row>
     <row r="62" spans="1:14" ht="14" x14ac:dyDescent="0.3">
       <c r="A62" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -1604,7 +1604,7 @@
     </row>
     <row r="63" spans="1:14" ht="14" x14ac:dyDescent="0.3">
       <c r="A63" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -1616,7 +1616,7 @@
     </row>
     <row r="64" spans="1:14" ht="14" x14ac:dyDescent="0.3">
       <c r="A64" s="8" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -1628,7 +1628,7 @@
     </row>
     <row r="65" spans="1:14" ht="14" x14ac:dyDescent="0.3">
       <c r="A65" s="8" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -1639,186 +1639,211 @@
       <c r="H65" s="8"/>
     </row>
     <row r="66" spans="1:14" ht="14" x14ac:dyDescent="0.3">
-      <c r="A66" s="8" t="s">
-        <v>29</v>
+      <c r="A66" s="22" t="s">
+        <v>69</v>
       </c>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="8"/>
+      <c r="L66" s="8"/>
+      <c r="M66" s="8"/>
+      <c r="N66" s="8"/>
     </row>
     <row r="67" spans="1:14" ht="14" x14ac:dyDescent="0.3">
-      <c r="A67" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="L67" s="8"/>
+      <c r="A67" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="D67" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="E67" s="33"/>
+      <c r="F67" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="G67" s="33"/>
+      <c r="H67" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="I67" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="J67" s="30" t="s">
+        <v>64</v>
+      </c>
       <c r="M67" s="8"/>
       <c r="N67" s="8"/>
     </row>
-    <row r="68" spans="1:14" ht="14" x14ac:dyDescent="0.3">
-      <c r="A68" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B68" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C68" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="D68" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="E68" s="34"/>
-      <c r="F68" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="G68" s="34"/>
-      <c r="H68" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="I68" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="J68" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="M68" s="8"/>
+    <row r="68" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="31"/>
+      <c r="B68" s="31"/>
+      <c r="C68" s="31"/>
+      <c r="D68" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E68" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F68" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="G68" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="H68" s="31"/>
+      <c r="I68" s="31"/>
+      <c r="J68" s="31"/>
       <c r="N68" s="8"/>
     </row>
-    <row r="69" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="31"/>
-      <c r="B69" s="31"/>
-      <c r="C69" s="31"/>
-      <c r="D69" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="E69" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="F69" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="G69" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="H69" s="31"/>
-      <c r="I69" s="31"/>
-      <c r="J69" s="31"/>
+    <row r="69" spans="1:14" ht="14" x14ac:dyDescent="0.3">
+      <c r="A69" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B69" s="24"/>
+      <c r="C69" s="26">
+        <v>54793</v>
+      </c>
+      <c r="D69" s="26">
+        <v>55007.7661317948</v>
+      </c>
+      <c r="E69" s="26">
+        <v>55034.228167491499</v>
+      </c>
+      <c r="F69" s="25">
+        <f>D69 / C69 -1</f>
+        <v>3.9195906738962449E-3</v>
+      </c>
+      <c r="G69" s="25">
+        <f>E69 / C69 -1</f>
+        <v>4.4025362271000734E-3</v>
+      </c>
+      <c r="H69" s="28">
+        <f>0.49/1000</f>
+        <v>4.8999999999999998E-4</v>
+      </c>
+      <c r="I69" s="24">
+        <v>5000</v>
+      </c>
+      <c r="J69" s="24">
+        <f>H69 * I69</f>
+        <v>2.4499999999999997</v>
+      </c>
+      <c r="K69" s="29"/>
+      <c r="M69" s="8"/>
       <c r="N69" s="8"/>
     </row>
     <row r="70" spans="1:14" ht="14" x14ac:dyDescent="0.3">
       <c r="A70" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="B70" s="24"/>
-      <c r="C70" s="26">
-        <v>54793</v>
+        <v>46</v>
+      </c>
+      <c r="B70" s="16"/>
+      <c r="C70" s="27">
+        <v>460.4</v>
       </c>
       <c r="D70" s="26">
-        <v>55007.766131798599</v>
+        <v>460.37420333858898</v>
       </c>
       <c r="E70" s="26">
-        <v>55253.297497899897</v>
+        <v>485.90589128012999</v>
       </c>
       <c r="F70" s="25">
-        <f>D70 / C70 -1</f>
-        <v>3.9195906739655229E-3</v>
+        <f t="shared" ref="F70:F78" si="0">D70 / C70 -1</f>
+        <v>-5.6030976131604682E-5</v>
       </c>
       <c r="G70" s="25">
-        <f>E70 / C70 -1</f>
-        <v>8.4006624550563291E-3</v>
+        <f t="shared" ref="G70:G78" si="1">E70 / C70 -1</f>
+        <v>5.5399416333905327E-2</v>
       </c>
       <c r="H70" s="28">
-        <f>0.504/1000</f>
-        <v>5.04E-4</v>
+        <f>0.822/1000</f>
+        <v>8.2199999999999992E-4</v>
       </c>
       <c r="I70" s="24">
         <v>5000</v>
       </c>
       <c r="J70" s="24">
-        <f>H70 * I70</f>
-        <v>2.52</v>
-      </c>
-      <c r="K70" s="29"/>
+        <f t="shared" ref="J70:J78" si="2">H70 * I70</f>
+        <v>4.1099999999999994</v>
+      </c>
       <c r="M70" s="8"/>
       <c r="N70" s="8"/>
     </row>
     <row r="71" spans="1:14" ht="14" x14ac:dyDescent="0.3">
       <c r="A71" s="24" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B71" s="16"/>
       <c r="C71" s="27">
-        <v>460.4</v>
+        <v>63242</v>
       </c>
       <c r="D71" s="26">
-        <v>460.37420333846802</v>
+        <v>63215.202232380601</v>
       </c>
       <c r="E71" s="26">
-        <v>470.21526842463101</v>
+        <v>64243.313912105499</v>
       </c>
       <c r="F71" s="25">
-        <f t="shared" ref="F71:F79" si="0">D71 / C71 -1</f>
-        <v>-5.6030976394394472E-5</v>
+        <f t="shared" si="0"/>
+        <v>-4.2373371524306869E-4</v>
       </c>
       <c r="G71" s="25">
-        <f t="shared" ref="G71:G79" si="1">E71 / C71 -1</f>
-        <v>2.1319001791118675E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.5833052593300367E-2</v>
       </c>
       <c r="H71" s="28">
-        <f>0.948/1000</f>
-        <v>9.4799999999999995E-4</v>
+        <f>1.57/1000</f>
+        <v>1.57E-3</v>
       </c>
       <c r="I71" s="24">
         <v>5000</v>
       </c>
       <c r="J71" s="24">
-        <f t="shared" ref="J71:J79" si="2">H71 * I71</f>
-        <v>4.7399999999999993</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>7.85</v>
+      </c>
+      <c r="K71" s="29"/>
       <c r="M71" s="8"/>
       <c r="N71" s="8"/>
     </row>
     <row r="72" spans="1:14" ht="14" x14ac:dyDescent="0.3">
       <c r="A72" s="24" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B72" s="16"/>
       <c r="C72" s="27">
-        <v>63242</v>
+        <v>355.8</v>
       </c>
       <c r="D72" s="26">
-        <v>63215.202232399803</v>
+        <v>355.86734092148902</v>
       </c>
       <c r="E72" s="26">
-        <v>64154.958202597001</v>
+        <v>380.74317657163402</v>
       </c>
       <c r="F72" s="25">
         <f t="shared" si="0"/>
-        <v>-4.2373371493942269E-4</v>
+        <v>1.8926622116088865E-4</v>
       </c>
       <c r="G72" s="25">
         <f t="shared" si="1"/>
-        <v>1.443594767080425E-2</v>
+        <v>7.0104487272720561E-2</v>
       </c>
       <c r="H72" s="28">
-        <f>1.598/1000</f>
-        <v>1.598E-3</v>
+        <f>5.48/1000</f>
+        <v>5.4800000000000005E-3</v>
       </c>
       <c r="I72" s="24">
         <v>5000</v>
       </c>
       <c r="J72" s="24">
         <f t="shared" si="2"/>
-        <v>7.99</v>
+        <v>27.400000000000002</v>
       </c>
       <c r="K72" s="29"/>
       <c r="M72" s="8"/>
@@ -1826,644 +1851,610 @@
     </row>
     <row r="73" spans="1:14" ht="14" x14ac:dyDescent="0.3">
       <c r="A73" s="24" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B73" s="16"/>
       <c r="C73" s="27">
-        <v>355.8</v>
+        <v>195568</v>
       </c>
       <c r="D73" s="26">
-        <v>359.73514667858302</v>
+        <v>198305.55413549801</v>
       </c>
       <c r="E73" s="26">
-        <v>381.40958256293402</v>
+        <v>212051.39061509701</v>
       </c>
       <c r="F73" s="25">
         <f t="shared" si="0"/>
-        <v>1.1059996286068019E-2</v>
+        <v>1.3997965595077044E-2</v>
       </c>
       <c r="G73" s="25">
         <f t="shared" si="1"/>
-        <v>7.1977466450067418E-2</v>
+        <v>8.4284702073432305E-2</v>
       </c>
       <c r="H73" s="28">
-        <f>5.816/1000</f>
-        <v>5.816E-3</v>
+        <f>5.468/1000</f>
+        <v>5.4679999999999998E-3</v>
       </c>
       <c r="I73" s="24">
         <v>5000</v>
       </c>
       <c r="J73" s="24">
         <f t="shared" si="2"/>
-        <v>29.08</v>
+        <v>27.34</v>
       </c>
       <c r="K73" s="29"/>
       <c r="M73" s="8"/>
       <c r="N73" s="8"/>
     </row>
-    <row r="74" spans="1:14" ht="14" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" s="24" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B74" s="16"/>
       <c r="C74" s="27">
-        <v>195568</v>
+        <v>204335</v>
       </c>
       <c r="D74" s="26">
-        <v>196785.86524049699</v>
+        <v>208997.09336599699</v>
       </c>
       <c r="E74" s="26">
-        <v>201311.52312777101</v>
+        <v>255963.202780894</v>
       </c>
       <c r="F74" s="25">
         <f t="shared" si="0"/>
-        <v>6.2273236955789901E-3</v>
+        <v>2.2815931514410082E-2</v>
       </c>
       <c r="G74" s="25">
         <f t="shared" si="1"/>
-        <v>2.9368419822113134E-2</v>
+        <v>0.25266451063642559</v>
       </c>
       <c r="H74" s="28">
-        <f>5.468/1000</f>
-        <v>5.4679999999999998E-3</v>
+        <f>7.53/1000</f>
+        <v>7.5300000000000002E-3</v>
       </c>
       <c r="I74" s="24">
         <v>5000</v>
       </c>
       <c r="J74" s="24">
         <f t="shared" si="2"/>
-        <v>27.34</v>
+        <v>37.65</v>
       </c>
       <c r="K74" s="29"/>
-      <c r="M74" s="8"/>
-      <c r="N74" s="8"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" s="24" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B75" s="16"/>
       <c r="C75" s="27">
-        <v>204335</v>
+        <v>842.9</v>
       </c>
       <c r="D75" s="26">
-        <v>205261.182074101</v>
+        <v>850.96623279183098</v>
       </c>
       <c r="E75" s="26">
-        <v>249758.10530869701</v>
+        <v>886.73337512484704</v>
       </c>
       <c r="F75" s="25">
         <f t="shared" si="0"/>
-        <v>4.5326648596715202E-3</v>
+        <v>9.5696201113193435E-3</v>
       </c>
       <c r="G75" s="25">
         <f t="shared" si="1"/>
-        <v>0.2222972339966085</v>
+        <v>5.2003055077526561E-2</v>
       </c>
       <c r="H75" s="28">
-        <f>8.26/1000</f>
-        <v>8.26E-3</v>
+        <f>6.858/1000</f>
+        <v>6.8579999999999995E-3</v>
       </c>
       <c r="I75" s="24">
         <v>5000</v>
       </c>
       <c r="J75" s="24">
         <f t="shared" si="2"/>
-        <v>41.3</v>
-      </c>
-      <c r="K75" s="29"/>
+        <v>34.29</v>
+      </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" s="24" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B76" s="16"/>
       <c r="C76" s="27">
-        <v>842.9</v>
+        <v>5809</v>
       </c>
       <c r="D76" s="26">
-        <v>839.834627998987</v>
+        <v>5793.1433245155304</v>
       </c>
       <c r="E76" s="26">
-        <v>891.42651602552598</v>
+        <v>6334.4238714528601</v>
       </c>
       <c r="F76" s="25">
         <f t="shared" si="0"/>
-        <v>-3.636697118297505E-3</v>
+        <v>-2.7296738654621899E-3</v>
       </c>
       <c r="G76" s="25">
         <f t="shared" si="1"/>
-        <v>5.7570905238493397E-2</v>
+        <v>9.0449969263704633E-2</v>
       </c>
       <c r="H76" s="28">
-        <f>6.915/1000</f>
-        <v>6.9150000000000001E-3</v>
+        <f>17.878/1000</f>
+        <v>1.7878000000000002E-2</v>
       </c>
       <c r="I76" s="24">
         <v>5000</v>
       </c>
       <c r="J76" s="24">
         <f t="shared" si="2"/>
-        <v>34.575000000000003</v>
-      </c>
+        <v>89.39</v>
+      </c>
+      <c r="K76" s="29"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" s="24" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B77" s="16"/>
       <c r="C77" s="27">
-        <v>5809</v>
+        <v>44011.7</v>
       </c>
       <c r="D77" s="26">
-        <v>5854.1468545998796</v>
+        <v>44318.743844053803</v>
       </c>
       <c r="E77" s="26">
-        <v>6057.1164794064398</v>
+        <v>47199.981170803003</v>
       </c>
       <c r="F77" s="25">
         <f t="shared" si="0"/>
-        <v>7.7718806334790003E-3</v>
+        <v>6.9764140911121597E-3</v>
       </c>
       <c r="G77" s="25">
         <f t="shared" si="1"/>
-        <v>4.2712425444386248E-2</v>
+        <v>7.2441672800710011E-2</v>
       </c>
       <c r="H77" s="28">
-        <f>17.572/1000</f>
-        <v>1.7572000000000001E-2</v>
+        <f>23.046/1000</f>
+        <v>2.3046000000000001E-2</v>
       </c>
       <c r="I77" s="24">
         <v>5000</v>
       </c>
       <c r="J77" s="24">
         <f t="shared" si="2"/>
-        <v>87.86</v>
+        <v>115.23</v>
       </c>
       <c r="K77" s="29"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A78" s="24" t="s">
-        <v>63</v>
+      <c r="A78" s="16" t="s">
+        <v>50</v>
       </c>
       <c r="B78" s="16"/>
       <c r="C78" s="27">
-        <v>44011.7</v>
+        <v>476684</v>
       </c>
       <c r="D78" s="26">
-        <v>44658.276402209201</v>
+        <v>487539.48808779399</v>
       </c>
       <c r="E78" s="26">
-        <v>46924.906747487199</v>
+        <v>598246.41738059395</v>
       </c>
       <c r="F78" s="25">
         <f t="shared" si="0"/>
-        <v>1.4691011758446226E-2</v>
+        <v>2.2772923126838762E-2</v>
       </c>
       <c r="G78" s="25">
         <f t="shared" si="1"/>
-        <v>6.6191643301376724E-2</v>
+        <v>0.2550167771114491</v>
       </c>
       <c r="H78" s="28">
-        <f>23.046/1000</f>
-        <v>2.3046000000000001E-2</v>
+        <f>25.536/1000</f>
+        <v>2.5536E-2</v>
       </c>
       <c r="I78" s="24">
         <v>5000</v>
       </c>
       <c r="J78" s="24">
         <f t="shared" si="2"/>
-        <v>115.23</v>
+        <v>127.67999999999999</v>
       </c>
       <c r="K78" s="29"/>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A79" s="16" t="s">
+    <row r="80" spans="1:14" ht="14" x14ac:dyDescent="0.3">
+      <c r="A80" s="22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A81" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="B79" s="16"/>
-      <c r="C79" s="27">
-        <v>476684</v>
-      </c>
-      <c r="D79" s="26">
-        <v>484113.753320786</v>
-      </c>
-      <c r="E79" s="26">
-        <v>569490.56154479599</v>
-      </c>
-      <c r="F79" s="25">
-        <f t="shared" si="0"/>
-        <v>1.5586328302997332E-2</v>
-      </c>
-      <c r="G79" s="25">
-        <f t="shared" si="1"/>
-        <v>0.19469200045480028</v>
-      </c>
-      <c r="H79" s="28">
-        <f>24.92/1000</f>
-        <v>2.4920000000000001E-2</v>
-      </c>
-      <c r="I79" s="24">
+      <c r="D81" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="E81" s="33"/>
+      <c r="F81" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="G81" s="33"/>
+      <c r="H81" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="I81" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="J81" s="30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A82" s="31"/>
+      <c r="B82" s="31"/>
+      <c r="C82" s="31"/>
+      <c r="D82" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E82" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F82" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="G82" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="H82" s="31"/>
+      <c r="I82" s="31"/>
+      <c r="J82" s="31"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A83" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B83" s="24"/>
+      <c r="C83" s="26">
+        <v>54793</v>
+      </c>
+      <c r="D83" s="26">
+        <v>55007.766131799697</v>
+      </c>
+      <c r="E83" s="26">
+        <v>57542.431031596097</v>
+      </c>
+      <c r="F83" s="25">
+        <f>D83 / C83 -1</f>
+        <v>3.9195906739857289E-3</v>
+      </c>
+      <c r="G83" s="25">
+        <f>E83 / C83 -1</f>
+        <v>5.0178508780247322E-2</v>
+      </c>
+      <c r="H83" s="28">
+        <f>0.492/1000</f>
+        <v>4.9200000000000003E-4</v>
+      </c>
+      <c r="I83" s="24">
         <v>5000</v>
       </c>
-      <c r="J79" s="24">
-        <f t="shared" si="2"/>
-        <v>124.60000000000001</v>
-      </c>
-      <c r="K79" s="29"/>
-    </row>
-    <row r="81" spans="1:10" ht="14" x14ac:dyDescent="0.3">
-      <c r="A81" s="22" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A82" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B82" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C82" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="D82" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="E82" s="34"/>
-      <c r="F82" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="G82" s="34"/>
-      <c r="H82" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="I82" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="J82" s="30" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A83" s="31"/>
-      <c r="B83" s="31"/>
-      <c r="C83" s="31"/>
-      <c r="D83" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="E83" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="F83" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="G83" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="H83" s="31"/>
-      <c r="I83" s="31"/>
-      <c r="J83" s="31"/>
+      <c r="J83" s="24">
+        <f>H83 * I83</f>
+        <v>2.46</v>
+      </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="B84" s="24"/>
-      <c r="C84" s="26">
-        <v>54793</v>
+        <v>46</v>
+      </c>
+      <c r="B84" s="16"/>
+      <c r="C84" s="27">
+        <v>460.4</v>
       </c>
       <c r="D84" s="26">
-        <v>54778.4416451996</v>
+        <v>468.83227736258101</v>
       </c>
       <c r="E84" s="26">
-        <v>56652.9158534952</v>
+        <v>483.89379051497002</v>
       </c>
       <c r="F84" s="25">
-        <f>D84 / C84 -1</f>
-        <v>-2.6569734820869328E-4</v>
+        <f t="shared" ref="F84:F92" si="3">D84 / C84 -1</f>
+        <v>1.8315111560775588E-2</v>
       </c>
       <c r="G84" s="25">
-        <f>E84 / C84 -1</f>
-        <v>3.3944406283561879E-2</v>
+        <f t="shared" ref="G84:G92" si="4">E84 / C84 -1</f>
+        <v>5.1029084524261581E-2</v>
       </c>
       <c r="H84" s="28">
-        <f>0.508/1000</f>
-        <v>5.0799999999999999E-4</v>
+        <f>0.886/1000</f>
+        <v>8.8599999999999996E-4</v>
       </c>
       <c r="I84" s="24">
         <v>5000</v>
       </c>
       <c r="J84" s="24">
-        <f>H84 * I84</f>
-        <v>2.54</v>
+        <f t="shared" ref="J84:J92" si="5">H84 * I84</f>
+        <v>4.43</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="24" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B85" s="16"/>
       <c r="C85" s="27">
-        <v>460.4</v>
+        <v>63242</v>
       </c>
       <c r="D85" s="26">
-        <v>460.374203338455</v>
+        <v>63215.202232404998</v>
       </c>
       <c r="E85" s="26">
-        <v>473.00942270463503</v>
+        <v>74468.742605894295</v>
       </c>
       <c r="F85" s="25">
-        <f t="shared" ref="F85:F93" si="3">D85 / C85 -1</f>
-        <v>-5.6030976422594136E-5</v>
+        <f t="shared" si="3"/>
+        <v>-4.2373371485726619E-4</v>
       </c>
       <c r="G85" s="25">
-        <f t="shared" ref="G85:G93" si="4">E85 / C85 -1</f>
-        <v>2.7387972859763465E-2</v>
+        <f t="shared" si="4"/>
+        <v>0.17752035998061877</v>
       </c>
       <c r="H85" s="28">
-        <f>0.886/1000</f>
-        <v>8.8599999999999996E-4</v>
+        <f>1.73/1000</f>
+        <v>1.73E-3</v>
       </c>
       <c r="I85" s="24">
         <v>5000</v>
       </c>
       <c r="J85" s="24">
-        <f t="shared" ref="J85:J93" si="5">H85 * I85</f>
-        <v>4.43</v>
+        <f t="shared" si="5"/>
+        <v>8.65</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="24" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B86" s="16"/>
       <c r="C86" s="27">
-        <v>63242</v>
+        <v>355.8</v>
       </c>
       <c r="D86" s="26">
-        <v>63215.202232393</v>
+        <v>361.21637871593299</v>
       </c>
       <c r="E86" s="26">
-        <v>64318.979376390402</v>
+        <v>363.669855486514</v>
       </c>
       <c r="F86" s="25">
         <f t="shared" si="3"/>
-        <v>-4.237337150470033E-4</v>
+        <v>1.5223099257821726E-2</v>
       </c>
       <c r="G86" s="25">
         <f t="shared" si="4"/>
-        <v>1.7029495847544318E-2</v>
+        <v>2.2118761907009565E-2</v>
       </c>
       <c r="H86" s="28">
-        <f>1.73/1000</f>
-        <v>1.73E-3</v>
+        <f>5.722/1000</f>
+        <v>5.7220000000000005E-3</v>
       </c>
       <c r="I86" s="24">
         <v>5000</v>
       </c>
       <c r="J86" s="24">
         <f t="shared" si="5"/>
-        <v>8.65</v>
+        <v>28.610000000000003</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="24" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B87" s="16"/>
       <c r="C87" s="27">
-        <v>355.8</v>
+        <v>195568</v>
       </c>
       <c r="D87" s="26">
-        <v>358.95092021790799</v>
+        <v>198710.85857869999</v>
       </c>
       <c r="E87" s="26">
-        <v>379.01249162482202</v>
+        <v>242469.27598690201</v>
       </c>
       <c r="F87" s="25">
         <f t="shared" si="3"/>
-        <v>8.855874699010613E-3</v>
+        <v>1.6070413251145332E-2</v>
       </c>
       <c r="G87" s="25">
         <f t="shared" si="4"/>
-        <v>6.5240280002310413E-2</v>
+        <v>0.23982080906335401</v>
       </c>
       <c r="H87" s="28">
-        <f>5.722/1000</f>
-        <v>5.7220000000000005E-3</v>
+        <f>5.462/1000</f>
+        <v>5.4619999999999998E-3</v>
       </c>
       <c r="I87" s="24">
         <v>5000</v>
       </c>
       <c r="J87" s="24">
         <f t="shared" si="5"/>
-        <v>28.610000000000003</v>
+        <v>27.31</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="24" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B88" s="16"/>
       <c r="C88" s="27">
-        <v>195568</v>
+        <v>204335</v>
       </c>
       <c r="D88" s="26">
-        <v>197054.978790694</v>
+        <v>205874.004725904</v>
       </c>
       <c r="E88" s="26">
-        <v>198334.624342795</v>
+        <v>264282.34974050801</v>
       </c>
       <c r="F88" s="25">
         <f t="shared" si="3"/>
-        <v>7.6033849642784812E-3</v>
+        <v>7.5317724614187842E-3</v>
       </c>
       <c r="G88" s="25">
         <f t="shared" si="4"/>
-        <v>1.4146610604981458E-2</v>
+        <v>0.29337778520815339</v>
       </c>
       <c r="H88" s="28">
-        <f>5.462/1000</f>
-        <v>5.4619999999999998E-3</v>
+        <f>7.908/1000</f>
+        <v>7.9080000000000001E-3</v>
       </c>
       <c r="I88" s="24">
         <v>5000</v>
       </c>
       <c r="J88" s="24">
         <f t="shared" si="5"/>
-        <v>27.31</v>
+        <v>39.54</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="24" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B89" s="16"/>
       <c r="C89" s="27">
-        <v>204335</v>
+        <v>842.9</v>
       </c>
       <c r="D89" s="26">
-        <v>204334.74226810399</v>
+        <v>839.83462799894596</v>
       </c>
       <c r="E89" s="26">
-        <v>249640.33456489601</v>
+        <v>895.56731652814301</v>
       </c>
       <c r="F89" s="25">
         <f t="shared" si="3"/>
-        <v>-1.2613203612676926E-6</v>
+        <v>-3.6366971183462438E-3</v>
       </c>
       <c r="G89" s="25">
         <f t="shared" si="4"/>
-        <v>0.22172087290427989</v>
+        <v>6.2483469602732322E-2</v>
       </c>
       <c r="H89" s="28">
-        <f>8.048/1000</f>
-        <v>8.0479999999999996E-3</v>
+        <f>6.864/1000</f>
+        <v>6.8640000000000003E-3</v>
       </c>
       <c r="I89" s="24">
         <v>5000</v>
       </c>
       <c r="J89" s="24">
         <f t="shared" si="5"/>
-        <v>40.239999999999995</v>
+        <v>34.32</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="24" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B90" s="16"/>
       <c r="C90" s="27">
-        <v>842.9</v>
+        <v>5809</v>
       </c>
       <c r="D90" s="26">
-        <v>875.12801664702499</v>
+        <v>5905.67133846864</v>
       </c>
       <c r="E90" s="26">
-        <v>885.18651346707202</v>
+        <v>6226.5254813338997</v>
       </c>
       <c r="F90" s="25">
         <f t="shared" si="3"/>
-        <v>3.8234685783633982E-2</v>
+        <v>1.6641648901470241E-2</v>
       </c>
       <c r="G90" s="25">
         <f t="shared" si="4"/>
-        <v>5.0167888797095772E-2</v>
+        <v>7.1875620818367958E-2</v>
       </c>
       <c r="H90" s="28">
-        <f>6.544/1000</f>
-        <v>6.5439999999999995E-3</v>
+        <f>17.102/1000</f>
+        <v>1.7101999999999999E-2</v>
       </c>
       <c r="I90" s="24">
         <v>5000</v>
       </c>
       <c r="J90" s="24">
         <f t="shared" si="5"/>
-        <v>32.72</v>
+        <v>85.509999999999991</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="24" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B91" s="16"/>
       <c r="C91" s="27">
-        <v>5809</v>
+        <v>44011.7</v>
       </c>
       <c r="D91" s="26">
-        <v>5874.3042016152003</v>
+        <v>44889.292163860897</v>
       </c>
       <c r="E91" s="26">
-        <v>6166.9819327701998</v>
+        <v>47192.451647481903</v>
       </c>
       <c r="F91" s="25">
         <f t="shared" si="3"/>
-        <v>1.1241900777276603E-2</v>
+        <v>1.9939974230963609E-2</v>
       </c>
       <c r="G91" s="25">
         <f t="shared" si="4"/>
-        <v>6.1625397274952531E-2</v>
+        <v>7.2270592762422314E-2</v>
       </c>
       <c r="H91" s="28">
-        <f>16.756/1000</f>
-        <v>1.6756E-2</v>
+        <f>21.764/1000</f>
+        <v>2.1763999999999999E-2</v>
       </c>
       <c r="I91" s="24">
         <v>5000</v>
       </c>
       <c r="J91" s="24">
         <f t="shared" si="5"/>
-        <v>83.78</v>
+        <v>108.82</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A92" s="24" t="s">
-        <v>63</v>
+      <c r="A92" s="16" t="s">
+        <v>50</v>
       </c>
       <c r="B92" s="16"/>
       <c r="C92" s="27">
-        <v>44011.7</v>
+        <v>476684</v>
       </c>
       <c r="D92" s="26">
-        <v>44202.6210812961</v>
+        <v>497041.220102494</v>
       </c>
       <c r="E92" s="26">
-        <v>46273.635593459803</v>
+        <v>594412.97306719399</v>
       </c>
       <c r="F92" s="25">
         <f t="shared" si="3"/>
-        <v>4.3379619804757574E-3</v>
+        <v>4.2705901818592684E-2</v>
       </c>
       <c r="G92" s="25">
         <f t="shared" si="4"/>
-        <v>5.1393961002638155E-2</v>
+        <v>0.24697487867684664</v>
       </c>
       <c r="H92" s="28">
-        <f>22.898/1000</f>
-        <v>2.2897999999999998E-2</v>
+        <f>25.468/1000</f>
+        <v>2.5468000000000001E-2</v>
       </c>
       <c r="I92" s="24">
         <v>5000</v>
       </c>
       <c r="J92" s="24">
         <f t="shared" si="5"/>
-        <v>114.49</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A93" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="B93" s="16"/>
-      <c r="C93" s="27">
-        <v>476684</v>
-      </c>
-      <c r="D93" s="26">
-        <v>487886.582352689</v>
-      </c>
-      <c r="E93" s="26">
-        <v>507969.54592298798</v>
-      </c>
-      <c r="F93" s="25">
-        <f t="shared" si="3"/>
-        <v>2.3501066435393181E-2</v>
-      </c>
-      <c r="G93" s="25">
-        <f t="shared" si="4"/>
-        <v>6.5631625821273687E-2</v>
-      </c>
-      <c r="H93" s="28">
-        <f>25.138/1000</f>
-        <v>2.5138000000000001E-2</v>
-      </c>
-      <c r="I93" s="24">
-        <v>5000</v>
-      </c>
-      <c r="J93" s="24">
-        <f t="shared" si="5"/>
-        <v>125.69</v>
-      </c>
+        <v>127.34</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B111" s="4"/>
     </row>
     <row r="112" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B112" s="4"/>
@@ -2996,27 +2987,24 @@
     <row r="288" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B288" s="4"/>
     </row>
-    <row r="289" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B289" s="4"/>
-    </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="I68:I69"/>
-    <mergeCell ref="J68:J69"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="I82:I83"/>
-    <mergeCell ref="J82:J83"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="H67:H68"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="I67:I68"/>
+    <mergeCell ref="J67:J68"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="J81:J82"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="H81:H82"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research\dev\LRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9364D460-0EB5-4B17-BC03-B2AAF5C9018C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35FFCD47-2D72-4231-9157-CAD11B32553C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="2" r:id="rId1"/>
@@ -839,6 +839,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -898,12 +904,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1188,20 +1188,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5551421D-4FE7-47B7-A546-15E7A05240A9}">
   <dimension ref="A1:V286"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" style="12" customWidth="1"/>
-    <col min="2" max="11" width="9.140625" style="12" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="11.5703125" style="12" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="12"/>
+    <col min="1" max="1" width="18.54296875" style="12" customWidth="1"/>
+    <col min="2" max="11" width="9.1796875" style="12" customWidth="1"/>
+    <col min="12" max="12" width="17.453125" style="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="11.54296875" style="12" customWidth="1"/>
+    <col min="17" max="16384" width="9.1796875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
         <v>17</v>
       </c>
@@ -1213,7 +1213,7 @@
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
     </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="13"/>
       <c r="B2" s="14"/>
       <c r="C2" s="15"/>
@@ -1223,14 +1223,14 @@
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
     </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
     </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="22" t="s">
         <v>4</v>
       </c>
@@ -1243,7 +1243,7 @@
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
     </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
         <v>5</v>
       </c>
@@ -1256,7 +1256,7 @@
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
     </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="22" t="s">
         <v>6</v>
       </c>
@@ -1264,17 +1264,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="17"/>
       <c r="B7" s="17"/>
     </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="16" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="17"/>
     </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="22" t="s">
         <v>8</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="22" t="s">
         <v>9</v>
       </c>
@@ -1290,17 +1290,17 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="17"/>
       <c r="B11" s="17"/>
     </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="16" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="17"/>
     </row>
-    <row r="13" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="22" t="s">
         <v>13</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="22" t="s">
         <v>12</v>
       </c>
@@ -1316,7 +1316,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="22" t="s">
         <v>16</v>
       </c>
@@ -1328,7 +1328,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="22" t="s">
         <v>32</v>
       </c>
@@ -1340,10 +1340,10 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="19"/>
     </row>
-    <row r="18" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="20" t="s">
         <v>2</v>
       </c>
@@ -1352,7 +1352,7 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>98</v>
       </c>
@@ -1361,7 +1361,7 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>62</v>
       </c>
@@ -1380,7 +1380,7 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>93</v>
       </c>
@@ -1396,7 +1396,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>109</v>
       </c>
@@ -1411,7 +1411,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>99</v>
       </c>
@@ -1425,13 +1425,13 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="K23" s="33"/>
+      <c r="K23" s="35"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>110</v>
       </c>
@@ -1445,9 +1445,9 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="K24" s="34"/>
-    </row>
-    <row r="25" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K24" s="36"/>
+    </row>
+    <row r="25" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>38</v>
       </c>
@@ -1467,7 +1467,7 @@
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>39</v>
       </c>
@@ -1491,7 +1491,7 @@
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
     </row>
-    <row r="27" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>40</v>
       </c>
@@ -1516,7 +1516,7 @@
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
     </row>
-    <row r="28" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>41</v>
       </c>
@@ -1541,7 +1541,7 @@
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
     </row>
-    <row r="29" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>42</v>
       </c>
@@ -1565,7 +1565,7 @@
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
     </row>
-    <row r="30" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>43</v>
       </c>
@@ -1589,7 +1589,7 @@
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
     </row>
-    <row r="31" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>44</v>
       </c>
@@ -1613,7 +1613,7 @@
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
     </row>
-    <row r="32" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>45</v>
       </c>
@@ -1637,7 +1637,7 @@
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
     </row>
-    <row r="33" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>46</v>
       </c>
@@ -1661,7 +1661,7 @@
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
     </row>
-    <row r="34" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>47</v>
       </c>
@@ -1685,7 +1685,7 @@
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
     </row>
-    <row r="35" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>48</v>
       </c>
@@ -1709,7 +1709,7 @@
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
     </row>
-    <row r="36" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>49</v>
       </c>
@@ -1733,7 +1733,7 @@
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
     </row>
-    <row r="37" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>50</v>
       </c>
@@ -1757,7 +1757,7 @@
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
     </row>
-    <row r="38" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>51</v>
       </c>
@@ -1781,7 +1781,7 @@
       <c r="U38" s="1"/>
       <c r="V38" s="1"/>
     </row>
-    <row r="39" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>52</v>
       </c>
@@ -1808,7 +1808,7 @@
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
     </row>
-    <row r="40" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>53</v>
       </c>
@@ -1833,7 +1833,7 @@
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
     </row>
-    <row r="41" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>54</v>
       </c>
@@ -1858,7 +1858,7 @@
       <c r="U41" s="1"/>
       <c r="V41" s="1"/>
     </row>
-    <row r="42" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>55</v>
       </c>
@@ -1883,7 +1883,7 @@
       <c r="U42" s="1"/>
       <c r="V42" s="1"/>
     </row>
-    <row r="43" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>56</v>
       </c>
@@ -1908,7 +1908,7 @@
       <c r="U43" s="1"/>
       <c r="V43" s="1"/>
     </row>
-    <row r="44" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>57</v>
       </c>
@@ -1933,7 +1933,7 @@
       <c r="U44" s="1"/>
       <c r="V44" s="1"/>
     </row>
-    <row r="45" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>51</v>
       </c>
@@ -1958,7 +1958,7 @@
       <c r="U45" s="1"/>
       <c r="V45" s="1"/>
     </row>
-    <row r="46" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>58</v>
       </c>
@@ -1974,7 +1974,7 @@
       <c r="I46" s="1"/>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>61</v>
       </c>
@@ -1988,7 +1988,7 @@
       <c r="I47" s="1"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>59</v>
       </c>
@@ -2002,7 +2002,7 @@
       <c r="I48" s="1"/>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>60</v>
       </c>
@@ -2016,7 +2016,7 @@
       <c r="I49" s="1"/>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>108</v>
       </c>
@@ -2030,7 +2030,7 @@
       <c r="I50" s="1"/>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>107</v>
       </c>
@@ -2044,7 +2044,7 @@
       <c r="I51" s="1"/>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
@@ -2058,7 +2058,7 @@
       <c r="I52" s="1"/>
       <c r="K52" s="1"/>
     </row>
-    <row r="53" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="22" t="s">
         <v>63</v>
       </c>
@@ -2075,7 +2075,7 @@
       <c r="K53" s="1"/>
       <c r="O53" s="1"/>
     </row>
-    <row r="54" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="22" t="s">
         <v>64</v>
       </c>
@@ -2095,7 +2095,7 @@
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
     </row>
-    <row r="55" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="22" t="s">
         <v>65</v>
       </c>
@@ -2110,7 +2110,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="22" t="s">
         <v>68</v>
       </c>
@@ -2125,7 +2125,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="22" t="s">
         <v>69</v>
       </c>
@@ -2140,7 +2140,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="22" t="s">
         <v>70</v>
       </c>
@@ -2155,7 +2155,7 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="22" t="s">
         <v>71</v>
       </c>
@@ -2170,7 +2170,7 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="22" t="s">
         <v>105</v>
       </c>
@@ -2185,7 +2185,7 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="22" t="s">
         <v>66</v>
       </c>
@@ -2200,7 +2200,7 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="22" t="s">
         <v>67</v>
       </c>
@@ -2214,7 +2214,7 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
     </row>
-    <row r="63" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="22" t="s">
         <v>100</v>
       </c>
@@ -2228,7 +2228,7 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
     </row>
-    <row r="64" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="22" t="s">
         <v>104</v>
       </c>
@@ -2243,7 +2243,7 @@
       <c r="H64" s="1"/>
       <c r="J64" s="1"/>
     </row>
-    <row r="65" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="22" t="s">
         <v>72</v>
       </c>
@@ -2264,583 +2264,583 @@
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
     </row>
-    <row r="66" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="22"/>
       <c r="M66" s="1"/>
     </row>
-    <row r="67" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="22"/>
       <c r="J67" s="21"/>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
     </row>
-    <row r="68" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="22"/>
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
     </row>
-    <row r="69" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1"/>
       <c r="J69" s="21"/>
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
     </row>
-    <row r="70" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1"/>
       <c r="J70" s="21"/>
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
     </row>
-    <row r="71" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1"/>
       <c r="J71" s="21"/>
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
     </row>
-    <row r="72" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J72" s="21"/>
     </row>
-    <row r="74" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J74" s="21"/>
     </row>
-    <row r="75" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J75" s="21"/>
     </row>
-    <row r="76" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J76" s="21"/>
     </row>
-    <row r="109" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B109" s="19"/>
     </row>
-    <row r="110" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B110" s="19"/>
     </row>
-    <row r="111" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B111" s="19"/>
     </row>
-    <row r="112" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B112" s="19"/>
     </row>
-    <row r="113" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B113" s="19"/>
     </row>
-    <row r="114" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B114" s="19"/>
     </row>
-    <row r="115" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B115" s="19"/>
     </row>
-    <row r="116" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B116" s="19"/>
     </row>
-    <row r="117" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B117" s="19"/>
     </row>
-    <row r="118" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B118" s="19"/>
     </row>
-    <row r="119" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B119" s="19"/>
     </row>
-    <row r="120" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B120" s="19"/>
     </row>
-    <row r="121" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B121" s="19"/>
     </row>
-    <row r="122" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B122" s="19"/>
     </row>
-    <row r="123" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B123" s="19"/>
     </row>
-    <row r="124" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B124" s="19"/>
     </row>
-    <row r="125" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B125" s="19"/>
     </row>
-    <row r="126" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B126" s="19"/>
     </row>
-    <row r="127" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B127" s="19"/>
     </row>
-    <row r="128" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B128" s="19"/>
     </row>
-    <row r="129" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B129" s="19"/>
     </row>
-    <row r="130" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B130" s="19"/>
     </row>
-    <row r="131" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B131" s="19"/>
     </row>
-    <row r="132" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B132" s="19"/>
     </row>
-    <row r="133" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B133" s="19"/>
     </row>
-    <row r="134" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B134" s="19"/>
     </row>
-    <row r="135" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B135" s="19"/>
     </row>
-    <row r="136" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B136" s="19"/>
     </row>
-    <row r="137" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B137" s="19"/>
     </row>
-    <row r="138" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B138" s="19"/>
     </row>
-    <row r="139" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B139" s="19"/>
     </row>
-    <row r="140" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B140" s="19"/>
     </row>
-    <row r="141" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B141" s="19"/>
     </row>
-    <row r="142" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B142" s="19"/>
     </row>
-    <row r="143" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B143" s="19"/>
     </row>
-    <row r="144" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B144" s="19"/>
     </row>
-    <row r="145" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B145" s="19"/>
     </row>
-    <row r="146" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B146" s="19"/>
     </row>
-    <row r="147" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B147" s="19"/>
     </row>
-    <row r="148" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B148" s="19"/>
     </row>
-    <row r="149" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B149" s="19"/>
     </row>
-    <row r="150" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B150" s="19"/>
     </row>
-    <row r="151" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B151" s="19"/>
     </row>
-    <row r="152" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B152" s="19"/>
     </row>
-    <row r="153" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B153" s="19"/>
     </row>
-    <row r="154" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B154" s="19"/>
     </row>
-    <row r="155" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B155" s="19"/>
     </row>
-    <row r="156" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B156" s="19"/>
     </row>
-    <row r="157" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B157" s="19"/>
     </row>
-    <row r="158" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B158" s="19"/>
     </row>
-    <row r="159" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B159" s="19"/>
     </row>
-    <row r="160" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B160" s="19"/>
     </row>
-    <row r="161" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B161" s="19"/>
     </row>
-    <row r="162" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B162" s="19"/>
     </row>
-    <row r="163" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B163" s="19"/>
     </row>
-    <row r="164" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B164" s="19"/>
     </row>
-    <row r="165" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B165" s="19"/>
     </row>
-    <row r="166" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B166" s="19"/>
     </row>
-    <row r="167" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B167" s="19"/>
     </row>
-    <row r="168" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B168" s="19"/>
     </row>
-    <row r="169" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B169" s="19"/>
     </row>
-    <row r="170" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B170" s="19"/>
     </row>
-    <row r="171" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B171" s="19"/>
     </row>
-    <row r="172" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B172" s="19"/>
     </row>
-    <row r="173" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B173" s="19"/>
     </row>
-    <row r="174" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B174" s="19"/>
     </row>
-    <row r="175" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B175" s="19"/>
     </row>
-    <row r="176" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B176" s="19"/>
     </row>
-    <row r="177" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B177" s="19"/>
     </row>
-    <row r="178" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B178" s="19"/>
     </row>
-    <row r="179" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B179" s="19"/>
     </row>
-    <row r="180" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B180" s="19"/>
     </row>
-    <row r="181" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B181" s="19"/>
     </row>
-    <row r="182" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B182" s="19"/>
     </row>
-    <row r="183" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B183" s="19"/>
     </row>
-    <row r="184" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B184" s="19"/>
     </row>
-    <row r="185" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B185" s="19"/>
     </row>
-    <row r="186" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B186" s="19"/>
     </row>
-    <row r="187" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B187" s="19"/>
     </row>
-    <row r="188" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B188" s="19"/>
     </row>
-    <row r="189" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B189" s="19"/>
     </row>
-    <row r="190" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B190" s="19"/>
     </row>
-    <row r="191" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B191" s="19"/>
     </row>
-    <row r="192" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B192" s="19"/>
     </row>
-    <row r="193" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B193" s="19"/>
     </row>
-    <row r="194" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B194" s="19"/>
     </row>
-    <row r="195" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B195" s="19"/>
     </row>
-    <row r="196" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B196" s="19"/>
     </row>
-    <row r="197" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B197" s="19"/>
     </row>
-    <row r="198" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B198" s="19"/>
     </row>
-    <row r="199" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B199" s="19"/>
     </row>
-    <row r="200" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B200" s="19"/>
     </row>
-    <row r="201" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B201" s="19"/>
     </row>
-    <row r="202" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B202" s="19"/>
     </row>
-    <row r="203" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B203" s="19"/>
     </row>
-    <row r="204" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B204" s="19"/>
     </row>
-    <row r="205" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B205" s="19"/>
     </row>
-    <row r="206" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B206" s="19"/>
     </row>
-    <row r="207" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B207" s="19"/>
     </row>
-    <row r="208" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B208" s="19"/>
     </row>
-    <row r="209" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B209" s="19"/>
     </row>
-    <row r="210" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B210" s="19"/>
     </row>
-    <row r="211" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B211" s="19"/>
     </row>
-    <row r="212" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B212" s="19"/>
     </row>
-    <row r="213" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B213" s="19"/>
     </row>
-    <row r="214" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B214" s="19"/>
     </row>
-    <row r="215" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B215" s="19"/>
     </row>
-    <row r="216" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B216" s="19"/>
     </row>
-    <row r="217" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B217" s="19"/>
     </row>
-    <row r="218" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B218" s="19"/>
     </row>
-    <row r="219" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B219" s="19"/>
     </row>
-    <row r="220" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B220" s="19"/>
     </row>
-    <row r="221" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B221" s="19"/>
     </row>
-    <row r="222" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B222" s="19"/>
     </row>
-    <row r="223" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B223" s="19"/>
     </row>
-    <row r="224" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B224" s="19"/>
     </row>
-    <row r="225" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B225" s="19"/>
     </row>
-    <row r="226" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B226" s="19"/>
     </row>
-    <row r="227" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B227" s="19"/>
     </row>
-    <row r="228" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B228" s="19"/>
     </row>
-    <row r="229" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B229" s="19"/>
     </row>
-    <row r="230" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B230" s="19"/>
     </row>
-    <row r="231" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B231" s="19"/>
     </row>
-    <row r="232" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B232" s="19"/>
     </row>
-    <row r="233" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B233" s="19"/>
     </row>
-    <row r="234" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B234" s="19"/>
     </row>
-    <row r="235" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B235" s="19"/>
     </row>
-    <row r="236" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B236" s="19"/>
     </row>
-    <row r="237" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B237" s="19"/>
     </row>
-    <row r="238" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B238" s="19"/>
     </row>
-    <row r="239" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B239" s="19"/>
     </row>
-    <row r="240" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B240" s="19"/>
     </row>
-    <row r="241" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B241" s="19"/>
     </row>
-    <row r="242" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B242" s="19"/>
     </row>
-    <row r="243" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B243" s="19"/>
     </row>
-    <row r="244" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B244" s="19"/>
     </row>
-    <row r="245" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B245" s="19"/>
     </row>
-    <row r="246" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B246" s="19"/>
     </row>
-    <row r="247" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B247" s="19"/>
     </row>
-    <row r="248" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B248" s="19"/>
     </row>
-    <row r="249" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B249" s="19"/>
     </row>
-    <row r="250" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B250" s="19"/>
     </row>
-    <row r="251" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B251" s="19"/>
     </row>
-    <row r="252" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B252" s="19"/>
     </row>
-    <row r="253" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B253" s="19"/>
     </row>
-    <row r="254" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B254" s="19"/>
     </row>
-    <row r="255" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B255" s="19"/>
     </row>
-    <row r="256" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B256" s="19"/>
     </row>
-    <row r="257" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B257" s="19"/>
     </row>
-    <row r="258" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B258" s="19"/>
     </row>
-    <row r="259" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B259" s="19"/>
     </row>
-    <row r="260" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B260" s="19"/>
     </row>
-    <row r="261" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B261" s="19"/>
     </row>
-    <row r="262" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B262" s="19"/>
     </row>
-    <row r="263" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B263" s="19"/>
     </row>
-    <row r="264" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B264" s="19"/>
     </row>
-    <row r="265" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B265" s="19"/>
     </row>
-    <row r="266" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B266" s="19"/>
     </row>
-    <row r="267" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B267" s="19"/>
     </row>
-    <row r="268" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B268" s="19"/>
     </row>
-    <row r="269" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B269" s="19"/>
     </row>
-    <row r="270" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B270" s="19"/>
     </row>
-    <row r="271" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B271" s="19"/>
     </row>
-    <row r="272" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B272" s="19"/>
     </row>
-    <row r="273" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B273" s="19"/>
     </row>
-    <row r="274" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B274" s="19"/>
     </row>
-    <row r="275" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B275" s="19"/>
     </row>
-    <row r="276" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B276" s="19"/>
     </row>
-    <row r="277" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B277" s="19"/>
     </row>
-    <row r="278" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B278" s="19"/>
     </row>
-    <row r="279" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B279" s="19"/>
     </row>
-    <row r="280" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B280" s="19"/>
     </row>
-    <row r="281" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B281" s="19"/>
     </row>
-    <row r="282" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B282" s="19"/>
     </row>
-    <row r="283" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B283" s="19"/>
     </row>
-    <row r="284" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B284" s="19"/>
     </row>
-    <row r="285" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B285" s="19"/>
     </row>
-    <row r="286" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B286" s="19"/>
     </row>
   </sheetData>
@@ -2856,88 +2856,89 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16226786-0325-4223-91E5-2589AE0E8571}">
   <dimension ref="A1:BA41"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.453125" style="24" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="12" width="8.5703125" style="24" customWidth="1"/>
-    <col min="13" max="13" width="6.28515625" style="22" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="16" max="24" width="8.5703125" style="24" customWidth="1"/>
-    <col min="25" max="16384" width="8.7109375" style="24"/>
+    <col min="3" max="12" width="8.54296875" style="24" customWidth="1"/>
+    <col min="13" max="13" width="6.26953125" style="22" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.36328125" style="24" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.26953125" style="24" bestFit="1" customWidth="1"/>
+    <col min="16" max="24" width="8.54296875" style="24" customWidth="1"/>
+    <col min="25" max="16384" width="8.7265625" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:53" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="37"/>
-      <c r="N1" s="35" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="39"/>
+      <c r="N1" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="37"/>
-    </row>
-    <row r="2" spans="1:53" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="39"/>
+    </row>
+    <row r="2" spans="1:53" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="40"/>
-      <c r="N2" s="41" t="s">
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="42"/>
+      <c r="N2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="O2" s="36" t="s">
+      <c r="O2" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36"/>
-      <c r="X2" s="37"/>
-    </row>
-    <row r="3" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="42"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="39"/>
+    </row>
+    <row r="3" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="46"/>
+      <c r="B3" s="44"/>
       <c r="C3" s="25">
         <v>1010</v>
       </c>
@@ -2968,7 +2969,7 @@
       <c r="L3" s="25">
         <v>2807</v>
       </c>
-      <c r="N3" s="42"/>
+      <c r="N3" s="44"/>
       <c r="O3" s="25">
         <v>1010</v>
       </c>
@@ -3000,7 +3001,7 @@
         <v>3009</v>
       </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A4" s="32" t="s">
         <v>18</v>
       </c>
@@ -3072,7 +3073,7 @@
       </c>
       <c r="BA4" s="31"/>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A5" s="32" t="s">
         <v>22</v>
       </c>
@@ -3144,7 +3145,7 @@
       </c>
       <c r="BA5" s="31"/>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A6" s="32" t="s">
         <v>19</v>
       </c>
@@ -3216,7 +3217,7 @@
       </c>
       <c r="BA6" s="31"/>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A7" s="32" t="s">
         <v>23</v>
       </c>
@@ -3288,7 +3289,7 @@
       </c>
       <c r="BA7" s="31"/>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A8" s="32" t="s">
         <v>20</v>
       </c>
@@ -3360,7 +3361,7 @@
       </c>
       <c r="BA8" s="31"/>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A9" s="32" t="s">
         <v>21</v>
       </c>
@@ -3432,7 +3433,7 @@
       </c>
       <c r="BA9" s="31"/>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A10" s="32" t="s">
         <v>24</v>
       </c>
@@ -3504,7 +3505,7 @@
       </c>
       <c r="BA10" s="31"/>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A11" s="32" t="s">
         <v>25</v>
       </c>
@@ -3576,7 +3577,7 @@
       </c>
       <c r="BA11" s="31"/>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A12" s="32" t="s">
         <v>27</v>
       </c>
@@ -3648,7 +3649,7 @@
       </c>
       <c r="BA12" s="31"/>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A13" s="32" t="s">
         <v>26</v>
       </c>
@@ -3720,7 +3721,7 @@
       </c>
       <c r="BA13" s="31"/>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.35">
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
@@ -3734,15 +3735,15 @@
       <c r="M14" s="24"/>
       <c r="BA14" s="31"/>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.35">
       <c r="B15" s="28"/>
       <c r="BA15" s="31"/>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.35">
       <c r="B16" s="28"/>
       <c r="BA16" s="31"/>
     </row>
-    <row r="17" spans="3:53" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:53" x14ac:dyDescent="0.35">
       <c r="C17" s="26"/>
       <c r="D17" s="26"/>
       <c r="E17" s="26"/>
@@ -3755,7 +3756,7 @@
       <c r="L17" s="26"/>
       <c r="BA17" s="31"/>
     </row>
-    <row r="18" spans="3:53" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:53" x14ac:dyDescent="0.35">
       <c r="C18" s="26"/>
       <c r="D18" s="26"/>
       <c r="E18" s="26"/>
@@ -3768,7 +3769,7 @@
       <c r="L18" s="26"/>
       <c r="BA18" s="31"/>
     </row>
-    <row r="19" spans="3:53" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:53" x14ac:dyDescent="0.35">
       <c r="C19" s="26"/>
       <c r="D19" s="26"/>
       <c r="E19" s="26"/>
@@ -3781,7 +3782,7 @@
       <c r="L19" s="26"/>
       <c r="BA19" s="31"/>
     </row>
-    <row r="20" spans="3:53" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:53" x14ac:dyDescent="0.35">
       <c r="C20" s="26"/>
       <c r="D20" s="26"/>
       <c r="E20" s="26"/>
@@ -3794,7 +3795,7 @@
       <c r="L20" s="26"/>
       <c r="BA20" s="31"/>
     </row>
-    <row r="21" spans="3:53" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:53" x14ac:dyDescent="0.35">
       <c r="C21" s="26"/>
       <c r="D21" s="26"/>
       <c r="E21" s="26"/>
@@ -3807,7 +3808,7 @@
       <c r="L21" s="26"/>
       <c r="BA21" s="31"/>
     </row>
-    <row r="22" spans="3:53" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:53" x14ac:dyDescent="0.35">
       <c r="C22" s="26"/>
       <c r="D22" s="26"/>
       <c r="E22" s="26"/>
@@ -3820,7 +3821,7 @@
       <c r="L22" s="26"/>
       <c r="BA22" s="31"/>
     </row>
-    <row r="23" spans="3:53" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:53" x14ac:dyDescent="0.35">
       <c r="C23" s="26"/>
       <c r="D23" s="26"/>
       <c r="E23" s="26"/>
@@ -3833,7 +3834,7 @@
       <c r="L23" s="26"/>
       <c r="BA23" s="31"/>
     </row>
-    <row r="24" spans="3:53" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:53" x14ac:dyDescent="0.35">
       <c r="C24" s="26"/>
       <c r="D24" s="26"/>
       <c r="E24" s="26"/>
@@ -3846,7 +3847,7 @@
       <c r="L24" s="26"/>
       <c r="BA24" s="31"/>
     </row>
-    <row r="25" spans="3:53" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:53" x14ac:dyDescent="0.35">
       <c r="C25" s="26"/>
       <c r="D25" s="26"/>
       <c r="E25" s="26"/>
@@ -3859,7 +3860,7 @@
       <c r="L25" s="26"/>
       <c r="BA25" s="31"/>
     </row>
-    <row r="26" spans="3:53" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:53" x14ac:dyDescent="0.35">
       <c r="C26" s="26"/>
       <c r="D26" s="26"/>
       <c r="E26" s="26"/>
@@ -3872,73 +3873,73 @@
       <c r="L26" s="26"/>
       <c r="BA26" s="31"/>
     </row>
-    <row r="27" spans="3:53" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:53" x14ac:dyDescent="0.35">
       <c r="BA27" s="31"/>
     </row>
-    <row r="28" spans="3:53" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:53" x14ac:dyDescent="0.35">
       <c r="BA28" s="31"/>
     </row>
-    <row r="29" spans="3:53" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:53" x14ac:dyDescent="0.35">
       <c r="BA29" s="31"/>
     </row>
-    <row r="30" spans="3:53" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:53" x14ac:dyDescent="0.35">
       <c r="BA30" s="31"/>
     </row>
-    <row r="31" spans="3:53" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:53" x14ac:dyDescent="0.35">
       <c r="BA31" s="31"/>
     </row>
-    <row r="32" spans="3:53" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:53" x14ac:dyDescent="0.35">
       <c r="BA32" s="31"/>
     </row>
-    <row r="33" spans="4:53" x14ac:dyDescent="0.25">
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="53"/>
-      <c r="K33" s="53"/>
-      <c r="M33" s="54"/>
+    <row r="33" spans="4:53" x14ac:dyDescent="0.35">
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="33"/>
+      <c r="M33" s="34"/>
       <c r="BA33" s="31"/>
     </row>
-    <row r="34" spans="4:53" x14ac:dyDescent="0.25">
-      <c r="D34" s="53"/>
-      <c r="E34" s="53"/>
-      <c r="G34" s="53"/>
-      <c r="J34" s="53"/>
-      <c r="K34" s="53"/>
+    <row r="34" spans="4:53" x14ac:dyDescent="0.35">
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="33"/>
       <c r="BA34" s="31"/>
     </row>
-    <row r="35" spans="4:53" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:53" x14ac:dyDescent="0.35">
       <c r="BA35" s="31"/>
     </row>
-    <row r="36" spans="4:53" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:53" x14ac:dyDescent="0.35">
       <c r="BA36" s="31"/>
     </row>
-    <row r="37" spans="4:53" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:53" x14ac:dyDescent="0.35">
       <c r="BA37" s="31"/>
     </row>
-    <row r="38" spans="4:53" x14ac:dyDescent="0.25">
-      <c r="D38" s="53"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="53"/>
-      <c r="G38" s="53"/>
-      <c r="H38" s="53"/>
-      <c r="I38" s="53"/>
-      <c r="J38" s="53"/>
-      <c r="K38" s="53"/>
-      <c r="L38" s="53"/>
-      <c r="M38" s="54"/>
+    <row r="38" spans="4:53" x14ac:dyDescent="0.35">
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="33"/>
+      <c r="M38" s="34"/>
       <c r="BA38" s="31"/>
     </row>
-    <row r="39" spans="4:53" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:53" x14ac:dyDescent="0.35">
       <c r="BA39" s="31"/>
     </row>
-    <row r="40" spans="4:53" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:53" x14ac:dyDescent="0.35">
       <c r="BA40" s="31"/>
     </row>
-    <row r="41" spans="4:53" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:53" x14ac:dyDescent="0.35">
       <c r="BA41" s="31"/>
     </row>
   </sheetData>
@@ -3963,55 +3964,55 @@
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="6" customWidth="1"/>
-    <col min="4" max="7" width="10.5703125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.7109375" style="6"/>
+    <col min="1" max="1" width="5.54296875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" style="6" customWidth="1"/>
+    <col min="4" max="7" width="10.54296875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.7265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.7265625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A1" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="47"/>
-    </row>
-    <row r="2" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="48" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="49"/>
+    </row>
+    <row r="2" spans="1:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="46"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="50" t="s">
+      <c r="F2" s="48"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="52" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="48"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="51"/>
+    <row r="3" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="50"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="53"/>
       <c r="E3" s="3" t="s">
         <v>30</v>
       </c>
@@ -4021,10 +4022,10 @@
       <c r="G3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="42"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="48"/>
+      <c r="H3" s="44"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A4" s="50"/>
       <c r="B4" s="4" t="s">
         <v>18</v>
       </c>
@@ -4063,8 +4064,8 @@
       <c r="S4" s="8"/>
       <c r="T4" s="5"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="48"/>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A5" s="50"/>
       <c r="B5" s="4" t="s">
         <v>22</v>
       </c>
@@ -4101,8 +4102,8 @@
       <c r="S5" s="8"/>
       <c r="T5" s="5"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="48"/>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A6" s="50"/>
       <c r="B6" s="4" t="s">
         <v>19</v>
       </c>
@@ -4139,8 +4140,8 @@
       <c r="S6" s="8"/>
       <c r="T6" s="5"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="48"/>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A7" s="50"/>
       <c r="B7" s="4" t="s">
         <v>23</v>
       </c>
@@ -4177,8 +4178,8 @@
       <c r="S7" s="8"/>
       <c r="T7" s="5"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="48"/>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A8" s="50"/>
       <c r="B8" s="4" t="s">
         <v>20</v>
       </c>
@@ -4215,8 +4216,8 @@
       <c r="S8" s="8"/>
       <c r="T8" s="7"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="48"/>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A9" s="50"/>
       <c r="B9" s="4" t="s">
         <v>21</v>
       </c>
@@ -4253,8 +4254,8 @@
       <c r="S9" s="8"/>
       <c r="T9" s="7"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="48"/>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A10" s="50"/>
       <c r="B10" s="4" t="s">
         <v>24</v>
       </c>
@@ -4291,8 +4292,8 @@
       <c r="S10" s="8"/>
       <c r="T10" s="7"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="48"/>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A11" s="50"/>
       <c r="B11" s="4" t="s">
         <v>25</v>
       </c>
@@ -4328,8 +4329,8 @@
       <c r="P11" s="7"/>
       <c r="S11" s="8"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="48"/>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A12" s="50"/>
       <c r="B12" s="4" t="s">
         <v>27</v>
       </c>
@@ -4365,8 +4366,8 @@
       <c r="P12" s="7"/>
       <c r="S12" s="8"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="49"/>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A13" s="51"/>
       <c r="B13" s="9" t="s">
         <v>26</v>
       </c>
@@ -4402,72 +4403,72 @@
       <c r="P13" s="7"/>
       <c r="S13" s="8"/>
     </row>
-    <row r="16" spans="1:20" ht="12.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="14:19" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="14:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="17" spans="14:19" ht="12" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="18" spans="14:19" x14ac:dyDescent="0.45">
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
       <c r="Q18" s="30"/>
       <c r="S18" s="8"/>
     </row>
-    <row r="19" spans="14:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="14:19" x14ac:dyDescent="0.45">
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="30"/>
       <c r="S19" s="8"/>
     </row>
-    <row r="20" spans="14:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="14:19" x14ac:dyDescent="0.45">
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="5"/>
       <c r="S20" s="8"/>
     </row>
-    <row r="21" spans="14:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="14:19" x14ac:dyDescent="0.45">
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
       <c r="Q21" s="30"/>
       <c r="S21" s="8"/>
     </row>
-    <row r="22" spans="14:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="14:19" x14ac:dyDescent="0.45">
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="30"/>
       <c r="S22" s="8"/>
     </row>
-    <row r="23" spans="14:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="14:19" x14ac:dyDescent="0.45">
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
       <c r="Q23" s="30"/>
       <c r="S23" s="8"/>
     </row>
-    <row r="24" spans="14:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="14:19" x14ac:dyDescent="0.45">
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
       <c r="Q24" s="30"/>
       <c r="S24" s="8"/>
     </row>
-    <row r="25" spans="14:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="14:19" x14ac:dyDescent="0.45">
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="30"/>
       <c r="S25" s="8"/>
     </row>
-    <row r="26" spans="14:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="14:19" x14ac:dyDescent="0.45">
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
       <c r="Q26" s="30"/>
       <c r="S26" s="8"/>
     </row>
-    <row r="27" spans="14:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="14:19" x14ac:dyDescent="0.45">
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research\dev\LRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35FFCD47-2D72-4231-9157-CAD11B32553C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6D6559-2E16-4269-B5BD-FA04946075BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5140" yWindow="340" windowWidth="28800" windowHeight="15460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="2" r:id="rId1"/>
@@ -392,7 +392,7 @@
     <t>            m   =   100x                    ,</t>
   </si>
   <si>
-    <t>[1010, 1104, 1409, 1603, 1905, 2104, 2412, 2703, 2710, 2807]</t>
+    <t>[1010, 1104, 1409, 1604, 1905, 2104, 2412, 2703, 2710, 2807]</t>
   </si>
 </sst>
 </file>
@@ -759,7 +759,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -837,12 +837,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1425,7 +1419,7 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="K23" s="35"/>
+      <c r="K23" s="33"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
@@ -1445,7 +1439,7 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="K24" s="36"/>
+      <c r="K24" s="34"/>
     </row>
     <row r="25" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
@@ -2856,8 +2850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16226786-0325-4223-91E5-2589AE0E8571}">
   <dimension ref="A1:BA41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -2866,79 +2860,79 @@
     <col min="2" max="2" width="9" style="24" bestFit="1" customWidth="1"/>
     <col min="3" max="12" width="8.54296875" style="24" customWidth="1"/>
     <col min="13" max="13" width="6.26953125" style="22" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.36328125" style="24" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.453125" style="24" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="6.26953125" style="24" bestFit="1" customWidth="1"/>
     <col min="16" max="24" width="8.54296875" style="24" customWidth="1"/>
     <col min="25" max="16384" width="8.7265625" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="39"/>
-      <c r="N1" s="37" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="37"/>
+      <c r="N1" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="39"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="37"/>
     </row>
     <row r="2" spans="1:53" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="42"/>
-      <c r="N2" s="43" t="s">
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="40"/>
+      <c r="N2" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="O2" s="38" t="s">
+      <c r="O2" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="39"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="37"/>
     </row>
     <row r="3" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="46"/>
-      <c r="B3" s="44"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="42"/>
       <c r="C3" s="25">
         <v>1010</v>
       </c>
@@ -2949,7 +2943,7 @@
         <v>1409</v>
       </c>
       <c r="F3" s="25">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="G3" s="25">
         <v>1905</v>
@@ -2969,7 +2963,7 @@
       <c r="L3" s="25">
         <v>2807</v>
       </c>
-      <c r="N3" s="44"/>
+      <c r="N3" s="42"/>
       <c r="O3" s="25">
         <v>1010</v>
       </c>
@@ -3009,7 +3003,7 @@
         <v>54793</v>
       </c>
       <c r="C4" s="26">
-        <v>55034.2</v>
+        <v>54778.400000000001</v>
       </c>
       <c r="D4" s="26">
         <v>54778.400000000001</v>
@@ -3021,55 +3015,55 @@
         <v>54778.400000000001</v>
       </c>
       <c r="G4" s="26">
-        <v>54778.400000000001</v>
+        <v>55007.8</v>
       </c>
       <c r="H4" s="26">
         <v>55007.8</v>
       </c>
       <c r="I4" s="26">
+        <v>54778.400000000001</v>
+      </c>
+      <c r="J4" s="26">
+        <v>54778.400000000001</v>
+      </c>
+      <c r="K4" s="26">
+        <v>54778.400000000001</v>
+      </c>
+      <c r="L4" s="26">
         <v>55007.8</v>
-      </c>
-      <c r="J4" s="26">
-        <v>55007.8</v>
-      </c>
-      <c r="K4" s="26">
-        <v>55007.8</v>
-      </c>
-      <c r="L4" s="28">
-        <v>54778.400000000001</v>
       </c>
       <c r="N4" s="24" t="s">
         <v>18</v>
       </c>
       <c r="O4" s="26">
+        <v>6.048</v>
+      </c>
+      <c r="P4" s="26">
         <v>5.718</v>
       </c>
-      <c r="P4" s="26">
-        <v>5.859</v>
-      </c>
       <c r="Q4" s="26">
-        <v>5.9379999999999997</v>
+        <v>5.9530000000000003</v>
       </c>
       <c r="R4" s="26">
-        <v>6.11</v>
+        <v>5.9059999999999997</v>
       </c>
       <c r="S4" s="26">
-        <v>5.6879999999999997</v>
+        <v>5.9059999999999997</v>
       </c>
       <c r="T4" s="26">
-        <v>5.7809999999999997</v>
+        <v>5.8129999999999997</v>
       </c>
       <c r="U4" s="26">
-        <v>5.734</v>
+        <v>5.907</v>
       </c>
       <c r="V4" s="26">
-        <v>5.7809999999999997</v>
+        <v>5.6870000000000003</v>
       </c>
       <c r="W4" s="26">
-        <v>5.4690000000000003</v>
+        <v>5.7969999999999997</v>
       </c>
       <c r="X4" s="26">
-        <v>5.4690000000000003</v>
+        <v>5.875</v>
       </c>
       <c r="BA4" s="31"/>
     </row>
@@ -3081,19 +3075,19 @@
         <v>460.4</v>
       </c>
       <c r="C5" s="26">
-        <v>472.33499999999998</v>
+        <v>473.00900000000001</v>
       </c>
       <c r="D5" s="26">
-        <v>473.00900000000001</v>
+        <v>470.21499999999997</v>
       </c>
       <c r="E5" s="26">
-        <v>473.00900000000001</v>
+        <v>476.12099999999998</v>
       </c>
       <c r="F5" s="26">
         <v>460.37400000000002</v>
       </c>
       <c r="G5" s="26">
-        <v>470.322</v>
+        <v>476.12099999999998</v>
       </c>
       <c r="H5" s="26">
         <v>460.37400000000002</v>
@@ -3102,46 +3096,46 @@
         <v>460.37400000000002</v>
       </c>
       <c r="J5" s="26">
-        <v>476.06200000000001</v>
+        <v>473.00900000000001</v>
       </c>
       <c r="K5" s="26">
-        <v>473.00900000000001</v>
-      </c>
-      <c r="L5" s="28">
-        <v>470.21499999999997</v>
+        <v>463.91399999999999</v>
+      </c>
+      <c r="L5" s="26">
+        <v>470.322</v>
       </c>
       <c r="N5" s="24" t="s">
         <v>22</v>
       </c>
       <c r="O5" s="26">
-        <v>11.827999999999999</v>
+        <v>10.859</v>
       </c>
       <c r="P5" s="26">
-        <v>11.702</v>
+        <v>10.593</v>
       </c>
       <c r="Q5" s="26">
-        <v>10.984999999999999</v>
+        <v>10.406000000000001</v>
       </c>
       <c r="R5" s="26">
-        <v>11.045999999999999</v>
+        <v>10.704000000000001</v>
       </c>
       <c r="S5" s="26">
-        <v>11.016</v>
+        <v>11.218999999999999</v>
       </c>
       <c r="T5" s="26">
-        <v>11.343999999999999</v>
+        <v>11.047000000000001</v>
       </c>
       <c r="U5" s="26">
-        <v>10.952</v>
+        <v>11.702999999999999</v>
       </c>
       <c r="V5" s="26">
-        <v>10.391</v>
+        <v>11.202999999999999</v>
       </c>
       <c r="W5" s="26">
-        <v>11.015000000000001</v>
+        <v>10.843999999999999</v>
       </c>
       <c r="X5" s="26">
-        <v>10.938000000000001</v>
+        <v>11.202999999999999</v>
       </c>
       <c r="BA5" s="31"/>
     </row>
@@ -3153,67 +3147,67 @@
         <v>63242</v>
       </c>
       <c r="C6" s="26">
-        <v>64221.3</v>
+        <v>63765</v>
       </c>
       <c r="D6" s="26">
-        <v>64589.8</v>
+        <v>63215.199999999997</v>
       </c>
       <c r="E6" s="26">
-        <v>63550.5</v>
+        <v>64046.5</v>
       </c>
       <c r="F6" s="26">
-        <v>63215.199999999997</v>
+        <v>63765</v>
       </c>
       <c r="G6" s="26">
-        <v>63550.5</v>
+        <v>63714.400000000001</v>
       </c>
       <c r="H6" s="26">
-        <v>64439</v>
+        <v>63765</v>
       </c>
       <c r="I6" s="26">
-        <v>63215.199999999997</v>
+        <v>64465.3</v>
       </c>
       <c r="J6" s="26">
         <v>63215.199999999997</v>
       </c>
       <c r="K6" s="26">
-        <v>64243.3</v>
-      </c>
-      <c r="L6" s="28">
-        <v>63215.199999999997</v>
+        <v>63550.5</v>
+      </c>
+      <c r="L6" s="26">
+        <v>63966.2</v>
       </c>
       <c r="N6" s="24" t="s">
         <v>19</v>
       </c>
       <c r="O6" s="26">
-        <v>14.156000000000001</v>
+        <v>14.452999999999999</v>
       </c>
       <c r="P6" s="26">
-        <v>13.797000000000001</v>
+        <v>14.063000000000001</v>
       </c>
       <c r="Q6" s="26">
-        <v>13.672000000000001</v>
+        <v>14.015000000000001</v>
       </c>
       <c r="R6" s="26">
-        <v>14.109</v>
+        <v>13.234</v>
       </c>
       <c r="S6" s="26">
-        <v>13.532</v>
+        <v>14.186999999999999</v>
       </c>
       <c r="T6" s="26">
-        <v>14.186999999999999</v>
+        <v>13.313000000000001</v>
       </c>
       <c r="U6" s="26">
-        <v>14.468999999999999</v>
+        <v>13.359</v>
       </c>
       <c r="V6" s="26">
-        <v>13.781000000000001</v>
+        <v>13.22</v>
       </c>
       <c r="W6" s="26">
-        <v>13.936999999999999</v>
+        <v>12.765000000000001</v>
       </c>
       <c r="X6" s="26">
-        <v>13.547000000000001</v>
+        <v>12.984999999999999</v>
       </c>
       <c r="BA6" s="31"/>
     </row>
@@ -3228,64 +3222,64 @@
         <v>355.78399999999999</v>
       </c>
       <c r="D7" s="26">
-        <v>356.45800000000003</v>
+        <v>355.78399999999999</v>
       </c>
       <c r="E7" s="26">
         <v>355.78399999999999</v>
       </c>
       <c r="F7" s="26">
+        <v>358.08300000000003</v>
+      </c>
+      <c r="G7" s="26">
         <v>355.78399999999999</v>
       </c>
-      <c r="G7" s="26">
+      <c r="H7" s="26">
         <v>356.18700000000001</v>
-      </c>
-      <c r="H7" s="26">
-        <v>355.78399999999999</v>
       </c>
       <c r="I7" s="26">
         <v>355.78399999999999</v>
       </c>
       <c r="J7" s="26">
-        <v>355.78399999999999</v>
+        <v>366.94499999999999</v>
       </c>
       <c r="K7" s="26">
-        <v>358.20499999999998</v>
-      </c>
-      <c r="L7" s="28">
-        <v>355.78399999999999</v>
+        <v>356.37400000000002</v>
+      </c>
+      <c r="L7" s="26">
+        <v>356.18700000000001</v>
       </c>
       <c r="N7" s="24" t="s">
         <v>23</v>
       </c>
       <c r="O7" s="26">
-        <v>32.750999999999998</v>
+        <v>32.25</v>
       </c>
       <c r="P7" s="26">
-        <v>33.89</v>
+        <v>32.170999999999999</v>
       </c>
       <c r="Q7" s="26">
-        <v>32.579000000000001</v>
+        <v>32.125</v>
       </c>
       <c r="R7" s="26">
-        <v>33.453000000000003</v>
+        <v>31.484000000000002</v>
       </c>
       <c r="S7" s="26">
-        <v>32.875</v>
+        <v>32.061999999999998</v>
       </c>
       <c r="T7" s="26">
-        <v>31.827000000000002</v>
+        <v>32.5</v>
       </c>
       <c r="U7" s="26">
-        <v>32.594000000000001</v>
+        <v>31.344000000000001</v>
       </c>
       <c r="V7" s="26">
-        <v>32.531999999999996</v>
+        <v>32.313000000000002</v>
       </c>
       <c r="W7" s="26">
-        <v>33.030999999999999</v>
+        <v>30.922000000000001</v>
       </c>
       <c r="X7" s="26">
-        <v>34.296999999999997</v>
+        <v>31.843</v>
       </c>
       <c r="BA7" s="31"/>
     </row>
@@ -3297,67 +3291,67 @@
         <v>195568</v>
       </c>
       <c r="C8" s="26">
-        <v>196689</v>
+        <v>195335</v>
       </c>
       <c r="D8" s="26">
-        <v>207878</v>
+        <v>195171</v>
       </c>
       <c r="E8" s="26">
-        <v>207652</v>
+        <v>196688</v>
       </c>
       <c r="F8" s="26">
-        <v>196082</v>
+        <v>195374</v>
       </c>
       <c r="G8" s="26">
-        <v>195446</v>
+        <v>195474</v>
       </c>
       <c r="H8" s="26">
-        <v>194874</v>
+        <v>195370</v>
       </c>
       <c r="I8" s="26">
-        <v>196245</v>
+        <v>197207</v>
       </c>
       <c r="J8" s="26">
-        <v>196739</v>
+        <v>195596</v>
       </c>
       <c r="K8" s="26">
-        <v>207383</v>
+        <v>194412</v>
       </c>
       <c r="L8" s="26">
-        <v>194681</v>
+        <v>194565</v>
       </c>
       <c r="N8" s="24" t="s">
         <v>20</v>
       </c>
       <c r="O8" s="26">
-        <v>30.827000000000002</v>
+        <v>31.437999999999999</v>
       </c>
       <c r="P8" s="26">
-        <v>30.375</v>
+        <v>31.562000000000001</v>
       </c>
       <c r="Q8" s="26">
-        <v>30.11</v>
+        <v>30.907</v>
       </c>
       <c r="R8" s="26">
-        <v>30.577999999999999</v>
+        <v>30.920999999999999</v>
       </c>
       <c r="S8" s="26">
-        <v>30.734000000000002</v>
+        <v>30.594000000000001</v>
       </c>
       <c r="T8" s="26">
-        <v>30.579000000000001</v>
+        <v>30.954000000000001</v>
       </c>
       <c r="U8" s="26">
-        <v>30.484000000000002</v>
+        <v>31.11</v>
       </c>
       <c r="V8" s="26">
-        <v>30.905000000000001</v>
+        <v>31.672000000000001</v>
       </c>
       <c r="W8" s="26">
-        <v>30.827999999999999</v>
+        <v>31.125</v>
       </c>
       <c r="X8" s="26">
-        <v>30.515000000000001</v>
+        <v>31.204000000000001</v>
       </c>
       <c r="BA8" s="31"/>
     </row>
@@ -3369,67 +3363,67 @@
         <v>204335</v>
       </c>
       <c r="C9" s="26">
-        <v>210807</v>
+        <v>210804</v>
       </c>
       <c r="D9" s="26">
-        <v>205012</v>
+        <v>206358</v>
       </c>
       <c r="E9" s="26">
-        <v>205051</v>
+        <v>210092</v>
       </c>
       <c r="F9" s="26">
-        <v>205019</v>
+        <v>209891</v>
       </c>
       <c r="G9" s="26">
-        <v>205051</v>
+        <v>206482</v>
       </c>
       <c r="H9" s="26">
-        <v>210645</v>
+        <v>205373</v>
       </c>
       <c r="I9" s="26">
-        <v>210397</v>
+        <v>214413</v>
       </c>
       <c r="J9" s="26">
-        <v>210788</v>
+        <v>210855</v>
       </c>
       <c r="K9" s="26">
-        <v>209628</v>
+        <v>210936</v>
       </c>
       <c r="L9" s="26">
-        <v>211158</v>
+        <v>210361</v>
       </c>
       <c r="N9" s="24" t="s">
         <v>21</v>
       </c>
       <c r="O9" s="26">
-        <v>36.484000000000002</v>
+        <v>36.405999999999999</v>
       </c>
       <c r="P9" s="26">
-        <v>37.203000000000003</v>
+        <v>35.795999999999999</v>
       </c>
       <c r="Q9" s="26">
-        <v>37.578000000000003</v>
+        <v>36.624000000000002</v>
       </c>
       <c r="R9" s="26">
-        <v>37.140999999999998</v>
+        <v>36.218000000000004</v>
       </c>
       <c r="S9" s="26">
-        <v>36.249000000000002</v>
+        <v>37.171999999999997</v>
       </c>
       <c r="T9" s="26">
-        <v>36.890999999999998</v>
+        <v>36.561999999999998</v>
       </c>
       <c r="U9" s="26">
-        <v>35.530999999999999</v>
+        <v>35.36</v>
       </c>
       <c r="V9" s="26">
-        <v>35.921999999999997</v>
+        <v>37.844000000000001</v>
       </c>
       <c r="W9" s="26">
-        <v>36.359000000000002</v>
+        <v>35.875</v>
       </c>
       <c r="X9" s="26">
-        <v>35.968000000000004</v>
+        <v>36.969000000000001</v>
       </c>
       <c r="BA9" s="31"/>
     </row>
@@ -3441,67 +3435,67 @@
         <v>842.9</v>
       </c>
       <c r="C10" s="26">
-        <v>873.99599999999998</v>
+        <v>860.54700000000003</v>
       </c>
       <c r="D10" s="26">
-        <v>844.9</v>
+        <v>845.91200000000003</v>
       </c>
       <c r="E10" s="26">
-        <v>860.827</v>
+        <v>859.98900000000003</v>
       </c>
       <c r="F10" s="26">
-        <v>872.83600000000001</v>
+        <v>846.92</v>
       </c>
       <c r="G10" s="26">
-        <v>846.92</v>
+        <v>849.71500000000003</v>
       </c>
       <c r="H10" s="26">
-        <v>844.35900000000004</v>
+        <v>885.18899999999996</v>
       </c>
       <c r="I10" s="26">
-        <v>871.779</v>
+        <v>867.25400000000002</v>
       </c>
       <c r="J10" s="26">
-        <v>867.88599999999997</v>
+        <v>869.04499999999996</v>
       </c>
       <c r="K10" s="26">
-        <v>858.726</v>
+        <v>852.63099999999997</v>
       </c>
       <c r="L10" s="26">
-        <v>880.06299999999999</v>
+        <v>855.16499999999996</v>
       </c>
       <c r="N10" s="24" t="s">
         <v>24</v>
       </c>
       <c r="O10" s="26">
-        <v>38.36</v>
+        <v>38.954000000000001</v>
       </c>
       <c r="P10" s="26">
-        <v>39.75</v>
+        <v>40.811999999999998</v>
       </c>
       <c r="Q10" s="26">
-        <v>41.203000000000003</v>
+        <v>39.171999999999997</v>
       </c>
       <c r="R10" s="26">
-        <v>40.344000000000001</v>
+        <v>38.718000000000004</v>
       </c>
       <c r="S10" s="26">
-        <v>39.64</v>
+        <v>39.218000000000004</v>
       </c>
       <c r="T10" s="26">
-        <v>40.265000000000001</v>
+        <v>38.75</v>
       </c>
       <c r="U10" s="26">
-        <v>41.734000000000002</v>
+        <v>40.421999999999997</v>
       </c>
       <c r="V10" s="26">
-        <v>39.563000000000002</v>
+        <v>38.795999999999999</v>
       </c>
       <c r="W10" s="26">
-        <v>40.688000000000002</v>
+        <v>39.170999999999999</v>
       </c>
       <c r="X10" s="26">
-        <v>40.749000000000002</v>
+        <v>39.375</v>
       </c>
       <c r="BA10" s="31"/>
     </row>
@@ -3513,67 +3507,67 @@
         <v>5809</v>
       </c>
       <c r="C11" s="26">
-        <v>6009.38</v>
+        <v>5944.92</v>
       </c>
       <c r="D11" s="26">
-        <v>5990.42</v>
+        <v>5731.98</v>
       </c>
       <c r="E11" s="26">
-        <v>5992.14</v>
+        <v>6047.18</v>
       </c>
       <c r="F11" s="26">
-        <v>5966.21</v>
+        <v>6085.47</v>
       </c>
       <c r="G11" s="26">
+        <v>6057.89</v>
+      </c>
+      <c r="H11" s="26">
         <v>5781.38</v>
       </c>
-      <c r="H11" s="26">
-        <v>5732.97</v>
-      </c>
       <c r="I11" s="26">
-        <v>5720.26</v>
+        <v>5846.8</v>
       </c>
       <c r="J11" s="26">
-        <v>5714.66</v>
+        <v>5899.51</v>
       </c>
       <c r="K11" s="26">
-        <v>5746.03</v>
+        <v>5794.81</v>
       </c>
       <c r="L11" s="26">
-        <v>6068.22</v>
+        <v>5949.03</v>
       </c>
       <c r="N11" s="24" t="s">
         <v>25</v>
       </c>
       <c r="O11" s="26">
-        <v>80.468999999999994</v>
+        <v>79.498999999999995</v>
       </c>
       <c r="P11" s="26">
-        <v>79.39</v>
+        <v>79.921999999999997</v>
       </c>
       <c r="Q11" s="26">
-        <v>79.751000000000005</v>
+        <v>77.063000000000002</v>
       </c>
       <c r="R11" s="26">
-        <v>79.75</v>
+        <v>78.983999999999995</v>
       </c>
       <c r="S11" s="26">
-        <v>79.813000000000002</v>
+        <v>78.001000000000005</v>
       </c>
       <c r="T11" s="26">
-        <v>79.296999999999997</v>
+        <v>79.203000000000003</v>
       </c>
       <c r="U11" s="26">
-        <v>79.5</v>
+        <v>76.593999999999994</v>
       </c>
       <c r="V11" s="26">
-        <v>79.828000000000003</v>
+        <v>79.718999999999994</v>
       </c>
       <c r="W11" s="26">
-        <v>81.125</v>
+        <v>78.015000000000001</v>
       </c>
       <c r="X11" s="26">
-        <v>79.86</v>
+        <v>79.141000000000005</v>
       </c>
       <c r="BA11" s="31"/>
     </row>
@@ -3585,67 +3579,67 @@
         <v>44011.7</v>
       </c>
       <c r="C12" s="26">
-        <v>44936.7</v>
+        <v>45545</v>
       </c>
       <c r="D12" s="26">
-        <v>45445.8</v>
+        <v>46091.7</v>
       </c>
       <c r="E12" s="26">
-        <v>45423.199999999997</v>
+        <v>45017.8</v>
       </c>
       <c r="F12" s="26">
-        <v>45601.3</v>
+        <v>44524.5</v>
       </c>
       <c r="G12" s="26">
-        <v>44471.6</v>
+        <v>44755.199999999997</v>
       </c>
       <c r="H12" s="26">
-        <v>44633.8</v>
+        <v>46243.8</v>
       </c>
       <c r="I12" s="26">
-        <v>44995.1</v>
+        <v>44842.6</v>
       </c>
       <c r="J12" s="26">
-        <v>44792.7</v>
+        <v>45107.5</v>
       </c>
       <c r="K12" s="26">
-        <v>44564.7</v>
+        <v>45391.4</v>
       </c>
       <c r="L12" s="26">
-        <v>44552.1</v>
+        <v>44669.7</v>
       </c>
       <c r="N12" s="24" t="s">
         <v>27</v>
       </c>
       <c r="O12" s="26">
-        <v>114.5</v>
+        <v>115</v>
       </c>
       <c r="P12" s="26">
-        <v>114.78100000000001</v>
+        <v>112.98399999999999</v>
       </c>
       <c r="Q12" s="26">
-        <v>115.25</v>
+        <v>113.51600000000001</v>
       </c>
       <c r="R12" s="26">
-        <v>112.23399999999999</v>
+        <v>114.39</v>
       </c>
       <c r="S12" s="26">
-        <v>113.67100000000001</v>
+        <v>116.47</v>
       </c>
       <c r="T12" s="26">
-        <v>117.60899999999999</v>
+        <v>114.14100000000001</v>
       </c>
       <c r="U12" s="26">
-        <v>114.422</v>
+        <v>113.672</v>
       </c>
       <c r="V12" s="26">
-        <v>115.09399999999999</v>
+        <v>114.46899999999999</v>
       </c>
       <c r="W12" s="26">
-        <v>114.265</v>
+        <v>112.06399999999999</v>
       </c>
       <c r="X12" s="26">
-        <v>115.078</v>
+        <v>115.327</v>
       </c>
       <c r="BA12" s="31"/>
     </row>
@@ -3657,67 +3651,67 @@
         <v>476684</v>
       </c>
       <c r="C13" s="26">
-        <v>477703</v>
+        <v>479916</v>
       </c>
       <c r="D13" s="26">
-        <v>482386</v>
+        <v>500291</v>
       </c>
       <c r="E13" s="26">
-        <v>482633</v>
+        <v>478071</v>
       </c>
       <c r="F13" s="26">
-        <v>479798</v>
+        <v>476668</v>
       </c>
       <c r="G13" s="26">
-        <v>491089</v>
+        <v>492538</v>
       </c>
       <c r="H13" s="26">
-        <v>479590</v>
+        <v>498837</v>
       </c>
       <c r="I13" s="26">
-        <v>480897</v>
+        <v>483297</v>
       </c>
       <c r="J13" s="26">
-        <v>483846</v>
+        <v>479692</v>
       </c>
       <c r="K13" s="26">
-        <v>481231</v>
+        <v>482571</v>
       </c>
       <c r="L13" s="26">
-        <v>485133</v>
+        <v>480928</v>
       </c>
       <c r="N13" s="24" t="s">
         <v>26</v>
       </c>
       <c r="O13" s="26">
-        <v>200.82900000000001</v>
+        <v>202.23400000000001</v>
       </c>
       <c r="P13" s="26">
-        <v>199.703</v>
+        <v>204.28100000000001</v>
       </c>
       <c r="Q13" s="26">
-        <v>204.14</v>
+        <v>203.39099999999999</v>
       </c>
       <c r="R13" s="26">
-        <v>198.84399999999999</v>
+        <v>201.59399999999999</v>
       </c>
       <c r="S13" s="26">
-        <v>199.048</v>
+        <v>202.751</v>
       </c>
       <c r="T13" s="26">
-        <v>200.48400000000001</v>
+        <v>198.86</v>
       </c>
       <c r="U13" s="26">
-        <v>203.40700000000001</v>
+        <v>199.92099999999999</v>
       </c>
       <c r="V13" s="26">
-        <v>202.03100000000001</v>
+        <v>198.46799999999999</v>
       </c>
       <c r="W13" s="26">
-        <v>205.56299999999999</v>
+        <v>200.203</v>
       </c>
       <c r="X13" s="26">
-        <v>204.43799999999999</v>
+        <v>198.21899999999999</v>
       </c>
       <c r="BA13" s="31"/>
     </row>
@@ -3743,7 +3737,7 @@
       <c r="B16" s="28"/>
       <c r="BA16" s="31"/>
     </row>
-    <row r="17" spans="3:53" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:53" x14ac:dyDescent="0.35">
       <c r="C17" s="26"/>
       <c r="D17" s="26"/>
       <c r="E17" s="26"/>
@@ -3756,7 +3750,7 @@
       <c r="L17" s="26"/>
       <c r="BA17" s="31"/>
     </row>
-    <row r="18" spans="3:53" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:53" x14ac:dyDescent="0.35">
       <c r="C18" s="26"/>
       <c r="D18" s="26"/>
       <c r="E18" s="26"/>
@@ -3769,7 +3763,7 @@
       <c r="L18" s="26"/>
       <c r="BA18" s="31"/>
     </row>
-    <row r="19" spans="3:53" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:53" x14ac:dyDescent="0.35">
       <c r="C19" s="26"/>
       <c r="D19" s="26"/>
       <c r="E19" s="26"/>
@@ -3782,7 +3776,7 @@
       <c r="L19" s="26"/>
       <c r="BA19" s="31"/>
     </row>
-    <row r="20" spans="3:53" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:53" x14ac:dyDescent="0.35">
       <c r="C20" s="26"/>
       <c r="D20" s="26"/>
       <c r="E20" s="26"/>
@@ -3795,7 +3789,8 @@
       <c r="L20" s="26"/>
       <c r="BA20" s="31"/>
     </row>
-    <row r="21" spans="3:53" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:53" x14ac:dyDescent="0.35">
+      <c r="A21" s="26"/>
       <c r="C21" s="26"/>
       <c r="D21" s="26"/>
       <c r="E21" s="26"/>
@@ -3808,7 +3803,8 @@
       <c r="L21" s="26"/>
       <c r="BA21" s="31"/>
     </row>
-    <row r="22" spans="3:53" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:53" x14ac:dyDescent="0.35">
+      <c r="A22" s="26"/>
       <c r="C22" s="26"/>
       <c r="D22" s="26"/>
       <c r="E22" s="26"/>
@@ -3821,7 +3817,8 @@
       <c r="L22" s="26"/>
       <c r="BA22" s="31"/>
     </row>
-    <row r="23" spans="3:53" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:53" x14ac:dyDescent="0.35">
+      <c r="A23" s="26"/>
       <c r="C23" s="26"/>
       <c r="D23" s="26"/>
       <c r="E23" s="26"/>
@@ -3834,7 +3831,8 @@
       <c r="L23" s="26"/>
       <c r="BA23" s="31"/>
     </row>
-    <row r="24" spans="3:53" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:53" x14ac:dyDescent="0.35">
+      <c r="A24" s="26"/>
       <c r="C24" s="26"/>
       <c r="D24" s="26"/>
       <c r="E24" s="26"/>
@@ -3847,7 +3845,8 @@
       <c r="L24" s="26"/>
       <c r="BA24" s="31"/>
     </row>
-    <row r="25" spans="3:53" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:53" x14ac:dyDescent="0.35">
+      <c r="A25" s="26"/>
       <c r="C25" s="26"/>
       <c r="D25" s="26"/>
       <c r="E25" s="26"/>
@@ -3860,7 +3859,8 @@
       <c r="L25" s="26"/>
       <c r="BA25" s="31"/>
     </row>
-    <row r="26" spans="3:53" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:53" x14ac:dyDescent="0.35">
+      <c r="A26" s="26"/>
       <c r="C26" s="26"/>
       <c r="D26" s="26"/>
       <c r="E26" s="26"/>
@@ -3873,73 +3873,195 @@
       <c r="L26" s="26"/>
       <c r="BA26" s="31"/>
     </row>
-    <row r="27" spans="3:53" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:53" x14ac:dyDescent="0.35">
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
       <c r="BA27" s="31"/>
     </row>
-    <row r="28" spans="3:53" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:53" x14ac:dyDescent="0.35">
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
       <c r="BA28" s="31"/>
     </row>
-    <row r="29" spans="3:53" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:53" x14ac:dyDescent="0.35">
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
       <c r="BA29" s="31"/>
     </row>
-    <row r="30" spans="3:53" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:53" x14ac:dyDescent="0.35">
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
       <c r="BA30" s="31"/>
     </row>
-    <row r="31" spans="3:53" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:53" x14ac:dyDescent="0.35">
       <c r="BA31" s="31"/>
     </row>
-    <row r="32" spans="3:53" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:53" x14ac:dyDescent="0.35">
+      <c r="A32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
       <c r="BA32" s="31"/>
     </row>
-    <row r="33" spans="4:53" x14ac:dyDescent="0.35">
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
-      <c r="M33" s="34"/>
+    <row r="33" spans="1:53" x14ac:dyDescent="0.35">
+      <c r="A33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
       <c r="BA33" s="31"/>
     </row>
-    <row r="34" spans="4:53" x14ac:dyDescent="0.35">
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="33"/>
+    <row r="34" spans="1:53" x14ac:dyDescent="0.35">
+      <c r="A34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="26"/>
       <c r="BA34" s="31"/>
     </row>
-    <row r="35" spans="4:53" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:53" x14ac:dyDescent="0.35">
+      <c r="A35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="26"/>
       <c r="BA35" s="31"/>
     </row>
-    <row r="36" spans="4:53" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:53" x14ac:dyDescent="0.35">
+      <c r="A36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="26"/>
+      <c r="L36" s="26"/>
       <c r="BA36" s="31"/>
     </row>
-    <row r="37" spans="4:53" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:53" x14ac:dyDescent="0.35">
+      <c r="A37" s="26"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="26"/>
       <c r="BA37" s="31"/>
     </row>
-    <row r="38" spans="4:53" x14ac:dyDescent="0.35">
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="33"/>
-      <c r="J38" s="33"/>
-      <c r="K38" s="33"/>
-      <c r="L38" s="33"/>
-      <c r="M38" s="34"/>
+    <row r="38" spans="1:53" x14ac:dyDescent="0.35">
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="26"/>
       <c r="BA38" s="31"/>
     </row>
-    <row r="39" spans="4:53" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:53" x14ac:dyDescent="0.35">
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="26"/>
       <c r="BA39" s="31"/>
     </row>
-    <row r="40" spans="4:53" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:53" x14ac:dyDescent="0.35">
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="26"/>
       <c r="BA40" s="31"/>
     </row>
-    <row r="41" spans="4:53" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:53" x14ac:dyDescent="0.35">
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="26"/>
+      <c r="L41" s="26"/>
       <c r="BA41" s="31"/>
     </row>
   </sheetData>
@@ -3960,8 +4082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348A00D3-4455-4871-A842-3FB0F610BDD7}">
   <dimension ref="A1:T27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.45"/>
@@ -3975,44 +4097,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="49"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
     </row>
     <row r="2" spans="1:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="E2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="48"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="52" t="s">
+      <c r="F2" s="46"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="50" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="50"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="53"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="51"/>
       <c r="E3" s="3" t="s">
         <v>30</v>
       </c>
@@ -4022,10 +4144,10 @@
       <c r="G3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="44"/>
+      <c r="H3" s="42"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A4" s="50"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="4" t="s">
         <v>18</v>
       </c>
@@ -4042,15 +4164,15 @@
       </c>
       <c r="F4" s="7">
         <f>AVERAGE(data!C4:L4) / data!B4 -1</f>
-        <v>1.8750570328325278E-3</v>
+        <v>9.8954245980342748E-4</v>
       </c>
       <c r="G4" s="7">
         <f>MAX(data!C4:L4) / data!B4 -1</f>
-        <v>4.4020221561147377E-3</v>
+        <v>3.9202087857939105E-3</v>
       </c>
       <c r="H4" s="8">
         <f>AVERAGE(data!O4:X4)</f>
-        <v>5.7547000000000006</v>
+        <v>5.8609999999999998</v>
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
@@ -4065,7 +4187,7 @@
       <c r="T4" s="5"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A5" s="50"/>
+      <c r="A5" s="48"/>
       <c r="B5" s="4" t="s">
         <v>22</v>
       </c>
@@ -4082,15 +4204,15 @@
       </c>
       <c r="F5" s="7">
         <f>AVERAGE(data!C5:L5) / data!B5 -1</f>
-        <v>1.8480234578627242E-2</v>
+        <v>1.7339921807124181E-2</v>
       </c>
       <c r="G5" s="7">
         <f>MAX(data!C5:L5) / data!B5 -1</f>
-        <v>3.4018245004344028E-2</v>
+        <v>3.4146394439617644E-2</v>
       </c>
       <c r="H5" s="8">
         <f>AVERAGE(data!O5:X5)</f>
-        <v>11.121700000000001</v>
+        <v>10.978100000000001</v>
       </c>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
@@ -4103,7 +4225,7 @@
       <c r="T5" s="5"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A6" s="50"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="4" t="s">
         <v>19</v>
       </c>
@@ -4120,15 +4242,15 @@
       </c>
       <c r="F6" s="7">
         <f>AVERAGE(data!C6:L6) / data!B6 -1</f>
-        <v>7.961797539609794E-3</v>
+        <v>7.9825116220233472E-3</v>
       </c>
       <c r="G6" s="7">
         <f>MAX(data!C6:L6) / data!B6 -1</f>
-        <v>2.131178647101617E-2</v>
+        <v>1.9343158027892882E-2</v>
       </c>
       <c r="H6" s="8">
         <f>AVERAGE(data!O6:X6)</f>
-        <v>13.918700000000001</v>
+        <v>13.5594</v>
       </c>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
@@ -4141,7 +4263,7 @@
       <c r="T6" s="5"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A7" s="50"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="4" t="s">
         <v>23</v>
       </c>
@@ -4158,15 +4280,15 @@
       </c>
       <c r="F7" s="7">
         <f>AVERAGE(data!C7:L7) / data!B7 -1</f>
-        <v>9.3816750983699571E-4</v>
+        <v>4.1304103428891903E-3</v>
       </c>
       <c r="G7" s="7">
         <f>MAX(data!C7:L7) / data!B7 -1</f>
-        <v>6.7594154019110508E-3</v>
+        <v>3.1323777403035269E-2</v>
       </c>
       <c r="H7" s="8">
         <f>AVERAGE(data!O7:X7)</f>
-        <v>32.982899999999994</v>
+        <v>31.901400000000002</v>
       </c>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
@@ -4179,7 +4301,7 @@
       <c r="T7" s="5"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A8" s="50"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="4" t="s">
         <v>20</v>
       </c>
@@ -4192,19 +4314,19 @@
       </c>
       <c r="E8" s="7">
         <f>MIN(data!C8:L8) / data!B8 -1</f>
-        <v>-4.5355068313834845E-3</v>
+        <v>-5.9109874826147601E-3</v>
       </c>
       <c r="F8" s="7">
         <f>AVERAGE(data!C8:L8) / data!B8 -1</f>
-        <v>1.9424957048187919E-2</v>
+        <v>-2.4952957539059462E-4</v>
       </c>
       <c r="G8" s="7">
         <f>MAX(data!C8:L8) / data!B8 -1</f>
-        <v>6.2944858054487351E-2</v>
+        <v>8.3807166816656231E-3</v>
       </c>
       <c r="H8" s="8">
         <f>AVERAGE(data!O8:X8)</f>
-        <v>30.593499999999999</v>
+        <v>31.148700000000002</v>
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
@@ -4217,7 +4339,7 @@
       <c r="T8" s="7"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A9" s="50"/>
+      <c r="A9" s="48"/>
       <c r="B9" s="4" t="s">
         <v>21</v>
       </c>
@@ -4230,19 +4352,19 @@
       </c>
       <c r="E9" s="7">
         <f>MIN(data!C9:L9) / data!B9 -1</f>
-        <v>3.3131866787383668E-3</v>
+        <v>5.0798933124525103E-3</v>
       </c>
       <c r="F9" s="7">
         <f>AVERAGE(data!C9:L9) / data!B9 -1</f>
-        <v>1.9676511610835279E-2</v>
+        <v>2.5553625174346006E-2</v>
       </c>
       <c r="G9" s="7">
         <f>MAX(data!C9:L9) / data!B9 -1</f>
-        <v>3.3391244769618522E-2</v>
+        <v>4.9320968018205402E-2</v>
       </c>
       <c r="H9" s="8">
         <f>AVERAGE(data!O9:X9)</f>
-        <v>36.532600000000002</v>
+        <v>36.482599999999998</v>
       </c>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
@@ -4255,7 +4377,7 @@
       <c r="T9" s="7"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A10" s="50"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="4" t="s">
         <v>24</v>
       </c>
@@ -4268,19 +4390,19 @@
       </c>
       <c r="E10" s="7">
         <f>MIN(data!C10:L10) / data!B10 -1</f>
-        <v>1.7309289358169444E-3</v>
+        <v>3.5733776248665361E-3</v>
       </c>
       <c r="F10" s="7">
         <f>AVERAGE(data!C10:L10) / data!B10 -1</f>
-        <v>2.2931783129671368E-2</v>
+        <v>1.9381539921698998E-2</v>
       </c>
       <c r="G10" s="7">
         <f>MAX(data!C10:L10) / data!B10 -1</f>
-        <v>4.4089453078657082E-2</v>
+        <v>5.0170838770909887E-2</v>
       </c>
       <c r="H10" s="8">
         <f>AVERAGE(data!O10:X10)</f>
-        <v>40.229599999999998</v>
+        <v>39.338800000000006</v>
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
@@ -4293,7 +4415,7 @@
       <c r="T10" s="7"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A11" s="50"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="4" t="s">
         <v>25</v>
       </c>
@@ -4306,19 +4428,19 @@
       </c>
       <c r="E11" s="7">
         <f>MIN(data!C11:L11) / data!B11 -1</f>
-        <v>-1.624031674987092E-2</v>
+        <v>-1.3258736443449881E-2</v>
       </c>
       <c r="F11" s="7">
         <f>AVERAGE(data!C11:L11) / data!B11 -1</f>
-        <v>1.0873988638319787E-2</v>
+        <v>1.8057669134102339E-2</v>
       </c>
       <c r="G11" s="7">
         <f>MAX(data!C11:L11) / data!B11 -1</f>
-        <v>4.4623859528318155E-2</v>
+        <v>4.7593389567911926E-2</v>
       </c>
       <c r="H11" s="8">
         <f>AVERAGE(data!O11:X11)</f>
-        <v>79.878299999999996</v>
+        <v>78.614099999999979</v>
       </c>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
@@ -4330,7 +4452,7 @@
       <c r="S11" s="8"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A12" s="50"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="4" t="s">
         <v>27</v>
       </c>
@@ -4343,19 +4465,19 @@
       </c>
       <c r="E12" s="7">
         <f>MIN(data!C12:L12) / data!B12 -1</f>
-        <v>1.0449494111792967E-2</v>
+        <v>1.1651447228805178E-2</v>
       </c>
       <c r="F12" s="7">
         <f>AVERAGE(data!C12:L12) / data!B12 -1</f>
-        <v>2.1130744779229271E-2</v>
+        <v>2.7429524421915152E-2</v>
       </c>
       <c r="G12" s="7">
         <f>MAX(data!C12:L12) / data!B12 -1</f>
-        <v>3.6117668710820228E-2</v>
+        <v>5.0716059593244767E-2</v>
       </c>
       <c r="H12" s="8">
         <f>AVERAGE(data!O12:X12)</f>
-        <v>114.69040000000003</v>
+        <v>114.20330000000001</v>
       </c>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
@@ -4367,7 +4489,7 @@
       <c r="S12" s="8"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A13" s="51"/>
+      <c r="A13" s="49"/>
       <c r="B13" s="9" t="s">
         <v>26</v>
       </c>
@@ -4380,19 +4502,19 @@
       </c>
       <c r="E13" s="7">
         <f>MIN(data!C13:L13) / data!B13 -1</f>
-        <v>2.1376845037803793E-3</v>
+        <v>-3.3565213013231343E-5</v>
       </c>
       <c r="F13" s="7">
         <f>AVERAGE(data!C13:L13) / data!B13 -1</f>
-        <v>1.2055365818865349E-2</v>
+        <v>1.8034798734591462E-2</v>
       </c>
       <c r="G13" s="7">
         <f>MAX(data!C13:L13) / data!B13 -1</f>
-        <v>3.0219180840976412E-2</v>
+        <v>4.9523373975212115E-2</v>
       </c>
       <c r="H13" s="8">
         <f>AVERAGE(data!O13:X13)</f>
-        <v>201.84870000000001</v>
+        <v>200.9922</v>
       </c>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research\dev\LRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6D6559-2E16-4269-B5BD-FA04946075BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6AB0A12-5547-4FA1-9AB1-75F0C3E2FA8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5140" yWindow="340" windowWidth="28800" windowHeight="15460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="113">
   <si>
     <t>Instance</t>
   </si>
@@ -380,9 +380,6 @@
     <t>CPU RunTime (s)</t>
   </si>
   <si>
-    <t>                        :interopt!</t>
-  </si>
-  <si>
     <t>                        :swap!              ,            </t>
   </si>
   <si>
@@ -392,7 +389,13 @@
     <t>            m   =   100x                    ,</t>
   </si>
   <si>
-    <t>[1010, 1104, 1409, 1604, 1905, 2104, 2412, 2703, 2710, 2807]</t>
+    <t>[1010, 1104, 1509, 1604, 1905, 2104, 2412, 2703, 2710, 2807]</t>
+  </si>
+  <si>
+    <t>                        :swapdepot!</t>
+  </si>
+  <si>
+    <t>                        :interopt!          ,</t>
   </si>
 </sst>
 </file>
@@ -1180,10 +1183,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5551421D-4FE7-47B7-A546-15E7A05240A9}">
-  <dimension ref="A1:V286"/>
+  <dimension ref="A1:V287"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1327,7 +1330,7 @@
         <v>32</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1392,7 +1395,7 @@
     </row>
     <row r="22" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1427,7 +1430,7 @@
     </row>
     <row r="24" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2012,7 +2015,7 @@
     </row>
     <row r="50" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2026,7 +2029,7 @@
     </row>
     <row r="51" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2040,7 +2043,7 @@
     </row>
     <row r="52" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2053,67 +2056,66 @@
       <c r="K52" s="1"/>
     </row>
     <row r="53" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="22" t="s">
-        <v>63</v>
+      <c r="A53" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="K53" s="1"/>
-      <c r="O53" s="1"/>
     </row>
     <row r="54" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
       <c r="O54" s="1"/>
     </row>
     <row r="55" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
     </row>
     <row r="56" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="22" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
@@ -2121,14 +2123,14 @@
     </row>
     <row r="57" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
@@ -2136,14 +2138,14 @@
     </row>
     <row r="58" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
@@ -2151,14 +2153,14 @@
     </row>
     <row r="59" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
@@ -2166,14 +2168,14 @@
     </row>
     <row r="60" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="22" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
@@ -2181,14 +2183,14 @@
     </row>
     <row r="61" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="22" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
@@ -2196,86 +2198,95 @@
     </row>
     <row r="62" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
     </row>
     <row r="63" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="22" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
     </row>
     <row r="64" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="22" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
-      <c r="J64" s="1"/>
     </row>
     <row r="65" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="22" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
       <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
-      <c r="L65" s="1"/>
-      <c r="M65" s="1"/>
-      <c r="N65" s="1"/>
-      <c r="O65" s="1"/>
     </row>
     <row r="66" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="22"/>
+      <c r="A66" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
       <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
     </row>
     <row r="67" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="22"/>
-      <c r="J67" s="21"/>
-      <c r="L67" s="1"/>
       <c r="M67" s="1"/>
     </row>
     <row r="68" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="22"/>
+      <c r="J68" s="21"/>
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
     </row>
     <row r="69" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="1"/>
-      <c r="J69" s="21"/>
+      <c r="A69" s="22"/>
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
     </row>
@@ -2292,10 +2303,13 @@
       <c r="M71" s="1"/>
     </row>
     <row r="72" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="1"/>
       <c r="J72" s="21"/>
-    </row>
-    <row r="74" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J74" s="21"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+    </row>
+    <row r="73" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J73" s="21"/>
     </row>
     <row r="75" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J75" s="21"/>
@@ -2303,8 +2317,8 @@
     <row r="76" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J76" s="21"/>
     </row>
-    <row r="109" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B109" s="19"/>
+    <row r="77" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J77" s="21"/>
     </row>
     <row r="110" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B110" s="19"/>
@@ -2836,6 +2850,9 @@
     </row>
     <row r="286" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B286" s="19"/>
+    </row>
+    <row r="287" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B287" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2848,10 +2865,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16226786-0325-4223-91E5-2589AE0E8571}">
-  <dimension ref="A1:BA41"/>
+  <dimension ref="A1:BA15"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="O3" sqref="O3:X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -2861,7 +2878,7 @@
     <col min="3" max="12" width="8.54296875" style="24" customWidth="1"/>
     <col min="13" max="13" width="6.26953125" style="22" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.453125" style="24" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.26953125" style="24" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8" style="24" bestFit="1" customWidth="1"/>
     <col min="16" max="24" width="8.54296875" style="24" customWidth="1"/>
     <col min="25" max="16384" width="8.7265625" style="24"/>
   </cols>
@@ -2940,7 +2957,7 @@
         <v>1104</v>
       </c>
       <c r="E3" s="25">
-        <v>1409</v>
+        <v>1509</v>
       </c>
       <c r="F3" s="25">
         <v>1604</v>
@@ -2971,28 +2988,28 @@
         <v>1104</v>
       </c>
       <c r="Q3" s="25">
+        <v>1509</v>
+      </c>
+      <c r="R3" s="25">
+        <v>1604</v>
+      </c>
+      <c r="S3" s="25">
         <v>1905</v>
       </c>
-      <c r="R3" s="25">
+      <c r="T3" s="25">
         <v>2104</v>
       </c>
-      <c r="S3" s="25">
+      <c r="U3" s="25">
         <v>2412</v>
       </c>
-      <c r="T3" s="25">
+      <c r="V3" s="25">
         <v>2703</v>
       </c>
-      <c r="U3" s="25">
-        <v>2704</v>
-      </c>
-      <c r="V3" s="25">
+      <c r="W3" s="25">
         <v>2710</v>
       </c>
-      <c r="W3" s="25">
-        <v>2806</v>
-      </c>
       <c r="X3" s="25">
-        <v>3009</v>
+        <v>2807</v>
       </c>
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.35">
@@ -3018,7 +3035,7 @@
         <v>55007.8</v>
       </c>
       <c r="H4" s="26">
-        <v>55007.8</v>
+        <v>54778.400000000001</v>
       </c>
       <c r="I4" s="26">
         <v>54778.400000000001</v>
@@ -3030,40 +3047,40 @@
         <v>54778.400000000001</v>
       </c>
       <c r="L4" s="26">
-        <v>55007.8</v>
+        <v>54778.400000000001</v>
       </c>
       <c r="N4" s="24" t="s">
         <v>18</v>
       </c>
       <c r="O4" s="26">
-        <v>6.048</v>
+        <v>6.173</v>
       </c>
       <c r="P4" s="26">
-        <v>5.718</v>
+        <v>6.173</v>
       </c>
       <c r="Q4" s="26">
-        <v>5.9530000000000003</v>
+        <v>6.173</v>
       </c>
       <c r="R4" s="26">
-        <v>5.9059999999999997</v>
+        <v>6</v>
       </c>
       <c r="S4" s="26">
-        <v>5.9059999999999997</v>
+        <v>6.9059999999999997</v>
       </c>
       <c r="T4" s="26">
-        <v>5.8129999999999997</v>
+        <v>6.766</v>
       </c>
       <c r="U4" s="26">
-        <v>5.907</v>
+        <v>6.5</v>
       </c>
       <c r="V4" s="26">
-        <v>5.6870000000000003</v>
+        <v>5.891</v>
       </c>
       <c r="W4" s="26">
-        <v>5.7969999999999997</v>
+        <v>6.2039999999999997</v>
       </c>
       <c r="X4" s="26">
-        <v>5.875</v>
+        <v>5.827</v>
       </c>
       <c r="BA4" s="31"/>
     </row>
@@ -3075,19 +3092,19 @@
         <v>460.4</v>
       </c>
       <c r="C5" s="26">
+        <v>460.37400000000002</v>
+      </c>
+      <c r="D5" s="26">
+        <v>476.12099999999998</v>
+      </c>
+      <c r="E5" s="26">
         <v>473.00900000000001</v>
-      </c>
-      <c r="D5" s="26">
-        <v>470.21499999999997</v>
-      </c>
-      <c r="E5" s="26">
-        <v>476.12099999999998</v>
       </c>
       <c r="F5" s="26">
         <v>460.37400000000002</v>
       </c>
       <c r="G5" s="26">
-        <v>476.12099999999998</v>
+        <v>473.00900000000001</v>
       </c>
       <c r="H5" s="26">
         <v>460.37400000000002</v>
@@ -3096,46 +3113,46 @@
         <v>460.37400000000002</v>
       </c>
       <c r="J5" s="26">
-        <v>473.00900000000001</v>
+        <v>476.12099999999998</v>
       </c>
       <c r="K5" s="26">
-        <v>463.91399999999999</v>
+        <v>460.37400000000002</v>
       </c>
       <c r="L5" s="26">
-        <v>470.322</v>
+        <v>470.21499999999997</v>
       </c>
       <c r="N5" s="24" t="s">
         <v>22</v>
       </c>
       <c r="O5" s="26">
-        <v>10.859</v>
+        <v>11.920999999999999</v>
       </c>
       <c r="P5" s="26">
-        <v>10.593</v>
+        <v>11.577999999999999</v>
       </c>
       <c r="Q5" s="26">
-        <v>10.406000000000001</v>
+        <v>11.920999999999999</v>
       </c>
       <c r="R5" s="26">
-        <v>10.704000000000001</v>
+        <v>11.438000000000001</v>
       </c>
       <c r="S5" s="26">
-        <v>11.218999999999999</v>
+        <v>12.061999999999999</v>
       </c>
       <c r="T5" s="26">
-        <v>11.047000000000001</v>
+        <v>12.28</v>
       </c>
       <c r="U5" s="26">
-        <v>11.702999999999999</v>
+        <v>12.36</v>
       </c>
       <c r="V5" s="26">
-        <v>11.202999999999999</v>
+        <v>13.031000000000001</v>
       </c>
       <c r="W5" s="26">
-        <v>10.843999999999999</v>
+        <v>12.954000000000001</v>
       </c>
       <c r="X5" s="26">
-        <v>11.202999999999999</v>
+        <v>13.765000000000001</v>
       </c>
       <c r="BA5" s="31"/>
     </row>
@@ -3147,67 +3164,67 @@
         <v>63242</v>
       </c>
       <c r="C6" s="26">
-        <v>63765</v>
+        <v>63215.199999999997</v>
       </c>
       <c r="D6" s="26">
         <v>63215.199999999997</v>
       </c>
       <c r="E6" s="26">
-        <v>64046.5</v>
+        <v>63215.199999999997</v>
       </c>
       <c r="F6" s="26">
-        <v>63765</v>
+        <v>63215.199999999997</v>
       </c>
       <c r="G6" s="26">
-        <v>63714.400000000001</v>
+        <v>63215.199999999997</v>
       </c>
       <c r="H6" s="26">
         <v>63765</v>
       </c>
       <c r="I6" s="26">
-        <v>64465.3</v>
+        <v>65020.1</v>
       </c>
       <c r="J6" s="26">
-        <v>63215.199999999997</v>
+        <v>64119.1</v>
       </c>
       <c r="K6" s="26">
-        <v>63550.5</v>
+        <v>64155</v>
       </c>
       <c r="L6" s="26">
-        <v>63966.2</v>
+        <v>65351.8</v>
       </c>
       <c r="N6" s="24" t="s">
         <v>19</v>
       </c>
       <c r="O6" s="26">
-        <v>14.452999999999999</v>
+        <v>18.11</v>
       </c>
       <c r="P6" s="26">
-        <v>14.063000000000001</v>
+        <v>17.312000000000001</v>
       </c>
       <c r="Q6" s="26">
-        <v>14.015000000000001</v>
+        <v>17.812000000000001</v>
       </c>
       <c r="R6" s="26">
-        <v>13.234</v>
+        <v>18.515000000000001</v>
       </c>
       <c r="S6" s="26">
-        <v>14.186999999999999</v>
+        <v>18.625</v>
       </c>
       <c r="T6" s="26">
-        <v>13.313000000000001</v>
+        <v>17.155999999999999</v>
       </c>
       <c r="U6" s="26">
-        <v>13.359</v>
+        <v>17.577000000000002</v>
       </c>
       <c r="V6" s="26">
-        <v>13.22</v>
+        <v>17.295999999999999</v>
       </c>
       <c r="W6" s="26">
-        <v>12.765000000000001</v>
+        <v>16.672000000000001</v>
       </c>
       <c r="X6" s="26">
-        <v>12.984999999999999</v>
+        <v>16.890999999999998</v>
       </c>
       <c r="BA6" s="31"/>
     </row>
@@ -3222,64 +3239,64 @@
         <v>355.78399999999999</v>
       </c>
       <c r="D7" s="26">
-        <v>355.78399999999999</v>
+        <v>358.46</v>
       </c>
       <c r="E7" s="26">
-        <v>355.78399999999999</v>
+        <v>356.37400000000002</v>
       </c>
       <c r="F7" s="26">
-        <v>358.08300000000003</v>
+        <v>369.45600000000002</v>
       </c>
       <c r="G7" s="26">
         <v>355.78399999999999</v>
       </c>
       <c r="H7" s="26">
-        <v>356.18700000000001</v>
+        <v>355.78399999999999</v>
       </c>
       <c r="I7" s="26">
         <v>355.78399999999999</v>
       </c>
       <c r="J7" s="26">
-        <v>366.94499999999999</v>
+        <v>372.15</v>
       </c>
       <c r="K7" s="26">
-        <v>356.37400000000002</v>
+        <v>355.78399999999999</v>
       </c>
       <c r="L7" s="26">
-        <v>356.18700000000001</v>
+        <v>355.78399999999999</v>
       </c>
       <c r="N7" s="24" t="s">
         <v>23</v>
       </c>
       <c r="O7" s="26">
-        <v>32.25</v>
+        <v>36.109000000000002</v>
       </c>
       <c r="P7" s="26">
-        <v>32.170999999999999</v>
+        <v>35.234999999999999</v>
       </c>
       <c r="Q7" s="26">
-        <v>32.125</v>
+        <v>34.765999999999998</v>
       </c>
       <c r="R7" s="26">
-        <v>31.484000000000002</v>
+        <v>36.265999999999998</v>
       </c>
       <c r="S7" s="26">
-        <v>32.061999999999998</v>
+        <v>36.905999999999999</v>
       </c>
       <c r="T7" s="26">
-        <v>32.5</v>
+        <v>38.265999999999998</v>
       </c>
       <c r="U7" s="26">
-        <v>31.344000000000001</v>
+        <v>39.578000000000003</v>
       </c>
       <c r="V7" s="26">
-        <v>32.313000000000002</v>
+        <v>40.219000000000001</v>
       </c>
       <c r="W7" s="26">
-        <v>30.922000000000001</v>
+        <v>37.780999999999999</v>
       </c>
       <c r="X7" s="26">
-        <v>31.843</v>
+        <v>40.171999999999997</v>
       </c>
       <c r="BA7" s="31"/>
     </row>
@@ -3291,67 +3308,67 @@
         <v>195568</v>
       </c>
       <c r="C8" s="26">
-        <v>195335</v>
+        <v>195594</v>
       </c>
       <c r="D8" s="26">
-        <v>195171</v>
+        <v>197431</v>
       </c>
       <c r="E8" s="26">
-        <v>196688</v>
+        <v>195585</v>
       </c>
       <c r="F8" s="26">
-        <v>195374</v>
+        <v>196157</v>
       </c>
       <c r="G8" s="26">
-        <v>195474</v>
+        <v>196144</v>
       </c>
       <c r="H8" s="26">
-        <v>195370</v>
+        <v>195166</v>
       </c>
       <c r="I8" s="26">
-        <v>197207</v>
+        <v>195014</v>
       </c>
       <c r="J8" s="26">
-        <v>195596</v>
+        <v>195476</v>
       </c>
       <c r="K8" s="26">
-        <v>194412</v>
+        <v>197107</v>
       </c>
       <c r="L8" s="26">
-        <v>194565</v>
+        <v>195967</v>
       </c>
       <c r="N8" s="24" t="s">
         <v>20</v>
       </c>
       <c r="O8" s="26">
-        <v>31.437999999999999</v>
+        <v>39.094000000000001</v>
       </c>
       <c r="P8" s="26">
-        <v>31.562000000000001</v>
+        <v>40.079000000000001</v>
       </c>
       <c r="Q8" s="26">
-        <v>30.907</v>
+        <v>38.357999999999997</v>
       </c>
       <c r="R8" s="26">
-        <v>30.920999999999999</v>
+        <v>39.045999999999999</v>
       </c>
       <c r="S8" s="26">
-        <v>30.594000000000001</v>
+        <v>39.25</v>
       </c>
       <c r="T8" s="26">
-        <v>30.954000000000001</v>
+        <v>39.406999999999996</v>
       </c>
       <c r="U8" s="26">
-        <v>31.11</v>
+        <v>39.14</v>
       </c>
       <c r="V8" s="26">
-        <v>31.672000000000001</v>
+        <v>38.420999999999999</v>
       </c>
       <c r="W8" s="26">
-        <v>31.125</v>
+        <v>38.936999999999998</v>
       </c>
       <c r="X8" s="26">
-        <v>31.204000000000001</v>
+        <v>38.795999999999999</v>
       </c>
       <c r="BA8" s="31"/>
     </row>
@@ -3363,67 +3380,67 @@
         <v>204335</v>
       </c>
       <c r="C9" s="26">
-        <v>210804</v>
+        <v>205346</v>
       </c>
       <c r="D9" s="26">
-        <v>206358</v>
+        <v>205051</v>
       </c>
       <c r="E9" s="26">
-        <v>210092</v>
+        <v>204710</v>
       </c>
       <c r="F9" s="26">
-        <v>209891</v>
+        <v>205012</v>
       </c>
       <c r="G9" s="26">
-        <v>206482</v>
+        <v>205012</v>
       </c>
       <c r="H9" s="26">
-        <v>205373</v>
+        <v>205051</v>
       </c>
       <c r="I9" s="26">
-        <v>214413</v>
+        <v>204367</v>
       </c>
       <c r="J9" s="26">
-        <v>210855</v>
+        <v>205012</v>
       </c>
       <c r="K9" s="26">
-        <v>210936</v>
+        <v>205209</v>
       </c>
       <c r="L9" s="26">
-        <v>210361</v>
+        <v>205012</v>
       </c>
       <c r="N9" s="24" t="s">
         <v>21</v>
       </c>
       <c r="O9" s="26">
-        <v>36.405999999999999</v>
+        <v>41.531999999999996</v>
       </c>
       <c r="P9" s="26">
-        <v>35.795999999999999</v>
+        <v>42.125</v>
       </c>
       <c r="Q9" s="26">
-        <v>36.624000000000002</v>
+        <v>41.469000000000001</v>
       </c>
       <c r="R9" s="26">
-        <v>36.218000000000004</v>
+        <v>39.795999999999999</v>
       </c>
       <c r="S9" s="26">
-        <v>37.171999999999997</v>
+        <v>40.655999999999999</v>
       </c>
       <c r="T9" s="26">
-        <v>36.561999999999998</v>
+        <v>40.171999999999997</v>
       </c>
       <c r="U9" s="26">
-        <v>35.36</v>
+        <v>39.420999999999999</v>
       </c>
       <c r="V9" s="26">
-        <v>37.844000000000001</v>
+        <v>40.156999999999996</v>
       </c>
       <c r="W9" s="26">
-        <v>35.875</v>
+        <v>40.140999999999998</v>
       </c>
       <c r="X9" s="26">
-        <v>36.969000000000001</v>
+        <v>40.453000000000003</v>
       </c>
       <c r="BA9" s="31"/>
     </row>
@@ -3435,67 +3452,67 @@
         <v>842.9</v>
       </c>
       <c r="C10" s="26">
-        <v>860.54700000000003</v>
+        <v>852.19399999999996</v>
       </c>
       <c r="D10" s="26">
-        <v>845.91200000000003</v>
+        <v>836.67700000000002</v>
       </c>
       <c r="E10" s="26">
-        <v>859.98900000000003</v>
+        <v>893.46699999999998</v>
       </c>
       <c r="F10" s="26">
-        <v>846.92</v>
+        <v>870.09299999999996</v>
       </c>
       <c r="G10" s="26">
-        <v>849.71500000000003</v>
+        <v>854.11500000000001</v>
       </c>
       <c r="H10" s="26">
-        <v>885.18899999999996</v>
+        <v>868.61699999999996</v>
       </c>
       <c r="I10" s="26">
-        <v>867.25400000000002</v>
+        <v>846.37400000000002</v>
       </c>
       <c r="J10" s="26">
-        <v>869.04499999999996</v>
+        <v>872.13199999999995</v>
       </c>
       <c r="K10" s="26">
-        <v>852.63099999999997</v>
+        <v>882.12199999999996</v>
       </c>
       <c r="L10" s="26">
-        <v>855.16499999999996</v>
+        <v>879.654</v>
       </c>
       <c r="N10" s="24" t="s">
         <v>24</v>
       </c>
       <c r="O10" s="26">
-        <v>38.954000000000001</v>
+        <v>42.703000000000003</v>
       </c>
       <c r="P10" s="26">
-        <v>40.811999999999998</v>
+        <v>43.484000000000002</v>
       </c>
       <c r="Q10" s="26">
-        <v>39.171999999999997</v>
+        <v>44.030999999999999</v>
       </c>
       <c r="R10" s="26">
-        <v>38.718000000000004</v>
+        <v>43.718000000000004</v>
       </c>
       <c r="S10" s="26">
-        <v>39.218000000000004</v>
+        <v>43.563000000000002</v>
       </c>
       <c r="T10" s="26">
-        <v>38.75</v>
+        <v>44.249000000000002</v>
       </c>
       <c r="U10" s="26">
-        <v>40.421999999999997</v>
+        <v>43.671999999999997</v>
       </c>
       <c r="V10" s="26">
-        <v>38.795999999999999</v>
+        <v>44.173000000000002</v>
       </c>
       <c r="W10" s="26">
-        <v>39.170999999999999</v>
+        <v>45.046999999999997</v>
       </c>
       <c r="X10" s="26">
-        <v>39.375</v>
+        <v>42.984999999999999</v>
       </c>
       <c r="BA10" s="31"/>
     </row>
@@ -3507,67 +3524,67 @@
         <v>5809</v>
       </c>
       <c r="C11" s="26">
-        <v>5944.92</v>
+        <v>5896.3</v>
       </c>
       <c r="D11" s="26">
-        <v>5731.98</v>
+        <v>5982.6</v>
       </c>
       <c r="E11" s="26">
-        <v>6047.18</v>
+        <v>5851.59</v>
       </c>
       <c r="F11" s="26">
-        <v>6085.47</v>
+        <v>5732.29</v>
       </c>
       <c r="G11" s="26">
-        <v>6057.89</v>
+        <v>5951.78</v>
       </c>
       <c r="H11" s="26">
-        <v>5781.38</v>
+        <v>5853.78</v>
       </c>
       <c r="I11" s="26">
-        <v>5846.8</v>
+        <v>5913.27</v>
       </c>
       <c r="J11" s="26">
-        <v>5899.51</v>
+        <v>5728.57</v>
       </c>
       <c r="K11" s="26">
-        <v>5794.81</v>
+        <v>5832.26</v>
       </c>
       <c r="L11" s="26">
-        <v>5949.03</v>
+        <v>5951.5</v>
       </c>
       <c r="N11" s="24" t="s">
         <v>25</v>
       </c>
       <c r="O11" s="26">
-        <v>79.498999999999995</v>
+        <v>85.89</v>
       </c>
       <c r="P11" s="26">
-        <v>79.921999999999997</v>
+        <v>91.733999999999995</v>
       </c>
       <c r="Q11" s="26">
-        <v>77.063000000000002</v>
+        <v>96.656000000000006</v>
       </c>
       <c r="R11" s="26">
-        <v>78.983999999999995</v>
+        <v>100.077</v>
       </c>
       <c r="S11" s="26">
-        <v>78.001000000000005</v>
+        <v>99.171999999999997</v>
       </c>
       <c r="T11" s="26">
-        <v>79.203000000000003</v>
+        <v>98.796999999999997</v>
       </c>
       <c r="U11" s="26">
-        <v>76.593999999999994</v>
+        <v>94.313000000000002</v>
       </c>
       <c r="V11" s="26">
-        <v>79.718999999999994</v>
+        <v>85.686999999999998</v>
       </c>
       <c r="W11" s="26">
-        <v>78.015000000000001</v>
+        <v>84.608999999999995</v>
       </c>
       <c r="X11" s="26">
-        <v>79.141000000000005</v>
+        <v>83.171999999999997</v>
       </c>
       <c r="BA11" s="31"/>
     </row>
@@ -3579,67 +3596,67 @@
         <v>44011.7</v>
       </c>
       <c r="C12" s="26">
-        <v>45545</v>
+        <v>44615</v>
       </c>
       <c r="D12" s="26">
-        <v>46091.7</v>
+        <v>46437</v>
       </c>
       <c r="E12" s="26">
-        <v>45017.8</v>
+        <v>44359.199999999997</v>
       </c>
       <c r="F12" s="26">
-        <v>44524.5</v>
+        <v>46857.1</v>
       </c>
       <c r="G12" s="26">
-        <v>44755.199999999997</v>
+        <v>45010.5</v>
       </c>
       <c r="H12" s="26">
-        <v>46243.8</v>
+        <v>44279.6</v>
       </c>
       <c r="I12" s="26">
-        <v>44842.6</v>
+        <v>44541.5</v>
       </c>
       <c r="J12" s="26">
-        <v>45107.5</v>
+        <v>45213</v>
       </c>
       <c r="K12" s="26">
-        <v>45391.4</v>
+        <v>44725.7</v>
       </c>
       <c r="L12" s="26">
-        <v>44669.7</v>
+        <v>44478.8</v>
       </c>
       <c r="N12" s="24" t="s">
         <v>27</v>
       </c>
       <c r="O12" s="26">
-        <v>115</v>
+        <v>127.23399999999999</v>
       </c>
       <c r="P12" s="26">
-        <v>112.98399999999999</v>
+        <v>130.25</v>
       </c>
       <c r="Q12" s="26">
-        <v>113.51600000000001</v>
+        <v>125.95399999999999</v>
       </c>
       <c r="R12" s="26">
-        <v>114.39</v>
+        <v>126.20399999999999</v>
       </c>
       <c r="S12" s="26">
-        <v>116.47</v>
+        <v>128.46899999999999</v>
       </c>
       <c r="T12" s="26">
-        <v>114.14100000000001</v>
+        <v>131.61000000000001</v>
       </c>
       <c r="U12" s="26">
-        <v>113.672</v>
+        <v>128.46899999999999</v>
       </c>
       <c r="V12" s="26">
-        <v>114.46899999999999</v>
+        <v>127.202</v>
       </c>
       <c r="W12" s="26">
-        <v>112.06399999999999</v>
+        <v>127.95399999999999</v>
       </c>
       <c r="X12" s="26">
-        <v>115.327</v>
+        <v>125.79600000000001</v>
       </c>
       <c r="BA12" s="31"/>
     </row>
@@ -3651,67 +3668,67 @@
         <v>476684</v>
       </c>
       <c r="C13" s="26">
-        <v>479916</v>
+        <v>479292</v>
       </c>
       <c r="D13" s="26">
-        <v>500291</v>
+        <v>476691</v>
       </c>
       <c r="E13" s="26">
-        <v>478071</v>
+        <v>477713</v>
       </c>
       <c r="F13" s="26">
-        <v>476668</v>
+        <v>476307</v>
       </c>
       <c r="G13" s="26">
-        <v>492538</v>
+        <v>476304</v>
       </c>
       <c r="H13" s="26">
-        <v>498837</v>
+        <v>482416</v>
       </c>
       <c r="I13" s="26">
-        <v>483297</v>
+        <v>479485</v>
       </c>
       <c r="J13" s="26">
-        <v>479692</v>
+        <v>480653</v>
       </c>
       <c r="K13" s="26">
-        <v>482571</v>
+        <v>476600</v>
       </c>
       <c r="L13" s="26">
-        <v>480928</v>
+        <v>480861</v>
       </c>
       <c r="N13" s="24" t="s">
         <v>26</v>
       </c>
       <c r="O13" s="26">
-        <v>202.23400000000001</v>
+        <v>227.28100000000001</v>
       </c>
       <c r="P13" s="26">
-        <v>204.28100000000001</v>
+        <v>221.172</v>
       </c>
       <c r="Q13" s="26">
-        <v>203.39099999999999</v>
+        <v>229.17099999999999</v>
       </c>
       <c r="R13" s="26">
-        <v>201.59399999999999</v>
+        <v>246.047</v>
       </c>
       <c r="S13" s="26">
-        <v>202.751</v>
+        <v>271.20299999999997</v>
       </c>
       <c r="T13" s="26">
-        <v>198.86</v>
+        <v>248.11</v>
       </c>
       <c r="U13" s="26">
-        <v>199.92099999999999</v>
+        <v>254.15600000000001</v>
       </c>
       <c r="V13" s="26">
-        <v>198.46799999999999</v>
+        <v>248.40600000000001</v>
       </c>
       <c r="W13" s="26">
-        <v>200.203</v>
+        <v>233.422</v>
       </c>
       <c r="X13" s="26">
-        <v>198.21899999999999</v>
+        <v>237.76599999999999</v>
       </c>
       <c r="BA13" s="31"/>
     </row>
@@ -3732,337 +3749,6 @@
     <row r="15" spans="1:53" x14ac:dyDescent="0.35">
       <c r="B15" s="28"/>
       <c r="BA15" s="31"/>
-    </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.35">
-      <c r="B16" s="28"/>
-      <c r="BA16" s="31"/>
-    </row>
-    <row r="17" spans="1:53" x14ac:dyDescent="0.35">
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="BA17" s="31"/>
-    </row>
-    <row r="18" spans="1:53" x14ac:dyDescent="0.35">
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="BA18" s="31"/>
-    </row>
-    <row r="19" spans="1:53" x14ac:dyDescent="0.35">
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="BA19" s="31"/>
-    </row>
-    <row r="20" spans="1:53" x14ac:dyDescent="0.35">
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="BA20" s="31"/>
-    </row>
-    <row r="21" spans="1:53" x14ac:dyDescent="0.35">
-      <c r="A21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="BA21" s="31"/>
-    </row>
-    <row r="22" spans="1:53" x14ac:dyDescent="0.35">
-      <c r="A22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="BA22" s="31"/>
-    </row>
-    <row r="23" spans="1:53" x14ac:dyDescent="0.35">
-      <c r="A23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="BA23" s="31"/>
-    </row>
-    <row r="24" spans="1:53" x14ac:dyDescent="0.35">
-      <c r="A24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
-      <c r="BA24" s="31"/>
-    </row>
-    <row r="25" spans="1:53" x14ac:dyDescent="0.35">
-      <c r="A25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="BA25" s="31"/>
-    </row>
-    <row r="26" spans="1:53" x14ac:dyDescent="0.35">
-      <c r="A26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
-      <c r="BA26" s="31"/>
-    </row>
-    <row r="27" spans="1:53" x14ac:dyDescent="0.35">
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-      <c r="BA27" s="31"/>
-    </row>
-    <row r="28" spans="1:53" x14ac:dyDescent="0.35">
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
-      <c r="BA28" s="31"/>
-    </row>
-    <row r="29" spans="1:53" x14ac:dyDescent="0.35">
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="26"/>
-      <c r="BA29" s="31"/>
-    </row>
-    <row r="30" spans="1:53" x14ac:dyDescent="0.35">
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26"/>
-      <c r="L30" s="26"/>
-      <c r="BA30" s="31"/>
-    </row>
-    <row r="31" spans="1:53" x14ac:dyDescent="0.35">
-      <c r="BA31" s="31"/>
-    </row>
-    <row r="32" spans="1:53" x14ac:dyDescent="0.35">
-      <c r="A32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="26"/>
-      <c r="L32" s="26"/>
-      <c r="BA32" s="31"/>
-    </row>
-    <row r="33" spans="1:53" x14ac:dyDescent="0.35">
-      <c r="A33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="26"/>
-      <c r="L33" s="26"/>
-      <c r="BA33" s="31"/>
-    </row>
-    <row r="34" spans="1:53" x14ac:dyDescent="0.35">
-      <c r="A34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="26"/>
-      <c r="L34" s="26"/>
-      <c r="BA34" s="31"/>
-    </row>
-    <row r="35" spans="1:53" x14ac:dyDescent="0.35">
-      <c r="A35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="26"/>
-      <c r="L35" s="26"/>
-      <c r="BA35" s="31"/>
-    </row>
-    <row r="36" spans="1:53" x14ac:dyDescent="0.35">
-      <c r="A36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="26"/>
-      <c r="K36" s="26"/>
-      <c r="L36" s="26"/>
-      <c r="BA36" s="31"/>
-    </row>
-    <row r="37" spans="1:53" x14ac:dyDescent="0.35">
-      <c r="A37" s="26"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="26"/>
-      <c r="K37" s="26"/>
-      <c r="L37" s="26"/>
-      <c r="BA37" s="31"/>
-    </row>
-    <row r="38" spans="1:53" x14ac:dyDescent="0.35">
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="26"/>
-      <c r="K38" s="26"/>
-      <c r="L38" s="26"/>
-      <c r="BA38" s="31"/>
-    </row>
-    <row r="39" spans="1:53" x14ac:dyDescent="0.35">
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="26"/>
-      <c r="J39" s="26"/>
-      <c r="K39" s="26"/>
-      <c r="L39" s="26"/>
-      <c r="BA39" s="31"/>
-    </row>
-    <row r="40" spans="1:53" x14ac:dyDescent="0.35">
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="26"/>
-      <c r="J40" s="26"/>
-      <c r="K40" s="26"/>
-      <c r="L40" s="26"/>
-      <c r="BA40" s="31"/>
-    </row>
-    <row r="41" spans="1:53" x14ac:dyDescent="0.35">
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="26"/>
-      <c r="K41" s="26"/>
-      <c r="L41" s="26"/>
-      <c r="BA41" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4082,8 +3768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348A00D3-4455-4871-A842-3FB0F610BDD7}">
   <dimension ref="A1:T27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.45"/>
@@ -4164,7 +3850,7 @@
       </c>
       <c r="F4" s="7">
         <f>AVERAGE(data!C4:L4) / data!B4 -1</f>
-        <v>9.8954245980342748E-4</v>
+        <v>1.5220922380621005E-4</v>
       </c>
       <c r="G4" s="7">
         <f>MAX(data!C4:L4) / data!B4 -1</f>
@@ -4172,7 +3858,7 @@
       </c>
       <c r="H4" s="8">
         <f>AVERAGE(data!O4:X4)</f>
-        <v>5.8609999999999998</v>
+        <v>6.2612999999999994</v>
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
@@ -4204,7 +3890,7 @@
       </c>
       <c r="F5" s="7">
         <f>AVERAGE(data!C5:L5) / data!B5 -1</f>
-        <v>1.7339921807124181E-2</v>
+        <v>1.4410295395308248E-2</v>
       </c>
       <c r="G5" s="7">
         <f>MAX(data!C5:L5) / data!B5 -1</f>
@@ -4212,7 +3898,7 @@
       </c>
       <c r="H5" s="8">
         <f>AVERAGE(data!O5:X5)</f>
-        <v>10.978100000000001</v>
+        <v>12.331000000000001</v>
       </c>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
@@ -4242,15 +3928,15 @@
       </c>
       <c r="F6" s="7">
         <f>AVERAGE(data!C6:L6) / data!B6 -1</f>
-        <v>7.9825116220233472E-3</v>
+        <v>9.5933082445209816E-3</v>
       </c>
       <c r="G6" s="7">
         <f>MAX(data!C6:L6) / data!B6 -1</f>
-        <v>1.9343158027892882E-2</v>
+        <v>3.3360741279529371E-2</v>
       </c>
       <c r="H6" s="8">
         <f>AVERAGE(data!O6:X6)</f>
-        <v>13.5594</v>
+        <v>17.596599999999999</v>
       </c>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
@@ -4280,15 +3966,15 @@
       </c>
       <c r="F7" s="7">
         <f>AVERAGE(data!C7:L7) / data!B7 -1</f>
-        <v>4.1304103428891903E-3</v>
+        <v>9.3153456998313899E-3</v>
       </c>
       <c r="G7" s="7">
         <f>MAX(data!C7:L7) / data!B7 -1</f>
-        <v>3.1323777403035269E-2</v>
+        <v>4.595278246205714E-2</v>
       </c>
       <c r="H7" s="8">
         <f>AVERAGE(data!O7:X7)</f>
-        <v>31.901400000000002</v>
+        <v>37.529800000000002</v>
       </c>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
@@ -4314,19 +4000,19 @@
       </c>
       <c r="E8" s="7">
         <f>MIN(data!C8:L8) / data!B8 -1</f>
-        <v>-5.9109874826147601E-3</v>
+        <v>-2.8327742780004384E-3</v>
       </c>
       <c r="F8" s="7">
         <f>AVERAGE(data!C8:L8) / data!B8 -1</f>
-        <v>-2.4952957539059462E-4</v>
+        <v>2.025382475660642E-3</v>
       </c>
       <c r="G8" s="7">
         <f>MAX(data!C8:L8) / data!B8 -1</f>
-        <v>8.3807166816656231E-3</v>
+        <v>9.5260983391964871E-3</v>
       </c>
       <c r="H8" s="8">
         <f>AVERAGE(data!O8:X8)</f>
-        <v>31.148700000000002</v>
+        <v>39.052799999999998</v>
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
@@ -4352,19 +4038,19 @@
       </c>
       <c r="E9" s="7">
         <f>MIN(data!C9:L9) / data!B9 -1</f>
-        <v>5.0798933124525103E-3</v>
+        <v>1.5660557417973564E-4</v>
       </c>
       <c r="F9" s="7">
         <f>AVERAGE(data!C9:L9) / data!B9 -1</f>
-        <v>2.5553625174346006E-2</v>
+        <v>3.1477720410111321E-3</v>
       </c>
       <c r="G9" s="7">
         <f>MAX(data!C9:L9) / data!B9 -1</f>
-        <v>4.9320968018205402E-2</v>
+        <v>4.9477573592384694E-3</v>
       </c>
       <c r="H9" s="8">
         <f>AVERAGE(data!O9:X9)</f>
-        <v>36.482599999999998</v>
+        <v>40.592200000000005</v>
       </c>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
@@ -4390,19 +4076,19 @@
       </c>
       <c r="E10" s="7">
         <f>MIN(data!C10:L10) / data!B10 -1</f>
-        <v>3.5733776248665361E-3</v>
+        <v>-7.3828449400877849E-3</v>
       </c>
       <c r="F10" s="7">
         <f>AVERAGE(data!C10:L10) / data!B10 -1</f>
-        <v>1.9381539921698998E-2</v>
+        <v>2.6864989915766913E-2</v>
       </c>
       <c r="G10" s="7">
         <f>MAX(data!C10:L10) / data!B10 -1</f>
-        <v>5.0170838770909887E-2</v>
+        <v>5.9991695337525242E-2</v>
       </c>
       <c r="H10" s="8">
         <f>AVERAGE(data!O10:X10)</f>
-        <v>39.338800000000006</v>
+        <v>43.76250000000001</v>
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
@@ -4428,19 +4114,19 @@
       </c>
       <c r="E11" s="7">
         <f>MIN(data!C11:L11) / data!B11 -1</f>
-        <v>-1.3258736443449881E-2</v>
+        <v>-1.384575658461018E-2</v>
       </c>
       <c r="F11" s="7">
         <f>AVERAGE(data!C11:L11) / data!B11 -1</f>
-        <v>1.8057669134102339E-2</v>
+        <v>1.0396625925288339E-2</v>
       </c>
       <c r="G11" s="7">
         <f>MAX(data!C11:L11) / data!B11 -1</f>
-        <v>4.7593389567911926E-2</v>
+        <v>2.9884661731795603E-2</v>
       </c>
       <c r="H11" s="8">
         <f>AVERAGE(data!O11:X11)</f>
-        <v>78.614099999999979</v>
+        <v>92.010700000000014</v>
       </c>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
@@ -4465,19 +4151,19 @@
       </c>
       <c r="E12" s="7">
         <f>MIN(data!C12:L12) / data!B12 -1</f>
-        <v>1.1651447228805178E-2</v>
+        <v>6.0870177702747608E-3</v>
       </c>
       <c r="F12" s="7">
         <f>AVERAGE(data!C12:L12) / data!B12 -1</f>
-        <v>2.7429524421915152E-2</v>
+        <v>2.3630989032461969E-2</v>
       </c>
       <c r="G12" s="7">
         <f>MAX(data!C12:L12) / data!B12 -1</f>
-        <v>5.0716059593244767E-2</v>
+        <v>6.4650990532063135E-2</v>
       </c>
       <c r="H12" s="8">
         <f>AVERAGE(data!O12:X12)</f>
-        <v>114.20330000000001</v>
+        <v>127.91420000000001</v>
       </c>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
@@ -4502,19 +4188,19 @@
       </c>
       <c r="E13" s="7">
         <f>MIN(data!C13:L13) / data!B13 -1</f>
-        <v>-3.3565213013231343E-5</v>
+        <v>-7.9717380906429991E-4</v>
       </c>
       <c r="F13" s="7">
         <f>AVERAGE(data!C13:L13) / data!B13 -1</f>
-        <v>1.8034798734591462E-2</v>
+        <v>4.0869842495239173E-3</v>
       </c>
       <c r="G13" s="7">
         <f>MAX(data!C13:L13) / data!B13 -1</f>
-        <v>4.9523373975212115E-2</v>
+        <v>1.202473756199085E-2</v>
       </c>
       <c r="H13" s="8">
         <f>AVERAGE(data!O13:X13)</f>
-        <v>200.9922</v>
+        <v>241.67339999999999</v>
       </c>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research\dev\LRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6AB0A12-5547-4FA1-9AB1-75F0C3E2FA8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D259415-C49F-4B4F-9A2F-FBD8094C7A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="2" r:id="rId1"/>
@@ -1185,8 +1185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5551421D-4FE7-47B7-A546-15E7A05240A9}">
   <dimension ref="A1:V287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2868,7 +2868,7 @@
   <dimension ref="A1:BA15"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3:X3"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -3029,7 +3029,7 @@
         <v>54778.400000000001</v>
       </c>
       <c r="F4" s="26">
-        <v>54778.400000000001</v>
+        <v>55007.8</v>
       </c>
       <c r="G4" s="26">
         <v>55007.8</v>
@@ -3053,34 +3053,34 @@
         <v>18</v>
       </c>
       <c r="O4" s="26">
-        <v>6.173</v>
+        <v>5.968</v>
       </c>
       <c r="P4" s="26">
-        <v>6.173</v>
+        <v>5.7969999999999997</v>
       </c>
       <c r="Q4" s="26">
-        <v>6.173</v>
+        <v>5.7969999999999997</v>
       </c>
       <c r="R4" s="26">
-        <v>6</v>
+        <v>5.8120000000000003</v>
       </c>
       <c r="S4" s="26">
-        <v>6.9059999999999997</v>
+        <v>5.968</v>
       </c>
       <c r="T4" s="26">
-        <v>6.766</v>
+        <v>6.016</v>
       </c>
       <c r="U4" s="26">
-        <v>6.5</v>
+        <v>5.86</v>
       </c>
       <c r="V4" s="26">
-        <v>5.891</v>
+        <v>5.9370000000000003</v>
       </c>
       <c r="W4" s="26">
-        <v>6.2039999999999997</v>
+        <v>5.7809999999999997</v>
       </c>
       <c r="X4" s="26">
-        <v>5.827</v>
+        <v>5.798</v>
       </c>
       <c r="BA4" s="31"/>
     </row>
@@ -3113,7 +3113,7 @@
         <v>460.37400000000002</v>
       </c>
       <c r="J5" s="26">
-        <v>476.12099999999998</v>
+        <v>460.37400000000002</v>
       </c>
       <c r="K5" s="26">
         <v>460.37400000000002</v>
@@ -3125,34 +3125,34 @@
         <v>22</v>
       </c>
       <c r="O5" s="26">
-        <v>11.920999999999999</v>
+        <v>10.561</v>
       </c>
       <c r="P5" s="26">
-        <v>11.577999999999999</v>
+        <v>10.548</v>
       </c>
       <c r="Q5" s="26">
-        <v>11.920999999999999</v>
+        <v>10.531000000000001</v>
       </c>
       <c r="R5" s="26">
-        <v>11.438000000000001</v>
+        <v>10.734</v>
       </c>
       <c r="S5" s="26">
-        <v>12.061999999999999</v>
+        <v>10.593999999999999</v>
       </c>
       <c r="T5" s="26">
-        <v>12.28</v>
+        <v>10.686999999999999</v>
       </c>
       <c r="U5" s="26">
-        <v>12.36</v>
+        <v>10.436999999999999</v>
       </c>
       <c r="V5" s="26">
-        <v>13.031000000000001</v>
+        <v>10.438000000000001</v>
       </c>
       <c r="W5" s="26">
-        <v>12.954000000000001</v>
+        <v>10.547000000000001</v>
       </c>
       <c r="X5" s="26">
-        <v>13.765000000000001</v>
+        <v>10.531000000000001</v>
       </c>
       <c r="BA5" s="31"/>
     </row>
@@ -3164,7 +3164,7 @@
         <v>63242</v>
       </c>
       <c r="C6" s="26">
-        <v>63215.199999999997</v>
+        <v>63915.199999999997</v>
       </c>
       <c r="D6" s="26">
         <v>63215.199999999997</v>
@@ -3191,40 +3191,40 @@
         <v>64155</v>
       </c>
       <c r="L6" s="26">
-        <v>65351.8</v>
+        <v>64465.3</v>
       </c>
       <c r="N6" s="24" t="s">
         <v>19</v>
       </c>
       <c r="O6" s="26">
-        <v>18.11</v>
+        <v>13.875</v>
       </c>
       <c r="P6" s="26">
-        <v>17.312000000000001</v>
+        <v>13.984</v>
       </c>
       <c r="Q6" s="26">
-        <v>17.812000000000001</v>
+        <v>13.516</v>
       </c>
       <c r="R6" s="26">
-        <v>18.515000000000001</v>
+        <v>13.313000000000001</v>
       </c>
       <c r="S6" s="26">
-        <v>18.625</v>
+        <v>13.422000000000001</v>
       </c>
       <c r="T6" s="26">
-        <v>17.155999999999999</v>
+        <v>13.406000000000001</v>
       </c>
       <c r="U6" s="26">
-        <v>17.577000000000002</v>
+        <v>13.484999999999999</v>
       </c>
       <c r="V6" s="26">
-        <v>17.295999999999999</v>
+        <v>13.422000000000001</v>
       </c>
       <c r="W6" s="26">
-        <v>16.672000000000001</v>
+        <v>13.516</v>
       </c>
       <c r="X6" s="26">
-        <v>16.890999999999998</v>
+        <v>13.36</v>
       </c>
       <c r="BA6" s="31"/>
     </row>
@@ -3239,13 +3239,13 @@
         <v>355.78399999999999</v>
       </c>
       <c r="D7" s="26">
-        <v>358.46</v>
+        <v>356.37400000000002</v>
       </c>
       <c r="E7" s="26">
-        <v>356.37400000000002</v>
+        <v>355.78399999999999</v>
       </c>
       <c r="F7" s="26">
-        <v>369.45600000000002</v>
+        <v>371.22899999999998</v>
       </c>
       <c r="G7" s="26">
         <v>355.78399999999999</v>
@@ -3269,34 +3269,34 @@
         <v>23</v>
       </c>
       <c r="O7" s="26">
-        <v>36.109000000000002</v>
+        <v>32.311999999999998</v>
       </c>
       <c r="P7" s="26">
-        <v>35.234999999999999</v>
+        <v>31.577000000000002</v>
       </c>
       <c r="Q7" s="26">
-        <v>34.765999999999998</v>
+        <v>32.484000000000002</v>
       </c>
       <c r="R7" s="26">
-        <v>36.265999999999998</v>
+        <v>32.844999999999999</v>
       </c>
       <c r="S7" s="26">
-        <v>36.905999999999999</v>
+        <v>31.954000000000001</v>
       </c>
       <c r="T7" s="26">
-        <v>38.265999999999998</v>
+        <v>31.344000000000001</v>
       </c>
       <c r="U7" s="26">
-        <v>39.578000000000003</v>
+        <v>31.780999999999999</v>
       </c>
       <c r="V7" s="26">
-        <v>40.219000000000001</v>
+        <v>32.546999999999997</v>
       </c>
       <c r="W7" s="26">
-        <v>37.780999999999999</v>
+        <v>32.281999999999996</v>
       </c>
       <c r="X7" s="26">
-        <v>40.171999999999997</v>
+        <v>32.75</v>
       </c>
       <c r="BA7" s="31"/>
     </row>
@@ -3308,67 +3308,67 @@
         <v>195568</v>
       </c>
       <c r="C8" s="26">
-        <v>195594</v>
+        <v>195572</v>
       </c>
       <c r="D8" s="26">
-        <v>197431</v>
+        <v>194681</v>
       </c>
       <c r="E8" s="26">
-        <v>195585</v>
+        <v>196613</v>
       </c>
       <c r="F8" s="26">
-        <v>196157</v>
+        <v>196138</v>
       </c>
       <c r="G8" s="26">
-        <v>196144</v>
+        <v>195166</v>
       </c>
       <c r="H8" s="26">
-        <v>195166</v>
+        <v>196248</v>
       </c>
       <c r="I8" s="26">
-        <v>195014</v>
+        <v>195350</v>
       </c>
       <c r="J8" s="26">
-        <v>195476</v>
+        <v>196638</v>
       </c>
       <c r="K8" s="26">
-        <v>197107</v>
+        <v>198133</v>
       </c>
       <c r="L8" s="26">
-        <v>195967</v>
+        <v>195546</v>
       </c>
       <c r="N8" s="24" t="s">
         <v>20</v>
       </c>
       <c r="O8" s="26">
-        <v>39.094000000000001</v>
+        <v>34.655999999999999</v>
       </c>
       <c r="P8" s="26">
-        <v>40.079000000000001</v>
+        <v>34.86</v>
       </c>
       <c r="Q8" s="26">
-        <v>38.357999999999997</v>
+        <v>34.28</v>
       </c>
       <c r="R8" s="26">
-        <v>39.045999999999999</v>
+        <v>34.14</v>
       </c>
       <c r="S8" s="26">
-        <v>39.25</v>
+        <v>33.828000000000003</v>
       </c>
       <c r="T8" s="26">
-        <v>39.406999999999996</v>
+        <v>33.640999999999998</v>
       </c>
       <c r="U8" s="26">
-        <v>39.14</v>
+        <v>33.61</v>
       </c>
       <c r="V8" s="26">
-        <v>38.420999999999999</v>
+        <v>34.093000000000004</v>
       </c>
       <c r="W8" s="26">
-        <v>38.936999999999998</v>
+        <v>34.094000000000001</v>
       </c>
       <c r="X8" s="26">
-        <v>38.795999999999999</v>
+        <v>33.984000000000002</v>
       </c>
       <c r="BA8" s="31"/>
     </row>
@@ -3380,31 +3380,31 @@
         <v>204335</v>
       </c>
       <c r="C9" s="26">
-        <v>205346</v>
+        <v>206525</v>
       </c>
       <c r="D9" s="26">
-        <v>205051</v>
+        <v>205012</v>
       </c>
       <c r="E9" s="26">
-        <v>204710</v>
+        <v>205211</v>
       </c>
       <c r="F9" s="26">
         <v>205012</v>
       </c>
       <c r="G9" s="26">
+        <v>205261</v>
+      </c>
+      <c r="H9" s="26">
         <v>205012</v>
       </c>
-      <c r="H9" s="26">
-        <v>205051</v>
-      </c>
       <c r="I9" s="26">
-        <v>204367</v>
+        <v>205095</v>
       </c>
       <c r="J9" s="26">
+        <v>206216</v>
+      </c>
+      <c r="K9" s="26">
         <v>205012</v>
-      </c>
-      <c r="K9" s="26">
-        <v>205209</v>
       </c>
       <c r="L9" s="26">
         <v>205012</v>
@@ -3413,34 +3413,34 @@
         <v>21</v>
       </c>
       <c r="O9" s="26">
-        <v>41.531999999999996</v>
+        <v>36.578000000000003</v>
       </c>
       <c r="P9" s="26">
-        <v>42.125</v>
+        <v>37.563000000000002</v>
       </c>
       <c r="Q9" s="26">
-        <v>41.469000000000001</v>
+        <v>37.204000000000001</v>
       </c>
       <c r="R9" s="26">
-        <v>39.795999999999999</v>
+        <v>36.890999999999998</v>
       </c>
       <c r="S9" s="26">
-        <v>40.655999999999999</v>
+        <v>36.905999999999999</v>
       </c>
       <c r="T9" s="26">
-        <v>40.171999999999997</v>
+        <v>36.438000000000002</v>
       </c>
       <c r="U9" s="26">
-        <v>39.420999999999999</v>
+        <v>36.844000000000001</v>
       </c>
       <c r="V9" s="26">
-        <v>40.156999999999996</v>
+        <v>36.844999999999999</v>
       </c>
       <c r="W9" s="26">
-        <v>40.140999999999998</v>
+        <v>37.155999999999999</v>
       </c>
       <c r="X9" s="26">
-        <v>40.453000000000003</v>
+        <v>36.936999999999998</v>
       </c>
       <c r="BA9" s="31"/>
     </row>
@@ -3458,16 +3458,16 @@
         <v>836.67700000000002</v>
       </c>
       <c r="E10" s="26">
-        <v>893.46699999999998</v>
+        <v>897.44899999999996</v>
       </c>
       <c r="F10" s="26">
         <v>870.09299999999996</v>
       </c>
       <c r="G10" s="26">
-        <v>854.11500000000001</v>
+        <v>878.024</v>
       </c>
       <c r="H10" s="26">
-        <v>868.61699999999996</v>
+        <v>841.44100000000003</v>
       </c>
       <c r="I10" s="26">
         <v>846.37400000000002</v>
@@ -3479,40 +3479,40 @@
         <v>882.12199999999996</v>
       </c>
       <c r="L10" s="26">
-        <v>879.654</v>
+        <v>866.20100000000002</v>
       </c>
       <c r="N10" s="24" t="s">
         <v>24</v>
       </c>
       <c r="O10" s="26">
-        <v>42.703000000000003</v>
+        <v>39.36</v>
       </c>
       <c r="P10" s="26">
-        <v>43.484000000000002</v>
+        <v>38.89</v>
       </c>
       <c r="Q10" s="26">
-        <v>44.030999999999999</v>
+        <v>39.156999999999996</v>
       </c>
       <c r="R10" s="26">
-        <v>43.718000000000004</v>
+        <v>40.36</v>
       </c>
       <c r="S10" s="26">
-        <v>43.563000000000002</v>
+        <v>38.530999999999999</v>
       </c>
       <c r="T10" s="26">
-        <v>44.249000000000002</v>
+        <v>39.061999999999998</v>
       </c>
       <c r="U10" s="26">
-        <v>43.671999999999997</v>
+        <v>39.188000000000002</v>
       </c>
       <c r="V10" s="26">
-        <v>44.173000000000002</v>
+        <v>39.86</v>
       </c>
       <c r="W10" s="26">
-        <v>45.046999999999997</v>
+        <v>39.109000000000002</v>
       </c>
       <c r="X10" s="26">
-        <v>42.984999999999999</v>
+        <v>39.484000000000002</v>
       </c>
       <c r="BA10" s="31"/>
     </row>
@@ -3524,28 +3524,28 @@
         <v>5809</v>
       </c>
       <c r="C11" s="26">
-        <v>5896.3</v>
+        <v>5906.08</v>
       </c>
       <c r="D11" s="26">
         <v>5982.6</v>
       </c>
       <c r="E11" s="26">
-        <v>5851.59</v>
+        <v>5846.14</v>
       </c>
       <c r="F11" s="26">
-        <v>5732.29</v>
+        <v>5732.77</v>
       </c>
       <c r="G11" s="26">
-        <v>5951.78</v>
+        <v>5900.29</v>
       </c>
       <c r="H11" s="26">
         <v>5853.78</v>
       </c>
       <c r="I11" s="26">
-        <v>5913.27</v>
+        <v>5910.95</v>
       </c>
       <c r="J11" s="26">
-        <v>5728.57</v>
+        <v>5719.49</v>
       </c>
       <c r="K11" s="26">
         <v>5832.26</v>
@@ -3557,34 +3557,34 @@
         <v>25</v>
       </c>
       <c r="O11" s="26">
-        <v>85.89</v>
+        <v>79.281000000000006</v>
       </c>
       <c r="P11" s="26">
-        <v>91.733999999999995</v>
+        <v>77.766000000000005</v>
       </c>
       <c r="Q11" s="26">
-        <v>96.656000000000006</v>
+        <v>78.233999999999995</v>
       </c>
       <c r="R11" s="26">
-        <v>100.077</v>
+        <v>78.593999999999994</v>
       </c>
       <c r="S11" s="26">
-        <v>99.171999999999997</v>
+        <v>78.578999999999994</v>
       </c>
       <c r="T11" s="26">
-        <v>98.796999999999997</v>
+        <v>78.013999999999996</v>
       </c>
       <c r="U11" s="26">
-        <v>94.313000000000002</v>
+        <v>77.75</v>
       </c>
       <c r="V11" s="26">
-        <v>85.686999999999998</v>
+        <v>77.078000000000003</v>
       </c>
       <c r="W11" s="26">
-        <v>84.608999999999995</v>
+        <v>78.233999999999995</v>
       </c>
       <c r="X11" s="26">
-        <v>83.171999999999997</v>
+        <v>76.875</v>
       </c>
       <c r="BA11" s="31"/>
     </row>
@@ -3629,34 +3629,34 @@
         <v>27</v>
       </c>
       <c r="O12" s="26">
-        <v>127.23399999999999</v>
+        <v>115.343</v>
       </c>
       <c r="P12" s="26">
-        <v>130.25</v>
+        <v>115.422</v>
       </c>
       <c r="Q12" s="26">
-        <v>125.95399999999999</v>
+        <v>115.25</v>
       </c>
       <c r="R12" s="26">
-        <v>126.20399999999999</v>
+        <v>113.876</v>
       </c>
       <c r="S12" s="26">
-        <v>128.46899999999999</v>
+        <v>114.953</v>
       </c>
       <c r="T12" s="26">
-        <v>131.61000000000001</v>
+        <v>115.61</v>
       </c>
       <c r="U12" s="26">
-        <v>128.46899999999999</v>
+        <v>113.735</v>
       </c>
       <c r="V12" s="26">
-        <v>127.202</v>
+        <v>115.39</v>
       </c>
       <c r="W12" s="26">
-        <v>127.95399999999999</v>
+        <v>114.625</v>
       </c>
       <c r="X12" s="26">
-        <v>125.79600000000001</v>
+        <v>114.09399999999999</v>
       </c>
       <c r="BA12" s="31"/>
     </row>
@@ -3668,67 +3668,67 @@
         <v>476684</v>
       </c>
       <c r="C13" s="26">
-        <v>479292</v>
+        <v>478369</v>
       </c>
       <c r="D13" s="26">
         <v>476691</v>
       </c>
       <c r="E13" s="26">
-        <v>477713</v>
+        <v>477796</v>
       </c>
       <c r="F13" s="26">
-        <v>476307</v>
+        <v>478199</v>
       </c>
       <c r="G13" s="26">
-        <v>476304</v>
+        <v>479561</v>
       </c>
       <c r="H13" s="26">
-        <v>482416</v>
+        <v>479207</v>
       </c>
       <c r="I13" s="26">
-        <v>479485</v>
+        <v>478214</v>
       </c>
       <c r="J13" s="26">
-        <v>480653</v>
+        <v>476426</v>
       </c>
       <c r="K13" s="26">
-        <v>476600</v>
+        <v>476644</v>
       </c>
       <c r="L13" s="26">
-        <v>480861</v>
+        <v>480924</v>
       </c>
       <c r="N13" s="24" t="s">
         <v>26</v>
       </c>
       <c r="O13" s="26">
-        <v>227.28100000000001</v>
+        <v>223.43799999999999</v>
       </c>
       <c r="P13" s="26">
-        <v>221.172</v>
+        <v>222.125</v>
       </c>
       <c r="Q13" s="26">
-        <v>229.17099999999999</v>
+        <v>222.31299999999999</v>
       </c>
       <c r="R13" s="26">
-        <v>246.047</v>
+        <v>219.64099999999999</v>
       </c>
       <c r="S13" s="26">
-        <v>271.20299999999997</v>
+        <v>221.93700000000001</v>
       </c>
       <c r="T13" s="26">
-        <v>248.11</v>
+        <v>226.06200000000001</v>
       </c>
       <c r="U13" s="26">
-        <v>254.15600000000001</v>
+        <v>221.40700000000001</v>
       </c>
       <c r="V13" s="26">
-        <v>248.40600000000001</v>
+        <v>220.65700000000001</v>
       </c>
       <c r="W13" s="26">
-        <v>233.422</v>
+        <v>220.876</v>
       </c>
       <c r="X13" s="26">
-        <v>237.76599999999999</v>
+        <v>225.01599999999999</v>
       </c>
       <c r="BA13" s="31"/>
     </row>
@@ -3766,10 +3766,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348A00D3-4455-4871-A842-3FB0F610BDD7}">
-  <dimension ref="A1:T27"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.45"/>
@@ -3782,7 +3782,7 @@
     <col min="9" max="16384" width="8.7265625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" s="45" t="s">
         <v>37</v>
       </c>
@@ -3794,7 +3794,7 @@
       <c r="G1" s="46"/>
       <c r="H1" s="47"/>
     </row>
-    <row r="2" spans="1:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="48" t="s">
         <v>89</v>
       </c>
@@ -3816,7 +3816,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="48"/>
       <c r="B3" s="37"/>
       <c r="C3" s="42"/>
@@ -3832,7 +3832,7 @@
       </c>
       <c r="H3" s="42"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" s="48"/>
       <c r="B4" s="4" t="s">
         <v>18</v>
@@ -3850,7 +3850,7 @@
       </c>
       <c r="F4" s="7">
         <f>AVERAGE(data!C4:L4) / data!B4 -1</f>
-        <v>1.5220922380621005E-4</v>
+        <v>5.7087584180481876E-4</v>
       </c>
       <c r="G4" s="7">
         <f>MAX(data!C4:L4) / data!B4 -1</f>
@@ -3858,21 +3858,17 @@
       </c>
       <c r="H4" s="8">
         <f>AVERAGE(data!O4:X4)</f>
-        <v>6.2612999999999994</v>
-      </c>
+        <v>5.8734000000000002</v>
+      </c>
+      <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="5"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="L4" s="5"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="5"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" s="48"/>
       <c r="B5" s="4" t="s">
         <v>22</v>
@@ -3890,7 +3886,7 @@
       </c>
       <c r="F5" s="7">
         <f>AVERAGE(data!C5:L5) / data!B5 -1</f>
-        <v>1.4410295395308248E-2</v>
+        <v>1.0990008688097186E-2</v>
       </c>
       <c r="G5" s="7">
         <f>MAX(data!C5:L5) / data!B5 -1</f>
@@ -3898,19 +3894,15 @@
       </c>
       <c r="H5" s="8">
         <f>AVERAGE(data!O5:X5)</f>
-        <v>12.331000000000001</v>
-      </c>
+        <v>10.5608</v>
+      </c>
+      <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="5"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="N5" s="8"/>
+      <c r="O5" s="5"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" s="48"/>
       <c r="B6" s="4" t="s">
         <v>19</v>
@@ -3928,27 +3920,23 @@
       </c>
       <c r="F6" s="7">
         <f>AVERAGE(data!C6:L6) / data!B6 -1</f>
-        <v>9.5933082445209816E-3</v>
+        <v>9.2984092849688338E-3</v>
       </c>
       <c r="G6" s="7">
         <f>MAX(data!C6:L6) / data!B6 -1</f>
-        <v>3.3360741279529371E-2</v>
+        <v>2.81158091141962E-2</v>
       </c>
       <c r="H6" s="8">
         <f>AVERAGE(data!O6:X6)</f>
-        <v>17.596599999999999</v>
-      </c>
+        <v>13.529900000000001</v>
+      </c>
+      <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="5"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="N6" s="8"/>
+      <c r="O6" s="5"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" s="48"/>
       <c r="B7" s="4" t="s">
         <v>23</v>
@@ -3966,7 +3954,7 @@
       </c>
       <c r="F7" s="7">
         <f>AVERAGE(data!C7:L7) / data!B7 -1</f>
-        <v>9.3153456998313899E-3</v>
+        <v>9.061551433389603E-3</v>
       </c>
       <c r="G7" s="7">
         <f>MAX(data!C7:L7) / data!B7 -1</f>
@@ -3974,19 +3962,15 @@
       </c>
       <c r="H7" s="8">
         <f>AVERAGE(data!O7:X7)</f>
-        <v>37.529800000000002</v>
-      </c>
+        <v>32.187599999999996</v>
+      </c>
+      <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="5"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="N7" s="8"/>
+      <c r="O7" s="5"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" s="48"/>
       <c r="B8" s="4" t="s">
         <v>20</v>
@@ -4000,31 +3984,27 @@
       </c>
       <c r="E8" s="7">
         <f>MIN(data!C8:L8) / data!B8 -1</f>
-        <v>-2.8327742780004384E-3</v>
+        <v>-4.5355068313834845E-3</v>
       </c>
       <c r="F8" s="7">
         <f>AVERAGE(data!C8:L8) / data!B8 -1</f>
-        <v>2.025382475660642E-3</v>
+        <v>2.2524134827783815E-3</v>
       </c>
       <c r="G8" s="7">
         <f>MAX(data!C8:L8) / data!B8 -1</f>
-        <v>9.5260983391964871E-3</v>
+        <v>1.3115642640922909E-2</v>
       </c>
       <c r="H8" s="8">
         <f>AVERAGE(data!O8:X8)</f>
-        <v>39.052799999999998</v>
-      </c>
+        <v>34.118600000000001</v>
+      </c>
+      <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="7"/>
+      <c r="N8" s="8"/>
       <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="7"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" s="48"/>
       <c r="B9" s="4" t="s">
         <v>21</v>
@@ -4038,31 +4018,27 @@
       </c>
       <c r="E9" s="7">
         <f>MIN(data!C9:L9) / data!B9 -1</f>
-        <v>1.5660557417973564E-4</v>
+        <v>3.3131866787383668E-3</v>
       </c>
       <c r="F9" s="7">
         <f>AVERAGE(data!C9:L9) / data!B9 -1</f>
-        <v>3.1477720410111321E-3</v>
+        <v>4.9027332566617954E-3</v>
       </c>
       <c r="G9" s="7">
         <f>MAX(data!C9:L9) / data!B9 -1</f>
-        <v>4.9477573592384694E-3</v>
+        <v>1.0717693982920107E-2</v>
       </c>
       <c r="H9" s="8">
         <f>AVERAGE(data!O9:X9)</f>
-        <v>40.592200000000005</v>
-      </c>
+        <v>36.936199999999999</v>
+      </c>
+      <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="7"/>
+      <c r="N9" s="8"/>
       <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="7"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" s="48"/>
       <c r="B10" s="4" t="s">
         <v>24</v>
@@ -4080,27 +4056,23 @@
       </c>
       <c r="F10" s="7">
         <f>AVERAGE(data!C10:L10) / data!B10 -1</f>
-        <v>2.6864989915766913E-2</v>
+        <v>2.5353778621425738E-2</v>
       </c>
       <c r="G10" s="7">
         <f>MAX(data!C10:L10) / data!B10 -1</f>
-        <v>5.9991695337525242E-2</v>
+        <v>6.4715861905326744E-2</v>
       </c>
       <c r="H10" s="8">
         <f>AVERAGE(data!O10:X10)</f>
-        <v>43.76250000000001</v>
-      </c>
+        <v>39.3001</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="7"/>
+      <c r="N10" s="8"/>
       <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="7"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11" s="48"/>
       <c r="B11" s="4" t="s">
         <v>25</v>
@@ -4114,11 +4086,11 @@
       </c>
       <c r="E11" s="7">
         <f>MIN(data!C11:L11) / data!B11 -1</f>
-        <v>-1.384575658461018E-2</v>
+        <v>-1.5408848338784642E-2</v>
       </c>
       <c r="F11" s="7">
         <f>AVERAGE(data!C11:L11) / data!B11 -1</f>
-        <v>1.0396625925288339E-2</v>
+        <v>9.3967980719573685E-3</v>
       </c>
       <c r="G11" s="7">
         <f>MAX(data!C11:L11) / data!B11 -1</f>
@@ -4126,18 +4098,14 @@
       </c>
       <c r="H11" s="8">
         <f>AVERAGE(data!O11:X11)</f>
-        <v>92.010700000000014</v>
-      </c>
+        <v>78.040500000000009</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="S11" s="8"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="N11" s="8"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12" s="48"/>
       <c r="B12" s="4" t="s">
         <v>27</v>
@@ -4163,18 +4131,14 @@
       </c>
       <c r="H12" s="8">
         <f>AVERAGE(data!O12:X12)</f>
-        <v>127.91420000000001</v>
-      </c>
+        <v>114.82980000000001</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="S12" s="8"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="N12" s="8"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" s="49"/>
       <c r="B13" s="9" t="s">
         <v>26</v>
@@ -4188,100 +4152,96 @@
       </c>
       <c r="E13" s="7">
         <f>MIN(data!C13:L13) / data!B13 -1</f>
-        <v>-7.9717380906429991E-4</v>
+        <v>-5.4123905983838316E-4</v>
       </c>
       <c r="F13" s="7">
         <f>AVERAGE(data!C13:L13) / data!B13 -1</f>
-        <v>4.0869842495239173E-3</v>
+        <v>3.1868071930249986E-3</v>
       </c>
       <c r="G13" s="7">
         <f>MAX(data!C13:L13) / data!B13 -1</f>
-        <v>1.202473756199085E-2</v>
+        <v>8.89478144850675E-3</v>
       </c>
       <c r="H13" s="8">
         <f>AVERAGE(data!O13:X13)</f>
-        <v>241.67339999999999</v>
-      </c>
+        <v>222.34719999999999</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="S13" s="8"/>
-    </row>
-    <row r="16" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="17" spans="14:19" ht="12" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="18" spans="14:19" x14ac:dyDescent="0.45">
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="30"/>
-      <c r="S18" s="8"/>
-    </row>
-    <row r="19" spans="14:19" x14ac:dyDescent="0.45">
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="30"/>
-      <c r="S19" s="8"/>
-    </row>
-    <row r="20" spans="14:19" x14ac:dyDescent="0.45">
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="5"/>
-      <c r="S20" s="8"/>
-    </row>
-    <row r="21" spans="14:19" x14ac:dyDescent="0.45">
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="30"/>
-      <c r="S21" s="8"/>
-    </row>
-    <row r="22" spans="14:19" x14ac:dyDescent="0.45">
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="30"/>
-      <c r="S22" s="8"/>
-    </row>
-    <row r="23" spans="14:19" x14ac:dyDescent="0.45">
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="30"/>
-      <c r="S23" s="8"/>
-    </row>
-    <row r="24" spans="14:19" x14ac:dyDescent="0.45">
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="30"/>
-      <c r="S24" s="8"/>
-    </row>
-    <row r="25" spans="14:19" x14ac:dyDescent="0.45">
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="30"/>
-      <c r="S25" s="8"/>
-    </row>
-    <row r="26" spans="14:19" x14ac:dyDescent="0.45">
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="30"/>
-      <c r="S26" s="8"/>
-    </row>
-    <row r="27" spans="14:19" x14ac:dyDescent="0.45">
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="30"/>
-      <c r="S27" s="8"/>
+      <c r="N13" s="8"/>
+    </row>
+    <row r="16" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="17" spans="9:14" ht="12" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="18" spans="9:14" x14ac:dyDescent="0.45">
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="30"/>
+      <c r="N18" s="8"/>
+    </row>
+    <row r="19" spans="9:14" x14ac:dyDescent="0.45">
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="30"/>
+      <c r="N19" s="8"/>
+    </row>
+    <row r="20" spans="9:14" x14ac:dyDescent="0.45">
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="5"/>
+      <c r="N20" s="8"/>
+    </row>
+    <row r="21" spans="9:14" x14ac:dyDescent="0.45">
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="30"/>
+      <c r="N21" s="8"/>
+    </row>
+    <row r="22" spans="9:14" x14ac:dyDescent="0.45">
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="30"/>
+      <c r="N22" s="8"/>
+    </row>
+    <row r="23" spans="9:14" x14ac:dyDescent="0.45">
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="30"/>
+      <c r="N23" s="8"/>
+    </row>
+    <row r="24" spans="9:14" x14ac:dyDescent="0.45">
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="30"/>
+      <c r="N24" s="8"/>
+    </row>
+    <row r="25" spans="9:14" x14ac:dyDescent="0.45">
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="30"/>
+      <c r="N25" s="8"/>
+    </row>
+    <row r="26" spans="9:14" x14ac:dyDescent="0.45">
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="30"/>
+      <c r="N26" s="8"/>
+    </row>
+    <row r="27" spans="9:14" x14ac:dyDescent="0.45">
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="30"/>
+      <c r="N27" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research\dev\LRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D259415-C49F-4B4F-9A2F-FBD8094C7A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FD2FEC-7E1E-4D98-8110-676BFCAD3C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="2" r:id="rId1"/>
@@ -762,7 +762,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -834,7 +834,6 @@
     <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1422,7 +1421,7 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="K23" s="33"/>
+      <c r="K23" s="32"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
@@ -1442,7 +1441,7 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="K24" s="34"/>
+      <c r="K24" s="33"/>
     </row>
     <row r="25" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
@@ -2867,8 +2866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16226786-0325-4223-91E5-2589AE0E8571}">
   <dimension ref="A1:BA15"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -2884,72 +2883,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="37"/>
-      <c r="N1" s="35" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="36"/>
+      <c r="N1" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="37"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="36"/>
     </row>
     <row r="2" spans="1:53" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="40"/>
-      <c r="N2" s="41" t="s">
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="39"/>
+      <c r="N2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="O2" s="36" t="s">
+      <c r="O2" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36"/>
-      <c r="X2" s="37"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="36"/>
     </row>
     <row r="3" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="44"/>
-      <c r="B3" s="42"/>
+      <c r="A3" s="43"/>
+      <c r="B3" s="41"/>
       <c r="C3" s="25">
         <v>1010</v>
       </c>
@@ -2980,7 +2979,7 @@
       <c r="L3" s="25">
         <v>2807</v>
       </c>
-      <c r="N3" s="42"/>
+      <c r="N3" s="41"/>
       <c r="O3" s="25">
         <v>1010</v>
       </c>
@@ -3013,7 +3012,7 @@
       </c>
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.35">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="31" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="26">
@@ -3029,7 +3028,7 @@
         <v>54778.400000000001</v>
       </c>
       <c r="F4" s="26">
-        <v>55007.8</v>
+        <v>54778.400000000001</v>
       </c>
       <c r="G4" s="26">
         <v>55007.8</v>
@@ -3082,10 +3081,10 @@
       <c r="X4" s="26">
         <v>5.798</v>
       </c>
-      <c r="BA4" s="31"/>
+      <c r="BA4" s="30"/>
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.35">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="31" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="28">
@@ -3154,17 +3153,17 @@
       <c r="X5" s="26">
         <v>10.531000000000001</v>
       </c>
-      <c r="BA5" s="31"/>
+      <c r="BA5" s="30"/>
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.35">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="31" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="28">
         <v>63242</v>
       </c>
       <c r="C6" s="26">
-        <v>63915.199999999997</v>
+        <v>63215.199999999997</v>
       </c>
       <c r="D6" s="26">
         <v>63215.199999999997</v>
@@ -3191,7 +3190,7 @@
         <v>64155</v>
       </c>
       <c r="L6" s="26">
-        <v>64465.3</v>
+        <v>65351.8</v>
       </c>
       <c r="N6" s="24" t="s">
         <v>19</v>
@@ -3226,10 +3225,10 @@
       <c r="X6" s="26">
         <v>13.36</v>
       </c>
-      <c r="BA6" s="31"/>
+      <c r="BA6" s="30"/>
     </row>
     <row r="7" spans="1:53" x14ac:dyDescent="0.35">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="31" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="28">
@@ -3239,13 +3238,13 @@
         <v>355.78399999999999</v>
       </c>
       <c r="D7" s="26">
+        <v>358.46</v>
+      </c>
+      <c r="E7" s="26">
         <v>356.37400000000002</v>
       </c>
-      <c r="E7" s="26">
-        <v>355.78399999999999</v>
-      </c>
       <c r="F7" s="26">
-        <v>371.22899999999998</v>
+        <v>369.45600000000002</v>
       </c>
       <c r="G7" s="26">
         <v>355.78399999999999</v>
@@ -3298,44 +3297,44 @@
       <c r="X7" s="26">
         <v>32.75</v>
       </c>
-      <c r="BA7" s="31"/>
+      <c r="BA7" s="30"/>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.35">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="31" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="28">
         <v>195568</v>
       </c>
       <c r="C8" s="26">
-        <v>195572</v>
+        <v>195594</v>
       </c>
       <c r="D8" s="26">
-        <v>194681</v>
+        <v>197640</v>
       </c>
       <c r="E8" s="26">
-        <v>196613</v>
+        <v>195585</v>
       </c>
       <c r="F8" s="26">
-        <v>196138</v>
+        <v>194436</v>
       </c>
       <c r="G8" s="26">
+        <v>196244</v>
+      </c>
+      <c r="H8" s="26">
         <v>195166</v>
       </c>
-      <c r="H8" s="26">
-        <v>196248</v>
-      </c>
       <c r="I8" s="26">
-        <v>195350</v>
+        <v>195086</v>
       </c>
       <c r="J8" s="26">
-        <v>196638</v>
+        <v>196006</v>
       </c>
       <c r="K8" s="26">
-        <v>198133</v>
+        <v>197107</v>
       </c>
       <c r="L8" s="26">
-        <v>195546</v>
+        <v>195967</v>
       </c>
       <c r="N8" s="24" t="s">
         <v>20</v>
@@ -3370,41 +3369,41 @@
       <c r="X8" s="26">
         <v>33.984000000000002</v>
       </c>
-      <c r="BA8" s="31"/>
+      <c r="BA8" s="30"/>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.35">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="31" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="28">
         <v>204335</v>
       </c>
       <c r="C9" s="26">
-        <v>206525</v>
+        <v>205346</v>
       </c>
       <c r="D9" s="26">
-        <v>205012</v>
+        <v>205051</v>
       </c>
       <c r="E9" s="26">
-        <v>205211</v>
+        <v>204710</v>
       </c>
       <c r="F9" s="26">
-        <v>205012</v>
+        <v>206384</v>
       </c>
       <c r="G9" s="26">
-        <v>205261</v>
+        <v>206758</v>
       </c>
       <c r="H9" s="26">
         <v>205012</v>
       </c>
       <c r="I9" s="26">
-        <v>205095</v>
+        <v>205017</v>
       </c>
       <c r="J9" s="26">
-        <v>206216</v>
+        <v>205012</v>
       </c>
       <c r="K9" s="26">
-        <v>205012</v>
+        <v>205209</v>
       </c>
       <c r="L9" s="26">
         <v>205012</v>
@@ -3442,10 +3441,10 @@
       <c r="X9" s="26">
         <v>36.936999999999998</v>
       </c>
-      <c r="BA9" s="31"/>
+      <c r="BA9" s="30"/>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.35">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="31" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="28">
@@ -3464,10 +3463,10 @@
         <v>870.09299999999996</v>
       </c>
       <c r="G10" s="26">
-        <v>878.024</v>
+        <v>854.11500000000001</v>
       </c>
       <c r="H10" s="26">
-        <v>841.44100000000003</v>
+        <v>847.98599999999999</v>
       </c>
       <c r="I10" s="26">
         <v>846.37400000000002</v>
@@ -3479,7 +3478,7 @@
         <v>882.12199999999996</v>
       </c>
       <c r="L10" s="26">
-        <v>866.20100000000002</v>
+        <v>879.654</v>
       </c>
       <c r="N10" s="24" t="s">
         <v>24</v>
@@ -3514,10 +3513,10 @@
       <c r="X10" s="26">
         <v>39.484000000000002</v>
       </c>
-      <c r="BA10" s="31"/>
+      <c r="BA10" s="30"/>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.35">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="31" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="28">
@@ -3530,22 +3529,22 @@
         <v>5982.6</v>
       </c>
       <c r="E11" s="26">
-        <v>5846.14</v>
+        <v>5851.59</v>
       </c>
       <c r="F11" s="26">
-        <v>5732.77</v>
+        <v>5735.14</v>
       </c>
       <c r="G11" s="26">
-        <v>5900.29</v>
+        <v>5951.78</v>
       </c>
       <c r="H11" s="26">
         <v>5853.78</v>
       </c>
       <c r="I11" s="26">
-        <v>5910.95</v>
+        <v>5913.27</v>
       </c>
       <c r="J11" s="26">
-        <v>5719.49</v>
+        <v>5728.57</v>
       </c>
       <c r="K11" s="26">
         <v>5832.26</v>
@@ -3586,10 +3585,10 @@
       <c r="X11" s="26">
         <v>76.875</v>
       </c>
-      <c r="BA11" s="31"/>
+      <c r="BA11" s="30"/>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.35">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="31" t="s">
         <v>27</v>
       </c>
       <c r="B12" s="28">
@@ -3658,44 +3657,44 @@
       <c r="X12" s="26">
         <v>114.09399999999999</v>
       </c>
-      <c r="BA12" s="31"/>
+      <c r="BA12" s="30"/>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.35">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="31" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="28">
         <v>476684</v>
       </c>
       <c r="C13" s="26">
-        <v>478369</v>
+        <v>478123</v>
       </c>
       <c r="D13" s="26">
-        <v>476691</v>
+        <v>477603</v>
       </c>
       <c r="E13" s="26">
-        <v>477796</v>
+        <v>478283</v>
       </c>
       <c r="F13" s="26">
-        <v>478199</v>
+        <v>479949</v>
       </c>
       <c r="G13" s="26">
-        <v>479561</v>
+        <v>476584</v>
       </c>
       <c r="H13" s="26">
-        <v>479207</v>
+        <v>480222</v>
       </c>
       <c r="I13" s="26">
-        <v>478214</v>
+        <v>481839</v>
       </c>
       <c r="J13" s="26">
-        <v>476426</v>
+        <v>479504</v>
       </c>
       <c r="K13" s="26">
-        <v>476644</v>
+        <v>478714</v>
       </c>
       <c r="L13" s="26">
-        <v>480924</v>
+        <v>481322</v>
       </c>
       <c r="N13" s="24" t="s">
         <v>26</v>
@@ -3730,7 +3729,7 @@
       <c r="X13" s="26">
         <v>225.01599999999999</v>
       </c>
-      <c r="BA13" s="31"/>
+      <c r="BA13" s="30"/>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.35">
       <c r="C14" s="27"/>
@@ -3744,11 +3743,11 @@
       <c r="K14" s="27"/>
       <c r="L14" s="27"/>
       <c r="M14" s="24"/>
-      <c r="BA14" s="31"/>
+      <c r="BA14" s="30"/>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.35">
       <c r="B15" s="28"/>
-      <c r="BA15" s="31"/>
+      <c r="BA15" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3768,8 +3767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348A00D3-4455-4871-A842-3FB0F610BDD7}">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J4:N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.45"/>
@@ -3783,44 +3782,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="47"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="46"/>
     </row>
     <row r="2" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="46"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="50" t="s">
+      <c r="F2" s="45"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="49" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="48"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="51"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="50"/>
       <c r="E3" s="3" t="s">
         <v>30</v>
       </c>
@@ -3830,10 +3829,10 @@
       <c r="G3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="42"/>
+      <c r="H3" s="41"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A4" s="48"/>
+      <c r="A4" s="47"/>
       <c r="B4" s="4" t="s">
         <v>18</v>
       </c>
@@ -3850,7 +3849,7 @@
       </c>
       <c r="F4" s="7">
         <f>AVERAGE(data!C4:L4) / data!B4 -1</f>
-        <v>5.7087584180481876E-4</v>
+        <v>1.5220922380621005E-4</v>
       </c>
       <c r="G4" s="7">
         <f>MAX(data!C4:L4) / data!B4 -1</f>
@@ -3863,13 +3862,13 @@
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="29"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="5"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A5" s="48"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="4" t="s">
         <v>22</v>
       </c>
@@ -3899,11 +3898,13 @@
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="8"/>
       <c r="N5" s="8"/>
       <c r="O5" s="5"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A6" s="48"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="4" t="s">
         <v>19</v>
       </c>
@@ -3920,11 +3921,11 @@
       </c>
       <c r="F6" s="7">
         <f>AVERAGE(data!C6:L6) / data!B6 -1</f>
-        <v>9.2984092849688338E-3</v>
+        <v>9.5933082445209816E-3</v>
       </c>
       <c r="G6" s="7">
         <f>MAX(data!C6:L6) / data!B6 -1</f>
-        <v>2.81158091141962E-2</v>
+        <v>3.3360741279529371E-2</v>
       </c>
       <c r="H6" s="8">
         <f>AVERAGE(data!O6:X6)</f>
@@ -3933,11 +3934,13 @@
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="8"/>
       <c r="N6" s="8"/>
       <c r="O6" s="5"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A7" s="48"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="4" t="s">
         <v>23</v>
       </c>
@@ -3954,7 +3957,7 @@
       </c>
       <c r="F7" s="7">
         <f>AVERAGE(data!C7:L7) / data!B7 -1</f>
-        <v>9.061551433389603E-3</v>
+        <v>9.3153456998313899E-3</v>
       </c>
       <c r="G7" s="7">
         <f>MAX(data!C7:L7) / data!B7 -1</f>
@@ -3967,11 +3970,13 @@
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="5"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A8" s="48"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="4" t="s">
         <v>20</v>
       </c>
@@ -3984,15 +3989,15 @@
       </c>
       <c r="E8" s="7">
         <f>MIN(data!C8:L8) / data!B8 -1</f>
-        <v>-4.5355068313834845E-3</v>
+        <v>-5.7882680193078739E-3</v>
       </c>
       <c r="F8" s="7">
         <f>AVERAGE(data!C8:L8) / data!B8 -1</f>
-        <v>2.2524134827783815E-3</v>
+        <v>1.6112042870000121E-3</v>
       </c>
       <c r="G8" s="7">
         <f>MAX(data!C8:L8) / data!B8 -1</f>
-        <v>1.3115642640922909E-2</v>
+        <v>1.0594780332160658E-2</v>
       </c>
       <c r="H8" s="8">
         <f>AVERAGE(data!O8:X8)</f>
@@ -4001,11 +4006,13 @@
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="7"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A9" s="48"/>
+      <c r="A9" s="47"/>
       <c r="B9" s="4" t="s">
         <v>21</v>
       </c>
@@ -4018,15 +4025,15 @@
       </c>
       <c r="E9" s="7">
         <f>MIN(data!C9:L9) / data!B9 -1</f>
-        <v>3.3131866787383668E-3</v>
+        <v>1.8352215724177778E-3</v>
       </c>
       <c r="F9" s="7">
         <f>AVERAGE(data!C9:L9) / data!B9 -1</f>
-        <v>4.9027332566617954E-3</v>
+        <v>4.9727163726234203E-3</v>
       </c>
       <c r="G9" s="7">
         <f>MAX(data!C9:L9) / data!B9 -1</f>
-        <v>1.0717693982920107E-2</v>
+        <v>1.1857978319915752E-2</v>
       </c>
       <c r="H9" s="8">
         <f>AVERAGE(data!O9:X9)</f>
@@ -4035,11 +4042,13 @@
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="7"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A10" s="48"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="4" t="s">
         <v>24</v>
       </c>
@@ -4056,7 +4065,7 @@
       </c>
       <c r="F10" s="7">
         <f>AVERAGE(data!C10:L10) / data!B10 -1</f>
-        <v>2.5353778621425738E-2</v>
+        <v>2.488978526515595E-2</v>
       </c>
       <c r="G10" s="7">
         <f>MAX(data!C10:L10) / data!B10 -1</f>
@@ -4069,11 +4078,13 @@
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="7"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A11" s="48"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="4" t="s">
         <v>25</v>
       </c>
@@ -4086,11 +4097,11 @@
       </c>
       <c r="E11" s="7">
         <f>MIN(data!C11:L11) / data!B11 -1</f>
-        <v>-1.5408848338784642E-2</v>
+        <v>-1.384575658461018E-2</v>
       </c>
       <c r="F11" s="7">
         <f>AVERAGE(data!C11:L11) / data!B11 -1</f>
-        <v>9.3967980719573685E-3</v>
+        <v>1.0614047168187479E-2</v>
       </c>
       <c r="G11" s="7">
         <f>MAX(data!C11:L11) / data!B11 -1</f>
@@ -4103,10 +4114,12 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="8"/>
       <c r="N11" s="8"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A12" s="48"/>
+      <c r="A12" s="47"/>
       <c r="B12" s="4" t="s">
         <v>27</v>
       </c>
@@ -4136,10 +4149,12 @@
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="8"/>
       <c r="N12" s="8"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A13" s="49"/>
+      <c r="A13" s="48"/>
       <c r="B13" s="9" t="s">
         <v>26</v>
       </c>
@@ -4152,15 +4167,15 @@
       </c>
       <c r="E13" s="7">
         <f>MIN(data!C13:L13) / data!B13 -1</f>
-        <v>-5.4123905983838316E-4</v>
+        <v>-2.0978258133275141E-4</v>
       </c>
       <c r="F13" s="7">
         <f>AVERAGE(data!C13:L13) / data!B13 -1</f>
-        <v>3.1868071930249986E-3</v>
+        <v>5.3081286554614859E-3</v>
       </c>
       <c r="G13" s="7">
         <f>MAX(data!C13:L13) / data!B13 -1</f>
-        <v>8.89478144850675E-3</v>
+        <v>1.0814292067701015E-2</v>
       </c>
       <c r="H13" s="8">
         <f>AVERAGE(data!O13:X13)</f>
@@ -4169,6 +4184,8 @@
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="8"/>
       <c r="N13" s="8"/>
     </row>
     <row r="16" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -4177,14 +4194,14 @@
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
-      <c r="L18" s="30"/>
+      <c r="L18" s="29"/>
       <c r="N18" s="8"/>
     </row>
     <row r="19" spans="9:14" x14ac:dyDescent="0.45">
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
-      <c r="L19" s="30"/>
+      <c r="L19" s="29"/>
       <c r="N19" s="8"/>
     </row>
     <row r="20" spans="9:14" x14ac:dyDescent="0.45">
@@ -4198,49 +4215,49 @@
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
-      <c r="L21" s="30"/>
+      <c r="L21" s="29"/>
       <c r="N21" s="8"/>
     </row>
     <row r="22" spans="9:14" x14ac:dyDescent="0.45">
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
-      <c r="L22" s="30"/>
+      <c r="L22" s="29"/>
       <c r="N22" s="8"/>
     </row>
     <row r="23" spans="9:14" x14ac:dyDescent="0.45">
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
-      <c r="L23" s="30"/>
+      <c r="L23" s="29"/>
       <c r="N23" s="8"/>
     </row>
     <row r="24" spans="9:14" x14ac:dyDescent="0.45">
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
-      <c r="L24" s="30"/>
+      <c r="L24" s="29"/>
       <c r="N24" s="8"/>
     </row>
     <row r="25" spans="9:14" x14ac:dyDescent="0.45">
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
-      <c r="L25" s="30"/>
+      <c r="L25" s="29"/>
       <c r="N25" s="8"/>
     </row>
     <row r="26" spans="9:14" x14ac:dyDescent="0.45">
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
-      <c r="L26" s="30"/>
+      <c r="L26" s="29"/>
       <c r="N26" s="8"/>
     </row>
     <row r="27" spans="9:14" x14ac:dyDescent="0.45">
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
-      <c r="L27" s="30"/>
+      <c r="L27" s="29"/>
       <c r="N27" s="8"/>
     </row>
   </sheetData>

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research\dev\LRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FD2FEC-7E1E-4D98-8110-676BFCAD3C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC825C18-0BC6-4349-A5A4-4677120393A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1184,7 +1184,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5551421D-4FE7-47B7-A546-15E7A05240A9}">
   <dimension ref="A1:V287"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
@@ -2867,7 +2867,7 @@
   <dimension ref="A1:BA15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -3031,7 +3031,7 @@
         <v>54778.400000000001</v>
       </c>
       <c r="G4" s="26">
-        <v>55007.8</v>
+        <v>54778.400000000001</v>
       </c>
       <c r="H4" s="26">
         <v>54778.400000000001</v>
@@ -3091,19 +3091,19 @@
         <v>460.4</v>
       </c>
       <c r="C5" s="26">
-        <v>460.37400000000002</v>
+        <v>470.21499999999997</v>
       </c>
       <c r="D5" s="26">
-        <v>476.12099999999998</v>
+        <v>470.21499999999997</v>
       </c>
       <c r="E5" s="26">
-        <v>473.00900000000001</v>
+        <v>470.21499999999997</v>
       </c>
       <c r="F5" s="26">
         <v>460.37400000000002</v>
       </c>
       <c r="G5" s="26">
-        <v>473.00900000000001</v>
+        <v>470.21499999999997</v>
       </c>
       <c r="H5" s="26">
         <v>460.37400000000002</v>
@@ -3112,10 +3112,10 @@
         <v>460.37400000000002</v>
       </c>
       <c r="J5" s="26">
-        <v>460.37400000000002</v>
+        <v>473.00900000000001</v>
       </c>
       <c r="K5" s="26">
-        <v>460.37400000000002</v>
+        <v>463.91399999999999</v>
       </c>
       <c r="L5" s="26">
         <v>470.21499999999997</v>
@@ -3163,34 +3163,34 @@
         <v>63242</v>
       </c>
       <c r="C6" s="26">
-        <v>63215.199999999997</v>
+        <v>64199.3</v>
       </c>
       <c r="D6" s="26">
-        <v>63215.199999999997</v>
+        <v>63274.6</v>
       </c>
       <c r="E6" s="26">
         <v>63215.199999999997</v>
       </c>
       <c r="F6" s="26">
+        <v>63550.5</v>
+      </c>
+      <c r="G6" s="26">
+        <v>64319</v>
+      </c>
+      <c r="H6" s="26">
         <v>63215.199999999997</v>
       </c>
-      <c r="G6" s="26">
-        <v>63215.199999999997</v>
-      </c>
-      <c r="H6" s="26">
+      <c r="I6" s="26">
+        <v>63550.5</v>
+      </c>
+      <c r="J6" s="26">
+        <v>65489.7</v>
+      </c>
+      <c r="K6" s="26">
+        <v>63550.5</v>
+      </c>
+      <c r="L6" s="26">
         <v>63765</v>
-      </c>
-      <c r="I6" s="26">
-        <v>65020.1</v>
-      </c>
-      <c r="J6" s="26">
-        <v>64119.1</v>
-      </c>
-      <c r="K6" s="26">
-        <v>64155</v>
-      </c>
-      <c r="L6" s="26">
-        <v>65351.8</v>
       </c>
       <c r="N6" s="24" t="s">
         <v>19</v>
@@ -3238,13 +3238,13 @@
         <v>355.78399999999999</v>
       </c>
       <c r="D7" s="26">
-        <v>358.46</v>
+        <v>373.21300000000002</v>
       </c>
       <c r="E7" s="26">
-        <v>356.37400000000002</v>
+        <v>358.20499999999998</v>
       </c>
       <c r="F7" s="26">
-        <v>369.45600000000002</v>
+        <v>355.78399999999999</v>
       </c>
       <c r="G7" s="26">
         <v>355.78399999999999</v>
@@ -3253,10 +3253,10 @@
         <v>355.78399999999999</v>
       </c>
       <c r="I7" s="26">
-        <v>355.78399999999999</v>
+        <v>355.86700000000002</v>
       </c>
       <c r="J7" s="26">
-        <v>372.15</v>
+        <v>369.14299999999997</v>
       </c>
       <c r="K7" s="26">
         <v>355.78399999999999</v>
@@ -3307,34 +3307,34 @@
         <v>195568</v>
       </c>
       <c r="C8" s="26">
-        <v>195594</v>
+        <v>197352</v>
       </c>
       <c r="D8" s="26">
-        <v>197640</v>
+        <v>195099</v>
       </c>
       <c r="E8" s="26">
-        <v>195585</v>
+        <v>197540</v>
       </c>
       <c r="F8" s="26">
-        <v>194436</v>
+        <v>195649</v>
       </c>
       <c r="G8" s="26">
-        <v>196244</v>
+        <v>196024</v>
       </c>
       <c r="H8" s="26">
-        <v>195166</v>
+        <v>197273</v>
       </c>
       <c r="I8" s="26">
-        <v>195086</v>
+        <v>195660</v>
       </c>
       <c r="J8" s="26">
-        <v>196006</v>
+        <v>195677</v>
       </c>
       <c r="K8" s="26">
-        <v>197107</v>
+        <v>195817</v>
       </c>
       <c r="L8" s="26">
-        <v>195967</v>
+        <v>196263</v>
       </c>
       <c r="N8" s="24" t="s">
         <v>20</v>
@@ -3379,34 +3379,34 @@
         <v>204335</v>
       </c>
       <c r="C9" s="26">
-        <v>205346</v>
+        <v>204559</v>
       </c>
       <c r="D9" s="26">
-        <v>205051</v>
+        <v>205032</v>
       </c>
       <c r="E9" s="26">
-        <v>204710</v>
+        <v>206928</v>
       </c>
       <c r="F9" s="26">
-        <v>206384</v>
+        <v>205634</v>
       </c>
       <c r="G9" s="26">
-        <v>206758</v>
+        <v>205012</v>
       </c>
       <c r="H9" s="26">
         <v>205012</v>
       </c>
       <c r="I9" s="26">
-        <v>205017</v>
+        <v>205344</v>
       </c>
       <c r="J9" s="26">
-        <v>205012</v>
+        <v>206020</v>
       </c>
       <c r="K9" s="26">
-        <v>205209</v>
+        <v>205281</v>
       </c>
       <c r="L9" s="26">
-        <v>205012</v>
+        <v>205170</v>
       </c>
       <c r="N9" s="24" t="s">
         <v>21</v>
@@ -3451,34 +3451,34 @@
         <v>842.9</v>
       </c>
       <c r="C10" s="26">
-        <v>852.19399999999996</v>
+        <v>888.53899999999999</v>
       </c>
       <c r="D10" s="26">
+        <v>843.9</v>
+      </c>
+      <c r="E10" s="26">
+        <v>872.83500000000004</v>
+      </c>
+      <c r="F10" s="26">
+        <v>842.23500000000001</v>
+      </c>
+      <c r="G10" s="26">
+        <v>858.18499999999995</v>
+      </c>
+      <c r="H10" s="26">
+        <v>846.30899999999997</v>
+      </c>
+      <c r="I10" s="26">
+        <v>867.84699999999998</v>
+      </c>
+      <c r="J10" s="26">
         <v>836.67700000000002</v>
       </c>
-      <c r="E10" s="26">
-        <v>897.44899999999996</v>
-      </c>
-      <c r="F10" s="26">
-        <v>870.09299999999996</v>
-      </c>
-      <c r="G10" s="26">
-        <v>854.11500000000001</v>
-      </c>
-      <c r="H10" s="26">
-        <v>847.98599999999999</v>
-      </c>
-      <c r="I10" s="26">
-        <v>846.37400000000002</v>
-      </c>
-      <c r="J10" s="26">
-        <v>872.13199999999995</v>
-      </c>
       <c r="K10" s="26">
-        <v>882.12199999999996</v>
+        <v>875.66899999999998</v>
       </c>
       <c r="L10" s="26">
-        <v>879.654</v>
+        <v>837.88199999999995</v>
       </c>
       <c r="N10" s="24" t="s">
         <v>24</v>
@@ -3523,34 +3523,34 @@
         <v>5809</v>
       </c>
       <c r="C11" s="26">
-        <v>5906.08</v>
+        <v>5793.14</v>
       </c>
       <c r="D11" s="26">
-        <v>5982.6</v>
+        <v>5893.29</v>
       </c>
       <c r="E11" s="26">
-        <v>5851.59</v>
+        <v>5856.33</v>
       </c>
       <c r="F11" s="26">
-        <v>5735.14</v>
+        <v>5975.89</v>
       </c>
       <c r="G11" s="26">
-        <v>5951.78</v>
+        <v>5941.22</v>
       </c>
       <c r="H11" s="26">
-        <v>5853.78</v>
+        <v>5925.14</v>
       </c>
       <c r="I11" s="26">
-        <v>5913.27</v>
+        <v>5756.54</v>
       </c>
       <c r="J11" s="26">
-        <v>5728.57</v>
+        <v>5947.09</v>
       </c>
       <c r="K11" s="26">
-        <v>5832.26</v>
+        <v>5951.8</v>
       </c>
       <c r="L11" s="26">
-        <v>5951.5</v>
+        <v>5732.29</v>
       </c>
       <c r="N11" s="24" t="s">
         <v>25</v>
@@ -3595,34 +3595,34 @@
         <v>44011.7</v>
       </c>
       <c r="C12" s="26">
-        <v>44615</v>
+        <v>45901.5</v>
       </c>
       <c r="D12" s="26">
-        <v>46437</v>
+        <v>45554.9</v>
       </c>
       <c r="E12" s="26">
-        <v>44359.199999999997</v>
+        <v>44364.5</v>
       </c>
       <c r="F12" s="26">
-        <v>46857.1</v>
+        <v>45347.7</v>
       </c>
       <c r="G12" s="26">
-        <v>45010.5</v>
+        <v>44222.8</v>
       </c>
       <c r="H12" s="26">
-        <v>44279.6</v>
+        <v>44047.7</v>
       </c>
       <c r="I12" s="26">
-        <v>44541.5</v>
+        <v>45388.6</v>
       </c>
       <c r="J12" s="26">
-        <v>45213</v>
+        <v>46674.8</v>
       </c>
       <c r="K12" s="26">
-        <v>44725.7</v>
+        <v>45183.3</v>
       </c>
       <c r="L12" s="26">
-        <v>44478.8</v>
+        <v>45053.4</v>
       </c>
       <c r="N12" s="24" t="s">
         <v>27</v>
@@ -3667,34 +3667,34 @@
         <v>476684</v>
       </c>
       <c r="C13" s="26">
-        <v>478123</v>
+        <v>484228</v>
       </c>
       <c r="D13" s="26">
-        <v>477603</v>
+        <v>479301</v>
       </c>
       <c r="E13" s="26">
-        <v>478283</v>
+        <v>479691</v>
       </c>
       <c r="F13" s="26">
-        <v>479949</v>
+        <v>479834</v>
       </c>
       <c r="G13" s="26">
-        <v>476584</v>
+        <v>477539</v>
       </c>
       <c r="H13" s="26">
-        <v>480222</v>
+        <v>485204</v>
       </c>
       <c r="I13" s="26">
-        <v>481839</v>
+        <v>475151</v>
       </c>
       <c r="J13" s="26">
-        <v>479504</v>
+        <v>477329</v>
       </c>
       <c r="K13" s="26">
-        <v>478714</v>
+        <v>476351</v>
       </c>
       <c r="L13" s="26">
-        <v>481322</v>
+        <v>482318</v>
       </c>
       <c r="N13" s="24" t="s">
         <v>26</v>
@@ -3768,7 +3768,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4:N19"/>
+      <selection activeCell="E4" sqref="E4:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.45"/>
@@ -3849,11 +3849,11 @@
       </c>
       <c r="F4" s="7">
         <f>AVERAGE(data!C4:L4) / data!B4 -1</f>
-        <v>1.5220922380621005E-4</v>
+        <v>-2.6645739419250969E-4</v>
       </c>
       <c r="G4" s="7">
         <f>MAX(data!C4:L4) / data!B4 -1</f>
-        <v>3.9202087857939105E-3</v>
+        <v>-2.6645739419262071E-4</v>
       </c>
       <c r="H4" s="8">
         <f>AVERAGE(data!O4:X4)</f>
@@ -3885,11 +3885,11 @@
       </c>
       <c r="F5" s="7">
         <f>AVERAGE(data!C5:L5) / data!B5 -1</f>
-        <v>1.0990008688097186E-2</v>
+        <v>1.4144222415291008E-2</v>
       </c>
       <c r="G5" s="7">
         <f>MAX(data!C5:L5) / data!B5 -1</f>
-        <v>3.4146394439617644E-2</v>
+        <v>2.7387054735013017E-2</v>
       </c>
       <c r="H5" s="8">
         <f>AVERAGE(data!O5:X5)</f>
@@ -3921,11 +3921,11 @@
       </c>
       <c r="F6" s="7">
         <f>AVERAGE(data!C6:L6) / data!B6 -1</f>
-        <v>9.5933082445209816E-3</v>
+        <v>9.0280193542264797E-3</v>
       </c>
       <c r="G6" s="7">
         <f>MAX(data!C6:L6) / data!B6 -1</f>
-        <v>3.3360741279529371E-2</v>
+        <v>3.5541254229783936E-2</v>
       </c>
       <c r="H6" s="8">
         <f>AVERAGE(data!O6:X6)</f>
@@ -3957,11 +3957,11 @@
       </c>
       <c r="F7" s="7">
         <f>AVERAGE(data!C7:L7) / data!B7 -1</f>
-        <v>9.3153456998313899E-3</v>
+        <v>9.3119730185498018E-3</v>
       </c>
       <c r="G7" s="7">
         <f>MAX(data!C7:L7) / data!B7 -1</f>
-        <v>4.595278246205714E-2</v>
+        <v>4.8940415964024764E-2</v>
       </c>
       <c r="H7" s="8">
         <f>AVERAGE(data!O7:X7)</f>
@@ -3989,15 +3989,15 @@
       </c>
       <c r="E8" s="7">
         <f>MIN(data!C8:L8) / data!B8 -1</f>
-        <v>-5.7882680193078739E-3</v>
+        <v>-2.3981428454552534E-3</v>
       </c>
       <c r="F8" s="7">
         <f>AVERAGE(data!C8:L8) / data!B8 -1</f>
-        <v>1.6112042870000121E-3</v>
+        <v>3.4126237421254757E-3</v>
       </c>
       <c r="G8" s="7">
         <f>MAX(data!C8:L8) / data!B8 -1</f>
-        <v>1.0594780332160658E-2</v>
+        <v>1.008344923504878E-2</v>
       </c>
       <c r="H8" s="8">
         <f>AVERAGE(data!O8:X8)</f>
@@ -4025,15 +4025,15 @@
       </c>
       <c r="E9" s="7">
         <f>MIN(data!C9:L9) / data!B9 -1</f>
-        <v>1.8352215724177778E-3</v>
+        <v>1.0962390192574833E-3</v>
       </c>
       <c r="F9" s="7">
         <f>AVERAGE(data!C9:L9) / data!B9 -1</f>
-        <v>4.9727163726234203E-3</v>
+        <v>5.2081141263122799E-3</v>
       </c>
       <c r="G9" s="7">
         <f>MAX(data!C9:L9) / data!B9 -1</f>
-        <v>1.1857978319915752E-2</v>
+        <v>1.2689945432745153E-2</v>
       </c>
       <c r="H9" s="8">
         <f>AVERAGE(data!O9:X9)</f>
@@ -4065,11 +4065,11 @@
       </c>
       <c r="F10" s="7">
         <f>AVERAGE(data!C10:L10) / data!B10 -1</f>
-        <v>2.488978526515595E-2</v>
+        <v>1.6737216751690598E-2</v>
       </c>
       <c r="G10" s="7">
         <f>MAX(data!C10:L10) / data!B10 -1</f>
-        <v>6.4715861905326744E-2</v>
+        <v>5.4145212955273525E-2</v>
       </c>
       <c r="H10" s="8">
         <f>AVERAGE(data!O10:X10)</f>
@@ -4097,15 +4097,15 @@
       </c>
       <c r="E11" s="7">
         <f>MIN(data!C11:L11) / data!B11 -1</f>
-        <v>-1.384575658461018E-2</v>
+        <v>-1.3205370976071662E-2</v>
       </c>
       <c r="F11" s="7">
         <f>AVERAGE(data!C11:L11) / data!B11 -1</f>
-        <v>1.0614047168187479E-2</v>
+        <v>1.175296953003957E-2</v>
       </c>
       <c r="G11" s="7">
         <f>MAX(data!C11:L11) / data!B11 -1</f>
-        <v>2.9884661731795603E-2</v>
+        <v>2.8729557583060839E-2</v>
       </c>
       <c r="H11" s="8">
         <f>AVERAGE(data!O11:X11)</f>
@@ -4132,15 +4132,15 @@
       </c>
       <c r="E12" s="7">
         <f>MIN(data!C12:L12) / data!B12 -1</f>
-        <v>6.0870177702747608E-3</v>
+        <v>8.179643140346915E-4</v>
       </c>
       <c r="F12" s="7">
         <f>AVERAGE(data!C12:L12) / data!B12 -1</f>
-        <v>2.3630989032461969E-2</v>
+        <v>2.6407069029371844E-2</v>
       </c>
       <c r="G12" s="7">
         <f>MAX(data!C12:L12) / data!B12 -1</f>
-        <v>6.4650990532063135E-2</v>
+        <v>6.0508910130715465E-2</v>
       </c>
       <c r="H12" s="8">
         <f>AVERAGE(data!O12:X12)</f>
@@ -4167,15 +4167,15 @@
       </c>
       <c r="E13" s="7">
         <f>MIN(data!C13:L13) / data!B13 -1</f>
-        <v>-2.0978258133275141E-4</v>
+        <v>-3.215966971830353E-3</v>
       </c>
       <c r="F13" s="7">
         <f>AVERAGE(data!C13:L13) / data!B13 -1</f>
-        <v>5.3081286554614859E-3</v>
+        <v>6.3157143936023452E-3</v>
       </c>
       <c r="G13" s="7">
         <f>MAX(data!C13:L13) / data!B13 -1</f>
-        <v>1.0814292067701015E-2</v>
+        <v>1.7873475929546689E-2</v>
       </c>
       <c r="H13" s="8">
         <f>AVERAGE(data!O13:X13)</f>

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research\dev\LRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC825C18-0BC6-4349-A5A4-4677120393A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C848A095-3AE7-40D7-AC0B-6708757D35A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="2" r:id="rId1"/>
@@ -362,12 +362,6 @@
     <t>            τ̲   =   0.01                    ,</t>
   </si>
   <si>
-    <t>11th Gen Intel(R) Core(TM) i7-11800H @ 2.30GHz   2.30 GHz</t>
-  </si>
-  <si>
-    <t>64.0 GB</t>
-  </si>
-  <si>
     <t>Windows 11 Home</t>
   </si>
   <si>
@@ -396,6 +390,12 @@
   </si>
   <si>
     <t>                        :interopt!          ,</t>
+  </si>
+  <si>
+    <t>Intel(R) Core(TM) i7-7700 CPU @ 3.60GHz   3.60 GHz</t>
+  </si>
+  <si>
+    <t>16.0 GB</t>
   </si>
 </sst>
 </file>
@@ -1184,8 +1184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5551421D-4FE7-47B7-A546-15E7A05240A9}">
   <dimension ref="A1:V287"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1231,7 +1231,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
@@ -1244,7 +1244,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
@@ -1275,7 +1275,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1329,7 +1329,7 @@
         <v>32</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1394,7 +1394,7 @@
     </row>
     <row r="22" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1429,7 +1429,7 @@
     </row>
     <row r="24" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2014,7 +2014,7 @@
     </row>
     <row r="50" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2028,7 +2028,7 @@
     </row>
     <row r="51" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2042,7 +2042,7 @@
     </row>
     <row r="52" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2182,7 +2182,7 @@
     </row>
     <row r="61" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="22" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -2240,7 +2240,7 @@
     </row>
     <row r="65" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -2866,8 +2866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16226786-0325-4223-91E5-2589AE0E8571}">
   <dimension ref="A1:BA15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -2898,7 +2898,7 @@
       <c r="K1" s="35"/>
       <c r="L1" s="36"/>
       <c r="N1" s="34" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O1" s="35"/>
       <c r="P1" s="35"/>
@@ -3768,7 +3768,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E13"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.45"/>

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research\dev\LRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C848A095-3AE7-40D7-AC0B-6708757D35A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E293626F-92C9-4E44-A817-618294946A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="2" r:id="rId1"/>
@@ -1184,7 +1184,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5551421D-4FE7-47B7-A546-15E7A05240A9}">
   <dimension ref="A1:V287"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
@@ -2866,8 +2866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16226786-0325-4223-91E5-2589AE0E8571}">
   <dimension ref="A1:BA15"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research\dev\LRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E293626F-92C9-4E44-A817-618294946A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1C68A8-6CE4-40D6-830F-F40783DA4133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="112">
   <si>
     <t>Instance</t>
   </si>
@@ -304,27 +304,6 @@
   </si>
   <si>
     <t>Maximum removal fraction</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="JuliaMono"/>
-        <family val="3"/>
-      </rPr>
-      <t>Initialization:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="JuliaMono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> cluster</t>
-    </r>
   </si>
   <si>
     <t>Total 
@@ -479,7 +458,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -614,19 +593,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color theme="0"/>
@@ -635,17 +601,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -762,7 +717,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -838,7 +793,7 @@
     <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -847,16 +802,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -865,32 +832,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1231,7 +1180,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
@@ -1244,7 +1193,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
@@ -1275,7 +1224,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1329,7 +1278,7 @@
         <v>32</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1350,7 +1299,7 @@
     </row>
     <row r="19" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B19" s="19"/>
       <c r="K19" s="1"/>
@@ -1378,14 +1327,14 @@
     </row>
     <row r="21" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -1394,14 +1343,14 @@
     </row>
     <row r="22" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -1409,14 +1358,14 @@
     </row>
     <row r="23" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -1429,14 +1378,14 @@
     </row>
     <row r="24" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -2014,7 +1963,7 @@
     </row>
     <row r="50" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2028,7 +1977,7 @@
     </row>
     <row r="51" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2042,7 +1991,7 @@
     </row>
     <row r="52" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2182,7 +2131,7 @@
     </row>
     <row r="61" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -2226,7 +2175,7 @@
     </row>
     <row r="64" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -2240,7 +2189,7 @@
     </row>
     <row r="65" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -2866,7 +2815,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16226786-0325-4223-91E5-2589AE0E8571}">
   <dimension ref="A1:BA15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -2898,7 +2847,7 @@
       <c r="K1" s="35"/>
       <c r="L1" s="36"/>
       <c r="N1" s="34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O1" s="35"/>
       <c r="P1" s="35"/>
@@ -3765,24 +3714,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348A00D3-4455-4871-A842-3FB0F610BDD7}">
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.54296875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="17.453125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" style="6" customWidth="1"/>
-    <col min="4" max="7" width="10.54296875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="11.7265625" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.7265625" style="6"/>
+    <col min="1" max="1" width="17.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.54296875" style="6" customWidth="1"/>
+    <col min="3" max="6" width="10.54296875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="11.7265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A1" s="45" t="s">
         <v>37</v>
       </c>
       <c r="B1" s="45"/>
@@ -3790,485 +3738,469 @@
       <c r="D1" s="45"/>
       <c r="E1" s="45"/>
       <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="46"/>
-    </row>
-    <row r="2" spans="1:15" ht="14.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="47" t="s">
+      <c r="G1" s="46"/>
+    </row>
+    <row r="2" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="45"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="45"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="49" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="47"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="50"/>
+    </row>
+    <row r="3" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="36"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="E3" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="41"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A4" s="47"/>
-      <c r="B4" s="4" t="s">
+      <c r="G3" s="41"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="4">
+      <c r="B4" s="4">
         <v>25</v>
       </c>
-      <c r="D4" s="2">
-        <f>MAX(100, C4) * 50</f>
+      <c r="C4" s="2">
+        <f>MAX(100, B4) * 50</f>
         <v>5000</v>
       </c>
-      <c r="E4" s="7">
+      <c r="D4" s="7">
         <f>MIN(data!C4:L4) / data!B4 -1</f>
         <v>-2.6645739419262071E-4</v>
       </c>
-      <c r="F4" s="7">
+      <c r="E4" s="7">
         <f>AVERAGE(data!C4:L4) / data!B4 -1</f>
         <v>-2.6645739419250969E-4</v>
       </c>
-      <c r="G4" s="7">
+      <c r="F4" s="7">
         <f>MAX(data!C4:L4) / data!B4 -1</f>
         <v>-2.6645739419262071E-4</v>
       </c>
-      <c r="H4" s="8">
+      <c r="G4" s="8">
         <f>AVERAGE(data!O4:X4)</f>
         <v>5.8734000000000002</v>
       </c>
+      <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
+      <c r="L4" s="8"/>
       <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="5"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A5" s="47"/>
-      <c r="B5" s="4" t="s">
+      <c r="N4" s="5"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="4">
+      <c r="B5" s="4">
         <v>41</v>
       </c>
-      <c r="D5" s="2">
-        <f t="shared" ref="D5:D13" si="0">MAX(100, C5) * 50</f>
+      <c r="C5" s="2">
+        <f t="shared" ref="C5:C13" si="0">MAX(100, B5) * 50</f>
         <v>5000</v>
       </c>
-      <c r="E5" s="7">
+      <c r="D5" s="7">
         <f>MIN(data!C5:L5) / data!B5 -1</f>
         <v>-5.6472632493420605E-5</v>
       </c>
-      <c r="F5" s="7">
+      <c r="E5" s="7">
         <f>AVERAGE(data!C5:L5) / data!B5 -1</f>
         <v>1.4144222415291008E-2</v>
       </c>
-      <c r="G5" s="7">
+      <c r="F5" s="7">
         <f>MAX(data!C5:L5) / data!B5 -1</f>
         <v>2.7387054735013017E-2</v>
       </c>
-      <c r="H5" s="8">
+      <c r="G5" s="8">
         <f>AVERAGE(data!O5:X5)</f>
         <v>10.5608</v>
       </c>
+      <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
+      <c r="L5" s="8"/>
       <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="5"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A6" s="47"/>
-      <c r="B6" s="4" t="s">
+      <c r="N5" s="5"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="4">
+      <c r="B6" s="4">
         <v>55</v>
       </c>
-      <c r="D6" s="2">
+      <c r="C6" s="2">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="E6" s="7">
+      <c r="D6" s="7">
         <f>MIN(data!C6:L6) / data!B6 -1</f>
         <v>-4.2376901426266489E-4</v>
       </c>
-      <c r="F6" s="7">
+      <c r="E6" s="7">
         <f>AVERAGE(data!C6:L6) / data!B6 -1</f>
         <v>9.0280193542264797E-3</v>
       </c>
-      <c r="G6" s="7">
+      <c r="F6" s="7">
         <f>MAX(data!C6:L6) / data!B6 -1</f>
         <v>3.5541254229783936E-2</v>
       </c>
-      <c r="H6" s="8">
+      <c r="G6" s="8">
         <f>AVERAGE(data!O6:X6)</f>
         <v>13.529900000000001</v>
       </c>
+      <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
+      <c r="L6" s="8"/>
       <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="5"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A7" s="47"/>
-      <c r="B7" s="4" t="s">
+      <c r="N6" s="5"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="4">
+      <c r="B7" s="4">
         <v>96</v>
       </c>
-      <c r="D7" s="2">
+      <c r="C7" s="2">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="E7" s="7">
+      <c r="D7" s="7">
         <f>MIN(data!C7:L7) / data!B7 -1</f>
         <v>-4.4969083754953232E-5</v>
       </c>
-      <c r="F7" s="7">
+      <c r="E7" s="7">
         <f>AVERAGE(data!C7:L7) / data!B7 -1</f>
         <v>9.3119730185498018E-3</v>
       </c>
-      <c r="G7" s="7">
+      <c r="F7" s="7">
         <f>MAX(data!C7:L7) / data!B7 -1</f>
         <v>4.8940415964024764E-2</v>
       </c>
-      <c r="H7" s="8">
+      <c r="G7" s="8">
         <f>AVERAGE(data!O7:X7)</f>
         <v>32.187599999999996</v>
       </c>
+      <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
+      <c r="L7" s="8"/>
       <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="5"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A8" s="47"/>
-      <c r="B8" s="4" t="s">
+      <c r="N7" s="5"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="4">
+      <c r="B8" s="4">
         <v>105</v>
       </c>
-      <c r="D8" s="2">
+      <c r="C8" s="2">
         <f t="shared" si="0"/>
         <v>5250</v>
       </c>
-      <c r="E8" s="7">
+      <c r="D8" s="7">
         <f>MIN(data!C8:L8) / data!B8 -1</f>
         <v>-2.3981428454552534E-3</v>
       </c>
-      <c r="F8" s="7">
+      <c r="E8" s="7">
         <f>AVERAGE(data!C8:L8) / data!B8 -1</f>
         <v>3.4126237421254757E-3</v>
       </c>
-      <c r="G8" s="7">
+      <c r="F8" s="7">
         <f>MAX(data!C8:L8) / data!B8 -1</f>
         <v>1.008344923504878E-2</v>
       </c>
-      <c r="H8" s="8">
+      <c r="G8" s="8">
         <f>AVERAGE(data!O8:X8)</f>
         <v>34.118600000000001</v>
       </c>
+      <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
+      <c r="L8" s="8"/>
       <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="7"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A9" s="47"/>
-      <c r="B9" s="4" t="s">
+      <c r="N8" s="7"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="4">
+      <c r="B9" s="4">
         <v>110</v>
       </c>
-      <c r="D9" s="2">
+      <c r="C9" s="2">
         <f t="shared" si="0"/>
         <v>5500</v>
       </c>
-      <c r="E9" s="7">
+      <c r="D9" s="7">
         <f>MIN(data!C9:L9) / data!B9 -1</f>
         <v>1.0962390192574833E-3</v>
       </c>
-      <c r="F9" s="7">
+      <c r="E9" s="7">
         <f>AVERAGE(data!C9:L9) / data!B9 -1</f>
         <v>5.2081141263122799E-3</v>
       </c>
-      <c r="G9" s="7">
+      <c r="F9" s="7">
         <f>MAX(data!C9:L9) / data!B9 -1</f>
         <v>1.2689945432745153E-2</v>
       </c>
-      <c r="H9" s="8">
+      <c r="G9" s="8">
         <f>AVERAGE(data!O9:X9)</f>
         <v>36.936199999999999</v>
       </c>
+      <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
+      <c r="L9" s="8"/>
       <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="7"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A10" s="47"/>
-      <c r="B10" s="4" t="s">
+      <c r="N9" s="7"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="4">
+      <c r="B10" s="4">
         <v>110</v>
       </c>
-      <c r="D10" s="2">
+      <c r="C10" s="2">
         <f t="shared" si="0"/>
         <v>5500</v>
       </c>
-      <c r="E10" s="7">
+      <c r="D10" s="7">
         <f>MIN(data!C10:L10) / data!B10 -1</f>
         <v>-7.3828449400877849E-3</v>
       </c>
-      <c r="F10" s="7">
+      <c r="E10" s="7">
         <f>AVERAGE(data!C10:L10) / data!B10 -1</f>
         <v>1.6737216751690598E-2</v>
       </c>
-      <c r="G10" s="7">
+      <c r="F10" s="7">
         <f>MAX(data!C10:L10) / data!B10 -1</f>
         <v>5.4145212955273525E-2</v>
       </c>
-      <c r="H10" s="8">
+      <c r="G10" s="8">
         <f>AVERAGE(data!O10:X10)</f>
         <v>39.3001</v>
       </c>
+      <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
+      <c r="L10" s="8"/>
       <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="7"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A11" s="47"/>
-      <c r="B11" s="4" t="s">
+      <c r="N10" s="7"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="4">
+      <c r="B11" s="4">
         <v>142</v>
       </c>
-      <c r="D11" s="2">
+      <c r="C11" s="2">
         <f t="shared" si="0"/>
         <v>7100</v>
       </c>
-      <c r="E11" s="7">
+      <c r="D11" s="7">
         <f>MIN(data!C11:L11) / data!B11 -1</f>
         <v>-1.3205370976071662E-2</v>
       </c>
-      <c r="F11" s="7">
+      <c r="E11" s="7">
         <f>AVERAGE(data!C11:L11) / data!B11 -1</f>
         <v>1.175296953003957E-2</v>
       </c>
-      <c r="G11" s="7">
+      <c r="F11" s="7">
         <f>MAX(data!C11:L11) / data!B11 -1</f>
         <v>2.8729557583060839E-2</v>
       </c>
-      <c r="H11" s="8">
+      <c r="G11" s="8">
         <f>AVERAGE(data!O11:X11)</f>
         <v>78.040500000000009</v>
       </c>
+      <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
+      <c r="L11" s="8"/>
       <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A12" s="47"/>
-      <c r="B12" s="4" t="s">
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="4">
+      <c r="B12" s="4">
         <v>160</v>
       </c>
-      <c r="D12" s="2">
+      <c r="C12" s="2">
         <f t="shared" si="0"/>
         <v>8000</v>
       </c>
-      <c r="E12" s="7">
+      <c r="D12" s="7">
         <f>MIN(data!C12:L12) / data!B12 -1</f>
         <v>8.179643140346915E-4</v>
       </c>
-      <c r="F12" s="7">
+      <c r="E12" s="7">
         <f>AVERAGE(data!C12:L12) / data!B12 -1</f>
         <v>2.6407069029371844E-2</v>
       </c>
-      <c r="G12" s="7">
+      <c r="F12" s="7">
         <f>MAX(data!C12:L12) / data!B12 -1</f>
         <v>6.0508910130715465E-2</v>
       </c>
-      <c r="H12" s="8">
+      <c r="G12" s="8">
         <f>AVERAGE(data!O12:X12)</f>
         <v>114.82980000000001</v>
       </c>
+      <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
+      <c r="L12" s="8"/>
       <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A13" s="48"/>
-      <c r="B13" s="9" t="s">
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="4">
+      <c r="B13" s="4">
         <v>210</v>
       </c>
-      <c r="D13" s="2">
+      <c r="C13" s="2">
         <f t="shared" si="0"/>
         <v>10500</v>
       </c>
-      <c r="E13" s="7">
+      <c r="D13" s="7">
         <f>MIN(data!C13:L13) / data!B13 -1</f>
         <v>-3.215966971830353E-3</v>
       </c>
-      <c r="F13" s="7">
+      <c r="E13" s="7">
         <f>AVERAGE(data!C13:L13) / data!B13 -1</f>
         <v>6.3157143936023452E-3</v>
       </c>
-      <c r="G13" s="7">
+      <c r="F13" s="7">
         <f>MAX(data!C13:L13) / data!B13 -1</f>
         <v>1.7873475929546689E-2</v>
       </c>
-      <c r="H13" s="8">
+      <c r="G13" s="8">
         <f>AVERAGE(data!O13:X13)</f>
         <v>222.34719999999999</v>
       </c>
+      <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
+      <c r="L13" s="8"/>
       <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-    </row>
-    <row r="16" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="17" spans="9:14" ht="12" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="18" spans="9:14" x14ac:dyDescent="0.45">
+    </row>
+    <row r="16" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="17" spans="8:13" ht="12" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="18" spans="8:13" x14ac:dyDescent="0.45">
+      <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="29"/>
-      <c r="N18" s="8"/>
-    </row>
-    <row r="19" spans="9:14" x14ac:dyDescent="0.45">
+      <c r="K18" s="29"/>
+      <c r="M18" s="8"/>
+    </row>
+    <row r="19" spans="8:13" x14ac:dyDescent="0.45">
+      <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="29"/>
-      <c r="N19" s="8"/>
-    </row>
-    <row r="20" spans="9:14" x14ac:dyDescent="0.45">
+      <c r="K19" s="29"/>
+      <c r="M19" s="8"/>
+    </row>
+    <row r="20" spans="8:13" x14ac:dyDescent="0.45">
+      <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="5"/>
-      <c r="N20" s="8"/>
-    </row>
-    <row r="21" spans="9:14" x14ac:dyDescent="0.45">
+      <c r="K20" s="5"/>
+      <c r="M20" s="8"/>
+    </row>
+    <row r="21" spans="8:13" x14ac:dyDescent="0.45">
+      <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="29"/>
-      <c r="N21" s="8"/>
-    </row>
-    <row r="22" spans="9:14" x14ac:dyDescent="0.45">
+      <c r="K21" s="29"/>
+      <c r="M21" s="8"/>
+    </row>
+    <row r="22" spans="8:13" x14ac:dyDescent="0.45">
+      <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="29"/>
-      <c r="N22" s="8"/>
-    </row>
-    <row r="23" spans="9:14" x14ac:dyDescent="0.45">
+      <c r="K22" s="29"/>
+      <c r="M22" s="8"/>
+    </row>
+    <row r="23" spans="8:13" x14ac:dyDescent="0.45">
+      <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="29"/>
-      <c r="N23" s="8"/>
-    </row>
-    <row r="24" spans="9:14" x14ac:dyDescent="0.45">
+      <c r="K23" s="29"/>
+      <c r="M23" s="8"/>
+    </row>
+    <row r="24" spans="8:13" x14ac:dyDescent="0.45">
+      <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="29"/>
-      <c r="N24" s="8"/>
-    </row>
-    <row r="25" spans="9:14" x14ac:dyDescent="0.45">
+      <c r="K24" s="29"/>
+      <c r="M24" s="8"/>
+    </row>
+    <row r="25" spans="8:13" x14ac:dyDescent="0.45">
+      <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="29"/>
-      <c r="N25" s="8"/>
-    </row>
-    <row r="26" spans="9:14" x14ac:dyDescent="0.45">
+      <c r="K25" s="29"/>
+      <c r="M25" s="8"/>
+    </row>
+    <row r="26" spans="8:13" x14ac:dyDescent="0.45">
+      <c r="H26" s="7"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="29"/>
-      <c r="N26" s="8"/>
-    </row>
-    <row r="27" spans="9:14" x14ac:dyDescent="0.45">
+      <c r="K26" s="29"/>
+      <c r="M26" s="8"/>
+    </row>
+    <row r="27" spans="8:13" x14ac:dyDescent="0.45">
+      <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="29"/>
-      <c r="N27" s="8"/>
+      <c r="K27" s="29"/>
+      <c r="M27" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="A2:A13"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="H2:H3"/>
+  <mergeCells count="6">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research\dev\LRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C9166F-9ECE-47B7-A8B4-59D372AF5080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8A1599-2299-45A1-9397-D55B2B047499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="133">
   <si>
     <t>Instance</t>
   </si>
@@ -142,9 +142,6 @@
   </si>
   <si>
     <t>Optimized solution</t>
-  </si>
-  <si>
-    <t>Benchmarking</t>
   </si>
   <si>
     <t>            Ψᵣ  =   [</t>
@@ -338,9 +335,6 @@
     <t>            ω̅   =   0.05                    ,</t>
   </si>
   <si>
-    <t>CPU RunTime (s)</t>
-  </si>
-  <si>
     <t>                        :swap!              ,            </t>
   </si>
   <si>
@@ -375,6 +369,75 @@
   </si>
   <si>
     <t>1.84.2</t>
+  </si>
+  <si>
+    <t>Vehicle Routing Problem (VRP) Benchmarking</t>
+  </si>
+  <si>
+    <t>                        :worstvehicle!</t>
+  </si>
+  <si>
+    <t>                        :intramove!         ,</t>
+  </si>
+  <si>
+    <t>                        :intraswap!         ,</t>
+  </si>
+  <si>
+    <t>                        :intraopt!          ,</t>
+  </si>
+  <si>
+    <t>                        :intermove!         ,</t>
+  </si>
+  <si>
+    <t>                        :interswap!         ,</t>
+  </si>
+  <si>
+    <t>                        :interopt!          ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        ]   </t>
+  </si>
+  <si>
+    <t>CPU Run Time (s)</t>
+  </si>
+  <si>
+    <t>m-n101-k10</t>
+  </si>
+  <si>
+    <t>tai150a</t>
+  </si>
+  <si>
+    <t>cmt10</t>
+  </si>
+  <si>
+    <t>x-n251-k28</t>
+  </si>
+  <si>
+    <t>x-n303-k21</t>
+  </si>
+  <si>
+    <t>r101</t>
+  </si>
+  <si>
+    <t>r201</t>
+  </si>
+  <si>
+    <t>c101</t>
+  </si>
+  <si>
+    <t>c201</t>
+  </si>
+  <si>
+    <t>rc101</t>
+  </si>
+  <si>
+    <t>rc201</t>
+  </si>
+  <si>
+    <t>LRP Benchmarking</t>
+  </si>
+  <si>
+    <t>VRP Benchmarking</t>
   </si>
 </sst>
 </file>
@@ -384,7 +447,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -449,6 +512,13 @@
       <name val="JuliaMono"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -458,7 +528,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -675,8 +745,17 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="0"/>
       </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color theme="0"/>
       </right>
@@ -686,38 +765,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -788,9 +841,6 @@
     <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -821,12 +871,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -845,6 +889,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1126,24 +1185,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5551421D-4FE7-47B7-A546-15E7A05240A9}">
-  <dimension ref="A1:V287"/>
+  <dimension ref="A1:Y287"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.54296875" style="11" customWidth="1"/>
-    <col min="2" max="11" width="9.1796875" style="11" customWidth="1"/>
-    <col min="12" max="12" width="17.453125" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="11.54296875" style="11" customWidth="1"/>
-    <col min="17" max="16384" width="9.1796875" style="11"/>
+    <col min="2" max="11" width="9.1796875" style="11"/>
+    <col min="12" max="12" width="18.54296875" style="11" customWidth="1"/>
+    <col min="13" max="22" width="9.1796875" style="11" customWidth="1"/>
+    <col min="23" max="16384" width="9.1796875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="22" t="s">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="10"/>
@@ -1152,8 +1211,18 @@
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
-    </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L1" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="9"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+    </row>
+    <row r="2" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12"/>
       <c r="B2" s="13"/>
       <c r="C2" s="14"/>
@@ -1162,101 +1231,184 @@
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
-    </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L2" s="12"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+    </row>
+    <row r="3" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
-    </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+    </row>
+    <row r="4" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="21" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
       <c r="G4" s="17"/>
       <c r="H4" s="17"/>
-    </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+    </row>
+    <row r="5" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="21" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
       <c r="H5" s="17"/>
-    </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+    </row>
+    <row r="6" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="21" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="21" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L6" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="M6" s="21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="16"/>
       <c r="B7" s="16"/>
-    </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+    </row>
+    <row r="8" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="16"/>
-    </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" s="16"/>
+    </row>
+    <row r="9" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="21" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+      <c r="L9" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="21" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="21" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L10" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="M10" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
-    </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+    </row>
+    <row r="12" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="16"/>
-    </row>
-    <row r="13" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L12" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="M12" s="16"/>
+    </row>
+    <row r="13" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="21" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+      <c r="L13" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="M13" s="21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="21" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+      <c r="L14" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="M14" s="21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="21" t="s">
         <v>14</v>
       </c>
@@ -1267,43 +1419,68 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L15" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+    </row>
+    <row r="16" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L16" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+    </row>
+    <row r="17" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="18"/>
-    </row>
-    <row r="18" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M17" s="18"/>
+    </row>
+    <row r="18" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="19" t="s">
         <v>2</v>
       </c>
       <c r="B18" s="18"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-    </row>
-    <row r="19" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L18" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="M18" s="18"/>
+      <c r="V18" s="1"/>
+    </row>
+    <row r="19" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B19" s="18"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-    </row>
-    <row r="20" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M19" s="18"/>
+      <c r="V19" s="1"/>
+    </row>
+    <row r="20" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1315,101 +1492,183 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
+      <c r="L20" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
-    </row>
-    <row r="21" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+    </row>
+    <row r="21" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K21" s="1"/>
+      <c r="L21" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="W21" s="1"/>
+    </row>
+    <row r="22" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="W22" s="1"/>
+    </row>
+    <row r="23" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
-    </row>
-    <row r="24" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="V23" s="28"/>
+      <c r="W23" s="1"/>
+    </row>
+    <row r="24" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="K24" s="30"/>
-    </row>
-    <row r="25" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="V24" s="29"/>
+      <c r="W24" s="1"/>
+    </row>
+    <row r="25" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
       <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
+      <c r="L25" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
-    </row>
-    <row r="26" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+    </row>
+    <row r="26" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1418,22 +1677,26 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
+      <c r="L26" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
       <c r="V26" s="1"/>
-    </row>
-    <row r="27" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+    </row>
+    <row r="27" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1443,8 +1706,11 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
       <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
+      <c r="L27" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
@@ -1453,12 +1719,14 @@
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
       <c r="V27" s="1"/>
-    </row>
-    <row r="28" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+    </row>
+    <row r="28" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1468,8 +1736,11 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
@@ -1478,10 +1749,12 @@
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
-      <c r="U28" s="1"/>
-      <c r="V28" s="1"/>
-    </row>
-    <row r="29" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="V28" s="21"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+    </row>
+    <row r="29" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>40</v>
       </c>
@@ -1493,7 +1766,11 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="L29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
@@ -1502,10 +1779,11 @@
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
-      <c r="U29" s="1"/>
-      <c r="V29" s="1"/>
-    </row>
-    <row r="30" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+    </row>
+    <row r="30" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>41</v>
       </c>
@@ -1517,7 +1795,11 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="L30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
@@ -1526,10 +1808,11 @@
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
-      <c r="V30" s="1"/>
-    </row>
-    <row r="31" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+    </row>
+    <row r="31" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>42</v>
       </c>
@@ -1541,7 +1824,11 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="L31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
@@ -1550,12 +1837,13 @@
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
-      <c r="V31" s="1"/>
-    </row>
-    <row r="32" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+    </row>
+    <row r="32" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1565,7 +1853,11 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="L32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
@@ -1574,12 +1866,13 @@
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
-    </row>
-    <row r="33" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+    </row>
+    <row r="33" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1589,7 +1882,11 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="L33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
@@ -1598,12 +1895,13 @@
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
-      <c r="V33" s="1"/>
-    </row>
-    <row r="34" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+    </row>
+    <row r="34" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1613,7 +1911,11 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="L34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
@@ -1622,12 +1924,13 @@
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
-      <c r="U34" s="1"/>
-      <c r="V34" s="1"/>
-    </row>
-    <row r="35" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+    </row>
+    <row r="35" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1637,7 +1940,11 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-      <c r="L35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
@@ -1646,22 +1953,29 @@
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
-      <c r="U35" s="1"/>
-      <c r="V35" s="1"/>
-    </row>
-    <row r="36" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+    </row>
+    <row r="36" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
+      <c r="F36" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-      <c r="L36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
@@ -1670,12 +1984,13 @@
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
-      <c r="U36" s="1"/>
-      <c r="V36" s="1"/>
-    </row>
-    <row r="37" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+    </row>
+    <row r="37" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1685,7 +2000,11 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-      <c r="L37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
@@ -1694,12 +2013,13 @@
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
-      <c r="U37" s="1"/>
-      <c r="V37" s="1"/>
-    </row>
-    <row r="38" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+    </row>
+    <row r="38" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1709,7 +2029,11 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-      <c r="L38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
@@ -1718,39 +2042,45 @@
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
-      <c r="U38" s="1"/>
-      <c r="V38" s="1"/>
-    </row>
-    <row r="39" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
+    </row>
+    <row r="39" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
       <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
+      <c r="L39" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
+      <c r="Q39" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
-      <c r="U39" s="1"/>
       <c r="V39" s="1"/>
-    </row>
-    <row r="40" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1"/>
+    </row>
+    <row r="40" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1760,8 +2090,11 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
       <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
+      <c r="L40" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
@@ -1770,12 +2103,14 @@
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
-      <c r="U40" s="1"/>
       <c r="V40" s="1"/>
-    </row>
-    <row r="41" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="1"/>
+    </row>
+    <row r="41" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1785,8 +2120,11 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
       <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
+      <c r="L41" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
@@ -1795,12 +2133,14 @@
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
-      <c r="U41" s="1"/>
       <c r="V41" s="1"/>
-    </row>
-    <row r="42" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="1"/>
+    </row>
+    <row r="42" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1810,8 +2150,11 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
       <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
+      <c r="L42" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
@@ -1820,23 +2163,30 @@
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
-      <c r="U42" s="1"/>
       <c r="V42" s="1"/>
-    </row>
-    <row r="43" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="W42" s="1"/>
+      <c r="X42" s="1"/>
+      <c r="Y42" s="1"/>
+    </row>
+    <row r="43" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
+      <c r="F43" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
       <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
+      <c r="L43" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
@@ -1845,12 +2195,14 @@
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
-      <c r="U43" s="1"/>
       <c r="V43" s="1"/>
-    </row>
-    <row r="44" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="W43" s="1"/>
+      <c r="X43" s="1"/>
+      <c r="Y43" s="1"/>
+    </row>
+    <row r="44" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1860,8 +2212,11 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
       <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
+      <c r="L44" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
@@ -1870,12 +2225,14 @@
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
-      <c r="U44" s="1"/>
       <c r="V44" s="1"/>
-    </row>
-    <row r="45" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="W44" s="1"/>
+      <c r="X44" s="1"/>
+      <c r="Y44" s="1"/>
+    </row>
+    <row r="45" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1885,8 +2242,11 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
       <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
+      <c r="L45" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
@@ -1895,28 +2255,44 @@
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
-      <c r="U45" s="1"/>
       <c r="V45" s="1"/>
-    </row>
-    <row r="46" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="W45" s="1"/>
+      <c r="X45" s="1"/>
+      <c r="Y45" s="1"/>
+    </row>
+    <row r="46" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
       <c r="K46" s="1"/>
-    </row>
-    <row r="47" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L46" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
+    </row>
+    <row r="47" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>59</v>
+        <v>115</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1926,11 +2302,25 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
       <c r="K47" s="1"/>
-    </row>
-    <row r="48" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L47" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="1"/>
+    </row>
+    <row r="48" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1940,11 +2330,25 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
       <c r="K48" s="1"/>
-    </row>
-    <row r="49" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="V48" s="1"/>
+      <c r="W48" s="1"/>
+    </row>
+    <row r="49" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1954,11 +2358,25 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
       <c r="K49" s="1"/>
-    </row>
-    <row r="50" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="V49" s="1"/>
+      <c r="W49" s="1"/>
+    </row>
+    <row r="50" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1968,103 +2386,205 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
       <c r="K50" s="1"/>
-    </row>
-    <row r="51" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L50" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+      <c r="V50" s="1"/>
+      <c r="W50" s="1"/>
+    </row>
+    <row r="51" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
       <c r="K51" s="1"/>
-    </row>
-    <row r="52" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="1" t="s">
-        <v>103</v>
+      <c r="L51" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="V51" s="1"/>
+      <c r="W51" s="1"/>
+    </row>
+    <row r="52" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="21" t="s">
+        <v>60</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
+      <c r="F52" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
       <c r="K52" s="1"/>
-    </row>
-    <row r="53" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="1" t="s">
-        <v>49</v>
+      <c r="L52" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="V52" s="1"/>
+      <c r="W52" s="1"/>
+    </row>
+    <row r="53" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="21" t="s">
+        <v>61</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
+      <c r="F53" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
       <c r="K53" s="1"/>
-    </row>
-    <row r="54" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L53" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
+      <c r="T53" s="1"/>
+      <c r="V53" s="1"/>
+      <c r="W53" s="1"/>
+    </row>
+    <row r="54" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
       <c r="K54" s="1"/>
+      <c r="L54" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
       <c r="O54" s="1"/>
-    </row>
-    <row r="55" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
+      <c r="T54" s="1"/>
+      <c r="V54" s="1"/>
+      <c r="W54" s="1"/>
+    </row>
+    <row r="55" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="21" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
       <c r="K55" s="1"/>
-      <c r="L55" s="1"/>
+      <c r="L55" s="21" t="s">
+        <v>61</v>
+      </c>
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
-    </row>
-    <row r="56" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="R55" s="1"/>
+      <c r="S55" s="1"/>
+      <c r="T55" s="1"/>
+      <c r="V55" s="1"/>
+      <c r="W55" s="1"/>
+    </row>
+    <row r="56" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="21" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
-    </row>
-    <row r="57" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R56" s="1"/>
+      <c r="S56" s="1"/>
+      <c r="T56" s="1"/>
+      <c r="W56" s="1"/>
+    </row>
+    <row r="57" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="21" t="s">
         <v>66</v>
       </c>
@@ -2073,15 +2593,31 @@
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
-    </row>
-    <row r="58" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
+      <c r="T57" s="1"/>
+      <c r="W57" s="1"/>
+    </row>
+    <row r="58" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2093,713 +2629,995 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
-    </row>
-    <row r="59" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="R58" s="1"/>
+      <c r="S58" s="1"/>
+      <c r="T58" s="1"/>
+      <c r="W58" s="1"/>
+    </row>
+    <row r="59" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="21" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-    </row>
-    <row r="60" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
+      <c r="T59" s="1"/>
+      <c r="W59" s="1"/>
+    </row>
+    <row r="60" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="21" t="s">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
-    </row>
-    <row r="61" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="R60" s="1"/>
+      <c r="S60" s="1"/>
+      <c r="T60" s="1"/>
+      <c r="W60" s="1"/>
+    </row>
+    <row r="61" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="21" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
-    </row>
-    <row r="62" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R61" s="1"/>
+      <c r="S61" s="1"/>
+      <c r="T61" s="1"/>
+    </row>
+    <row r="62" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="21" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
-    </row>
-    <row r="63" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R62" s="1"/>
+      <c r="S62" s="1"/>
+      <c r="T62" s="1"/>
+    </row>
+    <row r="63" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="21" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
-    </row>
-    <row r="64" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="R63" s="1"/>
+      <c r="S63" s="1"/>
+    </row>
+    <row r="64" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="21" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
-    </row>
-    <row r="65" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="J65" s="1"/>
-    </row>
-    <row r="66" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
-      <c r="L66" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="R64" s="1"/>
+      <c r="S64" s="1"/>
+      <c r="W64" s="1"/>
+    </row>
+    <row r="65" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="21"/>
+      <c r="L65" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="R65" s="1"/>
+      <c r="S65" s="1"/>
+      <c r="U65" s="1"/>
+    </row>
+    <row r="66" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="21"/>
+      <c r="L66" s="21" t="s">
+        <v>67</v>
+      </c>
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
-    </row>
-    <row r="67" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="R66" s="1"/>
+      <c r="S66" s="1"/>
+      <c r="T66" s="1"/>
+      <c r="U66" s="1"/>
+      <c r="V66" s="1"/>
+    </row>
+    <row r="67" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="21"/>
-      <c r="M67" s="1"/>
-    </row>
-    <row r="68" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="21"/>
-      <c r="J68" s="20"/>
-      <c r="L68" s="1"/>
-      <c r="M68" s="1"/>
-    </row>
-    <row r="69" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="21"/>
-      <c r="L69" s="1"/>
-      <c r="M69" s="1"/>
-    </row>
-    <row r="70" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L67" s="21"/>
+    </row>
+    <row r="68" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="1"/>
+      <c r="L68" s="21"/>
+      <c r="U68" s="20"/>
+    </row>
+    <row r="69" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="1"/>
+      <c r="L69" s="21"/>
+    </row>
+    <row r="70" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1"/>
-      <c r="J70" s="20"/>
       <c r="L70" s="1"/>
-      <c r="M70" s="1"/>
-    </row>
-    <row r="71" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="1"/>
-      <c r="J71" s="20"/>
+      <c r="U70" s="20"/>
+    </row>
+    <row r="71" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L71" s="1"/>
-      <c r="M71" s="1"/>
-    </row>
-    <row r="72" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="1"/>
-      <c r="J72" s="20"/>
+      <c r="U71" s="20"/>
+    </row>
+    <row r="72" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L72" s="1"/>
-      <c r="M72" s="1"/>
-    </row>
-    <row r="73" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J73" s="20"/>
-    </row>
-    <row r="75" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J75" s="20"/>
-    </row>
-    <row r="76" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J76" s="20"/>
-    </row>
-    <row r="77" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J77" s="20"/>
-    </row>
-    <row r="110" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="U72" s="20"/>
+    </row>
+    <row r="73" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="U73" s="20"/>
+    </row>
+    <row r="75" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="U75" s="20"/>
+    </row>
+    <row r="76" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="U76" s="20"/>
+    </row>
+    <row r="77" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="U77" s="20"/>
+    </row>
+    <row r="108" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B108" s="18"/>
+    </row>
+    <row r="109" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B109" s="18"/>
+    </row>
+    <row r="110" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B110" s="18"/>
-    </row>
-    <row r="111" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M110" s="18"/>
+    </row>
+    <row r="111" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B111" s="18"/>
-    </row>
-    <row r="112" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M111" s="18"/>
+    </row>
+    <row r="112" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B112" s="18"/>
-    </row>
-    <row r="113" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M112" s="18"/>
+    </row>
+    <row r="113" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B113" s="18"/>
-    </row>
-    <row r="114" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M113" s="18"/>
+    </row>
+    <row r="114" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B114" s="18"/>
-    </row>
-    <row r="115" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M114" s="18"/>
+    </row>
+    <row r="115" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B115" s="18"/>
-    </row>
-    <row r="116" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M115" s="18"/>
+    </row>
+    <row r="116" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B116" s="18"/>
-    </row>
-    <row r="117" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M116" s="18"/>
+    </row>
+    <row r="117" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B117" s="18"/>
-    </row>
-    <row r="118" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M117" s="18"/>
+    </row>
+    <row r="118" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B118" s="18"/>
-    </row>
-    <row r="119" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M118" s="18"/>
+    </row>
+    <row r="119" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B119" s="18"/>
-    </row>
-    <row r="120" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M119" s="18"/>
+    </row>
+    <row r="120" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B120" s="18"/>
-    </row>
-    <row r="121" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M120" s="18"/>
+    </row>
+    <row r="121" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B121" s="18"/>
-    </row>
-    <row r="122" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M121" s="18"/>
+    </row>
+    <row r="122" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B122" s="18"/>
-    </row>
-    <row r="123" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M122" s="18"/>
+    </row>
+    <row r="123" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B123" s="18"/>
-    </row>
-    <row r="124" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M123" s="18"/>
+    </row>
+    <row r="124" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B124" s="18"/>
-    </row>
-    <row r="125" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M124" s="18"/>
+    </row>
+    <row r="125" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B125" s="18"/>
-    </row>
-    <row r="126" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M125" s="18"/>
+    </row>
+    <row r="126" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B126" s="18"/>
-    </row>
-    <row r="127" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M126" s="18"/>
+    </row>
+    <row r="127" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B127" s="18"/>
-    </row>
-    <row r="128" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M127" s="18"/>
+    </row>
+    <row r="128" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B128" s="18"/>
-    </row>
-    <row r="129" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M128" s="18"/>
+    </row>
+    <row r="129" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B129" s="18"/>
-    </row>
-    <row r="130" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M129" s="18"/>
+    </row>
+    <row r="130" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B130" s="18"/>
-    </row>
-    <row r="131" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M130" s="18"/>
+    </row>
+    <row r="131" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B131" s="18"/>
-    </row>
-    <row r="132" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M131" s="18"/>
+    </row>
+    <row r="132" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B132" s="18"/>
-    </row>
-    <row r="133" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M132" s="18"/>
+    </row>
+    <row r="133" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B133" s="18"/>
-    </row>
-    <row r="134" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M133" s="18"/>
+    </row>
+    <row r="134" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B134" s="18"/>
-    </row>
-    <row r="135" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M134" s="18"/>
+    </row>
+    <row r="135" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B135" s="18"/>
-    </row>
-    <row r="136" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M135" s="18"/>
+    </row>
+    <row r="136" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B136" s="18"/>
-    </row>
-    <row r="137" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M136" s="18"/>
+    </row>
+    <row r="137" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B137" s="18"/>
-    </row>
-    <row r="138" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M137" s="18"/>
+    </row>
+    <row r="138" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B138" s="18"/>
-    </row>
-    <row r="139" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M138" s="18"/>
+    </row>
+    <row r="139" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B139" s="18"/>
-    </row>
-    <row r="140" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M139" s="18"/>
+    </row>
+    <row r="140" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B140" s="18"/>
-    </row>
-    <row r="141" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M140" s="18"/>
+    </row>
+    <row r="141" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B141" s="18"/>
-    </row>
-    <row r="142" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M141" s="18"/>
+    </row>
+    <row r="142" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B142" s="18"/>
-    </row>
-    <row r="143" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M142" s="18"/>
+    </row>
+    <row r="143" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B143" s="18"/>
-    </row>
-    <row r="144" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M143" s="18"/>
+    </row>
+    <row r="144" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B144" s="18"/>
-    </row>
-    <row r="145" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M144" s="18"/>
+    </row>
+    <row r="145" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B145" s="18"/>
-    </row>
-    <row r="146" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M145" s="18"/>
+    </row>
+    <row r="146" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B146" s="18"/>
-    </row>
-    <row r="147" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M146" s="18"/>
+    </row>
+    <row r="147" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B147" s="18"/>
-    </row>
-    <row r="148" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M147" s="18"/>
+    </row>
+    <row r="148" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B148" s="18"/>
-    </row>
-    <row r="149" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M148" s="18"/>
+    </row>
+    <row r="149" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B149" s="18"/>
-    </row>
-    <row r="150" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M149" s="18"/>
+    </row>
+    <row r="150" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B150" s="18"/>
-    </row>
-    <row r="151" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M150" s="18"/>
+    </row>
+    <row r="151" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B151" s="18"/>
-    </row>
-    <row r="152" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M151" s="18"/>
+    </row>
+    <row r="152" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B152" s="18"/>
-    </row>
-    <row r="153" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M152" s="18"/>
+    </row>
+    <row r="153" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B153" s="18"/>
-    </row>
-    <row r="154" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M153" s="18"/>
+    </row>
+    <row r="154" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B154" s="18"/>
-    </row>
-    <row r="155" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M154" s="18"/>
+    </row>
+    <row r="155" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B155" s="18"/>
-    </row>
-    <row r="156" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M155" s="18"/>
+    </row>
+    <row r="156" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B156" s="18"/>
-    </row>
-    <row r="157" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M156" s="18"/>
+    </row>
+    <row r="157" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B157" s="18"/>
-    </row>
-    <row r="158" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M157" s="18"/>
+    </row>
+    <row r="158" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B158" s="18"/>
-    </row>
-    <row r="159" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M158" s="18"/>
+    </row>
+    <row r="159" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B159" s="18"/>
-    </row>
-    <row r="160" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M159" s="18"/>
+    </row>
+    <row r="160" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B160" s="18"/>
-    </row>
-    <row r="161" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M160" s="18"/>
+    </row>
+    <row r="161" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B161" s="18"/>
-    </row>
-    <row r="162" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M161" s="18"/>
+    </row>
+    <row r="162" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B162" s="18"/>
-    </row>
-    <row r="163" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M162" s="18"/>
+    </row>
+    <row r="163" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B163" s="18"/>
-    </row>
-    <row r="164" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M163" s="18"/>
+    </row>
+    <row r="164" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B164" s="18"/>
-    </row>
-    <row r="165" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M164" s="18"/>
+    </row>
+    <row r="165" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B165" s="18"/>
-    </row>
-    <row r="166" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M165" s="18"/>
+    </row>
+    <row r="166" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B166" s="18"/>
-    </row>
-    <row r="167" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M166" s="18"/>
+    </row>
+    <row r="167" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B167" s="18"/>
-    </row>
-    <row r="168" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M167" s="18"/>
+    </row>
+    <row r="168" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B168" s="18"/>
-    </row>
-    <row r="169" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M168" s="18"/>
+    </row>
+    <row r="169" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B169" s="18"/>
-    </row>
-    <row r="170" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M169" s="18"/>
+    </row>
+    <row r="170" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B170" s="18"/>
-    </row>
-    <row r="171" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M170" s="18"/>
+    </row>
+    <row r="171" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B171" s="18"/>
-    </row>
-    <row r="172" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M171" s="18"/>
+    </row>
+    <row r="172" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B172" s="18"/>
-    </row>
-    <row r="173" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M172" s="18"/>
+    </row>
+    <row r="173" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B173" s="18"/>
-    </row>
-    <row r="174" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M173" s="18"/>
+    </row>
+    <row r="174" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B174" s="18"/>
-    </row>
-    <row r="175" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M174" s="18"/>
+    </row>
+    <row r="175" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B175" s="18"/>
-    </row>
-    <row r="176" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M175" s="18"/>
+    </row>
+    <row r="176" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B176" s="18"/>
-    </row>
-    <row r="177" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M176" s="18"/>
+    </row>
+    <row r="177" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B177" s="18"/>
-    </row>
-    <row r="178" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M177" s="18"/>
+    </row>
+    <row r="178" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B178" s="18"/>
-    </row>
-    <row r="179" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M178" s="18"/>
+    </row>
+    <row r="179" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B179" s="18"/>
-    </row>
-    <row r="180" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M179" s="18"/>
+    </row>
+    <row r="180" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B180" s="18"/>
-    </row>
-    <row r="181" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M180" s="18"/>
+    </row>
+    <row r="181" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B181" s="18"/>
-    </row>
-    <row r="182" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M181" s="18"/>
+    </row>
+    <row r="182" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B182" s="18"/>
-    </row>
-    <row r="183" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M182" s="18"/>
+    </row>
+    <row r="183" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B183" s="18"/>
-    </row>
-    <row r="184" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M183" s="18"/>
+    </row>
+    <row r="184" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B184" s="18"/>
-    </row>
-    <row r="185" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M184" s="18"/>
+    </row>
+    <row r="185" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B185" s="18"/>
-    </row>
-    <row r="186" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M185" s="18"/>
+    </row>
+    <row r="186" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B186" s="18"/>
-    </row>
-    <row r="187" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M186" s="18"/>
+    </row>
+    <row r="187" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B187" s="18"/>
-    </row>
-    <row r="188" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M187" s="18"/>
+    </row>
+    <row r="188" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B188" s="18"/>
-    </row>
-    <row r="189" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M188" s="18"/>
+    </row>
+    <row r="189" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B189" s="18"/>
-    </row>
-    <row r="190" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M189" s="18"/>
+    </row>
+    <row r="190" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B190" s="18"/>
-    </row>
-    <row r="191" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M190" s="18"/>
+    </row>
+    <row r="191" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B191" s="18"/>
-    </row>
-    <row r="192" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M191" s="18"/>
+    </row>
+    <row r="192" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B192" s="18"/>
-    </row>
-    <row r="193" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M192" s="18"/>
+    </row>
+    <row r="193" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B193" s="18"/>
-    </row>
-    <row r="194" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M193" s="18"/>
+    </row>
+    <row r="194" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B194" s="18"/>
-    </row>
-    <row r="195" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M194" s="18"/>
+    </row>
+    <row r="195" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B195" s="18"/>
-    </row>
-    <row r="196" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M195" s="18"/>
+    </row>
+    <row r="196" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B196" s="18"/>
-    </row>
-    <row r="197" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M196" s="18"/>
+    </row>
+    <row r="197" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B197" s="18"/>
-    </row>
-    <row r="198" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M197" s="18"/>
+    </row>
+    <row r="198" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B198" s="18"/>
-    </row>
-    <row r="199" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M198" s="18"/>
+    </row>
+    <row r="199" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B199" s="18"/>
-    </row>
-    <row r="200" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M199" s="18"/>
+    </row>
+    <row r="200" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B200" s="18"/>
-    </row>
-    <row r="201" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M200" s="18"/>
+    </row>
+    <row r="201" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B201" s="18"/>
-    </row>
-    <row r="202" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M201" s="18"/>
+    </row>
+    <row r="202" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B202" s="18"/>
-    </row>
-    <row r="203" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M202" s="18"/>
+    </row>
+    <row r="203" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B203" s="18"/>
-    </row>
-    <row r="204" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M203" s="18"/>
+    </row>
+    <row r="204" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B204" s="18"/>
-    </row>
-    <row r="205" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M204" s="18"/>
+    </row>
+    <row r="205" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B205" s="18"/>
-    </row>
-    <row r="206" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M205" s="18"/>
+    </row>
+    <row r="206" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B206" s="18"/>
-    </row>
-    <row r="207" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M206" s="18"/>
+    </row>
+    <row r="207" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B207" s="18"/>
-    </row>
-    <row r="208" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M207" s="18"/>
+    </row>
+    <row r="208" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B208" s="18"/>
-    </row>
-    <row r="209" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M208" s="18"/>
+    </row>
+    <row r="209" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B209" s="18"/>
-    </row>
-    <row r="210" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M209" s="18"/>
+    </row>
+    <row r="210" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B210" s="18"/>
-    </row>
-    <row r="211" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M210" s="18"/>
+    </row>
+    <row r="211" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B211" s="18"/>
-    </row>
-    <row r="212" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M211" s="18"/>
+    </row>
+    <row r="212" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B212" s="18"/>
-    </row>
-    <row r="213" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M212" s="18"/>
+    </row>
+    <row r="213" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B213" s="18"/>
-    </row>
-    <row r="214" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M213" s="18"/>
+    </row>
+    <row r="214" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B214" s="18"/>
-    </row>
-    <row r="215" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M214" s="18"/>
+    </row>
+    <row r="215" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B215" s="18"/>
-    </row>
-    <row r="216" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M215" s="18"/>
+    </row>
+    <row r="216" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B216" s="18"/>
-    </row>
-    <row r="217" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M216" s="18"/>
+    </row>
+    <row r="217" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B217" s="18"/>
-    </row>
-    <row r="218" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M217" s="18"/>
+    </row>
+    <row r="218" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B218" s="18"/>
-    </row>
-    <row r="219" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M218" s="18"/>
+    </row>
+    <row r="219" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B219" s="18"/>
-    </row>
-    <row r="220" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M219" s="18"/>
+    </row>
+    <row r="220" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B220" s="18"/>
-    </row>
-    <row r="221" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M220" s="18"/>
+    </row>
+    <row r="221" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B221" s="18"/>
-    </row>
-    <row r="222" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M221" s="18"/>
+    </row>
+    <row r="222" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B222" s="18"/>
-    </row>
-    <row r="223" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M222" s="18"/>
+    </row>
+    <row r="223" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B223" s="18"/>
-    </row>
-    <row r="224" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M223" s="18"/>
+    </row>
+    <row r="224" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B224" s="18"/>
-    </row>
-    <row r="225" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M224" s="18"/>
+    </row>
+    <row r="225" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B225" s="18"/>
-    </row>
-    <row r="226" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M225" s="18"/>
+    </row>
+    <row r="226" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B226" s="18"/>
-    </row>
-    <row r="227" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M226" s="18"/>
+    </row>
+    <row r="227" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B227" s="18"/>
-    </row>
-    <row r="228" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M227" s="18"/>
+    </row>
+    <row r="228" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B228" s="18"/>
-    </row>
-    <row r="229" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M228" s="18"/>
+    </row>
+    <row r="229" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B229" s="18"/>
-    </row>
-    <row r="230" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M229" s="18"/>
+    </row>
+    <row r="230" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B230" s="18"/>
-    </row>
-    <row r="231" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M230" s="18"/>
+    </row>
+    <row r="231" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B231" s="18"/>
-    </row>
-    <row r="232" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M231" s="18"/>
+    </row>
+    <row r="232" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B232" s="18"/>
-    </row>
-    <row r="233" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M232" s="18"/>
+    </row>
+    <row r="233" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B233" s="18"/>
-    </row>
-    <row r="234" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M233" s="18"/>
+    </row>
+    <row r="234" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B234" s="18"/>
-    </row>
-    <row r="235" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M234" s="18"/>
+    </row>
+    <row r="235" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B235" s="18"/>
-    </row>
-    <row r="236" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M235" s="18"/>
+    </row>
+    <row r="236" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B236" s="18"/>
-    </row>
-    <row r="237" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M236" s="18"/>
+    </row>
+    <row r="237" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B237" s="18"/>
-    </row>
-    <row r="238" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M237" s="18"/>
+    </row>
+    <row r="238" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B238" s="18"/>
-    </row>
-    <row r="239" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M238" s="18"/>
+    </row>
+    <row r="239" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B239" s="18"/>
-    </row>
-    <row r="240" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M239" s="18"/>
+    </row>
+    <row r="240" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B240" s="18"/>
-    </row>
-    <row r="241" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M240" s="18"/>
+    </row>
+    <row r="241" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B241" s="18"/>
-    </row>
-    <row r="242" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M241" s="18"/>
+    </row>
+    <row r="242" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B242" s="18"/>
-    </row>
-    <row r="243" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M242" s="18"/>
+    </row>
+    <row r="243" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B243" s="18"/>
-    </row>
-    <row r="244" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M243" s="18"/>
+    </row>
+    <row r="244" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B244" s="18"/>
-    </row>
-    <row r="245" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M244" s="18"/>
+    </row>
+    <row r="245" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B245" s="18"/>
-    </row>
-    <row r="246" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M245" s="18"/>
+    </row>
+    <row r="246" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B246" s="18"/>
-    </row>
-    <row r="247" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M246" s="18"/>
+    </row>
+    <row r="247" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B247" s="18"/>
-    </row>
-    <row r="248" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M247" s="18"/>
+    </row>
+    <row r="248" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B248" s="18"/>
-    </row>
-    <row r="249" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M248" s="18"/>
+    </row>
+    <row r="249" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B249" s="18"/>
-    </row>
-    <row r="250" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M249" s="18"/>
+    </row>
+    <row r="250" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B250" s="18"/>
-    </row>
-    <row r="251" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M250" s="18"/>
+    </row>
+    <row r="251" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B251" s="18"/>
-    </row>
-    <row r="252" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M251" s="18"/>
+    </row>
+    <row r="252" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B252" s="18"/>
-    </row>
-    <row r="253" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M252" s="18"/>
+    </row>
+    <row r="253" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B253" s="18"/>
-    </row>
-    <row r="254" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M253" s="18"/>
+    </row>
+    <row r="254" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B254" s="18"/>
-    </row>
-    <row r="255" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M254" s="18"/>
+    </row>
+    <row r="255" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B255" s="18"/>
-    </row>
-    <row r="256" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M255" s="18"/>
+    </row>
+    <row r="256" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B256" s="18"/>
-    </row>
-    <row r="257" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M256" s="18"/>
+    </row>
+    <row r="257" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B257" s="18"/>
-    </row>
-    <row r="258" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M257" s="18"/>
+    </row>
+    <row r="258" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B258" s="18"/>
-    </row>
-    <row r="259" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M258" s="18"/>
+    </row>
+    <row r="259" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B259" s="18"/>
-    </row>
-    <row r="260" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M259" s="18"/>
+    </row>
+    <row r="260" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B260" s="18"/>
-    </row>
-    <row r="261" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M260" s="18"/>
+    </row>
+    <row r="261" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B261" s="18"/>
-    </row>
-    <row r="262" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M261" s="18"/>
+    </row>
+    <row r="262" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B262" s="18"/>
-    </row>
-    <row r="263" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M262" s="18"/>
+    </row>
+    <row r="263" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B263" s="18"/>
-    </row>
-    <row r="264" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M263" s="18"/>
+    </row>
+    <row r="264" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B264" s="18"/>
-    </row>
-    <row r="265" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M264" s="18"/>
+    </row>
+    <row r="265" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B265" s="18"/>
-    </row>
-    <row r="266" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M265" s="18"/>
+    </row>
+    <row r="266" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B266" s="18"/>
-    </row>
-    <row r="267" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M266" s="18"/>
+    </row>
+    <row r="267" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B267" s="18"/>
-    </row>
-    <row r="268" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M267" s="18"/>
+    </row>
+    <row r="268" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B268" s="18"/>
-    </row>
-    <row r="269" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M268" s="18"/>
+    </row>
+    <row r="269" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B269" s="18"/>
-    </row>
-    <row r="270" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M269" s="18"/>
+    </row>
+    <row r="270" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B270" s="18"/>
-    </row>
-    <row r="271" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M270" s="18"/>
+    </row>
+    <row r="271" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B271" s="18"/>
-    </row>
-    <row r="272" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M271" s="18"/>
+    </row>
+    <row r="272" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B272" s="18"/>
-    </row>
-    <row r="273" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M272" s="18"/>
+    </row>
+    <row r="273" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B273" s="18"/>
-    </row>
-    <row r="274" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M273" s="18"/>
+    </row>
+    <row r="274" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B274" s="18"/>
-    </row>
-    <row r="275" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M274" s="18"/>
+    </row>
+    <row r="275" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B275" s="18"/>
-    </row>
-    <row r="276" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M275" s="18"/>
+    </row>
+    <row r="276" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B276" s="18"/>
-    </row>
-    <row r="277" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M276" s="18"/>
+    </row>
+    <row r="277" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B277" s="18"/>
-    </row>
-    <row r="278" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M277" s="18"/>
+    </row>
+    <row r="278" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B278" s="18"/>
-    </row>
-    <row r="279" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M278" s="18"/>
+    </row>
+    <row r="279" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B279" s="18"/>
-    </row>
-    <row r="280" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M279" s="18"/>
+    </row>
+    <row r="280" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B280" s="18"/>
-    </row>
-    <row r="281" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M280" s="18"/>
+    </row>
+    <row r="281" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B281" s="18"/>
-    </row>
-    <row r="282" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M281" s="18"/>
+    </row>
+    <row r="282" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B282" s="18"/>
-    </row>
-    <row r="283" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M282" s="18"/>
+    </row>
+    <row r="283" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B283" s="18"/>
-    </row>
-    <row r="284" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M283" s="18"/>
+    </row>
+    <row r="284" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B284" s="18"/>
-    </row>
-    <row r="285" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M284" s="18"/>
+    </row>
+    <row r="285" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B285" s="18"/>
-    </row>
-    <row r="286" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B286" s="18"/>
-    </row>
-    <row r="287" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B287" s="18"/>
+      <c r="M285" s="18"/>
+    </row>
+    <row r="286" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M286" s="18"/>
+    </row>
+    <row r="287" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M287" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="V23:V24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2808,882 +3626,1864 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16226786-0325-4223-91E5-2589AE0E8571}">
-  <dimension ref="A1:BA13"/>
+  <dimension ref="A1:AK30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.453125" style="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="12" width="8.54296875" style="23" customWidth="1"/>
-    <col min="13" max="13" width="6.26953125" style="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.453125" style="23" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8" style="23" bestFit="1" customWidth="1"/>
-    <col min="16" max="24" width="8.54296875" style="23" customWidth="1"/>
-    <col min="25" max="16384" width="8.7265625" style="23"/>
+    <col min="3" max="15" width="8.7265625" style="23"/>
+    <col min="16" max="16" width="17.453125" style="23" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9" style="23" bestFit="1" customWidth="1"/>
+    <col min="18" max="27" width="8.54296875" style="23" customWidth="1"/>
+    <col min="28" max="16384" width="8.7265625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:37" ht="16" x14ac:dyDescent="0.35">
+      <c r="A1" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="P1" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="45"/>
+    </row>
+    <row r="2" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="33"/>
-      <c r="N1" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="33"/>
-    </row>
-    <row r="2" spans="1:53" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="39" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="32"/>
+      <c r="P2" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="31"/>
+      <c r="AA2" s="32"/>
+    </row>
+    <row r="3" spans="1:37" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B3" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C3" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="36"/>
-      <c r="N2" s="37" t="s">
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="35"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="O2" s="32" t="s">
+      <c r="Q3" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32"/>
-      <c r="X2" s="33"/>
-    </row>
-    <row r="3" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="40"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="24">
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="34"/>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="35"/>
+    </row>
+    <row r="4" spans="1:37" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="32"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="24">
         <v>1010</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D4" s="24">
         <v>1106</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E4" s="24">
         <v>1509</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F4" s="24">
         <v>1604</v>
       </c>
-      <c r="G3" s="24">
+      <c r="G4" s="24">
         <v>1905</v>
       </c>
-      <c r="H3" s="24">
+      <c r="H4" s="24">
         <v>2104</v>
       </c>
-      <c r="I3" s="24">
+      <c r="I4" s="24">
         <v>2412</v>
       </c>
-      <c r="J3" s="24">
+      <c r="J4" s="24">
         <v>2703</v>
       </c>
-      <c r="K3" s="24">
+      <c r="K4" s="24">
         <v>2710</v>
       </c>
-      <c r="L3" s="24">
+      <c r="L4" s="24">
         <v>2807</v>
       </c>
-      <c r="N3" s="38"/>
-      <c r="O3" s="24">
+      <c r="O4" s="48"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="24">
         <v>1010</v>
       </c>
-      <c r="P3" s="24">
+      <c r="S4" s="24">
         <v>1106</v>
       </c>
-      <c r="Q3" s="24">
+      <c r="T4" s="24">
         <v>1509</v>
       </c>
-      <c r="R3" s="24">
+      <c r="U4" s="24">
         <v>1604</v>
       </c>
-      <c r="S3" s="24">
+      <c r="V4" s="24">
         <v>1905</v>
       </c>
-      <c r="T3" s="24">
+      <c r="W4" s="24">
         <v>2104</v>
       </c>
-      <c r="U3" s="24">
+      <c r="X4" s="24">
         <v>2412</v>
       </c>
-      <c r="V3" s="24">
+      <c r="Y4" s="24">
         <v>2703</v>
       </c>
-      <c r="W3" s="24">
+      <c r="Z4" s="24">
         <v>2710</v>
       </c>
-      <c r="X3" s="24">
+      <c r="AA4" s="24">
         <v>2807</v>
       </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.35">
-      <c r="A4" s="28" t="s">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A5" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="46">
+        <v>820</v>
+      </c>
+      <c r="C5" s="25">
+        <v>819.55799999999999</v>
+      </c>
+      <c r="D5" s="25">
+        <v>819.55799999999999</v>
+      </c>
+      <c r="E5" s="25">
+        <v>819.55799999999999</v>
+      </c>
+      <c r="F5" s="25">
+        <v>819.55799999999999</v>
+      </c>
+      <c r="G5" s="25">
+        <v>819.55799999999999</v>
+      </c>
+      <c r="H5" s="25">
+        <v>819.55799999999999</v>
+      </c>
+      <c r="I5" s="25">
+        <v>819.55799999999999</v>
+      </c>
+      <c r="J5" s="25">
+        <v>819.55799999999999</v>
+      </c>
+      <c r="K5" s="25">
+        <v>837.81</v>
+      </c>
+      <c r="L5" s="25">
+        <v>819.55799999999999</v>
+      </c>
+      <c r="O5" s="48"/>
+      <c r="P5" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="25">
+      <c r="Q5" s="25">
         <v>54793</v>
       </c>
-      <c r="C4" s="26">
+      <c r="R5" s="26">
         <v>54778.400000000001</v>
       </c>
-      <c r="D4" s="26">
+      <c r="S5" s="26">
         <v>55007.8</v>
       </c>
-      <c r="E4" s="26">
+      <c r="T5" s="26">
         <v>54778.400000000001</v>
       </c>
-      <c r="F4" s="26">
+      <c r="U5" s="26">
         <v>54778.400000000001</v>
       </c>
-      <c r="G4" s="26">
+      <c r="V5" s="26">
         <v>54778.400000000001</v>
       </c>
-      <c r="H4" s="26">
+      <c r="W5" s="26">
         <v>54778.400000000001</v>
       </c>
-      <c r="I4" s="26">
+      <c r="X5" s="26">
         <v>54778.400000000001</v>
       </c>
-      <c r="J4" s="26">
+      <c r="Y5" s="26">
         <v>54778.400000000001</v>
       </c>
-      <c r="K4" s="26">
+      <c r="Z5" s="26">
         <v>54778.400000000001</v>
       </c>
-      <c r="L4" s="26">
+      <c r="AA5" s="26">
         <v>54778.400000000001</v>
       </c>
-      <c r="N4" s="23" t="s">
+      <c r="AK5" s="27"/>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A6" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="46">
+        <v>3055.23</v>
+      </c>
+      <c r="C6" s="25">
+        <v>3144.55</v>
+      </c>
+      <c r="D6" s="25">
+        <v>3161.61</v>
+      </c>
+      <c r="E6" s="25">
+        <v>3089.74</v>
+      </c>
+      <c r="F6" s="25">
+        <v>3128.24</v>
+      </c>
+      <c r="G6" s="25">
+        <v>3181.88</v>
+      </c>
+      <c r="H6" s="25">
+        <v>3188.4</v>
+      </c>
+      <c r="I6" s="25">
+        <v>3079.14</v>
+      </c>
+      <c r="J6" s="25">
+        <v>3115.54</v>
+      </c>
+      <c r="K6" s="25">
+        <v>3073.05</v>
+      </c>
+      <c r="L6" s="25">
+        <v>3084.46</v>
+      </c>
+      <c r="O6" s="48"/>
+      <c r="P6" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="26">
+        <v>460.4</v>
+      </c>
+      <c r="R6" s="26">
+        <v>470.21499999999997</v>
+      </c>
+      <c r="S6" s="26">
+        <v>476.12099999999998</v>
+      </c>
+      <c r="T6" s="26">
+        <v>473.00900000000001</v>
+      </c>
+      <c r="U6" s="26">
+        <v>460.37400000000002</v>
+      </c>
+      <c r="V6" s="26">
+        <v>463.91399999999999</v>
+      </c>
+      <c r="W6" s="26">
+        <v>473.00900000000001</v>
+      </c>
+      <c r="X6" s="26">
+        <v>460.37400000000002</v>
+      </c>
+      <c r="Y6" s="26">
+        <v>460.37400000000002</v>
+      </c>
+      <c r="Z6" s="26">
+        <v>470.21499999999997</v>
+      </c>
+      <c r="AA6" s="26">
+        <v>460.37400000000002</v>
+      </c>
+      <c r="AK6" s="27"/>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A7" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="46">
+        <v>1395.85</v>
+      </c>
+      <c r="C7" s="25">
+        <v>1330.29</v>
+      </c>
+      <c r="D7" s="25">
+        <v>1353.85</v>
+      </c>
+      <c r="E7" s="25">
+        <v>1332.38</v>
+      </c>
+      <c r="F7" s="25">
+        <v>1354.12</v>
+      </c>
+      <c r="G7" s="25">
+        <v>1347.53</v>
+      </c>
+      <c r="H7" s="25">
+        <v>1347.69</v>
+      </c>
+      <c r="I7" s="25">
+        <v>1364.7</v>
+      </c>
+      <c r="J7" s="25">
+        <v>1351.38</v>
+      </c>
+      <c r="K7" s="25">
+        <v>1325.61</v>
+      </c>
+      <c r="L7" s="25">
+        <v>1348.39</v>
+      </c>
+      <c r="O7" s="48"/>
+      <c r="P7" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q7" s="26">
+        <v>63242</v>
+      </c>
+      <c r="R7" s="26">
+        <v>63966.2</v>
+      </c>
+      <c r="S7" s="26">
+        <v>63215.199999999997</v>
+      </c>
+      <c r="T7" s="26">
+        <v>63765</v>
+      </c>
+      <c r="U7" s="26">
+        <v>63765</v>
+      </c>
+      <c r="V7" s="26">
+        <v>63550.5</v>
+      </c>
+      <c r="W7" s="26">
+        <v>64548</v>
+      </c>
+      <c r="X7" s="26">
+        <v>64319</v>
+      </c>
+      <c r="Y7" s="26">
+        <v>63215.199999999997</v>
+      </c>
+      <c r="Z7" s="26">
+        <v>63274.6</v>
+      </c>
+      <c r="AA7" s="26">
+        <v>63765</v>
+      </c>
+      <c r="AK7" s="27"/>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A8" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8" s="46">
+        <v>38684</v>
+      </c>
+      <c r="C8" s="25">
+        <v>39932.6</v>
+      </c>
+      <c r="D8" s="25">
+        <v>40109.800000000003</v>
+      </c>
+      <c r="E8" s="25">
+        <v>40146.9</v>
+      </c>
+      <c r="F8" s="25">
+        <v>40144.9</v>
+      </c>
+      <c r="G8" s="25">
+        <v>39888.400000000001</v>
+      </c>
+      <c r="H8" s="25">
+        <v>40099.699999999997</v>
+      </c>
+      <c r="I8" s="25">
+        <v>39760</v>
+      </c>
+      <c r="J8" s="25">
+        <v>39865.300000000003</v>
+      </c>
+      <c r="K8" s="25">
+        <v>39966.6</v>
+      </c>
+      <c r="L8" s="25">
+        <v>40501.4</v>
+      </c>
+      <c r="O8" s="48"/>
+      <c r="P8" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q8" s="26">
+        <v>355.8</v>
+      </c>
+      <c r="R8" s="26">
+        <v>359.93700000000001</v>
+      </c>
+      <c r="S8" s="26">
+        <v>355.78399999999999</v>
+      </c>
+      <c r="T8" s="26">
+        <v>355.78399999999999</v>
+      </c>
+      <c r="U8" s="26">
+        <v>356.37400000000002</v>
+      </c>
+      <c r="V8" s="26">
+        <v>363.48500000000001</v>
+      </c>
+      <c r="W8" s="26">
+        <v>373.88499999999999</v>
+      </c>
+      <c r="X8" s="26">
+        <v>356.45800000000003</v>
+      </c>
+      <c r="Y8" s="26">
+        <v>355.78399999999999</v>
+      </c>
+      <c r="Z8" s="26">
+        <v>358.46</v>
+      </c>
+      <c r="AA8" s="26">
+        <v>356.02800000000002</v>
+      </c>
+      <c r="AK8" s="27"/>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A9" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" s="46">
+        <v>21736</v>
+      </c>
+      <c r="C9" s="25">
+        <v>23080.3</v>
+      </c>
+      <c r="D9" s="25">
+        <v>22576.3</v>
+      </c>
+      <c r="E9" s="25">
+        <v>23103.599999999999</v>
+      </c>
+      <c r="F9" s="25">
+        <v>22682</v>
+      </c>
+      <c r="G9" s="25">
+        <v>22902.2</v>
+      </c>
+      <c r="H9" s="25">
+        <v>22937.3</v>
+      </c>
+      <c r="I9" s="25">
+        <v>22468</v>
+      </c>
+      <c r="J9" s="25">
+        <v>22631.599999999999</v>
+      </c>
+      <c r="K9" s="25">
+        <v>22487.3</v>
+      </c>
+      <c r="L9" s="25">
+        <v>23041.8</v>
+      </c>
+      <c r="O9" s="48"/>
+      <c r="P9" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q9" s="26">
+        <v>195568</v>
+      </c>
+      <c r="R9" s="26">
+        <v>195990</v>
+      </c>
+      <c r="S9" s="26">
+        <v>197460</v>
+      </c>
+      <c r="T9" s="26">
+        <v>196311</v>
+      </c>
+      <c r="U9" s="26">
+        <v>195859</v>
+      </c>
+      <c r="V9" s="26">
+        <v>194868</v>
+      </c>
+      <c r="W9" s="26">
+        <v>196818</v>
+      </c>
+      <c r="X9" s="26">
+        <v>196559</v>
+      </c>
+      <c r="Y9" s="26">
+        <v>195638</v>
+      </c>
+      <c r="Z9" s="26">
+        <v>195729</v>
+      </c>
+      <c r="AA9" s="26">
+        <v>195557</v>
+      </c>
+      <c r="AK9" s="27"/>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A10" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" s="46">
+        <v>1645.79</v>
+      </c>
+      <c r="C10" s="25">
+        <v>1651.26</v>
+      </c>
+      <c r="D10" s="25">
+        <v>1644.25</v>
+      </c>
+      <c r="E10" s="25">
+        <v>1645.72</v>
+      </c>
+      <c r="F10" s="25">
+        <v>1646.14</v>
+      </c>
+      <c r="G10" s="25">
+        <v>1642.88</v>
+      </c>
+      <c r="H10" s="25">
+        <v>1644.25</v>
+      </c>
+      <c r="I10" s="25">
+        <v>1642.88</v>
+      </c>
+      <c r="J10" s="25">
+        <v>1645.41</v>
+      </c>
+      <c r="K10" s="25">
+        <v>1644.35</v>
+      </c>
+      <c r="L10" s="25">
+        <v>1644.82</v>
+      </c>
+      <c r="O10" s="48"/>
+      <c r="P10" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q10" s="26">
+        <v>204335</v>
+      </c>
+      <c r="R10" s="26">
+        <v>206163</v>
+      </c>
+      <c r="S10" s="26">
+        <v>206509</v>
+      </c>
+      <c r="T10" s="26">
+        <v>205051</v>
+      </c>
+      <c r="U10" s="26">
+        <v>205012</v>
+      </c>
+      <c r="V10" s="26">
+        <v>203945</v>
+      </c>
+      <c r="W10" s="26">
+        <v>205012</v>
+      </c>
+      <c r="X10" s="26">
+        <v>205012</v>
+      </c>
+      <c r="Y10" s="26">
+        <v>205051</v>
+      </c>
+      <c r="Z10" s="26">
+        <v>205012</v>
+      </c>
+      <c r="AA10" s="26">
+        <v>205051</v>
+      </c>
+      <c r="AK10" s="27"/>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A11" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" s="46">
+        <v>1252.3699999999999</v>
+      </c>
+      <c r="C11" s="25">
+        <v>1177.53</v>
+      </c>
+      <c r="D11" s="25">
+        <v>1164.79</v>
+      </c>
+      <c r="E11" s="25">
+        <v>1171.2</v>
+      </c>
+      <c r="F11" s="25">
+        <v>1168.1400000000001</v>
+      </c>
+      <c r="G11" s="25">
+        <v>1179.08</v>
+      </c>
+      <c r="H11" s="25">
+        <v>1169.1500000000001</v>
+      </c>
+      <c r="I11" s="25">
+        <v>1153.25</v>
+      </c>
+      <c r="J11" s="25">
+        <v>1152.96</v>
+      </c>
+      <c r="K11" s="25">
+        <v>1187.42</v>
+      </c>
+      <c r="L11" s="25">
+        <v>1208.17</v>
+      </c>
+      <c r="O11" s="48"/>
+      <c r="P11" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q11" s="26">
+        <v>842.9</v>
+      </c>
+      <c r="R11" s="26">
+        <v>866.79600000000005</v>
+      </c>
+      <c r="S11" s="26">
+        <v>857.202</v>
+      </c>
+      <c r="T11" s="26">
+        <v>866.36699999999996</v>
+      </c>
+      <c r="U11" s="26">
+        <v>852.89</v>
+      </c>
+      <c r="V11" s="26">
+        <v>873.221</v>
+      </c>
+      <c r="W11" s="26">
+        <v>846.92</v>
+      </c>
+      <c r="X11" s="26">
+        <v>861.46100000000001</v>
+      </c>
+      <c r="Y11" s="26">
+        <v>846.61599999999999</v>
+      </c>
+      <c r="Z11" s="26">
+        <v>870.20799999999997</v>
+      </c>
+      <c r="AA11" s="26">
+        <v>850.62400000000002</v>
+      </c>
+      <c r="AK11" s="27"/>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A12" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="B12" s="46">
+        <v>828.94</v>
+      </c>
+      <c r="C12" s="25">
+        <v>828.93700000000001</v>
+      </c>
+      <c r="D12" s="25">
+        <v>828.93700000000001</v>
+      </c>
+      <c r="E12" s="25">
+        <v>828.93700000000001</v>
+      </c>
+      <c r="F12" s="25">
+        <v>828.93700000000001</v>
+      </c>
+      <c r="G12" s="25">
+        <v>828.93700000000001</v>
+      </c>
+      <c r="H12" s="25">
+        <v>828.93700000000001</v>
+      </c>
+      <c r="I12" s="25">
+        <v>828.93700000000001</v>
+      </c>
+      <c r="J12" s="25">
+        <v>828.93700000000001</v>
+      </c>
+      <c r="K12" s="25">
+        <v>828.93700000000001</v>
+      </c>
+      <c r="L12" s="25">
+        <v>828.93700000000001</v>
+      </c>
+      <c r="O12" s="48"/>
+      <c r="P12" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q12" s="26">
+        <v>5809</v>
+      </c>
+      <c r="R12" s="26">
+        <v>5816</v>
+      </c>
+      <c r="S12" s="26">
+        <v>5937.34</v>
+      </c>
+      <c r="T12" s="26">
+        <v>5834.37</v>
+      </c>
+      <c r="U12" s="26">
+        <v>5992.52</v>
+      </c>
+      <c r="V12" s="26">
+        <v>5985.18</v>
+      </c>
+      <c r="W12" s="26">
+        <v>5887.61</v>
+      </c>
+      <c r="X12" s="26">
+        <v>5719.49</v>
+      </c>
+      <c r="Y12" s="26">
+        <v>5845.51</v>
+      </c>
+      <c r="Z12" s="26">
+        <v>6051.19</v>
+      </c>
+      <c r="AA12" s="26">
+        <v>5921.46</v>
+      </c>
+      <c r="AK12" s="27"/>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A13" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" s="46">
+        <v>591.55999999999995</v>
+      </c>
+      <c r="C13" s="25">
+        <v>591.55700000000002</v>
+      </c>
+      <c r="D13" s="25">
+        <v>591.55700000000002</v>
+      </c>
+      <c r="E13" s="25">
+        <v>591.55700000000002</v>
+      </c>
+      <c r="F13" s="25">
+        <v>591.55700000000002</v>
+      </c>
+      <c r="G13" s="25">
+        <v>591.55700000000002</v>
+      </c>
+      <c r="H13" s="25">
+        <v>591.55700000000002</v>
+      </c>
+      <c r="I13" s="25">
+        <v>591.55700000000002</v>
+      </c>
+      <c r="J13" s="25">
+        <v>591.55700000000002</v>
+      </c>
+      <c r="K13" s="25">
+        <v>591.55700000000002</v>
+      </c>
+      <c r="L13" s="25">
+        <v>591.55700000000002</v>
+      </c>
+      <c r="O13" s="48"/>
+      <c r="P13" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q13" s="26">
+        <v>44011.7</v>
+      </c>
+      <c r="R13" s="26">
+        <v>45531.8</v>
+      </c>
+      <c r="S13" s="26">
+        <v>45424.9</v>
+      </c>
+      <c r="T13" s="26">
+        <v>44471.9</v>
+      </c>
+      <c r="U13" s="26">
+        <v>44798.9</v>
+      </c>
+      <c r="V13" s="26">
+        <v>44261.7</v>
+      </c>
+      <c r="W13" s="26">
+        <v>45210.9</v>
+      </c>
+      <c r="X13" s="26">
+        <v>46370.400000000001</v>
+      </c>
+      <c r="Y13" s="26">
+        <v>46251.5</v>
+      </c>
+      <c r="Z13" s="26">
+        <v>45142.8</v>
+      </c>
+      <c r="AA13" s="26">
+        <v>44780.6</v>
+      </c>
+      <c r="AK13" s="27"/>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A14" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14" s="46">
+        <v>1696.94</v>
+      </c>
+      <c r="C14" s="25">
+        <v>1664.25</v>
+      </c>
+      <c r="D14" s="25">
+        <v>1646.53</v>
+      </c>
+      <c r="E14" s="25">
+        <v>1660.1</v>
+      </c>
+      <c r="F14" s="25">
+        <v>1648.65</v>
+      </c>
+      <c r="G14" s="25">
+        <v>1646.17</v>
+      </c>
+      <c r="H14" s="25">
+        <v>1660.91</v>
+      </c>
+      <c r="I14" s="25">
+        <v>1639.82</v>
+      </c>
+      <c r="J14" s="25">
+        <v>1654.55</v>
+      </c>
+      <c r="K14" s="25">
+        <v>1661.96</v>
+      </c>
+      <c r="L14" s="25">
+        <v>1658.99</v>
+      </c>
+      <c r="O14" s="48"/>
+      <c r="P14" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q14" s="26">
+        <v>476684</v>
+      </c>
+      <c r="R14" s="26">
+        <v>481173</v>
+      </c>
+      <c r="S14" s="26">
+        <v>485569</v>
+      </c>
+      <c r="T14" s="26">
+        <v>484146</v>
+      </c>
+      <c r="U14" s="26">
+        <v>481148</v>
+      </c>
+      <c r="V14" s="26">
+        <v>483530</v>
+      </c>
+      <c r="W14" s="26">
+        <v>478602</v>
+      </c>
+      <c r="X14" s="26">
+        <v>480171</v>
+      </c>
+      <c r="Y14" s="26">
+        <v>476383</v>
+      </c>
+      <c r="Z14" s="26">
+        <v>481650</v>
+      </c>
+      <c r="AA14" s="26">
+        <v>481899</v>
+      </c>
+      <c r="AK14" s="27"/>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A15" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15" s="47">
+        <v>1406.91</v>
+      </c>
+      <c r="C15" s="25">
+        <v>1294.07</v>
+      </c>
+      <c r="D15" s="25">
+        <v>1284.3</v>
+      </c>
+      <c r="E15" s="25">
+        <v>1303.67</v>
+      </c>
+      <c r="F15" s="25">
+        <v>1302.3800000000001</v>
+      </c>
+      <c r="G15" s="25">
+        <v>1289.6600000000001</v>
+      </c>
+      <c r="H15" s="25">
+        <v>1282.3</v>
+      </c>
+      <c r="I15" s="25">
+        <v>1302.26</v>
+      </c>
+      <c r="J15" s="25">
+        <v>1287.8800000000001</v>
+      </c>
+      <c r="K15" s="25">
+        <v>1285.71</v>
+      </c>
+      <c r="L15" s="25">
+        <v>1295.3699999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="B16" s="46"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="B17" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="P17" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q17" s="31"/>
+      <c r="R17" s="31"/>
+      <c r="S17" s="31"/>
+      <c r="T17" s="31"/>
+      <c r="U17" s="31"/>
+      <c r="V17" s="31"/>
+      <c r="W17" s="31"/>
+      <c r="X17" s="31"/>
+      <c r="Y17" s="31"/>
+      <c r="Z17" s="31"/>
+      <c r="AA17" s="32"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A18" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="36"/>
+      <c r="C18" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="35"/>
+      <c r="P18" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="S18" s="34"/>
+      <c r="T18" s="34"/>
+      <c r="U18" s="34"/>
+      <c r="V18" s="34"/>
+      <c r="W18" s="34"/>
+      <c r="X18" s="34"/>
+      <c r="Y18" s="34"/>
+      <c r="Z18" s="34"/>
+      <c r="AA18" s="35"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="24">
+        <v>1010</v>
+      </c>
+      <c r="D19" s="24">
+        <v>1106</v>
+      </c>
+      <c r="E19" s="24">
+        <v>1509</v>
+      </c>
+      <c r="F19" s="24">
+        <v>1604</v>
+      </c>
+      <c r="G19" s="24">
+        <v>1905</v>
+      </c>
+      <c r="H19" s="24">
+        <v>2104</v>
+      </c>
+      <c r="I19" s="24">
+        <v>2412</v>
+      </c>
+      <c r="J19" s="24">
+        <v>2703</v>
+      </c>
+      <c r="K19" s="24">
+        <v>2710</v>
+      </c>
+      <c r="L19" s="24">
+        <v>2807</v>
+      </c>
+      <c r="P19" s="37"/>
+      <c r="Q19" s="37"/>
+      <c r="R19" s="24">
+        <v>1010</v>
+      </c>
+      <c r="S19" s="24">
+        <v>1106</v>
+      </c>
+      <c r="T19" s="24">
+        <v>1509</v>
+      </c>
+      <c r="U19" s="24">
+        <v>1604</v>
+      </c>
+      <c r="V19" s="24">
+        <v>1905</v>
+      </c>
+      <c r="W19" s="24">
+        <v>2104</v>
+      </c>
+      <c r="X19" s="24">
+        <v>2412</v>
+      </c>
+      <c r="Y19" s="24">
+        <v>2703</v>
+      </c>
+      <c r="Z19" s="24">
+        <v>2710</v>
+      </c>
+      <c r="AA19" s="24">
+        <v>2807</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A20" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" s="25">
+        <v>25.155999999999999</v>
+      </c>
+      <c r="D20" s="25">
+        <v>25.375</v>
+      </c>
+      <c r="E20" s="25">
+        <v>25.077999999999999</v>
+      </c>
+      <c r="F20" s="25">
+        <v>24.984000000000002</v>
+      </c>
+      <c r="G20" s="25">
+        <v>25.312999999999999</v>
+      </c>
+      <c r="H20" s="25">
+        <v>24.937999999999999</v>
+      </c>
+      <c r="I20" s="25">
+        <v>25.094000000000001</v>
+      </c>
+      <c r="J20" s="25">
+        <v>25.094000000000001</v>
+      </c>
+      <c r="K20" s="25">
+        <v>25.077000000000002</v>
+      </c>
+      <c r="L20" s="25">
+        <v>25.422000000000001</v>
+      </c>
+      <c r="P20" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="O4" s="26">
+      <c r="R20" s="26">
         <v>5.86</v>
       </c>
-      <c r="P4" s="26">
+      <c r="S20" s="26">
         <v>5.8280000000000003</v>
       </c>
-      <c r="Q4" s="26">
+      <c r="T20" s="26">
         <v>5.75</v>
       </c>
-      <c r="R4" s="26">
+      <c r="U20" s="26">
         <v>5.8129999999999997</v>
       </c>
-      <c r="S4" s="26">
+      <c r="V20" s="26">
         <v>5.657</v>
       </c>
-      <c r="T4" s="26">
+      <c r="W20" s="26">
         <v>5.6559999999999997</v>
       </c>
-      <c r="U4" s="26">
+      <c r="X20" s="26">
         <v>5.6719999999999997</v>
       </c>
-      <c r="V4" s="26">
+      <c r="Y20" s="26">
         <v>5.7510000000000003</v>
       </c>
-      <c r="W4" s="26">
+      <c r="Z20" s="26">
         <v>5.7809999999999997</v>
       </c>
-      <c r="X4" s="26">
+      <c r="AA20" s="26">
         <v>5.8120000000000003</v>
       </c>
-      <c r="BA4" s="27"/>
-    </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.35">
-      <c r="A5" s="28" t="s">
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A21" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" s="25">
+        <v>79.671999999999997</v>
+      </c>
+      <c r="D21" s="25">
+        <v>79.343000000000004</v>
+      </c>
+      <c r="E21" s="25">
+        <v>77.326999999999998</v>
+      </c>
+      <c r="F21" s="25">
+        <v>79.328000000000003</v>
+      </c>
+      <c r="G21" s="25">
+        <v>78.453000000000003</v>
+      </c>
+      <c r="H21" s="25">
+        <v>80.703000000000003</v>
+      </c>
+      <c r="I21" s="25">
+        <v>79.921999999999997</v>
+      </c>
+      <c r="J21" s="25">
+        <v>79.641000000000005</v>
+      </c>
+      <c r="K21" s="25">
+        <v>78.718999999999994</v>
+      </c>
+      <c r="L21" s="25">
+        <v>77.313999999999993</v>
+      </c>
+      <c r="P21" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="26">
-        <v>460.4</v>
-      </c>
-      <c r="C5" s="26">
-        <v>470.21499999999997</v>
-      </c>
-      <c r="D5" s="26">
-        <v>476.12099999999998</v>
-      </c>
-      <c r="E5" s="26">
-        <v>473.00900000000001</v>
-      </c>
-      <c r="F5" s="26">
-        <v>460.37400000000002</v>
-      </c>
-      <c r="G5" s="26">
-        <v>463.91399999999999</v>
-      </c>
-      <c r="H5" s="26">
-        <v>473.00900000000001</v>
-      </c>
-      <c r="I5" s="26">
-        <v>460.37400000000002</v>
-      </c>
-      <c r="J5" s="26">
-        <v>460.37400000000002</v>
-      </c>
-      <c r="K5" s="26">
-        <v>470.21499999999997</v>
-      </c>
-      <c r="L5" s="26">
-        <v>460.37400000000002</v>
-      </c>
-      <c r="N5" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="O5" s="26">
+      <c r="R21" s="26">
         <v>9.5310000000000006</v>
       </c>
-      <c r="P5" s="26">
+      <c r="S21" s="26">
         <v>9.593</v>
       </c>
-      <c r="Q5" s="26">
+      <c r="T21" s="26">
         <v>9.5150000000000006</v>
       </c>
-      <c r="R5" s="26">
+      <c r="U21" s="26">
         <v>9.5779999999999994</v>
       </c>
-      <c r="S5" s="26">
+      <c r="V21" s="26">
         <v>9.5939999999999994</v>
       </c>
-      <c r="T5" s="26">
+      <c r="W21" s="26">
         <v>9.5619999999999994</v>
       </c>
-      <c r="U5" s="26">
+      <c r="X21" s="26">
         <v>9.7029999999999994</v>
       </c>
-      <c r="V5" s="26">
+      <c r="Y21" s="26">
         <v>9.548</v>
       </c>
-      <c r="W5" s="26">
+      <c r="Z21" s="26">
         <v>9.5470000000000006</v>
       </c>
-      <c r="X5" s="26">
+      <c r="AA21" s="26">
         <v>9.6560000000000006</v>
       </c>
-      <c r="BA5" s="27"/>
-    </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.35">
-      <c r="A6" s="28" t="s">
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A22" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="C22" s="25">
+        <v>150.75</v>
+      </c>
+      <c r="D22" s="25">
+        <v>149.953</v>
+      </c>
+      <c r="E22" s="25">
+        <v>148.18799999999999</v>
+      </c>
+      <c r="F22" s="25">
+        <v>149.61000000000001</v>
+      </c>
+      <c r="G22" s="25">
+        <v>150.547</v>
+      </c>
+      <c r="H22" s="25">
+        <v>149.15600000000001</v>
+      </c>
+      <c r="I22" s="25">
+        <v>150.71799999999999</v>
+      </c>
+      <c r="J22" s="25">
+        <v>150.39099999999999</v>
+      </c>
+      <c r="K22" s="25">
+        <v>149.29599999999999</v>
+      </c>
+      <c r="L22" s="25">
+        <v>150.34399999999999</v>
+      </c>
+      <c r="P22" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="26">
-        <v>63242</v>
-      </c>
-      <c r="C6" s="26">
-        <v>63966.2</v>
-      </c>
-      <c r="D6" s="26">
-        <v>63215.199999999997</v>
-      </c>
-      <c r="E6" s="26">
-        <v>63765</v>
-      </c>
-      <c r="F6" s="26">
-        <v>63765</v>
-      </c>
-      <c r="G6" s="26">
-        <v>63550.5</v>
-      </c>
-      <c r="H6" s="26">
-        <v>64548</v>
-      </c>
-      <c r="I6" s="26">
-        <v>64319</v>
-      </c>
-      <c r="J6" s="26">
-        <v>63215.199999999997</v>
-      </c>
-      <c r="K6" s="26">
-        <v>63274.6</v>
-      </c>
-      <c r="L6" s="26">
-        <v>63765</v>
-      </c>
-      <c r="N6" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="O6" s="26">
+      <c r="R22" s="26">
         <v>12.625</v>
       </c>
-      <c r="P6" s="26">
+      <c r="S22" s="26">
         <v>13.047000000000001</v>
       </c>
-      <c r="Q6" s="26">
+      <c r="T22" s="26">
         <v>13.781000000000001</v>
       </c>
-      <c r="R6" s="26">
+      <c r="U22" s="26">
         <v>12.952999999999999</v>
       </c>
-      <c r="S6" s="26">
+      <c r="V22" s="26">
         <v>12.343999999999999</v>
       </c>
-      <c r="T6" s="26">
+      <c r="W22" s="26">
         <v>12.436999999999999</v>
       </c>
-      <c r="U6" s="26">
+      <c r="X22" s="26">
         <v>12.375</v>
       </c>
-      <c r="V6" s="26">
+      <c r="Y22" s="26">
         <v>12.281000000000001</v>
       </c>
-      <c r="W6" s="26">
+      <c r="Z22" s="26">
         <v>12.25</v>
       </c>
-      <c r="X6" s="26">
+      <c r="AA22" s="26">
         <v>12.297000000000001</v>
       </c>
-      <c r="BA6" s="27"/>
-    </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.35">
-      <c r="A7" s="28" t="s">
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A23" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" s="25">
+        <v>279.93799999999999</v>
+      </c>
+      <c r="D23" s="25">
+        <v>276.67099999999999</v>
+      </c>
+      <c r="E23" s="25">
+        <v>276.48399999999998</v>
+      </c>
+      <c r="F23" s="25">
+        <v>272.24900000000002</v>
+      </c>
+      <c r="G23" s="25">
+        <v>279.18700000000001</v>
+      </c>
+      <c r="H23" s="25">
+        <v>278.625</v>
+      </c>
+      <c r="I23" s="25">
+        <v>286.87599999999998</v>
+      </c>
+      <c r="J23" s="25">
+        <v>283.53100000000001</v>
+      </c>
+      <c r="K23" s="25">
+        <v>269.57900000000001</v>
+      </c>
+      <c r="L23" s="25">
+        <v>275.31200000000001</v>
+      </c>
+      <c r="P23" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="26">
-        <v>355.8</v>
-      </c>
-      <c r="C7" s="26">
-        <v>359.93700000000001</v>
-      </c>
-      <c r="D7" s="26">
-        <v>355.78399999999999</v>
-      </c>
-      <c r="E7" s="26">
-        <v>355.78399999999999</v>
-      </c>
-      <c r="F7" s="26">
-        <v>356.37400000000002</v>
-      </c>
-      <c r="G7" s="26">
-        <v>363.48500000000001</v>
-      </c>
-      <c r="H7" s="26">
-        <v>373.88499999999999</v>
-      </c>
-      <c r="I7" s="26">
-        <v>356.45800000000003</v>
-      </c>
-      <c r="J7" s="26">
-        <v>355.78399999999999</v>
-      </c>
-      <c r="K7" s="26">
-        <v>358.46</v>
-      </c>
-      <c r="L7" s="26">
-        <v>356.02800000000002</v>
-      </c>
-      <c r="N7" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="O7" s="26">
+      <c r="R23" s="26">
         <v>27.545999999999999</v>
       </c>
-      <c r="P7" s="26">
+      <c r="S23" s="26">
         <v>27.265999999999998</v>
       </c>
-      <c r="Q7" s="26">
+      <c r="T23" s="26">
         <v>27.797000000000001</v>
       </c>
-      <c r="R7" s="26">
+      <c r="U23" s="26">
         <v>27.125</v>
       </c>
-      <c r="S7" s="26">
+      <c r="V23" s="26">
         <v>26.89</v>
       </c>
-      <c r="T7" s="26">
+      <c r="W23" s="26">
         <v>27.530999999999999</v>
       </c>
-      <c r="U7" s="26">
+      <c r="X23" s="26">
         <v>27.265000000000001</v>
       </c>
-      <c r="V7" s="26">
+      <c r="Y23" s="26">
         <v>27.515000000000001</v>
       </c>
-      <c r="W7" s="26">
+      <c r="Z23" s="26">
         <v>27.079000000000001</v>
       </c>
-      <c r="X7" s="26">
+      <c r="AA23" s="26">
         <v>27.515999999999998</v>
       </c>
-      <c r="BA7" s="27"/>
-    </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.35">
-      <c r="A8" s="28" t="s">
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A24" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24" s="25">
+        <v>434.54700000000003</v>
+      </c>
+      <c r="D24" s="25">
+        <v>428.28199999999998</v>
+      </c>
+      <c r="E24" s="25">
+        <v>429.98399999999998</v>
+      </c>
+      <c r="F24" s="25">
+        <v>431.21899999999999</v>
+      </c>
+      <c r="G24" s="25">
+        <v>433.84399999999999</v>
+      </c>
+      <c r="H24" s="25">
+        <v>432.15600000000001</v>
+      </c>
+      <c r="I24" s="25">
+        <v>430.142</v>
+      </c>
+      <c r="J24" s="25">
+        <v>429.42099999999999</v>
+      </c>
+      <c r="K24" s="25">
+        <v>430.15600000000001</v>
+      </c>
+      <c r="L24" s="25">
+        <v>428.11</v>
+      </c>
+      <c r="P24" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="26">
-        <v>195568</v>
-      </c>
-      <c r="C8" s="26">
-        <v>195990</v>
-      </c>
-      <c r="D8" s="26">
-        <v>197460</v>
-      </c>
-      <c r="E8" s="26">
-        <v>196311</v>
-      </c>
-      <c r="F8" s="26">
-        <v>195859</v>
-      </c>
-      <c r="G8" s="26">
-        <v>194868</v>
-      </c>
-      <c r="H8" s="26">
-        <v>196818</v>
-      </c>
-      <c r="I8" s="26">
-        <v>196559</v>
-      </c>
-      <c r="J8" s="26">
-        <v>195638</v>
-      </c>
-      <c r="K8" s="26">
-        <v>195729</v>
-      </c>
-      <c r="L8" s="26">
-        <v>195557</v>
-      </c>
-      <c r="N8" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="O8" s="26">
+      <c r="R24" s="26">
         <v>32.423000000000002</v>
       </c>
-      <c r="P8" s="26">
+      <c r="S24" s="26">
         <v>32.156999999999996</v>
       </c>
-      <c r="Q8" s="26">
+      <c r="T24" s="26">
         <v>32.015999999999998</v>
       </c>
-      <c r="R8" s="26">
+      <c r="U24" s="26">
         <v>32.234000000000002</v>
       </c>
-      <c r="S8" s="26">
+      <c r="V24" s="26">
         <v>32.859000000000002</v>
       </c>
-      <c r="T8" s="26">
+      <c r="W24" s="26">
         <v>33.14</v>
       </c>
-      <c r="U8" s="26">
+      <c r="X24" s="26">
         <v>32.795999999999999</v>
       </c>
-      <c r="V8" s="26">
+      <c r="Y24" s="26">
         <v>32.64</v>
       </c>
-      <c r="W8" s="26">
+      <c r="Z24" s="26">
         <v>32.625</v>
       </c>
-      <c r="X8" s="26">
+      <c r="AA24" s="26">
         <v>32.826999999999998</v>
       </c>
-      <c r="BA8" s="27"/>
-    </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.35">
-      <c r="A9" s="28" t="s">
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A25" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" s="25">
+        <v>33.531999999999996</v>
+      </c>
+      <c r="D25" s="25">
+        <v>33.530999999999999</v>
+      </c>
+      <c r="E25" s="25">
+        <v>33.140999999999998</v>
+      </c>
+      <c r="F25" s="25">
+        <v>33.25</v>
+      </c>
+      <c r="G25" s="25">
+        <v>33.329000000000001</v>
+      </c>
+      <c r="H25" s="25">
+        <v>33.546999999999997</v>
+      </c>
+      <c r="I25" s="25">
+        <v>33.125</v>
+      </c>
+      <c r="J25" s="25">
+        <v>33.078000000000003</v>
+      </c>
+      <c r="K25" s="25">
+        <v>33.186999999999998</v>
+      </c>
+      <c r="L25" s="25">
+        <v>33.033000000000001</v>
+      </c>
+      <c r="P25" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="26">
-        <v>204335</v>
-      </c>
-      <c r="C9" s="26">
-        <v>206163</v>
-      </c>
-      <c r="D9" s="26">
-        <v>206509</v>
-      </c>
-      <c r="E9" s="26">
-        <v>205051</v>
-      </c>
-      <c r="F9" s="26">
-        <v>205012</v>
-      </c>
-      <c r="G9" s="26">
-        <v>203945</v>
-      </c>
-      <c r="H9" s="26">
-        <v>205012</v>
-      </c>
-      <c r="I9" s="26">
-        <v>205012</v>
-      </c>
-      <c r="J9" s="26">
-        <v>205051</v>
-      </c>
-      <c r="K9" s="26">
-        <v>205012</v>
-      </c>
-      <c r="L9" s="26">
-        <v>205051</v>
-      </c>
-      <c r="N9" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="O9" s="26">
+      <c r="R25" s="26">
         <v>33.938000000000002</v>
       </c>
-      <c r="P9" s="26">
+      <c r="S25" s="26">
         <v>33.892000000000003</v>
       </c>
-      <c r="Q9" s="26">
+      <c r="T25" s="26">
         <v>33.765999999999998</v>
       </c>
-      <c r="R9" s="26">
+      <c r="U25" s="26">
         <v>33.765999999999998</v>
       </c>
-      <c r="S9" s="26">
+      <c r="V25" s="26">
         <v>33.86</v>
       </c>
-      <c r="T9" s="26">
+      <c r="W25" s="26">
         <v>33.969000000000001</v>
       </c>
-      <c r="U9" s="26">
+      <c r="X25" s="26">
         <v>34.045999999999999</v>
       </c>
-      <c r="V9" s="26">
+      <c r="Y25" s="26">
         <v>33.984999999999999</v>
       </c>
-      <c r="W9" s="26">
+      <c r="Z25" s="26">
         <v>33.829000000000001</v>
       </c>
-      <c r="X9" s="26">
+      <c r="AA25" s="26">
         <v>33.969000000000001</v>
       </c>
-      <c r="BA9" s="27"/>
-    </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.35">
-      <c r="A10" s="28" t="s">
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A26" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" s="25">
+        <v>77.64</v>
+      </c>
+      <c r="D26" s="25">
+        <v>70.703000000000003</v>
+      </c>
+      <c r="E26" s="25">
+        <v>76.186999999999998</v>
+      </c>
+      <c r="F26" s="25">
+        <v>79.218000000000004</v>
+      </c>
+      <c r="G26" s="25">
+        <v>77.203999999999994</v>
+      </c>
+      <c r="H26" s="25">
+        <v>68.14</v>
+      </c>
+      <c r="I26" s="25">
+        <v>70.686999999999998</v>
+      </c>
+      <c r="J26" s="25">
+        <v>65.593999999999994</v>
+      </c>
+      <c r="K26" s="25">
+        <v>77.656000000000006</v>
+      </c>
+      <c r="L26" s="25">
+        <v>85.828999999999994</v>
+      </c>
+      <c r="P26" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="26">
-        <v>842.9</v>
-      </c>
-      <c r="C10" s="26">
-        <v>866.79600000000005</v>
-      </c>
-      <c r="D10" s="26">
-        <v>857.202</v>
-      </c>
-      <c r="E10" s="26">
-        <v>866.36699999999996</v>
-      </c>
-      <c r="F10" s="26">
-        <v>852.89</v>
-      </c>
-      <c r="G10" s="26">
-        <v>873.221</v>
-      </c>
-      <c r="H10" s="26">
-        <v>846.92</v>
-      </c>
-      <c r="I10" s="26">
-        <v>861.46100000000001</v>
-      </c>
-      <c r="J10" s="26">
-        <v>846.61599999999999</v>
-      </c>
-      <c r="K10" s="26">
-        <v>870.20799999999997</v>
-      </c>
-      <c r="L10" s="26">
-        <v>850.62400000000002</v>
-      </c>
-      <c r="N10" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="O10" s="26">
+      <c r="R26" s="26">
         <v>35.155000000000001</v>
       </c>
-      <c r="P10" s="26">
+      <c r="S26" s="26">
         <v>35.109000000000002</v>
       </c>
-      <c r="Q10" s="26">
+      <c r="T26" s="26">
         <v>35.640999999999998</v>
       </c>
-      <c r="R10" s="26">
+      <c r="U26" s="26">
         <v>35.171999999999997</v>
       </c>
-      <c r="S10" s="26">
+      <c r="V26" s="26">
         <v>35.75</v>
       </c>
-      <c r="T10" s="26">
+      <c r="W26" s="26">
         <v>34.719000000000001</v>
       </c>
-      <c r="U10" s="26">
+      <c r="X26" s="26">
         <v>34.811999999999998</v>
       </c>
-      <c r="V10" s="26">
+      <c r="Y26" s="26">
         <v>34.188000000000002</v>
       </c>
-      <c r="W10" s="26">
+      <c r="Z26" s="26">
         <v>34.828000000000003</v>
       </c>
-      <c r="X10" s="26">
+      <c r="AA26" s="26">
         <v>34.640999999999998</v>
       </c>
-      <c r="BA10" s="27"/>
-    </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.35">
-      <c r="A11" s="28" t="s">
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A27" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C27" s="25">
+        <v>43.499000000000002</v>
+      </c>
+      <c r="D27" s="25">
+        <v>42.719000000000001</v>
+      </c>
+      <c r="E27" s="25">
+        <v>42.954000000000001</v>
+      </c>
+      <c r="F27" s="25">
+        <v>43.390999999999998</v>
+      </c>
+      <c r="G27" s="25">
+        <v>42.734999999999999</v>
+      </c>
+      <c r="H27" s="25">
+        <v>42.578000000000003</v>
+      </c>
+      <c r="I27" s="25">
+        <v>43.218000000000004</v>
+      </c>
+      <c r="J27" s="25">
+        <v>42.750999999999998</v>
+      </c>
+      <c r="K27" s="25">
+        <v>42.984000000000002</v>
+      </c>
+      <c r="L27" s="25">
+        <v>42.671999999999997</v>
+      </c>
+      <c r="P27" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="26">
-        <v>5809</v>
-      </c>
-      <c r="C11" s="26">
-        <v>5816</v>
-      </c>
-      <c r="D11" s="26">
-        <v>5937.34</v>
-      </c>
-      <c r="E11" s="26">
-        <v>5834.37</v>
-      </c>
-      <c r="F11" s="26">
-        <v>5992.52</v>
-      </c>
-      <c r="G11" s="26">
-        <v>5985.18</v>
-      </c>
-      <c r="H11" s="26">
-        <v>5887.61</v>
-      </c>
-      <c r="I11" s="26">
-        <v>5719.49</v>
-      </c>
-      <c r="J11" s="26">
-        <v>5845.51</v>
-      </c>
-      <c r="K11" s="26">
-        <v>6051.19</v>
-      </c>
-      <c r="L11" s="26">
-        <v>5921.46</v>
-      </c>
-      <c r="N11" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="O11" s="26">
+      <c r="R27" s="26">
         <v>66.843000000000004</v>
       </c>
-      <c r="P11" s="26">
+      <c r="S27" s="26">
         <v>67.625</v>
       </c>
-      <c r="Q11" s="26">
+      <c r="T27" s="26">
         <v>66.673000000000002</v>
       </c>
-      <c r="R11" s="26">
+      <c r="U27" s="26">
         <v>67.265000000000001</v>
       </c>
-      <c r="S11" s="26">
+      <c r="V27" s="26">
         <v>66.843999999999994</v>
       </c>
-      <c r="T11" s="26">
+      <c r="W27" s="26">
         <v>66.531000000000006</v>
       </c>
-      <c r="U11" s="26">
+      <c r="X27" s="26">
         <v>66.921999999999997</v>
       </c>
-      <c r="V11" s="26">
+      <c r="Y27" s="26">
         <v>66.343000000000004</v>
       </c>
-      <c r="W11" s="26">
+      <c r="Z27" s="26">
         <v>66.828999999999994</v>
       </c>
-      <c r="X11" s="26">
+      <c r="AA27" s="26">
         <v>66.39</v>
       </c>
-      <c r="BA11" s="27"/>
-    </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.35">
-      <c r="A12" s="28" t="s">
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A28" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="C28" s="25">
+        <v>149.703</v>
+      </c>
+      <c r="D28" s="25">
+        <v>150.297</v>
+      </c>
+      <c r="E28" s="25">
+        <v>151.125</v>
+      </c>
+      <c r="F28" s="25">
+        <v>149.46899999999999</v>
+      </c>
+      <c r="G28" s="25">
+        <v>149.702</v>
+      </c>
+      <c r="H28" s="25">
+        <v>150.18899999999999</v>
+      </c>
+      <c r="I28" s="25">
+        <v>150.578</v>
+      </c>
+      <c r="J28" s="25">
+        <v>149.43799999999999</v>
+      </c>
+      <c r="K28" s="25">
+        <v>149.95400000000001</v>
+      </c>
+      <c r="L28" s="25">
+        <v>149.18799999999999</v>
+      </c>
+      <c r="P28" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="26">
-        <v>44011.7</v>
-      </c>
-      <c r="C12" s="26">
-        <v>45531.8</v>
-      </c>
-      <c r="D12" s="26">
-        <v>45424.9</v>
-      </c>
-      <c r="E12" s="26">
-        <v>44471.9</v>
-      </c>
-      <c r="F12" s="26">
-        <v>44798.9</v>
-      </c>
-      <c r="G12" s="26">
-        <v>44261.7</v>
-      </c>
-      <c r="H12" s="26">
-        <v>45210.9</v>
-      </c>
-      <c r="I12" s="26">
-        <v>46370.400000000001</v>
-      </c>
-      <c r="J12" s="26">
-        <v>46251.5</v>
-      </c>
-      <c r="K12" s="26">
-        <v>45142.8</v>
-      </c>
-      <c r="L12" s="26">
-        <v>44780.6</v>
-      </c>
-      <c r="N12" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="O12" s="26">
+      <c r="R28" s="26">
         <v>96.968999999999994</v>
       </c>
-      <c r="P12" s="26">
+      <c r="S28" s="26">
         <v>96.813000000000002</v>
       </c>
-      <c r="Q12" s="26">
+      <c r="T28" s="26">
         <v>96.64</v>
       </c>
-      <c r="R12" s="26">
+      <c r="U28" s="26">
         <v>95.811999999999998</v>
       </c>
-      <c r="S12" s="26">
+      <c r="V28" s="26">
         <v>96.546999999999997</v>
       </c>
-      <c r="T12" s="26">
+      <c r="W28" s="26">
         <v>95.968999999999994</v>
       </c>
-      <c r="U12" s="26">
+      <c r="X28" s="26">
         <v>95.531000000000006</v>
       </c>
-      <c r="V12" s="26">
+      <c r="Y28" s="26">
         <v>95.718999999999994</v>
       </c>
-      <c r="W12" s="26">
+      <c r="Z28" s="26">
         <v>96.313000000000002</v>
       </c>
-      <c r="X12" s="26">
+      <c r="AA28" s="26">
         <v>95.828000000000003</v>
       </c>
-      <c r="BA12" s="27"/>
-    </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.35">
-      <c r="A13" s="28" t="s">
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A29" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="C29" s="25">
+        <v>35.079000000000001</v>
+      </c>
+      <c r="D29" s="25">
+        <v>34.844000000000001</v>
+      </c>
+      <c r="E29" s="25">
+        <v>34.969000000000001</v>
+      </c>
+      <c r="F29" s="25">
+        <v>35.531999999999996</v>
+      </c>
+      <c r="G29" s="25">
+        <v>35.11</v>
+      </c>
+      <c r="H29" s="25">
+        <v>35.11</v>
+      </c>
+      <c r="I29" s="25">
+        <v>35.155999999999999</v>
+      </c>
+      <c r="J29" s="25">
+        <v>35.048000000000002</v>
+      </c>
+      <c r="K29" s="25">
+        <v>35.311999999999998</v>
+      </c>
+      <c r="L29" s="25">
+        <v>35.094000000000001</v>
+      </c>
+      <c r="P29" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="26">
-        <v>476684</v>
-      </c>
-      <c r="C13" s="26">
-        <v>481173</v>
-      </c>
-      <c r="D13" s="26">
-        <v>485569</v>
-      </c>
-      <c r="E13" s="26">
-        <v>484146</v>
-      </c>
-      <c r="F13" s="26">
-        <v>481148</v>
-      </c>
-      <c r="G13" s="26">
-        <v>483530</v>
-      </c>
-      <c r="H13" s="26">
-        <v>478602</v>
-      </c>
-      <c r="I13" s="26">
-        <v>480171</v>
-      </c>
-      <c r="J13" s="26">
-        <v>476383</v>
-      </c>
-      <c r="K13" s="26">
-        <v>481650</v>
-      </c>
-      <c r="L13" s="26">
-        <v>481899</v>
-      </c>
-      <c r="N13" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="O13" s="26">
+      <c r="R29" s="26">
         <v>207.422</v>
       </c>
-      <c r="P13" s="26">
+      <c r="S29" s="26">
         <v>204.547</v>
       </c>
-      <c r="Q13" s="26">
+      <c r="T29" s="26">
         <v>212.249</v>
       </c>
-      <c r="R13" s="26">
+      <c r="U29" s="26">
         <v>203.76599999999999</v>
       </c>
-      <c r="S13" s="26">
+      <c r="V29" s="26">
         <v>202.125</v>
       </c>
-      <c r="T13" s="26">
+      <c r="W29" s="26">
         <v>199.53100000000001</v>
       </c>
-      <c r="U13" s="26">
+      <c r="X29" s="26">
         <v>200.751</v>
       </c>
-      <c r="V13" s="26">
+      <c r="Y29" s="26">
         <v>206</v>
       </c>
-      <c r="W13" s="26">
+      <c r="Z29" s="26">
         <v>202.5</v>
       </c>
-      <c r="X13" s="26">
+      <c r="AA29" s="26">
         <v>200.56299999999999</v>
       </c>
-      <c r="BA13" s="27"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A30" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="C30" s="25">
+        <v>72.25</v>
+      </c>
+      <c r="D30" s="25">
+        <v>69.313000000000002</v>
+      </c>
+      <c r="E30" s="25">
+        <v>74.076999999999998</v>
+      </c>
+      <c r="F30" s="25">
+        <v>73.233999999999995</v>
+      </c>
+      <c r="G30" s="25">
+        <v>63.485999999999997</v>
+      </c>
+      <c r="H30" s="25">
+        <v>68.438000000000002</v>
+      </c>
+      <c r="I30" s="25">
+        <v>74</v>
+      </c>
+      <c r="J30" s="25">
+        <v>72.188000000000002</v>
+      </c>
+      <c r="K30" s="25">
+        <v>62.578000000000003</v>
+      </c>
+      <c r="L30" s="25">
+        <v>75.125</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="18">
+    <mergeCell ref="R18:AA18"/>
+    <mergeCell ref="P17:AA17"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="P1:AA1"/>
     <mergeCell ref="A1:L1"/>
-    <mergeCell ref="N1:X1"/>
-    <mergeCell ref="C2:L2"/>
-    <mergeCell ref="O2:X2"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="B17:L17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:L18"/>
+    <mergeCell ref="P2:AA2"/>
+    <mergeCell ref="R3:AA3"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3691,55 +5491,86 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348A00D3-4455-4871-A842-3FB0F610BDD7}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.453125" style="5" customWidth="1"/>
     <col min="2" max="2" width="13.54296875" style="5" customWidth="1"/>
     <col min="3" max="6" width="10.54296875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="11.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="5"/>
+    <col min="7" max="7" width="11.7265625" style="5" customWidth="1"/>
+    <col min="8" max="10" width="8.7265625" style="5"/>
+    <col min="11" max="11" width="17.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.54296875" style="5" customWidth="1"/>
+    <col min="13" max="16" width="10.54296875" style="5" customWidth="1"/>
+    <col min="17" max="17" width="11.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.7265625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="42"/>
-    </row>
-    <row r="2" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="46" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A1" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="39"/>
+      <c r="K1" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="39"/>
+    </row>
+    <row r="2" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" s="44" t="s">
+      <c r="B2" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="38"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="K2" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="M2" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="N2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="44" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="33"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="45"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="41" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="13" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="32"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="42"/>
       <c r="D3" s="3" t="s">
         <v>28</v>
       </c>
@@ -3749,298 +5580,605 @@
       <c r="F3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="38"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="4" t="s">
-        <v>16</v>
+      <c r="G3" s="37"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="37"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A4" s="23" t="s">
+        <v>120</v>
       </c>
       <c r="B4" s="4">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="C4" s="2">
         <f>MAX(100, B4) * 50</f>
+        <v>5100</v>
+      </c>
+      <c r="D4" s="6">
+        <f>MIN(data!C5:L5) / data!B5 -1</f>
+        <v>-5.3902439024389182E-4</v>
+      </c>
+      <c r="E4" s="6">
+        <f>AVERAGE(data!C5:L5) / data!B5 -1</f>
+        <v>1.6868292682925556E-3</v>
+      </c>
+      <c r="F4" s="6">
+        <f>MAX(data!C5:L5) / data!B5 -1</f>
+        <v>2.1719512195121915E-2</v>
+      </c>
+      <c r="G4" s="7">
+        <f>AVERAGE(data!C20:L20)</f>
+        <v>25.153099999999998</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="4">
+        <v>25</v>
+      </c>
+      <c r="M4" s="2">
+        <f>MAX(100, L4) * 50</f>
         <v>5000</v>
       </c>
-      <c r="D4" s="6">
-        <f>MIN(data!C4:L4) / data!B4 -1</f>
+      <c r="N4" s="6">
+        <f>MIN(data!R5:AA5) / data!Q5 -1</f>
         <v>-2.6645739419262071E-4</v>
       </c>
-      <c r="E4" s="6">
-        <f>AVERAGE(data!C4:L4) / data!B4 -1</f>
+      <c r="O4" s="6">
+        <f>AVERAGE(data!R5:AA5) / data!Q5 -1</f>
         <v>1.5220922380621005E-4</v>
       </c>
-      <c r="F4" s="6">
-        <f>MAX(data!C4:L4) / data!B4 -1</f>
+      <c r="P4" s="6">
+        <f>MAX(data!R5:AA5) / data!Q5 -1</f>
         <v>3.9202087857939105E-3</v>
       </c>
-      <c r="G4" s="7">
-        <f>AVERAGE(data!O4:X4)</f>
+      <c r="Q4" s="7">
+        <f>AVERAGE(data!R20:AA20)</f>
         <v>5.7579999999999991</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A5" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="4">
+        <v>151</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" ref="C5:C14" si="0">MAX(100, B5) * 50</f>
+        <v>7550</v>
+      </c>
+      <c r="D5" s="6">
+        <f>MIN(data!C6:L6) / data!B6 -1</f>
+        <v>5.8326214393025211E-3</v>
+      </c>
+      <c r="E5" s="6">
+        <f>AVERAGE(data!C6:L6) / data!B6 -1</f>
+        <v>2.2725294004052099E-2</v>
+      </c>
+      <c r="F5" s="6">
+        <f>MAX(data!C6:L6) / data!B6 -1</f>
+        <v>4.35875531465717E-2</v>
+      </c>
+      <c r="G5" s="7">
+        <f>AVERAGE(data!C21:L21)</f>
+        <v>79.042199999999994</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="4">
+      <c r="L5" s="4">
         <v>41</v>
       </c>
-      <c r="C5" s="2">
-        <f t="shared" ref="C5:C13" si="0">MAX(100, B5) * 50</f>
+      <c r="M5" s="2">
+        <f t="shared" ref="M5:M13" si="1">MAX(100, L5) * 50</f>
         <v>5000</v>
       </c>
-      <c r="D5" s="6">
-        <f>MIN(data!C5:L5) / data!B5 -1</f>
+      <c r="N5" s="6">
+        <f>MIN(data!R6:AA6) / data!Q6 -1</f>
         <v>-5.6472632493420605E-5</v>
       </c>
-      <c r="E5" s="6">
-        <f>AVERAGE(data!C5:L5) / data!B5 -1</f>
+      <c r="O5" s="6">
+        <f>AVERAGE(data!R6:AA6) / data!Q6 -1</f>
         <v>1.3896394439617543E-2</v>
       </c>
-      <c r="F5" s="6">
-        <f>MAX(data!C5:L5) / data!B5 -1</f>
+      <c r="P5" s="6">
+        <f>MAX(data!R6:AA6) / data!Q6 -1</f>
         <v>3.4146394439617644E-2</v>
       </c>
-      <c r="G5" s="7">
-        <f>AVERAGE(data!O5:X5)</f>
+      <c r="Q5" s="7">
+        <f>AVERAGE(data!R21:AA21)</f>
         <v>9.5826999999999991</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="4" t="s">
-        <v>17</v>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A6" s="23" t="s">
+        <v>122</v>
       </c>
       <c r="B6" s="4">
-        <v>55</v>
+        <v>201</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" si="0"/>
+        <v>10050</v>
+      </c>
+      <c r="D6" s="6">
+        <f>MIN(data!C7:L7) / data!B7 -1</f>
+        <v>-5.0320593186947038E-2</v>
+      </c>
+      <c r="E6" s="6">
+        <f>AVERAGE(data!C7:L7) / data!B7 -1</f>
+        <v>-3.600386861052407E-2</v>
+      </c>
+      <c r="F6" s="6">
+        <f>MAX(data!C7:L7) / data!B7 -1</f>
+        <v>-2.2316151448937838E-2</v>
+      </c>
+      <c r="G6" s="7">
+        <f>AVERAGE(data!C22:L22)</f>
+        <v>149.89530000000002</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="4">
+        <v>55</v>
+      </c>
+      <c r="M6" s="2">
+        <f t="shared" si="1"/>
         <v>5000</v>
       </c>
-      <c r="D6" s="6">
-        <f>MIN(data!C6:L6) / data!B6 -1</f>
+      <c r="N6" s="6">
+        <f>MIN(data!R7:AA7) / data!Q7 -1</f>
         <v>-4.2376901426266489E-4</v>
       </c>
-      <c r="E6" s="6">
-        <f>AVERAGE(data!C6:L6) / data!B6 -1</f>
+      <c r="O6" s="6">
+        <f>AVERAGE(data!R7:AA7) / data!Q7 -1</f>
         <v>7.8487397615509824E-3</v>
       </c>
-      <c r="F6" s="6">
-        <f>MAX(data!C6:L6) / data!B6 -1</f>
+      <c r="P6" s="6">
+        <f>MAX(data!R7:AA7) / data!Q7 -1</f>
         <v>2.0650833306979477E-2</v>
       </c>
-      <c r="G6" s="7">
-        <f>AVERAGE(data!O6:X6)</f>
+      <c r="Q6" s="7">
+        <f>AVERAGE(data!R22:AA22)</f>
         <v>12.638999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" s="4" t="s">
-        <v>21</v>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A7" s="23" t="s">
+        <v>123</v>
       </c>
       <c r="B7" s="4">
-        <v>96</v>
+        <v>251</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" si="0"/>
+        <v>12550</v>
+      </c>
+      <c r="D7" s="6">
+        <f>MIN(data!C8:L8) / data!B8 -1</f>
+        <v>2.7815117361182917E-2</v>
+      </c>
+      <c r="E7" s="6">
+        <f>AVERAGE(data!C8:L8) / data!B8 -1</f>
+        <v>3.5093578740564624E-2</v>
+      </c>
+      <c r="F7" s="6">
+        <f>MAX(data!C8:L8) / data!B8 -1</f>
+        <v>4.6980663840347381E-2</v>
+      </c>
+      <c r="G7" s="7">
+        <f>AVERAGE(data!C23:L23)</f>
+        <v>277.84520000000003</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="4">
+        <v>96</v>
+      </c>
+      <c r="M7" s="2">
+        <f t="shared" si="1"/>
         <v>5000</v>
       </c>
-      <c r="D7" s="6">
-        <f>MIN(data!C7:L7) / data!B7 -1</f>
+      <c r="N7" s="6">
+        <f>MIN(data!R8:AA8) / data!Q8 -1</f>
         <v>-4.4969083754953232E-5</v>
       </c>
-      <c r="E7" s="6">
-        <f>AVERAGE(data!C7:L7) / data!B7 -1</f>
+      <c r="O7" s="6">
+        <f>AVERAGE(data!R8:AA8) / data!Q8 -1</f>
         <v>9.5500281056772884E-3</v>
       </c>
-      <c r="F7" s="6">
-        <f>MAX(data!C7:L7) / data!B7 -1</f>
+      <c r="P7" s="6">
+        <f>MAX(data!R8:AA8) / data!Q8 -1</f>
         <v>5.0829117481731245E-2</v>
       </c>
-      <c r="G7" s="7">
-        <f>AVERAGE(data!O7:X7)</f>
+      <c r="Q7" s="7">
+        <f>AVERAGE(data!R23:AA23)</f>
         <v>27.353000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" s="4" t="s">
-        <v>18</v>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A8" s="23" t="s">
+        <v>124</v>
       </c>
       <c r="B8" s="4">
-        <v>105</v>
+        <v>303</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="0"/>
+        <v>15150</v>
+      </c>
+      <c r="D8" s="6">
+        <f>MIN(data!C9:L9) / data!B9 -1</f>
+        <v>3.36768494663231E-2</v>
+      </c>
+      <c r="E8" s="6">
+        <f>AVERAGE(data!C9:L9) / data!B9 -1</f>
+        <v>4.8538829591461052E-2</v>
+      </c>
+      <c r="F8" s="6">
+        <f>MAX(data!C9:L9) / data!B9 -1</f>
+        <v>6.2918660287081263E-2</v>
+      </c>
+      <c r="G8" s="7">
+        <f>AVERAGE(data!C24:L24)</f>
+        <v>430.78609999999992</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="4">
+        <v>105</v>
+      </c>
+      <c r="M8" s="2">
+        <f t="shared" si="1"/>
         <v>5250</v>
       </c>
-      <c r="D8" s="6">
-        <f>MIN(data!C8:L8) / data!B8 -1</f>
+      <c r="N8" s="6">
+        <f>MIN(data!R9:AA9) / data!Q9 -1</f>
         <v>-3.5793176797840331E-3</v>
       </c>
-      <c r="E8" s="6">
-        <f>AVERAGE(data!C8:L8) / data!B8 -1</f>
+      <c r="O8" s="6">
+        <f>AVERAGE(data!R9:AA9) / data!Q9 -1</f>
         <v>2.6123905751451737E-3</v>
       </c>
-      <c r="F8" s="6">
-        <f>MAX(data!C8:L8) / data!B8 -1</f>
+      <c r="P8" s="6">
+        <f>MAX(data!R9:AA9) / data!Q9 -1</f>
         <v>9.6743843573590116E-3</v>
       </c>
-      <c r="G8" s="7">
-        <f>AVERAGE(data!O8:X8)</f>
+      <c r="Q8" s="7">
+        <f>AVERAGE(data!R24:AA24)</f>
         <v>32.5717</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="4">
-        <v>110</v>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A9" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" s="50">
+        <v>101</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" si="0"/>
+        <v>5050</v>
+      </c>
+      <c r="D9" s="6">
+        <f>MIN(data!C10:L10) / data!B10 -1</f>
+        <v>-1.7681478195881173E-3</v>
+      </c>
+      <c r="E9" s="6">
+        <f>AVERAGE(data!C10:L10) / data!B10 -1</f>
+        <v>-3.609208951321774E-4</v>
+      </c>
+      <c r="F9" s="6">
+        <f>MAX(data!C10:L10) / data!B10 -1</f>
+        <v>3.323631812078176E-3</v>
+      </c>
+      <c r="G9" s="7">
+        <f>AVERAGE(data!C25:L25)</f>
+        <v>33.275300000000001</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="4">
+        <v>110</v>
+      </c>
+      <c r="M9" s="2">
+        <f t="shared" si="1"/>
         <v>5500</v>
       </c>
-      <c r="D9" s="6">
-        <f>MIN(data!C9:L9) / data!B9 -1</f>
+      <c r="N9" s="6">
+        <f>MIN(data!R10:AA10) / data!Q10 -1</f>
         <v>-1.9086304353145289E-3</v>
       </c>
-      <c r="E9" s="6">
-        <f>AVERAGE(data!C9:L9) / data!B9 -1</f>
+      <c r="O9" s="6">
+        <f>AVERAGE(data!R10:AA10) / data!Q10 -1</f>
         <v>4.1441750067290339E-3</v>
       </c>
-      <c r="F9" s="6">
-        <f>MAX(data!C9:L9) / data!B9 -1</f>
+      <c r="P9" s="6">
+        <f>MAX(data!R10:AA10) / data!Q10 -1</f>
         <v>1.0639391195830461E-2</v>
       </c>
-      <c r="G9" s="7">
-        <f>AVERAGE(data!O9:X9)</f>
+      <c r="Q9" s="7">
+        <f>AVERAGE(data!R25:AA25)</f>
         <v>33.902000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="4">
-        <v>110</v>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A10" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" s="50">
+        <v>101</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" si="0"/>
+        <v>5050</v>
+      </c>
+      <c r="D10" s="6">
+        <f>MIN(data!C11:L11) / data!B11 -1</f>
+        <v>-7.9377500259507849E-2</v>
+      </c>
+      <c r="E10" s="6">
+        <f>AVERAGE(data!C11:L11) / data!B11 -1</f>
+        <v>-6.3240895262582142E-2</v>
+      </c>
+      <c r="F10" s="6">
+        <f>MAX(data!C11:L11) / data!B11 -1</f>
+        <v>-3.5293084312144063E-2</v>
+      </c>
+      <c r="G10" s="7">
+        <f>AVERAGE(data!C26:L26)</f>
+        <v>74.885799999999989</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="4">
+        <v>110</v>
+      </c>
+      <c r="M10" s="2">
+        <f t="shared" si="1"/>
         <v>5500</v>
       </c>
-      <c r="D10" s="6">
-        <f>MIN(data!C10:L10) / data!B10 -1</f>
+      <c r="N10" s="6">
+        <f>MIN(data!R11:AA11) / data!Q11 -1</f>
         <v>4.4085893937595433E-3</v>
       </c>
-      <c r="E10" s="6">
-        <f>AVERAGE(data!C10:L10) / data!B10 -1</f>
+      <c r="O10" s="6">
+        <f>AVERAGE(data!R11:AA11) / data!Q11 -1</f>
         <v>1.9374184363506908E-2</v>
       </c>
-      <c r="F10" s="6">
-        <f>MAX(data!C10:L10) / data!B10 -1</f>
+      <c r="P10" s="6">
+        <f>MAX(data!R11:AA11) / data!Q11 -1</f>
         <v>3.597223869972721E-2</v>
       </c>
-      <c r="G10" s="7">
-        <f>AVERAGE(data!O10:X10)</f>
+      <c r="Q10" s="7">
+        <f>AVERAGE(data!R26:AA26)</f>
         <v>35.001500000000007</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="4">
-        <v>142</v>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A11" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" s="50">
+        <v>101</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" si="0"/>
+        <v>5050</v>
+      </c>
+      <c r="D11" s="6">
+        <f>MIN(data!C12:L12) / data!B12 -1</f>
+        <v>-3.6190797887414305E-6</v>
+      </c>
+      <c r="E11" s="6">
+        <f>AVERAGE(data!C12:L12) / data!B12 -1</f>
+        <v>-3.6190797885193859E-6</v>
+      </c>
+      <c r="F11" s="6">
+        <f>MAX(data!C12:L12) / data!B12 -1</f>
+        <v>-3.6190797887414305E-6</v>
+      </c>
+      <c r="G11" s="7">
+        <f>AVERAGE(data!C27:L27)</f>
+        <v>42.950099999999999</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" s="4">
+        <v>142</v>
+      </c>
+      <c r="M11" s="2">
+        <f t="shared" si="1"/>
         <v>7100</v>
       </c>
-      <c r="D11" s="6">
-        <f>MIN(data!C11:L11) / data!B11 -1</f>
+      <c r="N11" s="6">
+        <f>MIN(data!R12:AA12) / data!Q12 -1</f>
         <v>-1.5408848338784642E-2</v>
       </c>
-      <c r="E11" s="6">
-        <f>AVERAGE(data!C11:L11) / data!B11 -1</f>
+      <c r="O11" s="6">
+        <f>AVERAGE(data!R12:AA12) / data!Q12 -1</f>
         <v>1.5504734033396472E-2</v>
       </c>
-      <c r="F11" s="6">
-        <f>MAX(data!C11:L11) / data!B11 -1</f>
+      <c r="P11" s="6">
+        <f>MAX(data!R12:AA12) / data!Q12 -1</f>
         <v>4.1692201755896052E-2</v>
       </c>
-      <c r="G11" s="7">
-        <f>AVERAGE(data!O11:X11)</f>
+      <c r="Q11" s="7">
+        <f>AVERAGE(data!R27:AA27)</f>
         <v>66.826499999999982</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="4">
-        <v>160</v>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A12" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" s="50">
+        <v>101</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" si="0"/>
+        <v>5050</v>
+      </c>
+      <c r="D12" s="6">
+        <f>MIN(data!C13:L13) / data!B13 -1</f>
+        <v>-5.0713368042742957E-6</v>
+      </c>
+      <c r="E12" s="6">
+        <f>AVERAGE(data!C13:L13) / data!B13 -1</f>
+        <v>-5.0713368044963403E-6</v>
+      </c>
+      <c r="F12" s="6">
+        <f>MAX(data!C13:L13) / data!B13 -1</f>
+        <v>-5.0713368042742957E-6</v>
+      </c>
+      <c r="G12" s="7">
+        <f>AVERAGE(data!C28:L28)</f>
+        <v>149.96430000000001</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" s="4">
+        <v>160</v>
+      </c>
+      <c r="M12" s="2">
+        <f t="shared" si="1"/>
         <v>8000</v>
       </c>
-      <c r="D12" s="6">
-        <f>MIN(data!C12:L12) / data!B12 -1</f>
+      <c r="N12" s="6">
+        <f>MIN(data!R13:AA13) / data!Q13 -1</f>
         <v>5.6803077363518639E-3</v>
       </c>
-      <c r="E12" s="6">
-        <f>AVERAGE(data!C12:L12) / data!B12 -1</f>
+      <c r="O12" s="6">
+        <f>AVERAGE(data!R13:AA13) / data!Q13 -1</f>
         <v>2.7557217739828443E-2</v>
       </c>
-      <c r="F12" s="6">
-        <f>MAX(data!C12:L12) / data!B12 -1</f>
+      <c r="P12" s="6">
+        <f>MAX(data!R13:AA13) / data!Q13 -1</f>
         <v>5.3592567430933213E-2</v>
       </c>
-      <c r="G12" s="7">
-        <f>AVERAGE(data!O12:X12)</f>
+      <c r="Q12" s="7">
+        <f>AVERAGE(data!R28:AA28)</f>
         <v>96.214100000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="4">
-        <v>210</v>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A13" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="B13" s="50">
+        <v>101</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" si="0"/>
+        <v>5050</v>
+      </c>
+      <c r="D13" s="6">
+        <f>MIN(data!C14:L14) / data!B14 -1</f>
+        <v>-3.3660589060308665E-2</v>
+      </c>
+      <c r="E13" s="6">
+        <f>AVERAGE(data!C14:L14) / data!B14 -1</f>
+        <v>-2.5190637264723592E-2</v>
+      </c>
+      <c r="F13" s="6">
+        <f>MAX(data!C14:L14) / data!B14 -1</f>
+        <v>-1.9264087121524609E-2</v>
+      </c>
+      <c r="G13" s="7">
+        <f>AVERAGE(data!C29:L29)</f>
+        <v>35.125399999999999</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" s="4">
+        <v>210</v>
+      </c>
+      <c r="M13" s="2">
+        <f t="shared" si="1"/>
         <v>10500</v>
       </c>
-      <c r="D13" s="6">
-        <f>MIN(data!C13:L13) / data!B13 -1</f>
+      <c r="N13" s="6">
+        <f>MIN(data!R14:AA14) / data!Q14 -1</f>
         <v>-6.3144556981142852E-4</v>
       </c>
-      <c r="E13" s="6">
-        <f>AVERAGE(data!C13:L13) / data!B13 -1</f>
+      <c r="O13" s="6">
+        <f>AVERAGE(data!R14:AA14) / data!Q14 -1</f>
         <v>9.9501976151916693E-3</v>
       </c>
-      <c r="F13" s="6">
-        <f>MAX(data!C13:L13) / data!B13 -1</f>
+      <c r="P13" s="6">
+        <f>MAX(data!R14:AA14) / data!Q14 -1</f>
         <v>1.8639182351410932E-2</v>
       </c>
-      <c r="G13" s="7">
-        <f>AVERAGE(data!O13:X13)</f>
+      <c r="Q13" s="7">
+        <f>AVERAGE(data!R29:AA29)</f>
         <v>203.94539999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A14" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" s="50">
+        <v>101</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="0"/>
+        <v>5050</v>
+      </c>
+      <c r="D14" s="6">
+        <f>MIN(data!C15:L15) / data!B15 -1</f>
+        <v>-8.8569986708460502E-2</v>
+      </c>
+      <c r="E14" s="6">
+        <f>AVERAGE(data!C15:L15) / data!B15 -1</f>
+        <v>-8.1135253854191292E-2</v>
+      </c>
+      <c r="F14" s="6">
+        <f>MAX(data!C15:L15) / data!B15 -1</f>
+        <v>-7.3380671116133889E-2</v>
+      </c>
+      <c r="G14" s="7">
+        <f>AVERAGE(data!C30:L30)</f>
+        <v>70.468899999999991</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="13" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="17" ht="12" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="12">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="G2:G3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="K1:Q1"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research\dev\LRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE79B91-C40B-423A-85A3-C42F1777B4AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B655D6B-3B43-4ACC-A019-155C91006D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="2" r:id="rId1"/>
@@ -775,23 +775,14 @@
     <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -806,6 +797,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -825,9 +828,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1330,7 +1330,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="K22" s="29"/>
+      <c r="K22" s="30"/>
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1347,7 +1347,7 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="K23" s="30"/>
+      <c r="K23" s="31"/>
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2606,8 +2606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16226786-0325-4223-91E5-2589AE0E8571}">
   <dimension ref="A1:AH27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -2621,72 +2621,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="39"/>
-      <c r="N1" s="31" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="36"/>
+      <c r="N1" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="39"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="36"/>
     </row>
     <row r="2" spans="1:34" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="37"/>
-      <c r="N2" s="33" t="s">
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="34"/>
+      <c r="N2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="O2" s="35" t="s">
+      <c r="O2" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36"/>
-      <c r="X2" s="37"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33"/>
+      <c r="X2" s="34"/>
     </row>
     <row r="3" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="39"/>
-      <c r="B3" s="34"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="21">
         <v>1010</v>
       </c>
@@ -2717,7 +2717,7 @@
       <c r="L3" s="21">
         <v>2807</v>
       </c>
-      <c r="N3" s="34"/>
+      <c r="N3" s="38"/>
       <c r="O3" s="21">
         <v>1010</v>
       </c>
@@ -2815,7 +2815,7 @@
       <c r="L5" s="22">
         <v>819.55799999999999</v>
       </c>
-      <c r="M5" s="46"/>
+      <c r="M5" s="29"/>
       <c r="N5" s="20" t="s">
         <v>110</v>
       </c>
@@ -2888,7 +2888,7 @@
       <c r="L6" s="22">
         <v>3182.24</v>
       </c>
-      <c r="M6" s="46"/>
+      <c r="M6" s="29"/>
       <c r="N6" s="20" t="s">
         <v>111</v>
       </c>
@@ -2961,7 +2961,7 @@
       <c r="L7" s="22">
         <v>1367.12</v>
       </c>
-      <c r="M7" s="46"/>
+      <c r="M7" s="29"/>
       <c r="N7" s="20" t="s">
         <v>112</v>
       </c>
@@ -3034,7 +3034,7 @@
       <c r="L8" s="22">
         <v>40026.9</v>
       </c>
-      <c r="M8" s="46"/>
+      <c r="M8" s="29"/>
       <c r="N8" s="20" t="s">
         <v>113</v>
       </c>
@@ -3107,7 +3107,7 @@
       <c r="L9" s="22">
         <v>22706</v>
       </c>
-      <c r="M9" s="46"/>
+      <c r="M9" s="29"/>
       <c r="N9" s="20" t="s">
         <v>114</v>
       </c>
@@ -3181,36 +3181,36 @@
         <v>1645.79</v>
       </c>
       <c r="C11" s="22">
-        <v>1645.72</v>
+        <v>1650.8</v>
       </c>
       <c r="D11" s="22">
-        <v>1642.88</v>
+        <v>1644.55</v>
       </c>
       <c r="E11" s="22">
         <v>1642.88</v>
       </c>
       <c r="F11" s="22">
-        <v>1647.06</v>
+        <v>1647.73</v>
       </c>
       <c r="G11" s="22">
-        <v>1644.55</v>
+        <v>1644.05</v>
       </c>
       <c r="H11" s="22">
+        <v>1644.25</v>
+      </c>
+      <c r="I11" s="22">
+        <v>1642.88</v>
+      </c>
+      <c r="J11" s="22">
+        <v>1652.17</v>
+      </c>
+      <c r="K11" s="22">
         <v>1643.18</v>
       </c>
-      <c r="I11" s="22">
-        <v>1644.25</v>
-      </c>
-      <c r="J11" s="22">
-        <v>1644.55</v>
-      </c>
-      <c r="K11" s="22">
-        <v>1654.22</v>
-      </c>
       <c r="L11" s="22">
-        <v>1646.14</v>
-      </c>
-      <c r="M11" s="46"/>
+        <v>1652.17</v>
+      </c>
+      <c r="M11" s="29"/>
       <c r="N11" s="20" t="s">
         <v>115</v>
       </c>
@@ -3254,36 +3254,36 @@
         <v>1252.3699999999999</v>
       </c>
       <c r="C12" s="22">
-        <v>1169.05</v>
+        <v>1208.46</v>
       </c>
       <c r="D12" s="22">
-        <v>1184.52</v>
+        <v>1168.82</v>
       </c>
       <c r="E12" s="22">
-        <v>1171.5</v>
+        <v>1164.28</v>
       </c>
       <c r="F12" s="22">
-        <v>1195.8499999999999</v>
+        <v>1185.81</v>
       </c>
       <c r="G12" s="22">
-        <v>1178.51</v>
+        <v>1159.77</v>
       </c>
       <c r="H12" s="22">
-        <v>1170.49</v>
+        <v>1171.03</v>
       </c>
       <c r="I12" s="22">
-        <v>1176.1300000000001</v>
+        <v>1207.95</v>
       </c>
       <c r="J12" s="22">
-        <v>1164.77</v>
+        <v>1188.46</v>
       </c>
       <c r="K12" s="22">
-        <v>1182.8599999999999</v>
+        <v>1186.81</v>
       </c>
       <c r="L12" s="22">
-        <v>1186.32</v>
-      </c>
-      <c r="M12" s="46"/>
+        <v>1179.24</v>
+      </c>
+      <c r="M12" s="29"/>
       <c r="N12" s="20" t="s">
         <v>116</v>
       </c>
@@ -3356,7 +3356,7 @@
       <c r="L13" s="22">
         <v>828.93700000000001</v>
       </c>
-      <c r="M13" s="46"/>
+      <c r="M13" s="29"/>
       <c r="N13" s="20" t="s">
         <v>117</v>
       </c>
@@ -3429,7 +3429,7 @@
       <c r="L14" s="22">
         <v>591.55100000000004</v>
       </c>
-      <c r="M14" s="46"/>
+      <c r="M14" s="29"/>
       <c r="N14" s="20" t="s">
         <v>118</v>
       </c>
@@ -3473,36 +3473,36 @@
         <v>1696.94</v>
       </c>
       <c r="C15" s="22">
-        <v>1644.03</v>
+        <v>1660.91</v>
       </c>
       <c r="D15" s="22">
-        <v>1663.02</v>
+        <v>1670.83</v>
       </c>
       <c r="E15" s="22">
-        <v>1667.43</v>
+        <v>1646.17</v>
       </c>
       <c r="F15" s="22">
-        <v>1650.65</v>
+        <v>1652.36</v>
       </c>
       <c r="G15" s="22">
-        <v>1644.78</v>
+        <v>1652.21</v>
       </c>
       <c r="H15" s="22">
-        <v>1659.05</v>
+        <v>1652.21</v>
       </c>
       <c r="I15" s="22">
-        <v>1662.03</v>
+        <v>1667.52</v>
       </c>
       <c r="J15" s="22">
-        <v>1665.56</v>
+        <v>1660.91</v>
       </c>
       <c r="K15" s="22">
-        <v>1642.86</v>
+        <v>1653.44</v>
       </c>
       <c r="L15" s="22">
-        <v>1659.05</v>
-      </c>
-      <c r="M15" s="46"/>
+        <v>1667.34</v>
+      </c>
+      <c r="M15" s="29"/>
       <c r="N15" s="20" t="s">
         <v>119</v>
       </c>
@@ -3546,36 +3546,36 @@
         <v>1406.91</v>
       </c>
       <c r="C16" s="22">
-        <v>1296.73</v>
+        <v>1299.9000000000001</v>
       </c>
       <c r="D16" s="22">
-        <v>1286.5899999999999</v>
+        <v>1296.25</v>
       </c>
       <c r="E16" s="22">
-        <v>1297.0899999999999</v>
+        <v>1284.8699999999999</v>
       </c>
       <c r="F16" s="22">
-        <v>1297.9000000000001</v>
+        <v>1284.29</v>
       </c>
       <c r="G16" s="22">
-        <v>1294.9000000000001</v>
+        <v>1286.81</v>
       </c>
       <c r="H16" s="22">
-        <v>1287.0999999999999</v>
+        <v>1295.51</v>
       </c>
       <c r="I16" s="22">
-        <v>1285.77</v>
+        <v>1265.56</v>
       </c>
       <c r="J16" s="22">
-        <v>1285.72</v>
+        <v>1284.8699999999999</v>
       </c>
       <c r="K16" s="22">
-        <v>1284.29</v>
+        <v>1306.3</v>
       </c>
       <c r="L16" s="22">
-        <v>1293.3699999999999</v>
-      </c>
-      <c r="M16" s="46"/>
+        <v>1300.2</v>
+      </c>
+      <c r="M16" s="29"/>
       <c r="N16" s="20" t="s">
         <v>120</v>
       </c>
@@ -3636,37 +3636,37 @@
       <c r="B18" s="22">
         <v>54793</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C18" s="22">
         <v>54778.400000000001</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D18" s="22">
         <v>55007.8</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="22">
         <v>54778.400000000001</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="22">
         <v>54778.400000000001</v>
       </c>
-      <c r="G18" s="23">
+      <c r="G18" s="22">
         <v>54778.400000000001</v>
       </c>
-      <c r="H18" s="23">
+      <c r="H18" s="22">
         <v>54778.400000000001</v>
       </c>
-      <c r="I18" s="23">
+      <c r="I18" s="22">
         <v>55007.8</v>
       </c>
-      <c r="J18" s="23">
+      <c r="J18" s="22">
         <v>54778.400000000001</v>
       </c>
-      <c r="K18" s="23">
+      <c r="K18" s="22">
         <v>55007.8</v>
       </c>
-      <c r="L18" s="23">
+      <c r="L18" s="22">
         <v>55007.8</v>
       </c>
-      <c r="M18" s="46"/>
+      <c r="M18" s="29"/>
       <c r="N18" s="20" t="s">
         <v>15</v>
       </c>
@@ -3708,37 +3708,37 @@
       <c r="B19" s="23">
         <v>460.4</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C19" s="22">
         <v>473.00900000000001</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D19" s="22">
         <v>463.91399999999999</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="22">
         <v>460.37400000000002</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F19" s="22">
         <v>460.37400000000002</v>
       </c>
-      <c r="G19" s="23">
+      <c r="G19" s="22">
         <v>460.37400000000002</v>
       </c>
-      <c r="H19" s="23">
+      <c r="H19" s="22">
         <v>473.00900000000001</v>
       </c>
-      <c r="I19" s="23">
+      <c r="I19" s="22">
         <v>470.322</v>
       </c>
-      <c r="J19" s="23">
+      <c r="J19" s="22">
         <v>470.21499999999997</v>
       </c>
-      <c r="K19" s="23">
+      <c r="K19" s="22">
         <v>476.06200000000001</v>
       </c>
-      <c r="L19" s="23">
+      <c r="L19" s="22">
         <v>463.91399999999999</v>
       </c>
-      <c r="M19" s="46"/>
+      <c r="M19" s="29"/>
       <c r="N19" s="20" t="s">
         <v>19</v>
       </c>
@@ -3780,37 +3780,37 @@
       <c r="B20" s="23">
         <v>63242</v>
       </c>
-      <c r="C20" s="23">
+      <c r="C20" s="22">
         <v>64119.1</v>
       </c>
-      <c r="D20" s="23">
+      <c r="D20" s="22">
         <v>63215.199999999997</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="22">
         <v>63215.199999999997</v>
       </c>
-      <c r="F20" s="23">
+      <c r="F20" s="22">
         <v>63215.199999999997</v>
       </c>
-      <c r="G20" s="23">
+      <c r="G20" s="22">
         <v>63550.5</v>
       </c>
-      <c r="H20" s="23">
+      <c r="H20" s="22">
         <v>63550.5</v>
       </c>
-      <c r="I20" s="23">
+      <c r="I20" s="22">
         <v>65055.6</v>
       </c>
-      <c r="J20" s="23">
+      <c r="J20" s="22">
         <v>63215.199999999997</v>
       </c>
-      <c r="K20" s="23">
+      <c r="K20" s="22">
         <v>63765</v>
       </c>
-      <c r="L20" s="23">
+      <c r="L20" s="22">
         <v>64319</v>
       </c>
-      <c r="M20" s="46"/>
+      <c r="M20" s="29"/>
       <c r="N20" s="20" t="s">
         <v>16</v>
       </c>
@@ -3852,37 +3852,37 @@
       <c r="B21" s="23">
         <v>355.8</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C21" s="22">
         <v>358.67899999999997</v>
       </c>
-      <c r="D21" s="23">
+      <c r="D21" s="22">
         <v>356.37400000000002</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="22">
         <v>355.78399999999999</v>
       </c>
-      <c r="F21" s="23">
+      <c r="F21" s="22">
         <v>356.02800000000002</v>
       </c>
-      <c r="G21" s="23">
+      <c r="G21" s="22">
         <v>358.67899999999997</v>
       </c>
-      <c r="H21" s="23">
+      <c r="H21" s="22">
         <v>367.15300000000002</v>
       </c>
-      <c r="I21" s="23">
+      <c r="I21" s="22">
         <v>355.78399999999999</v>
       </c>
-      <c r="J21" s="23">
+      <c r="J21" s="22">
         <v>358.20499999999998</v>
       </c>
-      <c r="K21" s="23">
+      <c r="K21" s="22">
         <v>355.78399999999999</v>
       </c>
-      <c r="L21" s="23">
+      <c r="L21" s="22">
         <v>355.78399999999999</v>
       </c>
-      <c r="M21" s="46"/>
+      <c r="M21" s="29"/>
       <c r="N21" s="20" t="s">
         <v>20</v>
       </c>
@@ -3924,37 +3924,37 @@
       <c r="B22" s="23">
         <v>195568</v>
       </c>
-      <c r="C22" s="23">
+      <c r="C22" s="22">
         <v>197087</v>
       </c>
-      <c r="D22" s="23">
+      <c r="D22" s="22">
         <v>194860</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="22">
         <v>195746</v>
       </c>
-      <c r="F22" s="23">
+      <c r="F22" s="22">
         <v>195834</v>
       </c>
-      <c r="G22" s="23">
+      <c r="G22" s="22">
         <v>195218</v>
       </c>
-      <c r="H22" s="23">
+      <c r="H22" s="22">
         <v>196555</v>
       </c>
-      <c r="I22" s="23">
+      <c r="I22" s="22">
         <v>197389</v>
       </c>
-      <c r="J22" s="23">
+      <c r="J22" s="22">
         <v>195570</v>
       </c>
-      <c r="K22" s="23">
+      <c r="K22" s="22">
         <v>196574</v>
       </c>
-      <c r="L22" s="23">
+      <c r="L22" s="22">
         <v>194394</v>
       </c>
-      <c r="M22" s="46"/>
+      <c r="M22" s="29"/>
       <c r="N22" s="20" t="s">
         <v>17</v>
       </c>
@@ -3996,37 +3996,37 @@
       <c r="B23" s="23">
         <v>204335</v>
       </c>
-      <c r="C23" s="23">
+      <c r="C23" s="22">
         <v>205012</v>
       </c>
-      <c r="D23" s="23">
+      <c r="D23" s="22">
         <v>205218</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="22">
         <v>204336</v>
       </c>
-      <c r="F23" s="23">
+      <c r="F23" s="22">
         <v>205051</v>
       </c>
-      <c r="G23" s="23">
+      <c r="G23" s="22">
         <v>210779</v>
       </c>
-      <c r="H23" s="23">
+      <c r="H23" s="22">
         <v>205012</v>
       </c>
-      <c r="I23" s="23">
+      <c r="I23" s="22">
         <v>205012</v>
       </c>
-      <c r="J23" s="23">
+      <c r="J23" s="22">
         <v>203945</v>
       </c>
-      <c r="K23" s="23">
+      <c r="K23" s="22">
         <v>205051</v>
       </c>
-      <c r="L23" s="23">
+      <c r="L23" s="22">
         <v>205012</v>
       </c>
-      <c r="M23" s="46"/>
+      <c r="M23" s="29"/>
       <c r="N23" s="20" t="s">
         <v>18</v>
       </c>
@@ -4068,37 +4068,37 @@
       <c r="B24" s="23">
         <v>842.9</v>
       </c>
-      <c r="C24" s="23">
+      <c r="C24" s="22">
         <v>849.23500000000001</v>
       </c>
-      <c r="D24" s="23">
+      <c r="D24" s="22">
         <v>842.26900000000001</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24" s="22">
         <v>875.36800000000005</v>
       </c>
-      <c r="F24" s="23">
+      <c r="F24" s="22">
         <v>842.26900000000001</v>
       </c>
-      <c r="G24" s="23">
+      <c r="G24" s="22">
         <v>866.279</v>
       </c>
-      <c r="H24" s="23">
+      <c r="H24" s="22">
         <v>853.56700000000001</v>
       </c>
-      <c r="I24" s="23">
+      <c r="I24" s="22">
         <v>872.30499999999995</v>
       </c>
-      <c r="J24" s="23">
+      <c r="J24" s="22">
         <v>836.67700000000002</v>
       </c>
-      <c r="K24" s="23">
+      <c r="K24" s="22">
         <v>864.53099999999995</v>
       </c>
-      <c r="L24" s="23">
+      <c r="L24" s="22">
         <v>847.68600000000004</v>
       </c>
-      <c r="M24" s="46"/>
+      <c r="M24" s="29"/>
       <c r="N24" s="20" t="s">
         <v>21</v>
       </c>
@@ -4140,37 +4140,37 @@
       <c r="B25" s="23">
         <v>5809</v>
       </c>
-      <c r="C25" s="23">
+      <c r="C25" s="22">
         <v>6184.12</v>
       </c>
-      <c r="D25" s="23">
+      <c r="D25" s="22">
         <v>5803.27</v>
       </c>
-      <c r="E25" s="23">
+      <c r="E25" s="22">
         <v>5827.04</v>
       </c>
-      <c r="F25" s="23">
+      <c r="F25" s="22">
         <v>5731.98</v>
       </c>
-      <c r="G25" s="23">
+      <c r="G25" s="22">
         <v>5977.44</v>
       </c>
-      <c r="H25" s="23">
+      <c r="H25" s="22">
         <v>5894.65</v>
       </c>
-      <c r="I25" s="23">
+      <c r="I25" s="22">
         <v>6056.71</v>
       </c>
-      <c r="J25" s="23">
+      <c r="J25" s="22">
         <v>5843.52</v>
       </c>
-      <c r="K25" s="23">
+      <c r="K25" s="22">
         <v>5794.81</v>
       </c>
-      <c r="L25" s="23">
+      <c r="L25" s="22">
         <v>5975.32</v>
       </c>
-      <c r="M25" s="46"/>
+      <c r="M25" s="29"/>
       <c r="N25" s="20" t="s">
         <v>22</v>
       </c>
@@ -4212,37 +4212,37 @@
       <c r="B26" s="23">
         <v>44011.7</v>
       </c>
-      <c r="C26" s="23">
+      <c r="C26" s="22">
         <v>46303</v>
       </c>
-      <c r="D26" s="23">
+      <c r="D26" s="22">
         <v>44004.9</v>
       </c>
-      <c r="E26" s="23">
+      <c r="E26" s="22">
         <v>45092.1</v>
       </c>
-      <c r="F26" s="23">
+      <c r="F26" s="22">
         <v>44941.4</v>
       </c>
-      <c r="G26" s="23">
+      <c r="G26" s="22">
         <v>45416.9</v>
       </c>
-      <c r="H26" s="23">
+      <c r="H26" s="22">
         <v>44545.9</v>
       </c>
-      <c r="I26" s="23">
+      <c r="I26" s="22">
         <v>46564.9</v>
       </c>
-      <c r="J26" s="23">
+      <c r="J26" s="22">
         <v>44797.599999999999</v>
       </c>
-      <c r="K26" s="23">
+      <c r="K26" s="22">
         <v>46501.599999999999</v>
       </c>
-      <c r="L26" s="23">
+      <c r="L26" s="22">
         <v>44905.1</v>
       </c>
-      <c r="M26" s="46"/>
+      <c r="M26" s="29"/>
       <c r="N26" s="20" t="s">
         <v>24</v>
       </c>
@@ -4284,37 +4284,37 @@
       <c r="B27" s="23">
         <v>476684</v>
       </c>
-      <c r="C27" s="23">
+      <c r="C27" s="22">
         <v>476033</v>
       </c>
-      <c r="D27" s="23">
+      <c r="D27" s="22">
         <v>481421</v>
       </c>
-      <c r="E27" s="23">
+      <c r="E27" s="22">
         <v>477300</v>
       </c>
-      <c r="F27" s="23">
+      <c r="F27" s="22">
         <v>484528</v>
       </c>
-      <c r="G27" s="23">
+      <c r="G27" s="22">
         <v>484541</v>
       </c>
-      <c r="H27" s="23">
+      <c r="H27" s="22">
         <v>478512</v>
       </c>
-      <c r="I27" s="23">
+      <c r="I27" s="22">
         <v>479426</v>
       </c>
-      <c r="J27" s="23">
+      <c r="J27" s="22">
         <v>476739</v>
       </c>
-      <c r="K27" s="23">
+      <c r="K27" s="22">
         <v>481865</v>
       </c>
-      <c r="L27" s="23">
+      <c r="L27" s="22">
         <v>482362</v>
       </c>
-      <c r="M27" s="46"/>
+      <c r="M27" s="29"/>
       <c r="N27" s="20" t="s">
         <v>23</v>
       </c>
@@ -4368,8 +4368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348A00D3-4455-4871-A842-3FB0F610BDD7}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.45"/>
@@ -4382,39 +4382,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="41"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="42"/>
     </row>
     <row r="2" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="43" t="s">
+      <c r="E2" s="41"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="44" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="39"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="44"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="45"/>
       <c r="D3" s="3" t="s">
         <v>27</v>
       </c>
@@ -4424,7 +4424,7 @@
       <c r="F3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="34"/>
+      <c r="G3" s="38"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="28" t="s">
@@ -4593,11 +4593,11 @@
       </c>
       <c r="E11" s="6">
         <f>AVERAGE(data!C11:L11) / data!B11 -1</f>
-        <v>-1.5007990083781841E-4</v>
+        <v>4.1074499176674273E-4</v>
       </c>
       <c r="F11" s="6">
         <f>MAX(data!C11:L11) / data!B11 -1</f>
-        <v>5.1221601783946191E-3</v>
+        <v>3.8765577625334835E-3</v>
       </c>
       <c r="G11" s="7">
         <f>AVERAGE(data!O11:X11)</f>
@@ -4617,15 +4617,15 @@
       </c>
       <c r="D12" s="6">
         <f>MIN(data!C12:L12) / data!B12 -1</f>
-        <v>-6.9947379767959839E-2</v>
+        <v>-7.3939810120012384E-2</v>
       </c>
       <c r="E12" s="6">
         <f>AVERAGE(data!C12:L12) / data!B12 -1</f>
-        <v>-5.9383409056428915E-2</v>
+        <v>-5.613916015235132E-2</v>
       </c>
       <c r="F12" s="6">
         <f>MAX(data!C12:L12) / data!B12 -1</f>
-        <v>-4.5130432699601597E-2</v>
+        <v>-3.5061523351724966E-2</v>
       </c>
       <c r="G12" s="7">
         <f>AVERAGE(data!O12:X12)</f>
@@ -4701,15 +4701,15 @@
       </c>
       <c r="D15" s="6">
         <f>MIN(data!C15:L15) / data!B15 -1</f>
-        <v>-3.1869129138331398E-2</v>
+        <v>-2.9918559289073277E-2</v>
       </c>
       <c r="E15" s="6">
         <f>AVERAGE(data!C15:L15) / data!B15 -1</f>
-        <v>-2.4216530932148372E-2</v>
+        <v>-2.2717361839546535E-2</v>
       </c>
       <c r="F15" s="6">
         <f>MAX(data!C15:L15) / data!B15 -1</f>
-        <v>-1.7390125755772146E-2</v>
+        <v>-1.5386519264087184E-2</v>
       </c>
       <c r="G15" s="7">
         <f>AVERAGE(data!O15:X15)</f>
@@ -4729,15 +4729,15 @@
       </c>
       <c r="D16" s="6">
         <f>MIN(data!C16:L16) / data!B16 -1</f>
-        <v>-8.7155539444598529E-2</v>
+        <v>-0.10046840238536947</v>
       </c>
       <c r="E16" s="6">
         <f>AVERAGE(data!C16:L16) / data!B16 -1</f>
-        <v>-8.2424604274616065E-2</v>
+        <v>-8.2772885259185358E-2</v>
       </c>
       <c r="F16" s="6">
         <f>MAX(data!C16:L16) / data!B16 -1</f>
-        <v>-7.748185740381397E-2</v>
+        <v>-7.1511326239773743E-2</v>
       </c>
       <c r="G16" s="7">
         <f>AVERAGE(data!O16:X16)</f>

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research\dev\LRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B655D6B-3B43-4ACC-A019-155C91006D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52206DD4-8765-404E-A15B-AFBA906939D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="2" r:id="rId1"/>
@@ -423,7 +423,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -471,13 +471,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="JuliaMono"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="JuliaMono"/>
       <family val="3"/>
@@ -707,7 +700,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -724,15 +717,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -745,7 +729,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -769,9 +753,9 @@
     <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1110,10 +1094,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5551421D-4FE7-47B7-A546-15E7A05240A9}">
-  <dimension ref="A1:N286"/>
+  <dimension ref="A1:N285"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1123,258 +1107,265 @@
     <col min="12" max="16384" width="9.1796875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10"/>
+    <row r="1" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>3</v>
+      </c>
       <c r="B1" s="11"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-    </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-    </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="19" t="s">
+      <c r="C1" s="11"/>
+    </row>
+    <row r="2" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B2" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-    </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="19" t="s">
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B3" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-    </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="19" t="s">
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+    </row>
+    <row r="4" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B4" s="16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-    </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="13" t="s">
+    <row r="5" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+    </row>
+    <row r="6" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="14"/>
-    </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="19" t="s">
+      <c r="B6" s="11"/>
+    </row>
+    <row r="7" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B7" s="16" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="19" t="s">
+    <row r="8" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B8" s="16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-    </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="13" t="s">
+    <row r="9" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+    </row>
+    <row r="10" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="14"/>
-    </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="19" t="s">
+      <c r="B10" s="11"/>
+    </row>
+    <row r="11" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B11" s="16" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="19" t="s">
+    <row r="12" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B12" s="16" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="19" t="s">
+    <row r="13" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="16" t="s">
         <v>14</v>
       </c>
+      <c r="B13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="16" t="s">
+        <v>29</v>
+      </c>
       <c r="B14" s="1" t="s">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="16"/>
+    <row r="15" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="13"/>
+    </row>
+    <row r="16" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="16"/>
+      <c r="A17" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="13"/>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B18" s="16"/>
+        <v>58</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
       <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="F19" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
     <row r="20" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
+      <c r="K21" s="27"/>
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="K22" s="30"/>
+      <c r="K22" s="28"/>
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="K23" s="31"/>
+      <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -1385,7 +1376,7 @@
     </row>
     <row r="26" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1395,14 +1386,14 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="K26" s="1"/>
+      <c r="K26" s="16"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1412,14 +1403,13 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="K27" s="19"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
     <row r="28" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1435,7 +1425,7 @@
     </row>
     <row r="29" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1451,7 +1441,7 @@
     </row>
     <row r="30" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1467,7 +1457,7 @@
     </row>
     <row r="31" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1483,7 +1473,7 @@
     </row>
     <row r="32" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1499,7 +1489,7 @@
     </row>
     <row r="33" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1515,7 +1505,7 @@
     </row>
     <row r="34" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1531,7 +1521,7 @@
     </row>
     <row r="35" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1547,7 +1537,7 @@
     </row>
     <row r="36" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1563,31 +1553,32 @@
     </row>
     <row r="37" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
+      <c r="F37" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
+      <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
     <row r="38" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -1598,7 +1589,7 @@
     </row>
     <row r="39" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1615,7 +1606,7 @@
     </row>
     <row r="40" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1632,7 +1623,7 @@
     </row>
     <row r="41" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1649,7 +1640,7 @@
     </row>
     <row r="42" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1666,7 +1657,7 @@
     </row>
     <row r="43" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1683,32 +1674,30 @@
     </row>
     <row r="44" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
+      <c r="F44" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
     </row>
     <row r="45" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -1717,7 +1706,7 @@
     </row>
     <row r="46" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1732,7 +1721,7 @@
     </row>
     <row r="47" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1747,7 +1736,7 @@
     </row>
     <row r="48" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1762,7 +1751,7 @@
     </row>
     <row r="49" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1777,7 +1766,7 @@
     </row>
     <row r="50" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1792,7 +1781,7 @@
     </row>
     <row r="51" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -1806,14 +1795,16 @@
       <c r="L51" s="1"/>
     </row>
     <row r="52" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="1" t="s">
-        <v>47</v>
+      <c r="A52" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
+      <c r="F52" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
@@ -1821,15 +1812,15 @@
       <c r="L52" s="1"/>
     </row>
     <row r="53" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="19" t="s">
-        <v>59</v>
+      <c r="A53" s="16" t="s">
+        <v>60</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
@@ -1838,32 +1829,31 @@
       <c r="L53" s="1"/>
     </row>
     <row r="54" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="19" t="s">
-        <v>60</v>
+      <c r="A54" s="16" t="s">
+        <v>61</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-      <c r="K54" s="1"/>
       <c r="L54" s="1"/>
     </row>
     <row r="55" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="19" t="s">
-        <v>61</v>
+      <c r="A55" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
@@ -1871,15 +1861,15 @@
       <c r="L55" s="1"/>
     </row>
     <row r="56" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="19" t="s">
-        <v>64</v>
+      <c r="A56" s="16" t="s">
+        <v>104</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
@@ -1887,15 +1877,15 @@
       <c r="L56" s="1"/>
     </row>
     <row r="57" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="19" t="s">
-        <v>104</v>
+      <c r="A57" s="16" t="s">
+        <v>65</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
@@ -1903,15 +1893,15 @@
       <c r="L57" s="1"/>
     </row>
     <row r="58" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="19" t="s">
-        <v>65</v>
+      <c r="A58" s="16" t="s">
+        <v>105</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
@@ -1919,683 +1909,667 @@
       <c r="L58" s="1"/>
     </row>
     <row r="59" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="19" t="s">
-        <v>105</v>
+      <c r="A59" s="16" t="s">
+        <v>96</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-      <c r="L59" s="1"/>
     </row>
     <row r="60" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="19" t="s">
-        <v>96</v>
+      <c r="A60" s="16" t="s">
+        <v>62</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
     <row r="61" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="19" t="s">
-        <v>62</v>
+      <c r="A61" s="16" t="s">
+        <v>63</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
     </row>
     <row r="62" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="19" t="s">
-        <v>63</v>
+      <c r="A62" s="16" t="s">
+        <v>93</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
+      <c r="L62" s="1"/>
     </row>
     <row r="63" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="19" t="s">
-        <v>93</v>
+      <c r="A63" s="16" t="s">
+        <v>95</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
-      <c r="L63" s="1"/>
+      <c r="J63" s="1"/>
     </row>
     <row r="64" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="19" t="s">
-        <v>95</v>
+      <c r="A64" s="16" t="s">
+        <v>66</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
       <c r="J64" s="1"/>
-    </row>
-    <row r="65" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
-    </row>
-    <row r="66" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="19"/>
-    </row>
-    <row r="67" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="19"/>
-      <c r="J67" s="18"/>
-    </row>
-    <row r="68" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="19"/>
-    </row>
-    <row r="69" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K64" s="1"/>
+    </row>
+    <row r="65" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="16"/>
+    </row>
+    <row r="66" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="16"/>
+      <c r="J66" s="15"/>
+    </row>
+    <row r="67" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="16"/>
+    </row>
+    <row r="68" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="1"/>
+      <c r="J68" s="15"/>
+    </row>
+    <row r="69" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1"/>
-      <c r="J69" s="18"/>
-    </row>
-    <row r="70" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J69" s="15"/>
+    </row>
+    <row r="70" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1"/>
-      <c r="J70" s="18"/>
-    </row>
-    <row r="71" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="1"/>
-      <c r="J71" s="18"/>
-    </row>
-    <row r="72" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J72" s="18"/>
-    </row>
-    <row r="74" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J74" s="18"/>
-    </row>
-    <row r="75" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J75" s="18"/>
-    </row>
-    <row r="76" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J76" s="18"/>
+      <c r="J70" s="15"/>
+    </row>
+    <row r="71" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J71" s="15"/>
+    </row>
+    <row r="73" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J73" s="15"/>
+    </row>
+    <row r="74" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J74" s="15"/>
+    </row>
+    <row r="75" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J75" s="15"/>
+    </row>
+    <row r="108" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B108" s="13"/>
     </row>
     <row r="109" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B109" s="16"/>
+      <c r="B109" s="13"/>
     </row>
     <row r="110" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B110" s="16"/>
+      <c r="B110" s="13"/>
     </row>
     <row r="111" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B111" s="16"/>
+      <c r="B111" s="13"/>
     </row>
     <row r="112" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B112" s="16"/>
+      <c r="B112" s="13"/>
     </row>
     <row r="113" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B113" s="16"/>
+      <c r="B113" s="13"/>
     </row>
     <row r="114" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B114" s="16"/>
+      <c r="B114" s="13"/>
     </row>
     <row r="115" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B115" s="16"/>
+      <c r="B115" s="13"/>
     </row>
     <row r="116" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B116" s="16"/>
+      <c r="B116" s="13"/>
     </row>
     <row r="117" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B117" s="16"/>
+      <c r="B117" s="13"/>
     </row>
     <row r="118" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B118" s="16"/>
+      <c r="B118" s="13"/>
     </row>
     <row r="119" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B119" s="16"/>
+      <c r="B119" s="13"/>
     </row>
     <row r="120" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B120" s="16"/>
+      <c r="B120" s="13"/>
     </row>
     <row r="121" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B121" s="16"/>
+      <c r="B121" s="13"/>
     </row>
     <row r="122" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B122" s="16"/>
+      <c r="B122" s="13"/>
     </row>
     <row r="123" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B123" s="16"/>
+      <c r="B123" s="13"/>
     </row>
     <row r="124" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B124" s="16"/>
+      <c r="B124" s="13"/>
     </row>
     <row r="125" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B125" s="16"/>
+      <c r="B125" s="13"/>
     </row>
     <row r="126" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B126" s="16"/>
+      <c r="B126" s="13"/>
     </row>
     <row r="127" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B127" s="16"/>
+      <c r="B127" s="13"/>
     </row>
     <row r="128" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B128" s="16"/>
+      <c r="B128" s="13"/>
     </row>
     <row r="129" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B129" s="16"/>
+      <c r="B129" s="13"/>
     </row>
     <row r="130" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B130" s="16"/>
+      <c r="B130" s="13"/>
     </row>
     <row r="131" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B131" s="16"/>
+      <c r="B131" s="13"/>
     </row>
     <row r="132" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B132" s="16"/>
+      <c r="B132" s="13"/>
     </row>
     <row r="133" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B133" s="16"/>
+      <c r="B133" s="13"/>
     </row>
     <row r="134" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B134" s="16"/>
+      <c r="B134" s="13"/>
     </row>
     <row r="135" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B135" s="16"/>
+      <c r="B135" s="13"/>
     </row>
     <row r="136" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B136" s="16"/>
+      <c r="B136" s="13"/>
     </row>
     <row r="137" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B137" s="16"/>
+      <c r="B137" s="13"/>
     </row>
     <row r="138" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B138" s="16"/>
+      <c r="B138" s="13"/>
     </row>
     <row r="139" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B139" s="16"/>
+      <c r="B139" s="13"/>
     </row>
     <row r="140" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B140" s="16"/>
+      <c r="B140" s="13"/>
     </row>
     <row r="141" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B141" s="16"/>
+      <c r="B141" s="13"/>
     </row>
     <row r="142" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B142" s="16"/>
+      <c r="B142" s="13"/>
     </row>
     <row r="143" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B143" s="16"/>
+      <c r="B143" s="13"/>
     </row>
     <row r="144" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B144" s="16"/>
+      <c r="B144" s="13"/>
     </row>
     <row r="145" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B145" s="16"/>
+      <c r="B145" s="13"/>
     </row>
     <row r="146" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B146" s="16"/>
+      <c r="B146" s="13"/>
     </row>
     <row r="147" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B147" s="16"/>
+      <c r="B147" s="13"/>
     </row>
     <row r="148" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B148" s="16"/>
+      <c r="B148" s="13"/>
     </row>
     <row r="149" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B149" s="16"/>
+      <c r="B149" s="13"/>
     </row>
     <row r="150" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B150" s="16"/>
+      <c r="B150" s="13"/>
     </row>
     <row r="151" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B151" s="16"/>
+      <c r="B151" s="13"/>
     </row>
     <row r="152" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B152" s="16"/>
+      <c r="B152" s="13"/>
     </row>
     <row r="153" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B153" s="16"/>
+      <c r="B153" s="13"/>
     </row>
     <row r="154" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B154" s="16"/>
+      <c r="B154" s="13"/>
     </row>
     <row r="155" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B155" s="16"/>
+      <c r="B155" s="13"/>
     </row>
     <row r="156" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B156" s="16"/>
+      <c r="B156" s="13"/>
     </row>
     <row r="157" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B157" s="16"/>
+      <c r="B157" s="13"/>
     </row>
     <row r="158" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B158" s="16"/>
+      <c r="B158" s="13"/>
     </row>
     <row r="159" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B159" s="16"/>
+      <c r="B159" s="13"/>
     </row>
     <row r="160" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B160" s="16"/>
+      <c r="B160" s="13"/>
     </row>
     <row r="161" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B161" s="16"/>
+      <c r="B161" s="13"/>
     </row>
     <row r="162" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B162" s="16"/>
+      <c r="B162" s="13"/>
     </row>
     <row r="163" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B163" s="16"/>
+      <c r="B163" s="13"/>
     </row>
     <row r="164" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B164" s="16"/>
+      <c r="B164" s="13"/>
     </row>
     <row r="165" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B165" s="16"/>
+      <c r="B165" s="13"/>
     </row>
     <row r="166" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B166" s="16"/>
+      <c r="B166" s="13"/>
     </row>
     <row r="167" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B167" s="16"/>
+      <c r="B167" s="13"/>
     </row>
     <row r="168" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B168" s="16"/>
+      <c r="B168" s="13"/>
     </row>
     <row r="169" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B169" s="16"/>
+      <c r="B169" s="13"/>
     </row>
     <row r="170" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B170" s="16"/>
+      <c r="B170" s="13"/>
     </row>
     <row r="171" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B171" s="16"/>
+      <c r="B171" s="13"/>
     </row>
     <row r="172" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B172" s="16"/>
+      <c r="B172" s="13"/>
     </row>
     <row r="173" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B173" s="16"/>
+      <c r="B173" s="13"/>
     </row>
     <row r="174" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B174" s="16"/>
+      <c r="B174" s="13"/>
     </row>
     <row r="175" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B175" s="16"/>
+      <c r="B175" s="13"/>
     </row>
     <row r="176" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B176" s="16"/>
+      <c r="B176" s="13"/>
     </row>
     <row r="177" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B177" s="16"/>
+      <c r="B177" s="13"/>
     </row>
     <row r="178" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B178" s="16"/>
+      <c r="B178" s="13"/>
     </row>
     <row r="179" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B179" s="16"/>
+      <c r="B179" s="13"/>
     </row>
     <row r="180" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B180" s="16"/>
+      <c r="B180" s="13"/>
     </row>
     <row r="181" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B181" s="16"/>
+      <c r="B181" s="13"/>
     </row>
     <row r="182" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B182" s="16"/>
+      <c r="B182" s="13"/>
     </row>
     <row r="183" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B183" s="16"/>
+      <c r="B183" s="13"/>
     </row>
     <row r="184" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B184" s="16"/>
+      <c r="B184" s="13"/>
     </row>
     <row r="185" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B185" s="16"/>
+      <c r="B185" s="13"/>
     </row>
     <row r="186" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B186" s="16"/>
+      <c r="B186" s="13"/>
     </row>
     <row r="187" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B187" s="16"/>
+      <c r="B187" s="13"/>
     </row>
     <row r="188" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B188" s="16"/>
+      <c r="B188" s="13"/>
     </row>
     <row r="189" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B189" s="16"/>
+      <c r="B189" s="13"/>
     </row>
     <row r="190" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B190" s="16"/>
+      <c r="B190" s="13"/>
     </row>
     <row r="191" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B191" s="16"/>
+      <c r="B191" s="13"/>
     </row>
     <row r="192" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B192" s="16"/>
+      <c r="B192" s="13"/>
     </row>
     <row r="193" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B193" s="16"/>
+      <c r="B193" s="13"/>
     </row>
     <row r="194" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B194" s="16"/>
+      <c r="B194" s="13"/>
     </row>
     <row r="195" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B195" s="16"/>
+      <c r="B195" s="13"/>
     </row>
     <row r="196" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B196" s="16"/>
+      <c r="B196" s="13"/>
     </row>
     <row r="197" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B197" s="16"/>
+      <c r="B197" s="13"/>
     </row>
     <row r="198" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B198" s="16"/>
+      <c r="B198" s="13"/>
     </row>
     <row r="199" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B199" s="16"/>
+      <c r="B199" s="13"/>
     </row>
     <row r="200" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B200" s="16"/>
+      <c r="B200" s="13"/>
     </row>
     <row r="201" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B201" s="16"/>
+      <c r="B201" s="13"/>
     </row>
     <row r="202" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B202" s="16"/>
+      <c r="B202" s="13"/>
     </row>
     <row r="203" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B203" s="16"/>
+      <c r="B203" s="13"/>
     </row>
     <row r="204" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B204" s="16"/>
+      <c r="B204" s="13"/>
     </row>
     <row r="205" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B205" s="16"/>
+      <c r="B205" s="13"/>
     </row>
     <row r="206" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B206" s="16"/>
+      <c r="B206" s="13"/>
     </row>
     <row r="207" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B207" s="16"/>
+      <c r="B207" s="13"/>
     </row>
     <row r="208" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B208" s="16"/>
+      <c r="B208" s="13"/>
     </row>
     <row r="209" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B209" s="16"/>
+      <c r="B209" s="13"/>
     </row>
     <row r="210" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B210" s="16"/>
+      <c r="B210" s="13"/>
     </row>
     <row r="211" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B211" s="16"/>
+      <c r="B211" s="13"/>
     </row>
     <row r="212" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B212" s="16"/>
+      <c r="B212" s="13"/>
     </row>
     <row r="213" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B213" s="16"/>
+      <c r="B213" s="13"/>
     </row>
     <row r="214" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B214" s="16"/>
+      <c r="B214" s="13"/>
     </row>
     <row r="215" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B215" s="16"/>
+      <c r="B215" s="13"/>
     </row>
     <row r="216" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B216" s="16"/>
+      <c r="B216" s="13"/>
     </row>
     <row r="217" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B217" s="16"/>
+      <c r="B217" s="13"/>
     </row>
     <row r="218" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B218" s="16"/>
+      <c r="B218" s="13"/>
     </row>
     <row r="219" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B219" s="16"/>
+      <c r="B219" s="13"/>
     </row>
     <row r="220" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B220" s="16"/>
+      <c r="B220" s="13"/>
     </row>
     <row r="221" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B221" s="16"/>
+      <c r="B221" s="13"/>
     </row>
     <row r="222" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B222" s="16"/>
+      <c r="B222" s="13"/>
     </row>
     <row r="223" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B223" s="16"/>
+      <c r="B223" s="13"/>
     </row>
     <row r="224" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B224" s="16"/>
+      <c r="B224" s="13"/>
     </row>
     <row r="225" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B225" s="16"/>
+      <c r="B225" s="13"/>
     </row>
     <row r="226" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B226" s="16"/>
+      <c r="B226" s="13"/>
     </row>
     <row r="227" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B227" s="16"/>
+      <c r="B227" s="13"/>
     </row>
     <row r="228" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B228" s="16"/>
+      <c r="B228" s="13"/>
     </row>
     <row r="229" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B229" s="16"/>
+      <c r="B229" s="13"/>
     </row>
     <row r="230" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B230" s="16"/>
+      <c r="B230" s="13"/>
     </row>
     <row r="231" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B231" s="16"/>
+      <c r="B231" s="13"/>
     </row>
     <row r="232" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B232" s="16"/>
+      <c r="B232" s="13"/>
     </row>
     <row r="233" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B233" s="16"/>
+      <c r="B233" s="13"/>
     </row>
     <row r="234" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B234" s="16"/>
+      <c r="B234" s="13"/>
     </row>
     <row r="235" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B235" s="16"/>
+      <c r="B235" s="13"/>
     </row>
     <row r="236" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B236" s="16"/>
+      <c r="B236" s="13"/>
     </row>
     <row r="237" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B237" s="16"/>
+      <c r="B237" s="13"/>
     </row>
     <row r="238" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B238" s="16"/>
+      <c r="B238" s="13"/>
     </row>
     <row r="239" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B239" s="16"/>
+      <c r="B239" s="13"/>
     </row>
     <row r="240" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B240" s="16"/>
+      <c r="B240" s="13"/>
     </row>
     <row r="241" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B241" s="16"/>
+      <c r="B241" s="13"/>
     </row>
     <row r="242" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B242" s="16"/>
+      <c r="B242" s="13"/>
     </row>
     <row r="243" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B243" s="16"/>
+      <c r="B243" s="13"/>
     </row>
     <row r="244" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B244" s="16"/>
+      <c r="B244" s="13"/>
     </row>
     <row r="245" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B245" s="16"/>
+      <c r="B245" s="13"/>
     </row>
     <row r="246" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B246" s="16"/>
+      <c r="B246" s="13"/>
     </row>
     <row r="247" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B247" s="16"/>
+      <c r="B247" s="13"/>
     </row>
     <row r="248" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B248" s="16"/>
+      <c r="B248" s="13"/>
     </row>
     <row r="249" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B249" s="16"/>
+      <c r="B249" s="13"/>
     </row>
     <row r="250" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B250" s="16"/>
+      <c r="B250" s="13"/>
     </row>
     <row r="251" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B251" s="16"/>
+      <c r="B251" s="13"/>
     </row>
     <row r="252" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B252" s="16"/>
+      <c r="B252" s="13"/>
     </row>
     <row r="253" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B253" s="16"/>
+      <c r="B253" s="13"/>
     </row>
     <row r="254" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B254" s="16"/>
+      <c r="B254" s="13"/>
     </row>
     <row r="255" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B255" s="16"/>
+      <c r="B255" s="13"/>
     </row>
     <row r="256" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B256" s="16"/>
+      <c r="B256" s="13"/>
     </row>
     <row r="257" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B257" s="16"/>
+      <c r="B257" s="13"/>
     </row>
     <row r="258" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B258" s="16"/>
+      <c r="B258" s="13"/>
     </row>
     <row r="259" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B259" s="16"/>
+      <c r="B259" s="13"/>
     </row>
     <row r="260" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B260" s="16"/>
+      <c r="B260" s="13"/>
     </row>
     <row r="261" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B261" s="16"/>
+      <c r="B261" s="13"/>
     </row>
     <row r="262" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B262" s="16"/>
+      <c r="B262" s="13"/>
     </row>
     <row r="263" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B263" s="16"/>
+      <c r="B263" s="13"/>
     </row>
     <row r="264" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B264" s="16"/>
+      <c r="B264" s="13"/>
     </row>
     <row r="265" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B265" s="16"/>
+      <c r="B265" s="13"/>
     </row>
     <row r="266" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B266" s="16"/>
+      <c r="B266" s="13"/>
     </row>
     <row r="267" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B267" s="16"/>
+      <c r="B267" s="13"/>
     </row>
     <row r="268" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B268" s="16"/>
+      <c r="B268" s="13"/>
     </row>
     <row r="269" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B269" s="16"/>
+      <c r="B269" s="13"/>
     </row>
     <row r="270" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B270" s="16"/>
+      <c r="B270" s="13"/>
     </row>
     <row r="271" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B271" s="16"/>
+      <c r="B271" s="13"/>
     </row>
     <row r="272" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B272" s="16"/>
+      <c r="B272" s="13"/>
     </row>
     <row r="273" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B273" s="16"/>
+      <c r="B273" s="13"/>
     </row>
     <row r="274" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B274" s="16"/>
+      <c r="B274" s="13"/>
     </row>
     <row r="275" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B275" s="16"/>
+      <c r="B275" s="13"/>
     </row>
     <row r="276" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B276" s="16"/>
+      <c r="B276" s="13"/>
     </row>
     <row r="277" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B277" s="16"/>
+      <c r="B277" s="13"/>
     </row>
     <row r="278" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B278" s="16"/>
+      <c r="B278" s="13"/>
     </row>
     <row r="279" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B279" s="16"/>
+      <c r="B279" s="13"/>
     </row>
     <row r="280" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B280" s="16"/>
+      <c r="B280" s="13"/>
     </row>
     <row r="281" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B281" s="16"/>
+      <c r="B281" s="13"/>
     </row>
     <row r="282" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B282" s="16"/>
+      <c r="B282" s="13"/>
     </row>
     <row r="283" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B283" s="16"/>
+      <c r="B283" s="13"/>
     </row>
     <row r="284" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B284" s="16"/>
+      <c r="B284" s="13"/>
     </row>
     <row r="285" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B285" s="16"/>
-    </row>
-    <row r="286" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B286" s="16"/>
+      <c r="B285" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="K21:K22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2606,1749 +2580,1749 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16226786-0325-4223-91E5-2589AE0E8571}">
   <dimension ref="A1:AH27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.453125" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="13" width="8.7265625" style="20"/>
-    <col min="14" max="14" width="17.453125" style="20" bestFit="1" customWidth="1"/>
-    <col min="15" max="24" width="8.54296875" style="20" customWidth="1"/>
-    <col min="25" max="16384" width="8.7265625" style="20"/>
+    <col min="1" max="1" width="17.453125" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="13" width="8.7265625" style="17"/>
+    <col min="14" max="14" width="17.453125" style="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="24" width="8.54296875" style="17" customWidth="1"/>
+    <col min="25" max="16384" width="8.7265625" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="36"/>
-      <c r="N1" s="39" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="33"/>
+      <c r="N1" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="36"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="33"/>
     </row>
     <row r="2" spans="1:34" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="34"/>
-      <c r="N2" s="37" t="s">
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="31"/>
+      <c r="N2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="O2" s="32" t="s">
+      <c r="O2" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33"/>
-      <c r="X2" s="34"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="31"/>
     </row>
     <row r="3" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="36"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="21">
+      <c r="A3" s="33"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="18">
         <v>1010</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="18">
         <v>1106</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="18">
         <v>1509</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="18">
         <v>1604</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="18">
         <v>1905</v>
       </c>
-      <c r="H3" s="21">
+      <c r="H3" s="18">
         <v>2104</v>
       </c>
-      <c r="I3" s="21">
+      <c r="I3" s="18">
         <v>2412</v>
       </c>
-      <c r="J3" s="21">
+      <c r="J3" s="18">
         <v>2703</v>
       </c>
-      <c r="K3" s="21">
+      <c r="K3" s="18">
         <v>2710</v>
       </c>
-      <c r="L3" s="21">
+      <c r="L3" s="18">
         <v>2807</v>
       </c>
-      <c r="N3" s="38"/>
-      <c r="O3" s="21">
+      <c r="N3" s="35"/>
+      <c r="O3" s="18">
         <v>1010</v>
       </c>
-      <c r="P3" s="21">
+      <c r="P3" s="18">
         <v>1106</v>
       </c>
-      <c r="Q3" s="21">
+      <c r="Q3" s="18">
         <v>1509</v>
       </c>
-      <c r="R3" s="21">
+      <c r="R3" s="18">
         <v>1604</v>
       </c>
-      <c r="S3" s="21">
+      <c r="S3" s="18">
         <v>1905</v>
       </c>
-      <c r="T3" s="21">
+      <c r="T3" s="18">
         <v>2104</v>
       </c>
-      <c r="U3" s="21">
+      <c r="U3" s="18">
         <v>2412</v>
       </c>
-      <c r="V3" s="21">
+      <c r="V3" s="18">
         <v>2703</v>
       </c>
-      <c r="W3" s="21">
+      <c r="W3" s="18">
         <v>2710</v>
       </c>
-      <c r="X3" s="21">
+      <c r="X3" s="18">
         <v>2807</v>
       </c>
     </row>
     <row r="4" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="N4" s="28" t="s">
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="N4" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
-      <c r="V4" s="25"/>
-      <c r="W4" s="25"/>
-      <c r="X4" s="25"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="22">
         <v>820</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="19">
         <v>819.55799999999999</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="19">
         <v>819.55799999999999</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="19">
         <v>819.55799999999999</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="19">
         <v>819.55799999999999</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="19">
         <v>819.55799999999999</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="19">
         <v>837.81</v>
       </c>
-      <c r="I5" s="22">
+      <c r="I5" s="19">
         <v>819.55799999999999</v>
       </c>
-      <c r="J5" s="22">
+      <c r="J5" s="19">
         <v>819.55799999999999</v>
       </c>
-      <c r="K5" s="22">
+      <c r="K5" s="19">
         <v>821.11</v>
       </c>
-      <c r="L5" s="22">
+      <c r="L5" s="19">
         <v>819.55799999999999</v>
       </c>
-      <c r="M5" s="29"/>
-      <c r="N5" s="20" t="s">
+      <c r="M5" s="26"/>
+      <c r="N5" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="O5" s="22">
+      <c r="O5" s="19">
         <v>19.015000000000001</v>
       </c>
-      <c r="P5" s="22">
+      <c r="P5" s="19">
         <v>19.015999999999998</v>
       </c>
-      <c r="Q5" s="22">
+      <c r="Q5" s="19">
         <v>18.827000000000002</v>
       </c>
-      <c r="R5" s="22">
+      <c r="R5" s="19">
         <v>18.937999999999999</v>
       </c>
-      <c r="S5" s="22">
+      <c r="S5" s="19">
         <v>18.984000000000002</v>
       </c>
-      <c r="T5" s="22">
+      <c r="T5" s="19">
         <v>19</v>
       </c>
-      <c r="U5" s="22">
+      <c r="U5" s="19">
         <v>19.219000000000001</v>
       </c>
-      <c r="V5" s="22">
+      <c r="V5" s="19">
         <v>19.140999999999998</v>
       </c>
-      <c r="W5" s="22">
+      <c r="W5" s="19">
         <v>19.297000000000001</v>
       </c>
-      <c r="X5" s="22">
+      <c r="X5" s="19">
         <v>19.375</v>
       </c>
-      <c r="AH5" s="24"/>
+      <c r="AH5" s="21"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="22">
         <v>3055.23</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="19">
         <v>3188.06</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="19">
         <v>3076.86</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="19">
         <v>3059.54</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="19">
         <v>3063.73</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="19">
         <v>3093.56</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="19">
         <v>3146.92</v>
       </c>
-      <c r="I6" s="22">
+      <c r="I6" s="19">
         <v>3232.37</v>
       </c>
-      <c r="J6" s="22">
+      <c r="J6" s="19">
         <v>3175.25</v>
       </c>
-      <c r="K6" s="22">
+      <c r="K6" s="19">
         <v>3084.16</v>
       </c>
-      <c r="L6" s="22">
+      <c r="L6" s="19">
         <v>3182.24</v>
       </c>
-      <c r="M6" s="29"/>
-      <c r="N6" s="20" t="s">
+      <c r="M6" s="26"/>
+      <c r="N6" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="O6" s="22">
+      <c r="O6" s="19">
         <v>49.703000000000003</v>
       </c>
-      <c r="P6" s="22">
+      <c r="P6" s="19">
         <v>49.140999999999998</v>
       </c>
-      <c r="Q6" s="22">
+      <c r="Q6" s="19">
         <v>48.874000000000002</v>
       </c>
-      <c r="R6" s="22">
+      <c r="R6" s="19">
         <v>49.046999999999997</v>
       </c>
-      <c r="S6" s="22">
+      <c r="S6" s="19">
         <v>49.781999999999996</v>
       </c>
-      <c r="T6" s="22">
+      <c r="T6" s="19">
         <v>48.734000000000002</v>
       </c>
-      <c r="U6" s="22">
+      <c r="U6" s="19">
         <v>48.734000000000002</v>
       </c>
-      <c r="V6" s="22">
+      <c r="V6" s="19">
         <v>49.061999999999998</v>
       </c>
-      <c r="W6" s="22">
+      <c r="W6" s="19">
         <v>49.045999999999999</v>
       </c>
-      <c r="X6" s="22">
+      <c r="X6" s="19">
         <v>49.015999999999998</v>
       </c>
-      <c r="AH6" s="24"/>
+      <c r="AH6" s="21"/>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="22">
         <v>1395.85</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="19">
         <v>1343.94</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="19">
         <v>1329.82</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="19">
         <v>1341.83</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="19">
         <v>1323.33</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="19">
         <v>1338.42</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H7" s="19">
         <v>1339.31</v>
       </c>
-      <c r="I7" s="22">
+      <c r="I7" s="19">
         <v>1337.85</v>
       </c>
-      <c r="J7" s="22">
+      <c r="J7" s="19">
         <v>1362.31</v>
       </c>
-      <c r="K7" s="22">
+      <c r="K7" s="19">
         <v>1350.24</v>
       </c>
-      <c r="L7" s="22">
+      <c r="L7" s="19">
         <v>1367.12</v>
       </c>
-      <c r="M7" s="29"/>
-      <c r="N7" s="20" t="s">
+      <c r="M7" s="26"/>
+      <c r="N7" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="O7" s="22">
+      <c r="O7" s="19">
         <v>81.828000000000003</v>
       </c>
-      <c r="P7" s="22">
+      <c r="P7" s="19">
         <v>81.125</v>
       </c>
-      <c r="Q7" s="22">
+      <c r="Q7" s="19">
         <v>80.625</v>
       </c>
-      <c r="R7" s="22">
+      <c r="R7" s="19">
         <v>80.858999999999995</v>
       </c>
-      <c r="S7" s="22">
+      <c r="S7" s="19">
         <v>80.953000000000003</v>
       </c>
-      <c r="T7" s="22">
+      <c r="T7" s="19">
         <v>81.781999999999996</v>
       </c>
-      <c r="U7" s="22">
+      <c r="U7" s="19">
         <v>81.186999999999998</v>
       </c>
-      <c r="V7" s="22">
+      <c r="V7" s="19">
         <v>81.423000000000002</v>
       </c>
-      <c r="W7" s="22">
+      <c r="W7" s="19">
         <v>81.076999999999998</v>
       </c>
-      <c r="X7" s="22">
+      <c r="X7" s="19">
         <v>80.656000000000006</v>
       </c>
-      <c r="AH7" s="24"/>
+      <c r="AH7" s="21"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="22">
         <v>38684</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="19">
         <v>40113.5</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="19">
         <v>40253.9</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="19">
         <v>39834</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="19">
         <v>39885</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="19">
         <v>40217.199999999997</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H8" s="19">
         <v>39922.800000000003</v>
       </c>
-      <c r="I8" s="22">
+      <c r="I8" s="19">
         <v>40283.1</v>
       </c>
-      <c r="J8" s="22">
+      <c r="J8" s="19">
         <v>40164.9</v>
       </c>
-      <c r="K8" s="22">
+      <c r="K8" s="19">
         <v>40229.4</v>
       </c>
-      <c r="L8" s="22">
+      <c r="L8" s="19">
         <v>40026.9</v>
       </c>
-      <c r="M8" s="29"/>
-      <c r="N8" s="20" t="s">
+      <c r="M8" s="26"/>
+      <c r="N8" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="O8" s="22">
+      <c r="O8" s="19">
         <v>157.09299999999999</v>
       </c>
-      <c r="P8" s="22">
+      <c r="P8" s="19">
         <v>155.43700000000001</v>
       </c>
-      <c r="Q8" s="22">
+      <c r="Q8" s="19">
         <v>161.10900000000001</v>
       </c>
-      <c r="R8" s="22">
+      <c r="R8" s="19">
         <v>160.06200000000001</v>
       </c>
-      <c r="S8" s="22">
+      <c r="S8" s="19">
         <v>159.39099999999999</v>
       </c>
-      <c r="T8" s="22">
+      <c r="T8" s="19">
         <v>159.34399999999999</v>
       </c>
-      <c r="U8" s="22">
+      <c r="U8" s="19">
         <v>159.13999999999999</v>
       </c>
-      <c r="V8" s="22">
+      <c r="V8" s="19">
         <v>158.10900000000001</v>
       </c>
-      <c r="W8" s="22">
+      <c r="W8" s="19">
         <v>157.23500000000001</v>
       </c>
-      <c r="X8" s="22">
+      <c r="X8" s="19">
         <v>159.34299999999999</v>
       </c>
-      <c r="AH8" s="24"/>
+      <c r="AH8" s="21"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9" s="22">
         <v>21736</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="19">
         <v>22719.4</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="19">
         <v>23125.4</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="19">
         <v>23887.4</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="19">
         <v>22767</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="19">
         <v>22574.799999999999</v>
       </c>
-      <c r="H9" s="22">
+      <c r="H9" s="19">
         <v>22598.3</v>
       </c>
-      <c r="I9" s="22">
+      <c r="I9" s="19">
         <v>23002.2</v>
       </c>
-      <c r="J9" s="22">
+      <c r="J9" s="19">
         <v>22590</v>
       </c>
-      <c r="K9" s="22">
+      <c r="K9" s="19">
         <v>22573.9</v>
       </c>
-      <c r="L9" s="22">
+      <c r="L9" s="19">
         <v>22706</v>
       </c>
-      <c r="M9" s="29"/>
-      <c r="N9" s="20" t="s">
+      <c r="M9" s="26"/>
+      <c r="N9" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="O9" s="22">
+      <c r="O9" s="19">
         <v>221.06299999999999</v>
       </c>
-      <c r="P9" s="22">
+      <c r="P9" s="19">
         <v>224.59399999999999</v>
       </c>
-      <c r="Q9" s="22">
+      <c r="Q9" s="19">
         <v>221.875</v>
       </c>
-      <c r="R9" s="22">
+      <c r="R9" s="19">
         <v>222.578</v>
       </c>
-      <c r="S9" s="22">
+      <c r="S9" s="19">
         <v>219.92099999999999</v>
       </c>
-      <c r="T9" s="22">
+      <c r="T9" s="19">
         <v>224.31299999999999</v>
       </c>
-      <c r="U9" s="22">
+      <c r="U9" s="19">
         <v>221.65600000000001</v>
       </c>
-      <c r="V9" s="22">
+      <c r="V9" s="19">
         <v>218.327</v>
       </c>
-      <c r="W9" s="22">
+      <c r="W9" s="19">
         <v>220.828</v>
       </c>
-      <c r="X9" s="22">
+      <c r="X9" s="19">
         <v>221.61</v>
       </c>
-      <c r="AH9" s="24"/>
+      <c r="AH9" s="21"/>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="N10" s="28" t="s">
+      <c r="B10" s="22"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="N10" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="22"/>
-      <c r="V10" s="22"/>
-      <c r="W10" s="22"/>
-      <c r="X10" s="22"/>
-      <c r="AH10" s="24"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
+      <c r="X10" s="19"/>
+      <c r="AH10" s="21"/>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="B11" s="25">
+      <c r="B11" s="22">
         <v>1645.79</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="19">
         <v>1650.8</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="19">
         <v>1644.55</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="19">
         <v>1642.88</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="19">
         <v>1647.73</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G11" s="19">
         <v>1644.05</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H11" s="19">
         <v>1644.25</v>
       </c>
-      <c r="I11" s="22">
+      <c r="I11" s="19">
         <v>1642.88</v>
       </c>
-      <c r="J11" s="22">
+      <c r="J11" s="19">
         <v>1652.17</v>
       </c>
-      <c r="K11" s="22">
+      <c r="K11" s="19">
         <v>1643.18</v>
       </c>
-      <c r="L11" s="22">
+      <c r="L11" s="19">
         <v>1652.17</v>
       </c>
-      <c r="M11" s="29"/>
-      <c r="N11" s="20" t="s">
+      <c r="M11" s="26"/>
+      <c r="N11" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="O11" s="22">
+      <c r="O11" s="19">
         <v>27.782</v>
       </c>
-      <c r="P11" s="22">
+      <c r="P11" s="19">
         <v>27.515999999999998</v>
       </c>
-      <c r="Q11" s="22">
+      <c r="Q11" s="19">
         <v>27.562000000000001</v>
       </c>
-      <c r="R11" s="22">
+      <c r="R11" s="19">
         <v>27.734999999999999</v>
       </c>
-      <c r="S11" s="22">
+      <c r="S11" s="19">
         <v>27.452999999999999</v>
       </c>
-      <c r="T11" s="22">
+      <c r="T11" s="19">
         <v>27.359000000000002</v>
       </c>
-      <c r="U11" s="22">
+      <c r="U11" s="19">
         <v>27.5</v>
       </c>
-      <c r="V11" s="22">
+      <c r="V11" s="19">
         <v>27.469000000000001</v>
       </c>
-      <c r="W11" s="22">
+      <c r="W11" s="19">
         <v>27.748999999999999</v>
       </c>
-      <c r="X11" s="22">
+      <c r="X11" s="19">
         <v>27.702000000000002</v>
       </c>
-      <c r="AH11" s="24"/>
+      <c r="AH11" s="21"/>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="B12" s="25">
+      <c r="B12" s="22">
         <v>1252.3699999999999</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="19">
         <v>1208.46</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="19">
         <v>1168.82</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="19">
         <v>1164.28</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="19">
         <v>1185.81</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G12" s="19">
         <v>1159.77</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H12" s="19">
         <v>1171.03</v>
       </c>
-      <c r="I12" s="22">
+      <c r="I12" s="19">
         <v>1207.95</v>
       </c>
-      <c r="J12" s="22">
+      <c r="J12" s="19">
         <v>1188.46</v>
       </c>
-      <c r="K12" s="22">
+      <c r="K12" s="19">
         <v>1186.81</v>
       </c>
-      <c r="L12" s="22">
+      <c r="L12" s="19">
         <v>1179.24</v>
       </c>
-      <c r="M12" s="29"/>
-      <c r="N12" s="20" t="s">
+      <c r="M12" s="26"/>
+      <c r="N12" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="O12" s="22">
+      <c r="O12" s="19">
         <v>74.734999999999999</v>
       </c>
-      <c r="P12" s="22">
+      <c r="P12" s="19">
         <v>76.546999999999997</v>
       </c>
-      <c r="Q12" s="22">
+      <c r="Q12" s="19">
         <v>75.906999999999996</v>
       </c>
-      <c r="R12" s="22">
+      <c r="R12" s="19">
         <v>79.858999999999995</v>
       </c>
-      <c r="S12" s="22">
+      <c r="S12" s="19">
         <v>75.484999999999999</v>
       </c>
-      <c r="T12" s="22">
+      <c r="T12" s="19">
         <v>73.748999999999995</v>
       </c>
-      <c r="U12" s="22">
+      <c r="U12" s="19">
         <v>72.406000000000006</v>
       </c>
-      <c r="V12" s="22">
+      <c r="V12" s="19">
         <v>66.561999999999998</v>
       </c>
-      <c r="W12" s="22">
+      <c r="W12" s="19">
         <v>77.078999999999994</v>
       </c>
-      <c r="X12" s="22">
+      <c r="X12" s="19">
         <v>76</v>
       </c>
-      <c r="AH12" s="24"/>
+      <c r="AH12" s="21"/>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="B13" s="25">
+      <c r="B13" s="22">
         <v>828.94</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="19">
         <v>828.93700000000001</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="19">
         <v>828.93700000000001</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="19">
         <v>828.93700000000001</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13" s="19">
         <v>828.93700000000001</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G13" s="19">
         <v>828.93700000000001</v>
       </c>
-      <c r="H13" s="22">
+      <c r="H13" s="19">
         <v>828.93700000000001</v>
       </c>
-      <c r="I13" s="22">
+      <c r="I13" s="19">
         <v>828.93700000000001</v>
       </c>
-      <c r="J13" s="22">
+      <c r="J13" s="19">
         <v>828.93700000000001</v>
       </c>
-      <c r="K13" s="22">
+      <c r="K13" s="19">
         <v>828.93700000000001</v>
       </c>
-      <c r="L13" s="22">
+      <c r="L13" s="19">
         <v>828.93700000000001</v>
       </c>
-      <c r="M13" s="29"/>
-      <c r="N13" s="20" t="s">
+      <c r="M13" s="26"/>
+      <c r="N13" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="O13" s="22">
+      <c r="O13" s="19">
         <v>38.578000000000003</v>
       </c>
-      <c r="P13" s="22">
+      <c r="P13" s="19">
         <v>38.765999999999998</v>
       </c>
-      <c r="Q13" s="22">
+      <c r="Q13" s="19">
         <v>38.406999999999996</v>
       </c>
-      <c r="R13" s="22">
+      <c r="R13" s="19">
         <v>38.734999999999999</v>
       </c>
-      <c r="S13" s="22">
+      <c r="S13" s="19">
         <v>38.671999999999997</v>
       </c>
-      <c r="T13" s="22">
+      <c r="T13" s="19">
         <v>38.390999999999998</v>
       </c>
-      <c r="U13" s="22">
+      <c r="U13" s="19">
         <v>38.781999999999996</v>
       </c>
-      <c r="V13" s="22">
+      <c r="V13" s="19">
         <v>38.406999999999996</v>
       </c>
-      <c r="W13" s="22">
+      <c r="W13" s="19">
         <v>38.5</v>
       </c>
-      <c r="X13" s="22">
+      <c r="X13" s="19">
         <v>38.624000000000002</v>
       </c>
-      <c r="AH13" s="24"/>
+      <c r="AH13" s="21"/>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="B14" s="25">
+      <c r="B14" s="22">
         <v>591.55999999999995</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="19">
         <v>591.55100000000004</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="19">
         <v>591.55100000000004</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="19">
         <v>591.55100000000004</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="19">
         <v>591.55100000000004</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G14" s="19">
         <v>591.55100000000004</v>
       </c>
-      <c r="H14" s="22">
+      <c r="H14" s="19">
         <v>591.55100000000004</v>
       </c>
-      <c r="I14" s="22">
+      <c r="I14" s="19">
         <v>591.55100000000004</v>
       </c>
-      <c r="J14" s="22">
+      <c r="J14" s="19">
         <v>591.55100000000004</v>
       </c>
-      <c r="K14" s="22">
+      <c r="K14" s="19">
         <v>591.55100000000004</v>
       </c>
-      <c r="L14" s="22">
+      <c r="L14" s="19">
         <v>591.55100000000004</v>
       </c>
-      <c r="M14" s="29"/>
-      <c r="N14" s="20" t="s">
+      <c r="M14" s="26"/>
+      <c r="N14" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="O14" s="22">
+      <c r="O14" s="19">
         <v>166.65600000000001</v>
       </c>
-      <c r="P14" s="22">
+      <c r="P14" s="19">
         <v>164.15600000000001</v>
       </c>
-      <c r="Q14" s="22">
+      <c r="Q14" s="19">
         <v>166.172</v>
       </c>
-      <c r="R14" s="22">
+      <c r="R14" s="19">
         <v>165.34399999999999</v>
       </c>
-      <c r="S14" s="22">
+      <c r="S14" s="19">
         <v>166.01599999999999</v>
       </c>
-      <c r="T14" s="22">
+      <c r="T14" s="19">
         <v>166.51599999999999</v>
       </c>
-      <c r="U14" s="22">
+      <c r="U14" s="19">
         <v>166.375</v>
       </c>
-      <c r="V14" s="22">
+      <c r="V14" s="19">
         <v>165.56299999999999</v>
       </c>
-      <c r="W14" s="22">
+      <c r="W14" s="19">
         <v>165.18799999999999</v>
       </c>
-      <c r="X14" s="22">
+      <c r="X14" s="19">
         <v>165.93799999999999</v>
       </c>
-      <c r="AH14" s="24"/>
+      <c r="AH14" s="21"/>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="B15" s="25">
+      <c r="B15" s="22">
         <v>1696.94</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C15" s="19">
         <v>1660.91</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="19">
         <v>1670.83</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="19">
         <v>1646.17</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="19">
         <v>1652.36</v>
       </c>
-      <c r="G15" s="22">
+      <c r="G15" s="19">
         <v>1652.21</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H15" s="19">
         <v>1652.21</v>
       </c>
-      <c r="I15" s="22">
+      <c r="I15" s="19">
         <v>1667.52</v>
       </c>
-      <c r="J15" s="22">
+      <c r="J15" s="19">
         <v>1660.91</v>
       </c>
-      <c r="K15" s="22">
+      <c r="K15" s="19">
         <v>1653.44</v>
       </c>
-      <c r="L15" s="22">
+      <c r="L15" s="19">
         <v>1667.34</v>
       </c>
-      <c r="M15" s="29"/>
-      <c r="N15" s="20" t="s">
+      <c r="M15" s="26"/>
+      <c r="N15" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="O15" s="22">
+      <c r="O15" s="19">
         <v>30.219000000000001</v>
       </c>
-      <c r="P15" s="22">
+      <c r="P15" s="19">
         <v>29.405000000000001</v>
       </c>
-      <c r="Q15" s="22">
+      <c r="Q15" s="19">
         <v>29.407</v>
       </c>
-      <c r="R15" s="22">
+      <c r="R15" s="19">
         <v>29.875</v>
       </c>
-      <c r="S15" s="22">
+      <c r="S15" s="19">
         <v>29.437999999999999</v>
       </c>
-      <c r="T15" s="22">
+      <c r="T15" s="19">
         <v>29.844000000000001</v>
       </c>
-      <c r="U15" s="22">
+      <c r="U15" s="19">
         <v>29.795999999999999</v>
       </c>
-      <c r="V15" s="22">
+      <c r="V15" s="19">
         <v>29.407</v>
       </c>
-      <c r="W15" s="22">
+      <c r="W15" s="19">
         <v>29.719000000000001</v>
       </c>
-      <c r="X15" s="22">
+      <c r="X15" s="19">
         <v>29.827999999999999</v>
       </c>
-      <c r="AH15" s="24"/>
+      <c r="AH15" s="21"/>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="B16" s="26">
+      <c r="B16" s="23">
         <v>1406.91</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16" s="19">
         <v>1299.9000000000001</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="19">
         <v>1296.25</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16" s="19">
         <v>1284.8699999999999</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F16" s="19">
         <v>1284.29</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G16" s="19">
         <v>1286.81</v>
       </c>
-      <c r="H16" s="22">
+      <c r="H16" s="19">
         <v>1295.51</v>
       </c>
-      <c r="I16" s="22">
+      <c r="I16" s="19">
         <v>1265.56</v>
       </c>
-      <c r="J16" s="22">
+      <c r="J16" s="19">
         <v>1284.8699999999999</v>
       </c>
-      <c r="K16" s="22">
+      <c r="K16" s="19">
         <v>1306.3</v>
       </c>
-      <c r="L16" s="22">
+      <c r="L16" s="19">
         <v>1300.2</v>
       </c>
-      <c r="M16" s="29"/>
-      <c r="N16" s="20" t="s">
+      <c r="M16" s="26"/>
+      <c r="N16" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="O16" s="22">
+      <c r="O16" s="19">
         <v>61.545999999999999</v>
       </c>
-      <c r="P16" s="22">
+      <c r="P16" s="19">
         <v>63.453000000000003</v>
       </c>
-      <c r="Q16" s="22">
+      <c r="Q16" s="19">
         <v>63.813000000000002</v>
       </c>
-      <c r="R16" s="22">
+      <c r="R16" s="19">
         <v>70.843000000000004</v>
       </c>
-      <c r="S16" s="22">
+      <c r="S16" s="19">
         <v>75.5</v>
       </c>
-      <c r="T16" s="22">
+      <c r="T16" s="19">
         <v>64.483999999999995</v>
       </c>
-      <c r="U16" s="22">
+      <c r="U16" s="19">
         <v>63.311999999999998</v>
       </c>
-      <c r="V16" s="22">
+      <c r="V16" s="19">
         <v>64.701999999999998</v>
       </c>
-      <c r="W16" s="22">
+      <c r="W16" s="19">
         <v>69.125</v>
       </c>
-      <c r="X16" s="22">
+      <c r="X16" s="19">
         <v>68.001000000000005</v>
       </c>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="N17" s="28" t="s">
+      <c r="B17" s="22"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="N17" s="25" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="22">
+      <c r="B18" s="19">
         <v>54793</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="19">
         <v>54778.400000000001</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="19">
         <v>55007.8</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="19">
         <v>54778.400000000001</v>
       </c>
-      <c r="F18" s="22">
+      <c r="F18" s="19">
         <v>54778.400000000001</v>
       </c>
-      <c r="G18" s="22">
+      <c r="G18" s="19">
         <v>54778.400000000001</v>
       </c>
-      <c r="H18" s="22">
+      <c r="H18" s="19">
         <v>54778.400000000001</v>
       </c>
-      <c r="I18" s="22">
+      <c r="I18" s="19">
         <v>55007.8</v>
       </c>
-      <c r="J18" s="22">
+      <c r="J18" s="19">
         <v>54778.400000000001</v>
       </c>
-      <c r="K18" s="22">
+      <c r="K18" s="19">
         <v>55007.8</v>
       </c>
-      <c r="L18" s="22">
+      <c r="L18" s="19">
         <v>55007.8</v>
       </c>
-      <c r="M18" s="29"/>
-      <c r="N18" s="20" t="s">
+      <c r="M18" s="26"/>
+      <c r="N18" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="O18" s="23">
+      <c r="O18" s="20">
         <v>5.2649999999999997</v>
       </c>
-      <c r="P18" s="23">
+      <c r="P18" s="20">
         <v>5.2809999999999997</v>
       </c>
-      <c r="Q18" s="23">
+      <c r="Q18" s="20">
         <v>5.1870000000000003</v>
       </c>
-      <c r="R18" s="23">
+      <c r="R18" s="20">
         <v>5.1559999999999997</v>
       </c>
-      <c r="S18" s="23">
+      <c r="S18" s="20">
         <v>5.1559999999999997</v>
       </c>
-      <c r="T18" s="23">
+      <c r="T18" s="20">
         <v>5.2030000000000003</v>
       </c>
-      <c r="U18" s="23">
+      <c r="U18" s="20">
         <v>5.141</v>
       </c>
-      <c r="V18" s="23">
+      <c r="V18" s="20">
         <v>5.1719999999999997</v>
       </c>
-      <c r="W18" s="23">
+      <c r="W18" s="20">
         <v>5.14</v>
       </c>
-      <c r="X18" s="23">
+      <c r="X18" s="20">
         <v>5.1260000000000003</v>
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="23">
+      <c r="B19" s="20">
         <v>460.4</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="19">
         <v>473.00900000000001</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="19">
         <v>463.91399999999999</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19" s="19">
         <v>460.37400000000002</v>
       </c>
-      <c r="F19" s="22">
+      <c r="F19" s="19">
         <v>460.37400000000002</v>
       </c>
-      <c r="G19" s="22">
+      <c r="G19" s="19">
         <v>460.37400000000002</v>
       </c>
-      <c r="H19" s="22">
+      <c r="H19" s="19">
         <v>473.00900000000001</v>
       </c>
-      <c r="I19" s="22">
+      <c r="I19" s="19">
         <v>470.322</v>
       </c>
-      <c r="J19" s="22">
+      <c r="J19" s="19">
         <v>470.21499999999997</v>
       </c>
-      <c r="K19" s="22">
+      <c r="K19" s="19">
         <v>476.06200000000001</v>
       </c>
-      <c r="L19" s="22">
+      <c r="L19" s="19">
         <v>463.91399999999999</v>
       </c>
-      <c r="M19" s="29"/>
-      <c r="N19" s="20" t="s">
+      <c r="M19" s="26"/>
+      <c r="N19" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="O19" s="23">
+      <c r="O19" s="20">
         <v>8.702</v>
       </c>
-      <c r="P19" s="23">
+      <c r="P19" s="20">
         <v>8.734</v>
       </c>
-      <c r="Q19" s="23">
+      <c r="Q19" s="20">
         <v>8.766</v>
       </c>
-      <c r="R19" s="23">
+      <c r="R19" s="20">
         <v>8.75</v>
       </c>
-      <c r="S19" s="23">
+      <c r="S19" s="20">
         <v>8.6709999999999994</v>
       </c>
-      <c r="T19" s="23">
+      <c r="T19" s="20">
         <v>8.798</v>
       </c>
-      <c r="U19" s="23">
+      <c r="U19" s="20">
         <v>8.7200000000000006</v>
       </c>
-      <c r="V19" s="23">
+      <c r="V19" s="20">
         <v>8.75</v>
       </c>
-      <c r="W19" s="23">
+      <c r="W19" s="20">
         <v>8.7799999999999994</v>
       </c>
-      <c r="X19" s="23">
+      <c r="X19" s="20">
         <v>8.734</v>
       </c>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="23">
+      <c r="B20" s="20">
         <v>63242</v>
       </c>
-      <c r="C20" s="22">
+      <c r="C20" s="19">
         <v>64119.1</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D20" s="19">
         <v>63215.199999999997</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E20" s="19">
         <v>63215.199999999997</v>
       </c>
-      <c r="F20" s="22">
+      <c r="F20" s="19">
         <v>63215.199999999997</v>
       </c>
-      <c r="G20" s="22">
+      <c r="G20" s="19">
         <v>63550.5</v>
       </c>
-      <c r="H20" s="22">
+      <c r="H20" s="19">
         <v>63550.5</v>
       </c>
-      <c r="I20" s="22">
+      <c r="I20" s="19">
         <v>65055.6</v>
       </c>
-      <c r="J20" s="22">
+      <c r="J20" s="19">
         <v>63215.199999999997</v>
       </c>
-      <c r="K20" s="22">
+      <c r="K20" s="19">
         <v>63765</v>
       </c>
-      <c r="L20" s="22">
+      <c r="L20" s="19">
         <v>64319</v>
       </c>
-      <c r="M20" s="29"/>
-      <c r="N20" s="20" t="s">
+      <c r="M20" s="26"/>
+      <c r="N20" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="O20" s="23">
+      <c r="O20" s="20">
         <v>11.266</v>
       </c>
-      <c r="P20" s="23">
+      <c r="P20" s="20">
         <v>11.093999999999999</v>
       </c>
-      <c r="Q20" s="23">
+      <c r="Q20" s="20">
         <v>10.86</v>
       </c>
-      <c r="R20" s="23">
+      <c r="R20" s="20">
         <v>10.936999999999999</v>
       </c>
-      <c r="S20" s="23">
+      <c r="S20" s="20">
         <v>10.750999999999999</v>
       </c>
-      <c r="T20" s="23">
+      <c r="T20" s="20">
         <v>10.702999999999999</v>
       </c>
-      <c r="U20" s="23">
+      <c r="U20" s="20">
         <v>10.734</v>
       </c>
-      <c r="V20" s="23">
+      <c r="V20" s="20">
         <v>10.625</v>
       </c>
-      <c r="W20" s="23">
+      <c r="W20" s="20">
         <v>11.204000000000001</v>
       </c>
-      <c r="X20" s="23">
+      <c r="X20" s="20">
         <v>10.952999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="23">
+      <c r="B21" s="20">
         <v>355.8</v>
       </c>
-      <c r="C21" s="22">
+      <c r="C21" s="19">
         <v>358.67899999999997</v>
       </c>
-      <c r="D21" s="22">
+      <c r="D21" s="19">
         <v>356.37400000000002</v>
       </c>
-      <c r="E21" s="22">
+      <c r="E21" s="19">
         <v>355.78399999999999</v>
       </c>
-      <c r="F21" s="22">
+      <c r="F21" s="19">
         <v>356.02800000000002</v>
       </c>
-      <c r="G21" s="22">
+      <c r="G21" s="19">
         <v>358.67899999999997</v>
       </c>
-      <c r="H21" s="22">
+      <c r="H21" s="19">
         <v>367.15300000000002</v>
       </c>
-      <c r="I21" s="22">
+      <c r="I21" s="19">
         <v>355.78399999999999</v>
       </c>
-      <c r="J21" s="22">
+      <c r="J21" s="19">
         <v>358.20499999999998</v>
       </c>
-      <c r="K21" s="22">
+      <c r="K21" s="19">
         <v>355.78399999999999</v>
       </c>
-      <c r="L21" s="22">
+      <c r="L21" s="19">
         <v>355.78399999999999</v>
       </c>
-      <c r="M21" s="29"/>
-      <c r="N21" s="20" t="s">
+      <c r="M21" s="26"/>
+      <c r="N21" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="O21" s="23">
+      <c r="O21" s="20">
         <v>20.922000000000001</v>
       </c>
-      <c r="P21" s="23">
+      <c r="P21" s="20">
         <v>20.86</v>
       </c>
-      <c r="Q21" s="23">
+      <c r="Q21" s="20">
         <v>20.952999999999999</v>
       </c>
-      <c r="R21" s="23">
+      <c r="R21" s="20">
         <v>20.969000000000001</v>
       </c>
-      <c r="S21" s="23">
+      <c r="S21" s="20">
         <v>20.86</v>
       </c>
-      <c r="T21" s="23">
+      <c r="T21" s="20">
         <v>21.280999999999999</v>
       </c>
-      <c r="U21" s="23">
+      <c r="U21" s="20">
         <v>20.827999999999999</v>
       </c>
-      <c r="V21" s="23">
+      <c r="V21" s="20">
         <v>20.969000000000001</v>
       </c>
-      <c r="W21" s="23">
+      <c r="W21" s="20">
         <v>20.86</v>
       </c>
-      <c r="X21" s="23">
+      <c r="X21" s="20">
         <v>21.001000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="23">
+      <c r="B22" s="20">
         <v>195568</v>
       </c>
-      <c r="C22" s="22">
+      <c r="C22" s="19">
         <v>197087</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D22" s="19">
         <v>194860</v>
       </c>
-      <c r="E22" s="22">
+      <c r="E22" s="19">
         <v>195746</v>
       </c>
-      <c r="F22" s="22">
+      <c r="F22" s="19">
         <v>195834</v>
       </c>
-      <c r="G22" s="22">
+      <c r="G22" s="19">
         <v>195218</v>
       </c>
-      <c r="H22" s="22">
+      <c r="H22" s="19">
         <v>196555</v>
       </c>
-      <c r="I22" s="22">
+      <c r="I22" s="19">
         <v>197389</v>
       </c>
-      <c r="J22" s="22">
+      <c r="J22" s="19">
         <v>195570</v>
       </c>
-      <c r="K22" s="22">
+      <c r="K22" s="19">
         <v>196574</v>
       </c>
-      <c r="L22" s="22">
+      <c r="L22" s="19">
         <v>194394</v>
       </c>
-      <c r="M22" s="29"/>
-      <c r="N22" s="20" t="s">
+      <c r="M22" s="26"/>
+      <c r="N22" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="O22" s="23">
+      <c r="O22" s="20">
         <v>24.670999999999999</v>
       </c>
-      <c r="P22" s="23">
+      <c r="P22" s="20">
         <v>24.484000000000002</v>
       </c>
-      <c r="Q22" s="23">
+      <c r="Q22" s="20">
         <v>24.498999999999999</v>
       </c>
-      <c r="R22" s="23">
+      <c r="R22" s="20">
         <v>24.530999999999999</v>
       </c>
-      <c r="S22" s="23">
+      <c r="S22" s="20">
         <v>24.405999999999999</v>
       </c>
-      <c r="T22" s="23">
+      <c r="T22" s="20">
         <v>24.625</v>
       </c>
-      <c r="U22" s="23">
+      <c r="U22" s="20">
         <v>24.609000000000002</v>
       </c>
-      <c r="V22" s="23">
+      <c r="V22" s="20">
         <v>24.577999999999999</v>
       </c>
-      <c r="W22" s="23">
+      <c r="W22" s="20">
         <v>24.530999999999999</v>
       </c>
-      <c r="X22" s="23">
+      <c r="X22" s="20">
         <v>24.375</v>
       </c>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="23">
+      <c r="B23" s="20">
         <v>204335</v>
       </c>
-      <c r="C23" s="22">
+      <c r="C23" s="19">
         <v>205012</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D23" s="19">
         <v>205218</v>
       </c>
-      <c r="E23" s="22">
+      <c r="E23" s="19">
         <v>204336</v>
       </c>
-      <c r="F23" s="22">
+      <c r="F23" s="19">
         <v>205051</v>
       </c>
-      <c r="G23" s="22">
+      <c r="G23" s="19">
         <v>210779</v>
       </c>
-      <c r="H23" s="22">
+      <c r="H23" s="19">
         <v>205012</v>
       </c>
-      <c r="I23" s="22">
+      <c r="I23" s="19">
         <v>205012</v>
       </c>
-      <c r="J23" s="22">
+      <c r="J23" s="19">
         <v>203945</v>
       </c>
-      <c r="K23" s="22">
+      <c r="K23" s="19">
         <v>205051</v>
       </c>
-      <c r="L23" s="22">
+      <c r="L23" s="19">
         <v>205012</v>
       </c>
-      <c r="M23" s="29"/>
-      <c r="N23" s="20" t="s">
+      <c r="M23" s="26"/>
+      <c r="N23" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="O23" s="23">
+      <c r="O23" s="20">
         <v>25.437000000000001</v>
       </c>
-      <c r="P23" s="23">
+      <c r="P23" s="20">
         <v>25.344999999999999</v>
       </c>
-      <c r="Q23" s="23">
+      <c r="Q23" s="20">
         <v>25.75</v>
       </c>
-      <c r="R23" s="23">
+      <c r="R23" s="20">
         <v>25.22</v>
       </c>
-      <c r="S23" s="23">
+      <c r="S23" s="20">
         <v>25.5</v>
       </c>
-      <c r="T23" s="23">
+      <c r="T23" s="20">
         <v>25.405999999999999</v>
       </c>
-      <c r="U23" s="23">
+      <c r="U23" s="20">
         <v>25.484000000000002</v>
       </c>
-      <c r="V23" s="23">
+      <c r="V23" s="20">
         <v>25.515000000000001</v>
       </c>
-      <c r="W23" s="23">
+      <c r="W23" s="20">
         <v>25.577000000000002</v>
       </c>
-      <c r="X23" s="23">
+      <c r="X23" s="20">
         <v>25.5</v>
       </c>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="23">
+      <c r="B24" s="20">
         <v>842.9</v>
       </c>
-      <c r="C24" s="22">
+      <c r="C24" s="19">
         <v>849.23500000000001</v>
       </c>
-      <c r="D24" s="22">
+      <c r="D24" s="19">
         <v>842.26900000000001</v>
       </c>
-      <c r="E24" s="22">
+      <c r="E24" s="19">
         <v>875.36800000000005</v>
       </c>
-      <c r="F24" s="22">
+      <c r="F24" s="19">
         <v>842.26900000000001</v>
       </c>
-      <c r="G24" s="22">
+      <c r="G24" s="19">
         <v>866.279</v>
       </c>
-      <c r="H24" s="22">
+      <c r="H24" s="19">
         <v>853.56700000000001</v>
       </c>
-      <c r="I24" s="22">
+      <c r="I24" s="19">
         <v>872.30499999999995</v>
       </c>
-      <c r="J24" s="22">
+      <c r="J24" s="19">
         <v>836.67700000000002</v>
       </c>
-      <c r="K24" s="22">
+      <c r="K24" s="19">
         <v>864.53099999999995</v>
       </c>
-      <c r="L24" s="22">
+      <c r="L24" s="19">
         <v>847.68600000000004</v>
       </c>
-      <c r="M24" s="29"/>
-      <c r="N24" s="20" t="s">
+      <c r="M24" s="26"/>
+      <c r="N24" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="O24" s="23">
+      <c r="O24" s="20">
         <v>26.718</v>
       </c>
-      <c r="P24" s="23">
+      <c r="P24" s="20">
         <v>26.922000000000001</v>
       </c>
-      <c r="Q24" s="23">
+      <c r="Q24" s="20">
         <v>26.672000000000001</v>
       </c>
-      <c r="R24" s="23">
+      <c r="R24" s="20">
         <v>26.625</v>
       </c>
-      <c r="S24" s="23">
+      <c r="S24" s="20">
         <v>28</v>
       </c>
-      <c r="T24" s="23">
+      <c r="T24" s="20">
         <v>26.640999999999998</v>
       </c>
-      <c r="U24" s="23">
+      <c r="U24" s="20">
         <v>27.094999999999999</v>
       </c>
-      <c r="V24" s="23">
+      <c r="V24" s="20">
         <v>26.64</v>
       </c>
-      <c r="W24" s="23">
+      <c r="W24" s="20">
         <v>26.765000000000001</v>
       </c>
-      <c r="X24" s="23">
+      <c r="X24" s="20">
         <v>26.719000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="23">
+      <c r="B25" s="20">
         <v>5809</v>
       </c>
-      <c r="C25" s="22">
+      <c r="C25" s="19">
         <v>6184.12</v>
       </c>
-      <c r="D25" s="22">
+      <c r="D25" s="19">
         <v>5803.27</v>
       </c>
-      <c r="E25" s="22">
+      <c r="E25" s="19">
         <v>5827.04</v>
       </c>
-      <c r="F25" s="22">
+      <c r="F25" s="19">
         <v>5731.98</v>
       </c>
-      <c r="G25" s="22">
+      <c r="G25" s="19">
         <v>5977.44</v>
       </c>
-      <c r="H25" s="22">
+      <c r="H25" s="19">
         <v>5894.65</v>
       </c>
-      <c r="I25" s="22">
+      <c r="I25" s="19">
         <v>6056.71</v>
       </c>
-      <c r="J25" s="22">
+      <c r="J25" s="19">
         <v>5843.52</v>
       </c>
-      <c r="K25" s="22">
+      <c r="K25" s="19">
         <v>5794.81</v>
       </c>
-      <c r="L25" s="22">
+      <c r="L25" s="19">
         <v>5975.32</v>
       </c>
-      <c r="M25" s="29"/>
-      <c r="N25" s="20" t="s">
+      <c r="M25" s="26"/>
+      <c r="N25" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="O25" s="23">
+      <c r="O25" s="20">
         <v>44.267000000000003</v>
       </c>
-      <c r="P25" s="23">
+      <c r="P25" s="20">
         <v>44.530999999999999</v>
       </c>
-      <c r="Q25" s="23">
+      <c r="Q25" s="20">
         <v>44.844000000000001</v>
       </c>
-      <c r="R25" s="23">
+      <c r="R25" s="20">
         <v>45.280999999999999</v>
       </c>
-      <c r="S25" s="23">
+      <c r="S25" s="20">
         <v>44.811999999999998</v>
       </c>
-      <c r="T25" s="23">
+      <c r="T25" s="20">
         <v>44.688000000000002</v>
       </c>
-      <c r="U25" s="23">
+      <c r="U25" s="20">
         <v>44.75</v>
       </c>
-      <c r="V25" s="23">
+      <c r="V25" s="20">
         <v>44.531999999999996</v>
       </c>
-      <c r="W25" s="23">
+      <c r="W25" s="20">
         <v>45.030999999999999</v>
       </c>
-      <c r="X25" s="23">
+      <c r="X25" s="20">
         <v>44.530999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="23">
+      <c r="B26" s="20">
         <v>44011.7</v>
       </c>
-      <c r="C26" s="22">
+      <c r="C26" s="19">
         <v>46303</v>
       </c>
-      <c r="D26" s="22">
+      <c r="D26" s="19">
         <v>44004.9</v>
       </c>
-      <c r="E26" s="22">
+      <c r="E26" s="19">
         <v>45092.1</v>
       </c>
-      <c r="F26" s="22">
+      <c r="F26" s="19">
         <v>44941.4</v>
       </c>
-      <c r="G26" s="22">
+      <c r="G26" s="19">
         <v>45416.9</v>
       </c>
-      <c r="H26" s="22">
+      <c r="H26" s="19">
         <v>44545.9</v>
       </c>
-      <c r="I26" s="22">
+      <c r="I26" s="19">
         <v>46564.9</v>
       </c>
-      <c r="J26" s="22">
+      <c r="J26" s="19">
         <v>44797.599999999999</v>
       </c>
-      <c r="K26" s="22">
+      <c r="K26" s="19">
         <v>46501.599999999999</v>
       </c>
-      <c r="L26" s="22">
+      <c r="L26" s="19">
         <v>44905.1</v>
       </c>
-      <c r="M26" s="29"/>
-      <c r="N26" s="20" t="s">
+      <c r="M26" s="26"/>
+      <c r="N26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="O26" s="23">
+      <c r="O26" s="20">
         <v>59.97</v>
       </c>
-      <c r="P26" s="23">
+      <c r="P26" s="20">
         <v>59.780999999999999</v>
       </c>
-      <c r="Q26" s="23">
+      <c r="Q26" s="20">
         <v>60.078000000000003</v>
       </c>
-      <c r="R26" s="23">
+      <c r="R26" s="20">
         <v>59.75</v>
       </c>
-      <c r="S26" s="23">
+      <c r="S26" s="20">
         <v>60.61</v>
       </c>
-      <c r="T26" s="23">
+      <c r="T26" s="20">
         <v>60.250999999999998</v>
       </c>
-      <c r="U26" s="23">
+      <c r="U26" s="20">
         <v>59.703000000000003</v>
       </c>
-      <c r="V26" s="23">
+      <c r="V26" s="20">
         <v>60.14</v>
       </c>
-      <c r="W26" s="23">
+      <c r="W26" s="20">
         <v>59.89</v>
       </c>
-      <c r="X26" s="23">
+      <c r="X26" s="20">
         <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="23">
+      <c r="B27" s="20">
         <v>476684</v>
       </c>
-      <c r="C27" s="22">
+      <c r="C27" s="19">
         <v>476033</v>
       </c>
-      <c r="D27" s="22">
+      <c r="D27" s="19">
         <v>481421</v>
       </c>
-      <c r="E27" s="22">
+      <c r="E27" s="19">
         <v>477300</v>
       </c>
-      <c r="F27" s="22">
+      <c r="F27" s="19">
         <v>484528</v>
       </c>
-      <c r="G27" s="22">
+      <c r="G27" s="19">
         <v>484541</v>
       </c>
-      <c r="H27" s="22">
+      <c r="H27" s="19">
         <v>478512</v>
       </c>
-      <c r="I27" s="22">
+      <c r="I27" s="19">
         <v>479426</v>
       </c>
-      <c r="J27" s="22">
+      <c r="J27" s="19">
         <v>476739</v>
       </c>
-      <c r="K27" s="22">
+      <c r="K27" s="19">
         <v>481865</v>
       </c>
-      <c r="L27" s="22">
+      <c r="L27" s="19">
         <v>482362</v>
       </c>
-      <c r="M27" s="29"/>
-      <c r="N27" s="20" t="s">
+      <c r="M27" s="26"/>
+      <c r="N27" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="O27" s="23">
+      <c r="O27" s="20">
         <v>119.98399999999999</v>
       </c>
-      <c r="P27" s="23">
+      <c r="P27" s="20">
         <v>123.15600000000001</v>
       </c>
-      <c r="Q27" s="23">
+      <c r="Q27" s="20">
         <v>120.485</v>
       </c>
-      <c r="R27" s="23">
+      <c r="R27" s="20">
         <v>123.999</v>
       </c>
-      <c r="S27" s="23">
+      <c r="S27" s="20">
         <v>128.328</v>
       </c>
-      <c r="T27" s="23">
+      <c r="T27" s="20">
         <v>120.03100000000001</v>
       </c>
-      <c r="U27" s="23">
+      <c r="U27" s="20">
         <v>118.89100000000001</v>
       </c>
-      <c r="V27" s="23">
+      <c r="V27" s="20">
         <v>123.782</v>
       </c>
-      <c r="W27" s="23">
+      <c r="W27" s="20">
         <v>121.047</v>
       </c>
-      <c r="X27" s="23">
+      <c r="X27" s="20">
         <v>124.98399999999999</v>
       </c>
-      <c r="AH27" s="24"/>
+      <c r="AH27" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4368,8 +4342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348A00D3-4455-4871-A842-3FB0F610BDD7}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.45"/>
@@ -4382,39 +4356,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="42"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="39"/>
     </row>
     <row r="2" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="44" t="s">
+      <c r="E2" s="38"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="41" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="36"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="45"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="42"/>
       <c r="D3" s="3" t="s">
         <v>27</v>
       </c>
@@ -4424,15 +4398,15 @@
       <c r="F3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="38"/>
+      <c r="G3" s="35"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="25" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="17" t="s">
         <v>110</v>
       </c>
       <c r="B5" s="4">
@@ -4460,7 +4434,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="17" t="s">
         <v>111</v>
       </c>
       <c r="B6" s="4">
@@ -4488,7 +4462,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="17" t="s">
         <v>112</v>
       </c>
       <c r="B7" s="4">
@@ -4516,7 +4490,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="17" t="s">
         <v>113</v>
       </c>
       <c r="B8" s="4">
@@ -4544,7 +4518,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="17" t="s">
         <v>114</v>
       </c>
       <c r="B9" s="4">
@@ -4572,15 +4546,15 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="25" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="B11" s="27">
+      <c r="B11" s="24">
         <v>101</v>
       </c>
       <c r="C11" s="2">
@@ -4605,10 +4579,10 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="B12" s="27">
+      <c r="B12" s="24">
         <v>101</v>
       </c>
       <c r="C12" s="2">
@@ -4633,10 +4607,10 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="B13" s="27">
+      <c r="B13" s="24">
         <v>101</v>
       </c>
       <c r="C13" s="2">
@@ -4661,10 +4635,10 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="B14" s="27">
+      <c r="B14" s="24">
         <v>101</v>
       </c>
       <c r="C14" s="2">
@@ -4689,10 +4663,10 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="B15" s="27">
+      <c r="B15" s="24">
         <v>101</v>
       </c>
       <c r="C15" s="2">
@@ -4717,10 +4691,10 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="B16" s="27">
+      <c r="B16" s="24">
         <v>101</v>
       </c>
       <c r="C16" s="2">
@@ -4745,7 +4719,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="25" t="s">
         <v>123</v>
       </c>
     </row>

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research\dev\LRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52206DD4-8765-404E-A15B-AFBA906939D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1951444F-06B2-48C2-AB1C-8C0E0A178CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="126">
   <si>
     <t>Instance</t>
   </si>
@@ -205,12 +205,6 @@
   </si>
   <si>
     <t>                        :intraopt!          ,</t>
-  </si>
-  <si>
-    <t>                        :move!              ,</t>
-  </si>
-  <si>
-    <t>                        :split!             ,</t>
   </si>
   <si>
     <t>        χ = ALNSparameters(</t>
@@ -332,9 +326,6 @@
     <t>            ω̅   =   0.05                    ,</t>
   </si>
   <si>
-    <t>                        :swap!              ,            </t>
-  </si>
-  <si>
     <t>            k   =   5                       ,</t>
   </si>
   <si>
@@ -344,9 +335,6 @@
     <t>                        :swapdepot!</t>
   </si>
   <si>
-    <t>                        :interopt!          ,</t>
-  </si>
-  <si>
     <t>Intel(R) Core(TM) i7-7700 CPU @ 3.60GHz   3.60 GHz</t>
   </si>
   <si>
@@ -414,6 +402,21 @@
   </si>
   <si>
     <t>Benchmarking</t>
+  </si>
+  <si>
+    <t>                        :intramove!         ,</t>
+  </si>
+  <si>
+    <t>                        :intraswap!         ,</t>
+  </si>
+  <si>
+    <t>                        :intermove!         ,</t>
+  </si>
+  <si>
+    <t>                        :interswap!         ,</t>
+  </si>
+  <si>
+    <t>                        :interopt!          ,</t>
   </si>
 </sst>
 </file>
@@ -1094,10 +1097,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5551421D-4FE7-47B7-A546-15E7A05240A9}">
-  <dimension ref="A1:N285"/>
+  <dimension ref="A1:N286"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1119,7 +1122,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
@@ -1132,7 +1135,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
@@ -1163,7 +1166,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1189,7 +1192,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1197,7 +1200,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1217,7 +1220,7 @@
         <v>29</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1236,14 +1239,14 @@
     </row>
     <row r="17" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B17" s="13"/>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1259,14 +1262,14 @@
     </row>
     <row r="19" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -1276,14 +1279,14 @@
     </row>
     <row r="20" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -1292,14 +1295,14 @@
     </row>
     <row r="21" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -1309,14 +1312,14 @@
     </row>
     <row r="22" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -1333,7 +1336,7 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -1560,7 +1563,7 @@
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -1681,7 +1684,7 @@
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
@@ -1691,7 +1694,7 @@
     </row>
     <row r="45" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>57</v>
+        <v>121</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1706,7 +1709,7 @@
     </row>
     <row r="46" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1721,7 +1724,7 @@
     </row>
     <row r="47" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1736,7 +1739,7 @@
     </row>
     <row r="48" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1751,7 +1754,7 @@
     </row>
     <row r="49" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1766,7 +1769,7 @@
     </row>
     <row r="50" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1781,7 +1784,7 @@
     </row>
     <row r="51" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -1795,16 +1798,14 @@
       <c r="L51" s="1"/>
     </row>
     <row r="52" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="16" t="s">
-        <v>59</v>
+      <c r="A52" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
@@ -1813,14 +1814,14 @@
     </row>
     <row r="53" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
@@ -1830,30 +1831,31 @@
     </row>
     <row r="54" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="16" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
+      <c r="K54" s="1"/>
       <c r="L54" s="1"/>
     </row>
     <row r="55" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="16" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
@@ -1862,14 +1864,14 @@
     </row>
     <row r="56" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="16" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
@@ -1878,14 +1880,14 @@
     </row>
     <row r="57" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="16" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
@@ -1894,14 +1896,14 @@
     </row>
     <row r="58" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="16" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
@@ -1910,29 +1912,30 @@
     </row>
     <row r="59" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="16" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
+      <c r="L59" s="1"/>
     </row>
     <row r="60" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="16" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
@@ -1940,101 +1943,113 @@
     </row>
     <row r="61" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
     </row>
     <row r="62" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="16" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
-      <c r="L62" s="1"/>
     </row>
     <row r="63" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="16" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
-      <c r="J63" s="1"/>
+      <c r="L63" s="1"/>
     </row>
     <row r="64" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="16" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
       <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
-    </row>
-    <row r="65" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="16"/>
-    </row>
-    <row r="66" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="65" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+    </row>
+    <row r="66" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="16"/>
-      <c r="J66" s="15"/>
-    </row>
-    <row r="67" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="67" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="16"/>
-    </row>
-    <row r="68" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="1"/>
-      <c r="J68" s="15"/>
-    </row>
-    <row r="69" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J67" s="15"/>
+    </row>
+    <row r="68" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="16"/>
+    </row>
+    <row r="69" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1"/>
       <c r="J69" s="15"/>
     </row>
-    <row r="70" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1"/>
       <c r="J70" s="15"/>
     </row>
-    <row r="71" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="1"/>
       <c r="J71" s="15"/>
     </row>
-    <row r="73" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J73" s="15"/>
-    </row>
-    <row r="74" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J72" s="15"/>
+    </row>
+    <row r="74" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J74" s="15"/>
     </row>
-    <row r="75" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J75" s="15"/>
     </row>
-    <row r="108" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B108" s="13"/>
+    <row r="76" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J76" s="15"/>
     </row>
     <row r="109" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B109" s="13"/>
@@ -2566,6 +2581,9 @@
     </row>
     <row r="285" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B285" s="13"/>
+    </row>
+    <row r="286" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B286" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2610,7 +2628,7 @@
       <c r="K1" s="37"/>
       <c r="L1" s="33"/>
       <c r="N1" s="36" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="O1" s="37"/>
       <c r="P1" s="37"/>
@@ -2725,7 +2743,7 @@
     </row>
     <row r="4" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B4" s="22"/>
       <c r="C4" s="22"/>
@@ -2739,7 +2757,7 @@
       <c r="K4" s="22"/>
       <c r="L4" s="22"/>
       <c r="N4" s="25" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="O4" s="22"/>
       <c r="P4" s="22"/>
@@ -2754,7 +2772,7 @@
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B5" s="22">
         <v>820</v>
@@ -2791,7 +2809,7 @@
       </c>
       <c r="M5" s="26"/>
       <c r="N5" s="17" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="O5" s="19">
         <v>19.015000000000001</v>
@@ -2827,7 +2845,7 @@
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B6" s="22">
         <v>3055.23</v>
@@ -2864,7 +2882,7 @@
       </c>
       <c r="M6" s="26"/>
       <c r="N6" s="17" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="O6" s="19">
         <v>49.703000000000003</v>
@@ -2900,7 +2918,7 @@
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B7" s="22">
         <v>1395.85</v>
@@ -2937,7 +2955,7 @@
       </c>
       <c r="M7" s="26"/>
       <c r="N7" s="17" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="O7" s="19">
         <v>81.828000000000003</v>
@@ -2973,7 +2991,7 @@
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B8" s="22">
         <v>38684</v>
@@ -3010,7 +3028,7 @@
       </c>
       <c r="M8" s="26"/>
       <c r="N8" s="17" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="O8" s="19">
         <v>157.09299999999999</v>
@@ -3046,7 +3064,7 @@
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B9" s="22">
         <v>21736</v>
@@ -3083,7 +3101,7 @@
       </c>
       <c r="M9" s="26"/>
       <c r="N9" s="17" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="O9" s="19">
         <v>221.06299999999999</v>
@@ -3119,7 +3137,7 @@
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B10" s="22"/>
       <c r="C10" s="19"/>
@@ -3133,7 +3151,7 @@
       <c r="K10" s="19"/>
       <c r="L10" s="19"/>
       <c r="N10" s="25" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="O10" s="19"/>
       <c r="P10" s="19"/>
@@ -3149,7 +3167,7 @@
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B11" s="22">
         <v>1645.79</v>
@@ -3186,7 +3204,7 @@
       </c>
       <c r="M11" s="26"/>
       <c r="N11" s="17" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O11" s="19">
         <v>27.782</v>
@@ -3222,7 +3240,7 @@
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B12" s="22">
         <v>1252.3699999999999</v>
@@ -3259,7 +3277,7 @@
       </c>
       <c r="M12" s="26"/>
       <c r="N12" s="17" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="O12" s="19">
         <v>74.734999999999999</v>
@@ -3295,7 +3313,7 @@
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B13" s="22">
         <v>828.94</v>
@@ -3332,7 +3350,7 @@
       </c>
       <c r="M13" s="26"/>
       <c r="N13" s="17" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="O13" s="19">
         <v>38.578000000000003</v>
@@ -3368,7 +3386,7 @@
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B14" s="22">
         <v>591.55999999999995</v>
@@ -3405,7 +3423,7 @@
       </c>
       <c r="M14" s="26"/>
       <c r="N14" s="17" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="O14" s="19">
         <v>166.65600000000001</v>
@@ -3441,7 +3459,7 @@
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B15" s="22">
         <v>1696.94</v>
@@ -3478,7 +3496,7 @@
       </c>
       <c r="M15" s="26"/>
       <c r="N15" s="17" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="O15" s="19">
         <v>30.219000000000001</v>
@@ -3514,7 +3532,7 @@
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B16" s="23">
         <v>1406.91</v>
@@ -3551,7 +3569,7 @@
       </c>
       <c r="M16" s="26"/>
       <c r="N16" s="17" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="O16" s="19">
         <v>61.545999999999999</v>
@@ -3586,7 +3604,7 @@
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A17" s="25" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B17" s="22"/>
       <c r="C17" s="19"/>
@@ -3600,7 +3618,7 @@
       <c r="K17" s="19"/>
       <c r="L17" s="19"/>
       <c r="N17" s="25" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.35">
@@ -4342,7 +4360,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348A00D3-4455-4871-A842-3FB0F610BDD7}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -4357,7 +4375,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="38" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B1" s="38"/>
       <c r="C1" s="38"/>
@@ -4371,10 +4389,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D2" s="43" t="s">
         <v>1</v>
@@ -4382,7 +4400,7 @@
       <c r="E2" s="38"/>
       <c r="F2" s="39"/>
       <c r="G2" s="41" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.45">
@@ -4402,12 +4420,12 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="25" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="17" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B5" s="4">
         <v>102</v>
@@ -4435,7 +4453,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="17" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B6" s="4">
         <v>151</v>
@@ -4463,7 +4481,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="17" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B7" s="4">
         <v>201</v>
@@ -4491,7 +4509,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="17" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B8" s="4">
         <v>251</v>
@@ -4519,7 +4537,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="17" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B9" s="4">
         <v>303</v>
@@ -4547,12 +4565,12 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="25" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="17" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B11" s="24">
         <v>101</v>
@@ -4580,7 +4598,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="17" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B12" s="24">
         <v>101</v>
@@ -4608,7 +4626,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="17" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B13" s="24">
         <v>101</v>
@@ -4636,7 +4654,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="17" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B14" s="24">
         <v>101</v>
@@ -4664,7 +4682,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="17" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B15" s="24">
         <v>101</v>
@@ -4692,7 +4710,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="17" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B16" s="24">
         <v>101</v>
@@ -4720,7 +4738,7 @@
     </row>
     <row r="17" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="25" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research\dev\LRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1951444F-06B2-48C2-AB1C-8C0E0A178CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443A28CA-FB2F-4D0B-8110-79D3DFF95F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="126">
   <si>
     <t>Instance</t>
   </si>
@@ -347,9 +347,6 @@
     <t>            c̅   =   60                      ,</t>
   </si>
   <si>
-    <t>[1010, 1106, 1509, 1604, 1905, 2104, 2412, 2703, 2710, 2807]</t>
-  </si>
-  <si>
     <t>1.9.4</t>
   </si>
   <si>
@@ -417,6 +414,9 @@
   </si>
   <si>
     <t>                        :interopt!          ,</t>
+  </si>
+  <si>
+    <t>[1010, 1104, 1509, 1604, 1905, 2104, 2412, 2703, 2710, 2807]</t>
   </si>
 </sst>
 </file>
@@ -703,7 +703,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -815,6 +815,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1099,8 +1102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5551421D-4FE7-47B7-A546-15E7A05240A9}">
   <dimension ref="A1:N286"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1192,7 +1195,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1200,7 +1203,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1220,7 +1223,7 @@
         <v>29</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1694,7 +1697,7 @@
     </row>
     <row r="45" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1709,7 +1712,7 @@
     </row>
     <row r="46" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1739,7 +1742,7 @@
     </row>
     <row r="48" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1754,7 +1757,7 @@
     </row>
     <row r="49" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1769,7 +1772,7 @@
     </row>
     <row r="50" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2596,10 +2599,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16226786-0325-4223-91E5-2589AE0E8571}">
-  <dimension ref="A1:AH27"/>
+  <dimension ref="A1:AH39"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="C18" sqref="C18:L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -2628,7 +2631,7 @@
       <c r="K1" s="37"/>
       <c r="L1" s="33"/>
       <c r="N1" s="36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O1" s="37"/>
       <c r="P1" s="37"/>
@@ -2683,7 +2686,7 @@
         <v>1010</v>
       </c>
       <c r="D3" s="18">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="E3" s="18">
         <v>1509</v>
@@ -2714,7 +2717,7 @@
         <v>1010</v>
       </c>
       <c r="P3" s="18">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="Q3" s="18">
         <v>1509</v>
@@ -2743,7 +2746,7 @@
     </row>
     <row r="4" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B4" s="22"/>
       <c r="C4" s="22"/>
@@ -2757,7 +2760,7 @@
       <c r="K4" s="22"/>
       <c r="L4" s="22"/>
       <c r="N4" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O4" s="22"/>
       <c r="P4" s="22"/>
@@ -2772,7 +2775,7 @@
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B5" s="22">
         <v>820</v>
@@ -2784,32 +2787,32 @@
         <v>819.55799999999999</v>
       </c>
       <c r="E5" s="19">
+        <v>840.01300000000003</v>
+      </c>
+      <c r="F5" s="19">
+        <v>820.92100000000005</v>
+      </c>
+      <c r="G5" s="19">
+        <v>843.66600000000005</v>
+      </c>
+      <c r="H5" s="19">
         <v>819.55799999999999</v>
       </c>
-      <c r="F5" s="19">
-        <v>819.55799999999999</v>
-      </c>
-      <c r="G5" s="19">
-        <v>819.55799999999999</v>
-      </c>
-      <c r="H5" s="19">
-        <v>837.81</v>
-      </c>
       <c r="I5" s="19">
-        <v>819.55799999999999</v>
+        <v>838.649</v>
       </c>
       <c r="J5" s="19">
-        <v>819.55799999999999</v>
+        <v>820.92100000000005</v>
       </c>
       <c r="K5" s="19">
-        <v>821.11</v>
+        <v>846.37599999999998</v>
       </c>
       <c r="L5" s="19">
         <v>819.55799999999999</v>
       </c>
       <c r="M5" s="26"/>
       <c r="N5" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O5" s="19">
         <v>19.015000000000001</v>
@@ -2845,44 +2848,44 @@
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B6" s="22">
         <v>3055.23</v>
       </c>
       <c r="C6" s="19">
-        <v>3188.06</v>
+        <v>3085.67</v>
       </c>
       <c r="D6" s="19">
-        <v>3076.86</v>
+        <v>3185.81</v>
       </c>
       <c r="E6" s="19">
-        <v>3059.54</v>
+        <v>3085.08</v>
       </c>
       <c r="F6" s="19">
-        <v>3063.73</v>
+        <v>3212.21</v>
       </c>
       <c r="G6" s="19">
-        <v>3093.56</v>
+        <v>3107.89</v>
       </c>
       <c r="H6" s="19">
-        <v>3146.92</v>
+        <v>3111.91</v>
       </c>
       <c r="I6" s="19">
-        <v>3232.37</v>
+        <v>3209.2</v>
       </c>
       <c r="J6" s="19">
-        <v>3175.25</v>
+        <v>3204.62</v>
       </c>
       <c r="K6" s="19">
-        <v>3084.16</v>
+        <v>3112.36</v>
       </c>
       <c r="L6" s="19">
-        <v>3182.24</v>
+        <v>3144.07</v>
       </c>
       <c r="M6" s="26"/>
       <c r="N6" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O6" s="19">
         <v>49.703000000000003</v>
@@ -2918,44 +2921,44 @@
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B7" s="22">
         <v>1395.85</v>
       </c>
       <c r="C7" s="19">
-        <v>1343.94</v>
+        <v>1367.59</v>
       </c>
       <c r="D7" s="19">
-        <v>1329.82</v>
+        <v>1351.08</v>
       </c>
       <c r="E7" s="19">
-        <v>1341.83</v>
+        <v>1339.41</v>
       </c>
       <c r="F7" s="19">
-        <v>1323.33</v>
+        <v>1341.21</v>
       </c>
       <c r="G7" s="19">
-        <v>1338.42</v>
+        <v>1352.66</v>
       </c>
       <c r="H7" s="19">
-        <v>1339.31</v>
+        <v>1352.13</v>
       </c>
       <c r="I7" s="19">
-        <v>1337.85</v>
+        <v>1370.4</v>
       </c>
       <c r="J7" s="19">
-        <v>1362.31</v>
+        <v>1326.92</v>
       </c>
       <c r="K7" s="19">
-        <v>1350.24</v>
+        <v>1348.83</v>
       </c>
       <c r="L7" s="19">
-        <v>1367.12</v>
+        <v>1352.42</v>
       </c>
       <c r="M7" s="26"/>
       <c r="N7" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O7" s="19">
         <v>81.828000000000003</v>
@@ -2991,44 +2994,44 @@
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B8" s="22">
         <v>38684</v>
       </c>
       <c r="C8" s="19">
-        <v>40113.5</v>
+        <v>40425</v>
       </c>
       <c r="D8" s="19">
-        <v>40253.9</v>
+        <v>40192.5</v>
       </c>
       <c r="E8" s="19">
-        <v>39834</v>
+        <v>40129.9</v>
       </c>
       <c r="F8" s="19">
-        <v>39885</v>
+        <v>40316.300000000003</v>
       </c>
       <c r="G8" s="19">
-        <v>40217.199999999997</v>
+        <v>40028.5</v>
       </c>
       <c r="H8" s="19">
-        <v>39922.800000000003</v>
+        <v>39924</v>
       </c>
       <c r="I8" s="19">
-        <v>40283.1</v>
+        <v>40042.5</v>
       </c>
       <c r="J8" s="19">
-        <v>40164.9</v>
+        <v>40091.699999999997</v>
       </c>
       <c r="K8" s="19">
-        <v>40229.4</v>
+        <v>39896.5</v>
       </c>
       <c r="L8" s="19">
-        <v>40026.9</v>
+        <v>39791.300000000003</v>
       </c>
       <c r="M8" s="26"/>
       <c r="N8" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O8" s="19">
         <v>157.09299999999999</v>
@@ -3064,44 +3067,44 @@
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B9" s="22">
         <v>21736</v>
       </c>
       <c r="C9" s="19">
-        <v>22719.4</v>
+        <v>22971.8</v>
       </c>
       <c r="D9" s="19">
-        <v>23125.4</v>
+        <v>22597</v>
       </c>
       <c r="E9" s="19">
-        <v>23887.4</v>
+        <v>22634.5</v>
       </c>
       <c r="F9" s="19">
-        <v>22767</v>
+        <v>22889.8</v>
       </c>
       <c r="G9" s="19">
-        <v>22574.799999999999</v>
+        <v>22764.2</v>
       </c>
       <c r="H9" s="19">
-        <v>22598.3</v>
+        <v>22695.8</v>
       </c>
       <c r="I9" s="19">
-        <v>23002.2</v>
+        <v>22833.4</v>
       </c>
       <c r="J9" s="19">
-        <v>22590</v>
+        <v>22778.2</v>
       </c>
       <c r="K9" s="19">
-        <v>22573.9</v>
+        <v>22732.1</v>
       </c>
       <c r="L9" s="19">
-        <v>22706</v>
+        <v>22957.200000000001</v>
       </c>
       <c r="M9" s="26"/>
       <c r="N9" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O9" s="19">
         <v>221.06299999999999</v>
@@ -3137,7 +3140,7 @@
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B10" s="22"/>
       <c r="C10" s="19"/>
@@ -3151,7 +3154,7 @@
       <c r="K10" s="19"/>
       <c r="L10" s="19"/>
       <c r="N10" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O10" s="19"/>
       <c r="P10" s="19"/>
@@ -3167,44 +3170,44 @@
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B11" s="22">
         <v>1645.79</v>
       </c>
       <c r="C11" s="19">
-        <v>1650.8</v>
+        <v>1644.67</v>
       </c>
       <c r="D11" s="19">
-        <v>1644.55</v>
+        <v>1646.49</v>
       </c>
       <c r="E11" s="19">
+        <v>1655.21</v>
+      </c>
+      <c r="F11" s="19">
+        <v>1652.17</v>
+      </c>
+      <c r="G11" s="19">
+        <v>1644.25</v>
+      </c>
+      <c r="H11" s="19">
         <v>1642.88</v>
       </c>
-      <c r="F11" s="19">
-        <v>1647.73</v>
-      </c>
-      <c r="G11" s="19">
-        <v>1644.05</v>
-      </c>
-      <c r="H11" s="19">
+      <c r="I11" s="19">
+        <v>1654.06</v>
+      </c>
+      <c r="J11" s="19">
+        <v>1659</v>
+      </c>
+      <c r="K11" s="19">
+        <v>1652.17</v>
+      </c>
+      <c r="L11" s="19">
         <v>1644.25</v>
-      </c>
-      <c r="I11" s="19">
-        <v>1642.88</v>
-      </c>
-      <c r="J11" s="19">
-        <v>1652.17</v>
-      </c>
-      <c r="K11" s="19">
-        <v>1643.18</v>
-      </c>
-      <c r="L11" s="19">
-        <v>1652.17</v>
       </c>
       <c r="M11" s="26"/>
       <c r="N11" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O11" s="19">
         <v>27.782</v>
@@ -3240,44 +3243,44 @@
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B12" s="22">
         <v>1252.3699999999999</v>
       </c>
       <c r="C12" s="19">
-        <v>1208.46</v>
+        <v>1187.8900000000001</v>
       </c>
       <c r="D12" s="19">
-        <v>1168.82</v>
+        <v>1176.1300000000001</v>
       </c>
       <c r="E12" s="19">
-        <v>1164.28</v>
+        <v>1197.21</v>
       </c>
       <c r="F12" s="19">
-        <v>1185.81</v>
+        <v>1180.68</v>
       </c>
       <c r="G12" s="19">
-        <v>1159.77</v>
+        <v>1175</v>
       </c>
       <c r="H12" s="19">
-        <v>1171.03</v>
+        <v>1184.3699999999999</v>
       </c>
       <c r="I12" s="19">
-        <v>1207.95</v>
+        <v>1204.3</v>
       </c>
       <c r="J12" s="19">
-        <v>1188.46</v>
+        <v>1179.54</v>
       </c>
       <c r="K12" s="19">
-        <v>1186.81</v>
+        <v>1175.46</v>
       </c>
       <c r="L12" s="19">
-        <v>1179.24</v>
+        <v>1191.5899999999999</v>
       </c>
       <c r="M12" s="26"/>
       <c r="N12" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O12" s="19">
         <v>74.734999999999999</v>
@@ -3313,7 +3316,7 @@
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B13" s="22">
         <v>828.94</v>
@@ -3350,7 +3353,7 @@
       </c>
       <c r="M13" s="26"/>
       <c r="N13" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O13" s="19">
         <v>38.578000000000003</v>
@@ -3386,44 +3389,44 @@
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B14" s="22">
         <v>591.55999999999995</v>
       </c>
       <c r="C14" s="19">
-        <v>591.55100000000004</v>
+        <v>591.55399999999997</v>
       </c>
       <c r="D14" s="19">
-        <v>591.55100000000004</v>
+        <v>591.553</v>
       </c>
       <c r="E14" s="19">
-        <v>591.55100000000004</v>
+        <v>591.553</v>
       </c>
       <c r="F14" s="19">
-        <v>591.55100000000004</v>
+        <v>591.553</v>
       </c>
       <c r="G14" s="19">
-        <v>591.55100000000004</v>
+        <v>591.553</v>
       </c>
       <c r="H14" s="19">
-        <v>591.55100000000004</v>
+        <v>591.55399999999997</v>
       </c>
       <c r="I14" s="19">
-        <v>591.55100000000004</v>
+        <v>591.553</v>
       </c>
       <c r="J14" s="19">
-        <v>591.55100000000004</v>
+        <v>591.553</v>
       </c>
       <c r="K14" s="19">
-        <v>591.55100000000004</v>
+        <v>591.553</v>
       </c>
       <c r="L14" s="19">
-        <v>591.55100000000004</v>
+        <v>591.55399999999997</v>
       </c>
       <c r="M14" s="26"/>
       <c r="N14" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O14" s="19">
         <v>166.65600000000001</v>
@@ -3459,7 +3462,7 @@
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B15" s="22">
         <v>1696.94</v>
@@ -3468,35 +3471,35 @@
         <v>1660.91</v>
       </c>
       <c r="D15" s="19">
-        <v>1670.83</v>
+        <v>1668.51</v>
       </c>
       <c r="E15" s="19">
+        <v>1643.78</v>
+      </c>
+      <c r="F15" s="19">
+        <v>1678.92</v>
+      </c>
+      <c r="G15" s="19">
+        <v>1664.67</v>
+      </c>
+      <c r="H15" s="19">
         <v>1646.17</v>
       </c>
-      <c r="F15" s="19">
-        <v>1652.36</v>
-      </c>
-      <c r="G15" s="19">
-        <v>1652.21</v>
-      </c>
-      <c r="H15" s="19">
-        <v>1652.21</v>
-      </c>
       <c r="I15" s="19">
-        <v>1667.52</v>
+        <v>1650.56</v>
       </c>
       <c r="J15" s="19">
-        <v>1660.91</v>
+        <v>1660.1</v>
       </c>
       <c r="K15" s="19">
-        <v>1653.44</v>
+        <v>1663.51</v>
       </c>
       <c r="L15" s="19">
-        <v>1667.34</v>
+        <v>1660.86</v>
       </c>
       <c r="M15" s="26"/>
       <c r="N15" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O15" s="19">
         <v>30.219000000000001</v>
@@ -3532,44 +3535,44 @@
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B16" s="23">
         <v>1406.91</v>
       </c>
       <c r="C16" s="19">
-        <v>1299.9000000000001</v>
+        <v>1281.1199999999999</v>
       </c>
       <c r="D16" s="19">
+        <v>1289.82</v>
+      </c>
+      <c r="E16" s="19">
+        <v>1294.3800000000001</v>
+      </c>
+      <c r="F16" s="19">
+        <v>1285.69</v>
+      </c>
+      <c r="G16" s="19">
         <v>1296.25</v>
       </c>
-      <c r="E16" s="19">
-        <v>1284.8699999999999</v>
-      </c>
-      <c r="F16" s="19">
-        <v>1284.29</v>
-      </c>
-      <c r="G16" s="19">
-        <v>1286.81</v>
-      </c>
       <c r="H16" s="19">
-        <v>1295.51</v>
+        <v>1269.55</v>
       </c>
       <c r="I16" s="19">
-        <v>1265.56</v>
+        <v>1300.52</v>
       </c>
       <c r="J16" s="19">
-        <v>1284.8699999999999</v>
+        <v>1286.56</v>
       </c>
       <c r="K16" s="19">
-        <v>1306.3</v>
+        <v>1286.33</v>
       </c>
       <c r="L16" s="19">
-        <v>1300.2</v>
+        <v>1296.93</v>
       </c>
       <c r="M16" s="26"/>
       <c r="N16" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O16" s="19">
         <v>61.545999999999999</v>
@@ -3604,7 +3607,7 @@
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A17" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B17" s="22"/>
       <c r="C17" s="19"/>
@@ -3618,7 +3621,7 @@
       <c r="K17" s="19"/>
       <c r="L17" s="19"/>
       <c r="N17" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.35">
@@ -3632,10 +3635,10 @@
         <v>54778.400000000001</v>
       </c>
       <c r="D18" s="19">
+        <v>54778.400000000001</v>
+      </c>
+      <c r="E18" s="19">
         <v>55007.8</v>
-      </c>
-      <c r="E18" s="19">
-        <v>54778.400000000001</v>
       </c>
       <c r="F18" s="19">
         <v>54778.400000000001</v>
@@ -3647,16 +3650,16 @@
         <v>54778.400000000001</v>
       </c>
       <c r="I18" s="19">
-        <v>55007.8</v>
+        <v>54778.400000000001</v>
       </c>
       <c r="J18" s="19">
         <v>54778.400000000001</v>
       </c>
       <c r="K18" s="19">
-        <v>55007.8</v>
+        <v>54778.400000000001</v>
       </c>
       <c r="L18" s="19">
-        <v>55007.8</v>
+        <v>54778.400000000001</v>
       </c>
       <c r="M18" s="26"/>
       <c r="N18" s="17" t="s">
@@ -3704,7 +3707,7 @@
         <v>473.00900000000001</v>
       </c>
       <c r="D19" s="19">
-        <v>463.91399999999999</v>
+        <v>470.21499999999997</v>
       </c>
       <c r="E19" s="19">
         <v>460.37400000000002</v>
@@ -3713,22 +3716,22 @@
         <v>460.37400000000002</v>
       </c>
       <c r="G19" s="19">
+        <v>473.00900000000001</v>
+      </c>
+      <c r="H19" s="19">
+        <v>470.21499999999997</v>
+      </c>
+      <c r="I19" s="19">
         <v>460.37400000000002</v>
-      </c>
-      <c r="H19" s="19">
-        <v>473.00900000000001</v>
-      </c>
-      <c r="I19" s="19">
-        <v>470.322</v>
       </c>
       <c r="J19" s="19">
         <v>470.21499999999997</v>
       </c>
       <c r="K19" s="19">
-        <v>476.06200000000001</v>
+        <v>470.21499999999997</v>
       </c>
       <c r="L19" s="19">
-        <v>463.91399999999999</v>
+        <v>473.00900000000001</v>
       </c>
       <c r="M19" s="26"/>
       <c r="N19" s="17" t="s">
@@ -3773,7 +3776,7 @@
         <v>63242</v>
       </c>
       <c r="C20" s="19">
-        <v>64119.1</v>
+        <v>63714.400000000001</v>
       </c>
       <c r="D20" s="19">
         <v>63215.199999999997</v>
@@ -3782,25 +3785,25 @@
         <v>63215.199999999997</v>
       </c>
       <c r="F20" s="19">
+        <v>64119.1</v>
+      </c>
+      <c r="G20" s="19">
         <v>63215.199999999997</v>
-      </c>
-      <c r="G20" s="19">
-        <v>63550.5</v>
       </c>
       <c r="H20" s="19">
         <v>63550.5</v>
       </c>
       <c r="I20" s="19">
-        <v>65055.6</v>
+        <v>63215.199999999997</v>
       </c>
       <c r="J20" s="19">
-        <v>63215.199999999997</v>
+        <v>63765</v>
       </c>
       <c r="K20" s="19">
-        <v>63765</v>
+        <v>64119.1</v>
       </c>
       <c r="L20" s="19">
-        <v>64319</v>
+        <v>63274.6</v>
       </c>
       <c r="M20" s="26"/>
       <c r="N20" s="17" t="s">
@@ -3845,34 +3848,34 @@
         <v>355.8</v>
       </c>
       <c r="C21" s="19">
-        <v>358.67899999999997</v>
+        <v>355.78399999999999</v>
       </c>
       <c r="D21" s="19">
-        <v>356.37400000000002</v>
+        <v>358.20499999999998</v>
       </c>
       <c r="E21" s="19">
+        <v>371.60199999999998</v>
+      </c>
+      <c r="F21" s="19">
+        <v>375.017</v>
+      </c>
+      <c r="G21" s="19">
+        <v>356.18700000000001</v>
+      </c>
+      <c r="H21" s="19">
         <v>355.78399999999999</v>
-      </c>
-      <c r="F21" s="19">
-        <v>356.02800000000002</v>
-      </c>
-      <c r="G21" s="19">
-        <v>358.67899999999997</v>
-      </c>
-      <c r="H21" s="19">
-        <v>367.15300000000002</v>
       </c>
       <c r="I21" s="19">
         <v>355.78399999999999</v>
       </c>
       <c r="J21" s="19">
-        <v>358.20499999999998</v>
+        <v>355.78399999999999</v>
       </c>
       <c r="K21" s="19">
         <v>355.78399999999999</v>
       </c>
       <c r="L21" s="19">
-        <v>355.78399999999999</v>
+        <v>373.62400000000002</v>
       </c>
       <c r="M21" s="26"/>
       <c r="N21" s="17" t="s">
@@ -3917,34 +3920,34 @@
         <v>195568</v>
       </c>
       <c r="C22" s="19">
-        <v>197087</v>
+        <v>197655</v>
       </c>
       <c r="D22" s="19">
-        <v>194860</v>
+        <v>195455</v>
       </c>
       <c r="E22" s="19">
-        <v>195746</v>
+        <v>196046</v>
       </c>
       <c r="F22" s="19">
-        <v>195834</v>
+        <v>196722</v>
       </c>
       <c r="G22" s="19">
-        <v>195218</v>
+        <v>195888</v>
       </c>
       <c r="H22" s="19">
-        <v>196555</v>
+        <v>195174</v>
       </c>
       <c r="I22" s="19">
-        <v>197389</v>
+        <v>195867</v>
       </c>
       <c r="J22" s="19">
-        <v>195570</v>
+        <v>195736</v>
       </c>
       <c r="K22" s="19">
-        <v>196574</v>
+        <v>195616</v>
       </c>
       <c r="L22" s="19">
-        <v>194394</v>
+        <v>195748</v>
       </c>
       <c r="M22" s="26"/>
       <c r="N22" s="17" t="s">
@@ -3989,28 +3992,28 @@
         <v>204335</v>
       </c>
       <c r="C23" s="19">
+        <v>210962</v>
+      </c>
+      <c r="D23" s="19">
         <v>205012</v>
       </c>
-      <c r="D23" s="19">
-        <v>205218</v>
-      </c>
       <c r="E23" s="19">
-        <v>204336</v>
+        <v>205051</v>
       </c>
       <c r="F23" s="19">
+        <v>205012</v>
+      </c>
+      <c r="G23" s="19">
+        <v>211030</v>
+      </c>
+      <c r="H23" s="19">
+        <v>204445</v>
+      </c>
+      <c r="I23" s="19">
         <v>205051</v>
       </c>
-      <c r="G23" s="19">
-        <v>210779</v>
-      </c>
-      <c r="H23" s="19">
+      <c r="J23" s="19">
         <v>205012</v>
-      </c>
-      <c r="I23" s="19">
-        <v>205012</v>
-      </c>
-      <c r="J23" s="19">
-        <v>203945</v>
       </c>
       <c r="K23" s="19">
         <v>205051</v>
@@ -4061,34 +4064,34 @@
         <v>842.9</v>
       </c>
       <c r="C24" s="19">
-        <v>849.23500000000001</v>
+        <v>843.95799999999997</v>
       </c>
       <c r="D24" s="19">
-        <v>842.26900000000001</v>
+        <v>843.654</v>
       </c>
       <c r="E24" s="19">
-        <v>875.36800000000005</v>
+        <v>841.69</v>
       </c>
       <c r="F24" s="19">
-        <v>842.26900000000001</v>
+        <v>852.13199999999995</v>
       </c>
       <c r="G24" s="19">
-        <v>866.279</v>
+        <v>871.62199999999996</v>
       </c>
       <c r="H24" s="19">
-        <v>853.56700000000001</v>
+        <v>876.38199999999995</v>
       </c>
       <c r="I24" s="19">
-        <v>872.30499999999995</v>
+        <v>878.40300000000002</v>
       </c>
       <c r="J24" s="19">
-        <v>836.67700000000002</v>
+        <v>857.37199999999996</v>
       </c>
       <c r="K24" s="19">
-        <v>864.53099999999995</v>
+        <v>858.255</v>
       </c>
       <c r="L24" s="19">
-        <v>847.68600000000004</v>
+        <v>866.98599999999999</v>
       </c>
       <c r="M24" s="26"/>
       <c r="N24" s="17" t="s">
@@ -4133,34 +4136,34 @@
         <v>5809</v>
       </c>
       <c r="C25" s="19">
-        <v>6184.12</v>
+        <v>5741.72</v>
       </c>
       <c r="D25" s="19">
-        <v>5803.27</v>
+        <v>5722.34</v>
       </c>
       <c r="E25" s="19">
-        <v>5827.04</v>
+        <v>5953.05</v>
       </c>
       <c r="F25" s="19">
-        <v>5731.98</v>
+        <v>5790.48</v>
       </c>
       <c r="G25" s="19">
-        <v>5977.44</v>
+        <v>5886.2</v>
       </c>
       <c r="H25" s="19">
-        <v>5894.65</v>
+        <v>5962.4</v>
       </c>
       <c r="I25" s="19">
-        <v>6056.71</v>
+        <v>5998.27</v>
       </c>
       <c r="J25" s="19">
-        <v>5843.52</v>
+        <v>5958.58</v>
       </c>
       <c r="K25" s="19">
-        <v>5794.81</v>
+        <v>5944.59</v>
       </c>
       <c r="L25" s="19">
-        <v>5975.32</v>
+        <v>5903.44</v>
       </c>
       <c r="M25" s="26"/>
       <c r="N25" s="17" t="s">
@@ -4205,34 +4208,34 @@
         <v>44011.7</v>
       </c>
       <c r="C26" s="19">
-        <v>46303</v>
+        <v>44553.2</v>
       </c>
       <c r="D26" s="19">
-        <v>44004.9</v>
+        <v>44194</v>
       </c>
       <c r="E26" s="19">
-        <v>45092.1</v>
+        <v>44362.7</v>
       </c>
       <c r="F26" s="19">
-        <v>44941.4</v>
+        <v>45264.6</v>
       </c>
       <c r="G26" s="19">
-        <v>45416.9</v>
+        <v>46271.3</v>
       </c>
       <c r="H26" s="19">
-        <v>44545.9</v>
+        <v>45297.7</v>
       </c>
       <c r="I26" s="19">
-        <v>46564.9</v>
+        <v>46043</v>
       </c>
       <c r="J26" s="19">
-        <v>44797.599999999999</v>
+        <v>45219.3</v>
       </c>
       <c r="K26" s="19">
-        <v>46501.599999999999</v>
+        <v>45959.8</v>
       </c>
       <c r="L26" s="19">
-        <v>44905.1</v>
+        <v>45795.9</v>
       </c>
       <c r="M26" s="26"/>
       <c r="N26" s="17" t="s">
@@ -4277,34 +4280,34 @@
         <v>476684</v>
       </c>
       <c r="C27" s="19">
-        <v>476033</v>
+        <v>475864</v>
       </c>
       <c r="D27" s="19">
-        <v>481421</v>
+        <v>479150</v>
       </c>
       <c r="E27" s="19">
-        <v>477300</v>
+        <v>478291</v>
       </c>
       <c r="F27" s="19">
-        <v>484528</v>
+        <v>485707</v>
       </c>
       <c r="G27" s="19">
-        <v>484541</v>
+        <v>485124</v>
       </c>
       <c r="H27" s="19">
-        <v>478512</v>
+        <v>478223</v>
       </c>
       <c r="I27" s="19">
-        <v>479426</v>
+        <v>477102</v>
       </c>
       <c r="J27" s="19">
-        <v>476739</v>
+        <v>489346</v>
       </c>
       <c r="K27" s="19">
-        <v>481865</v>
+        <v>482626</v>
       </c>
       <c r="L27" s="19">
-        <v>482362</v>
+        <v>483668</v>
       </c>
       <c r="M27" s="26"/>
       <c r="N27" s="17" t="s">
@@ -4341,6 +4344,356 @@
         <v>124.98399999999999</v>
       </c>
       <c r="AH27" s="21"/>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A30" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="19">
+        <v>55007.8</v>
+      </c>
+      <c r="D30" s="19">
+        <v>54778.400000000001</v>
+      </c>
+      <c r="E30" s="19">
+        <v>54778.400000000001</v>
+      </c>
+      <c r="F30" s="19">
+        <v>54778.400000000001</v>
+      </c>
+      <c r="G30" s="19">
+        <v>55007.8</v>
+      </c>
+      <c r="H30" s="19">
+        <v>54778.400000000001</v>
+      </c>
+      <c r="I30" s="19">
+        <v>54778.400000000001</v>
+      </c>
+      <c r="J30" s="19">
+        <v>55007.8</v>
+      </c>
+      <c r="K30" s="19">
+        <v>54778.400000000001</v>
+      </c>
+      <c r="L30" s="19">
+        <v>54778.400000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A31" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="19">
+        <v>473.00900000000001</v>
+      </c>
+      <c r="D31" s="19">
+        <v>473.96199999999999</v>
+      </c>
+      <c r="E31" s="19">
+        <v>460.37400000000002</v>
+      </c>
+      <c r="F31" s="19">
+        <v>460.37400000000002</v>
+      </c>
+      <c r="G31" s="19">
+        <v>470.21499999999997</v>
+      </c>
+      <c r="H31" s="19">
+        <v>470.21499999999997</v>
+      </c>
+      <c r="I31" s="19">
+        <v>476.12099999999998</v>
+      </c>
+      <c r="J31" s="19">
+        <v>470.21499999999997</v>
+      </c>
+      <c r="K31" s="19">
+        <v>476.06200000000001</v>
+      </c>
+      <c r="L31" s="19">
+        <v>473.00900000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A32" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="19">
+        <v>64243.3</v>
+      </c>
+      <c r="D32" s="19">
+        <v>63215.199999999997</v>
+      </c>
+      <c r="E32" s="19">
+        <v>63215.199999999997</v>
+      </c>
+      <c r="F32" s="19">
+        <v>64879.7</v>
+      </c>
+      <c r="G32" s="19">
+        <v>64119.1</v>
+      </c>
+      <c r="H32" s="19">
+        <v>66034.8</v>
+      </c>
+      <c r="I32" s="19">
+        <v>64243.3</v>
+      </c>
+      <c r="J32" s="19">
+        <v>63550.5</v>
+      </c>
+      <c r="K32" s="19">
+        <v>63215.199999999997</v>
+      </c>
+      <c r="L32" s="19">
+        <v>64046.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A33" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="19">
+        <v>372.11700000000002</v>
+      </c>
+      <c r="D33" s="19">
+        <v>355.78399999999999</v>
+      </c>
+      <c r="E33" s="19">
+        <v>372.93599999999998</v>
+      </c>
+      <c r="F33" s="19">
+        <v>355.78399999999999</v>
+      </c>
+      <c r="G33" s="19">
+        <v>355.78399999999999</v>
+      </c>
+      <c r="H33" s="19">
+        <v>355.78399999999999</v>
+      </c>
+      <c r="I33" s="19">
+        <v>359.73500000000001</v>
+      </c>
+      <c r="J33" s="19">
+        <v>374.17500000000001</v>
+      </c>
+      <c r="K33" s="19">
+        <v>355.86700000000002</v>
+      </c>
+      <c r="L33" s="19">
+        <v>355.78399999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A34" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="19">
+        <v>196497</v>
+      </c>
+      <c r="D34" s="19">
+        <v>196817</v>
+      </c>
+      <c r="E34" s="19">
+        <v>196002</v>
+      </c>
+      <c r="F34" s="19">
+        <v>197604</v>
+      </c>
+      <c r="G34" s="19">
+        <v>195500</v>
+      </c>
+      <c r="H34" s="19">
+        <v>195946</v>
+      </c>
+      <c r="I34" s="19">
+        <v>195294</v>
+      </c>
+      <c r="J34" s="19">
+        <v>194808</v>
+      </c>
+      <c r="K34" s="19">
+        <v>196824</v>
+      </c>
+      <c r="L34" s="19">
+        <v>196893</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A35" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="19">
+        <v>203978</v>
+      </c>
+      <c r="D35" s="19">
+        <v>204098</v>
+      </c>
+      <c r="E35" s="19">
+        <v>206022</v>
+      </c>
+      <c r="F35" s="19">
+        <v>205012</v>
+      </c>
+      <c r="G35" s="19">
+        <v>205112</v>
+      </c>
+      <c r="H35" s="19">
+        <v>203945</v>
+      </c>
+      <c r="I35" s="19">
+        <v>205051</v>
+      </c>
+      <c r="J35" s="19">
+        <v>206341</v>
+      </c>
+      <c r="K35" s="19">
+        <v>205012</v>
+      </c>
+      <c r="L35" s="19">
+        <v>205172</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A36" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="19">
+        <v>865.58799999999997</v>
+      </c>
+      <c r="D36" s="19">
+        <v>852.12</v>
+      </c>
+      <c r="E36" s="19">
+        <v>890.40499999999997</v>
+      </c>
+      <c r="F36" s="19">
+        <v>837.53499999999997</v>
+      </c>
+      <c r="G36" s="19">
+        <v>870.41800000000001</v>
+      </c>
+      <c r="H36" s="19">
+        <v>854.43499999999995</v>
+      </c>
+      <c r="I36" s="19">
+        <v>846.77599999999995</v>
+      </c>
+      <c r="J36" s="19">
+        <v>861.22199999999998</v>
+      </c>
+      <c r="K36" s="19">
+        <v>850.24599999999998</v>
+      </c>
+      <c r="L36" s="19">
+        <v>885.32500000000005</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A37" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="17">
+        <v>5795.58</v>
+      </c>
+      <c r="D37" s="17">
+        <v>6113.75</v>
+      </c>
+      <c r="E37" s="17">
+        <v>5890.1</v>
+      </c>
+      <c r="F37" s="17">
+        <v>5825.56</v>
+      </c>
+      <c r="G37" s="17">
+        <v>5967.41</v>
+      </c>
+      <c r="H37" s="17">
+        <v>5798.5</v>
+      </c>
+      <c r="I37" s="17">
+        <v>5895.23</v>
+      </c>
+      <c r="J37" s="17">
+        <v>6078.33</v>
+      </c>
+      <c r="K37" s="17">
+        <v>5795.58</v>
+      </c>
+      <c r="L37" s="17">
+        <v>6170.65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A38" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="17">
+        <v>46660.800000000003</v>
+      </c>
+      <c r="D38" s="17">
+        <v>44437.2</v>
+      </c>
+      <c r="E38" s="17">
+        <v>44684.800000000003</v>
+      </c>
+      <c r="F38" s="17">
+        <v>44613.2</v>
+      </c>
+      <c r="G38" s="17">
+        <v>44818.1</v>
+      </c>
+      <c r="H38" s="17">
+        <v>45442.2</v>
+      </c>
+      <c r="I38" s="17">
+        <v>46392.1</v>
+      </c>
+      <c r="J38" s="17">
+        <v>44187.6</v>
+      </c>
+      <c r="K38" s="17">
+        <v>45279.5</v>
+      </c>
+      <c r="L38" s="17">
+        <v>46372.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A39" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="44">
+        <v>477535</v>
+      </c>
+      <c r="D39" s="44">
+        <v>479703</v>
+      </c>
+      <c r="E39" s="44">
+        <v>481010</v>
+      </c>
+      <c r="F39" s="44">
+        <v>480632</v>
+      </c>
+      <c r="G39" s="44">
+        <v>481201</v>
+      </c>
+      <c r="H39" s="44">
+        <v>479024</v>
+      </c>
+      <c r="I39" s="44">
+        <v>477214</v>
+      </c>
+      <c r="J39" s="44">
+        <v>481435</v>
+      </c>
+      <c r="K39" s="44">
+        <v>478084</v>
+      </c>
+      <c r="L39" s="17">
+        <v>478323</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4361,7 +4714,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.45"/>
@@ -4375,7 +4728,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="38" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B1" s="38"/>
       <c r="C1" s="38"/>
@@ -4420,12 +4773,12 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B5" s="4">
         <v>102</v>
@@ -4440,11 +4793,11 @@
       </c>
       <c r="E5" s="6">
         <f>AVERAGE(data!C5:L5) / data!B5 -1</f>
-        <v>1.8760975609757313E-3</v>
+        <v>1.0826585365854013E-2</v>
       </c>
       <c r="F5" s="6">
         <f>MAX(data!C5:L5) / data!B5 -1</f>
-        <v>2.1719512195121915E-2</v>
+        <v>3.2165853658536525E-2</v>
       </c>
       <c r="G5" s="7">
         <f>AVERAGE(data!O5:X5)</f>
@@ -4453,7 +4806,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B6" s="4">
         <v>151</v>
@@ -4464,15 +4817,15 @@
       </c>
       <c r="D6" s="6">
         <f>MIN(data!C6:L6) / data!B6 -1</f>
-        <v>1.4106957577662005E-3</v>
+        <v>9.7701318722320796E-3</v>
       </c>
       <c r="E6" s="6">
         <f>AVERAGE(data!C6:L6) / data!B6 -1</f>
-        <v>2.4560835027150008E-2</v>
+        <v>2.9671088592348127E-2</v>
       </c>
       <c r="F6" s="6">
         <f>MAX(data!C6:L6) / data!B6 -1</f>
-        <v>5.7979268336590062E-2</v>
+        <v>5.1380747112328651E-2</v>
       </c>
       <c r="G6" s="7">
         <f>AVERAGE(data!O6:X6)</f>
@@ -4481,7 +4834,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B7" s="4">
         <v>201</v>
@@ -4492,15 +4845,15 @@
       </c>
       <c r="D7" s="6">
         <f>MIN(data!C7:L7) / data!B7 -1</f>
-        <v>-5.1954006519325135E-2</v>
+        <v>-4.9382096930185804E-2</v>
       </c>
       <c r="E7" s="6">
         <f>AVERAGE(data!C7:L7) / data!B7 -1</f>
-        <v>-3.7563491779202596E-2</v>
+        <v>-3.2657520507217819E-2</v>
       </c>
       <c r="F7" s="6">
         <f>MAX(data!C7:L7) / data!B7 -1</f>
-        <v>-2.0582440806676927E-2</v>
+        <v>-1.8232618117992483E-2</v>
       </c>
       <c r="G7" s="7">
         <f>AVERAGE(data!O7:X7)</f>
@@ -4509,7 +4862,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B8" s="4">
         <v>251</v>
@@ -4520,15 +4873,15 @@
       </c>
       <c r="D8" s="6">
         <f>MIN(data!C8:L8) / data!B8 -1</f>
-        <v>2.9728052941784711E-2</v>
+        <v>2.8624237410815878E-2</v>
       </c>
       <c r="E8" s="6">
         <f>AVERAGE(data!C8:L8) / data!B8 -1</f>
-        <v>3.6425137007548347E-2</v>
+        <v>3.6186020059973067E-2</v>
       </c>
       <c r="F8" s="6">
         <f>MAX(data!C8:L8) / data!B8 -1</f>
-        <v>4.1337503877572068E-2</v>
+        <v>4.5005687105780234E-2</v>
       </c>
       <c r="G8" s="7">
         <f>AVERAGE(data!O8:X8)</f>
@@ -4537,7 +4890,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B9" s="4">
         <v>303</v>
@@ -4548,15 +4901,15 @@
       </c>
       <c r="D9" s="6">
         <f>MIN(data!C9:L9) / data!B9 -1</f>
-        <v>3.8548951048951174E-2</v>
+        <v>3.9611704085388277E-2</v>
       </c>
       <c r="E9" s="6">
         <f>AVERAGE(data!C9:L9) / data!B9 -1</f>
-        <v>5.1455649613544541E-2</v>
+        <v>4.827935222672064E-2</v>
       </c>
       <c r="F9" s="6">
         <f>MAX(data!C9:L9) / data!B9 -1</f>
-        <v>9.8978652926021482E-2</v>
+        <v>5.6854987118144962E-2</v>
       </c>
       <c r="G9" s="7">
         <f>AVERAGE(data!O9:X9)</f>
@@ -4565,12 +4918,12 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B11" s="24">
         <v>101</v>
@@ -4585,11 +4938,11 @@
       </c>
       <c r="E11" s="6">
         <f>AVERAGE(data!C11:L11) / data!B11 -1</f>
-        <v>4.1074499176674273E-4</v>
+        <v>2.2633507312599388E-3</v>
       </c>
       <c r="F11" s="6">
         <f>MAX(data!C11:L11) / data!B11 -1</f>
-        <v>3.8765577625334835E-3</v>
+        <v>8.0265404456218992E-3</v>
       </c>
       <c r="G11" s="7">
         <f>AVERAGE(data!O11:X11)</f>
@@ -4598,7 +4951,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B12" s="24">
         <v>101</v>
@@ -4609,15 +4962,15 @@
       </c>
       <c r="D12" s="6">
         <f>MIN(data!C12:L12) / data!B12 -1</f>
-        <v>-7.3939810120012384E-2</v>
+        <v>-6.1778867267660464E-2</v>
       </c>
       <c r="E12" s="6">
         <f>AVERAGE(data!C12:L12) / data!B12 -1</f>
-        <v>-5.613916015235132E-2</v>
+        <v>-5.3620735086276405E-2</v>
       </c>
       <c r="F12" s="6">
         <f>MAX(data!C12:L12) / data!B12 -1</f>
-        <v>-3.5061523351724966E-2</v>
+        <v>-3.8383225404632793E-2</v>
       </c>
       <c r="G12" s="7">
         <f>AVERAGE(data!O12:X12)</f>
@@ -4626,7 +4979,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B13" s="24">
         <v>101</v>
@@ -4654,7 +5007,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B14" s="24">
         <v>101</v>
@@ -4665,15 +5018,15 @@
       </c>
       <c r="D14" s="6">
         <f>MIN(data!C14:L14) / data!B14 -1</f>
-        <v>-1.5214010412933909E-5</v>
+        <v>-1.1833119210158394E-5</v>
       </c>
       <c r="E14" s="6">
         <f>AVERAGE(data!C14:L14) / data!B14 -1</f>
-        <v>-1.5214010412822887E-5</v>
+        <v>-1.1325985529775373E-5</v>
       </c>
       <c r="F14" s="6">
         <f>MAX(data!C14:L14) / data!B14 -1</f>
-        <v>-1.5214010412933909E-5</v>
+        <v>-1.0142673608770636E-5</v>
       </c>
       <c r="G14" s="7">
         <f>AVERAGE(data!O14:X14)</f>
@@ -4682,7 +5035,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B15" s="24">
         <v>101</v>
@@ -4693,15 +5046,15 @@
       </c>
       <c r="D15" s="6">
         <f>MIN(data!C15:L15) / data!B15 -1</f>
-        <v>-2.9918559289073277E-2</v>
+        <v>-3.1326976793522476E-2</v>
       </c>
       <c r="E15" s="6">
         <f>AVERAGE(data!C15:L15) / data!B15 -1</f>
-        <v>-2.2717361839546535E-2</v>
+        <v>-2.1887043737551015E-2</v>
       </c>
       <c r="F15" s="6">
         <f>MAX(data!C15:L15) / data!B15 -1</f>
-        <v>-1.5386519264087184E-2</v>
+        <v>-1.0619114405930663E-2</v>
       </c>
       <c r="G15" s="7">
         <f>AVERAGE(data!O15:X15)</f>
@@ -4710,7 +5063,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B16" s="24">
         <v>101</v>
@@ -4721,15 +5074,15 @@
       </c>
       <c r="D16" s="6">
         <f>MIN(data!C16:L16) / data!B16 -1</f>
-        <v>-0.10046840238536947</v>
+        <v>-9.7632400082450332E-2</v>
       </c>
       <c r="E16" s="6">
         <f>AVERAGE(data!C16:L16) / data!B16 -1</f>
-        <v>-8.2772885259185358E-2</v>
+        <v>-8.4010348920684486E-2</v>
       </c>
       <c r="F16" s="6">
         <f>MAX(data!C16:L16) / data!B16 -1</f>
-        <v>-7.1511326239773743E-2</v>
+        <v>-7.5619620302649126E-2</v>
       </c>
       <c r="G16" s="7">
         <f>AVERAGE(data!O16:X16)</f>
@@ -4738,7 +5091,7 @@
     </row>
     <row r="17" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -4758,7 +5111,7 @@
       </c>
       <c r="E18" s="6">
         <f>AVERAGE(data!C18:L18) / data!B18 -1</f>
-        <v>1.4082090778020362E-3</v>
+        <v>1.5220922380621005E-4</v>
       </c>
       <c r="F18" s="6">
         <f>MAX(data!C18:L18) / data!B18 -1</f>
@@ -4786,11 +5139,11 @@
       </c>
       <c r="E19" s="6">
         <f>AVERAGE(data!C19:L19) / data!B19 -1</f>
-        <v>1.4675716768027813E-2</v>
+        <v>1.6726542137271982E-2</v>
       </c>
       <c r="F19" s="6">
         <f>MAX(data!C19:L19) / data!B19 -1</f>
-        <v>3.4018245004344028E-2</v>
+        <v>2.7387054735013017E-2</v>
       </c>
       <c r="G19" s="7">
         <f>AVERAGE(data!O19:X19)</f>
@@ -4814,11 +5167,11 @@
       </c>
       <c r="E20" s="6">
         <f>AVERAGE(data!C20:L20) / data!B20 -1</f>
-        <v>7.5906834065968543E-3</v>
+        <v>4.7175927390026295E-3</v>
       </c>
       <c r="F20" s="6">
         <f>MAX(data!C20:L20) / data!B20 -1</f>
-        <v>2.8677144935327803E-2</v>
+        <v>1.386894785111159E-2</v>
       </c>
       <c r="G20" s="7">
         <f>AVERAGE(data!O20:X20)</f>
@@ -4842,11 +5195,11 @@
       </c>
       <c r="E21" s="6">
         <f>AVERAGE(data!C21:L21) / data!B21 -1</f>
-        <v>5.6925238898257735E-3</v>
+        <v>1.5614109050028135E-2</v>
       </c>
       <c r="F21" s="6">
         <f>MAX(data!C21:L21) / data!B21 -1</f>
-        <v>3.1908375491849439E-2</v>
+        <v>5.4010680157391855E-2</v>
       </c>
       <c r="G21" s="7">
         <f>AVERAGE(data!O21:X21)</f>
@@ -4866,15 +5219,15 @@
       </c>
       <c r="D22" s="6">
         <f>MIN(data!C22:L22) / data!B22 -1</f>
-        <v>-6.0030270800949248E-3</v>
+        <v>-2.0146445226212339E-3</v>
       </c>
       <c r="E22" s="6">
         <f>AVERAGE(data!C22:L22) / data!B22 -1</f>
-        <v>1.8136914014563743E-3</v>
+        <v>2.1613965474924779E-3</v>
       </c>
       <c r="F22" s="6">
         <f>MAX(data!C22:L22) / data!B22 -1</f>
-        <v>9.3113392784096582E-3</v>
+        <v>1.0671479996727573E-2</v>
       </c>
       <c r="G22" s="7">
         <f>AVERAGE(data!O22:X22)</f>
@@ -4894,15 +5247,15 @@
       </c>
       <c r="D23" s="6">
         <f>MIN(data!C23:L23) / data!B23 -1</f>
-        <v>-1.9086304353145289E-3</v>
+        <v>5.3833166124261922E-4</v>
       </c>
       <c r="E23" s="6">
         <f>AVERAGE(data!C23:L23) / data!B23 -1</f>
-        <v>5.4214892211319476E-3</v>
+        <v>8.9500085643672289E-3</v>
       </c>
       <c r="F23" s="6">
         <f>MAX(data!C23:L23) / data!B23 -1</f>
-        <v>3.1536447500428277E-2</v>
+        <v>3.2764822472899802E-2</v>
       </c>
       <c r="G23" s="7">
         <f>AVERAGE(data!O23:X23)</f>
@@ -4922,15 +5275,15 @@
       </c>
       <c r="D24" s="6">
         <f>MIN(data!C24:L24) / data!B24 -1</f>
-        <v>-7.3828449400877849E-3</v>
+        <v>-1.4355202277849255E-3</v>
       </c>
       <c r="E24" s="6">
         <f>AVERAGE(data!C24:L24) / data!B24 -1</f>
-        <v>1.4377268952426192E-2</v>
+        <v>1.9154585360066756E-2</v>
       </c>
       <c r="F24" s="6">
         <f>MAX(data!C24:L24) / data!B24 -1</f>
-        <v>3.8519397318780513E-2</v>
+        <v>4.212006169177851E-2</v>
       </c>
       <c r="G24" s="7">
         <f>AVERAGE(data!O24:X24)</f>
@@ -4950,15 +5303,15 @@
       </c>
       <c r="D25" s="6">
         <f>MIN(data!C25:L25) / data!B25 -1</f>
-        <v>-1.3258736443449881E-2</v>
+        <v>-1.4918230332243043E-2</v>
       </c>
       <c r="E25" s="6">
         <f>AVERAGE(data!C25:L25) / data!B25 -1</f>
-        <v>1.7195042175933706E-2</v>
+        <v>1.3273713203649562E-2</v>
       </c>
       <c r="F25" s="6">
         <f>MAX(data!C25:L25) / data!B25 -1</f>
-        <v>6.4575658461008656E-2</v>
+        <v>3.2582200034429354E-2</v>
       </c>
       <c r="G25" s="7">
         <f>AVERAGE(data!O25:X25)</f>
@@ -4978,15 +5331,15 @@
       </c>
       <c r="D26" s="6">
         <f>MIN(data!C26:L26) / data!B26 -1</f>
-        <v>-1.5450437042863197E-4</v>
+        <v>4.1420804013478918E-3</v>
       </c>
       <c r="E26" s="6">
         <f>AVERAGE(data!C26:L26) / data!B26 -1</f>
-        <v>2.9438535662108078E-2</v>
+        <v>2.9184285087828998E-2</v>
       </c>
       <c r="F26" s="6">
         <f>MAX(data!C26:L26) / data!B26 -1</f>
-        <v>5.8011846849814974E-2</v>
+        <v>5.1340893444243418E-2</v>
       </c>
       <c r="G26" s="7">
         <f>AVERAGE(data!O26:X26)</f>
@@ -5006,15 +5359,15 @@
       </c>
       <c r="D27" s="6">
         <f>MIN(data!C27:L27) / data!B27 -1</f>
-        <v>-1.3656846044759474E-3</v>
+        <v>-1.7202171669281618E-3</v>
       </c>
       <c r="E27" s="6">
         <f>AVERAGE(data!C27:L27) / data!B27 -1</f>
-        <v>7.5284674962867726E-3</v>
+        <v>1.0124317157697682E-2</v>
       </c>
       <c r="F27" s="6">
         <f>MAX(data!C27:L27) / data!B27 -1</f>
-        <v>1.6482617415310763E-2</v>
+        <v>2.6562670448347259E-2</v>
       </c>
       <c r="G27" s="7">
         <f>AVERAGE(data!O27:X27)</f>

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research\dev\LRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443A28CA-FB2F-4D0B-8110-79D3DFF95F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A03EBCC-293B-488A-96D6-234C6E3CC47A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="126">
   <si>
     <t>Instance</t>
   </si>
@@ -416,7 +416,7 @@
     <t>                        :interopt!          ,</t>
   </si>
   <si>
-    <t>[1010, 1104, 1509, 1604, 1905, 2104, 2412, 2703, 2710, 2807]</t>
+    <t>[1010, 1106, 1509, 1604, 1905, 2104, 2412, 2703, 2710, 2807]</t>
   </si>
 </sst>
 </file>
@@ -703,7 +703,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -762,9 +762,6 @@
     <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -815,9 +812,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1103,7 +1097,7 @@
   <dimension ref="A1:N286"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1310,7 +1304,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="K21" s="27"/>
+      <c r="K21" s="26"/>
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1327,7 +1321,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="K22" s="28"/>
+      <c r="K22" s="27"/>
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2599,10 +2593,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16226786-0325-4223-91E5-2589AE0E8571}">
-  <dimension ref="A1:AH39"/>
+  <dimension ref="A1:AH27"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:L27"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -2616,77 +2610,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="33"/>
-      <c r="N1" s="36" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="33"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="32"/>
     </row>
     <row r="2" spans="1:34" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="31"/>
-      <c r="N2" s="34" t="s">
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="O2" s="29" t="s">
+      <c r="O2" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30"/>
-      <c r="X2" s="31"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
+      <c r="X2" s="30"/>
     </row>
     <row r="3" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="33"/>
-      <c r="B3" s="35"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="34"/>
       <c r="C3" s="18">
         <v>1010</v>
       </c>
       <c r="D3" s="18">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="E3" s="18">
         <v>1509</v>
@@ -2712,12 +2708,13 @@
       <c r="L3" s="18">
         <v>2807</v>
       </c>
-      <c r="N3" s="35"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="34"/>
       <c r="O3" s="18">
         <v>1010</v>
       </c>
       <c r="P3" s="18">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="Q3" s="18">
         <v>1509</v>
@@ -2759,6 +2756,7 @@
       <c r="J4" s="22"/>
       <c r="K4" s="22"/>
       <c r="L4" s="22"/>
+      <c r="M4" s="19"/>
       <c r="N4" s="25" t="s">
         <v>116</v>
       </c>
@@ -2780,37 +2778,37 @@
       <c r="B5" s="22">
         <v>820</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="22">
+        <v>845.83199999999999</v>
+      </c>
+      <c r="D5" s="22">
         <v>819.55799999999999</v>
       </c>
-      <c r="D5" s="19">
+      <c r="E5" s="22">
+        <v>838.649</v>
+      </c>
+      <c r="F5" s="22">
         <v>819.55799999999999</v>
       </c>
-      <c r="E5" s="19">
-        <v>840.01300000000003</v>
-      </c>
-      <c r="F5" s="19">
+      <c r="G5" s="22">
         <v>820.92100000000005</v>
       </c>
-      <c r="G5" s="19">
-        <v>843.66600000000005</v>
-      </c>
-      <c r="H5" s="19">
+      <c r="H5" s="22">
         <v>819.55799999999999</v>
       </c>
-      <c r="I5" s="19">
-        <v>838.649</v>
-      </c>
-      <c r="J5" s="19">
-        <v>820.92100000000005</v>
-      </c>
-      <c r="K5" s="19">
-        <v>846.37599999999998</v>
-      </c>
-      <c r="L5" s="19">
+      <c r="I5" s="22">
+        <v>837.81</v>
+      </c>
+      <c r="J5" s="22">
         <v>819.55799999999999</v>
       </c>
-      <c r="M5" s="26"/>
+      <c r="K5" s="22">
+        <v>819.55799999999999</v>
+      </c>
+      <c r="L5" s="22">
+        <v>819.55799999999999</v>
+      </c>
+      <c r="M5" s="19"/>
       <c r="N5" s="17" t="s">
         <v>105</v>
       </c>
@@ -2853,37 +2851,37 @@
       <c r="B6" s="22">
         <v>3055.23</v>
       </c>
-      <c r="C6" s="19">
-        <v>3085.67</v>
-      </c>
-      <c r="D6" s="19">
-        <v>3185.81</v>
-      </c>
-      <c r="E6" s="19">
-        <v>3085.08</v>
-      </c>
-      <c r="F6" s="19">
-        <v>3212.21</v>
-      </c>
-      <c r="G6" s="19">
-        <v>3107.89</v>
-      </c>
-      <c r="H6" s="19">
-        <v>3111.91</v>
-      </c>
-      <c r="I6" s="19">
-        <v>3209.2</v>
-      </c>
-      <c r="J6" s="19">
-        <v>3204.62</v>
-      </c>
-      <c r="K6" s="19">
-        <v>3112.36</v>
-      </c>
-      <c r="L6" s="19">
-        <v>3144.07</v>
-      </c>
-      <c r="M6" s="26"/>
+      <c r="C6" s="22">
+        <v>3074.28</v>
+      </c>
+      <c r="D6" s="22">
+        <v>3105.24</v>
+      </c>
+      <c r="E6" s="22">
+        <v>3203.52</v>
+      </c>
+      <c r="F6" s="22">
+        <v>3124.72</v>
+      </c>
+      <c r="G6" s="22">
+        <v>3124.94</v>
+      </c>
+      <c r="H6" s="22">
+        <v>3188.97</v>
+      </c>
+      <c r="I6" s="22">
+        <v>3214.08</v>
+      </c>
+      <c r="J6" s="22">
+        <v>3107.17</v>
+      </c>
+      <c r="K6" s="22">
+        <v>3135.25</v>
+      </c>
+      <c r="L6" s="22">
+        <v>3249.81</v>
+      </c>
+      <c r="M6" s="19"/>
       <c r="N6" s="17" t="s">
         <v>106</v>
       </c>
@@ -2926,37 +2924,37 @@
       <c r="B7" s="22">
         <v>1395.85</v>
       </c>
-      <c r="C7" s="19">
-        <v>1367.59</v>
-      </c>
-      <c r="D7" s="19">
-        <v>1351.08</v>
-      </c>
-      <c r="E7" s="19">
-        <v>1339.41</v>
-      </c>
-      <c r="F7" s="19">
-        <v>1341.21</v>
-      </c>
-      <c r="G7" s="19">
-        <v>1352.66</v>
-      </c>
-      <c r="H7" s="19">
-        <v>1352.13</v>
-      </c>
-      <c r="I7" s="19">
-        <v>1370.4</v>
-      </c>
-      <c r="J7" s="19">
-        <v>1326.92</v>
-      </c>
-      <c r="K7" s="19">
-        <v>1348.83</v>
-      </c>
-      <c r="L7" s="19">
-        <v>1352.42</v>
-      </c>
-      <c r="M7" s="26"/>
+      <c r="C7" s="22">
+        <v>1338.39</v>
+      </c>
+      <c r="D7" s="22">
+        <v>1349.77</v>
+      </c>
+      <c r="E7" s="22">
+        <v>1326.84</v>
+      </c>
+      <c r="F7" s="22">
+        <v>1358.8</v>
+      </c>
+      <c r="G7" s="22">
+        <v>1362.91</v>
+      </c>
+      <c r="H7" s="22">
+        <v>1367.41</v>
+      </c>
+      <c r="I7" s="22">
+        <v>1348.24</v>
+      </c>
+      <c r="J7" s="22">
+        <v>1368.25</v>
+      </c>
+      <c r="K7" s="22">
+        <v>1344.03</v>
+      </c>
+      <c r="L7" s="22">
+        <v>1349.7</v>
+      </c>
+      <c r="M7" s="19"/>
       <c r="N7" s="17" t="s">
         <v>107</v>
       </c>
@@ -2999,37 +2997,37 @@
       <c r="B8" s="22">
         <v>38684</v>
       </c>
-      <c r="C8" s="19">
-        <v>40425</v>
-      </c>
-      <c r="D8" s="19">
-        <v>40192.5</v>
-      </c>
-      <c r="E8" s="19">
-        <v>40129.9</v>
-      </c>
-      <c r="F8" s="19">
-        <v>40316.300000000003</v>
-      </c>
-      <c r="G8" s="19">
-        <v>40028.5</v>
-      </c>
-      <c r="H8" s="19">
-        <v>39924</v>
-      </c>
-      <c r="I8" s="19">
-        <v>40042.5</v>
-      </c>
-      <c r="J8" s="19">
-        <v>40091.699999999997</v>
-      </c>
-      <c r="K8" s="19">
-        <v>39896.5</v>
-      </c>
-      <c r="L8" s="19">
-        <v>39791.300000000003</v>
-      </c>
-      <c r="M8" s="26"/>
+      <c r="C8" s="22">
+        <v>39680.400000000001</v>
+      </c>
+      <c r="D8" s="22">
+        <v>39913.800000000003</v>
+      </c>
+      <c r="E8" s="22">
+        <v>40560.400000000001</v>
+      </c>
+      <c r="F8" s="22">
+        <v>40193.800000000003</v>
+      </c>
+      <c r="G8" s="22">
+        <v>40320.800000000003</v>
+      </c>
+      <c r="H8" s="22">
+        <v>39583.300000000003</v>
+      </c>
+      <c r="I8" s="22">
+        <v>39962.400000000001</v>
+      </c>
+      <c r="J8" s="22">
+        <v>40016</v>
+      </c>
+      <c r="K8" s="22">
+        <v>40029.300000000003</v>
+      </c>
+      <c r="L8" s="22">
+        <v>39850</v>
+      </c>
+      <c r="M8" s="19"/>
       <c r="N8" s="17" t="s">
         <v>108</v>
       </c>
@@ -3072,37 +3070,37 @@
       <c r="B9" s="22">
         <v>21736</v>
       </c>
-      <c r="C9" s="19">
-        <v>22971.8</v>
-      </c>
-      <c r="D9" s="19">
-        <v>22597</v>
-      </c>
-      <c r="E9" s="19">
-        <v>22634.5</v>
-      </c>
-      <c r="F9" s="19">
-        <v>22889.8</v>
-      </c>
-      <c r="G9" s="19">
-        <v>22764.2</v>
-      </c>
-      <c r="H9" s="19">
-        <v>22695.8</v>
-      </c>
-      <c r="I9" s="19">
-        <v>22833.4</v>
-      </c>
-      <c r="J9" s="19">
-        <v>22778.2</v>
-      </c>
-      <c r="K9" s="19">
-        <v>22732.1</v>
-      </c>
-      <c r="L9" s="19">
-        <v>22957.200000000001</v>
-      </c>
-      <c r="M9" s="26"/>
+      <c r="C9" s="22">
+        <v>22488.6</v>
+      </c>
+      <c r="D9" s="22">
+        <v>22436.2</v>
+      </c>
+      <c r="E9" s="22">
+        <v>22668.2</v>
+      </c>
+      <c r="F9" s="22">
+        <v>22393.8</v>
+      </c>
+      <c r="G9" s="22">
+        <v>22809.8</v>
+      </c>
+      <c r="H9" s="22">
+        <v>23241.200000000001</v>
+      </c>
+      <c r="I9" s="22">
+        <v>22804.400000000001</v>
+      </c>
+      <c r="J9" s="22">
+        <v>22972.799999999999</v>
+      </c>
+      <c r="K9" s="22">
+        <v>22713.4</v>
+      </c>
+      <c r="L9" s="22">
+        <v>22686.5</v>
+      </c>
+      <c r="M9" s="19"/>
       <c r="N9" s="17" t="s">
         <v>109</v>
       </c>
@@ -3143,16 +3141,17 @@
         <v>117</v>
       </c>
       <c r="B10" s="22"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="19"/>
       <c r="N10" s="25" t="s">
         <v>117</v>
       </c>
@@ -3175,37 +3174,37 @@
       <c r="B11" s="22">
         <v>1645.79</v>
       </c>
-      <c r="C11" s="19">
-        <v>1644.67</v>
-      </c>
-      <c r="D11" s="19">
-        <v>1646.49</v>
-      </c>
-      <c r="E11" s="19">
-        <v>1655.21</v>
-      </c>
-      <c r="F11" s="19">
-        <v>1652.17</v>
-      </c>
-      <c r="G11" s="19">
+      <c r="C11" s="22">
+        <v>1652.47</v>
+      </c>
+      <c r="D11" s="22">
+        <v>1645.69</v>
+      </c>
+      <c r="E11" s="22">
+        <v>1650.51</v>
+      </c>
+      <c r="F11" s="22">
+        <v>1647.58</v>
+      </c>
+      <c r="G11" s="22">
         <v>1644.25</v>
       </c>
-      <c r="H11" s="19">
-        <v>1642.88</v>
-      </c>
-      <c r="I11" s="19">
-        <v>1654.06</v>
-      </c>
-      <c r="J11" s="19">
-        <v>1659</v>
-      </c>
-      <c r="K11" s="19">
-        <v>1652.17</v>
-      </c>
-      <c r="L11" s="19">
+      <c r="H11" s="22">
+        <v>1646.14</v>
+      </c>
+      <c r="I11" s="22">
+        <v>1644.55</v>
+      </c>
+      <c r="J11" s="22">
         <v>1644.25</v>
       </c>
-      <c r="M11" s="26"/>
+      <c r="K11" s="22">
+        <v>1659.05</v>
+      </c>
+      <c r="L11" s="22">
+        <v>1644.05</v>
+      </c>
+      <c r="M11" s="19"/>
       <c r="N11" s="17" t="s">
         <v>110</v>
       </c>
@@ -3248,37 +3247,37 @@
       <c r="B12" s="22">
         <v>1252.3699999999999</v>
       </c>
-      <c r="C12" s="19">
-        <v>1187.8900000000001</v>
-      </c>
-      <c r="D12" s="19">
-        <v>1176.1300000000001</v>
-      </c>
-      <c r="E12" s="19">
-        <v>1197.21</v>
-      </c>
-      <c r="F12" s="19">
-        <v>1180.68</v>
-      </c>
-      <c r="G12" s="19">
-        <v>1175</v>
-      </c>
-      <c r="H12" s="19">
-        <v>1184.3699999999999</v>
-      </c>
-      <c r="I12" s="19">
-        <v>1204.3</v>
-      </c>
-      <c r="J12" s="19">
-        <v>1179.54</v>
-      </c>
-      <c r="K12" s="19">
-        <v>1175.46</v>
-      </c>
-      <c r="L12" s="19">
-        <v>1191.5899999999999</v>
-      </c>
-      <c r="M12" s="26"/>
+      <c r="C12" s="22">
+        <v>1203.18</v>
+      </c>
+      <c r="D12" s="22">
+        <v>1180.3900000000001</v>
+      </c>
+      <c r="E12" s="22">
+        <v>1187.42</v>
+      </c>
+      <c r="F12" s="22">
+        <v>1189.9000000000001</v>
+      </c>
+      <c r="G12" s="22">
+        <v>1173</v>
+      </c>
+      <c r="H12" s="22">
+        <v>1183.99</v>
+      </c>
+      <c r="I12" s="22">
+        <v>1168.6199999999999</v>
+      </c>
+      <c r="J12" s="22">
+        <v>1177.53</v>
+      </c>
+      <c r="K12" s="22">
+        <v>1181.6400000000001</v>
+      </c>
+      <c r="L12" s="22">
+        <v>1183.32</v>
+      </c>
+      <c r="M12" s="19"/>
       <c r="N12" s="17" t="s">
         <v>111</v>
       </c>
@@ -3321,37 +3320,37 @@
       <c r="B13" s="22">
         <v>828.94</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="22">
         <v>828.93700000000001</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="22">
         <v>828.93700000000001</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="22">
         <v>828.93700000000001</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="22">
         <v>828.93700000000001</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="22">
         <v>828.93700000000001</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="22">
         <v>828.93700000000001</v>
       </c>
-      <c r="I13" s="19">
+      <c r="I13" s="22">
         <v>828.93700000000001</v>
       </c>
-      <c r="J13" s="19">
+      <c r="J13" s="22">
         <v>828.93700000000001</v>
       </c>
-      <c r="K13" s="19">
+      <c r="K13" s="22">
         <v>828.93700000000001</v>
       </c>
-      <c r="L13" s="19">
+      <c r="L13" s="22">
         <v>828.93700000000001</v>
       </c>
-      <c r="M13" s="26"/>
+      <c r="M13" s="19"/>
       <c r="N13" s="17" t="s">
         <v>112</v>
       </c>
@@ -3394,37 +3393,37 @@
       <c r="B14" s="22">
         <v>591.55999999999995</v>
       </c>
-      <c r="C14" s="19">
-        <v>591.55399999999997</v>
-      </c>
-      <c r="D14" s="19">
+      <c r="C14" s="22">
         <v>591.553</v>
       </c>
-      <c r="E14" s="19">
+      <c r="D14" s="22">
         <v>591.553</v>
       </c>
-      <c r="F14" s="19">
+      <c r="E14" s="22">
         <v>591.553</v>
       </c>
-      <c r="G14" s="19">
+      <c r="F14" s="22">
         <v>591.553</v>
       </c>
-      <c r="H14" s="19">
-        <v>591.55399999999997</v>
-      </c>
-      <c r="I14" s="19">
+      <c r="G14" s="22">
         <v>591.553</v>
       </c>
-      <c r="J14" s="19">
+      <c r="H14" s="22">
         <v>591.553</v>
       </c>
-      <c r="K14" s="19">
+      <c r="I14" s="22">
         <v>591.553</v>
       </c>
-      <c r="L14" s="19">
-        <v>591.55399999999997</v>
-      </c>
-      <c r="M14" s="26"/>
+      <c r="J14" s="22">
+        <v>591.553</v>
+      </c>
+      <c r="K14" s="22">
+        <v>591.553</v>
+      </c>
+      <c r="L14" s="22">
+        <v>591.553</v>
+      </c>
+      <c r="M14" s="19"/>
       <c r="N14" s="17" t="s">
         <v>113</v>
       </c>
@@ -3467,37 +3466,37 @@
       <c r="B15" s="22">
         <v>1696.94</v>
       </c>
-      <c r="C15" s="19">
-        <v>1660.91</v>
-      </c>
-      <c r="D15" s="19">
-        <v>1668.51</v>
-      </c>
-      <c r="E15" s="19">
-        <v>1643.78</v>
-      </c>
-      <c r="F15" s="19">
-        <v>1678.92</v>
-      </c>
-      <c r="G15" s="19">
-        <v>1664.67</v>
-      </c>
-      <c r="H15" s="19">
-        <v>1646.17</v>
-      </c>
-      <c r="I15" s="19">
-        <v>1650.56</v>
-      </c>
-      <c r="J15" s="19">
-        <v>1660.1</v>
-      </c>
-      <c r="K15" s="19">
-        <v>1663.51</v>
-      </c>
-      <c r="L15" s="19">
-        <v>1660.86</v>
-      </c>
-      <c r="M15" s="26"/>
+      <c r="C15" s="22">
+        <v>1652.69</v>
+      </c>
+      <c r="D15" s="22">
+        <v>1669.11</v>
+      </c>
+      <c r="E15" s="22">
+        <v>1669.11</v>
+      </c>
+      <c r="F15" s="22">
+        <v>1659.05</v>
+      </c>
+      <c r="G15" s="22">
+        <v>1658.99</v>
+      </c>
+      <c r="H15" s="22">
+        <v>1662.36</v>
+      </c>
+      <c r="I15" s="22">
+        <v>1652.36</v>
+      </c>
+      <c r="J15" s="22">
+        <v>1639.75</v>
+      </c>
+      <c r="K15" s="22">
+        <v>1655.24</v>
+      </c>
+      <c r="L15" s="22">
+        <v>1661.6</v>
+      </c>
+      <c r="M15" s="19"/>
       <c r="N15" s="17" t="s">
         <v>114</v>
       </c>
@@ -3540,37 +3539,37 @@
       <c r="B16" s="23">
         <v>1406.91</v>
       </c>
-      <c r="C16" s="19">
-        <v>1281.1199999999999</v>
-      </c>
-      <c r="D16" s="19">
-        <v>1289.82</v>
-      </c>
-      <c r="E16" s="19">
-        <v>1294.3800000000001</v>
-      </c>
-      <c r="F16" s="19">
-        <v>1285.69</v>
-      </c>
-      <c r="G16" s="19">
-        <v>1296.25</v>
-      </c>
-      <c r="H16" s="19">
-        <v>1269.55</v>
-      </c>
-      <c r="I16" s="19">
-        <v>1300.52</v>
-      </c>
-      <c r="J16" s="19">
-        <v>1286.56</v>
-      </c>
-      <c r="K16" s="19">
-        <v>1286.33</v>
-      </c>
-      <c r="L16" s="19">
-        <v>1296.93</v>
-      </c>
-      <c r="M16" s="26"/>
+      <c r="C16" s="22">
+        <v>1289.19</v>
+      </c>
+      <c r="D16" s="22">
+        <v>1304.22</v>
+      </c>
+      <c r="E16" s="22">
+        <v>1286.81</v>
+      </c>
+      <c r="F16" s="22">
+        <v>1293.6400000000001</v>
+      </c>
+      <c r="G16" s="22">
+        <v>1296.18</v>
+      </c>
+      <c r="H16" s="22">
+        <v>1274.01</v>
+      </c>
+      <c r="I16" s="22">
+        <v>1299.1199999999999</v>
+      </c>
+      <c r="J16" s="22">
+        <v>1280.9000000000001</v>
+      </c>
+      <c r="K16" s="22">
+        <v>1277.25</v>
+      </c>
+      <c r="L16" s="22">
+        <v>1300.95</v>
+      </c>
+      <c r="M16" s="19"/>
       <c r="N16" s="17" t="s">
         <v>115</v>
       </c>
@@ -3610,58 +3609,59 @@
         <v>118</v>
       </c>
       <c r="B17" s="22"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="19"/>
       <c r="N17" s="25" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="19">
         <v>54793</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="22">
         <v>54778.400000000001</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="22">
         <v>54778.400000000001</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="22">
+        <v>54778.400000000001</v>
+      </c>
+      <c r="F18" s="22">
+        <v>54778.400000000001</v>
+      </c>
+      <c r="G18" s="22">
+        <v>54778.400000000001</v>
+      </c>
+      <c r="H18" s="22">
         <v>55007.8</v>
       </c>
-      <c r="F18" s="19">
+      <c r="I18" s="22">
+        <v>55007.8</v>
+      </c>
+      <c r="J18" s="22">
         <v>54778.400000000001</v>
       </c>
-      <c r="G18" s="19">
+      <c r="K18" s="22">
         <v>54778.400000000001</v>
       </c>
-      <c r="H18" s="19">
+      <c r="L18" s="22">
         <v>54778.400000000001</v>
       </c>
-      <c r="I18" s="19">
-        <v>54778.400000000001</v>
-      </c>
-      <c r="J18" s="19">
-        <v>54778.400000000001</v>
-      </c>
-      <c r="K18" s="19">
-        <v>54778.400000000001</v>
-      </c>
-      <c r="L18" s="19">
-        <v>54778.400000000001</v>
-      </c>
-      <c r="M18" s="26"/>
+      <c r="M18" s="19"/>
       <c r="N18" s="17" t="s">
         <v>15</v>
       </c>
@@ -3696,44 +3696,44 @@
         <v>5.1260000000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="20">
         <v>460.4</v>
       </c>
-      <c r="C19" s="19">
+      <c r="C19" s="22">
+        <v>470.322</v>
+      </c>
+      <c r="D19" s="22">
+        <v>460.37400000000002</v>
+      </c>
+      <c r="E19" s="22">
+        <v>470.21499999999997</v>
+      </c>
+      <c r="F19" s="22">
+        <v>460.37400000000002</v>
+      </c>
+      <c r="G19" s="22">
         <v>473.00900000000001</v>
       </c>
-      <c r="D19" s="19">
+      <c r="H19" s="22">
         <v>470.21499999999997</v>
       </c>
-      <c r="E19" s="19">
+      <c r="I19" s="22">
         <v>460.37400000000002</v>
       </c>
-      <c r="F19" s="19">
-        <v>460.37400000000002</v>
-      </c>
-      <c r="G19" s="19">
+      <c r="J19" s="22">
         <v>473.00900000000001</v>
       </c>
-      <c r="H19" s="19">
+      <c r="K19" s="22">
+        <v>473.00900000000001</v>
+      </c>
+      <c r="L19" s="22">
         <v>470.21499999999997</v>
       </c>
-      <c r="I19" s="19">
-        <v>460.37400000000002</v>
-      </c>
-      <c r="J19" s="19">
-        <v>470.21499999999997</v>
-      </c>
-      <c r="K19" s="19">
-        <v>470.21499999999997</v>
-      </c>
-      <c r="L19" s="19">
-        <v>473.00900000000001</v>
-      </c>
-      <c r="M19" s="26"/>
+      <c r="M19" s="19"/>
       <c r="N19" s="17" t="s">
         <v>19</v>
       </c>
@@ -3768,44 +3768,44 @@
         <v>8.734</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="20">
         <v>63242</v>
       </c>
-      <c r="C20" s="19">
-        <v>63714.400000000001</v>
-      </c>
-      <c r="D20" s="19">
+      <c r="C20" s="22">
         <v>63215.199999999997</v>
       </c>
-      <c r="E20" s="19">
+      <c r="D20" s="22">
+        <v>63550.5</v>
+      </c>
+      <c r="E20" s="22">
         <v>63215.199999999997</v>
       </c>
-      <c r="F20" s="19">
-        <v>64119.1</v>
-      </c>
-      <c r="G20" s="19">
+      <c r="F20" s="22">
+        <v>63550.5</v>
+      </c>
+      <c r="G20" s="22">
+        <v>64319</v>
+      </c>
+      <c r="H20" s="22">
         <v>63215.199999999997</v>
       </c>
-      <c r="H20" s="19">
+      <c r="I20" s="22">
+        <v>63215.199999999997</v>
+      </c>
+      <c r="J20" s="22">
         <v>63550.5</v>
       </c>
-      <c r="I20" s="19">
+      <c r="K20" s="22">
+        <v>64852</v>
+      </c>
+      <c r="L20" s="22">
         <v>63215.199999999997</v>
       </c>
-      <c r="J20" s="19">
-        <v>63765</v>
-      </c>
-      <c r="K20" s="19">
-        <v>64119.1</v>
-      </c>
-      <c r="L20" s="19">
-        <v>63274.6</v>
-      </c>
-      <c r="M20" s="26"/>
+      <c r="M20" s="19"/>
       <c r="N20" s="17" t="s">
         <v>16</v>
       </c>
@@ -3840,44 +3840,44 @@
         <v>10.952999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="20">
         <v>355.8</v>
       </c>
-      <c r="C21" s="19">
+      <c r="C21" s="22">
         <v>355.78399999999999</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D21" s="22">
+        <v>355.78399999999999</v>
+      </c>
+      <c r="E21" s="22">
+        <v>355.78399999999999</v>
+      </c>
+      <c r="F21" s="22">
+        <v>366.53399999999999</v>
+      </c>
+      <c r="G21" s="22">
+        <v>355.78399999999999</v>
+      </c>
+      <c r="H21" s="22">
+        <v>355.78399999999999</v>
+      </c>
+      <c r="I21" s="22">
+        <v>361.28500000000003</v>
+      </c>
+      <c r="J21" s="22">
+        <v>356.86</v>
+      </c>
+      <c r="K21" s="22">
         <v>358.20499999999998</v>
       </c>
-      <c r="E21" s="19">
-        <v>371.60199999999998</v>
-      </c>
-      <c r="F21" s="19">
-        <v>375.017</v>
-      </c>
-      <c r="G21" s="19">
-        <v>356.18700000000001</v>
-      </c>
-      <c r="H21" s="19">
+      <c r="L21" s="22">
         <v>355.78399999999999</v>
       </c>
-      <c r="I21" s="19">
-        <v>355.78399999999999</v>
-      </c>
-      <c r="J21" s="19">
-        <v>355.78399999999999</v>
-      </c>
-      <c r="K21" s="19">
-        <v>355.78399999999999</v>
-      </c>
-      <c r="L21" s="19">
-        <v>373.62400000000002</v>
-      </c>
-      <c r="M21" s="26"/>
+      <c r="M21" s="19"/>
       <c r="N21" s="17" t="s">
         <v>20</v>
       </c>
@@ -3912,44 +3912,44 @@
         <v>21.001000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
         <v>17</v>
       </c>
       <c r="B22" s="20">
         <v>195568</v>
       </c>
-      <c r="C22" s="19">
-        <v>197655</v>
-      </c>
-      <c r="D22" s="19">
-        <v>195455</v>
-      </c>
-      <c r="E22" s="19">
-        <v>196046</v>
-      </c>
-      <c r="F22" s="19">
-        <v>196722</v>
-      </c>
-      <c r="G22" s="19">
-        <v>195888</v>
-      </c>
-      <c r="H22" s="19">
-        <v>195174</v>
-      </c>
-      <c r="I22" s="19">
-        <v>195867</v>
-      </c>
-      <c r="J22" s="19">
-        <v>195736</v>
-      </c>
-      <c r="K22" s="19">
-        <v>195616</v>
-      </c>
-      <c r="L22" s="19">
-        <v>195748</v>
-      </c>
-      <c r="M22" s="26"/>
+      <c r="C22" s="22">
+        <v>196292</v>
+      </c>
+      <c r="D22" s="22">
+        <v>196045</v>
+      </c>
+      <c r="E22" s="22">
+        <v>197457</v>
+      </c>
+      <c r="F22" s="22">
+        <v>195742</v>
+      </c>
+      <c r="G22" s="22">
+        <v>196697</v>
+      </c>
+      <c r="H22" s="22">
+        <v>196444</v>
+      </c>
+      <c r="I22" s="22">
+        <v>197059</v>
+      </c>
+      <c r="J22" s="22">
+        <v>197381</v>
+      </c>
+      <c r="K22" s="22">
+        <v>195596</v>
+      </c>
+      <c r="L22" s="22">
+        <v>196782</v>
+      </c>
+      <c r="M22" s="19"/>
       <c r="N22" s="17" t="s">
         <v>17</v>
       </c>
@@ -3984,44 +3984,44 @@
         <v>24.375</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
         <v>18</v>
       </c>
       <c r="B23" s="20">
         <v>204335</v>
       </c>
-      <c r="C23" s="19">
-        <v>210962</v>
-      </c>
-      <c r="D23" s="19">
-        <v>205012</v>
-      </c>
-      <c r="E23" s="19">
-        <v>205051</v>
-      </c>
-      <c r="F23" s="19">
-        <v>205012</v>
-      </c>
-      <c r="G23" s="19">
-        <v>211030</v>
-      </c>
-      <c r="H23" s="19">
-        <v>204445</v>
-      </c>
-      <c r="I23" s="19">
-        <v>205051</v>
-      </c>
-      <c r="J23" s="19">
-        <v>205012</v>
-      </c>
-      <c r="K23" s="19">
-        <v>205051</v>
-      </c>
-      <c r="L23" s="19">
-        <v>205012</v>
-      </c>
-      <c r="M23" s="26"/>
+      <c r="C23" s="22">
+        <v>210435</v>
+      </c>
+      <c r="D23" s="22">
+        <v>204280</v>
+      </c>
+      <c r="E23" s="22">
+        <v>204335</v>
+      </c>
+      <c r="F23" s="22">
+        <v>206012</v>
+      </c>
+      <c r="G23" s="22">
+        <v>206215</v>
+      </c>
+      <c r="H23" s="22">
+        <v>204311</v>
+      </c>
+      <c r="I23" s="22">
+        <v>205652</v>
+      </c>
+      <c r="J23" s="22">
+        <v>205295</v>
+      </c>
+      <c r="K23" s="22">
+        <v>204601</v>
+      </c>
+      <c r="L23" s="22">
+        <v>206131</v>
+      </c>
+      <c r="M23" s="19"/>
       <c r="N23" s="17" t="s">
         <v>18</v>
       </c>
@@ -4056,44 +4056,44 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
         <v>21</v>
       </c>
       <c r="B24" s="20">
         <v>842.9</v>
       </c>
-      <c r="C24" s="19">
-        <v>843.95799999999997</v>
-      </c>
-      <c r="D24" s="19">
-        <v>843.654</v>
-      </c>
-      <c r="E24" s="19">
-        <v>841.69</v>
-      </c>
-      <c r="F24" s="19">
-        <v>852.13199999999995</v>
-      </c>
-      <c r="G24" s="19">
-        <v>871.62199999999996</v>
-      </c>
-      <c r="H24" s="19">
-        <v>876.38199999999995</v>
-      </c>
-      <c r="I24" s="19">
-        <v>878.40300000000002</v>
-      </c>
-      <c r="J24" s="19">
-        <v>857.37199999999996</v>
-      </c>
-      <c r="K24" s="19">
-        <v>858.255</v>
-      </c>
-      <c r="L24" s="19">
-        <v>866.98599999999999</v>
-      </c>
-      <c r="M24" s="26"/>
+      <c r="C24" s="22">
+        <v>854.20500000000004</v>
+      </c>
+      <c r="D24" s="22">
+        <v>850.55899999999997</v>
+      </c>
+      <c r="E24" s="22">
+        <v>879.73900000000003</v>
+      </c>
+      <c r="F24" s="22">
+        <v>856.35400000000004</v>
+      </c>
+      <c r="G24" s="22">
+        <v>850.11300000000006</v>
+      </c>
+      <c r="H24" s="22">
+        <v>848.38199999999995</v>
+      </c>
+      <c r="I24" s="22">
+        <v>856.77300000000002</v>
+      </c>
+      <c r="J24" s="22">
+        <v>852.36500000000001</v>
+      </c>
+      <c r="K24" s="22">
+        <v>843.90200000000004</v>
+      </c>
+      <c r="L24" s="22">
+        <v>874.83799999999997</v>
+      </c>
+      <c r="M24" s="19"/>
       <c r="N24" s="17" t="s">
         <v>21</v>
       </c>
@@ -4128,44 +4128,44 @@
         <v>26.719000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A25" s="17" t="s">
         <v>22</v>
       </c>
       <c r="B25" s="20">
         <v>5809</v>
       </c>
-      <c r="C25" s="19">
-        <v>5741.72</v>
-      </c>
-      <c r="D25" s="19">
-        <v>5722.34</v>
-      </c>
-      <c r="E25" s="19">
-        <v>5953.05</v>
-      </c>
-      <c r="F25" s="19">
-        <v>5790.48</v>
-      </c>
-      <c r="G25" s="19">
-        <v>5886.2</v>
-      </c>
-      <c r="H25" s="19">
-        <v>5962.4</v>
-      </c>
-      <c r="I25" s="19">
-        <v>5998.27</v>
-      </c>
-      <c r="J25" s="19">
-        <v>5958.58</v>
-      </c>
-      <c r="K25" s="19">
-        <v>5944.59</v>
-      </c>
-      <c r="L25" s="19">
-        <v>5903.44</v>
-      </c>
-      <c r="M25" s="26"/>
+      <c r="C25" s="22">
+        <v>5931.2</v>
+      </c>
+      <c r="D25" s="22">
+        <v>5795.58</v>
+      </c>
+      <c r="E25" s="22">
+        <v>5959.45</v>
+      </c>
+      <c r="F25" s="22">
+        <v>5844.29</v>
+      </c>
+      <c r="G25" s="22">
+        <v>5709.77</v>
+      </c>
+      <c r="H25" s="22">
+        <v>5899.51</v>
+      </c>
+      <c r="I25" s="22">
+        <v>5719.49</v>
+      </c>
+      <c r="J25" s="22">
+        <v>5720.26</v>
+      </c>
+      <c r="K25" s="22">
+        <v>5997.11</v>
+      </c>
+      <c r="L25" s="22">
+        <v>5953.17</v>
+      </c>
+      <c r="M25" s="19"/>
       <c r="N25" s="17" t="s">
         <v>22</v>
       </c>
@@ -4200,44 +4200,44 @@
         <v>44.530999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A26" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="20">
         <v>44011.7</v>
       </c>
-      <c r="C26" s="19">
-        <v>44553.2</v>
-      </c>
-      <c r="D26" s="19">
-        <v>44194</v>
-      </c>
-      <c r="E26" s="19">
-        <v>44362.7</v>
-      </c>
-      <c r="F26" s="19">
-        <v>45264.6</v>
-      </c>
-      <c r="G26" s="19">
-        <v>46271.3</v>
-      </c>
-      <c r="H26" s="19">
-        <v>45297.7</v>
-      </c>
-      <c r="I26" s="19">
-        <v>46043</v>
-      </c>
-      <c r="J26" s="19">
-        <v>45219.3</v>
-      </c>
-      <c r="K26" s="19">
-        <v>45959.8</v>
-      </c>
-      <c r="L26" s="19">
-        <v>45795.9</v>
-      </c>
-      <c r="M26" s="26"/>
+      <c r="C26" s="22">
+        <v>44963.6</v>
+      </c>
+      <c r="D26" s="22">
+        <v>44993.4</v>
+      </c>
+      <c r="E26" s="22">
+        <v>44439.4</v>
+      </c>
+      <c r="F26" s="22">
+        <v>44802.400000000001</v>
+      </c>
+      <c r="G26" s="22">
+        <v>45046.7</v>
+      </c>
+      <c r="H26" s="22">
+        <v>45159</v>
+      </c>
+      <c r="I26" s="22">
+        <v>47290</v>
+      </c>
+      <c r="J26" s="22">
+        <v>44425.1</v>
+      </c>
+      <c r="K26" s="22">
+        <v>46573.8</v>
+      </c>
+      <c r="L26" s="22">
+        <v>45087.1</v>
+      </c>
+      <c r="M26" s="19"/>
       <c r="N26" s="17" t="s">
         <v>24</v>
       </c>
@@ -4272,44 +4272,44 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A27" s="17" t="s">
         <v>23</v>
       </c>
       <c r="B27" s="20">
         <v>476684</v>
       </c>
-      <c r="C27" s="19">
-        <v>475864</v>
-      </c>
-      <c r="D27" s="19">
-        <v>479150</v>
-      </c>
-      <c r="E27" s="19">
-        <v>478291</v>
-      </c>
-      <c r="F27" s="19">
-        <v>485707</v>
-      </c>
-      <c r="G27" s="19">
-        <v>485124</v>
-      </c>
-      <c r="H27" s="19">
-        <v>478223</v>
-      </c>
-      <c r="I27" s="19">
-        <v>477102</v>
-      </c>
-      <c r="J27" s="19">
-        <v>489346</v>
-      </c>
-      <c r="K27" s="19">
-        <v>482626</v>
-      </c>
-      <c r="L27" s="19">
-        <v>483668</v>
-      </c>
-      <c r="M27" s="26"/>
+      <c r="C27" s="22">
+        <v>482289</v>
+      </c>
+      <c r="D27" s="22">
+        <v>478175</v>
+      </c>
+      <c r="E27" s="22">
+        <v>476812</v>
+      </c>
+      <c r="F27" s="22">
+        <v>477934</v>
+      </c>
+      <c r="G27" s="22">
+        <v>484088</v>
+      </c>
+      <c r="H27" s="22">
+        <v>484864</v>
+      </c>
+      <c r="I27" s="22">
+        <v>475986</v>
+      </c>
+      <c r="J27" s="22">
+        <v>479612</v>
+      </c>
+      <c r="K27" s="22">
+        <v>483688</v>
+      </c>
+      <c r="L27" s="22">
+        <v>477299</v>
+      </c>
+      <c r="M27" s="19"/>
       <c r="N27" s="17" t="s">
         <v>23</v>
       </c>
@@ -4344,356 +4344,6 @@
         <v>124.98399999999999</v>
       </c>
       <c r="AH27" s="21"/>
-    </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A30" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="19">
-        <v>55007.8</v>
-      </c>
-      <c r="D30" s="19">
-        <v>54778.400000000001</v>
-      </c>
-      <c r="E30" s="19">
-        <v>54778.400000000001</v>
-      </c>
-      <c r="F30" s="19">
-        <v>54778.400000000001</v>
-      </c>
-      <c r="G30" s="19">
-        <v>55007.8</v>
-      </c>
-      <c r="H30" s="19">
-        <v>54778.400000000001</v>
-      </c>
-      <c r="I30" s="19">
-        <v>54778.400000000001</v>
-      </c>
-      <c r="J30" s="19">
-        <v>55007.8</v>
-      </c>
-      <c r="K30" s="19">
-        <v>54778.400000000001</v>
-      </c>
-      <c r="L30" s="19">
-        <v>54778.400000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A31" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="19">
-        <v>473.00900000000001</v>
-      </c>
-      <c r="D31" s="19">
-        <v>473.96199999999999</v>
-      </c>
-      <c r="E31" s="19">
-        <v>460.37400000000002</v>
-      </c>
-      <c r="F31" s="19">
-        <v>460.37400000000002</v>
-      </c>
-      <c r="G31" s="19">
-        <v>470.21499999999997</v>
-      </c>
-      <c r="H31" s="19">
-        <v>470.21499999999997</v>
-      </c>
-      <c r="I31" s="19">
-        <v>476.12099999999998</v>
-      </c>
-      <c r="J31" s="19">
-        <v>470.21499999999997</v>
-      </c>
-      <c r="K31" s="19">
-        <v>476.06200000000001</v>
-      </c>
-      <c r="L31" s="19">
-        <v>473.00900000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A32" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="19">
-        <v>64243.3</v>
-      </c>
-      <c r="D32" s="19">
-        <v>63215.199999999997</v>
-      </c>
-      <c r="E32" s="19">
-        <v>63215.199999999997</v>
-      </c>
-      <c r="F32" s="19">
-        <v>64879.7</v>
-      </c>
-      <c r="G32" s="19">
-        <v>64119.1</v>
-      </c>
-      <c r="H32" s="19">
-        <v>66034.8</v>
-      </c>
-      <c r="I32" s="19">
-        <v>64243.3</v>
-      </c>
-      <c r="J32" s="19">
-        <v>63550.5</v>
-      </c>
-      <c r="K32" s="19">
-        <v>63215.199999999997</v>
-      </c>
-      <c r="L32" s="19">
-        <v>64046.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A33" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33" s="19">
-        <v>372.11700000000002</v>
-      </c>
-      <c r="D33" s="19">
-        <v>355.78399999999999</v>
-      </c>
-      <c r="E33" s="19">
-        <v>372.93599999999998</v>
-      </c>
-      <c r="F33" s="19">
-        <v>355.78399999999999</v>
-      </c>
-      <c r="G33" s="19">
-        <v>355.78399999999999</v>
-      </c>
-      <c r="H33" s="19">
-        <v>355.78399999999999</v>
-      </c>
-      <c r="I33" s="19">
-        <v>359.73500000000001</v>
-      </c>
-      <c r="J33" s="19">
-        <v>374.17500000000001</v>
-      </c>
-      <c r="K33" s="19">
-        <v>355.86700000000002</v>
-      </c>
-      <c r="L33" s="19">
-        <v>355.78399999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A34" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" s="19">
-        <v>196497</v>
-      </c>
-      <c r="D34" s="19">
-        <v>196817</v>
-      </c>
-      <c r="E34" s="19">
-        <v>196002</v>
-      </c>
-      <c r="F34" s="19">
-        <v>197604</v>
-      </c>
-      <c r="G34" s="19">
-        <v>195500</v>
-      </c>
-      <c r="H34" s="19">
-        <v>195946</v>
-      </c>
-      <c r="I34" s="19">
-        <v>195294</v>
-      </c>
-      <c r="J34" s="19">
-        <v>194808</v>
-      </c>
-      <c r="K34" s="19">
-        <v>196824</v>
-      </c>
-      <c r="L34" s="19">
-        <v>196893</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A35" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="19">
-        <v>203978</v>
-      </c>
-      <c r="D35" s="19">
-        <v>204098</v>
-      </c>
-      <c r="E35" s="19">
-        <v>206022</v>
-      </c>
-      <c r="F35" s="19">
-        <v>205012</v>
-      </c>
-      <c r="G35" s="19">
-        <v>205112</v>
-      </c>
-      <c r="H35" s="19">
-        <v>203945</v>
-      </c>
-      <c r="I35" s="19">
-        <v>205051</v>
-      </c>
-      <c r="J35" s="19">
-        <v>206341</v>
-      </c>
-      <c r="K35" s="19">
-        <v>205012</v>
-      </c>
-      <c r="L35" s="19">
-        <v>205172</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A36" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C36" s="19">
-        <v>865.58799999999997</v>
-      </c>
-      <c r="D36" s="19">
-        <v>852.12</v>
-      </c>
-      <c r="E36" s="19">
-        <v>890.40499999999997</v>
-      </c>
-      <c r="F36" s="19">
-        <v>837.53499999999997</v>
-      </c>
-      <c r="G36" s="19">
-        <v>870.41800000000001</v>
-      </c>
-      <c r="H36" s="19">
-        <v>854.43499999999995</v>
-      </c>
-      <c r="I36" s="19">
-        <v>846.77599999999995</v>
-      </c>
-      <c r="J36" s="19">
-        <v>861.22199999999998</v>
-      </c>
-      <c r="K36" s="19">
-        <v>850.24599999999998</v>
-      </c>
-      <c r="L36" s="19">
-        <v>885.32500000000005</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A37" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C37" s="17">
-        <v>5795.58</v>
-      </c>
-      <c r="D37" s="17">
-        <v>6113.75</v>
-      </c>
-      <c r="E37" s="17">
-        <v>5890.1</v>
-      </c>
-      <c r="F37" s="17">
-        <v>5825.56</v>
-      </c>
-      <c r="G37" s="17">
-        <v>5967.41</v>
-      </c>
-      <c r="H37" s="17">
-        <v>5798.5</v>
-      </c>
-      <c r="I37" s="17">
-        <v>5895.23</v>
-      </c>
-      <c r="J37" s="17">
-        <v>6078.33</v>
-      </c>
-      <c r="K37" s="17">
-        <v>5795.58</v>
-      </c>
-      <c r="L37" s="17">
-        <v>6170.65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A38" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C38" s="17">
-        <v>46660.800000000003</v>
-      </c>
-      <c r="D38" s="17">
-        <v>44437.2</v>
-      </c>
-      <c r="E38" s="17">
-        <v>44684.800000000003</v>
-      </c>
-      <c r="F38" s="17">
-        <v>44613.2</v>
-      </c>
-      <c r="G38" s="17">
-        <v>44818.1</v>
-      </c>
-      <c r="H38" s="17">
-        <v>45442.2</v>
-      </c>
-      <c r="I38" s="17">
-        <v>46392.1</v>
-      </c>
-      <c r="J38" s="17">
-        <v>44187.6</v>
-      </c>
-      <c r="K38" s="17">
-        <v>45279.5</v>
-      </c>
-      <c r="L38" s="17">
-        <v>46372.2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A39" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C39" s="44">
-        <v>477535</v>
-      </c>
-      <c r="D39" s="44">
-        <v>479703</v>
-      </c>
-      <c r="E39" s="44">
-        <v>481010</v>
-      </c>
-      <c r="F39" s="44">
-        <v>480632</v>
-      </c>
-      <c r="G39" s="44">
-        <v>481201</v>
-      </c>
-      <c r="H39" s="44">
-        <v>479024</v>
-      </c>
-      <c r="I39" s="44">
-        <v>477214</v>
-      </c>
-      <c r="J39" s="44">
-        <v>481435</v>
-      </c>
-      <c r="K39" s="44">
-        <v>478084</v>
-      </c>
-      <c r="L39" s="17">
-        <v>478323</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4714,7 +4364,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.45"/>
@@ -4727,39 +4377,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="39"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="38"/>
     </row>
     <row r="2" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="41" t="s">
+      <c r="E2" s="37"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="40" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="33"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="42"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="41"/>
       <c r="D3" s="3" t="s">
         <v>27</v>
       </c>
@@ -4769,7 +4419,7 @@
       <c r="F3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="35"/>
+      <c r="G3" s="34"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="25" t="s">
@@ -4793,11 +4443,11 @@
       </c>
       <c r="E5" s="6">
         <f>AVERAGE(data!C5:L5) / data!B5 -1</f>
-        <v>1.0826585365854013E-2</v>
+        <v>7.3853658536586764E-3</v>
       </c>
       <c r="F5" s="6">
         <f>MAX(data!C5:L5) / data!B5 -1</f>
-        <v>3.2165853658536525E-2</v>
+        <v>3.1502439024390316E-2</v>
       </c>
       <c r="G5" s="7">
         <f>AVERAGE(data!O5:X5)</f>
@@ -4817,15 +4467,15 @@
       </c>
       <c r="D6" s="6">
         <f>MIN(data!C6:L6) / data!B6 -1</f>
-        <v>9.7701318722320796E-3</v>
+        <v>6.2352097878064505E-3</v>
       </c>
       <c r="E6" s="6">
         <f>AVERAGE(data!C6:L6) / data!B6 -1</f>
-        <v>2.9671088592348127E-2</v>
+        <v>3.1934747956782195E-2</v>
       </c>
       <c r="F6" s="6">
         <f>MAX(data!C6:L6) / data!B6 -1</f>
-        <v>5.1380747112328651E-2</v>
+        <v>6.3687512887736775E-2</v>
       </c>
       <c r="G6" s="7">
         <f>AVERAGE(data!O6:X6)</f>
@@ -4845,15 +4495,15 @@
       </c>
       <c r="D7" s="6">
         <f>MIN(data!C7:L7) / data!B7 -1</f>
-        <v>-4.9382096930185804E-2</v>
+        <v>-4.9439409678690427E-2</v>
       </c>
       <c r="E7" s="6">
         <f>AVERAGE(data!C7:L7) / data!B7 -1</f>
-        <v>-3.2657520507217819E-2</v>
+        <v>-3.182003796969568E-2</v>
       </c>
       <c r="F7" s="6">
         <f>MAX(data!C7:L7) / data!B7 -1</f>
-        <v>-1.8232618117992483E-2</v>
+        <v>-1.9772898234050817E-2</v>
       </c>
       <c r="G7" s="7">
         <f>AVERAGE(data!O7:X7)</f>
@@ -4873,15 +4523,15 @@
       </c>
       <c r="D8" s="6">
         <f>MIN(data!C8:L8) / data!B8 -1</f>
-        <v>2.8624237410815878E-2</v>
+        <v>2.3247337400475798E-2</v>
       </c>
       <c r="E8" s="6">
         <f>AVERAGE(data!C8:L8) / data!B8 -1</f>
-        <v>3.6186020059973067E-2</v>
+        <v>3.4304105056354173E-2</v>
       </c>
       <c r="F8" s="6">
         <f>MAX(data!C8:L8) / data!B8 -1</f>
-        <v>4.5005687105780234E-2</v>
+        <v>4.8505842208665051E-2</v>
       </c>
       <c r="G8" s="7">
         <f>AVERAGE(data!O8:X8)</f>
@@ -4901,15 +4551,15 @@
       </c>
       <c r="D9" s="6">
         <f>MIN(data!C9:L9) / data!B9 -1</f>
-        <v>3.9611704085388277E-2</v>
+        <v>3.026315789473677E-2</v>
       </c>
       <c r="E9" s="6">
         <f>AVERAGE(data!C9:L9) / data!B9 -1</f>
-        <v>4.827935222672064E-2</v>
+        <v>4.5339068825910767E-2</v>
       </c>
       <c r="F9" s="6">
         <f>MAX(data!C9:L9) / data!B9 -1</f>
-        <v>5.6854987118144962E-2</v>
+        <v>6.9249171880750859E-2</v>
       </c>
       <c r="G9" s="7">
         <f>AVERAGE(data!O9:X9)</f>
@@ -4934,15 +4584,15 @@
       </c>
       <c r="D11" s="6">
         <f>MIN(data!C11:L11) / data!B11 -1</f>
-        <v>-1.7681478195881173E-3</v>
+        <v>-1.0572430261455157E-3</v>
       </c>
       <c r="E11" s="6">
         <f>AVERAGE(data!C11:L11) / data!B11 -1</f>
-        <v>2.2633507312599388E-3</v>
+        <v>1.2541089689448448E-3</v>
       </c>
       <c r="F11" s="6">
         <f>MAX(data!C11:L11) / data!B11 -1</f>
-        <v>8.0265404456218992E-3</v>
+        <v>8.056920992350225E-3</v>
       </c>
       <c r="G11" s="7">
         <f>AVERAGE(data!O11:X11)</f>
@@ -4962,15 +4612,15 @@
       </c>
       <c r="D12" s="6">
         <f>MIN(data!C12:L12) / data!B12 -1</f>
-        <v>-6.1778867267660464E-2</v>
+        <v>-6.6873208396879491E-2</v>
       </c>
       <c r="E12" s="6">
         <f>AVERAGE(data!C12:L12) / data!B12 -1</f>
-        <v>-5.3620735086276405E-2</v>
+        <v>-5.5471625797487989E-2</v>
       </c>
       <c r="F12" s="6">
         <f>MAX(data!C12:L12) / data!B12 -1</f>
-        <v>-3.8383225404632793E-2</v>
+        <v>-3.9277529803492417E-2</v>
       </c>
       <c r="G12" s="7">
         <f>AVERAGE(data!O12:X12)</f>
@@ -5022,11 +4672,11 @@
       </c>
       <c r="E14" s="6">
         <f>AVERAGE(data!C14:L14) / data!B14 -1</f>
-        <v>-1.1325985529775373E-5</v>
+        <v>-1.1833119210158394E-5</v>
       </c>
       <c r="F14" s="6">
         <f>MAX(data!C14:L14) / data!B14 -1</f>
-        <v>-1.0142673608770636E-5</v>
+        <v>-1.1833119210158394E-5</v>
       </c>
       <c r="G14" s="7">
         <f>AVERAGE(data!O14:X14)</f>
@@ -5046,15 +4696,15 @@
       </c>
       <c r="D15" s="6">
         <f>MIN(data!C15:L15) / data!B15 -1</f>
-        <v>-3.1326976793522476E-2</v>
+        <v>-3.3701839782196208E-2</v>
       </c>
       <c r="E15" s="6">
         <f>AVERAGE(data!C15:L15) / data!B15 -1</f>
-        <v>-2.1887043737551015E-2</v>
+        <v>-2.2931865593362022E-2</v>
       </c>
       <c r="F15" s="6">
         <f>MAX(data!C15:L15) / data!B15 -1</f>
-        <v>-1.0619114405930663E-2</v>
+        <v>-1.6400108430469018E-2</v>
       </c>
       <c r="G15" s="7">
         <f>AVERAGE(data!O15:X15)</f>
@@ -5074,15 +4724,15 @@
       </c>
       <c r="D16" s="6">
         <f>MIN(data!C16:L16) / data!B16 -1</f>
-        <v>-9.7632400082450332E-2</v>
+        <v>-9.4462332345352618E-2</v>
       </c>
       <c r="E16" s="6">
         <f>AVERAGE(data!C16:L16) / data!B16 -1</f>
-        <v>-8.4010348920684486E-2</v>
+        <v>-8.2935653311157043E-2</v>
       </c>
       <c r="F16" s="6">
         <f>MAX(data!C16:L16) / data!B16 -1</f>
-        <v>-7.5619620302649126E-2</v>
+        <v>-7.2989743480393221E-2</v>
       </c>
       <c r="G16" s="7">
         <f>AVERAGE(data!O16:X16)</f>
@@ -5111,7 +4761,7 @@
       </c>
       <c r="E18" s="6">
         <f>AVERAGE(data!C18:L18) / data!B18 -1</f>
-        <v>1.5220922380621005E-4</v>
+        <v>5.7087584180481876E-4</v>
       </c>
       <c r="F18" s="6">
         <f>MAX(data!C18:L18) / data!B18 -1</f>
@@ -5139,7 +4789,7 @@
       </c>
       <c r="E19" s="6">
         <f>AVERAGE(data!C19:L19) / data!B19 -1</f>
-        <v>1.6726542137271982E-2</v>
+        <v>1.6749782797567336E-2</v>
       </c>
       <c r="F19" s="6">
         <f>MAX(data!C19:L19) / data!B19 -1</f>
@@ -5167,11 +4817,11 @@
       </c>
       <c r="E20" s="6">
         <f>AVERAGE(data!C20:L20) / data!B20 -1</f>
-        <v>4.7175927390026295E-3</v>
+        <v>5.5003004332563332E-3</v>
       </c>
       <c r="F20" s="6">
         <f>MAX(data!C20:L20) / data!B20 -1</f>
-        <v>1.386894785111159E-2</v>
+        <v>2.5457765409063526E-2</v>
       </c>
       <c r="G20" s="7">
         <f>AVERAGE(data!O20:X20)</f>
@@ -5195,11 +4845,11 @@
       </c>
       <c r="E21" s="6">
         <f>AVERAGE(data!C21:L21) / data!B21 -1</f>
-        <v>1.5614109050028135E-2</v>
+        <v>5.5053400786959639E-3</v>
       </c>
       <c r="F21" s="6">
         <f>MAX(data!C21:L21) / data!B21 -1</f>
-        <v>5.4010680157391855E-2</v>
+        <v>3.016863406408099E-2</v>
       </c>
       <c r="G21" s="7">
         <f>AVERAGE(data!O21:X21)</f>
@@ -5219,15 +4869,15 @@
       </c>
       <c r="D22" s="6">
         <f>MIN(data!C22:L22) / data!B22 -1</f>
-        <v>-2.0146445226212339E-3</v>
+        <v>1.4317270719144126E-4</v>
       </c>
       <c r="E22" s="6">
         <f>AVERAGE(data!C22:L22) / data!B22 -1</f>
-        <v>2.1613965474924779E-3</v>
+        <v>5.0187147181544045E-3</v>
       </c>
       <c r="F22" s="6">
         <f>MAX(data!C22:L22) / data!B22 -1</f>
-        <v>1.0671479996727573E-2</v>
+        <v>9.6590444244457618E-3</v>
       </c>
       <c r="G22" s="7">
         <f>AVERAGE(data!O22:X22)</f>
@@ -5247,15 +4897,15 @@
       </c>
       <c r="D23" s="6">
         <f>MIN(data!C23:L23) / data!B23 -1</f>
-        <v>5.3833166124261922E-4</v>
+        <v>-2.6916583062130961E-4</v>
       </c>
       <c r="E23" s="6">
         <f>AVERAGE(data!C23:L23) / data!B23 -1</f>
-        <v>8.9500085643672289E-3</v>
+        <v>6.8108742995571792E-3</v>
       </c>
       <c r="F23" s="6">
         <f>MAX(data!C23:L23) / data!B23 -1</f>
-        <v>3.2764822472899802E-2</v>
+        <v>2.9852937577997007E-2</v>
       </c>
       <c r="G23" s="7">
         <f>AVERAGE(data!O23:X23)</f>
@@ -5275,15 +4925,15 @@
       </c>
       <c r="D24" s="6">
         <f>MIN(data!C24:L24) / data!B24 -1</f>
-        <v>-1.4355202277849255E-3</v>
+        <v>1.1887531142484864E-3</v>
       </c>
       <c r="E24" s="6">
         <f>AVERAGE(data!C24:L24) / data!B24 -1</f>
-        <v>1.9154585360066756E-2</v>
+        <v>1.6399335627002021E-2</v>
       </c>
       <c r="F24" s="6">
         <f>MAX(data!C24:L24) / data!B24 -1</f>
-        <v>4.212006169177851E-2</v>
+        <v>4.3705065844109603E-2</v>
       </c>
       <c r="G24" s="7">
         <f>AVERAGE(data!O24:X24)</f>
@@ -5303,15 +4953,15 @@
       </c>
       <c r="D25" s="6">
         <f>MIN(data!C25:L25) / data!B25 -1</f>
-        <v>-1.4918230332243043E-2</v>
+        <v>-1.7082113961094825E-2</v>
       </c>
       <c r="E25" s="6">
         <f>AVERAGE(data!C25:L25) / data!B25 -1</f>
-        <v>1.3273713203649562E-2</v>
+        <v>7.5715269409537544E-3</v>
       </c>
       <c r="F25" s="6">
         <f>MAX(data!C25:L25) / data!B25 -1</f>
-        <v>3.2582200034429354E-2</v>
+        <v>3.2382509898433387E-2</v>
       </c>
       <c r="G25" s="7">
         <f>AVERAGE(data!O25:X25)</f>
@@ -5331,15 +4981,15 @@
       </c>
       <c r="D26" s="6">
         <f>MIN(data!C26:L26) / data!B26 -1</f>
-        <v>4.1420804013478918E-3</v>
+        <v>9.3929568728314816E-3</v>
       </c>
       <c r="E26" s="6">
         <f>AVERAGE(data!C26:L26) / data!B26 -1</f>
-        <v>2.9184285087828998E-2</v>
+        <v>2.8773030807716982E-2</v>
       </c>
       <c r="F26" s="6">
         <f>MAX(data!C26:L26) / data!B26 -1</f>
-        <v>5.1340893444243418E-2</v>
+        <v>7.4487011408330028E-2</v>
       </c>
       <c r="G26" s="7">
         <f>AVERAGE(data!O26:X26)</f>
@@ -5359,15 +5009,15 @@
       </c>
       <c r="D27" s="6">
         <f>MIN(data!C27:L27) / data!B27 -1</f>
-        <v>-1.7202171669281618E-3</v>
+        <v>-1.4642824177022451E-3</v>
       </c>
       <c r="E27" s="6">
         <f>AVERAGE(data!C27:L27) / data!B27 -1</f>
-        <v>1.0124317157697682E-2</v>
+        <v>7.1130979852480625E-3</v>
       </c>
       <c r="F27" s="6">
         <f>MAX(data!C27:L27) / data!B27 -1</f>
-        <v>2.6562670448347259E-2</v>
+        <v>1.7160215153015468E-2</v>
       </c>
       <c r="G27" s="7">
         <f>AVERAGE(data!O27:X27)</f>

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research\dev\LRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A03EBCC-293B-488A-96D6-234C6E3CC47A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF46E9F-DEDA-420C-9552-94814D827BD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="2" r:id="rId1"/>
@@ -1097,7 +1097,7 @@
   <dimension ref="A1:N286"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2595,8 +2595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16226786-0325-4223-91E5-2589AE0E8571}">
   <dimension ref="A1:AH27"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -2735,10 +2735,10 @@
         <v>2703</v>
       </c>
       <c r="W3" s="18">
-        <v>2710</v>
+        <v>2807</v>
       </c>
       <c r="X3" s="18">
-        <v>2807</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="4" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -2779,28 +2779,28 @@
         <v>820</v>
       </c>
       <c r="C5" s="22">
-        <v>845.83199999999999</v>
+        <v>838.971</v>
       </c>
       <c r="D5" s="22">
         <v>819.55799999999999</v>
       </c>
       <c r="E5" s="22">
+        <v>843.63</v>
+      </c>
+      <c r="F5" s="22">
         <v>838.649</v>
       </c>
-      <c r="F5" s="22">
+      <c r="G5" s="22">
         <v>819.55799999999999</v>
-      </c>
-      <c r="G5" s="22">
-        <v>820.92100000000005</v>
       </c>
       <c r="H5" s="22">
         <v>819.55799999999999</v>
       </c>
       <c r="I5" s="22">
+        <v>819.55799999999999</v>
+      </c>
+      <c r="J5" s="22">
         <v>837.81</v>
-      </c>
-      <c r="J5" s="22">
-        <v>819.55799999999999</v>
       </c>
       <c r="K5" s="22">
         <v>819.55799999999999</v>
@@ -2812,35 +2812,35 @@
       <c r="N5" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="O5" s="19">
-        <v>19.015000000000001</v>
-      </c>
-      <c r="P5" s="19">
-        <v>19.015999999999998</v>
-      </c>
-      <c r="Q5" s="19">
-        <v>18.827000000000002</v>
-      </c>
-      <c r="R5" s="19">
-        <v>18.937999999999999</v>
-      </c>
-      <c r="S5" s="19">
-        <v>18.984000000000002</v>
-      </c>
-      <c r="T5" s="19">
-        <v>19</v>
-      </c>
-      <c r="U5" s="19">
-        <v>19.219000000000001</v>
-      </c>
-      <c r="V5" s="19">
+      <c r="O5" s="20">
+        <v>20.015000000000001</v>
+      </c>
+      <c r="P5" s="20">
+        <v>19.407</v>
+      </c>
+      <c r="Q5" s="20">
+        <v>19.562999999999999</v>
+      </c>
+      <c r="R5" s="20">
+        <v>19.25</v>
+      </c>
+      <c r="S5" s="20">
+        <v>19.530999999999999</v>
+      </c>
+      <c r="T5" s="20">
+        <v>19.187999999999999</v>
+      </c>
+      <c r="U5" s="20">
+        <v>19.155999999999999</v>
+      </c>
+      <c r="V5" s="20">
+        <v>19.265999999999998</v>
+      </c>
+      <c r="W5" s="20">
+        <v>19.155999999999999</v>
+      </c>
+      <c r="X5" s="20">
         <v>19.140999999999998</v>
-      </c>
-      <c r="W5" s="19">
-        <v>19.297000000000001</v>
-      </c>
-      <c r="X5" s="19">
-        <v>19.375</v>
       </c>
       <c r="AH5" s="21"/>
     </row>
@@ -2852,68 +2852,68 @@
         <v>3055.23</v>
       </c>
       <c r="C6" s="22">
-        <v>3074.28</v>
+        <v>3178.76</v>
       </c>
       <c r="D6" s="22">
-        <v>3105.24</v>
+        <v>3208.68</v>
       </c>
       <c r="E6" s="22">
-        <v>3203.52</v>
+        <v>3071.3</v>
       </c>
       <c r="F6" s="22">
-        <v>3124.72</v>
+        <v>3147.92</v>
       </c>
       <c r="G6" s="22">
-        <v>3124.94</v>
+        <v>3190.77</v>
       </c>
       <c r="H6" s="22">
-        <v>3188.97</v>
+        <v>3141.54</v>
       </c>
       <c r="I6" s="22">
-        <v>3214.08</v>
+        <v>3113.45</v>
       </c>
       <c r="J6" s="22">
-        <v>3107.17</v>
+        <v>3104.15</v>
       </c>
       <c r="K6" s="22">
-        <v>3135.25</v>
+        <v>3142.86</v>
       </c>
       <c r="L6" s="22">
-        <v>3249.81</v>
+        <v>3116.55</v>
       </c>
       <c r="M6" s="19"/>
       <c r="N6" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="O6" s="19">
-        <v>49.703000000000003</v>
-      </c>
-      <c r="P6" s="19">
-        <v>49.140999999999998</v>
-      </c>
-      <c r="Q6" s="19">
-        <v>48.874000000000002</v>
-      </c>
-      <c r="R6" s="19">
-        <v>49.046999999999997</v>
-      </c>
-      <c r="S6" s="19">
-        <v>49.781999999999996</v>
-      </c>
-      <c r="T6" s="19">
-        <v>48.734000000000002</v>
-      </c>
-      <c r="U6" s="19">
-        <v>48.734000000000002</v>
-      </c>
-      <c r="V6" s="19">
-        <v>49.061999999999998</v>
-      </c>
-      <c r="W6" s="19">
-        <v>49.045999999999999</v>
-      </c>
-      <c r="X6" s="19">
-        <v>49.015999999999998</v>
+      <c r="O6" s="20">
+        <v>48.593000000000004</v>
+      </c>
+      <c r="P6" s="20">
+        <v>49.375</v>
+      </c>
+      <c r="Q6" s="20">
+        <v>48.780999999999999</v>
+      </c>
+      <c r="R6" s="20">
+        <v>48.875</v>
+      </c>
+      <c r="S6" s="20">
+        <v>48.468000000000004</v>
+      </c>
+      <c r="T6" s="20">
+        <v>50.171999999999997</v>
+      </c>
+      <c r="U6" s="20">
+        <v>49.311999999999998</v>
+      </c>
+      <c r="V6" s="20">
+        <v>48.843000000000004</v>
+      </c>
+      <c r="W6" s="20">
+        <v>48.75</v>
+      </c>
+      <c r="X6" s="20">
+        <v>48.688000000000002</v>
       </c>
       <c r="AH6" s="21"/>
     </row>
@@ -2925,68 +2925,68 @@
         <v>1395.85</v>
       </c>
       <c r="C7" s="22">
-        <v>1338.39</v>
+        <v>1343.22</v>
       </c>
       <c r="D7" s="22">
-        <v>1349.77</v>
+        <v>1352.98</v>
       </c>
       <c r="E7" s="22">
-        <v>1326.84</v>
+        <v>1325.42</v>
       </c>
       <c r="F7" s="22">
-        <v>1358.8</v>
+        <v>1338.59</v>
       </c>
       <c r="G7" s="22">
-        <v>1362.91</v>
+        <v>1339.26</v>
       </c>
       <c r="H7" s="22">
-        <v>1367.41</v>
+        <v>1339.56</v>
       </c>
       <c r="I7" s="22">
-        <v>1348.24</v>
+        <v>1339.27</v>
       </c>
       <c r="J7" s="22">
-        <v>1368.25</v>
+        <v>1345.18</v>
       </c>
       <c r="K7" s="22">
-        <v>1344.03</v>
+        <v>1340.79</v>
       </c>
       <c r="L7" s="22">
-        <v>1349.7</v>
+        <v>1337.86</v>
       </c>
       <c r="M7" s="19"/>
       <c r="N7" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="O7" s="19">
-        <v>81.828000000000003</v>
-      </c>
-      <c r="P7" s="19">
-        <v>81.125</v>
-      </c>
-      <c r="Q7" s="19">
-        <v>80.625</v>
-      </c>
-      <c r="R7" s="19">
-        <v>80.858999999999995</v>
-      </c>
-      <c r="S7" s="19">
-        <v>80.953000000000003</v>
-      </c>
-      <c r="T7" s="19">
-        <v>81.781999999999996</v>
-      </c>
-      <c r="U7" s="19">
-        <v>81.186999999999998</v>
-      </c>
-      <c r="V7" s="19">
-        <v>81.423000000000002</v>
-      </c>
-      <c r="W7" s="19">
-        <v>81.076999999999998</v>
-      </c>
-      <c r="X7" s="19">
-        <v>80.656000000000006</v>
+      <c r="O7" s="20">
+        <v>83.016000000000005</v>
+      </c>
+      <c r="P7" s="20">
+        <v>84.468999999999994</v>
+      </c>
+      <c r="Q7" s="20">
+        <v>83.906000000000006</v>
+      </c>
+      <c r="R7" s="20">
+        <v>83.186999999999998</v>
+      </c>
+      <c r="S7" s="20">
+        <v>84.438000000000002</v>
+      </c>
+      <c r="T7" s="20">
+        <v>83.233999999999995</v>
+      </c>
+      <c r="U7" s="20">
+        <v>82.78</v>
+      </c>
+      <c r="V7" s="20">
+        <v>81.078000000000003</v>
+      </c>
+      <c r="W7" s="20">
+        <v>80.703999999999994</v>
+      </c>
+      <c r="X7" s="20">
+        <v>81.89</v>
       </c>
       <c r="AH7" s="21"/>
     </row>
@@ -2998,68 +2998,68 @@
         <v>38684</v>
       </c>
       <c r="C8" s="22">
-        <v>39680.400000000001</v>
+        <v>40413.4</v>
       </c>
       <c r="D8" s="22">
-        <v>39913.800000000003</v>
+        <v>40174</v>
       </c>
       <c r="E8" s="22">
-        <v>40560.400000000001</v>
+        <v>40423.599999999999</v>
       </c>
       <c r="F8" s="22">
-        <v>40193.800000000003</v>
+        <v>40222.400000000001</v>
       </c>
       <c r="G8" s="22">
-        <v>40320.800000000003</v>
+        <v>40141.9</v>
       </c>
       <c r="H8" s="22">
-        <v>39583.300000000003</v>
+        <v>40152.9</v>
       </c>
       <c r="I8" s="22">
-        <v>39962.400000000001</v>
+        <v>40114.199999999997</v>
       </c>
       <c r="J8" s="22">
-        <v>40016</v>
+        <v>40207.800000000003</v>
       </c>
       <c r="K8" s="22">
-        <v>40029.300000000003</v>
+        <v>39750.699999999997</v>
       </c>
       <c r="L8" s="22">
-        <v>39850</v>
+        <v>40176.800000000003</v>
       </c>
       <c r="M8" s="19"/>
       <c r="N8" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="O8" s="19">
-        <v>157.09299999999999</v>
-      </c>
-      <c r="P8" s="19">
-        <v>155.43700000000001</v>
-      </c>
-      <c r="Q8" s="19">
-        <v>161.10900000000001</v>
-      </c>
-      <c r="R8" s="19">
-        <v>160.06200000000001</v>
-      </c>
-      <c r="S8" s="19">
-        <v>159.39099999999999</v>
-      </c>
-      <c r="T8" s="19">
-        <v>159.34399999999999</v>
-      </c>
-      <c r="U8" s="19">
-        <v>159.13999999999999</v>
-      </c>
-      <c r="V8" s="19">
-        <v>158.10900000000001</v>
-      </c>
-      <c r="W8" s="19">
-        <v>157.23500000000001</v>
-      </c>
-      <c r="X8" s="19">
-        <v>159.34299999999999</v>
+      <c r="O8" s="20">
+        <v>153.60900000000001</v>
+      </c>
+      <c r="P8" s="20">
+        <v>153.21799999999999</v>
+      </c>
+      <c r="Q8" s="20">
+        <v>148.172</v>
+      </c>
+      <c r="R8" s="20">
+        <v>157.56200000000001</v>
+      </c>
+      <c r="S8" s="20">
+        <v>149.75</v>
+      </c>
+      <c r="T8" s="20">
+        <v>155.203</v>
+      </c>
+      <c r="U8" s="20">
+        <v>151.90600000000001</v>
+      </c>
+      <c r="V8" s="20">
+        <v>148.953</v>
+      </c>
+      <c r="W8" s="20">
+        <v>151.64099999999999</v>
+      </c>
+      <c r="X8" s="20">
+        <v>151.31299999999999</v>
       </c>
       <c r="AH8" s="21"/>
     </row>
@@ -3071,68 +3071,68 @@
         <v>21736</v>
       </c>
       <c r="C9" s="22">
-        <v>22488.6</v>
+        <v>22784.9</v>
       </c>
       <c r="D9" s="22">
-        <v>22436.2</v>
+        <v>22578.7</v>
       </c>
       <c r="E9" s="22">
-        <v>22668.2</v>
+        <v>22815.599999999999</v>
       </c>
       <c r="F9" s="22">
-        <v>22393.8</v>
+        <v>23119.7</v>
       </c>
       <c r="G9" s="22">
-        <v>22809.8</v>
+        <v>22680.5</v>
       </c>
       <c r="H9" s="22">
-        <v>23241.200000000001</v>
+        <v>22653.1</v>
       </c>
       <c r="I9" s="22">
-        <v>22804.400000000001</v>
+        <v>22894.3</v>
       </c>
       <c r="J9" s="22">
-        <v>22972.799999999999</v>
+        <v>22587.8</v>
       </c>
       <c r="K9" s="22">
-        <v>22713.4</v>
+        <v>22858.6</v>
       </c>
       <c r="L9" s="22">
-        <v>22686.5</v>
+        <v>22532.799999999999</v>
       </c>
       <c r="M9" s="19"/>
       <c r="N9" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="O9" s="19">
-        <v>221.06299999999999</v>
-      </c>
-      <c r="P9" s="19">
-        <v>224.59399999999999</v>
-      </c>
-      <c r="Q9" s="19">
-        <v>221.875</v>
-      </c>
-      <c r="R9" s="19">
-        <v>222.578</v>
-      </c>
-      <c r="S9" s="19">
-        <v>219.92099999999999</v>
-      </c>
-      <c r="T9" s="19">
-        <v>224.31299999999999</v>
-      </c>
-      <c r="U9" s="19">
-        <v>221.65600000000001</v>
-      </c>
-      <c r="V9" s="19">
-        <v>218.327</v>
-      </c>
-      <c r="W9" s="19">
-        <v>220.828</v>
-      </c>
-      <c r="X9" s="19">
-        <v>221.61</v>
+      <c r="O9" s="20">
+        <v>216.422</v>
+      </c>
+      <c r="P9" s="20">
+        <v>207.875</v>
+      </c>
+      <c r="Q9" s="20">
+        <v>212.40600000000001</v>
+      </c>
+      <c r="R9" s="20">
+        <v>212.96899999999999</v>
+      </c>
+      <c r="S9" s="20">
+        <v>216.64</v>
+      </c>
+      <c r="T9" s="20">
+        <v>215.43799999999999</v>
+      </c>
+      <c r="U9" s="20">
+        <v>214.31299999999999</v>
+      </c>
+      <c r="V9" s="20">
+        <v>212.23500000000001</v>
+      </c>
+      <c r="W9" s="20">
+        <v>212.71799999999999</v>
+      </c>
+      <c r="X9" s="20">
+        <v>208.21899999999999</v>
       </c>
       <c r="AH9" s="21"/>
     </row>
@@ -3175,68 +3175,68 @@
         <v>1645.79</v>
       </c>
       <c r="C11" s="22">
+        <v>1644.25</v>
+      </c>
+      <c r="D11" s="22">
+        <v>1646.18</v>
+      </c>
+      <c r="E11" s="22">
+        <v>1650.8</v>
+      </c>
+      <c r="F11" s="22">
+        <v>1642.88</v>
+      </c>
+      <c r="G11" s="22">
+        <v>1650.8</v>
+      </c>
+      <c r="H11" s="22">
+        <v>1652.17</v>
+      </c>
+      <c r="I11" s="22">
         <v>1652.47</v>
       </c>
-      <c r="D11" s="22">
-        <v>1645.69</v>
-      </c>
-      <c r="E11" s="22">
-        <v>1650.51</v>
-      </c>
-      <c r="F11" s="22">
-        <v>1647.58</v>
-      </c>
-      <c r="G11" s="22">
-        <v>1644.25</v>
-      </c>
-      <c r="H11" s="22">
-        <v>1646.14</v>
-      </c>
-      <c r="I11" s="22">
-        <v>1644.55</v>
-      </c>
       <c r="J11" s="22">
-        <v>1644.25</v>
+        <v>1651.97</v>
       </c>
       <c r="K11" s="22">
-        <v>1659.05</v>
+        <v>1653.76</v>
       </c>
       <c r="L11" s="22">
-        <v>1644.05</v>
+        <v>1652.47</v>
       </c>
       <c r="M11" s="19"/>
       <c r="N11" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="O11" s="19">
-        <v>27.782</v>
-      </c>
-      <c r="P11" s="19">
-        <v>27.515999999999998</v>
-      </c>
-      <c r="Q11" s="19">
-        <v>27.562000000000001</v>
-      </c>
-      <c r="R11" s="19">
-        <v>27.734999999999999</v>
-      </c>
-      <c r="S11" s="19">
+      <c r="O11" s="20">
+        <v>27.202999999999999</v>
+      </c>
+      <c r="P11" s="20">
+        <v>26.907</v>
+      </c>
+      <c r="Q11" s="20">
+        <v>27.312000000000001</v>
+      </c>
+      <c r="R11" s="20">
+        <v>27.125</v>
+      </c>
+      <c r="S11" s="20">
+        <v>27.312000000000001</v>
+      </c>
+      <c r="T11" s="20">
+        <v>27.765000000000001</v>
+      </c>
+      <c r="U11" s="20">
         <v>27.452999999999999</v>
       </c>
-      <c r="T11" s="19">
-        <v>27.359000000000002</v>
-      </c>
-      <c r="U11" s="19">
-        <v>27.5</v>
-      </c>
-      <c r="V11" s="19">
-        <v>27.469000000000001</v>
-      </c>
-      <c r="W11" s="19">
-        <v>27.748999999999999</v>
-      </c>
-      <c r="X11" s="19">
-        <v>27.702000000000002</v>
+      <c r="V11" s="20">
+        <v>27.14</v>
+      </c>
+      <c r="W11" s="20">
+        <v>27.297000000000001</v>
+      </c>
+      <c r="X11" s="20">
+        <v>27.375</v>
       </c>
       <c r="AH11" s="21"/>
     </row>
@@ -3248,68 +3248,68 @@
         <v>1252.3699999999999</v>
       </c>
       <c r="C12" s="22">
-        <v>1203.18</v>
+        <v>1179.1099999999999</v>
       </c>
       <c r="D12" s="22">
-        <v>1180.3900000000001</v>
+        <v>1216.05</v>
       </c>
       <c r="E12" s="22">
-        <v>1187.42</v>
+        <v>1183.3699999999999</v>
       </c>
       <c r="F12" s="22">
-        <v>1189.9000000000001</v>
+        <v>1169.24</v>
       </c>
       <c r="G12" s="22">
-        <v>1173</v>
+        <v>1184.1300000000001</v>
       </c>
       <c r="H12" s="22">
-        <v>1183.99</v>
+        <v>1171.73</v>
       </c>
       <c r="I12" s="22">
-        <v>1168.6199999999999</v>
+        <v>1179.05</v>
       </c>
       <c r="J12" s="22">
-        <v>1177.53</v>
+        <v>1157.8699999999999</v>
       </c>
       <c r="K12" s="22">
-        <v>1181.6400000000001</v>
+        <v>1180.56</v>
       </c>
       <c r="L12" s="22">
-        <v>1183.32</v>
+        <v>1164.76</v>
       </c>
       <c r="M12" s="19"/>
       <c r="N12" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="O12" s="19">
-        <v>74.734999999999999</v>
-      </c>
-      <c r="P12" s="19">
-        <v>76.546999999999997</v>
-      </c>
-      <c r="Q12" s="19">
-        <v>75.906999999999996</v>
-      </c>
-      <c r="R12" s="19">
-        <v>79.858999999999995</v>
-      </c>
-      <c r="S12" s="19">
-        <v>75.484999999999999</v>
-      </c>
-      <c r="T12" s="19">
-        <v>73.748999999999995</v>
-      </c>
-      <c r="U12" s="19">
-        <v>72.406000000000006</v>
-      </c>
-      <c r="V12" s="19">
+      <c r="O12" s="20">
+        <v>77.765000000000001</v>
+      </c>
+      <c r="P12" s="20">
+        <v>78.5</v>
+      </c>
+      <c r="Q12" s="20">
+        <v>79.234999999999999</v>
+      </c>
+      <c r="R12" s="20">
+        <v>70.983999999999995</v>
+      </c>
+      <c r="S12" s="20">
+        <v>78.421000000000006</v>
+      </c>
+      <c r="T12" s="20">
+        <v>69.421999999999997</v>
+      </c>
+      <c r="U12" s="20">
+        <v>74.375</v>
+      </c>
+      <c r="V12" s="20">
         <v>66.561999999999998</v>
       </c>
-      <c r="W12" s="19">
-        <v>77.078999999999994</v>
-      </c>
-      <c r="X12" s="19">
-        <v>76</v>
+      <c r="W12" s="20">
+        <v>74.546999999999997</v>
+      </c>
+      <c r="X12" s="20">
+        <v>70.391000000000005</v>
       </c>
       <c r="AH12" s="21"/>
     </row>
@@ -3354,35 +3354,35 @@
       <c r="N13" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="O13" s="19">
-        <v>38.578000000000003</v>
-      </c>
-      <c r="P13" s="19">
-        <v>38.765999999999998</v>
-      </c>
-      <c r="Q13" s="19">
-        <v>38.406999999999996</v>
-      </c>
-      <c r="R13" s="19">
-        <v>38.734999999999999</v>
-      </c>
-      <c r="S13" s="19">
-        <v>38.671999999999997</v>
-      </c>
-      <c r="T13" s="19">
-        <v>38.390999999999998</v>
-      </c>
-      <c r="U13" s="19">
-        <v>38.781999999999996</v>
-      </c>
-      <c r="V13" s="19">
-        <v>38.406999999999996</v>
-      </c>
-      <c r="W13" s="19">
-        <v>38.5</v>
-      </c>
-      <c r="X13" s="19">
-        <v>38.624000000000002</v>
+      <c r="O13" s="20">
+        <v>38.61</v>
+      </c>
+      <c r="P13" s="20">
+        <v>38.484999999999999</v>
+      </c>
+      <c r="Q13" s="20">
+        <v>38.499000000000002</v>
+      </c>
+      <c r="R13" s="20">
+        <v>38.530999999999999</v>
+      </c>
+      <c r="S13" s="20">
+        <v>39.219000000000001</v>
+      </c>
+      <c r="T13" s="20">
+        <v>39.030999999999999</v>
+      </c>
+      <c r="U13" s="20">
+        <v>38.905999999999999</v>
+      </c>
+      <c r="V13" s="20">
+        <v>38.469000000000001</v>
+      </c>
+      <c r="W13" s="20">
+        <v>38.171999999999997</v>
+      </c>
+      <c r="X13" s="20">
+        <v>38.561999999999998</v>
       </c>
       <c r="AH13" s="21"/>
     </row>
@@ -3394,31 +3394,31 @@
         <v>591.55999999999995</v>
       </c>
       <c r="C14" s="22">
-        <v>591.553</v>
+        <v>591.55200000000002</v>
       </c>
       <c r="D14" s="22">
-        <v>591.553</v>
+        <v>591.55200000000002</v>
       </c>
       <c r="E14" s="22">
-        <v>591.553</v>
+        <v>591.55200000000002</v>
       </c>
       <c r="F14" s="22">
-        <v>591.553</v>
+        <v>591.55200000000002</v>
       </c>
       <c r="G14" s="22">
-        <v>591.553</v>
+        <v>591.55200000000002</v>
       </c>
       <c r="H14" s="22">
-        <v>591.553</v>
+        <v>591.55200000000002</v>
       </c>
       <c r="I14" s="22">
         <v>591.553</v>
       </c>
       <c r="J14" s="22">
-        <v>591.553</v>
+        <v>591.55200000000002</v>
       </c>
       <c r="K14" s="22">
-        <v>591.553</v>
+        <v>591.55200000000002</v>
       </c>
       <c r="L14" s="22">
         <v>591.553</v>
@@ -3427,35 +3427,35 @@
       <c r="N14" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="O14" s="19">
-        <v>166.65600000000001</v>
-      </c>
-      <c r="P14" s="19">
-        <v>164.15600000000001</v>
-      </c>
-      <c r="Q14" s="19">
-        <v>166.172</v>
-      </c>
-      <c r="R14" s="19">
-        <v>165.34399999999999</v>
-      </c>
-      <c r="S14" s="19">
-        <v>166.01599999999999</v>
-      </c>
-      <c r="T14" s="19">
-        <v>166.51599999999999</v>
-      </c>
-      <c r="U14" s="19">
-        <v>166.375</v>
-      </c>
-      <c r="V14" s="19">
-        <v>165.56299999999999</v>
-      </c>
-      <c r="W14" s="19">
-        <v>165.18799999999999</v>
-      </c>
-      <c r="X14" s="19">
-        <v>165.93799999999999</v>
+      <c r="O14" s="20">
+        <v>168.53100000000001</v>
+      </c>
+      <c r="P14" s="20">
+        <v>168.98500000000001</v>
+      </c>
+      <c r="Q14" s="20">
+        <v>167.73500000000001</v>
+      </c>
+      <c r="R14" s="20">
+        <v>166.20400000000001</v>
+      </c>
+      <c r="S14" s="20">
+        <v>166.923</v>
+      </c>
+      <c r="T14" s="20">
+        <v>167.31299999999999</v>
+      </c>
+      <c r="U14" s="20">
+        <v>165.59399999999999</v>
+      </c>
+      <c r="V14" s="20">
+        <v>168.68700000000001</v>
+      </c>
+      <c r="W14" s="20">
+        <v>177.25</v>
+      </c>
+      <c r="X14" s="20">
+        <v>167.25</v>
       </c>
       <c r="AH14" s="21"/>
     </row>
@@ -3467,68 +3467,68 @@
         <v>1696.94</v>
       </c>
       <c r="C15" s="22">
-        <v>1652.69</v>
+        <v>1659.43</v>
       </c>
       <c r="D15" s="22">
-        <v>1669.11</v>
+        <v>1665.97</v>
       </c>
       <c r="E15" s="22">
-        <v>1669.11</v>
+        <v>1665.31</v>
       </c>
       <c r="F15" s="22">
+        <v>1660.99</v>
+      </c>
+      <c r="G15" s="22">
+        <v>1647.53</v>
+      </c>
+      <c r="H15" s="22">
+        <v>1669.39</v>
+      </c>
+      <c r="I15" s="22">
+        <v>1663.02</v>
+      </c>
+      <c r="J15" s="22">
         <v>1659.05</v>
       </c>
-      <c r="G15" s="22">
-        <v>1658.99</v>
-      </c>
-      <c r="H15" s="22">
-        <v>1662.36</v>
-      </c>
-      <c r="I15" s="22">
-        <v>1652.36</v>
-      </c>
-      <c r="J15" s="22">
-        <v>1639.75</v>
-      </c>
       <c r="K15" s="22">
-        <v>1655.24</v>
+        <v>1674.74</v>
       </c>
       <c r="L15" s="22">
-        <v>1661.6</v>
+        <v>1659.05</v>
       </c>
       <c r="M15" s="19"/>
       <c r="N15" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="O15" s="19">
-        <v>30.219000000000001</v>
-      </c>
-      <c r="P15" s="19">
-        <v>29.405000000000001</v>
-      </c>
-      <c r="Q15" s="19">
-        <v>29.407</v>
-      </c>
-      <c r="R15" s="19">
-        <v>29.875</v>
-      </c>
-      <c r="S15" s="19">
-        <v>29.437999999999999</v>
-      </c>
-      <c r="T15" s="19">
-        <v>29.844000000000001</v>
-      </c>
-      <c r="U15" s="19">
-        <v>29.795999999999999</v>
-      </c>
-      <c r="V15" s="19">
-        <v>29.407</v>
-      </c>
-      <c r="W15" s="19">
-        <v>29.719000000000001</v>
-      </c>
-      <c r="X15" s="19">
-        <v>29.827999999999999</v>
+      <c r="O15" s="20">
+        <v>29.969000000000001</v>
+      </c>
+      <c r="P15" s="20">
+        <v>29.375</v>
+      </c>
+      <c r="Q15" s="20">
+        <v>28.937000000000001</v>
+      </c>
+      <c r="R15" s="20">
+        <v>30.547000000000001</v>
+      </c>
+      <c r="S15" s="20">
+        <v>30.390999999999998</v>
+      </c>
+      <c r="T15" s="20">
+        <v>29.187000000000001</v>
+      </c>
+      <c r="U15" s="20">
+        <v>29</v>
+      </c>
+      <c r="V15" s="20">
+        <v>29.5</v>
+      </c>
+      <c r="W15" s="20">
+        <v>29.172000000000001</v>
+      </c>
+      <c r="X15" s="20">
+        <v>29.297000000000001</v>
       </c>
       <c r="AH15" s="21"/>
     </row>
@@ -3540,68 +3540,68 @@
         <v>1406.91</v>
       </c>
       <c r="C16" s="22">
-        <v>1289.19</v>
+        <v>1292.69</v>
       </c>
       <c r="D16" s="22">
-        <v>1304.22</v>
+        <v>1293.97</v>
       </c>
       <c r="E16" s="22">
-        <v>1286.81</v>
+        <v>1278.27</v>
       </c>
       <c r="F16" s="22">
-        <v>1293.6400000000001</v>
+        <v>1277.08</v>
       </c>
       <c r="G16" s="22">
-        <v>1296.18</v>
+        <v>1295.9100000000001</v>
       </c>
       <c r="H16" s="22">
-        <v>1274.01</v>
+        <v>1294.8399999999999</v>
       </c>
       <c r="I16" s="22">
-        <v>1299.1199999999999</v>
+        <v>1295.3699999999999</v>
       </c>
       <c r="J16" s="22">
-        <v>1280.9000000000001</v>
+        <v>1286.56</v>
       </c>
       <c r="K16" s="22">
-        <v>1277.25</v>
+        <v>1277.6600000000001</v>
       </c>
       <c r="L16" s="22">
-        <v>1300.95</v>
+        <v>1265.97</v>
       </c>
       <c r="M16" s="19"/>
       <c r="N16" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="O16" s="19">
-        <v>61.545999999999999</v>
-      </c>
-      <c r="P16" s="19">
-        <v>63.453000000000003</v>
-      </c>
-      <c r="Q16" s="19">
-        <v>63.813000000000002</v>
-      </c>
-      <c r="R16" s="19">
-        <v>70.843000000000004</v>
-      </c>
-      <c r="S16" s="19">
-        <v>75.5</v>
-      </c>
-      <c r="T16" s="19">
-        <v>64.483999999999995</v>
-      </c>
-      <c r="U16" s="19">
-        <v>63.311999999999998</v>
-      </c>
-      <c r="V16" s="19">
-        <v>64.701999999999998</v>
-      </c>
-      <c r="W16" s="19">
-        <v>69.125</v>
-      </c>
-      <c r="X16" s="19">
-        <v>68.001000000000005</v>
+      <c r="O16" s="20">
+        <v>66.905000000000001</v>
+      </c>
+      <c r="P16" s="20">
+        <v>71.281000000000006</v>
+      </c>
+      <c r="Q16" s="20">
+        <v>65.515000000000001</v>
+      </c>
+      <c r="R16" s="20">
+        <v>59.406999999999996</v>
+      </c>
+      <c r="S16" s="20">
+        <v>68.671999999999997</v>
+      </c>
+      <c r="T16" s="20">
+        <v>71.266000000000005</v>
+      </c>
+      <c r="U16" s="20">
+        <v>71.25</v>
+      </c>
+      <c r="V16" s="20">
+        <v>71.703000000000003</v>
+      </c>
+      <c r="W16" s="20">
+        <v>64.766000000000005</v>
+      </c>
+      <c r="X16" s="20">
+        <v>61.265999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.3">
@@ -3632,7 +3632,7 @@
         <v>54793</v>
       </c>
       <c r="C18" s="22">
-        <v>54778.400000000001</v>
+        <v>55007.8</v>
       </c>
       <c r="D18" s="22">
         <v>54778.400000000001</v>
@@ -3641,16 +3641,16 @@
         <v>54778.400000000001</v>
       </c>
       <c r="F18" s="22">
-        <v>54778.400000000001</v>
+        <v>55007.8</v>
       </c>
       <c r="G18" s="22">
         <v>54778.400000000001</v>
       </c>
       <c r="H18" s="22">
-        <v>55007.8</v>
+        <v>54778.400000000001</v>
       </c>
       <c r="I18" s="22">
-        <v>55007.8</v>
+        <v>54778.400000000001</v>
       </c>
       <c r="J18" s="22">
         <v>54778.400000000001</v>
@@ -3659,41 +3659,41 @@
         <v>54778.400000000001</v>
       </c>
       <c r="L18" s="22">
-        <v>54778.400000000001</v>
+        <v>55007.8</v>
       </c>
       <c r="M18" s="19"/>
       <c r="N18" s="17" t="s">
         <v>15</v>
       </c>
       <c r="O18" s="20">
+        <v>5.3280000000000003</v>
+      </c>
+      <c r="P18" s="20">
+        <v>5.25</v>
+      </c>
+      <c r="Q18" s="20">
+        <v>5.25</v>
+      </c>
+      <c r="R18" s="20">
+        <v>5.2190000000000003</v>
+      </c>
+      <c r="S18" s="20">
+        <v>5.3280000000000003</v>
+      </c>
+      <c r="T18" s="20">
+        <v>5.2809999999999997</v>
+      </c>
+      <c r="U18" s="20">
+        <v>5.2190000000000003</v>
+      </c>
+      <c r="V18" s="20">
+        <v>5.3280000000000003</v>
+      </c>
+      <c r="W18" s="20">
         <v>5.2649999999999997</v>
       </c>
-      <c r="P18" s="20">
-        <v>5.2809999999999997</v>
-      </c>
-      <c r="Q18" s="20">
-        <v>5.1870000000000003</v>
-      </c>
-      <c r="R18" s="20">
-        <v>5.1559999999999997</v>
-      </c>
-      <c r="S18" s="20">
-        <v>5.1559999999999997</v>
-      </c>
-      <c r="T18" s="20">
-        <v>5.2030000000000003</v>
-      </c>
-      <c r="U18" s="20">
-        <v>5.141</v>
-      </c>
-      <c r="V18" s="20">
-        <v>5.1719999999999997</v>
-      </c>
-      <c r="W18" s="20">
-        <v>5.14</v>
-      </c>
       <c r="X18" s="20">
-        <v>5.1260000000000003</v>
+        <v>5.2190000000000003</v>
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.3">
@@ -3704,31 +3704,31 @@
         <v>460.4</v>
       </c>
       <c r="C19" s="22">
-        <v>470.322</v>
+        <v>470.21499999999997</v>
       </c>
       <c r="D19" s="22">
         <v>460.37400000000002</v>
       </c>
       <c r="E19" s="22">
-        <v>470.21499999999997</v>
+        <v>473.00900000000001</v>
       </c>
       <c r="F19" s="22">
         <v>460.37400000000002</v>
       </c>
       <c r="G19" s="22">
+        <v>470.21499999999997</v>
+      </c>
+      <c r="H19" s="22">
+        <v>460.37400000000002</v>
+      </c>
+      <c r="I19" s="22">
         <v>473.00900000000001</v>
       </c>
-      <c r="H19" s="22">
+      <c r="J19" s="22">
         <v>470.21499999999997</v>
       </c>
-      <c r="I19" s="22">
-        <v>460.37400000000002</v>
-      </c>
-      <c r="J19" s="22">
-        <v>473.00900000000001</v>
-      </c>
       <c r="K19" s="22">
-        <v>473.00900000000001</v>
+        <v>476.12099999999998</v>
       </c>
       <c r="L19" s="22">
         <v>470.21499999999997</v>
@@ -3738,34 +3738,34 @@
         <v>19</v>
       </c>
       <c r="O19" s="20">
-        <v>8.702</v>
+        <v>8.766</v>
       </c>
       <c r="P19" s="20">
-        <v>8.734</v>
+        <v>8.9529999999999994</v>
       </c>
       <c r="Q19" s="20">
-        <v>8.766</v>
+        <v>8.891</v>
       </c>
       <c r="R19" s="20">
-        <v>8.75</v>
+        <v>8.907</v>
       </c>
       <c r="S19" s="20">
-        <v>8.6709999999999994</v>
+        <v>8.8439999999999994</v>
       </c>
       <c r="T19" s="20">
-        <v>8.798</v>
+        <v>8.8439999999999994</v>
       </c>
       <c r="U19" s="20">
-        <v>8.7200000000000006</v>
+        <v>8.827</v>
       </c>
       <c r="V19" s="20">
         <v>8.75</v>
       </c>
       <c r="W19" s="20">
-        <v>8.7799999999999994</v>
+        <v>8.718</v>
       </c>
       <c r="X19" s="20">
-        <v>8.734</v>
+        <v>8.766</v>
       </c>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.3">
@@ -3779,65 +3779,65 @@
         <v>63215.199999999997</v>
       </c>
       <c r="D20" s="22">
-        <v>63550.5</v>
+        <v>64119.1</v>
       </c>
       <c r="E20" s="22">
-        <v>63215.199999999997</v>
+        <v>63486.7</v>
       </c>
       <c r="F20" s="22">
-        <v>63550.5</v>
+        <v>64243.3</v>
       </c>
       <c r="G20" s="22">
-        <v>64319</v>
+        <v>64379.5</v>
       </c>
       <c r="H20" s="22">
         <v>63215.199999999997</v>
       </c>
       <c r="I20" s="22">
+        <v>63274.6</v>
+      </c>
+      <c r="J20" s="22">
         <v>63215.199999999997</v>
       </c>
-      <c r="J20" s="22">
-        <v>63550.5</v>
-      </c>
       <c r="K20" s="22">
-        <v>64852</v>
+        <v>64243.3</v>
       </c>
       <c r="L20" s="22">
-        <v>63215.199999999997</v>
+        <v>64879.7</v>
       </c>
       <c r="M20" s="19"/>
       <c r="N20" s="17" t="s">
         <v>16</v>
       </c>
       <c r="O20" s="20">
-        <v>11.266</v>
+        <v>10.563000000000001</v>
       </c>
       <c r="P20" s="20">
-        <v>11.093999999999999</v>
+        <v>10.688000000000001</v>
       </c>
       <c r="Q20" s="20">
-        <v>10.86</v>
+        <v>10.702999999999999</v>
       </c>
       <c r="R20" s="20">
-        <v>10.936999999999999</v>
+        <v>10.577999999999999</v>
       </c>
       <c r="S20" s="20">
-        <v>10.750999999999999</v>
+        <v>10.75</v>
       </c>
       <c r="T20" s="20">
-        <v>10.702999999999999</v>
+        <v>10.561999999999999</v>
       </c>
       <c r="U20" s="20">
-        <v>10.734</v>
+        <v>10.766</v>
       </c>
       <c r="V20" s="20">
-        <v>10.625</v>
+        <v>10.64</v>
       </c>
       <c r="W20" s="20">
-        <v>11.204000000000001</v>
+        <v>10.797000000000001</v>
       </c>
       <c r="X20" s="20">
-        <v>10.952999999999999</v>
+        <v>10.673</v>
       </c>
     </row>
     <row r="21" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -3848,68 +3848,68 @@
         <v>355.8</v>
       </c>
       <c r="C21" s="22">
-        <v>355.78399999999999</v>
+        <v>371.58199999999999</v>
       </c>
       <c r="D21" s="22">
-        <v>355.78399999999999</v>
+        <v>355.86700000000002</v>
       </c>
       <c r="E21" s="22">
         <v>355.78399999999999</v>
       </c>
       <c r="F21" s="22">
-        <v>366.53399999999999</v>
+        <v>355.78399999999999</v>
       </c>
       <c r="G21" s="22">
-        <v>355.78399999999999</v>
+        <v>356.18700000000001</v>
       </c>
       <c r="H21" s="22">
         <v>355.78399999999999</v>
       </c>
       <c r="I21" s="22">
-        <v>361.28500000000003</v>
+        <v>355.78399999999999</v>
       </c>
       <c r="J21" s="22">
-        <v>356.86</v>
+        <v>355.78399999999999</v>
       </c>
       <c r="K21" s="22">
-        <v>358.20499999999998</v>
+        <v>355.78399999999999</v>
       </c>
       <c r="L21" s="22">
-        <v>355.78399999999999</v>
+        <v>373.44799999999998</v>
       </c>
       <c r="M21" s="19"/>
       <c r="N21" s="17" t="s">
         <v>20</v>
       </c>
       <c r="O21" s="20">
-        <v>20.922000000000001</v>
+        <v>20.937999999999999</v>
       </c>
       <c r="P21" s="20">
-        <v>20.86</v>
+        <v>20.547000000000001</v>
       </c>
       <c r="Q21" s="20">
-        <v>20.952999999999999</v>
+        <v>20.702999999999999</v>
       </c>
       <c r="R21" s="20">
-        <v>20.969000000000001</v>
+        <v>20.594000000000001</v>
       </c>
       <c r="S21" s="20">
-        <v>20.86</v>
+        <v>20.765000000000001</v>
       </c>
       <c r="T21" s="20">
-        <v>21.280999999999999</v>
+        <v>20.641999999999999</v>
       </c>
       <c r="U21" s="20">
-        <v>20.827999999999999</v>
+        <v>20.734000000000002</v>
       </c>
       <c r="V21" s="20">
-        <v>20.969000000000001</v>
+        <v>20.593</v>
       </c>
       <c r="W21" s="20">
-        <v>20.86</v>
+        <v>20.407</v>
       </c>
       <c r="X21" s="20">
-        <v>21.001000000000001</v>
+        <v>20.734000000000002</v>
       </c>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.3">
@@ -3920,68 +3920,68 @@
         <v>195568</v>
       </c>
       <c r="C22" s="22">
-        <v>196292</v>
+        <v>195561</v>
       </c>
       <c r="D22" s="22">
-        <v>196045</v>
+        <v>196668</v>
       </c>
       <c r="E22" s="22">
-        <v>197457</v>
+        <v>197164</v>
       </c>
       <c r="F22" s="22">
-        <v>195742</v>
+        <v>195869</v>
       </c>
       <c r="G22" s="22">
-        <v>196697</v>
+        <v>196034</v>
       </c>
       <c r="H22" s="22">
-        <v>196444</v>
+        <v>196817</v>
       </c>
       <c r="I22" s="22">
-        <v>197059</v>
+        <v>195880</v>
       </c>
       <c r="J22" s="22">
-        <v>197381</v>
+        <v>195231</v>
       </c>
       <c r="K22" s="22">
-        <v>195596</v>
+        <v>195827</v>
       </c>
       <c r="L22" s="22">
-        <v>196782</v>
+        <v>197058</v>
       </c>
       <c r="M22" s="19"/>
       <c r="N22" s="17" t="s">
         <v>17</v>
       </c>
       <c r="O22" s="20">
-        <v>24.670999999999999</v>
+        <v>24.202999999999999</v>
       </c>
       <c r="P22" s="20">
-        <v>24.484000000000002</v>
+        <v>24.218</v>
       </c>
       <c r="Q22" s="20">
-        <v>24.498999999999999</v>
+        <v>24.062999999999999</v>
       </c>
       <c r="R22" s="20">
-        <v>24.530999999999999</v>
+        <v>24.11</v>
       </c>
       <c r="S22" s="20">
-        <v>24.405999999999999</v>
+        <v>24.125</v>
       </c>
       <c r="T22" s="20">
-        <v>24.625</v>
+        <v>24.094000000000001</v>
       </c>
       <c r="U22" s="20">
-        <v>24.609000000000002</v>
+        <v>24.202999999999999</v>
       </c>
       <c r="V22" s="20">
-        <v>24.577999999999999</v>
+        <v>24.265000000000001</v>
       </c>
       <c r="W22" s="20">
-        <v>24.530999999999999</v>
+        <v>24.172000000000001</v>
       </c>
       <c r="X22" s="20">
-        <v>24.375</v>
+        <v>24.312999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.3">
@@ -3992,68 +3992,68 @@
         <v>204335</v>
       </c>
       <c r="C23" s="22">
-        <v>210435</v>
+        <v>204147</v>
       </c>
       <c r="D23" s="22">
+        <v>205012</v>
+      </c>
+      <c r="E23" s="22">
+        <v>205012</v>
+      </c>
+      <c r="F23" s="22">
+        <v>205051</v>
+      </c>
+      <c r="G23" s="22">
+        <v>203974</v>
+      </c>
+      <c r="H23" s="22">
         <v>204280</v>
       </c>
-      <c r="E23" s="22">
-        <v>204335</v>
-      </c>
-      <c r="F23" s="22">
-        <v>206012</v>
-      </c>
-      <c r="G23" s="22">
-        <v>206215</v>
-      </c>
-      <c r="H23" s="22">
-        <v>204311</v>
-      </c>
       <c r="I23" s="22">
-        <v>205652</v>
+        <v>205108</v>
       </c>
       <c r="J23" s="22">
-        <v>205295</v>
+        <v>205051</v>
       </c>
       <c r="K23" s="22">
-        <v>204601</v>
+        <v>205346</v>
       </c>
       <c r="L23" s="22">
-        <v>206131</v>
+        <v>205012</v>
       </c>
       <c r="M23" s="19"/>
       <c r="N23" s="17" t="s">
         <v>18</v>
       </c>
       <c r="O23" s="20">
-        <v>25.437000000000001</v>
+        <v>25.219000000000001</v>
       </c>
       <c r="P23" s="20">
-        <v>25.344999999999999</v>
+        <v>25.202999999999999</v>
       </c>
       <c r="Q23" s="20">
-        <v>25.75</v>
+        <v>25.109000000000002</v>
       </c>
       <c r="R23" s="20">
+        <v>25.187999999999999</v>
+      </c>
+      <c r="S23" s="20">
+        <v>25.125</v>
+      </c>
+      <c r="T23" s="20">
+        <v>25.047000000000001</v>
+      </c>
+      <c r="U23" s="20">
+        <v>25.140999999999998</v>
+      </c>
+      <c r="V23" s="20">
+        <v>25.265999999999998</v>
+      </c>
+      <c r="W23" s="20">
         <v>25.22</v>
       </c>
-      <c r="S23" s="20">
-        <v>25.5</v>
-      </c>
-      <c r="T23" s="20">
-        <v>25.405999999999999</v>
-      </c>
-      <c r="U23" s="20">
-        <v>25.484000000000002</v>
-      </c>
-      <c r="V23" s="20">
-        <v>25.515000000000001</v>
-      </c>
-      <c r="W23" s="20">
-        <v>25.577000000000002</v>
-      </c>
       <c r="X23" s="20">
-        <v>25.5</v>
+        <v>25.968</v>
       </c>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.3">
@@ -4064,68 +4064,68 @@
         <v>842.9</v>
       </c>
       <c r="C24" s="22">
-        <v>854.20500000000004</v>
+        <v>856.28899999999999</v>
       </c>
       <c r="D24" s="22">
-        <v>850.55899999999997</v>
+        <v>858.46500000000003</v>
       </c>
       <c r="E24" s="22">
-        <v>879.73900000000003</v>
+        <v>853.21299999999997</v>
       </c>
       <c r="F24" s="22">
-        <v>856.35400000000004</v>
+        <v>875.35400000000004</v>
       </c>
       <c r="G24" s="22">
-        <v>850.11300000000006</v>
+        <v>883.63400000000001</v>
       </c>
       <c r="H24" s="22">
-        <v>848.38199999999995</v>
+        <v>858.58699999999999</v>
       </c>
       <c r="I24" s="22">
-        <v>856.77300000000002</v>
+        <v>858.173</v>
       </c>
       <c r="J24" s="22">
-        <v>852.36500000000001</v>
+        <v>860.05799999999999</v>
       </c>
       <c r="K24" s="22">
-        <v>843.90200000000004</v>
+        <v>900.49900000000002</v>
       </c>
       <c r="L24" s="22">
-        <v>874.83799999999997</v>
+        <v>870.41800000000001</v>
       </c>
       <c r="M24" s="19"/>
       <c r="N24" s="17" t="s">
         <v>21</v>
       </c>
       <c r="O24" s="20">
-        <v>26.718</v>
+        <v>26.562999999999999</v>
       </c>
       <c r="P24" s="20">
-        <v>26.922000000000001</v>
+        <v>26.577999999999999</v>
       </c>
       <c r="Q24" s="20">
+        <v>26.954000000000001</v>
+      </c>
+      <c r="R24" s="20">
+        <v>26.954000000000001</v>
+      </c>
+      <c r="S24" s="20">
+        <v>26.844000000000001</v>
+      </c>
+      <c r="T24" s="20">
+        <v>26.562000000000001</v>
+      </c>
+      <c r="U24" s="20">
+        <v>27.062999999999999</v>
+      </c>
+      <c r="V24" s="20">
+        <v>27.655999999999999</v>
+      </c>
+      <c r="W24" s="20">
         <v>26.672000000000001</v>
       </c>
-      <c r="R24" s="20">
-        <v>26.625</v>
-      </c>
-      <c r="S24" s="20">
-        <v>28</v>
-      </c>
-      <c r="T24" s="20">
-        <v>26.640999999999998</v>
-      </c>
-      <c r="U24" s="20">
-        <v>27.094999999999999</v>
-      </c>
-      <c r="V24" s="20">
-        <v>26.64</v>
-      </c>
-      <c r="W24" s="20">
-        <v>26.765000000000001</v>
-      </c>
       <c r="X24" s="20">
-        <v>26.719000000000001</v>
+        <v>26.626000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.3">
@@ -4136,68 +4136,68 @@
         <v>5809</v>
       </c>
       <c r="C25" s="22">
-        <v>5931.2</v>
+        <v>5969</v>
       </c>
       <c r="D25" s="22">
-        <v>5795.58</v>
+        <v>6023.24</v>
       </c>
       <c r="E25" s="22">
-        <v>5959.45</v>
+        <v>5905.16</v>
       </c>
       <c r="F25" s="22">
-        <v>5844.29</v>
+        <v>5980.2</v>
       </c>
       <c r="G25" s="22">
-        <v>5709.77</v>
+        <v>5867.04</v>
       </c>
       <c r="H25" s="22">
-        <v>5899.51</v>
+        <v>5794.8</v>
       </c>
       <c r="I25" s="22">
-        <v>5719.49</v>
+        <v>5871.97</v>
       </c>
       <c r="J25" s="22">
-        <v>5720.26</v>
+        <v>5944.42</v>
       </c>
       <c r="K25" s="22">
-        <v>5997.11</v>
+        <v>5789.04</v>
       </c>
       <c r="L25" s="22">
-        <v>5953.17</v>
+        <v>5911.06</v>
       </c>
       <c r="M25" s="19"/>
       <c r="N25" s="17" t="s">
         <v>22</v>
       </c>
       <c r="O25" s="20">
-        <v>44.267000000000003</v>
+        <v>45.453000000000003</v>
       </c>
       <c r="P25" s="20">
-        <v>44.530999999999999</v>
+        <v>45.703000000000003</v>
       </c>
       <c r="Q25" s="20">
-        <v>44.844000000000001</v>
+        <v>45.14</v>
       </c>
       <c r="R25" s="20">
-        <v>45.280999999999999</v>
+        <v>44.703000000000003</v>
       </c>
       <c r="S25" s="20">
-        <v>44.811999999999998</v>
+        <v>45.344000000000001</v>
       </c>
       <c r="T25" s="20">
-        <v>44.688000000000002</v>
+        <v>44.719000000000001</v>
       </c>
       <c r="U25" s="20">
-        <v>44.75</v>
+        <v>44.515000000000001</v>
       </c>
       <c r="V25" s="20">
-        <v>44.531999999999996</v>
+        <v>46.188000000000002</v>
       </c>
       <c r="W25" s="20">
-        <v>45.030999999999999</v>
+        <v>45.313000000000002</v>
       </c>
       <c r="X25" s="20">
-        <v>44.530999999999999</v>
+        <v>45.109000000000002</v>
       </c>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.3">
@@ -4208,68 +4208,68 @@
         <v>44011.7</v>
       </c>
       <c r="C26" s="22">
-        <v>44963.6</v>
+        <v>45434.2</v>
       </c>
       <c r="D26" s="22">
-        <v>44993.4</v>
+        <v>44724.4</v>
       </c>
       <c r="E26" s="22">
-        <v>44439.4</v>
+        <v>44956.4</v>
       </c>
       <c r="F26" s="22">
-        <v>44802.400000000001</v>
+        <v>45038.3</v>
       </c>
       <c r="G26" s="22">
-        <v>45046.7</v>
+        <v>45445.2</v>
       </c>
       <c r="H26" s="22">
-        <v>45159</v>
+        <v>44490.3</v>
       </c>
       <c r="I26" s="22">
-        <v>47290</v>
+        <v>44696.800000000003</v>
       </c>
       <c r="J26" s="22">
-        <v>44425.1</v>
+        <v>44481.2</v>
       </c>
       <c r="K26" s="22">
-        <v>46573.8</v>
+        <v>46901.9</v>
       </c>
       <c r="L26" s="22">
-        <v>45087.1</v>
+        <v>45023.199999999997</v>
       </c>
       <c r="M26" s="19"/>
       <c r="N26" s="17" t="s">
         <v>24</v>
       </c>
       <c r="O26" s="20">
+        <v>60.234999999999999</v>
+      </c>
+      <c r="P26" s="20">
         <v>59.97</v>
       </c>
-      <c r="P26" s="20">
-        <v>59.780999999999999</v>
-      </c>
       <c r="Q26" s="20">
-        <v>60.078000000000003</v>
+        <v>60.515000000000001</v>
       </c>
       <c r="R26" s="20">
-        <v>59.75</v>
+        <v>60.546999999999997</v>
       </c>
       <c r="S26" s="20">
-        <v>60.61</v>
+        <v>59.875999999999998</v>
       </c>
       <c r="T26" s="20">
-        <v>60.250999999999998</v>
+        <v>59.546999999999997</v>
       </c>
       <c r="U26" s="20">
-        <v>59.703000000000003</v>
+        <v>59.594000000000001</v>
       </c>
       <c r="V26" s="20">
-        <v>60.14</v>
+        <v>59.953000000000003</v>
       </c>
       <c r="W26" s="20">
-        <v>59.89</v>
+        <v>58.89</v>
       </c>
       <c r="X26" s="20">
-        <v>60</v>
+        <v>59.454000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.3">
@@ -4280,68 +4280,68 @@
         <v>476684</v>
       </c>
       <c r="C27" s="22">
-        <v>482289</v>
+        <v>482698</v>
       </c>
       <c r="D27" s="22">
-        <v>478175</v>
+        <v>476378</v>
       </c>
       <c r="E27" s="22">
-        <v>476812</v>
+        <v>478776</v>
       </c>
       <c r="F27" s="22">
-        <v>477934</v>
+        <v>481061</v>
       </c>
       <c r="G27" s="22">
-        <v>484088</v>
+        <v>477874</v>
       </c>
       <c r="H27" s="22">
-        <v>484864</v>
+        <v>480399</v>
       </c>
       <c r="I27" s="22">
-        <v>475986</v>
+        <v>477984</v>
       </c>
       <c r="J27" s="22">
-        <v>479612</v>
+        <v>483380</v>
       </c>
       <c r="K27" s="22">
-        <v>483688</v>
+        <v>480100</v>
       </c>
       <c r="L27" s="22">
-        <v>477299</v>
+        <v>478547</v>
       </c>
       <c r="M27" s="19"/>
       <c r="N27" s="17" t="s">
         <v>23</v>
       </c>
       <c r="O27" s="20">
-        <v>119.98399999999999</v>
+        <v>125.172</v>
       </c>
       <c r="P27" s="20">
-        <v>123.15600000000001</v>
+        <v>122.14100000000001</v>
       </c>
       <c r="Q27" s="20">
-        <v>120.485</v>
+        <v>123.75</v>
       </c>
       <c r="R27" s="20">
-        <v>123.999</v>
+        <v>127.51600000000001</v>
       </c>
       <c r="S27" s="20">
-        <v>128.328</v>
+        <v>119.84399999999999</v>
       </c>
       <c r="T27" s="20">
-        <v>120.03100000000001</v>
+        <v>121.01600000000001</v>
       </c>
       <c r="U27" s="20">
-        <v>118.89100000000001</v>
+        <v>122.5</v>
       </c>
       <c r="V27" s="20">
-        <v>123.782</v>
+        <v>125.093</v>
       </c>
       <c r="W27" s="20">
-        <v>121.047</v>
+        <v>125.188</v>
       </c>
       <c r="X27" s="20">
-        <v>124.98399999999999</v>
+        <v>121.126</v>
       </c>
       <c r="AH27" s="21"/>
     </row>
@@ -4363,8 +4363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348A00D3-4455-4871-A842-3FB0F610BDD7}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.45"/>
@@ -4443,15 +4443,15 @@
       </c>
       <c r="E5" s="6">
         <f>AVERAGE(data!C5:L5) / data!B5 -1</f>
-        <v>7.3853658536586764E-3</v>
+        <v>9.3180487804875867E-3</v>
       </c>
       <c r="F5" s="6">
         <f>MAX(data!C5:L5) / data!B5 -1</f>
-        <v>3.1502439024390316E-2</v>
+        <v>2.8817073170731788E-2</v>
       </c>
       <c r="G5" s="7">
         <f>AVERAGE(data!O5:X5)</f>
-        <v>19.081199999999999</v>
+        <v>19.367299999999997</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -4467,19 +4467,19 @@
       </c>
       <c r="D6" s="6">
         <f>MIN(data!C6:L6) / data!B6 -1</f>
-        <v>6.2352097878064505E-3</v>
+        <v>5.2598331385853569E-3</v>
       </c>
       <c r="E6" s="6">
         <f>AVERAGE(data!C6:L6) / data!B6 -1</f>
-        <v>3.1934747956782195E-2</v>
+        <v>2.8268902832192744E-2</v>
       </c>
       <c r="F6" s="6">
         <f>MAX(data!C6:L6) / data!B6 -1</f>
-        <v>6.3687512887736775E-2</v>
+        <v>5.022535128288208E-2</v>
       </c>
       <c r="G6" s="7">
         <f>AVERAGE(data!O6:X6)</f>
-        <v>49.113899999999994</v>
+        <v>48.985700000000001</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
@@ -4495,19 +4495,19 @@
       </c>
       <c r="D7" s="6">
         <f>MIN(data!C7:L7) / data!B7 -1</f>
-        <v>-4.9439409678690427E-2</v>
+        <v>-5.0456710964645102E-2</v>
       </c>
       <c r="E7" s="6">
         <f>AVERAGE(data!C7:L7) / data!B7 -1</f>
-        <v>-3.182003796969568E-2</v>
+        <v>-3.9858867356807437E-2</v>
       </c>
       <c r="F7" s="6">
         <f>MAX(data!C7:L7) / data!B7 -1</f>
-        <v>-1.9772898234050817E-2</v>
+        <v>-3.0712469104846485E-2</v>
       </c>
       <c r="G7" s="7">
         <f>AVERAGE(data!O7:X7)</f>
-        <v>81.151499999999984</v>
+        <v>82.870199999999983</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
@@ -4523,19 +4523,19 @@
       </c>
       <c r="D8" s="6">
         <f>MIN(data!C8:L8) / data!B8 -1</f>
-        <v>2.3247337400475798E-2</v>
+        <v>2.757470788956673E-2</v>
       </c>
       <c r="E8" s="6">
         <f>AVERAGE(data!C8:L8) / data!B8 -1</f>
-        <v>3.4304105056354173E-2</v>
+        <v>3.8614672732912858E-2</v>
       </c>
       <c r="F8" s="6">
         <f>MAX(data!C8:L8) / data!B8 -1</f>
-        <v>4.8505842208665051E-2</v>
+        <v>4.4969496432633704E-2</v>
       </c>
       <c r="G8" s="7">
         <f>AVERAGE(data!O8:X8)</f>
-        <v>158.62630000000001</v>
+        <v>152.13270000000003</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
@@ -4551,19 +4551,19 @@
       </c>
       <c r="D9" s="6">
         <f>MIN(data!C9:L9) / data!B9 -1</f>
-        <v>3.026315789473677E-2</v>
+        <v>3.6658078763341928E-2</v>
       </c>
       <c r="E9" s="6">
         <f>AVERAGE(data!C9:L9) / data!B9 -1</f>
-        <v>4.5339068825910767E-2</v>
+        <v>4.6678321678321533E-2</v>
       </c>
       <c r="F9" s="6">
         <f>MAX(data!C9:L9) / data!B9 -1</f>
-        <v>6.9249171880750859E-2</v>
+        <v>6.3659366948840557E-2</v>
       </c>
       <c r="G9" s="7">
         <f>AVERAGE(data!O9:X9)</f>
-        <v>221.67649999999998</v>
+        <v>212.92350000000002</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
@@ -4584,19 +4584,19 @@
       </c>
       <c r="D11" s="6">
         <f>MIN(data!C11:L11) / data!B11 -1</f>
-        <v>-1.0572430261455157E-3</v>
+        <v>-1.7681478195881173E-3</v>
       </c>
       <c r="E11" s="6">
         <f>AVERAGE(data!C11:L11) / data!B11 -1</f>
-        <v>1.2541089689448448E-3</v>
+        <v>2.4213295742470109E-3</v>
       </c>
       <c r="F11" s="6">
         <f>MAX(data!C11:L11) / data!B11 -1</f>
-        <v>8.056920992350225E-3</v>
+        <v>4.8426591484940218E-3</v>
       </c>
       <c r="G11" s="7">
         <f>AVERAGE(data!O11:X11)</f>
-        <v>27.582699999999999</v>
+        <v>27.288900000000002</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
@@ -4612,19 +4612,19 @@
       </c>
       <c r="D12" s="6">
         <f>MIN(data!C12:L12) / data!B12 -1</f>
-        <v>-6.6873208396879491E-2</v>
+        <v>-7.5456933653792468E-2</v>
       </c>
       <c r="E12" s="6">
         <f>AVERAGE(data!C12:L12) / data!B12 -1</f>
-        <v>-5.5471625797487989E-2</v>
+        <v>-5.8914697733097987E-2</v>
       </c>
       <c r="F12" s="6">
         <f>MAX(data!C12:L12) / data!B12 -1</f>
-        <v>-3.9277529803492417E-2</v>
+        <v>-2.9001014077309373E-2</v>
       </c>
       <c r="G12" s="7">
         <f>AVERAGE(data!O12:X12)</f>
-        <v>74.832899999999981</v>
+        <v>74.020200000000003</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
@@ -4652,7 +4652,7 @@
       </c>
       <c r="G13" s="7">
         <f>AVERAGE(data!O13:X13)</f>
-        <v>38.586199999999998</v>
+        <v>38.648400000000002</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
@@ -4668,11 +4668,11 @@
       </c>
       <c r="D14" s="6">
         <f>MIN(data!C14:L14) / data!B14 -1</f>
-        <v>-1.1833119210158394E-5</v>
+        <v>-1.3523564811546152E-5</v>
       </c>
       <c r="E14" s="6">
         <f>AVERAGE(data!C14:L14) / data!B14 -1</f>
-        <v>-1.1833119210158394E-5</v>
+        <v>-1.3185475691401827E-5</v>
       </c>
       <c r="F14" s="6">
         <f>MAX(data!C14:L14) / data!B14 -1</f>
@@ -4680,7 +4680,7 @@
       </c>
       <c r="G14" s="7">
         <f>AVERAGE(data!O14:X14)</f>
-        <v>165.79239999999999</v>
+        <v>168.44720000000001</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
@@ -4696,19 +4696,19 @@
       </c>
       <c r="D15" s="6">
         <f>MIN(data!C15:L15) / data!B15 -1</f>
-        <v>-3.3701839782196208E-2</v>
+        <v>-2.9117116692399359E-2</v>
       </c>
       <c r="E15" s="6">
         <f>AVERAGE(data!C15:L15) / data!B15 -1</f>
-        <v>-2.2931865593362022E-2</v>
+        <v>-2.0325998562117809E-2</v>
       </c>
       <c r="F15" s="6">
         <f>MAX(data!C15:L15) / data!B15 -1</f>
-        <v>-1.6400108430469018E-2</v>
+        <v>-1.308237179864935E-2</v>
       </c>
       <c r="G15" s="7">
         <f>AVERAGE(data!O15:X15)</f>
-        <v>29.6938</v>
+        <v>29.537500000000005</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
@@ -4724,19 +4724,19 @@
       </c>
       <c r="D16" s="6">
         <f>MIN(data!C16:L16) / data!B16 -1</f>
-        <v>-9.4462332345352618E-2</v>
+        <v>-0.10017698360236271</v>
       </c>
       <c r="E16" s="6">
         <f>AVERAGE(data!C16:L16) / data!B16 -1</f>
-        <v>-8.2935653311157043E-2</v>
+        <v>-8.605952050948551E-2</v>
       </c>
       <c r="F16" s="6">
         <f>MAX(data!C16:L16) / data!B16 -1</f>
-        <v>-7.2989743480393221E-2</v>
+        <v>-7.8896304667675943E-2</v>
       </c>
       <c r="G16" s="7">
         <f>AVERAGE(data!O16:X16)</f>
-        <v>66.477900000000005</v>
+        <v>67.203099999999992</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.45">
@@ -4761,7 +4761,7 @@
       </c>
       <c r="E18" s="6">
         <f>AVERAGE(data!C18:L18) / data!B18 -1</f>
-        <v>5.7087584180481876E-4</v>
+        <v>9.8954245980364952E-4</v>
       </c>
       <c r="F18" s="6">
         <f>MAX(data!C18:L18) / data!B18 -1</f>
@@ -4769,7 +4769,7 @@
       </c>
       <c r="G18" s="7">
         <f>AVERAGE(data!O18:X18)</f>
-        <v>5.1826999999999988</v>
+        <v>5.2687000000000008</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
@@ -4789,15 +4789,15 @@
       </c>
       <c r="E19" s="6">
         <f>AVERAGE(data!C19:L19) / data!B19 -1</f>
-        <v>1.6749782797567336E-2</v>
+        <v>1.740247610773249E-2</v>
       </c>
       <c r="F19" s="6">
         <f>MAX(data!C19:L19) / data!B19 -1</f>
-        <v>2.7387054735013017E-2</v>
+        <v>3.4146394439617644E-2</v>
       </c>
       <c r="G19" s="7">
         <f>AVERAGE(data!O19:X19)</f>
-        <v>8.740499999999999</v>
+        <v>8.8266000000000009</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
@@ -4817,15 +4817,15 @@
       </c>
       <c r="E20" s="6">
         <f>AVERAGE(data!C20:L20) / data!B20 -1</f>
-        <v>5.5003004332563332E-3</v>
+        <v>9.2530280509786067E-3</v>
       </c>
       <c r="F20" s="6">
         <f>MAX(data!C20:L20) / data!B20 -1</f>
-        <v>2.5457765409063526E-2</v>
+        <v>2.5895765472312648E-2</v>
       </c>
       <c r="G20" s="7">
         <f>AVERAGE(data!O20:X20)</f>
-        <v>10.912699999999997</v>
+        <v>10.672000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
@@ -4845,15 +4845,15 @@
       </c>
       <c r="E21" s="6">
         <f>AVERAGE(data!C21:L21) / data!B21 -1</f>
-        <v>5.5053400786959639E-3</v>
+        <v>9.4963462619448435E-3</v>
       </c>
       <c r="F21" s="6">
         <f>MAX(data!C21:L21) / data!B21 -1</f>
-        <v>3.016863406408099E-2</v>
+        <v>4.9600899381675001E-2</v>
       </c>
       <c r="G21" s="7">
         <f>AVERAGE(data!O21:X21)</f>
-        <v>20.950300000000002</v>
+        <v>20.665700000000001</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
@@ -4869,19 +4869,19 @@
       </c>
       <c r="D22" s="6">
         <f>MIN(data!C22:L22) / data!B22 -1</f>
-        <v>1.4317270719144126E-4</v>
+        <v>-1.7231857972674902E-3</v>
       </c>
       <c r="E22" s="6">
         <f>AVERAGE(data!C22:L22) / data!B22 -1</f>
-        <v>5.0187147181544045E-3</v>
+        <v>3.2873476233330479E-3</v>
       </c>
       <c r="F22" s="6">
         <f>MAX(data!C22:L22) / data!B22 -1</f>
-        <v>9.6590444244457618E-3</v>
+        <v>8.160844309907489E-3</v>
       </c>
       <c r="G22" s="7">
         <f>AVERAGE(data!O22:X22)</f>
-        <v>24.530900000000003</v>
+        <v>24.176600000000001</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
@@ -4897,19 +4897,19 @@
       </c>
       <c r="D23" s="6">
         <f>MIN(data!C23:L23) / data!B23 -1</f>
-        <v>-2.6916583062130961E-4</v>
+        <v>-1.7667066337142545E-3</v>
       </c>
       <c r="E23" s="6">
         <f>AVERAGE(data!C23:L23) / data!B23 -1</f>
-        <v>6.8108742995571792E-3</v>
+        <v>2.2722490028628251E-3</v>
       </c>
       <c r="F23" s="6">
         <f>MAX(data!C23:L23) / data!B23 -1</f>
-        <v>2.9852937577997007E-2</v>
+        <v>4.9477573592384694E-3</v>
       </c>
       <c r="G23" s="7">
         <f>AVERAGE(data!O23:X23)</f>
-        <v>25.473399999999998</v>
+        <v>25.2486</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
@@ -4925,19 +4925,19 @@
       </c>
       <c r="D24" s="6">
         <f>MIN(data!C24:L24) / data!B24 -1</f>
-        <v>1.1887531142484864E-3</v>
+        <v>1.2235140586071891E-2</v>
       </c>
       <c r="E24" s="6">
         <f>AVERAGE(data!C24:L24) / data!B24 -1</f>
-        <v>1.6399335627002021E-2</v>
+        <v>2.9148178906157174E-2</v>
       </c>
       <c r="F24" s="6">
         <f>MAX(data!C24:L24) / data!B24 -1</f>
-        <v>4.3705065844109603E-2</v>
+        <v>6.8334321983628099E-2</v>
       </c>
       <c r="G24" s="7">
         <f>AVERAGE(data!O24:X24)</f>
-        <v>26.879699999999996</v>
+        <v>26.847199999999997</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
@@ -4953,19 +4953,19 @@
       </c>
       <c r="D25" s="6">
         <f>MIN(data!C25:L25) / data!B25 -1</f>
-        <v>-1.7082113961094825E-2</v>
+        <v>-3.4360475124806111E-3</v>
       </c>
       <c r="E25" s="6">
         <f>AVERAGE(data!C25:L25) / data!B25 -1</f>
-        <v>7.5715269409537544E-3</v>
+        <v>1.6628163195042234E-2</v>
       </c>
       <c r="F25" s="6">
         <f>MAX(data!C25:L25) / data!B25 -1</f>
-        <v>3.2382509898433387E-2</v>
+        <v>3.6880702358409234E-2</v>
       </c>
       <c r="G25" s="7">
         <f>AVERAGE(data!O25:X25)</f>
-        <v>44.726700000000001</v>
+        <v>45.218699999999998</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
@@ -4981,19 +4981,19 @@
       </c>
       <c r="D26" s="6">
         <f>MIN(data!C26:L26) / data!B26 -1</f>
-        <v>9.3929568728314816E-3</v>
+        <v>1.0667617928868944E-2</v>
       </c>
       <c r="E26" s="6">
         <f>AVERAGE(data!C26:L26) / data!B26 -1</f>
-        <v>2.8773030807716982E-2</v>
+        <v>2.5163536059729763E-2</v>
       </c>
       <c r="F26" s="6">
         <f>MAX(data!C26:L26) / data!B26 -1</f>
-        <v>7.4487011408330028E-2</v>
+        <v>6.5668901678417324E-2</v>
       </c>
       <c r="G26" s="7">
         <f>AVERAGE(data!O26:X26)</f>
-        <v>60.017299999999999</v>
+        <v>59.858099999999993</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
@@ -5009,19 +5009,19 @@
       </c>
       <c r="D27" s="6">
         <f>MIN(data!C27:L27) / data!B27 -1</f>
-        <v>-1.4642824177022451E-3</v>
+        <v>-6.4193469887807719E-4</v>
       </c>
       <c r="E27" s="6">
         <f>AVERAGE(data!C27:L27) / data!B27 -1</f>
-        <v>7.1130979852480625E-3</v>
+        <v>6.3683698215168949E-3</v>
       </c>
       <c r="F27" s="6">
         <f>MAX(data!C27:L27) / data!B27 -1</f>
-        <v>1.7160215153015468E-2</v>
+        <v>1.4047041646038094E-2</v>
       </c>
       <c r="G27" s="7">
         <f>AVERAGE(data!O27:X27)</f>
-        <v>122.46869999999998</v>
+        <v>123.33459999999999</v>
       </c>
     </row>
   </sheetData>

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research\dev\LRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF46E9F-DEDA-420C-9552-94814D827BD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5F1F33-F12C-46AF-B772-43DA3196A4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="127">
   <si>
     <t>Instance</t>
   </si>
@@ -147,37 +147,10 @@
     <t>                        :randomcustomer!    ,</t>
   </si>
   <si>
-    <t>                        :randomroute!       ,</t>
-  </si>
-  <si>
-    <t>                        :randomvehicle!     ,</t>
-  </si>
-  <si>
-    <t>                        :randomdepot!       ,</t>
-  </si>
-  <si>
     <t>                        :relatedcustomer!   ,</t>
   </si>
   <si>
-    <t>                        :relatedroute!      ,</t>
-  </si>
-  <si>
-    <t>                        :relatedvehicle!    ,</t>
-  </si>
-  <si>
-    <t>                        :relateddepot!      ,</t>
-  </si>
-  <si>
     <t>                        :worstcustomer!     ,</t>
-  </si>
-  <si>
-    <t>                        :worstroute!        ,</t>
-  </si>
-  <si>
-    <t>                        :worstvehicle!      ,</t>
-  </si>
-  <si>
-    <t>                        :worstdepot!</t>
   </si>
   <si>
     <t>                    ]                       ,</t>
@@ -332,91 +305,121 @@
     <t>            m   =   100x                    ,</t>
   </si>
   <si>
+    <t>Intel(R) Core(TM) i7-7700 CPU @ 3.60GHz   3.60 GHz</t>
+  </si>
+  <si>
+    <t>16.0 GB</t>
+  </si>
+  <si>
+    <t>            c̲   =   4                       ,</t>
+  </si>
+  <si>
+    <t>            c̅   =   60                      ,</t>
+  </si>
+  <si>
+    <t>1.9.4</t>
+  </si>
+  <si>
+    <t>1.84.2</t>
+  </si>
+  <si>
+    <t>CPU Run Time (s)</t>
+  </si>
+  <si>
+    <t>m-n101-k10</t>
+  </si>
+  <si>
+    <t>tai150a</t>
+  </si>
+  <si>
+    <t>cmt10</t>
+  </si>
+  <si>
+    <t>x-n251-k28</t>
+  </si>
+  <si>
+    <t>x-n303-k21</t>
+  </si>
+  <si>
+    <t>r101</t>
+  </si>
+  <si>
+    <t>r201</t>
+  </si>
+  <si>
+    <t>c101</t>
+  </si>
+  <si>
+    <t>c201</t>
+  </si>
+  <si>
+    <t>rc101</t>
+  </si>
+  <si>
+    <t>rc201</t>
+  </si>
+  <si>
+    <t>VRP</t>
+  </si>
+  <si>
+    <t>VRPTW</t>
+  </si>
+  <si>
+    <t>LRP</t>
+  </si>
+  <si>
+    <t>Benchmarking</t>
+  </si>
+  <si>
+    <t>                        :intramove!         ,</t>
+  </si>
+  <si>
+    <t>                        :intraswap!         ,</t>
+  </si>
+  <si>
+    <t>                        :intermove!         ,</t>
+  </si>
+  <si>
+    <t>                        :interswap!         ,</t>
+  </si>
+  <si>
+    <t>                        :interopt!          ,</t>
+  </si>
+  <si>
+    <t>[1010, 1106, 1509, 1604, 1905, 2104, 2412, 2703, 2710, 2807]</t>
+  </si>
+  <si>
+    <t>                        :randomroute!       ,</t>
+  </si>
+  <si>
+    <t>                        :randomdepot!       ,</t>
+  </si>
+  <si>
+    <t>                        :relatedroute!      ,</t>
+  </si>
+  <si>
+    <t>                        :relateddepot!      ,</t>
+  </si>
+  <si>
+    <t>                        :worstroute!        ,</t>
+  </si>
+  <si>
+    <t>                        :worstdepot!</t>
+  </si>
+  <si>
     <t>                        :swapdepot!</t>
   </si>
   <si>
-    <t>Intel(R) Core(TM) i7-7700 CPU @ 3.60GHz   3.60 GHz</t>
-  </si>
-  <si>
-    <t>16.0 GB</t>
-  </si>
-  <si>
-    <t>            c̲   =   4                       ,</t>
-  </si>
-  <si>
-    <t>            c̅   =   60                      ,</t>
-  </si>
-  <si>
-    <t>1.9.4</t>
-  </si>
-  <si>
-    <t>1.84.2</t>
-  </si>
-  <si>
-    <t>CPU Run Time (s)</t>
-  </si>
-  <si>
-    <t>m-n101-k10</t>
-  </si>
-  <si>
-    <t>tai150a</t>
-  </si>
-  <si>
-    <t>cmt10</t>
-  </si>
-  <si>
-    <t>x-n251-k28</t>
-  </si>
-  <si>
-    <t>x-n303-k21</t>
-  </si>
-  <si>
-    <t>r101</t>
-  </si>
-  <si>
-    <t>r201</t>
-  </si>
-  <si>
-    <t>c101</t>
-  </si>
-  <si>
-    <t>c201</t>
-  </si>
-  <si>
-    <t>rc101</t>
-  </si>
-  <si>
-    <t>rc201</t>
-  </si>
-  <si>
-    <t>VRP</t>
-  </si>
-  <si>
-    <t>VRPTW</t>
-  </si>
-  <si>
-    <t>LRP</t>
-  </si>
-  <si>
-    <t>Benchmarking</t>
-  </si>
-  <si>
-    <t>                        :intramove!         ,</t>
-  </si>
-  <si>
-    <t>                        :intraswap!         ,</t>
-  </si>
-  <si>
-    <t>                        :intermove!         ,</t>
-  </si>
-  <si>
-    <t>                        :interswap!         ,</t>
-  </si>
-  <si>
-    <t>                        :interopt!          ,</t>
-  </si>
-  <si>
-    <t>[1010, 1106, 1509, 1604, 1905, 2104, 2412, 2703, 2710, 2807]</t>
+    <t>                        :interopt!</t>
+  </si>
+  <si>
+    <t>                        :worstroute!</t>
+  </si>
+  <si>
+    <t>Note : Since none of the instance employed for benchmarking encompass multi-route vehicle operations, vehicle-related removal operators have not been deployed in benchmarking yet .</t>
+  </si>
+  <si>
+    <t>Note : Since none of the instance employed for benchmarking encompass multi-route vehicle operations, vehicle-related removal operators have not been deployed in benchmarking yet.</t>
   </si>
 </sst>
 </file>
@@ -703,7 +706,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -761,6 +764,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1094,10 +1103,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5551421D-4FE7-47B7-A546-15E7A05240A9}">
-  <dimension ref="A1:N286"/>
+  <dimension ref="A1:N321"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C146" sqref="C146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1119,7 +1128,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
@@ -1132,7 +1141,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
@@ -1163,7 +1172,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1189,7 +1198,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1197,7 +1206,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1217,7 +1226,7 @@
         <v>29</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1231,141 +1240,133 @@
       <c r="A16" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="13"/>
+      <c r="B16" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>89</v>
+      <c r="A17" s="26" t="s">
+        <v>106</v>
       </c>
       <c r="B17" s="13"/>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="B18" s="13"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="1" t="s">
-        <v>86</v>
-      </c>
+      <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
     <row r="20" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="K21" s="26"/>
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="K22" s="27"/>
+      <c r="K22" s="28"/>
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="K23" s="1"/>
+      <c r="K23" s="29"/>
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
+      <c r="F24" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -1376,24 +1377,23 @@
     </row>
     <row r="26" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>37</v>
+        <v>116</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="K26" s="16"/>
+      <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1409,7 +1409,7 @@
     </row>
     <row r="28" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>39</v>
+        <v>118</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1425,7 +1425,7 @@
     </row>
     <row r="29" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1441,7 +1441,7 @@
     </row>
     <row r="30" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>41</v>
+        <v>124</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1457,7 +1457,7 @@
     </row>
     <row r="31" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1473,23 +1473,26 @@
     </row>
     <row r="32" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
+      <c r="F32" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
+      <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
     </row>
     <row r="33" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1499,13 +1502,14 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
+      <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
     </row>
     <row r="34" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1515,13 +1519,14 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
+      <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
     </row>
     <row r="35" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1531,13 +1536,14 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
+      <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
     <row r="36" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1547,21 +1553,20 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
+      <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
     <row r="37" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -1572,7 +1577,7 @@
     </row>
     <row r="38" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1589,24 +1594,24 @@
     </row>
     <row r="39" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
+      <c r="F39" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
     </row>
     <row r="40" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1618,12 +1623,10 @@
       <c r="I40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
     </row>
     <row r="41" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1635,12 +1638,10 @@
       <c r="I41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
     </row>
     <row r="42" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1652,12 +1653,10 @@
       <c r="I42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
     </row>
     <row r="43" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1669,20 +1668,16 @@
       <c r="I43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
     </row>
     <row r="44" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -1691,7 +1686,7 @@
     </row>
     <row r="45" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1706,7 +1701,7 @@
     </row>
     <row r="46" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>121</v>
+        <v>38</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1720,14 +1715,16 @@
       <c r="L46" s="1"/>
     </row>
     <row r="47" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="1" t="s">
-        <v>55</v>
+      <c r="A47" s="16" t="s">
+        <v>48</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
+      <c r="F47" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
@@ -1735,14 +1732,16 @@
       <c r="L47" s="1"/>
     </row>
     <row r="48" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="1" t="s">
-        <v>122</v>
+      <c r="A48" s="16" t="s">
+        <v>49</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
+      <c r="F48" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
@@ -1750,263 +1749,261 @@
       <c r="L48" s="1"/>
     </row>
     <row r="49" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="1" t="s">
-        <v>123</v>
+      <c r="A49" s="16" t="s">
+        <v>50</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
+      <c r="F49" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-      <c r="K49" s="1"/>
       <c r="L49" s="1"/>
     </row>
     <row r="50" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="1" t="s">
-        <v>124</v>
+      <c r="A50" s="16" t="s">
+        <v>53</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
+      <c r="F50" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-      <c r="K50" s="1"/>
       <c r="L50" s="1"/>
     </row>
     <row r="51" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="1" t="s">
-        <v>97</v>
+      <c r="A51" s="16" t="s">
+        <v>90</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
+      <c r="F51" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
-      <c r="K51" s="1"/>
       <c r="L51" s="1"/>
     </row>
     <row r="52" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="1" t="s">
-        <v>47</v>
+      <c r="A52" s="16" t="s">
+        <v>54</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
+      <c r="F52" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-      <c r="K52" s="1"/>
       <c r="L52" s="1"/>
     </row>
     <row r="53" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="16" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-      <c r="K53" s="1"/>
       <c r="L53" s="1"/>
     </row>
     <row r="54" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="16" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
     </row>
     <row r="55" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="16" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
-      <c r="L55" s="1"/>
     </row>
     <row r="56" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="16" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="L56" s="1"/>
     </row>
     <row r="57" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="16" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
       <c r="L57" s="1"/>
     </row>
     <row r="58" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="16" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="L58" s="1"/>
+      <c r="J58" s="1"/>
     </row>
     <row r="59" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="16" t="s">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-      <c r="L59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
     </row>
     <row r="60" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="16" t="s">
-        <v>94</v>
-      </c>
+      <c r="A60" s="16"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
-      <c r="F60" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
     </row>
     <row r="61" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="16" t="s">
-        <v>60</v>
+      <c r="A61" s="26" t="s">
+        <v>107</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
-      <c r="F61" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
     </row>
     <row r="62" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="16" t="s">
-        <v>61</v>
+      <c r="A62" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
-      <c r="F62" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
     </row>
     <row r="63" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="16" t="s">
-        <v>91</v>
+      <c r="A63" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
-      <c r="F63" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
-      <c r="L63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
     </row>
     <row r="64" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="16" t="s">
-        <v>93</v>
+      <c r="A64" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
       <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
     </row>
     <row r="65" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="16" t="s">
-        <v>64</v>
+      <c r="A65" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
@@ -2015,193 +2012,1139 @@
       <c r="K65" s="1"/>
     </row>
     <row r="66" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="16"/>
+      <c r="A66" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
     </row>
     <row r="67" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="16"/>
-      <c r="J67" s="15"/>
+      <c r="A67" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
     </row>
     <row r="68" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="16"/>
+      <c r="A68" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
     </row>
     <row r="69" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="1"/>
-      <c r="J69" s="15"/>
+      <c r="A69" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
     </row>
     <row r="70" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="1"/>
+      <c r="A70" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
       <c r="J70" s="15"/>
     </row>
     <row r="71" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="1"/>
-      <c r="J71" s="15"/>
+      <c r="A71" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
     </row>
     <row r="72" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J72" s="15"/>
+      <c r="A72" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+    </row>
+    <row r="73" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
     </row>
     <row r="74" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J74" s="15"/>
+      <c r="A74" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
     </row>
     <row r="75" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J75" s="15"/>
+      <c r="A75" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
     </row>
     <row r="76" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J76" s="15"/>
-    </row>
-    <row r="109" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B109" s="13"/>
-    </row>
-    <row r="110" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B110" s="13"/>
-    </row>
-    <row r="111" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B111" s="13"/>
-    </row>
-    <row r="112" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B112" s="13"/>
-    </row>
-    <row r="113" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B113" s="13"/>
-    </row>
-    <row r="114" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B114" s="13"/>
-    </row>
-    <row r="115" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B115" s="13"/>
-    </row>
-    <row r="116" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B116" s="13"/>
-    </row>
-    <row r="117" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B117" s="13"/>
-    </row>
-    <row r="118" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B118" s="13"/>
-    </row>
-    <row r="119" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B119" s="13"/>
-    </row>
-    <row r="120" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B120" s="13"/>
-    </row>
-    <row r="121" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B121" s="13"/>
-    </row>
-    <row r="122" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B122" s="13"/>
-    </row>
-    <row r="123" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B123" s="13"/>
-    </row>
-    <row r="124" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B124" s="13"/>
-    </row>
-    <row r="125" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B125" s="13"/>
-    </row>
-    <row r="126" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B126" s="13"/>
-    </row>
-    <row r="127" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B127" s="13"/>
-    </row>
-    <row r="128" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B128" s="13"/>
-    </row>
-    <row r="129" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B129" s="13"/>
-    </row>
-    <row r="130" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B130" s="13"/>
-    </row>
-    <row r="131" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B131" s="13"/>
-    </row>
-    <row r="132" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B132" s="13"/>
-    </row>
-    <row r="133" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B133" s="13"/>
-    </row>
-    <row r="134" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B134" s="13"/>
-    </row>
-    <row r="135" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B135" s="13"/>
-    </row>
-    <row r="136" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B136" s="13"/>
-    </row>
-    <row r="137" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B137" s="13"/>
-    </row>
-    <row r="138" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B138" s="13"/>
-    </row>
-    <row r="139" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B139" s="13"/>
-    </row>
-    <row r="140" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B140" s="13"/>
-    </row>
-    <row r="141" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B141" s="13"/>
-    </row>
-    <row r="142" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B142" s="13"/>
-    </row>
-    <row r="143" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B143" s="13"/>
-    </row>
-    <row r="144" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B144" s="13"/>
-    </row>
-    <row r="145" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B145" s="13"/>
-    </row>
-    <row r="146" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B146" s="13"/>
-    </row>
-    <row r="147" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B147" s="13"/>
-    </row>
-    <row r="148" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B148" s="13"/>
-    </row>
-    <row r="149" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B149" s="13"/>
-    </row>
-    <row r="150" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B150" s="13"/>
-    </row>
-    <row r="151" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B151" s="13"/>
-    </row>
-    <row r="152" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+    </row>
+    <row r="77" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+    </row>
+    <row r="78" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+    </row>
+    <row r="79" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+    </row>
+    <row r="80" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+    </row>
+    <row r="81" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+    </row>
+    <row r="82" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+    </row>
+    <row r="83" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+    </row>
+    <row r="84" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+    </row>
+    <row r="85" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+    </row>
+    <row r="86" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+    </row>
+    <row r="87" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+    </row>
+    <row r="88" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+    </row>
+    <row r="89" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+    </row>
+    <row r="90" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+    </row>
+    <row r="91" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+    </row>
+    <row r="92" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+    </row>
+    <row r="93" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+    </row>
+    <row r="94" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+    </row>
+    <row r="95" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+    </row>
+    <row r="96" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+    </row>
+    <row r="97" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+    </row>
+    <row r="98" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+    </row>
+    <row r="99" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+    </row>
+    <row r="100" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+    </row>
+    <row r="101" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+    </row>
+    <row r="102" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+    </row>
+    <row r="103" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+    </row>
+    <row r="104" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="16"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+    </row>
+    <row r="105" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="J105" s="15"/>
+    </row>
+    <row r="106" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B106" s="13"/>
+    </row>
+    <row r="107" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="J107" s="15"/>
+    </row>
+    <row r="108" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J108" s="15"/>
+    </row>
+    <row r="109" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J109" s="15"/>
+    </row>
+    <row r="110" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J110" s="15"/>
+    </row>
+    <row r="111" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J112" s="15"/>
+    </row>
+    <row r="113" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="J113" s="15"/>
+    </row>
+    <row r="114" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+      <c r="J114" s="15"/>
+    </row>
+    <row r="115" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+    </row>
+    <row r="116" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+    </row>
+    <row r="117" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+    </row>
+    <row r="118" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+    </row>
+    <row r="119" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
+    </row>
+    <row r="120" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1"/>
+    </row>
+    <row r="121" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+      <c r="F121" s="1"/>
+    </row>
+    <row r="122" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+      <c r="F122" s="1"/>
+    </row>
+    <row r="123" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B123" s="1"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
+      <c r="F124" s="1"/>
+    </row>
+    <row r="125" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1"/>
+    </row>
+    <row r="126" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
+      <c r="F126" s="1"/>
+    </row>
+    <row r="127" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="1"/>
+      <c r="F127" s="1"/>
+    </row>
+    <row r="128" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1"/>
+      <c r="F128" s="1"/>
+    </row>
+    <row r="129" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B129" s="1"/>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="1"/>
+      <c r="F129" s="1"/>
+    </row>
+    <row r="130" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B130" s="1"/>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+      <c r="E130" s="1"/>
+      <c r="F130" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B131" s="1"/>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
+      <c r="E131" s="1"/>
+      <c r="F131" s="1"/>
+    </row>
+    <row r="132" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="1"/>
+      <c r="F132" s="1"/>
+    </row>
+    <row r="133" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B133" s="1"/>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+      <c r="E133" s="1"/>
+      <c r="F133" s="1"/>
+    </row>
+    <row r="134" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B134" s="1"/>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+      <c r="E134" s="1"/>
+      <c r="F134" s="1"/>
+    </row>
+    <row r="135" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B135" s="1"/>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+      <c r="E135" s="1"/>
+      <c r="F135" s="1"/>
+    </row>
+    <row r="136" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B136" s="1"/>
+      <c r="C136" s="1"/>
+      <c r="D136" s="1"/>
+      <c r="E136" s="1"/>
+      <c r="F136" s="1"/>
+    </row>
+    <row r="137" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B137" s="1"/>
+      <c r="C137" s="1"/>
+      <c r="D137" s="1"/>
+      <c r="E137" s="1"/>
+      <c r="F137" s="1"/>
+    </row>
+    <row r="138" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B138" s="1"/>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+      <c r="E138" s="1"/>
+      <c r="F138" s="1"/>
+    </row>
+    <row r="139" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A139" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B139" s="1"/>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+      <c r="E139" s="1"/>
+      <c r="F139" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A140" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B140" s="1"/>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+      <c r="E140" s="1"/>
+      <c r="F140" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+      <c r="E141" s="1"/>
+      <c r="F141" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A142" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+      <c r="E142" s="1"/>
+      <c r="F142" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A143" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A144" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A145" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B145" s="1"/>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1"/>
+      <c r="E145" s="1"/>
+      <c r="F145" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A146" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+      <c r="E146" s="1"/>
+      <c r="F146" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A147" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+      <c r="E147" s="1"/>
+      <c r="F147" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A148" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A149" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1"/>
+      <c r="F149" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A150" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A151" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B151" s="1"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+      <c r="E151" s="1"/>
+      <c r="F151" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B152" s="13"/>
     </row>
-    <row r="153" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B153" s="13"/>
-    </row>
-    <row r="154" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A153" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B154" s="13"/>
     </row>
-    <row r="155" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B155" s="13"/>
     </row>
-    <row r="156" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B156" s="13"/>
     </row>
-    <row r="157" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B157" s="13"/>
     </row>
-    <row r="158" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B158" s="13"/>
     </row>
-    <row r="159" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B159" s="13"/>
     </row>
-    <row r="160" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B160" s="13"/>
     </row>
     <row r="161" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2582,9 +3525,114 @@
     <row r="286" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B286" s="13"/>
     </row>
+    <row r="287" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B287" s="13"/>
+    </row>
+    <row r="288" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B288" s="13"/>
+    </row>
+    <row r="289" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B289" s="13"/>
+    </row>
+    <row r="290" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B290" s="13"/>
+    </row>
+    <row r="291" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B291" s="13"/>
+    </row>
+    <row r="292" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B292" s="13"/>
+    </row>
+    <row r="293" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B293" s="13"/>
+    </row>
+    <row r="294" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B294" s="13"/>
+    </row>
+    <row r="295" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B295" s="13"/>
+    </row>
+    <row r="296" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B296" s="13"/>
+    </row>
+    <row r="297" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B297" s="13"/>
+    </row>
+    <row r="298" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B298" s="13"/>
+    </row>
+    <row r="299" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B299" s="13"/>
+    </row>
+    <row r="300" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B300" s="13"/>
+    </row>
+    <row r="301" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B301" s="13"/>
+    </row>
+    <row r="302" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B302" s="13"/>
+    </row>
+    <row r="303" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B303" s="13"/>
+    </row>
+    <row r="304" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B304" s="13"/>
+    </row>
+    <row r="305" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B305" s="13"/>
+    </row>
+    <row r="306" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B306" s="13"/>
+    </row>
+    <row r="307" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B307" s="13"/>
+    </row>
+    <row r="308" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B308" s="13"/>
+    </row>
+    <row r="309" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B309" s="13"/>
+    </row>
+    <row r="310" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B310" s="13"/>
+    </row>
+    <row r="311" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B311" s="13"/>
+    </row>
+    <row r="312" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B312" s="13"/>
+    </row>
+    <row r="313" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B313" s="13"/>
+    </row>
+    <row r="314" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B314" s="13"/>
+    </row>
+    <row r="315" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B315" s="13"/>
+    </row>
+    <row r="316" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B316" s="13"/>
+    </row>
+    <row r="317" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B317" s="13"/>
+    </row>
+    <row r="318" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B318" s="13"/>
+    </row>
+    <row r="319" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B319" s="13"/>
+    </row>
+    <row r="320" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B320" s="13"/>
+    </row>
+    <row r="321" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B321" s="13"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="K22:K23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2593,10 +3641,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16226786-0325-4223-91E5-2589AE0E8571}">
-  <dimension ref="A1:AH27"/>
+  <dimension ref="A1:AH80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -2609,75 +3657,75 @@
     <col min="25" max="16384" width="8.7265625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:34" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="32"/>
-    </row>
-    <row r="2" spans="1:34" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="31" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="34"/>
+    </row>
+    <row r="2" spans="1:34" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="33" t="s">
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="O2" s="28" t="s">
+      <c r="O2" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="29"/>
-      <c r="X2" s="30"/>
-    </row>
-    <row r="3" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="32"/>
-      <c r="B3" s="34"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="32"/>
+    </row>
+    <row r="3" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="34"/>
+      <c r="B3" s="36"/>
       <c r="C3" s="18">
         <v>1010</v>
       </c>
@@ -2708,8 +3756,8 @@
       <c r="L3" s="18">
         <v>2807</v>
       </c>
-      <c r="M3" s="19"/>
-      <c r="N3" s="34"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="36"/>
       <c r="O3" s="18">
         <v>1010</v>
       </c>
@@ -2735,15 +3783,15 @@
         <v>2703</v>
       </c>
       <c r="W3" s="18">
+        <v>2710</v>
+      </c>
+      <c r="X3" s="18">
         <v>2807</v>
-      </c>
-      <c r="X3" s="18">
-        <v>2910</v>
       </c>
     </row>
     <row r="4" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B4" s="22"/>
       <c r="C4" s="22"/>
@@ -2756,9 +3804,9 @@
       <c r="J4" s="22"/>
       <c r="K4" s="22"/>
       <c r="L4" s="22"/>
-      <c r="M4" s="19"/>
+      <c r="M4" s="22"/>
       <c r="N4" s="25" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="O4" s="22"/>
       <c r="P4" s="22"/>
@@ -2773,372 +3821,372 @@
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B5" s="22">
         <v>820</v>
       </c>
       <c r="C5" s="22">
-        <v>838.971</v>
+        <v>819.55799999999999</v>
       </c>
       <c r="D5" s="22">
+        <v>824.77700000000004</v>
+      </c>
+      <c r="E5" s="22">
         <v>819.55799999999999</v>
       </c>
-      <c r="E5" s="22">
-        <v>843.63</v>
-      </c>
       <c r="F5" s="22">
-        <v>838.649</v>
+        <v>819.55799999999999</v>
       </c>
       <c r="G5" s="22">
         <v>819.55799999999999</v>
       </c>
       <c r="H5" s="22">
-        <v>819.55799999999999</v>
+        <v>843.86800000000005</v>
       </c>
       <c r="I5" s="22">
         <v>819.55799999999999</v>
       </c>
       <c r="J5" s="22">
-        <v>837.81</v>
+        <v>819.55799999999999</v>
       </c>
       <c r="K5" s="22">
-        <v>819.55799999999999</v>
+        <v>825.95500000000004</v>
       </c>
       <c r="L5" s="22">
         <v>819.55799999999999</v>
       </c>
-      <c r="M5" s="19"/>
+      <c r="M5" s="22"/>
       <c r="N5" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="O5" s="20">
-        <v>20.015000000000001</v>
-      </c>
-      <c r="P5" s="20">
-        <v>19.407</v>
-      </c>
-      <c r="Q5" s="20">
-        <v>19.562999999999999</v>
-      </c>
-      <c r="R5" s="20">
-        <v>19.25</v>
-      </c>
-      <c r="S5" s="20">
-        <v>19.530999999999999</v>
-      </c>
-      <c r="T5" s="20">
-        <v>19.187999999999999</v>
-      </c>
-      <c r="U5" s="20">
-        <v>19.155999999999999</v>
-      </c>
-      <c r="V5" s="20">
-        <v>19.265999999999998</v>
-      </c>
-      <c r="W5" s="20">
-        <v>19.155999999999999</v>
-      </c>
-      <c r="X5" s="20">
-        <v>19.140999999999998</v>
+        <v>95</v>
+      </c>
+      <c r="O5" s="22">
+        <v>19.5</v>
+      </c>
+      <c r="P5" s="22">
+        <v>19.780999999999999</v>
+      </c>
+      <c r="Q5" s="22">
+        <v>19.343</v>
+      </c>
+      <c r="R5" s="22">
+        <v>19</v>
+      </c>
+      <c r="S5" s="22">
+        <v>19.047000000000001</v>
+      </c>
+      <c r="T5" s="22">
+        <v>18.920999999999999</v>
+      </c>
+      <c r="U5" s="22">
+        <v>19.094999999999999</v>
+      </c>
+      <c r="V5" s="22">
+        <v>19.045999999999999</v>
+      </c>
+      <c r="W5" s="22">
+        <v>19.218</v>
+      </c>
+      <c r="X5" s="22">
+        <v>19.062000000000001</v>
       </c>
       <c r="AH5" s="21"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B6" s="22">
         <v>3055.23</v>
       </c>
       <c r="C6" s="22">
-        <v>3178.76</v>
+        <v>3177.49</v>
       </c>
       <c r="D6" s="22">
-        <v>3208.68</v>
+        <v>3072.74</v>
       </c>
       <c r="E6" s="22">
-        <v>3071.3</v>
+        <v>3194.58</v>
       </c>
       <c r="F6" s="22">
-        <v>3147.92</v>
+        <v>3182.97</v>
       </c>
       <c r="G6" s="22">
-        <v>3190.77</v>
+        <v>3075.17</v>
       </c>
       <c r="H6" s="22">
-        <v>3141.54</v>
+        <v>3148.59</v>
       </c>
       <c r="I6" s="22">
-        <v>3113.45</v>
+        <v>3075.16</v>
       </c>
       <c r="J6" s="22">
-        <v>3104.15</v>
+        <v>3081.71</v>
       </c>
       <c r="K6" s="22">
-        <v>3142.86</v>
+        <v>3182.16</v>
       </c>
       <c r="L6" s="22">
-        <v>3116.55</v>
-      </c>
-      <c r="M6" s="19"/>
+        <v>3192.29</v>
+      </c>
+      <c r="M6" s="22"/>
       <c r="N6" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="O6" s="20">
-        <v>48.593000000000004</v>
-      </c>
-      <c r="P6" s="20">
-        <v>49.375</v>
-      </c>
-      <c r="Q6" s="20">
-        <v>48.780999999999999</v>
-      </c>
-      <c r="R6" s="20">
-        <v>48.875</v>
-      </c>
-      <c r="S6" s="20">
-        <v>48.468000000000004</v>
-      </c>
-      <c r="T6" s="20">
-        <v>50.171999999999997</v>
-      </c>
-      <c r="U6" s="20">
-        <v>49.311999999999998</v>
-      </c>
-      <c r="V6" s="20">
-        <v>48.843000000000004</v>
-      </c>
-      <c r="W6" s="20">
-        <v>48.75</v>
-      </c>
-      <c r="X6" s="20">
-        <v>48.688000000000002</v>
+        <v>96</v>
+      </c>
+      <c r="O6" s="22">
+        <v>49.063000000000002</v>
+      </c>
+      <c r="P6" s="22">
+        <v>49.203000000000003</v>
+      </c>
+      <c r="Q6" s="22">
+        <v>49.642000000000003</v>
+      </c>
+      <c r="R6" s="22">
+        <v>49.188000000000002</v>
+      </c>
+      <c r="S6" s="22">
+        <v>49.61</v>
+      </c>
+      <c r="T6" s="22">
+        <v>49.61</v>
+      </c>
+      <c r="U6" s="22">
+        <v>49.25</v>
+      </c>
+      <c r="V6" s="22">
+        <v>49.203000000000003</v>
+      </c>
+      <c r="W6" s="22">
+        <v>49.170999999999999</v>
+      </c>
+      <c r="X6" s="22">
+        <v>49.030999999999999</v>
       </c>
       <c r="AH6" s="21"/>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B7" s="22">
         <v>1395.85</v>
       </c>
       <c r="C7" s="22">
-        <v>1343.22</v>
+        <v>1353.77</v>
       </c>
       <c r="D7" s="22">
-        <v>1352.98</v>
+        <v>1318.28</v>
       </c>
       <c r="E7" s="22">
-        <v>1325.42</v>
+        <v>1353.08</v>
       </c>
       <c r="F7" s="22">
-        <v>1338.59</v>
+        <v>1327.91</v>
       </c>
       <c r="G7" s="22">
-        <v>1339.26</v>
+        <v>1321.65</v>
       </c>
       <c r="H7" s="22">
-        <v>1339.56</v>
+        <v>1324.66</v>
       </c>
       <c r="I7" s="22">
-        <v>1339.27</v>
+        <v>1343.64</v>
       </c>
       <c r="J7" s="22">
-        <v>1345.18</v>
+        <v>1326.43</v>
       </c>
       <c r="K7" s="22">
-        <v>1340.79</v>
+        <v>1327.24</v>
       </c>
       <c r="L7" s="22">
-        <v>1337.86</v>
+        <v>1341.39</v>
       </c>
       <c r="M7" s="19"/>
       <c r="N7" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="O7" s="20">
-        <v>83.016000000000005</v>
-      </c>
-      <c r="P7" s="20">
-        <v>84.468999999999994</v>
-      </c>
-      <c r="Q7" s="20">
-        <v>83.906000000000006</v>
-      </c>
-      <c r="R7" s="20">
-        <v>83.186999999999998</v>
-      </c>
-      <c r="S7" s="20">
-        <v>84.438000000000002</v>
-      </c>
-      <c r="T7" s="20">
-        <v>83.233999999999995</v>
-      </c>
-      <c r="U7" s="20">
-        <v>82.78</v>
-      </c>
-      <c r="V7" s="20">
-        <v>81.078000000000003</v>
-      </c>
-      <c r="W7" s="20">
-        <v>80.703999999999994</v>
-      </c>
-      <c r="X7" s="20">
-        <v>81.89</v>
+        <v>97</v>
+      </c>
+      <c r="O7" s="22">
+        <v>81.61</v>
+      </c>
+      <c r="P7" s="22">
+        <v>81.828000000000003</v>
+      </c>
+      <c r="Q7" s="22">
+        <v>80.89</v>
+      </c>
+      <c r="R7" s="22">
+        <v>81.031000000000006</v>
+      </c>
+      <c r="S7" s="22">
+        <v>81.046000000000006</v>
+      </c>
+      <c r="T7" s="22">
+        <v>81.843000000000004</v>
+      </c>
+      <c r="U7" s="22">
+        <v>81.626000000000005</v>
+      </c>
+      <c r="V7" s="22">
+        <v>80.858000000000004</v>
+      </c>
+      <c r="W7" s="22">
+        <v>81.015000000000001</v>
+      </c>
+      <c r="X7" s="22">
+        <v>81.625</v>
       </c>
       <c r="AH7" s="21"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B8" s="22">
         <v>38684</v>
       </c>
       <c r="C8" s="22">
-        <v>40413.4</v>
+        <v>39747.1</v>
       </c>
       <c r="D8" s="22">
-        <v>40174</v>
+        <v>39985.4</v>
       </c>
       <c r="E8" s="22">
-        <v>40423.599999999999</v>
+        <v>39845.699999999997</v>
       </c>
       <c r="F8" s="22">
-        <v>40222.400000000001</v>
+        <v>39822.699999999997</v>
       </c>
       <c r="G8" s="22">
-        <v>40141.9</v>
+        <v>40156.800000000003</v>
       </c>
       <c r="H8" s="22">
-        <v>40152.9</v>
+        <v>39810.400000000001</v>
       </c>
       <c r="I8" s="22">
-        <v>40114.199999999997</v>
+        <v>40350.800000000003</v>
       </c>
       <c r="J8" s="22">
-        <v>40207.800000000003</v>
+        <v>39842.9</v>
       </c>
       <c r="K8" s="22">
-        <v>39750.699999999997</v>
+        <v>40022.800000000003</v>
       </c>
       <c r="L8" s="22">
-        <v>40176.800000000003</v>
+        <v>40255.800000000003</v>
       </c>
       <c r="M8" s="19"/>
       <c r="N8" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="O8" s="20">
-        <v>153.60900000000001</v>
-      </c>
-      <c r="P8" s="20">
-        <v>153.21799999999999</v>
-      </c>
-      <c r="Q8" s="20">
-        <v>148.172</v>
-      </c>
-      <c r="R8" s="20">
-        <v>157.56200000000001</v>
-      </c>
-      <c r="S8" s="20">
-        <v>149.75</v>
-      </c>
-      <c r="T8" s="20">
-        <v>155.203</v>
-      </c>
-      <c r="U8" s="20">
-        <v>151.90600000000001</v>
-      </c>
-      <c r="V8" s="20">
-        <v>148.953</v>
-      </c>
-      <c r="W8" s="20">
-        <v>151.64099999999999</v>
-      </c>
-      <c r="X8" s="20">
-        <v>151.31299999999999</v>
+        <v>98</v>
+      </c>
+      <c r="O8" s="22">
+        <v>156.06200000000001</v>
+      </c>
+      <c r="P8" s="22">
+        <v>154.93799999999999</v>
+      </c>
+      <c r="Q8" s="22">
+        <v>156.29599999999999</v>
+      </c>
+      <c r="R8" s="22">
+        <v>162.32900000000001</v>
+      </c>
+      <c r="S8" s="22">
+        <v>155.28200000000001</v>
+      </c>
+      <c r="T8" s="22">
+        <v>155.96899999999999</v>
+      </c>
+      <c r="U8" s="22">
+        <v>161.26599999999999</v>
+      </c>
+      <c r="V8" s="22">
+        <v>155.047</v>
+      </c>
+      <c r="W8" s="22">
+        <v>161.26599999999999</v>
+      </c>
+      <c r="X8" s="22">
+        <v>157.17099999999999</v>
       </c>
       <c r="AH8" s="21"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B9" s="22">
         <v>21736</v>
       </c>
       <c r="C9" s="22">
-        <v>22784.9</v>
+        <v>22547.9</v>
       </c>
       <c r="D9" s="22">
-        <v>22578.7</v>
+        <v>22491.1</v>
       </c>
       <c r="E9" s="22">
-        <v>22815.599999999999</v>
+        <v>23079.3</v>
       </c>
       <c r="F9" s="22">
-        <v>23119.7</v>
+        <v>22620.3</v>
       </c>
       <c r="G9" s="22">
-        <v>22680.5</v>
+        <v>22645.4</v>
       </c>
       <c r="H9" s="22">
-        <v>22653.1</v>
+        <v>22742.6</v>
       </c>
       <c r="I9" s="22">
-        <v>22894.3</v>
+        <v>23014.6</v>
       </c>
       <c r="J9" s="22">
-        <v>22587.8</v>
+        <v>23276.3</v>
       </c>
       <c r="K9" s="22">
-        <v>22858.6</v>
+        <v>22742.400000000001</v>
       </c>
       <c r="L9" s="22">
-        <v>22532.799999999999</v>
+        <v>22504.7</v>
       </c>
       <c r="M9" s="19"/>
       <c r="N9" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="O9" s="20">
-        <v>216.422</v>
-      </c>
-      <c r="P9" s="20">
-        <v>207.875</v>
-      </c>
-      <c r="Q9" s="20">
-        <v>212.40600000000001</v>
-      </c>
-      <c r="R9" s="20">
-        <v>212.96899999999999</v>
-      </c>
-      <c r="S9" s="20">
-        <v>216.64</v>
-      </c>
-      <c r="T9" s="20">
-        <v>215.43799999999999</v>
-      </c>
-      <c r="U9" s="20">
-        <v>214.31299999999999</v>
-      </c>
-      <c r="V9" s="20">
-        <v>212.23500000000001</v>
-      </c>
-      <c r="W9" s="20">
-        <v>212.71799999999999</v>
-      </c>
-      <c r="X9" s="20">
-        <v>208.21899999999999</v>
+        <v>99</v>
+      </c>
+      <c r="O9" s="22">
+        <v>219.93799999999999</v>
+      </c>
+      <c r="P9" s="22">
+        <v>219.89</v>
+      </c>
+      <c r="Q9" s="22">
+        <v>220.60900000000001</v>
+      </c>
+      <c r="R9" s="22">
+        <v>222.59399999999999</v>
+      </c>
+      <c r="S9" s="22">
+        <v>219.11</v>
+      </c>
+      <c r="T9" s="22">
+        <v>219.203</v>
+      </c>
+      <c r="U9" s="22">
+        <v>218.78200000000001</v>
+      </c>
+      <c r="V9" s="22">
+        <v>225.79599999999999</v>
+      </c>
+      <c r="W9" s="22">
+        <v>220.03100000000001</v>
+      </c>
+      <c r="X9" s="22">
+        <v>217.98400000000001</v>
       </c>
       <c r="AH9" s="21"/>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
@@ -3153,169 +4201,169 @@
       <c r="L10" s="22"/>
       <c r="M10" s="19"/>
       <c r="N10" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="19"/>
-      <c r="W10" s="19"/>
-      <c r="X10" s="19"/>
+        <v>107</v>
+      </c>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="22"/>
+      <c r="X10" s="22"/>
       <c r="AH10" s="21"/>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B11" s="22">
         <v>1645.79</v>
       </c>
       <c r="C11" s="22">
+        <v>1642.88</v>
+      </c>
+      <c r="D11" s="22">
+        <v>1642.88</v>
+      </c>
+      <c r="E11" s="22">
+        <v>1645.16</v>
+      </c>
+      <c r="F11" s="22">
+        <v>1645.03</v>
+      </c>
+      <c r="G11" s="22">
+        <v>1646.34</v>
+      </c>
+      <c r="H11" s="22">
+        <v>1646.7</v>
+      </c>
+      <c r="I11" s="22">
+        <v>1644.05</v>
+      </c>
+      <c r="J11" s="22">
+        <v>1652.17</v>
+      </c>
+      <c r="K11" s="22">
         <v>1644.25</v>
       </c>
-      <c r="D11" s="22">
-        <v>1646.18</v>
-      </c>
-      <c r="E11" s="22">
-        <v>1650.8</v>
-      </c>
-      <c r="F11" s="22">
+      <c r="L11" s="22">
         <v>1642.88</v>
-      </c>
-      <c r="G11" s="22">
-        <v>1650.8</v>
-      </c>
-      <c r="H11" s="22">
-        <v>1652.17</v>
-      </c>
-      <c r="I11" s="22">
-        <v>1652.47</v>
-      </c>
-      <c r="J11" s="22">
-        <v>1651.97</v>
-      </c>
-      <c r="K11" s="22">
-        <v>1653.76</v>
-      </c>
-      <c r="L11" s="22">
-        <v>1652.47</v>
       </c>
       <c r="M11" s="19"/>
       <c r="N11" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="O11" s="20">
-        <v>27.202999999999999</v>
-      </c>
-      <c r="P11" s="20">
-        <v>26.907</v>
-      </c>
-      <c r="Q11" s="20">
-        <v>27.312000000000001</v>
-      </c>
-      <c r="R11" s="20">
-        <v>27.125</v>
-      </c>
-      <c r="S11" s="20">
-        <v>27.312000000000001</v>
-      </c>
-      <c r="T11" s="20">
-        <v>27.765000000000001</v>
-      </c>
-      <c r="U11" s="20">
-        <v>27.452999999999999</v>
-      </c>
-      <c r="V11" s="20">
-        <v>27.14</v>
-      </c>
-      <c r="W11" s="20">
-        <v>27.297000000000001</v>
-      </c>
-      <c r="X11" s="20">
-        <v>27.375</v>
+        <v>100</v>
+      </c>
+      <c r="O11" s="22">
+        <v>27.484000000000002</v>
+      </c>
+      <c r="P11" s="22">
+        <v>27.11</v>
+      </c>
+      <c r="Q11" s="22">
+        <v>27.530999999999999</v>
+      </c>
+      <c r="R11" s="22">
+        <v>27.5</v>
+      </c>
+      <c r="S11" s="22">
+        <v>27.594000000000001</v>
+      </c>
+      <c r="T11" s="22">
+        <v>27.422000000000001</v>
+      </c>
+      <c r="U11" s="22">
+        <v>27.202000000000002</v>
+      </c>
+      <c r="V11" s="22">
+        <v>27.687000000000001</v>
+      </c>
+      <c r="W11" s="22">
+        <v>27.405999999999999</v>
+      </c>
+      <c r="X11" s="22">
+        <v>27.234000000000002</v>
       </c>
       <c r="AH11" s="21"/>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B12" s="22">
         <v>1252.3699999999999</v>
       </c>
       <c r="C12" s="22">
-        <v>1179.1099999999999</v>
+        <v>1156.1600000000001</v>
       </c>
       <c r="D12" s="22">
-        <v>1216.05</v>
+        <v>1159.8800000000001</v>
       </c>
       <c r="E12" s="22">
-        <v>1183.3699999999999</v>
+        <v>1161.24</v>
       </c>
       <c r="F12" s="22">
-        <v>1169.24</v>
+        <v>1169.43</v>
       </c>
       <c r="G12" s="22">
-        <v>1184.1300000000001</v>
+        <v>1176.45</v>
       </c>
       <c r="H12" s="22">
-        <v>1171.73</v>
+        <v>1169.92</v>
       </c>
       <c r="I12" s="22">
-        <v>1179.05</v>
+        <v>1182.1600000000001</v>
       </c>
       <c r="J12" s="22">
-        <v>1157.8699999999999</v>
+        <v>1178.1500000000001</v>
       </c>
       <c r="K12" s="22">
-        <v>1180.56</v>
+        <v>1178.93</v>
       </c>
       <c r="L12" s="22">
-        <v>1164.76</v>
+        <v>1179.32</v>
       </c>
       <c r="M12" s="19"/>
       <c r="N12" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="O12" s="20">
-        <v>77.765000000000001</v>
-      </c>
-      <c r="P12" s="20">
-        <v>78.5</v>
-      </c>
-      <c r="Q12" s="20">
-        <v>79.234999999999999</v>
-      </c>
-      <c r="R12" s="20">
-        <v>70.983999999999995</v>
-      </c>
-      <c r="S12" s="20">
-        <v>78.421000000000006</v>
-      </c>
-      <c r="T12" s="20">
-        <v>69.421999999999997</v>
-      </c>
-      <c r="U12" s="20">
-        <v>74.375</v>
-      </c>
-      <c r="V12" s="20">
-        <v>66.561999999999998</v>
-      </c>
-      <c r="W12" s="20">
-        <v>74.546999999999997</v>
-      </c>
-      <c r="X12" s="20">
-        <v>70.391000000000005</v>
+        <v>101</v>
+      </c>
+      <c r="O12" s="22">
+        <v>63.421999999999997</v>
+      </c>
+      <c r="P12" s="22">
+        <v>69.313000000000002</v>
+      </c>
+      <c r="Q12" s="22">
+        <v>62.311999999999998</v>
+      </c>
+      <c r="R12" s="22">
+        <v>71.671999999999997</v>
+      </c>
+      <c r="S12" s="22">
+        <v>70.25</v>
+      </c>
+      <c r="T12" s="22">
+        <v>67.218000000000004</v>
+      </c>
+      <c r="U12" s="22">
+        <v>81.733999999999995</v>
+      </c>
+      <c r="V12" s="22">
+        <v>73.953000000000003</v>
+      </c>
+      <c r="W12" s="22">
+        <v>73.14</v>
+      </c>
+      <c r="X12" s="22">
+        <v>76.438000000000002</v>
       </c>
       <c r="AH12" s="21"/>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B13" s="22">
         <v>828.94</v>
@@ -3352,49 +4400,49 @@
       </c>
       <c r="M13" s="19"/>
       <c r="N13" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="O13" s="20">
-        <v>38.61</v>
-      </c>
-      <c r="P13" s="20">
-        <v>38.484999999999999</v>
-      </c>
-      <c r="Q13" s="20">
-        <v>38.499000000000002</v>
-      </c>
-      <c r="R13" s="20">
-        <v>38.530999999999999</v>
-      </c>
-      <c r="S13" s="20">
-        <v>39.219000000000001</v>
-      </c>
-      <c r="T13" s="20">
-        <v>39.030999999999999</v>
-      </c>
-      <c r="U13" s="20">
-        <v>38.905999999999999</v>
-      </c>
-      <c r="V13" s="20">
-        <v>38.469000000000001</v>
-      </c>
-      <c r="W13" s="20">
-        <v>38.171999999999997</v>
-      </c>
-      <c r="X13" s="20">
-        <v>38.561999999999998</v>
+        <v>102</v>
+      </c>
+      <c r="O13" s="22">
+        <v>38.311999999999998</v>
+      </c>
+      <c r="P13" s="22">
+        <v>38.094000000000001</v>
+      </c>
+      <c r="Q13" s="22">
+        <v>38.421999999999997</v>
+      </c>
+      <c r="R13" s="22">
+        <v>38.329000000000001</v>
+      </c>
+      <c r="S13" s="22">
+        <v>38.375</v>
+      </c>
+      <c r="T13" s="22">
+        <v>38.030999999999999</v>
+      </c>
+      <c r="U13" s="22">
+        <v>38.203000000000003</v>
+      </c>
+      <c r="V13" s="22">
+        <v>38.14</v>
+      </c>
+      <c r="W13" s="22">
+        <v>38.219000000000001</v>
+      </c>
+      <c r="X13" s="22">
+        <v>38.313000000000002</v>
       </c>
       <c r="AH13" s="21"/>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B14" s="22">
         <v>591.55999999999995</v>
       </c>
       <c r="C14" s="22">
-        <v>591.55200000000002</v>
+        <v>591.553</v>
       </c>
       <c r="D14" s="22">
         <v>591.55200000000002</v>
@@ -3403,210 +4451,210 @@
         <v>591.55200000000002</v>
       </c>
       <c r="F14" s="22">
-        <v>591.55200000000002</v>
+        <v>591.553</v>
       </c>
       <c r="G14" s="22">
-        <v>591.55200000000002</v>
+        <v>591.553</v>
       </c>
       <c r="H14" s="22">
         <v>591.55200000000002</v>
       </c>
       <c r="I14" s="22">
-        <v>591.553</v>
+        <v>591.55200000000002</v>
       </c>
       <c r="J14" s="22">
         <v>591.55200000000002</v>
       </c>
       <c r="K14" s="22">
+        <v>591.553</v>
+      </c>
+      <c r="L14" s="22">
         <v>591.55200000000002</v>
-      </c>
-      <c r="L14" s="22">
-        <v>591.553</v>
       </c>
       <c r="M14" s="19"/>
       <c r="N14" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="O14" s="20">
-        <v>168.53100000000001</v>
-      </c>
-      <c r="P14" s="20">
-        <v>168.98500000000001</v>
-      </c>
-      <c r="Q14" s="20">
-        <v>167.73500000000001</v>
-      </c>
-      <c r="R14" s="20">
-        <v>166.20400000000001</v>
-      </c>
-      <c r="S14" s="20">
-        <v>166.923</v>
-      </c>
-      <c r="T14" s="20">
-        <v>167.31299999999999</v>
-      </c>
-      <c r="U14" s="20">
-        <v>165.59399999999999</v>
-      </c>
-      <c r="V14" s="20">
-        <v>168.68700000000001</v>
-      </c>
-      <c r="W14" s="20">
-        <v>177.25</v>
-      </c>
-      <c r="X14" s="20">
-        <v>167.25</v>
+        <v>103</v>
+      </c>
+      <c r="O14" s="22">
+        <v>161.624</v>
+      </c>
+      <c r="P14" s="22">
+        <v>160.92099999999999</v>
+      </c>
+      <c r="Q14" s="22">
+        <v>159.73500000000001</v>
+      </c>
+      <c r="R14" s="22">
+        <v>159.38999999999999</v>
+      </c>
+      <c r="S14" s="22">
+        <v>159.84399999999999</v>
+      </c>
+      <c r="T14" s="22">
+        <v>160.04599999999999</v>
+      </c>
+      <c r="U14" s="22">
+        <v>159.03100000000001</v>
+      </c>
+      <c r="V14" s="22">
+        <v>159.60900000000001</v>
+      </c>
+      <c r="W14" s="22">
+        <v>160.578</v>
+      </c>
+      <c r="X14" s="22">
+        <v>160.09299999999999</v>
       </c>
       <c r="AH14" s="21"/>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B15" s="22">
         <v>1696.94</v>
       </c>
       <c r="C15" s="22">
-        <v>1659.43</v>
+        <v>1648.81</v>
       </c>
       <c r="D15" s="22">
-        <v>1665.97</v>
+        <v>1658.44</v>
       </c>
       <c r="E15" s="22">
-        <v>1665.31</v>
+        <v>1665.13</v>
       </c>
       <c r="F15" s="22">
-        <v>1660.99</v>
+        <v>1644.78</v>
       </c>
       <c r="G15" s="22">
-        <v>1647.53</v>
+        <v>1667.59</v>
       </c>
       <c r="H15" s="22">
-        <v>1669.39</v>
+        <v>1658.99</v>
       </c>
       <c r="I15" s="22">
-        <v>1663.02</v>
+        <v>1663.64</v>
       </c>
       <c r="J15" s="22">
-        <v>1659.05</v>
+        <v>1660.91</v>
       </c>
       <c r="K15" s="22">
-        <v>1674.74</v>
+        <v>1667.57</v>
       </c>
       <c r="L15" s="22">
-        <v>1659.05</v>
+        <v>1644.45</v>
       </c>
       <c r="M15" s="19"/>
       <c r="N15" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="O15" s="20">
-        <v>29.969000000000001</v>
-      </c>
-      <c r="P15" s="20">
-        <v>29.375</v>
-      </c>
-      <c r="Q15" s="20">
-        <v>28.937000000000001</v>
-      </c>
-      <c r="R15" s="20">
-        <v>30.547000000000001</v>
-      </c>
-      <c r="S15" s="20">
-        <v>30.390999999999998</v>
-      </c>
-      <c r="T15" s="20">
-        <v>29.187000000000001</v>
-      </c>
-      <c r="U15" s="20">
-        <v>29</v>
-      </c>
-      <c r="V15" s="20">
+        <v>104</v>
+      </c>
+      <c r="O15" s="22">
+        <v>29.25</v>
+      </c>
+      <c r="P15" s="22">
+        <v>29.797000000000001</v>
+      </c>
+      <c r="Q15" s="22">
+        <v>29.265000000000001</v>
+      </c>
+      <c r="R15" s="22">
+        <v>29.797000000000001</v>
+      </c>
+      <c r="S15" s="22">
+        <v>28.875</v>
+      </c>
+      <c r="T15" s="22">
+        <v>29.265999999999998</v>
+      </c>
+      <c r="U15" s="22">
+        <v>29.422000000000001</v>
+      </c>
+      <c r="V15" s="22">
+        <v>29.515000000000001</v>
+      </c>
+      <c r="W15" s="22">
         <v>29.5</v>
       </c>
-      <c r="W15" s="20">
-        <v>29.172000000000001</v>
-      </c>
-      <c r="X15" s="20">
-        <v>29.297000000000001</v>
+      <c r="X15" s="22">
+        <v>29.545999999999999</v>
       </c>
       <c r="AH15" s="21"/>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B16" s="23">
         <v>1406.91</v>
       </c>
       <c r="C16" s="22">
-        <v>1292.69</v>
+        <v>1279.9100000000001</v>
       </c>
       <c r="D16" s="22">
-        <v>1293.97</v>
+        <v>1279.52</v>
       </c>
       <c r="E16" s="22">
-        <v>1278.27</v>
+        <v>1300.7</v>
       </c>
       <c r="F16" s="22">
-        <v>1277.08</v>
+        <v>1291.75</v>
       </c>
       <c r="G16" s="22">
-        <v>1295.9100000000001</v>
+        <v>1281.19</v>
       </c>
       <c r="H16" s="22">
-        <v>1294.8399999999999</v>
+        <v>1284.17</v>
       </c>
       <c r="I16" s="22">
-        <v>1295.3699999999999</v>
+        <v>1277.46</v>
       </c>
       <c r="J16" s="22">
-        <v>1286.56</v>
+        <v>1277.6600000000001</v>
       </c>
       <c r="K16" s="22">
-        <v>1277.6600000000001</v>
+        <v>1286.93</v>
       </c>
       <c r="L16" s="22">
-        <v>1265.97</v>
+        <v>1267.95</v>
       </c>
       <c r="M16" s="19"/>
       <c r="N16" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="O16" s="20">
-        <v>66.905000000000001</v>
-      </c>
-      <c r="P16" s="20">
-        <v>71.281000000000006</v>
-      </c>
-      <c r="Q16" s="20">
-        <v>65.515000000000001</v>
-      </c>
-      <c r="R16" s="20">
-        <v>59.406999999999996</v>
-      </c>
-      <c r="S16" s="20">
-        <v>68.671999999999997</v>
-      </c>
-      <c r="T16" s="20">
-        <v>71.266000000000005</v>
-      </c>
-      <c r="U16" s="20">
-        <v>71.25</v>
-      </c>
-      <c r="V16" s="20">
-        <v>71.703000000000003</v>
-      </c>
-      <c r="W16" s="20">
-        <v>64.766000000000005</v>
-      </c>
-      <c r="X16" s="20">
-        <v>61.265999999999998</v>
+        <v>105</v>
+      </c>
+      <c r="O16" s="22">
+        <v>59.094000000000001</v>
+      </c>
+      <c r="P16" s="22">
+        <v>60.515999999999998</v>
+      </c>
+      <c r="Q16" s="22">
+        <v>64.188000000000002</v>
+      </c>
+      <c r="R16" s="22">
+        <v>60.859000000000002</v>
+      </c>
+      <c r="S16" s="22">
+        <v>65.251000000000005</v>
+      </c>
+      <c r="T16" s="22">
+        <v>64.328999999999994</v>
+      </c>
+      <c r="U16" s="22">
+        <v>56.765000000000001</v>
+      </c>
+      <c r="V16" s="22">
+        <v>62.704000000000001</v>
+      </c>
+      <c r="W16" s="22">
+        <v>67.123999999999995</v>
+      </c>
+      <c r="X16" s="22">
+        <v>59.625</v>
       </c>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A17" s="25" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B17" s="22"/>
       <c r="C17" s="22"/>
@@ -3621,7 +4669,7 @@
       <c r="L17" s="22"/>
       <c r="M17" s="19"/>
       <c r="N17" s="25" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.3">
@@ -3632,7 +4680,7 @@
         <v>54793</v>
       </c>
       <c r="C18" s="22">
-        <v>55007.8</v>
+        <v>54778.400000000001</v>
       </c>
       <c r="D18" s="22">
         <v>54778.400000000001</v>
@@ -3641,13 +4689,13 @@
         <v>54778.400000000001</v>
       </c>
       <c r="F18" s="22">
+        <v>54778.400000000001</v>
+      </c>
+      <c r="G18" s="22">
         <v>55007.8</v>
       </c>
-      <c r="G18" s="22">
-        <v>54778.400000000001</v>
-      </c>
       <c r="H18" s="22">
-        <v>54778.400000000001</v>
+        <v>55007.8</v>
       </c>
       <c r="I18" s="22">
         <v>54778.400000000001</v>
@@ -3656,44 +4704,44 @@
         <v>54778.400000000001</v>
       </c>
       <c r="K18" s="22">
+        <v>55007.8</v>
+      </c>
+      <c r="L18" s="22">
         <v>54778.400000000001</v>
-      </c>
-      <c r="L18" s="22">
-        <v>55007.8</v>
       </c>
       <c r="M18" s="19"/>
       <c r="N18" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="O18" s="20">
-        <v>5.3280000000000003</v>
-      </c>
-      <c r="P18" s="20">
-        <v>5.25</v>
-      </c>
-      <c r="Q18" s="20">
-        <v>5.25</v>
-      </c>
-      <c r="R18" s="20">
-        <v>5.2190000000000003</v>
-      </c>
-      <c r="S18" s="20">
-        <v>5.3280000000000003</v>
-      </c>
-      <c r="T18" s="20">
-        <v>5.2809999999999997</v>
-      </c>
-      <c r="U18" s="20">
-        <v>5.2190000000000003</v>
-      </c>
-      <c r="V18" s="20">
-        <v>5.3280000000000003</v>
-      </c>
-      <c r="W18" s="20">
-        <v>5.2649999999999997</v>
-      </c>
-      <c r="X18" s="20">
-        <v>5.2190000000000003</v>
+      <c r="O18" s="22">
+        <v>5.7039999999999997</v>
+      </c>
+      <c r="P18" s="22">
+        <v>5.5780000000000003</v>
+      </c>
+      <c r="Q18" s="22">
+        <v>5.5789999999999997</v>
+      </c>
+      <c r="R18" s="22">
+        <v>5.5629999999999997</v>
+      </c>
+      <c r="S18" s="22">
+        <v>5.516</v>
+      </c>
+      <c r="T18" s="22">
+        <v>5.516</v>
+      </c>
+      <c r="U18" s="22">
+        <v>5.4539999999999997</v>
+      </c>
+      <c r="V18" s="22">
+        <v>5.4219999999999997</v>
+      </c>
+      <c r="W18" s="22">
+        <v>5.4219999999999997</v>
+      </c>
+      <c r="X18" s="22">
+        <v>5.4379999999999997</v>
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.3">
@@ -3704,10 +4752,10 @@
         <v>460.4</v>
       </c>
       <c r="C19" s="22">
+        <v>460.37400000000002</v>
+      </c>
+      <c r="D19" s="22">
         <v>470.21499999999997</v>
-      </c>
-      <c r="D19" s="22">
-        <v>460.37400000000002</v>
       </c>
       <c r="E19" s="22">
         <v>473.00900000000001</v>
@@ -3716,56 +4764,56 @@
         <v>460.37400000000002</v>
       </c>
       <c r="G19" s="22">
+        <v>463.91399999999999</v>
+      </c>
+      <c r="H19" s="22">
+        <v>473.00900000000001</v>
+      </c>
+      <c r="I19" s="22">
         <v>470.21499999999997</v>
       </c>
-      <c r="H19" s="22">
+      <c r="J19" s="22">
         <v>460.37400000000002</v>
       </c>
-      <c r="I19" s="22">
-        <v>473.00900000000001</v>
-      </c>
-      <c r="J19" s="22">
-        <v>470.21499999999997</v>
-      </c>
       <c r="K19" s="22">
-        <v>476.12099999999998</v>
+        <v>470.322</v>
       </c>
       <c r="L19" s="22">
-        <v>470.21499999999997</v>
+        <v>460.37400000000002</v>
       </c>
       <c r="M19" s="19"/>
       <c r="N19" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="O19" s="20">
-        <v>8.766</v>
-      </c>
-      <c r="P19" s="20">
-        <v>8.9529999999999994</v>
-      </c>
-      <c r="Q19" s="20">
-        <v>8.891</v>
-      </c>
-      <c r="R19" s="20">
-        <v>8.907</v>
-      </c>
-      <c r="S19" s="20">
-        <v>8.8439999999999994</v>
-      </c>
-      <c r="T19" s="20">
-        <v>8.8439999999999994</v>
-      </c>
-      <c r="U19" s="20">
-        <v>8.827</v>
-      </c>
-      <c r="V19" s="20">
-        <v>8.75</v>
-      </c>
-      <c r="W19" s="20">
-        <v>8.718</v>
-      </c>
-      <c r="X19" s="20">
-        <v>8.766</v>
+      <c r="O19" s="22">
+        <v>9.1880000000000006</v>
+      </c>
+      <c r="P19" s="22">
+        <v>9.141</v>
+      </c>
+      <c r="Q19" s="22">
+        <v>9.1560000000000006</v>
+      </c>
+      <c r="R19" s="22">
+        <v>9.1880000000000006</v>
+      </c>
+      <c r="S19" s="22">
+        <v>9.141</v>
+      </c>
+      <c r="T19" s="22">
+        <v>9.1709999999999994</v>
+      </c>
+      <c r="U19" s="22">
+        <v>9.1869999999999994</v>
+      </c>
+      <c r="V19" s="22">
+        <v>9.14</v>
+      </c>
+      <c r="W19" s="22">
+        <v>9.1720000000000006</v>
+      </c>
+      <c r="X19" s="22">
+        <v>9.109</v>
       </c>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.3">
@@ -3779,65 +4827,65 @@
         <v>63215.199999999997</v>
       </c>
       <c r="D20" s="22">
-        <v>64119.1</v>
+        <v>63215.199999999997</v>
       </c>
       <c r="E20" s="22">
-        <v>63486.7</v>
+        <v>63215.199999999997</v>
       </c>
       <c r="F20" s="22">
-        <v>64243.3</v>
+        <v>64046.5</v>
       </c>
       <c r="G20" s="22">
-        <v>64379.5</v>
+        <v>63550.5</v>
       </c>
       <c r="H20" s="22">
         <v>63215.199999999997</v>
       </c>
       <c r="I20" s="22">
-        <v>63274.6</v>
+        <v>63550.5</v>
       </c>
       <c r="J20" s="22">
-        <v>63215.199999999997</v>
+        <v>64654.8</v>
       </c>
       <c r="K20" s="22">
-        <v>64243.3</v>
+        <v>64155</v>
       </c>
       <c r="L20" s="22">
-        <v>64879.7</v>
+        <v>64119.1</v>
       </c>
       <c r="M20" s="19"/>
       <c r="N20" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="O20" s="20">
-        <v>10.563000000000001</v>
-      </c>
-      <c r="P20" s="20">
-        <v>10.688000000000001</v>
-      </c>
-      <c r="Q20" s="20">
-        <v>10.702999999999999</v>
-      </c>
-      <c r="R20" s="20">
-        <v>10.577999999999999</v>
-      </c>
-      <c r="S20" s="20">
-        <v>10.75</v>
-      </c>
-      <c r="T20" s="20">
-        <v>10.561999999999999</v>
-      </c>
-      <c r="U20" s="20">
-        <v>10.766</v>
-      </c>
-      <c r="V20" s="20">
-        <v>10.64</v>
-      </c>
-      <c r="W20" s="20">
-        <v>10.797000000000001</v>
-      </c>
-      <c r="X20" s="20">
-        <v>10.673</v>
+      <c r="O20" s="22">
+        <v>11.484</v>
+      </c>
+      <c r="P20" s="22">
+        <v>11.39</v>
+      </c>
+      <c r="Q20" s="22">
+        <v>11.422000000000001</v>
+      </c>
+      <c r="R20" s="22">
+        <v>11.202999999999999</v>
+      </c>
+      <c r="S20" s="22">
+        <v>11.188000000000001</v>
+      </c>
+      <c r="T20" s="22">
+        <v>11.188000000000001</v>
+      </c>
+      <c r="U20" s="22">
+        <v>11.202</v>
+      </c>
+      <c r="V20" s="22">
+        <v>11.218999999999999</v>
+      </c>
+      <c r="W20" s="22">
+        <v>11.141</v>
+      </c>
+      <c r="X20" s="22">
+        <v>11.109</v>
       </c>
     </row>
     <row r="21" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -3848,10 +4896,10 @@
         <v>355.8</v>
       </c>
       <c r="C21" s="22">
-        <v>371.58199999999999</v>
+        <v>355.78399999999999</v>
       </c>
       <c r="D21" s="22">
-        <v>355.86700000000002</v>
+        <v>358.67899999999997</v>
       </c>
       <c r="E21" s="22">
         <v>355.78399999999999</v>
@@ -3860,7 +4908,7 @@
         <v>355.78399999999999</v>
       </c>
       <c r="G21" s="22">
-        <v>356.18700000000001</v>
+        <v>355.78399999999999</v>
       </c>
       <c r="H21" s="22">
         <v>355.78399999999999</v>
@@ -3869,47 +4917,47 @@
         <v>355.78399999999999</v>
       </c>
       <c r="J21" s="22">
-        <v>355.78399999999999</v>
+        <v>356.37400000000002</v>
       </c>
       <c r="K21" s="22">
-        <v>355.78399999999999</v>
+        <v>372.952</v>
       </c>
       <c r="L21" s="22">
-        <v>373.44799999999998</v>
+        <v>356.37400000000002</v>
       </c>
       <c r="M21" s="19"/>
       <c r="N21" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="O21" s="20">
-        <v>20.937999999999999</v>
-      </c>
-      <c r="P21" s="20">
-        <v>20.547000000000001</v>
-      </c>
-      <c r="Q21" s="20">
-        <v>20.702999999999999</v>
-      </c>
-      <c r="R21" s="20">
-        <v>20.594000000000001</v>
-      </c>
-      <c r="S21" s="20">
-        <v>20.765000000000001</v>
-      </c>
-      <c r="T21" s="20">
-        <v>20.641999999999999</v>
-      </c>
-      <c r="U21" s="20">
-        <v>20.734000000000002</v>
-      </c>
-      <c r="V21" s="20">
-        <v>20.593</v>
-      </c>
-      <c r="W21" s="20">
-        <v>20.407</v>
-      </c>
-      <c r="X21" s="20">
-        <v>20.734000000000002</v>
+      <c r="O21" s="22">
+        <v>21.687999999999999</v>
+      </c>
+      <c r="P21" s="22">
+        <v>21.64</v>
+      </c>
+      <c r="Q21" s="22">
+        <v>21.640999999999998</v>
+      </c>
+      <c r="R21" s="22">
+        <v>21.484999999999999</v>
+      </c>
+      <c r="S21" s="22">
+        <v>21.530999999999999</v>
+      </c>
+      <c r="T21" s="22">
+        <v>21.594000000000001</v>
+      </c>
+      <c r="U21" s="22">
+        <v>21.61</v>
+      </c>
+      <c r="V21" s="22">
+        <v>21.484999999999999</v>
+      </c>
+      <c r="W21" s="22">
+        <v>21.437999999999999</v>
+      </c>
+      <c r="X21" s="22">
+        <v>21.469000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.3">
@@ -3920,68 +4968,68 @@
         <v>195568</v>
       </c>
       <c r="C22" s="22">
-        <v>195561</v>
+        <v>195090</v>
       </c>
       <c r="D22" s="22">
-        <v>196668</v>
+        <v>194685</v>
       </c>
       <c r="E22" s="22">
-        <v>197164</v>
+        <v>194123</v>
       </c>
       <c r="F22" s="22">
-        <v>195869</v>
+        <v>197697</v>
       </c>
       <c r="G22" s="22">
-        <v>196034</v>
+        <v>196863</v>
       </c>
       <c r="H22" s="22">
-        <v>196817</v>
+        <v>194529</v>
       </c>
       <c r="I22" s="22">
-        <v>195880</v>
+        <v>197022</v>
       </c>
       <c r="J22" s="22">
-        <v>195231</v>
+        <v>196124</v>
       </c>
       <c r="K22" s="22">
-        <v>195827</v>
+        <v>196410</v>
       </c>
       <c r="L22" s="22">
-        <v>197058</v>
+        <v>196665</v>
       </c>
       <c r="M22" s="19"/>
       <c r="N22" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="O22" s="20">
-        <v>24.202999999999999</v>
-      </c>
-      <c r="P22" s="20">
-        <v>24.218</v>
-      </c>
-      <c r="Q22" s="20">
-        <v>24.062999999999999</v>
-      </c>
-      <c r="R22" s="20">
-        <v>24.11</v>
-      </c>
-      <c r="S22" s="20">
-        <v>24.125</v>
-      </c>
-      <c r="T22" s="20">
-        <v>24.094000000000001</v>
-      </c>
-      <c r="U22" s="20">
-        <v>24.202999999999999</v>
-      </c>
-      <c r="V22" s="20">
-        <v>24.265000000000001</v>
-      </c>
-      <c r="W22" s="20">
-        <v>24.172000000000001</v>
-      </c>
-      <c r="X22" s="20">
-        <v>24.312999999999999</v>
+      <c r="O22" s="22">
+        <v>25.5</v>
+      </c>
+      <c r="P22" s="22">
+        <v>25.547999999999998</v>
+      </c>
+      <c r="Q22" s="22">
+        <v>25.452999999999999</v>
+      </c>
+      <c r="R22" s="22">
+        <v>25.670999999999999</v>
+      </c>
+      <c r="S22" s="22">
+        <v>25.390999999999998</v>
+      </c>
+      <c r="T22" s="22">
+        <v>26.077999999999999</v>
+      </c>
+      <c r="U22" s="22">
+        <v>25.484000000000002</v>
+      </c>
+      <c r="V22" s="22">
+        <v>25.640999999999998</v>
+      </c>
+      <c r="W22" s="22">
+        <v>25.530999999999999</v>
+      </c>
+      <c r="X22" s="22">
+        <v>25.545999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.3">
@@ -3992,68 +5040,68 @@
         <v>204335</v>
       </c>
       <c r="C23" s="22">
-        <v>204147</v>
+        <v>206037</v>
       </c>
       <c r="D23" s="22">
-        <v>205012</v>
+        <v>204400</v>
       </c>
       <c r="E23" s="22">
-        <v>205012</v>
+        <v>205051</v>
       </c>
       <c r="F23" s="22">
         <v>205051</v>
       </c>
       <c r="G23" s="22">
-        <v>203974</v>
+        <v>205256</v>
       </c>
       <c r="H23" s="22">
-        <v>204280</v>
+        <v>205316</v>
       </c>
       <c r="I23" s="22">
-        <v>205108</v>
+        <v>209972</v>
       </c>
       <c r="J23" s="22">
-        <v>205051</v>
+        <v>205395</v>
       </c>
       <c r="K23" s="22">
-        <v>205346</v>
+        <v>205012</v>
       </c>
       <c r="L23" s="22">
-        <v>205012</v>
+        <v>210777</v>
       </c>
       <c r="M23" s="19"/>
       <c r="N23" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="O23" s="20">
-        <v>25.219000000000001</v>
-      </c>
-      <c r="P23" s="20">
-        <v>25.202999999999999</v>
-      </c>
-      <c r="Q23" s="20">
-        <v>25.109000000000002</v>
-      </c>
-      <c r="R23" s="20">
-        <v>25.187999999999999</v>
-      </c>
-      <c r="S23" s="20">
-        <v>25.125</v>
-      </c>
-      <c r="T23" s="20">
-        <v>25.047000000000001</v>
-      </c>
-      <c r="U23" s="20">
-        <v>25.140999999999998</v>
-      </c>
-      <c r="V23" s="20">
-        <v>25.265999999999998</v>
-      </c>
-      <c r="W23" s="20">
-        <v>25.22</v>
-      </c>
-      <c r="X23" s="20">
-        <v>25.968</v>
+      <c r="O23" s="22">
+        <v>26.64</v>
+      </c>
+      <c r="P23" s="22">
+        <v>26.594000000000001</v>
+      </c>
+      <c r="Q23" s="22">
+        <v>26.719000000000001</v>
+      </c>
+      <c r="R23" s="22">
+        <v>26.827999999999999</v>
+      </c>
+      <c r="S23" s="22">
+        <v>26.72</v>
+      </c>
+      <c r="T23" s="22">
+        <v>26.532</v>
+      </c>
+      <c r="U23" s="22">
+        <v>26.765000000000001</v>
+      </c>
+      <c r="V23" s="22">
+        <v>26.687000000000001</v>
+      </c>
+      <c r="W23" s="22">
+        <v>26.702999999999999</v>
+      </c>
+      <c r="X23" s="22">
+        <v>26.515999999999998</v>
       </c>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.3">
@@ -4064,68 +5112,68 @@
         <v>842.9</v>
       </c>
       <c r="C24" s="22">
-        <v>856.28899999999999</v>
+        <v>869.95399999999995</v>
       </c>
       <c r="D24" s="22">
-        <v>858.46500000000003</v>
+        <v>846.68</v>
       </c>
       <c r="E24" s="22">
-        <v>853.21299999999997</v>
+        <v>888.48800000000006</v>
       </c>
       <c r="F24" s="22">
-        <v>875.35400000000004</v>
+        <v>863.9</v>
       </c>
       <c r="G24" s="22">
-        <v>883.63400000000001</v>
+        <v>867.67899999999997</v>
       </c>
       <c r="H24" s="22">
-        <v>858.58699999999999</v>
+        <v>876.95299999999997</v>
       </c>
       <c r="I24" s="22">
-        <v>858.173</v>
+        <v>841.89</v>
       </c>
       <c r="J24" s="22">
-        <v>860.05799999999999</v>
+        <v>878.37300000000005</v>
       </c>
       <c r="K24" s="22">
-        <v>900.49900000000002</v>
+        <v>866.875</v>
       </c>
       <c r="L24" s="22">
-        <v>870.41800000000001</v>
+        <v>841.53899999999999</v>
       </c>
       <c r="M24" s="19"/>
       <c r="N24" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="O24" s="20">
-        <v>26.562999999999999</v>
-      </c>
-      <c r="P24" s="20">
-        <v>26.577999999999999</v>
-      </c>
-      <c r="Q24" s="20">
-        <v>26.954000000000001</v>
-      </c>
-      <c r="R24" s="20">
-        <v>26.954000000000001</v>
-      </c>
-      <c r="S24" s="20">
-        <v>26.844000000000001</v>
-      </c>
-      <c r="T24" s="20">
-        <v>26.562000000000001</v>
-      </c>
-      <c r="U24" s="20">
-        <v>27.062999999999999</v>
-      </c>
-      <c r="V24" s="20">
-        <v>27.655999999999999</v>
-      </c>
-      <c r="W24" s="20">
-        <v>26.672000000000001</v>
-      </c>
-      <c r="X24" s="20">
-        <v>26.626000000000001</v>
+      <c r="O24" s="22">
+        <v>27.861000000000001</v>
+      </c>
+      <c r="P24" s="22">
+        <v>27.295999999999999</v>
+      </c>
+      <c r="Q24" s="22">
+        <v>27.297000000000001</v>
+      </c>
+      <c r="R24" s="22">
+        <v>27.202999999999999</v>
+      </c>
+      <c r="S24" s="22">
+        <v>27.625</v>
+      </c>
+      <c r="T24" s="22">
+        <v>27.577999999999999</v>
+      </c>
+      <c r="U24" s="22">
+        <v>27.437999999999999</v>
+      </c>
+      <c r="V24" s="22">
+        <v>27.218</v>
+      </c>
+      <c r="W24" s="22">
+        <v>27.405999999999999</v>
+      </c>
+      <c r="X24" s="22">
+        <v>27.422000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.3">
@@ -4136,68 +5184,68 @@
         <v>5809</v>
       </c>
       <c r="C25" s="22">
-        <v>5969</v>
+        <v>6015.95</v>
       </c>
       <c r="D25" s="22">
-        <v>6023.24</v>
+        <v>5975.51</v>
       </c>
       <c r="E25" s="22">
-        <v>5905.16</v>
+        <v>5792.67</v>
       </c>
       <c r="F25" s="22">
-        <v>5980.2</v>
+        <v>5896.73</v>
       </c>
       <c r="G25" s="22">
-        <v>5867.04</v>
+        <v>5709.77</v>
       </c>
       <c r="H25" s="22">
-        <v>5794.8</v>
+        <v>5990.55</v>
       </c>
       <c r="I25" s="22">
-        <v>5871.97</v>
+        <v>5930.6</v>
       </c>
       <c r="J25" s="22">
-        <v>5944.42</v>
+        <v>5941.04</v>
       </c>
       <c r="K25" s="22">
-        <v>5789.04</v>
+        <v>6029.89</v>
       </c>
       <c r="L25" s="22">
-        <v>5911.06</v>
+        <v>5912.68</v>
       </c>
       <c r="M25" s="19"/>
       <c r="N25" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="O25" s="20">
-        <v>45.453000000000003</v>
-      </c>
-      <c r="P25" s="20">
-        <v>45.703000000000003</v>
-      </c>
-      <c r="Q25" s="20">
-        <v>45.14</v>
-      </c>
-      <c r="R25" s="20">
-        <v>44.703000000000003</v>
-      </c>
-      <c r="S25" s="20">
-        <v>45.344000000000001</v>
-      </c>
-      <c r="T25" s="20">
-        <v>44.719000000000001</v>
-      </c>
-      <c r="U25" s="20">
-        <v>44.515000000000001</v>
-      </c>
-      <c r="V25" s="20">
-        <v>46.188000000000002</v>
-      </c>
-      <c r="W25" s="20">
-        <v>45.313000000000002</v>
-      </c>
-      <c r="X25" s="20">
-        <v>45.109000000000002</v>
+      <c r="O25" s="22">
+        <v>46</v>
+      </c>
+      <c r="P25" s="22">
+        <v>45.329000000000001</v>
+      </c>
+      <c r="Q25" s="22">
+        <v>45.75</v>
+      </c>
+      <c r="R25" s="22">
+        <v>45.750999999999998</v>
+      </c>
+      <c r="S25" s="22">
+        <v>45.421999999999997</v>
+      </c>
+      <c r="T25" s="22">
+        <v>45.795999999999999</v>
+      </c>
+      <c r="U25" s="22">
+        <v>45.298000000000002</v>
+      </c>
+      <c r="V25" s="22">
+        <v>45.719000000000001</v>
+      </c>
+      <c r="W25" s="22">
+        <v>44.906999999999996</v>
+      </c>
+      <c r="X25" s="22">
+        <v>45.359000000000002</v>
       </c>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.3">
@@ -4208,68 +5256,68 @@
         <v>44011.7</v>
       </c>
       <c r="C26" s="22">
-        <v>45434.2</v>
+        <v>44261.7</v>
       </c>
       <c r="D26" s="22">
-        <v>44724.4</v>
+        <v>44244</v>
       </c>
       <c r="E26" s="22">
-        <v>44956.4</v>
+        <v>44252.9</v>
       </c>
       <c r="F26" s="22">
-        <v>45038.3</v>
+        <v>44720.2</v>
       </c>
       <c r="G26" s="22">
-        <v>45445.2</v>
+        <v>44357.7</v>
       </c>
       <c r="H26" s="22">
-        <v>44490.3</v>
+        <v>44779.6</v>
       </c>
       <c r="I26" s="22">
-        <v>44696.800000000003</v>
+        <v>44669.7</v>
       </c>
       <c r="J26" s="22">
-        <v>44481.2</v>
+        <v>44814.1</v>
       </c>
       <c r="K26" s="22">
-        <v>46901.9</v>
+        <v>45806.8</v>
       </c>
       <c r="L26" s="22">
-        <v>45023.199999999997</v>
+        <v>45055.199999999997</v>
       </c>
       <c r="M26" s="19"/>
       <c r="N26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="O26" s="20">
-        <v>60.234999999999999</v>
-      </c>
-      <c r="P26" s="20">
-        <v>59.97</v>
-      </c>
-      <c r="Q26" s="20">
-        <v>60.515000000000001</v>
-      </c>
-      <c r="R26" s="20">
-        <v>60.546999999999997</v>
-      </c>
-      <c r="S26" s="20">
-        <v>59.875999999999998</v>
-      </c>
-      <c r="T26" s="20">
-        <v>59.546999999999997</v>
-      </c>
-      <c r="U26" s="20">
-        <v>59.594000000000001</v>
-      </c>
-      <c r="V26" s="20">
-        <v>59.953000000000003</v>
-      </c>
-      <c r="W26" s="20">
-        <v>58.89</v>
-      </c>
-      <c r="X26" s="20">
-        <v>59.454000000000001</v>
+      <c r="O26" s="22">
+        <v>60.219000000000001</v>
+      </c>
+      <c r="P26" s="22">
+        <v>61.109000000000002</v>
+      </c>
+      <c r="Q26" s="22">
+        <v>60.671999999999997</v>
+      </c>
+      <c r="R26" s="22">
+        <v>61.548000000000002</v>
+      </c>
+      <c r="S26" s="22">
+        <v>62.188000000000002</v>
+      </c>
+      <c r="T26" s="22">
+        <v>63.030999999999999</v>
+      </c>
+      <c r="U26" s="22">
+        <v>63.061999999999998</v>
+      </c>
+      <c r="V26" s="22">
+        <v>63.063000000000002</v>
+      </c>
+      <c r="W26" s="22">
+        <v>63.109000000000002</v>
+      </c>
+      <c r="X26" s="22">
+        <v>62.234999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.3">
@@ -4280,70 +5328,222 @@
         <v>476684</v>
       </c>
       <c r="C27" s="22">
-        <v>482698</v>
+        <v>479462</v>
       </c>
       <c r="D27" s="22">
-        <v>476378</v>
+        <v>483382</v>
       </c>
       <c r="E27" s="22">
-        <v>478776</v>
+        <v>477290</v>
       </c>
       <c r="F27" s="22">
-        <v>481061</v>
+        <v>482505</v>
       </c>
       <c r="G27" s="22">
-        <v>477874</v>
+        <v>485542</v>
       </c>
       <c r="H27" s="22">
-        <v>480399</v>
+        <v>479491</v>
       </c>
       <c r="I27" s="22">
-        <v>477984</v>
+        <v>481003</v>
       </c>
       <c r="J27" s="22">
-        <v>483380</v>
+        <v>483629</v>
       </c>
       <c r="K27" s="22">
-        <v>480100</v>
+        <v>484641</v>
       </c>
       <c r="L27" s="22">
-        <v>478547</v>
+        <v>479387</v>
       </c>
       <c r="M27" s="19"/>
       <c r="N27" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="O27" s="20">
-        <v>125.172</v>
-      </c>
-      <c r="P27" s="20">
-        <v>122.14100000000001</v>
-      </c>
-      <c r="Q27" s="20">
-        <v>123.75</v>
-      </c>
-      <c r="R27" s="20">
-        <v>127.51600000000001</v>
-      </c>
-      <c r="S27" s="20">
-        <v>119.84399999999999</v>
-      </c>
-      <c r="T27" s="20">
-        <v>121.01600000000001</v>
-      </c>
-      <c r="U27" s="20">
-        <v>122.5</v>
-      </c>
-      <c r="V27" s="20">
-        <v>125.093</v>
-      </c>
-      <c r="W27" s="20">
-        <v>125.188</v>
-      </c>
-      <c r="X27" s="20">
-        <v>121.126</v>
+      <c r="O27" s="22">
+        <v>124.93600000000001</v>
+      </c>
+      <c r="P27" s="22">
+        <v>127.718</v>
+      </c>
+      <c r="Q27" s="22">
+        <v>121.35899999999999</v>
+      </c>
+      <c r="R27" s="22">
+        <v>130.06299999999999</v>
+      </c>
+      <c r="S27" s="22">
+        <v>126.75</v>
+      </c>
+      <c r="T27" s="22">
+        <v>125.328</v>
+      </c>
+      <c r="U27" s="22">
+        <v>132.15700000000001</v>
+      </c>
+      <c r="V27" s="22">
+        <v>126.953</v>
+      </c>
+      <c r="W27" s="22">
+        <v>122.233</v>
+      </c>
+      <c r="X27" s="22">
+        <v>122.843</v>
       </c>
       <c r="AH27" s="21"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A43" s="19"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A44" s="19"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A45" s="19"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="19"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A46" s="19"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="19"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A47" s="19"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A48" s="19"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="19"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A49" s="19"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="19"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A50" s="19"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="19"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A51" s="19"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="19"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A52" s="19"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="19"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B75" s="27"/>
+      <c r="C75" s="27"/>
+      <c r="D75" s="27"/>
+      <c r="E75" s="27"/>
+      <c r="G75" s="27"/>
+      <c r="H75" s="27"/>
+      <c r="I75" s="27"/>
+      <c r="J75" s="27"/>
+      <c r="K75" s="27"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B76" s="27"/>
+      <c r="F76" s="27"/>
+      <c r="G76" s="27"/>
+      <c r="H76" s="27"/>
+      <c r="I76" s="27"/>
+      <c r="J76" s="27"/>
+      <c r="K76" s="27"/>
+    </row>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C80" s="27"/>
+      <c r="D80" s="27"/>
+      <c r="E80" s="27"/>
+      <c r="F80" s="27"/>
+      <c r="G80" s="27"/>
+      <c r="H80" s="27"/>
+      <c r="I80" s="27"/>
+      <c r="J80" s="27"/>
+      <c r="K80" s="27"/>
+      <c r="L80" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4364,7 +5564,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.45"/>
@@ -4377,39 +5577,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="38"/>
+      <c r="A1" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="40"/>
     </row>
     <row r="2" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" s="42" t="s">
+      <c r="B2" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="40" t="s">
-        <v>82</v>
+      <c r="E2" s="39"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="42" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="32"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="41"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="43"/>
       <c r="D3" s="3" t="s">
         <v>27</v>
       </c>
@@ -4419,16 +5619,16 @@
       <c r="F3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="34"/>
+      <c r="G3" s="36"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="25" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="17" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B5" s="4">
         <v>102</v>
@@ -4443,20 +5643,20 @@
       </c>
       <c r="E5" s="6">
         <f>AVERAGE(data!C5:L5) / data!B5 -1</f>
-        <v>9.3180487804875867E-3</v>
+        <v>3.8421951219513861E-3</v>
       </c>
       <c r="F5" s="6">
         <f>MAX(data!C5:L5) / data!B5 -1</f>
-        <v>2.8817073170731788E-2</v>
+        <v>2.9107317073170824E-2</v>
       </c>
       <c r="G5" s="7">
         <f>AVERAGE(data!O5:X5)</f>
-        <v>19.367299999999997</v>
+        <v>19.201299999999996</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="17" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B6" s="4">
         <v>151</v>
@@ -4467,24 +5667,24 @@
       </c>
       <c r="D6" s="6">
         <f>MIN(data!C6:L6) / data!B6 -1</f>
-        <v>5.2598331385853569E-3</v>
+        <v>5.731156083175426E-3</v>
       </c>
       <c r="E6" s="6">
         <f>AVERAGE(data!C6:L6) / data!B6 -1</f>
-        <v>2.8268902832192744E-2</v>
+        <v>2.7184860059635385E-2</v>
       </c>
       <c r="F6" s="6">
         <f>MAX(data!C6:L6) / data!B6 -1</f>
-        <v>5.022535128288208E-2</v>
+        <v>4.5610314117104034E-2</v>
       </c>
       <c r="G6" s="7">
         <f>AVERAGE(data!O6:X6)</f>
-        <v>48.985700000000001</v>
+        <v>49.2971</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="17" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B7" s="4">
         <v>201</v>
@@ -4495,24 +5695,24 @@
       </c>
       <c r="D7" s="6">
         <f>MIN(data!C7:L7) / data!B7 -1</f>
-        <v>-5.0456710964645102E-2</v>
+        <v>-5.5571873768671343E-2</v>
       </c>
       <c r="E7" s="6">
         <f>AVERAGE(data!C7:L7) / data!B7 -1</f>
-        <v>-3.9858867356807437E-2</v>
+        <v>-4.4449618512017786E-2</v>
       </c>
       <c r="F7" s="6">
         <f>MAX(data!C7:L7) / data!B7 -1</f>
-        <v>-3.0712469104846485E-2</v>
+        <v>-3.0146505713364524E-2</v>
       </c>
       <c r="G7" s="7">
         <f>AVERAGE(data!O7:X7)</f>
-        <v>82.870199999999983</v>
+        <v>81.337199999999996</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="17" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B8" s="4">
         <v>251</v>
@@ -4523,24 +5723,24 @@
       </c>
       <c r="D8" s="6">
         <f>MIN(data!C8:L8) / data!B8 -1</f>
-        <v>2.757470788956673E-2</v>
+        <v>2.7481646158618478E-2</v>
       </c>
       <c r="E8" s="6">
         <f>AVERAGE(data!C8:L8) / data!B8 -1</f>
-        <v>3.8614672732912858E-2</v>
+        <v>3.360665908385907E-2</v>
       </c>
       <c r="F8" s="6">
         <f>MAX(data!C8:L8) / data!B8 -1</f>
-        <v>4.4969496432633704E-2</v>
+        <v>4.3087581429014588E-2</v>
       </c>
       <c r="G8" s="7">
         <f>AVERAGE(data!O8:X8)</f>
-        <v>152.13270000000003</v>
+        <v>157.56260000000003</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="17" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B9" s="4">
         <v>303</v>
@@ -4551,29 +5751,29 @@
       </c>
       <c r="D9" s="6">
         <f>MIN(data!C9:L9) / data!B9 -1</f>
-        <v>3.6658078763341928E-2</v>
+        <v>3.4739602502760425E-2</v>
       </c>
       <c r="E9" s="6">
         <f>AVERAGE(data!C9:L9) / data!B9 -1</f>
-        <v>4.6678321678321533E-2</v>
+        <v>4.7407986750092057E-2</v>
       </c>
       <c r="F9" s="6">
         <f>MAX(data!C9:L9) / data!B9 -1</f>
-        <v>6.3659366948840557E-2</v>
+        <v>7.0864004416635984E-2</v>
       </c>
       <c r="G9" s="7">
         <f>AVERAGE(data!O9:X9)</f>
-        <v>212.92350000000002</v>
+        <v>220.3937</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="25" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="17" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B11" s="24">
         <v>101</v>
@@ -4588,20 +5788,20 @@
       </c>
       <c r="E11" s="6">
         <f>AVERAGE(data!C11:L11) / data!B11 -1</f>
-        <v>2.4213295742470109E-3</v>
+        <v>-3.3783167961898286E-4</v>
       </c>
       <c r="F11" s="6">
         <f>MAX(data!C11:L11) / data!B11 -1</f>
-        <v>4.8426591484940218E-3</v>
+        <v>3.8765577625334835E-3</v>
       </c>
       <c r="G11" s="7">
         <f>AVERAGE(data!O11:X11)</f>
-        <v>27.288900000000002</v>
+        <v>27.417000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="17" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B12" s="24">
         <v>101</v>
@@ -4612,24 +5812,24 @@
       </c>
       <c r="D12" s="6">
         <f>MIN(data!C12:L12) / data!B12 -1</f>
-        <v>-7.5456933653792468E-2</v>
+        <v>-7.6822344834194256E-2</v>
       </c>
       <c r="E12" s="6">
         <f>AVERAGE(data!C12:L12) / data!B12 -1</f>
-        <v>-5.8914697733097987E-2</v>
+        <v>-6.4841859833755122E-2</v>
       </c>
       <c r="F12" s="6">
         <f>MAX(data!C12:L12) / data!B12 -1</f>
-        <v>-2.9001014077309373E-2</v>
+        <v>-5.60617070035212E-2</v>
       </c>
       <c r="G12" s="7">
         <f>AVERAGE(data!O12:X12)</f>
-        <v>74.020200000000003</v>
+        <v>70.9452</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="17" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B13" s="24">
         <v>101</v>
@@ -4652,12 +5852,12 @@
       </c>
       <c r="G13" s="7">
         <f>AVERAGE(data!O13:X13)</f>
-        <v>38.648400000000002</v>
+        <v>38.2438</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="17" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B14" s="24">
         <v>101</v>
@@ -4672,7 +5872,7 @@
       </c>
       <c r="E14" s="6">
         <f>AVERAGE(data!C14:L14) / data!B14 -1</f>
-        <v>-1.3185475691401827E-5</v>
+        <v>-1.284738657114648E-5</v>
       </c>
       <c r="F14" s="6">
         <f>MAX(data!C14:L14) / data!B14 -1</f>
@@ -4680,12 +5880,12 @@
       </c>
       <c r="G14" s="7">
         <f>AVERAGE(data!O14:X14)</f>
-        <v>168.44720000000001</v>
+        <v>160.08709999999999</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="17" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B15" s="24">
         <v>101</v>
@@ -4696,24 +5896,24 @@
       </c>
       <c r="D15" s="6">
         <f>MIN(data!C15:L15) / data!B15 -1</f>
-        <v>-2.9117116692399359E-2</v>
+        <v>-3.0932148455455111E-2</v>
       </c>
       <c r="E15" s="6">
         <f>AVERAGE(data!C15:L15) / data!B15 -1</f>
-        <v>-2.0325998562117809E-2</v>
+        <v>-2.2928919113227586E-2</v>
       </c>
       <c r="F15" s="6">
         <f>MAX(data!C15:L15) / data!B15 -1</f>
-        <v>-1.308237179864935E-2</v>
+        <v>-1.7295838391457652E-2</v>
       </c>
       <c r="G15" s="7">
         <f>AVERAGE(data!O15:X15)</f>
-        <v>29.537500000000005</v>
+        <v>29.423299999999994</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="17" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B16" s="24">
         <v>101</v>
@@ -4724,24 +5924,24 @@
       </c>
       <c r="D16" s="6">
         <f>MIN(data!C16:L16) / data!B16 -1</f>
-        <v>-0.10017698360236271</v>
+        <v>-9.8769644113696042E-2</v>
       </c>
       <c r="E16" s="6">
         <f>AVERAGE(data!C16:L16) / data!B16 -1</f>
-        <v>-8.605952050948551E-2</v>
+        <v>-8.8268617040180186E-2</v>
       </c>
       <c r="F16" s="6">
         <f>MAX(data!C16:L16) / data!B16 -1</f>
-        <v>-7.8896304667675943E-2</v>
+        <v>-7.5491680349133894E-2</v>
       </c>
       <c r="G16" s="7">
         <f>AVERAGE(data!O16:X16)</f>
-        <v>67.203099999999992</v>
+        <v>62.045500000000004</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="25" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -4761,7 +5961,7 @@
       </c>
       <c r="E18" s="6">
         <f>AVERAGE(data!C18:L18) / data!B18 -1</f>
-        <v>9.8954245980364952E-4</v>
+        <v>9.8954245980342748E-4</v>
       </c>
       <c r="F18" s="6">
         <f>MAX(data!C18:L18) / data!B18 -1</f>
@@ -4769,7 +5969,7 @@
       </c>
       <c r="G18" s="7">
         <f>AVERAGE(data!O18:X18)</f>
-        <v>5.2687000000000008</v>
+        <v>5.5191999999999997</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
@@ -4789,15 +5989,15 @@
       </c>
       <c r="E19" s="6">
         <f>AVERAGE(data!C19:L19) / data!B19 -1</f>
-        <v>1.740247610773249E-2</v>
+        <v>1.2636837532580492E-2</v>
       </c>
       <c r="F19" s="6">
         <f>MAX(data!C19:L19) / data!B19 -1</f>
-        <v>3.4146394439617644E-2</v>
+        <v>2.7387054735013017E-2</v>
       </c>
       <c r="G19" s="7">
         <f>AVERAGE(data!O19:X19)</f>
-        <v>8.8266000000000009</v>
+        <v>9.1592999999999982</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
@@ -4817,15 +6017,15 @@
       </c>
       <c r="E20" s="6">
         <f>AVERAGE(data!C20:L20) / data!B20 -1</f>
-        <v>9.2530280509786067E-3</v>
+        <v>7.1427216090571566E-3</v>
       </c>
       <c r="F20" s="6">
         <f>MAX(data!C20:L20) / data!B20 -1</f>
-        <v>2.5895765472312648E-2</v>
+        <v>2.2339584453369588E-2</v>
       </c>
       <c r="G20" s="7">
         <f>AVERAGE(data!O20:X20)</f>
-        <v>10.672000000000001</v>
+        <v>11.2546</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
@@ -4845,15 +6045,15 @@
       </c>
       <c r="E21" s="6">
         <f>AVERAGE(data!C21:L21) / data!B21 -1</f>
-        <v>9.4963462619448435E-3</v>
+        <v>5.9255199550309889E-3</v>
       </c>
       <c r="F21" s="6">
         <f>MAX(data!C21:L21) / data!B21 -1</f>
-        <v>4.9600899381675001E-2</v>
+        <v>4.8206857785272561E-2</v>
       </c>
       <c r="G21" s="7">
         <f>AVERAGE(data!O21:X21)</f>
-        <v>20.665700000000001</v>
+        <v>21.558099999999996</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
@@ -4869,19 +6069,19 @@
       </c>
       <c r="D22" s="6">
         <f>MIN(data!C22:L22) / data!B22 -1</f>
-        <v>-1.7231857972674902E-3</v>
+        <v>-7.3887343532684779E-3</v>
       </c>
       <c r="E22" s="6">
         <f>AVERAGE(data!C22:L22) / data!B22 -1</f>
-        <v>3.2873476233330479E-3</v>
+        <v>1.8039761106110053E-3</v>
       </c>
       <c r="F22" s="6">
         <f>MAX(data!C22:L22) / data!B22 -1</f>
-        <v>8.160844309907489E-3</v>
+        <v>1.0886239057514624E-2</v>
       </c>
       <c r="G22" s="7">
         <f>AVERAGE(data!O22:X22)</f>
-        <v>24.176600000000001</v>
+        <v>25.584299999999999</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
@@ -4897,19 +6097,19 @@
       </c>
       <c r="D23" s="6">
         <f>MIN(data!C23:L23) / data!B23 -1</f>
-        <v>-1.7667066337142545E-3</v>
+        <v>3.18105072552477E-4</v>
       </c>
       <c r="E23" s="6">
         <f>AVERAGE(data!C23:L23) / data!B23 -1</f>
-        <v>2.2722490028628251E-3</v>
+        <v>9.2578363961142163E-3</v>
       </c>
       <c r="F23" s="6">
         <f>MAX(data!C23:L23) / data!B23 -1</f>
-        <v>4.9477573592384694E-3</v>
+        <v>3.1526659652042044E-2</v>
       </c>
       <c r="G23" s="7">
         <f>AVERAGE(data!O23:X23)</f>
-        <v>25.2486</v>
+        <v>26.670400000000001</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
@@ -4925,19 +6125,19 @@
       </c>
       <c r="D24" s="6">
         <f>MIN(data!C24:L24) / data!B24 -1</f>
-        <v>1.2235140586071891E-2</v>
+        <v>-1.6146636611698018E-3</v>
       </c>
       <c r="E24" s="6">
         <f>AVERAGE(data!C24:L24) / data!B24 -1</f>
-        <v>2.9148178906157174E-2</v>
+        <v>2.5309170720133167E-2</v>
       </c>
       <c r="F24" s="6">
         <f>MAX(data!C24:L24) / data!B24 -1</f>
-        <v>6.8334321983628099E-2</v>
+        <v>5.4084707557243039E-2</v>
       </c>
       <c r="G24" s="7">
         <f>AVERAGE(data!O24:X24)</f>
-        <v>26.847199999999997</v>
+        <v>27.4344</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
@@ -4953,19 +6153,19 @@
       </c>
       <c r="D25" s="6">
         <f>MIN(data!C25:L25) / data!B25 -1</f>
-        <v>-3.4360475124806111E-3</v>
+        <v>-1.7082113961094825E-2</v>
       </c>
       <c r="E25" s="6">
         <f>AVERAGE(data!C25:L25) / data!B25 -1</f>
-        <v>1.6628163195042234E-2</v>
+        <v>1.9028920640385527E-2</v>
       </c>
       <c r="F25" s="6">
         <f>MAX(data!C25:L25) / data!B25 -1</f>
-        <v>3.6880702358409234E-2</v>
+        <v>3.8025477707006372E-2</v>
       </c>
       <c r="G25" s="7">
         <f>AVERAGE(data!O25:X25)</f>
-        <v>45.218699999999998</v>
+        <v>45.533099999999997</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
@@ -4981,19 +6181,19 @@
       </c>
       <c r="D26" s="6">
         <f>MIN(data!C26:L26) / data!B26 -1</f>
-        <v>1.0667617928868944E-2</v>
+        <v>5.278141948618309E-3</v>
       </c>
       <c r="E26" s="6">
         <f>AVERAGE(data!C26:L26) / data!B26 -1</f>
-        <v>2.5163536059729763E-2</v>
+        <v>1.5552455369822082E-2</v>
       </c>
       <c r="F26" s="6">
         <f>MAX(data!C26:L26) / data!B26 -1</f>
-        <v>6.5668901678417324E-2</v>
+        <v>4.0786881670101582E-2</v>
       </c>
       <c r="G26" s="7">
         <f>AVERAGE(data!O26:X26)</f>
-        <v>59.858099999999993</v>
+        <v>62.023600000000002</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
@@ -5009,19 +6209,19 @@
       </c>
       <c r="D27" s="6">
         <f>MIN(data!C27:L27) / data!B27 -1</f>
-        <v>-6.4193469887807719E-4</v>
+        <v>1.2712824428762204E-3</v>
       </c>
       <c r="E27" s="6">
         <f>AVERAGE(data!C27:L27) / data!B27 -1</f>
-        <v>6.3683698215168949E-3</v>
+        <v>1.0382559515318412E-2</v>
       </c>
       <c r="F27" s="6">
         <f>MAX(data!C27:L27) / data!B27 -1</f>
-        <v>1.4047041646038094E-2</v>
+        <v>1.8582541054451118E-2</v>
       </c>
       <c r="G27" s="7">
         <f>AVERAGE(data!O27:X27)</f>
-        <v>123.33459999999999</v>
+        <v>126.03400000000002</v>
       </c>
     </row>
   </sheetData>

--- a/benchmarks.xlsx
+++ b/benchmarks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research\dev\LRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5F1F33-F12C-46AF-B772-43DA3196A4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9878FC54-0469-439F-A548-D9D893AC57B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="129">
   <si>
     <t>Instance</t>
   </si>
@@ -420,6 +420,12 @@
   </si>
   <si>
     <t>Note : Since none of the instance employed for benchmarking encompass multi-route vehicle operations, vehicle-related removal operators have not been deployed in benchmarking yet.</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>* Total cost does not account for vehicle fixed cost.</t>
   </si>
 </sst>
 </file>
@@ -706,7 +712,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -770,6 +776,9 @@
     </xf>
     <xf numFmtId="11" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1322,7 +1331,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="K22" s="28"/>
+      <c r="K22" s="29"/>
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1339,7 +1348,7 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="K23" s="29"/>
+      <c r="K23" s="30"/>
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3641,159 +3650,162 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16226786-0325-4223-91E5-2589AE0E8571}">
-  <dimension ref="A1:AH80"/>
+  <dimension ref="A1:AI46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.453125" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="13" width="8.7265625" style="17"/>
-    <col min="14" max="14" width="17.453125" style="17" bestFit="1" customWidth="1"/>
-    <col min="15" max="24" width="8.54296875" style="17" customWidth="1"/>
-    <col min="25" max="16384" width="8.7265625" style="17"/>
+    <col min="2" max="2" width="2.453125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="9" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="14" width="8.7265625" style="17"/>
+    <col min="15" max="15" width="19.26953125" style="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.7265625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:35" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="37" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="34"/>
-    </row>
-    <row r="2" spans="1:34" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="33" t="s">
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="35"/>
+    </row>
+    <row r="2" spans="1:35" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="34"/>
+      <c r="C2" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="D2" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
       <c r="L2" s="32"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="35" t="s">
+      <c r="M2" s="33"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="O2" s="30" t="s">
+      <c r="P2" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="31"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
       <c r="X2" s="32"/>
-    </row>
-    <row r="3" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="34"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="18">
+      <c r="Y2" s="33"/>
+    </row>
+    <row r="3" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="18">
         <v>1010</v>
       </c>
-      <c r="D3" s="18">
+      <c r="E3" s="18">
         <v>1106</v>
       </c>
-      <c r="E3" s="18">
+      <c r="F3" s="18">
         <v>1509</v>
       </c>
-      <c r="F3" s="18">
+      <c r="G3" s="18">
         <v>1604</v>
       </c>
-      <c r="G3" s="18">
+      <c r="H3" s="18">
         <v>1905</v>
       </c>
-      <c r="H3" s="18">
+      <c r="I3" s="18">
         <v>2104</v>
       </c>
-      <c r="I3" s="18">
+      <c r="J3" s="18">
         <v>2412</v>
       </c>
-      <c r="J3" s="18">
+      <c r="K3" s="18">
         <v>2703</v>
       </c>
-      <c r="K3" s="18">
+      <c r="L3" s="18">
         <v>2710</v>
       </c>
-      <c r="L3" s="18">
+      <c r="M3" s="18">
         <v>2807</v>
       </c>
-      <c r="M3" s="22"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="18">
+      <c r="N3" s="22"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="18">
         <v>1010</v>
       </c>
-      <c r="P3" s="18">
+      <c r="Q3" s="18">
         <v>1106</v>
       </c>
-      <c r="Q3" s="18">
+      <c r="R3" s="18">
         <v>1509</v>
       </c>
-      <c r="R3" s="18">
+      <c r="S3" s="18">
         <v>1604</v>
       </c>
-      <c r="S3" s="18">
+      <c r="T3" s="18">
         <v>1905</v>
       </c>
-      <c r="T3" s="18">
+      <c r="U3" s="18">
         <v>2104</v>
       </c>
-      <c r="U3" s="18">
+      <c r="V3" s="18">
         <v>2412</v>
       </c>
-      <c r="V3" s="18">
+      <c r="W3" s="18">
         <v>2703</v>
       </c>
-      <c r="W3" s="18">
+      <c r="X3" s="18">
         <v>2710</v>
       </c>
-      <c r="X3" s="18">
+      <c r="Y3" s="18">
         <v>2807</v>
       </c>
     </row>
-    <row r="4" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="22"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
       <c r="E4" s="22"/>
@@ -3805,10 +3817,10 @@
       <c r="K4" s="22"/>
       <c r="L4" s="22"/>
       <c r="M4" s="22"/>
-      <c r="N4" s="25" t="s">
+      <c r="N4" s="22"/>
+      <c r="O4" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="O4" s="22"/>
       <c r="P4" s="22"/>
       <c r="Q4" s="22"/>
       <c r="R4" s="22"/>
@@ -3818,22 +3830,20 @@
       <c r="V4" s="22"/>
       <c r="W4" s="22"/>
       <c r="X4" s="22"/>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="Y4" s="22"/>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="22">
+      <c r="C5" s="22">
         <v>820</v>
       </c>
-      <c r="C5" s="22">
+      <c r="D5" s="22">
         <v>819.55799999999999</v>
       </c>
-      <c r="D5" s="22">
+      <c r="E5" s="22">
         <v>824.77700000000004</v>
-      </c>
-      <c r="E5" s="22">
-        <v>819.55799999999999</v>
       </c>
       <c r="F5" s="22">
         <v>819.55799999999999</v>
@@ -3842,353 +3852,359 @@
         <v>819.55799999999999</v>
       </c>
       <c r="H5" s="22">
+        <v>819.55799999999999</v>
+      </c>
+      <c r="I5" s="22">
         <v>843.86800000000005</v>
-      </c>
-      <c r="I5" s="22">
-        <v>819.55799999999999</v>
       </c>
       <c r="J5" s="22">
         <v>819.55799999999999</v>
       </c>
       <c r="K5" s="22">
+        <v>819.55799999999999</v>
+      </c>
+      <c r="L5" s="22">
         <v>825.95500000000004</v>
       </c>
-      <c r="L5" s="22">
+      <c r="M5" s="22">
         <v>819.55799999999999</v>
       </c>
-      <c r="M5" s="22"/>
-      <c r="N5" s="17" t="s">
+      <c r="N5" s="22"/>
+      <c r="O5" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="O5" s="22">
+      <c r="P5" s="22">
         <v>19.5</v>
       </c>
-      <c r="P5" s="22">
+      <c r="Q5" s="22">
         <v>19.780999999999999</v>
       </c>
-      <c r="Q5" s="22">
+      <c r="R5" s="22">
         <v>19.343</v>
       </c>
-      <c r="R5" s="22">
+      <c r="S5" s="22">
         <v>19</v>
       </c>
-      <c r="S5" s="22">
+      <c r="T5" s="22">
         <v>19.047000000000001</v>
       </c>
-      <c r="T5" s="22">
+      <c r="U5" s="22">
         <v>18.920999999999999</v>
       </c>
-      <c r="U5" s="22">
+      <c r="V5" s="22">
         <v>19.094999999999999</v>
       </c>
-      <c r="V5" s="22">
+      <c r="W5" s="22">
         <v>19.045999999999999</v>
       </c>
-      <c r="W5" s="22">
+      <c r="X5" s="22">
         <v>19.218</v>
       </c>
-      <c r="X5" s="22">
+      <c r="Y5" s="22">
         <v>19.062000000000001</v>
       </c>
-      <c r="AH5" s="21"/>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI5" s="21"/>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="22">
+      <c r="C6" s="22">
         <v>3055.23</v>
       </c>
-      <c r="C6" s="22">
+      <c r="D6" s="22">
         <v>3177.49</v>
       </c>
-      <c r="D6" s="22">
+      <c r="E6" s="22">
         <v>3072.74</v>
       </c>
-      <c r="E6" s="22">
+      <c r="F6" s="22">
         <v>3194.58</v>
       </c>
-      <c r="F6" s="22">
+      <c r="G6" s="22">
         <v>3182.97</v>
       </c>
-      <c r="G6" s="22">
+      <c r="H6" s="22">
         <v>3075.17</v>
       </c>
-      <c r="H6" s="22">
+      <c r="I6" s="22">
         <v>3148.59</v>
       </c>
-      <c r="I6" s="22">
+      <c r="J6" s="22">
         <v>3075.16</v>
       </c>
-      <c r="J6" s="22">
+      <c r="K6" s="22">
         <v>3081.71</v>
       </c>
-      <c r="K6" s="22">
+      <c r="L6" s="22">
         <v>3182.16</v>
       </c>
-      <c r="L6" s="22">
+      <c r="M6" s="22">
         <v>3192.29</v>
       </c>
-      <c r="M6" s="22"/>
-      <c r="N6" s="17" t="s">
+      <c r="N6" s="22"/>
+      <c r="O6" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="O6" s="22">
+      <c r="P6" s="22">
         <v>49.063000000000002</v>
       </c>
-      <c r="P6" s="22">
+      <c r="Q6" s="22">
         <v>49.203000000000003</v>
       </c>
-      <c r="Q6" s="22">
+      <c r="R6" s="22">
         <v>49.642000000000003</v>
       </c>
-      <c r="R6" s="22">
+      <c r="S6" s="22">
         <v>49.188000000000002</v>
-      </c>
-      <c r="S6" s="22">
-        <v>49.61</v>
       </c>
       <c r="T6" s="22">
         <v>49.61</v>
       </c>
       <c r="U6" s="22">
+        <v>49.61</v>
+      </c>
+      <c r="V6" s="22">
         <v>49.25</v>
       </c>
-      <c r="V6" s="22">
+      <c r="W6" s="22">
         <v>49.203000000000003</v>
       </c>
-      <c r="W6" s="22">
+      <c r="X6" s="22">
         <v>49.170999999999999</v>
       </c>
-      <c r="X6" s="22">
+      <c r="Y6" s="22">
         <v>49.030999999999999</v>
       </c>
-      <c r="AH6" s="21"/>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI6" s="21"/>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="22">
         <v>1395.85</v>
       </c>
-      <c r="C7" s="22">
+      <c r="D7" s="22">
         <v>1353.77</v>
       </c>
-      <c r="D7" s="22">
+      <c r="E7" s="22">
         <v>1318.28</v>
       </c>
-      <c r="E7" s="22">
+      <c r="F7" s="22">
         <v>1353.08</v>
       </c>
-      <c r="F7" s="22">
+      <c r="G7" s="22">
         <v>1327.91</v>
       </c>
-      <c r="G7" s="22">
+      <c r="H7" s="22">
         <v>1321.65</v>
       </c>
-      <c r="H7" s="22">
+      <c r="I7" s="22">
         <v>1324.66</v>
       </c>
-      <c r="I7" s="22">
+      <c r="J7" s="22">
         <v>1343.64</v>
       </c>
-      <c r="J7" s="22">
+      <c r="K7" s="22">
         <v>1326.43</v>
       </c>
-      <c r="K7" s="22">
+      <c r="L7" s="22">
         <v>1327.24</v>
       </c>
-      <c r="L7" s="22">
+      <c r="M7" s="22">
         <v>1341.39</v>
       </c>
-      <c r="M7" s="19"/>
-      <c r="N7" s="17" t="s">
+      <c r="N7" s="19"/>
+      <c r="O7" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="O7" s="22">
+      <c r="P7" s="22">
         <v>81.61</v>
       </c>
-      <c r="P7" s="22">
+      <c r="Q7" s="22">
         <v>81.828000000000003</v>
       </c>
-      <c r="Q7" s="22">
+      <c r="R7" s="22">
         <v>80.89</v>
       </c>
-      <c r="R7" s="22">
+      <c r="S7" s="22">
         <v>81.031000000000006</v>
       </c>
-      <c r="S7" s="22">
+      <c r="T7" s="22">
         <v>81.046000000000006</v>
       </c>
-      <c r="T7" s="22">
+      <c r="U7" s="22">
         <v>81.843000000000004</v>
       </c>
-      <c r="U7" s="22">
+      <c r="V7" s="22">
         <v>81.626000000000005</v>
       </c>
-      <c r="V7" s="22">
+      <c r="W7" s="22">
         <v>80.858000000000004</v>
       </c>
-      <c r="W7" s="22">
+      <c r="X7" s="22">
         <v>81.015000000000001</v>
       </c>
-      <c r="X7" s="22">
+      <c r="Y7" s="22">
         <v>81.625</v>
       </c>
-      <c r="AH7" s="21"/>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI7" s="21"/>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="B8" s="22">
+      <c r="C8" s="22">
         <v>38684</v>
       </c>
-      <c r="C8" s="22">
+      <c r="D8" s="22">
         <v>39747.1</v>
       </c>
-      <c r="D8" s="22">
+      <c r="E8" s="22">
         <v>39985.4</v>
       </c>
-      <c r="E8" s="22">
+      <c r="F8" s="22">
         <v>39845.699999999997</v>
       </c>
-      <c r="F8" s="22">
+      <c r="G8" s="22">
         <v>39822.699999999997</v>
       </c>
-      <c r="G8" s="22">
+      <c r="H8" s="22">
         <v>40156.800000000003</v>
       </c>
-      <c r="H8" s="22">
+      <c r="I8" s="22">
         <v>39810.400000000001</v>
       </c>
-      <c r="I8" s="22">
+      <c r="J8" s="22">
         <v>40350.800000000003</v>
       </c>
-      <c r="J8" s="22">
+      <c r="K8" s="22">
         <v>39842.9</v>
       </c>
-      <c r="K8" s="22">
+      <c r="L8" s="22">
         <v>40022.800000000003</v>
       </c>
-      <c r="L8" s="22">
+      <c r="M8" s="22">
         <v>40255.800000000003</v>
       </c>
-      <c r="M8" s="19"/>
-      <c r="N8" s="17" t="s">
+      <c r="N8" s="19"/>
+      <c r="O8" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="O8" s="22">
+      <c r="P8" s="22">
         <v>156.06200000000001</v>
       </c>
-      <c r="P8" s="22">
+      <c r="Q8" s="22">
         <v>154.93799999999999</v>
       </c>
-      <c r="Q8" s="22">
+      <c r="R8" s="22">
         <v>156.29599999999999</v>
       </c>
-      <c r="R8" s="22">
+      <c r="S8" s="22">
         <v>162.32900000000001</v>
       </c>
-      <c r="S8" s="22">
+      <c r="T8" s="22">
         <v>155.28200000000001</v>
       </c>
-      <c r="T8" s="22">
+      <c r="U8" s="22">
         <v>155.96899999999999</v>
       </c>
-      <c r="U8" s="22">
+      <c r="V8" s="22">
         <v>161.26599999999999</v>
       </c>
-      <c r="V8" s="22">
+      <c r="W8" s="22">
         <v>155.047</v>
       </c>
-      <c r="W8" s="22">
+      <c r="X8" s="22">
         <v>161.26599999999999</v>
       </c>
-      <c r="X8" s="22">
+      <c r="Y8" s="22">
         <v>157.17099999999999</v>
       </c>
-      <c r="AH8" s="21"/>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI8" s="21"/>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="B9" s="22">
+      <c r="C9" s="22">
         <v>21736</v>
       </c>
-      <c r="C9" s="22">
+      <c r="D9" s="22">
         <v>22547.9</v>
       </c>
-      <c r="D9" s="22">
+      <c r="E9" s="22">
         <v>22491.1</v>
       </c>
-      <c r="E9" s="22">
+      <c r="F9" s="22">
         <v>23079.3</v>
       </c>
-      <c r="F9" s="22">
+      <c r="G9" s="22">
         <v>22620.3</v>
       </c>
-      <c r="G9" s="22">
+      <c r="H9" s="22">
         <v>22645.4</v>
       </c>
-      <c r="H9" s="22">
+      <c r="I9" s="22">
         <v>22742.6</v>
       </c>
-      <c r="I9" s="22">
+      <c r="J9" s="22">
         <v>23014.6</v>
       </c>
-      <c r="J9" s="22">
+      <c r="K9" s="22">
         <v>23276.3</v>
       </c>
-      <c r="K9" s="22">
+      <c r="L9" s="22">
         <v>22742.400000000001</v>
       </c>
-      <c r="L9" s="22">
+      <c r="M9" s="22">
         <v>22504.7</v>
       </c>
-      <c r="M9" s="19"/>
-      <c r="N9" s="17" t="s">
+      <c r="N9" s="19"/>
+      <c r="O9" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="O9" s="22">
+      <c r="P9" s="22">
         <v>219.93799999999999</v>
       </c>
-      <c r="P9" s="22">
+      <c r="Q9" s="22">
         <v>219.89<